--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.170668</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.164843</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.165379</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.150997</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.152331</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.149768</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.152588</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.154628</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.221009</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.212625</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.195441</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.194947</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.186434</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.178351</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.173591</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.168205</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.16688</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.159624</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.158982</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.157925</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157835</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.235187</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.234979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.222812</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.212721</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.204469</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.19605</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.192526</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.179359</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.173725</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.172037</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.170274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.163399</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.165498</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.243844</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.23535</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.226636</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217798</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.210594</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.203038</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.200194</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.194085</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.189659</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.184056</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.179376</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.176819</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.175946</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.176716</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.179499</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.246194</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.236625</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.228535</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.220311</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.212764</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205025</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.198959</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.193449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.188205</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.182403</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.179269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177012</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177729</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.180358</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.244029</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236519</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228133</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.220467</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.212274</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.205977</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.199758</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.19413</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.188413</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.184215</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181004</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.178894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.17897</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.180581</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.256846</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.250364</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.24198</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.233548</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.227319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.219364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.207721</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.201258</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.19653</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.192528</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.189688</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.188619</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.189627</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.270145</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.264648</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.257315</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.250563</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.24473</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.238846</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.232631</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.227556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.222112</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.217608</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.213903</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.21037</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.208235</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.208631</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.210884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.284085</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.277325</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.271154</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.265253</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.259777</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.254644</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.250128</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.245359</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.241561</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.23764</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.234284</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.231834</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.231043</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.232245</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.315814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.310851</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306028</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.299753</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.294531</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.289946</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.285871</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.28194</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.278146</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275044</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.27231</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270276</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.26913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.270188</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.360478</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.354977</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.350567</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.345151</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.34072</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.335998</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.136461</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.143885</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.138416</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.131866</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.128733</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.125371</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.119173</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.119054</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.199755</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.194893</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.186611</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.180929</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.171719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.164359</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.159604</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.156142</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.148751</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.145812</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.141893</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.140321</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.138166</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.138866</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.22216</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.214043</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.202789</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.194749</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.188153</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.180718</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.174444</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.168821</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.162937</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.157914</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.153826</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.150082</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.147894</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.146972</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.223466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.214588</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.206551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.198601</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.191216</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.18396</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.180497</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.174746</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.168726</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.16349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.159218</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.155587</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.151411</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.223567</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.215128</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.206602</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.199106</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.191861</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.184943</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.178332</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.172886</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.167693</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.160526</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.156473</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.15361</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.151918</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.152658</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.228151</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.219456</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.21135</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.203187</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.195914</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.188766</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.182265</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.176143</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.170713</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.165631</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.161469</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.158217</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.156204</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.156222</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.230333</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.222566</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.214771</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.207566</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.200837</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.19364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.188096</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.181911</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.176008</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.171451</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.166593</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.163878</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.160923</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.160238</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.248401</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.240463</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.232944</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.225805</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.22678</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.212444</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.206497</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.201607</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.195129</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.189518</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.186515</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.18283</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.18042</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.179433</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.181014</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.260856</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.252951</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.245756</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.239063</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.232542</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.226357</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.221257</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.217762</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.212853</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.208819</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.20483</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.201751</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.200686</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.200643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.284238</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.278287</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.268032</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.262246</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.2563</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.25157</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.247088</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.242605</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.238676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.235063</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.231818</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.229352</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.227891</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.22831</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.321523</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.315351</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.309742</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.304011</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.29869</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.29374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.134178</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131948</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.136503</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.127659</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.126491</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.127377</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.120481</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.189804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.193076</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.185771</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.175595</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.170808</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.163676</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.15658</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.15111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.147927</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.144277</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.141029</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.138444</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.136899</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138731</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.22524</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217581</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.205227</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.196362</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.189144</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.18136</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.175284</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.170321</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162701</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.159519</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.153345</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.150314</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149603</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148604</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.230138</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.221941</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.212902</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.202745</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.197872</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.189578</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.181192</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.178348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.172191</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.16614</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.161458</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.158505</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.156259</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.155863</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.240125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.228307</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.222098</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.213257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204699</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.197271</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189954</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182964</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.176915</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.172102</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.167281</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.161153</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158454</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.157323</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158629</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235154</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.225864</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.218407</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209007</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201152</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.19372</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.186741</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.180491</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.174783</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.169469</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.165683</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.162247</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.160468</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.161441</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.238856</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.22991</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.220936</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.213054</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.205347</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.198292</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.191445</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.184661</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.17408</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.16936</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.166191</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.164353</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.164271</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.254673</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.247489</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.238121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.230923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.223773</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.215514</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.211001</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.20299</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.197244</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.191961</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.18761</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.184086</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.180878</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.180431</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27151</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.265086</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.257155</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.249492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.241637</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.233598</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.228107</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.221879</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.218226</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.213206</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.207735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.203661</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.200217</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.199303</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.199921</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.28659</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.280042</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.274273</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.264434</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.258887</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.253968</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.248195</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.244422</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.240173</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.236482</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.23349</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.230364</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.229418</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.229508</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.325813</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.320407</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.314921</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.309403</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.304799</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.300275</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.29509</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250223</v>
+        <v>0.250392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201792</v>
+        <v>0.196715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.194464</v>
+        <v>0.187876</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.244982</v>
+        <v>0.245207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195101</v>
+        <v>0.190891</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18812</v>
+        <v>0.182617</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239864</v>
+        <v>0.240037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.190159</v>
+        <v>0.186238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.183827</v>
+        <v>0.178049</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235713</v>
+        <v>0.236014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.186824</v>
+        <v>0.181409</v>
       </c>
       <c r="D5" t="n">
-        <v>0.179555</v>
+        <v>0.174491</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231775</v>
+        <v>0.231167</v>
       </c>
       <c r="C6" t="n">
-        <v>0.182465</v>
+        <v>0.177904</v>
       </c>
       <c r="D6" t="n">
-        <v>0.175814</v>
+        <v>0.171169</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.229161</v>
+        <v>0.228848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.180153</v>
+        <v>0.175585</v>
       </c>
       <c r="D7" t="n">
-        <v>0.174911</v>
+        <v>0.170146</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227675</v>
+        <v>0.227621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.179507</v>
+        <v>0.176557</v>
       </c>
       <c r="D8" t="n">
-        <v>0.176167</v>
+        <v>0.171076</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228199</v>
+        <v>0.227939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.181833</v>
+        <v>0.266812</v>
       </c>
       <c r="D9" t="n">
-        <v>0.265627</v>
+        <v>0.257985</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.319032</v>
+        <v>0.314992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.268805</v>
+        <v>0.257536</v>
       </c>
       <c r="D10" t="n">
-        <v>0.256687</v>
+        <v>0.249149</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.30955</v>
+        <v>0.306057</v>
       </c>
       <c r="C11" t="n">
-        <v>0.260523</v>
+        <v>0.249422</v>
       </c>
       <c r="D11" t="n">
-        <v>0.247487</v>
+        <v>0.24075</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.299875</v>
+        <v>0.297288</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252067</v>
+        <v>0.240546</v>
       </c>
       <c r="D12" t="n">
-        <v>0.239787</v>
+        <v>0.233187</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.293925</v>
+        <v>0.289525</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243774</v>
+        <v>0.233519</v>
       </c>
       <c r="D13" t="n">
-        <v>0.232201</v>
+        <v>0.225827</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.286545</v>
+        <v>0.281513</v>
       </c>
       <c r="C14" t="n">
-        <v>0.235965</v>
+        <v>0.226556</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224829</v>
+        <v>0.218706</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.279761</v>
+        <v>0.274083</v>
       </c>
       <c r="C15" t="n">
-        <v>0.228822</v>
+        <v>0.220269</v>
       </c>
       <c r="D15" t="n">
-        <v>0.217744</v>
+        <v>0.212392</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.273306</v>
+        <v>0.266932</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222141</v>
+        <v>0.212034</v>
       </c>
       <c r="D16" t="n">
-        <v>0.211303</v>
+        <v>0.206785</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.266933</v>
+        <v>0.260475</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215445</v>
+        <v>0.208193</v>
       </c>
       <c r="D17" t="n">
-        <v>0.206055</v>
+        <v>0.201529</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.260882</v>
+        <v>0.254657</v>
       </c>
       <c r="C18" t="n">
-        <v>0.210413</v>
+        <v>0.202631</v>
       </c>
       <c r="D18" t="n">
-        <v>0.200887</v>
+        <v>0.19627</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.25518</v>
+        <v>0.249533</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205463</v>
+        <v>0.19918</v>
       </c>
       <c r="D19" t="n">
-        <v>0.196986</v>
+        <v>0.19296</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.250156</v>
+        <v>0.244991</v>
       </c>
       <c r="C20" t="n">
-        <v>0.20141</v>
+        <v>0.197336</v>
       </c>
       <c r="D20" t="n">
-        <v>0.194212</v>
+        <v>0.189778</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.246444</v>
+        <v>0.241076</v>
       </c>
       <c r="C21" t="n">
-        <v>0.198639</v>
+        <v>0.195448</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192838</v>
+        <v>0.18847</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.243542</v>
+        <v>0.2387</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198108</v>
+        <v>0.19805</v>
       </c>
       <c r="D22" t="n">
-        <v>0.194292</v>
+        <v>0.189617</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.24284</v>
+        <v>0.238118</v>
       </c>
       <c r="C23" t="n">
-        <v>0.198907</v>
+        <v>0.287839</v>
       </c>
       <c r="D23" t="n">
-        <v>0.282086</v>
+        <v>0.272973</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.335592</v>
+        <v>0.324417</v>
       </c>
       <c r="C24" t="n">
-        <v>0.285399</v>
+        <v>0.275413</v>
       </c>
       <c r="D24" t="n">
-        <v>0.272623</v>
+        <v>0.26425</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.326948</v>
+        <v>0.315621</v>
       </c>
       <c r="C25" t="n">
-        <v>0.275809</v>
+        <v>0.267469</v>
       </c>
       <c r="D25" t="n">
-        <v>0.263718</v>
+        <v>0.255417</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.317069</v>
+        <v>0.306748</v>
       </c>
       <c r="C26" t="n">
-        <v>0.266765</v>
+        <v>0.259296</v>
       </c>
       <c r="D26" t="n">
-        <v>0.255045</v>
+        <v>0.247387</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.308048</v>
+        <v>0.298067</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258713</v>
+        <v>0.250146</v>
       </c>
       <c r="D27" t="n">
-        <v>0.246912</v>
+        <v>0.239879</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.302885</v>
+        <v>0.289816</v>
       </c>
       <c r="C28" t="n">
-        <v>0.250972</v>
+        <v>0.241418</v>
       </c>
       <c r="D28" t="n">
-        <v>0.239496</v>
+        <v>0.232617</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.29155</v>
+        <v>0.282397</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243211</v>
+        <v>0.234835</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232372</v>
+        <v>0.225943</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.285052</v>
+        <v>0.274918</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235944</v>
+        <v>0.22741</v>
       </c>
       <c r="D30" t="n">
-        <v>0.225714</v>
+        <v>0.219349</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.278769</v>
+        <v>0.26866</v>
       </c>
       <c r="C31" t="n">
-        <v>0.229557</v>
+        <v>0.222453</v>
       </c>
       <c r="D31" t="n">
-        <v>0.21963</v>
+        <v>0.213534</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.270176</v>
+        <v>0.262213</v>
       </c>
       <c r="C32" t="n">
-        <v>0.223356</v>
+        <v>0.215924</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213787</v>
+        <v>0.208477</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.264181</v>
+        <v>0.256736</v>
       </c>
       <c r="C33" t="n">
-        <v>0.217598</v>
+        <v>0.211622</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208953</v>
+        <v>0.20411</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.259607</v>
+        <v>0.251796</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212531</v>
+        <v>0.207482</v>
       </c>
       <c r="D34" t="n">
-        <v>0.205118</v>
+        <v>0.200894</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.254354</v>
+        <v>0.247906</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208604</v>
+        <v>0.205972</v>
       </c>
       <c r="D35" t="n">
-        <v>0.202482</v>
+        <v>0.198933</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.251151</v>
+        <v>0.244321</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205759</v>
+        <v>0.204411</v>
       </c>
       <c r="D36" t="n">
-        <v>0.201928</v>
+        <v>0.198769</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.250309</v>
+        <v>0.243159</v>
       </c>
       <c r="C37" t="n">
-        <v>0.205164</v>
+        <v>0.297189</v>
       </c>
       <c r="D37" t="n">
-        <v>0.291197</v>
+        <v>0.283987</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.334204</v>
+        <v>0.327412</v>
       </c>
       <c r="C38" t="n">
-        <v>0.293181</v>
+        <v>0.288538</v>
       </c>
       <c r="D38" t="n">
-        <v>0.281878</v>
+        <v>0.27536</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.32481</v>
+        <v>0.318596</v>
       </c>
       <c r="C39" t="n">
-        <v>0.284273</v>
+        <v>0.277563</v>
       </c>
       <c r="D39" t="n">
-        <v>0.272927</v>
+        <v>0.266569</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.316549</v>
+        <v>0.310544</v>
       </c>
       <c r="C40" t="n">
-        <v>0.275545</v>
+        <v>0.26906</v>
       </c>
       <c r="D40" t="n">
-        <v>0.264497</v>
+        <v>0.258114</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.308569</v>
+        <v>0.30209</v>
       </c>
       <c r="C41" t="n">
-        <v>0.267181</v>
+        <v>0.261701</v>
       </c>
       <c r="D41" t="n">
-        <v>0.256465</v>
+        <v>0.250348</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.301842</v>
+        <v>0.294532</v>
       </c>
       <c r="C42" t="n">
-        <v>0.259335</v>
+        <v>0.253653</v>
       </c>
       <c r="D42" t="n">
-        <v>0.248868</v>
+        <v>0.242778</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.29313</v>
+        <v>0.287197</v>
       </c>
       <c r="C43" t="n">
-        <v>0.251767</v>
+        <v>0.245705</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241669</v>
+        <v>0.235767</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.284854</v>
+        <v>0.279681</v>
       </c>
       <c r="C44" t="n">
-        <v>0.244807</v>
+        <v>0.239398</v>
       </c>
       <c r="D44" t="n">
-        <v>0.235016</v>
+        <v>0.229348</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.279259</v>
+        <v>0.273353</v>
       </c>
       <c r="C45" t="n">
-        <v>0.238237</v>
+        <v>0.23211</v>
       </c>
       <c r="D45" t="n">
-        <v>0.228819</v>
+        <v>0.223439</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.272939</v>
+        <v>0.267318</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232009</v>
+        <v>0.22773</v>
       </c>
       <c r="D46" t="n">
-        <v>0.223286</v>
+        <v>0.217983</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.266701</v>
+        <v>0.261791</v>
       </c>
       <c r="C47" t="n">
-        <v>0.226735</v>
+        <v>0.221454</v>
       </c>
       <c r="D47" t="n">
-        <v>0.218358</v>
+        <v>0.213256</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.262902</v>
+        <v>0.257199</v>
       </c>
       <c r="C48" t="n">
-        <v>0.221789</v>
+        <v>0.21726</v>
       </c>
       <c r="D48" t="n">
-        <v>0.214201</v>
+        <v>0.209444</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.258344</v>
+        <v>0.253785</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217793</v>
+        <v>0.213215</v>
       </c>
       <c r="D49" t="n">
-        <v>0.211443</v>
+        <v>0.206575</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.255399</v>
+        <v>0.250499</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214725</v>
+        <v>0.212227</v>
       </c>
       <c r="D50" t="n">
-        <v>0.210074</v>
+        <v>0.205638</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.251781</v>
+        <v>0.248201</v>
       </c>
       <c r="C51" t="n">
-        <v>0.213423</v>
+        <v>0.307442</v>
       </c>
       <c r="D51" t="n">
-        <v>0.302623</v>
+        <v>0.293714</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.252331</v>
+        <v>0.248849</v>
       </c>
       <c r="C52" t="n">
-        <v>0.214391</v>
+        <v>0.297039</v>
       </c>
       <c r="D52" t="n">
-        <v>0.29318</v>
+        <v>0.28474</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.334022</v>
+        <v>0.329911</v>
       </c>
       <c r="C53" t="n">
-        <v>0.29558</v>
+        <v>0.288204</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284311</v>
+        <v>0.276096</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.325771</v>
+        <v>0.321412</v>
       </c>
       <c r="C54" t="n">
-        <v>0.286894</v>
+        <v>0.27927</v>
       </c>
       <c r="D54" t="n">
-        <v>0.275783</v>
+        <v>0.267878</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318052</v>
+        <v>0.313433</v>
       </c>
       <c r="C55" t="n">
-        <v>0.27861</v>
+        <v>0.270826</v>
       </c>
       <c r="D55" t="n">
-        <v>0.267649</v>
+        <v>0.260205</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.310347</v>
+        <v>0.305918</v>
       </c>
       <c r="C56" t="n">
-        <v>0.270865</v>
+        <v>0.263012</v>
       </c>
       <c r="D56" t="n">
-        <v>0.260058</v>
+        <v>0.252885</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.303777</v>
+        <v>0.298824</v>
       </c>
       <c r="C57" t="n">
-        <v>0.263463</v>
+        <v>0.25586</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252812</v>
+        <v>0.246008</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.296594</v>
+        <v>0.292218</v>
       </c>
       <c r="C58" t="n">
-        <v>0.256304</v>
+        <v>0.248889</v>
       </c>
       <c r="D58" t="n">
-        <v>0.246034</v>
+        <v>0.239459</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.290279</v>
+        <v>0.286029</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249648</v>
+        <v>0.242588</v>
       </c>
       <c r="D59" t="n">
-        <v>0.239774</v>
+        <v>0.233581</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.284594</v>
+        <v>0.280243</v>
       </c>
       <c r="C60" t="n">
-        <v>0.243521</v>
+        <v>0.236698</v>
       </c>
       <c r="D60" t="n">
-        <v>0.234185</v>
+        <v>0.228177</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.279338</v>
+        <v>0.275334</v>
       </c>
       <c r="C61" t="n">
-        <v>0.238016</v>
+        <v>0.231656</v>
       </c>
       <c r="D61" t="n">
-        <v>0.229135</v>
+        <v>0.223538</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275204</v>
+        <v>0.27005</v>
       </c>
       <c r="C62" t="n">
-        <v>0.233029</v>
+        <v>0.227133</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224878</v>
+        <v>0.219532</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.270486</v>
+        <v>0.266464</v>
       </c>
       <c r="C63" t="n">
-        <v>0.228541</v>
+        <v>0.223845</v>
       </c>
       <c r="D63" t="n">
-        <v>0.221568</v>
+        <v>0.216617</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.267123</v>
+        <v>0.263408</v>
       </c>
       <c r="C64" t="n">
-        <v>0.225105</v>
+        <v>0.222525</v>
       </c>
       <c r="D64" t="n">
-        <v>0.219896</v>
+        <v>0.215203</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.265357</v>
+        <v>0.261984</v>
       </c>
       <c r="C65" t="n">
-        <v>0.223203</v>
+        <v>0.222592</v>
       </c>
       <c r="D65" t="n">
-        <v>0.220559</v>
+        <v>0.216058</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.265852</v>
+        <v>0.26204</v>
       </c>
       <c r="C66" t="n">
-        <v>0.224209</v>
+        <v>0.327148</v>
       </c>
       <c r="D66" t="n">
-        <v>0.327158</v>
+        <v>0.318892</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.387947</v>
+        <v>0.387792</v>
       </c>
       <c r="C67" t="n">
-        <v>0.331709</v>
+        <v>0.317545</v>
       </c>
       <c r="D67" t="n">
-        <v>0.31695</v>
+        <v>0.309861</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.380019</v>
+        <v>0.379596</v>
       </c>
       <c r="C68" t="n">
-        <v>0.322305</v>
+        <v>0.308632</v>
       </c>
       <c r="D68" t="n">
-        <v>0.307737</v>
+        <v>0.301265</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.372861</v>
+        <v>0.372319</v>
       </c>
       <c r="C69" t="n">
-        <v>0.313622</v>
+        <v>0.299786</v>
       </c>
       <c r="D69" t="n">
-        <v>0.299209</v>
+        <v>0.292923</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.366365</v>
+        <v>0.365722</v>
       </c>
       <c r="C70" t="n">
-        <v>0.30497</v>
+        <v>0.291869</v>
       </c>
       <c r="D70" t="n">
-        <v>0.290726</v>
+        <v>0.285001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.359706</v>
+        <v>0.358949</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296984</v>
+        <v>0.284102</v>
       </c>
       <c r="D71" t="n">
-        <v>0.28316</v>
+        <v>0.277809</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.353244</v>
+        <v>0.35283</v>
       </c>
       <c r="C72" t="n">
-        <v>0.289257</v>
+        <v>0.27706</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2759</v>
+        <v>0.270979</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.34707</v>
+        <v>0.346811</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282161</v>
+        <v>0.27013</v>
       </c>
       <c r="D73" t="n">
-        <v>0.269215</v>
+        <v>0.264644</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.341142</v>
+        <v>0.341245</v>
       </c>
       <c r="C74" t="n">
-        <v>0.275265</v>
+        <v>0.264033</v>
       </c>
       <c r="D74" t="n">
-        <v>0.262623</v>
+        <v>0.258385</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.335265</v>
+        <v>0.335231</v>
       </c>
       <c r="C75" t="n">
-        <v>0.268765</v>
+        <v>0.257885</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257033</v>
+        <v>0.252796</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.329919</v>
+        <v>0.329987</v>
       </c>
       <c r="C76" t="n">
-        <v>0.262948</v>
+        <v>0.253276</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252138</v>
+        <v>0.248327</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.324737</v>
+        <v>0.325069</v>
       </c>
       <c r="C77" t="n">
-        <v>0.257804</v>
+        <v>0.249367</v>
       </c>
       <c r="D77" t="n">
-        <v>0.248073</v>
+        <v>0.244911</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.320422</v>
+        <v>0.320554</v>
       </c>
       <c r="C78" t="n">
-        <v>0.253853</v>
+        <v>0.246955</v>
       </c>
       <c r="D78" t="n">
-        <v>0.245592</v>
+        <v>0.242745</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.317279</v>
+        <v>0.317041</v>
       </c>
       <c r="C79" t="n">
-        <v>0.251383</v>
+        <v>0.246588</v>
       </c>
       <c r="D79" t="n">
-        <v>0.245181</v>
+        <v>0.242773</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.315685</v>
+        <v>0.315563</v>
       </c>
       <c r="C80" t="n">
-        <v>0.250859</v>
+        <v>0.509392</v>
       </c>
       <c r="D80" t="n">
-        <v>0.377001</v>
+        <v>0.406457</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.552602</v>
+        <v>0.551574</v>
       </c>
       <c r="C81" t="n">
-        <v>0.395842</v>
+        <v>0.368177</v>
       </c>
       <c r="D81" t="n">
-        <v>0.369242</v>
+        <v>0.399847</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.545712</v>
+        <v>0.545021</v>
       </c>
       <c r="C82" t="n">
-        <v>0.388749</v>
+        <v>0.358226</v>
       </c>
       <c r="D82" t="n">
-        <v>0.360511</v>
+        <v>0.390927</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.537782</v>
+        <v>0.535962</v>
       </c>
       <c r="C83" t="n">
-        <v>0.380401</v>
+        <v>0.348582</v>
       </c>
       <c r="D83" t="n">
-        <v>0.351492</v>
+        <v>0.375455</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.528175</v>
+        <v>0.526945</v>
       </c>
       <c r="C84" t="n">
-        <v>0.370256</v>
+        <v>0.34196</v>
       </c>
       <c r="D84" t="n">
-        <v>0.342274</v>
+        <v>0.370129</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5187619999999999</v>
+        <v>0.519336</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3618</v>
+        <v>0.330544</v>
       </c>
       <c r="D85" t="n">
-        <v>0.334613</v>
+        <v>0.357897</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.509233</v>
+        <v>0.510055</v>
       </c>
       <c r="C86" t="n">
-        <v>0.352748</v>
+        <v>0.321363</v>
       </c>
       <c r="D86" t="n">
-        <v>0.325812</v>
+        <v>0.3488</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.499603</v>
+        <v>0.500576</v>
       </c>
       <c r="C87" t="n">
-        <v>0.34386</v>
+        <v>0.317785</v>
       </c>
       <c r="D87" t="n">
-        <v>0.318951</v>
+        <v>0.342399</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.490287</v>
+        <v>0.491279</v>
       </c>
       <c r="C88" t="n">
-        <v>0.33695</v>
+        <v>0.311784</v>
       </c>
       <c r="D88" t="n">
-        <v>0.311939</v>
+        <v>0.33452</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.480598</v>
+        <v>0.482061</v>
       </c>
       <c r="C89" t="n">
-        <v>0.329068</v>
+        <v>0.299031</v>
       </c>
       <c r="D89" t="n">
-        <v>0.305732</v>
+        <v>0.321618</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.472091</v>
+        <v>0.473284</v>
       </c>
       <c r="C90" t="n">
-        <v>0.32283</v>
+        <v>0.299367</v>
       </c>
       <c r="D90" t="n">
-        <v>0.299756</v>
+        <v>0.321127</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.463786</v>
+        <v>0.466322</v>
       </c>
       <c r="C91" t="n">
-        <v>0.317254</v>
+        <v>0.287676</v>
       </c>
       <c r="D91" t="n">
-        <v>0.294836</v>
+        <v>0.310326</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.456281</v>
+        <v>0.458744</v>
       </c>
       <c r="C92" t="n">
-        <v>0.312148</v>
+        <v>0.283622</v>
       </c>
       <c r="D92" t="n">
-        <v>0.291947</v>
+        <v>0.304855</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.449586</v>
+        <v>0.452376</v>
       </c>
       <c r="C93" t="n">
-        <v>0.307243</v>
+        <v>0.288505</v>
       </c>
       <c r="D93" t="n">
-        <v>0.288792</v>
+        <v>0.30741</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.444178</v>
+        <v>0.446839</v>
       </c>
       <c r="C94" t="n">
-        <v>0.305574</v>
+        <v>0.473968</v>
       </c>
       <c r="D94" t="n">
-        <v>0.549575</v>
+        <v>0.561818</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5743239999999999</v>
+        <v>0.582534</v>
       </c>
       <c r="C95" t="n">
-        <v>0.526618</v>
+        <v>0.473909</v>
       </c>
       <c r="D95" t="n">
-        <v>0.539382</v>
+        <v>0.55078</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.568639</v>
+        <v>0.580163</v>
       </c>
       <c r="C96" t="n">
-        <v>0.519761</v>
+        <v>0.46371</v>
       </c>
       <c r="D96" t="n">
-        <v>0.524273</v>
+        <v>0.535642</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.561661</v>
+        <v>0.572258</v>
       </c>
       <c r="C97" t="n">
-        <v>0.506979</v>
+        <v>0.450985</v>
       </c>
       <c r="D97" t="n">
-        <v>0.510169</v>
+        <v>0.5188469999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.554417</v>
+        <v>0.562046</v>
       </c>
       <c r="C98" t="n">
-        <v>0.495135</v>
+        <v>0.439054</v>
       </c>
       <c r="D98" t="n">
-        <v>0.496128</v>
+        <v>0.503858</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.543636</v>
+        <v>0.5527339999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.480881</v>
+        <v>0.428151</v>
       </c>
       <c r="D99" t="n">
-        <v>0.481889</v>
+        <v>0.482643</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.535714</v>
+        <v>0.545933</v>
       </c>
       <c r="C100" t="n">
-        <v>0.468932</v>
+        <v>0.41697</v>
       </c>
       <c r="D100" t="n">
-        <v>0.467476</v>
+        <v>0.468109</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.528126</v>
+        <v>0.53721</v>
       </c>
       <c r="C101" t="n">
-        <v>0.457595</v>
+        <v>0.407423</v>
       </c>
       <c r="D101" t="n">
-        <v>0.455751</v>
+        <v>0.4642</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.521774</v>
+        <v>0.528925</v>
       </c>
       <c r="C102" t="n">
-        <v>0.447047</v>
+        <v>0.397589</v>
       </c>
       <c r="D102" t="n">
-        <v>0.443848</v>
+        <v>0.452356</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.513386</v>
+        <v>0.522075</v>
       </c>
       <c r="C103" t="n">
-        <v>0.435498</v>
+        <v>0.386929</v>
       </c>
       <c r="D103" t="n">
-        <v>0.433246</v>
+        <v>0.441515</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5072179999999999</v>
+        <v>0.516974</v>
       </c>
       <c r="C104" t="n">
-        <v>0.42658</v>
+        <v>0.382315</v>
       </c>
       <c r="D104" t="n">
-        <v>0.423093</v>
+        <v>0.432011</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.501946</v>
+        <v>0.510803</v>
       </c>
       <c r="C105" t="n">
-        <v>0.41874</v>
+        <v>0.375481</v>
       </c>
       <c r="D105" t="n">
-        <v>0.415885</v>
+        <v>0.413113</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.495846</v>
+        <v>0.505077</v>
       </c>
       <c r="C106" t="n">
-        <v>0.410241</v>
+        <v>0.3656</v>
       </c>
       <c r="D106" t="n">
-        <v>0.406732</v>
+        <v>0.416164</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.491615</v>
+        <v>0.501704</v>
       </c>
       <c r="C107" t="n">
-        <v>0.404186</v>
+        <v>0.361336</v>
       </c>
       <c r="D107" t="n">
-        <v>0.40177</v>
+        <v>0.410381</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.487927</v>
+        <v>0.497005</v>
       </c>
       <c r="C108" t="n">
-        <v>0.399845</v>
+        <v>0.560651</v>
       </c>
       <c r="D108" t="n">
-        <v>0.597526</v>
+        <v>0.584653</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.486536</v>
+        <v>0.496957</v>
       </c>
       <c r="C109" t="n">
-        <v>0.397537</v>
+        <v>0.553874</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5883350000000001</v>
+        <v>0.577083</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.684883</v>
+        <v>0.688536</v>
       </c>
       <c r="C110" t="n">
-        <v>0.614386</v>
+        <v>0.541077</v>
       </c>
       <c r="D110" t="n">
-        <v>0.573906</v>
+        <v>0.563709</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.673473</v>
+        <v>0.678335</v>
       </c>
       <c r="C111" t="n">
-        <v>0.60076</v>
+        <v>0.527892</v>
       </c>
       <c r="D111" t="n">
-        <v>0.560274</v>
+        <v>0.550504</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.66281</v>
+        <v>0.667559</v>
       </c>
       <c r="C112" t="n">
-        <v>0.587224</v>
+        <v>0.51367</v>
       </c>
       <c r="D112" t="n">
-        <v>0.546825</v>
+        <v>0.548951</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.652069</v>
+        <v>0.6567539999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.573343</v>
+        <v>0.502789</v>
       </c>
       <c r="D113" t="n">
-        <v>0.53376</v>
+        <v>0.527957</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.642602</v>
+        <v>0.646998</v>
       </c>
       <c r="C114" t="n">
-        <v>0.560708</v>
+        <v>0.491897</v>
       </c>
       <c r="D114" t="n">
-        <v>0.521324</v>
+        <v>0.525301</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.632889</v>
+        <v>0.636749</v>
       </c>
       <c r="C115" t="n">
-        <v>0.547748</v>
+        <v>0.481653</v>
       </c>
       <c r="D115" t="n">
-        <v>0.509101</v>
+        <v>0.514336</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.623984</v>
+        <v>0.63015</v>
       </c>
       <c r="C116" t="n">
-        <v>0.536566</v>
+        <v>0.470693</v>
       </c>
       <c r="D116" t="n">
-        <v>0.498465</v>
+        <v>0.503273</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6153690000000001</v>
+        <v>0.620567</v>
       </c>
       <c r="C117" t="n">
-        <v>0.526021</v>
+        <v>0.462059</v>
       </c>
       <c r="D117" t="n">
-        <v>0.487505</v>
+        <v>0.493611</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.607637</v>
+        <v>0.61031</v>
       </c>
       <c r="C118" t="n">
-        <v>0.514664</v>
+        <v>0.456705</v>
       </c>
       <c r="D118" t="n">
-        <v>0.476323</v>
+        <v>0.482034</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.600009</v>
+        <v>0.602228</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5057160000000001</v>
+        <v>0.443305</v>
       </c>
       <c r="D119" t="n">
-        <v>0.468408</v>
+        <v>0.47634</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.59294</v>
+        <v>0.597496</v>
       </c>
       <c r="C120" t="n">
-        <v>0.497229</v>
+        <v>0.443296</v>
       </c>
       <c r="D120" t="n">
-        <v>0.458614</v>
+        <v>0.465196</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.58697</v>
+        <v>0.59327</v>
       </c>
       <c r="C121" t="n">
-        <v>0.489333</v>
+        <v>0.432941</v>
       </c>
       <c r="D121" t="n">
-        <v>0.454754</v>
+        <v>0.46078</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.582457</v>
+        <v>0.586341</v>
       </c>
       <c r="C122" t="n">
-        <v>0.482616</v>
+        <v>0.429351</v>
       </c>
       <c r="D122" t="n">
-        <v>0.449495</v>
+        <v>0.457839</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.578972</v>
+        <v>0.5856710000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.478101</v>
+        <v>0.624777</v>
       </c>
       <c r="D123" t="n">
-        <v>0.646792</v>
+        <v>0.644081</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.769715</v>
+        <v>0.775554</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6967719999999999</v>
+        <v>0.616027</v>
       </c>
       <c r="D124" t="n">
-        <v>0.634721</v>
+        <v>0.634845</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.761219</v>
+        <v>0.764887</v>
       </c>
       <c r="C125" t="n">
-        <v>0.684982</v>
+        <v>0.608175</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6241989999999999</v>
+        <v>0.62524</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.751618</v>
+        <v>0.7587469999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>0.672036</v>
+        <v>0.5982229999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.613751</v>
+        <v>0.619977</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.744413</v>
+        <v>0.750348</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6604950000000001</v>
+        <v>0.591791</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6045160000000001</v>
+        <v>0.612976</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.736879</v>
+        <v>0.746507</v>
       </c>
       <c r="C128" t="n">
-        <v>0.648054</v>
+        <v>0.583834</v>
       </c>
       <c r="D128" t="n">
-        <v>0.594835</v>
+        <v>0.607434</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.730129</v>
+        <v>0.737483</v>
       </c>
       <c r="C129" t="n">
-        <v>0.638964</v>
+        <v>0.579534</v>
       </c>
       <c r="D129" t="n">
-        <v>0.586753</v>
+        <v>0.595659</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.723861</v>
+        <v>0.729336</v>
       </c>
       <c r="C130" t="n">
-        <v>0.628277</v>
+        <v>0.572139</v>
       </c>
       <c r="D130" t="n">
-        <v>0.578476</v>
+        <v>0.588102</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7170260000000001</v>
+        <v>0.72387</v>
       </c>
       <c r="C131" t="n">
-        <v>0.620489</v>
+        <v>0.566746</v>
       </c>
       <c r="D131" t="n">
-        <v>0.570678</v>
+        <v>0.580942</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.711358</v>
+        <v>0.721934</v>
       </c>
       <c r="C132" t="n">
-        <v>0.612113</v>
+        <v>0.556327</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5640579999999999</v>
+        <v>0.567374</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.706267</v>
+        <v>0.7184199999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.604894</v>
+        <v>0.552287</v>
       </c>
       <c r="D133" t="n">
-        <v>0.557538</v>
+        <v>0.563571</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.700918</v>
+        <v>0.711495</v>
       </c>
       <c r="C134" t="n">
-        <v>0.597797</v>
+        <v>0.547089</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5525640000000001</v>
+        <v>0.556283</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.698084</v>
+        <v>0.707627</v>
       </c>
       <c r="C135" t="n">
-        <v>0.592345</v>
+        <v>0.541857</v>
       </c>
       <c r="D135" t="n">
-        <v>0.546956</v>
+        <v>0.552631</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.694284</v>
+        <v>0.702163</v>
       </c>
       <c r="C136" t="n">
-        <v>0.586217</v>
+        <v>0.533099</v>
       </c>
       <c r="D136" t="n">
-        <v>0.541276</v>
+        <v>0.553277</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.691164</v>
+        <v>0.699838</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5833</v>
+        <v>0.730695</v>
       </c>
       <c r="D137" t="n">
-        <v>0.737606</v>
+        <v>0.746067</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.877765</v>
+        <v>0.876877</v>
       </c>
       <c r="C138" t="n">
-        <v>0.802902</v>
+        <v>0.7206050000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.727228</v>
+        <v>0.738211</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.871125</v>
+        <v>0.879068</v>
       </c>
       <c r="C139" t="n">
-        <v>0.79226</v>
+        <v>0.715935</v>
       </c>
       <c r="D139" t="n">
-        <v>0.716674</v>
+        <v>0.721092</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.864465</v>
+        <v>0.872042</v>
       </c>
       <c r="C140" t="n">
-        <v>0.779989</v>
+        <v>0.7075709999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.70787</v>
+        <v>0.71599</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8583229999999999</v>
+        <v>0.865334</v>
       </c>
       <c r="C141" t="n">
-        <v>0.769336</v>
+        <v>0.7051809999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.697851</v>
+        <v>0.710834</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.852958</v>
+        <v>0.856324</v>
       </c>
       <c r="C142" t="n">
-        <v>0.759278</v>
+        <v>0.692675</v>
       </c>
       <c r="D142" t="n">
-        <v>0.69041</v>
+        <v>0.705103</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.847572</v>
+        <v>0.853081</v>
       </c>
       <c r="C143" t="n">
-        <v>0.750733</v>
+        <v>0.685793</v>
       </c>
       <c r="D143" t="n">
-        <v>0.682742</v>
+        <v>0.698292</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250392</v>
+        <v>0.250258</v>
       </c>
       <c r="C2" t="n">
-        <v>0.196715</v>
+        <v>0.196285</v>
       </c>
       <c r="D2" t="n">
-        <v>0.187876</v>
+        <v>0.188602</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245207</v>
+        <v>0.244923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190891</v>
+        <v>0.191135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.182617</v>
+        <v>0.182845</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240037</v>
+        <v>0.240012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.186238</v>
+        <v>0.185745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.178049</v>
+        <v>0.178286</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236014</v>
+        <v>0.235811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.181409</v>
+        <v>0.181278</v>
       </c>
       <c r="D5" t="n">
-        <v>0.174491</v>
+        <v>0.17464</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231167</v>
+        <v>0.231301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.177904</v>
+        <v>0.178992</v>
       </c>
       <c r="D6" t="n">
-        <v>0.171169</v>
+        <v>0.171716</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228848</v>
+        <v>0.228687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.175585</v>
+        <v>0.176776</v>
       </c>
       <c r="D7" t="n">
-        <v>0.170146</v>
+        <v>0.169911</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227621</v>
+        <v>0.227572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.176557</v>
+        <v>0.178492</v>
       </c>
       <c r="D8" t="n">
-        <v>0.171076</v>
+        <v>0.171593</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.227939</v>
+        <v>0.228285</v>
       </c>
       <c r="C9" t="n">
-        <v>0.266812</v>
+        <v>0.27024</v>
       </c>
       <c r="D9" t="n">
-        <v>0.257985</v>
+        <v>0.257896</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314992</v>
+        <v>0.315111</v>
       </c>
       <c r="C10" t="n">
-        <v>0.257536</v>
+        <v>0.259174</v>
       </c>
       <c r="D10" t="n">
-        <v>0.249149</v>
+        <v>0.249261</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.306057</v>
+        <v>0.305987</v>
       </c>
       <c r="C11" t="n">
-        <v>0.249422</v>
+        <v>0.249773</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24075</v>
+        <v>0.241043</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297288</v>
+        <v>0.297212</v>
       </c>
       <c r="C12" t="n">
-        <v>0.240546</v>
+        <v>0.242144</v>
       </c>
       <c r="D12" t="n">
-        <v>0.233187</v>
+        <v>0.233088</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289525</v>
+        <v>0.289192</v>
       </c>
       <c r="C13" t="n">
-        <v>0.233519</v>
+        <v>0.234924</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225827</v>
+        <v>0.225879</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281513</v>
+        <v>0.281019</v>
       </c>
       <c r="C14" t="n">
-        <v>0.226556</v>
+        <v>0.227148</v>
       </c>
       <c r="D14" t="n">
-        <v>0.218706</v>
+        <v>0.218322</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.274083</v>
+        <v>0.273731</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220269</v>
+        <v>0.220037</v>
       </c>
       <c r="D15" t="n">
-        <v>0.212392</v>
+        <v>0.212287</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266932</v>
+        <v>0.26725</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212034</v>
+        <v>0.213225</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206785</v>
+        <v>0.206397</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260475</v>
+        <v>0.260911</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208193</v>
+        <v>0.209341</v>
       </c>
       <c r="D17" t="n">
-        <v>0.201529</v>
+        <v>0.201262</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254657</v>
+        <v>0.254936</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202631</v>
+        <v>0.20364</v>
       </c>
       <c r="D18" t="n">
-        <v>0.19627</v>
+        <v>0.195795</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249533</v>
+        <v>0.24972</v>
       </c>
       <c r="C19" t="n">
-        <v>0.19918</v>
+        <v>0.199342</v>
       </c>
       <c r="D19" t="n">
-        <v>0.19296</v>
+        <v>0.192194</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244991</v>
+        <v>0.245053</v>
       </c>
       <c r="C20" t="n">
-        <v>0.197336</v>
+        <v>0.197944</v>
       </c>
       <c r="D20" t="n">
-        <v>0.189778</v>
+        <v>0.188975</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241076</v>
+        <v>0.241468</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195448</v>
+        <v>0.196581</v>
       </c>
       <c r="D21" t="n">
-        <v>0.18847</v>
+        <v>0.188121</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2387</v>
+        <v>0.238943</v>
       </c>
       <c r="C22" t="n">
-        <v>0.19805</v>
+        <v>0.198075</v>
       </c>
       <c r="D22" t="n">
-        <v>0.189617</v>
+        <v>0.188714</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.238118</v>
+        <v>0.238621</v>
       </c>
       <c r="C23" t="n">
-        <v>0.287839</v>
+        <v>0.289394</v>
       </c>
       <c r="D23" t="n">
-        <v>0.272973</v>
+        <v>0.272608</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.324417</v>
+        <v>0.324828</v>
       </c>
       <c r="C24" t="n">
-        <v>0.275413</v>
+        <v>0.276678</v>
       </c>
       <c r="D24" t="n">
-        <v>0.26425</v>
+        <v>0.264062</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315621</v>
+        <v>0.315877</v>
       </c>
       <c r="C25" t="n">
-        <v>0.267469</v>
+        <v>0.268681</v>
       </c>
       <c r="D25" t="n">
-        <v>0.255417</v>
+        <v>0.2554</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.306748</v>
+        <v>0.306725</v>
       </c>
       <c r="C26" t="n">
-        <v>0.259296</v>
+        <v>0.259929</v>
       </c>
       <c r="D26" t="n">
-        <v>0.247387</v>
+        <v>0.247243</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298067</v>
+        <v>0.298217</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250146</v>
+        <v>0.251147</v>
       </c>
       <c r="D27" t="n">
-        <v>0.239879</v>
+        <v>0.239344</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.289816</v>
+        <v>0.290083</v>
       </c>
       <c r="C28" t="n">
-        <v>0.241418</v>
+        <v>0.243021</v>
       </c>
       <c r="D28" t="n">
-        <v>0.232617</v>
+        <v>0.232366</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282397</v>
+        <v>0.282997</v>
       </c>
       <c r="C29" t="n">
-        <v>0.234835</v>
+        <v>0.237227</v>
       </c>
       <c r="D29" t="n">
-        <v>0.225943</v>
+        <v>0.225286</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274918</v>
+        <v>0.275714</v>
       </c>
       <c r="C30" t="n">
-        <v>0.22741</v>
+        <v>0.229557</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219349</v>
+        <v>0.219204</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.26866</v>
+        <v>0.268719</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222453</v>
+        <v>0.222682</v>
       </c>
       <c r="D31" t="n">
-        <v>0.213534</v>
+        <v>0.2134</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262213</v>
+        <v>0.262787</v>
       </c>
       <c r="C32" t="n">
-        <v>0.215924</v>
+        <v>0.21712</v>
       </c>
       <c r="D32" t="n">
-        <v>0.208477</v>
+        <v>0.208189</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256736</v>
+        <v>0.257009</v>
       </c>
       <c r="C33" t="n">
-        <v>0.211622</v>
+        <v>0.213384</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20411</v>
+        <v>0.203979</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251796</v>
+        <v>0.252484</v>
       </c>
       <c r="C34" t="n">
-        <v>0.207482</v>
+        <v>0.209492</v>
       </c>
       <c r="D34" t="n">
-        <v>0.200894</v>
+        <v>0.200976</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247906</v>
+        <v>0.248028</v>
       </c>
       <c r="C35" t="n">
-        <v>0.205972</v>
+        <v>0.205809</v>
       </c>
       <c r="D35" t="n">
-        <v>0.198933</v>
+        <v>0.198713</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244321</v>
+        <v>0.244946</v>
       </c>
       <c r="C36" t="n">
-        <v>0.204411</v>
+        <v>0.205444</v>
       </c>
       <c r="D36" t="n">
-        <v>0.198769</v>
+        <v>0.19854</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243159</v>
+        <v>0.244314</v>
       </c>
       <c r="C37" t="n">
-        <v>0.297189</v>
+        <v>0.299076</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283987</v>
+        <v>0.284022</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327412</v>
+        <v>0.327103</v>
       </c>
       <c r="C38" t="n">
-        <v>0.288538</v>
+        <v>0.288291</v>
       </c>
       <c r="D38" t="n">
-        <v>0.27536</v>
+        <v>0.275122</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318596</v>
+        <v>0.31857</v>
       </c>
       <c r="C39" t="n">
-        <v>0.277563</v>
+        <v>0.27907</v>
       </c>
       <c r="D39" t="n">
-        <v>0.266569</v>
+        <v>0.266477</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.310544</v>
+        <v>0.310131</v>
       </c>
       <c r="C40" t="n">
-        <v>0.26906</v>
+        <v>0.27003</v>
       </c>
       <c r="D40" t="n">
-        <v>0.258114</v>
+        <v>0.257999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.30209</v>
+        <v>0.301937</v>
       </c>
       <c r="C41" t="n">
-        <v>0.261701</v>
+        <v>0.260996</v>
       </c>
       <c r="D41" t="n">
-        <v>0.250348</v>
+        <v>0.250166</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294532</v>
+        <v>0.29465</v>
       </c>
       <c r="C42" t="n">
-        <v>0.253653</v>
+        <v>0.253506</v>
       </c>
       <c r="D42" t="n">
-        <v>0.242778</v>
+        <v>0.242743</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.287197</v>
+        <v>0.286841</v>
       </c>
       <c r="C43" t="n">
-        <v>0.245705</v>
+        <v>0.245857</v>
       </c>
       <c r="D43" t="n">
-        <v>0.235767</v>
+        <v>0.235891</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.279681</v>
+        <v>0.280079</v>
       </c>
       <c r="C44" t="n">
-        <v>0.239398</v>
+        <v>0.238928</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229348</v>
+        <v>0.229456</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273353</v>
+        <v>0.273573</v>
       </c>
       <c r="C45" t="n">
-        <v>0.23211</v>
+        <v>0.231748</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223439</v>
+        <v>0.22345</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.267318</v>
+        <v>0.267606</v>
       </c>
       <c r="C46" t="n">
-        <v>0.22773</v>
+        <v>0.225648</v>
       </c>
       <c r="D46" t="n">
-        <v>0.217983</v>
+        <v>0.218126</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261791</v>
+        <v>0.262302</v>
       </c>
       <c r="C47" t="n">
-        <v>0.221454</v>
+        <v>0.220276</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213256</v>
+        <v>0.213525</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257199</v>
+        <v>0.257485</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21726</v>
+        <v>0.216434</v>
       </c>
       <c r="D48" t="n">
-        <v>0.209444</v>
+        <v>0.209089</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253785</v>
+        <v>0.253722</v>
       </c>
       <c r="C49" t="n">
-        <v>0.213215</v>
+        <v>0.212989</v>
       </c>
       <c r="D49" t="n">
-        <v>0.206575</v>
+        <v>0.206584</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250499</v>
+        <v>0.250656</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212227</v>
+        <v>0.210984</v>
       </c>
       <c r="D50" t="n">
-        <v>0.205638</v>
+        <v>0.205696</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.248201</v>
+        <v>0.248642</v>
       </c>
       <c r="C51" t="n">
-        <v>0.307442</v>
+        <v>0.308497</v>
       </c>
       <c r="D51" t="n">
-        <v>0.293714</v>
+        <v>0.293396</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.248849</v>
+        <v>0.249651</v>
       </c>
       <c r="C52" t="n">
-        <v>0.297039</v>
+        <v>0.298838</v>
       </c>
       <c r="D52" t="n">
-        <v>0.28474</v>
+        <v>0.284474</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329911</v>
+        <v>0.330154</v>
       </c>
       <c r="C53" t="n">
-        <v>0.288204</v>
+        <v>0.289575</v>
       </c>
       <c r="D53" t="n">
-        <v>0.276096</v>
+        <v>0.27591</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.321412</v>
+        <v>0.321553</v>
       </c>
       <c r="C54" t="n">
-        <v>0.27927</v>
+        <v>0.280786</v>
       </c>
       <c r="D54" t="n">
-        <v>0.267878</v>
+        <v>0.267672</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.313433</v>
+        <v>0.313872</v>
       </c>
       <c r="C55" t="n">
-        <v>0.270826</v>
+        <v>0.272365</v>
       </c>
       <c r="D55" t="n">
-        <v>0.260205</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.305918</v>
+        <v>0.306377</v>
       </c>
       <c r="C56" t="n">
-        <v>0.263012</v>
+        <v>0.264551</v>
       </c>
       <c r="D56" t="n">
-        <v>0.252885</v>
+        <v>0.252725</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.298824</v>
+        <v>0.29954</v>
       </c>
       <c r="C57" t="n">
-        <v>0.25586</v>
+        <v>0.257078</v>
       </c>
       <c r="D57" t="n">
-        <v>0.246008</v>
+        <v>0.245801</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.292218</v>
+        <v>0.29259</v>
       </c>
       <c r="C58" t="n">
-        <v>0.248889</v>
+        <v>0.250065</v>
       </c>
       <c r="D58" t="n">
-        <v>0.239459</v>
+        <v>0.239375</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.286029</v>
+        <v>0.286326</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242588</v>
+        <v>0.24366</v>
       </c>
       <c r="D59" t="n">
-        <v>0.233581</v>
+        <v>0.233424</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.280243</v>
+        <v>0.280611</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236698</v>
+        <v>0.237637</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228177</v>
+        <v>0.228049</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275334</v>
+        <v>0.275647</v>
       </c>
       <c r="C61" t="n">
-        <v>0.231656</v>
+        <v>0.232288</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223538</v>
+        <v>0.223436</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27005</v>
+        <v>0.270928</v>
       </c>
       <c r="C62" t="n">
-        <v>0.227133</v>
+        <v>0.227269</v>
       </c>
       <c r="D62" t="n">
-        <v>0.219532</v>
+        <v>0.219375</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266464</v>
+        <v>0.267027</v>
       </c>
       <c r="C63" t="n">
-        <v>0.223845</v>
+        <v>0.224193</v>
       </c>
       <c r="D63" t="n">
-        <v>0.216617</v>
+        <v>0.216482</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263408</v>
+        <v>0.263888</v>
       </c>
       <c r="C64" t="n">
-        <v>0.222525</v>
+        <v>0.222354</v>
       </c>
       <c r="D64" t="n">
-        <v>0.215203</v>
+        <v>0.215057</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.261984</v>
+        <v>0.262262</v>
       </c>
       <c r="C65" t="n">
-        <v>0.222592</v>
+        <v>0.222624</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216058</v>
+        <v>0.216193</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26204</v>
+        <v>0.262408</v>
       </c>
       <c r="C66" t="n">
-        <v>0.327148</v>
+        <v>0.329439</v>
       </c>
       <c r="D66" t="n">
-        <v>0.318892</v>
+        <v>0.323683</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.387792</v>
+        <v>0.388823</v>
       </c>
       <c r="C67" t="n">
-        <v>0.317545</v>
+        <v>0.319964</v>
       </c>
       <c r="D67" t="n">
-        <v>0.309861</v>
+        <v>0.314332</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.379596</v>
+        <v>0.380592</v>
       </c>
       <c r="C68" t="n">
-        <v>0.308632</v>
+        <v>0.31072</v>
       </c>
       <c r="D68" t="n">
-        <v>0.301265</v>
+        <v>0.305161</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.372319</v>
+        <v>0.373261</v>
       </c>
       <c r="C69" t="n">
-        <v>0.299786</v>
+        <v>0.301894</v>
       </c>
       <c r="D69" t="n">
-        <v>0.292923</v>
+        <v>0.296512</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365722</v>
+        <v>0.366225</v>
       </c>
       <c r="C70" t="n">
-        <v>0.291869</v>
+        <v>0.29371</v>
       </c>
       <c r="D70" t="n">
-        <v>0.285001</v>
+        <v>0.288679</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.358949</v>
+        <v>0.360056</v>
       </c>
       <c r="C71" t="n">
-        <v>0.284102</v>
+        <v>0.286026</v>
       </c>
       <c r="D71" t="n">
-        <v>0.277809</v>
+        <v>0.281081</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.35283</v>
+        <v>0.354007</v>
       </c>
       <c r="C72" t="n">
-        <v>0.27706</v>
+        <v>0.27863</v>
       </c>
       <c r="D72" t="n">
-        <v>0.270979</v>
+        <v>0.273608</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.346811</v>
+        <v>0.347652</v>
       </c>
       <c r="C73" t="n">
-        <v>0.27013</v>
+        <v>0.271597</v>
       </c>
       <c r="D73" t="n">
-        <v>0.264644</v>
+        <v>0.266761</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.341245</v>
+        <v>0.341518</v>
       </c>
       <c r="C74" t="n">
-        <v>0.264033</v>
+        <v>0.265321</v>
       </c>
       <c r="D74" t="n">
-        <v>0.258385</v>
+        <v>0.260483</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.335231</v>
+        <v>0.335773</v>
       </c>
       <c r="C75" t="n">
-        <v>0.257885</v>
+        <v>0.259291</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252796</v>
+        <v>0.254937</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.329987</v>
+        <v>0.330097</v>
       </c>
       <c r="C76" t="n">
-        <v>0.253276</v>
+        <v>0.254309</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248327</v>
+        <v>0.249769</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325069</v>
+        <v>0.32524</v>
       </c>
       <c r="C77" t="n">
-        <v>0.249367</v>
+        <v>0.250419</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244911</v>
+        <v>0.246329</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.320554</v>
+        <v>0.321398</v>
       </c>
       <c r="C78" t="n">
-        <v>0.246955</v>
+        <v>0.24808</v>
       </c>
       <c r="D78" t="n">
-        <v>0.242745</v>
+        <v>0.244118</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.317041</v>
+        <v>0.318586</v>
       </c>
       <c r="C79" t="n">
-        <v>0.246588</v>
+        <v>0.248034</v>
       </c>
       <c r="D79" t="n">
-        <v>0.242773</v>
+        <v>0.244137</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.315563</v>
+        <v>0.31696</v>
       </c>
       <c r="C80" t="n">
-        <v>0.509392</v>
+        <v>0.509167</v>
       </c>
       <c r="D80" t="n">
-        <v>0.406457</v>
+        <v>0.40335</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.551574</v>
+        <v>0.549625</v>
       </c>
       <c r="C81" t="n">
-        <v>0.368177</v>
+        <v>0.368862</v>
       </c>
       <c r="D81" t="n">
-        <v>0.399847</v>
+        <v>0.395357</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.545021</v>
+        <v>0.543056</v>
       </c>
       <c r="C82" t="n">
-        <v>0.358226</v>
+        <v>0.357703</v>
       </c>
       <c r="D82" t="n">
-        <v>0.390927</v>
+        <v>0.384019</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.535962</v>
+        <v>0.534357</v>
       </c>
       <c r="C83" t="n">
-        <v>0.348582</v>
+        <v>0.349872</v>
       </c>
       <c r="D83" t="n">
-        <v>0.375455</v>
+        <v>0.374422</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.526945</v>
+        <v>0.525562</v>
       </c>
       <c r="C84" t="n">
-        <v>0.34196</v>
+        <v>0.340233</v>
       </c>
       <c r="D84" t="n">
-        <v>0.370129</v>
+        <v>0.366003</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.519336</v>
+        <v>0.515938</v>
       </c>
       <c r="C85" t="n">
-        <v>0.330544</v>
+        <v>0.335461</v>
       </c>
       <c r="D85" t="n">
-        <v>0.357897</v>
+        <v>0.358053</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.510055</v>
+        <v>0.506138</v>
       </c>
       <c r="C86" t="n">
-        <v>0.321363</v>
+        <v>0.326532</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3488</v>
+        <v>0.347103</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.500576</v>
+        <v>0.497795</v>
       </c>
       <c r="C87" t="n">
-        <v>0.317785</v>
+        <v>0.319553</v>
       </c>
       <c r="D87" t="n">
-        <v>0.342399</v>
+        <v>0.339591</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.491279</v>
+        <v>0.487754</v>
       </c>
       <c r="C88" t="n">
-        <v>0.311784</v>
+        <v>0.311616</v>
       </c>
       <c r="D88" t="n">
-        <v>0.33452</v>
+        <v>0.330098</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.482061</v>
+        <v>0.479636</v>
       </c>
       <c r="C89" t="n">
-        <v>0.299031</v>
+        <v>0.300562</v>
       </c>
       <c r="D89" t="n">
-        <v>0.321618</v>
+        <v>0.320342</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.473284</v>
+        <v>0.471219</v>
       </c>
       <c r="C90" t="n">
-        <v>0.299367</v>
+        <v>0.293846</v>
       </c>
       <c r="D90" t="n">
-        <v>0.321127</v>
+        <v>0.313515</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.466322</v>
+        <v>0.461832</v>
       </c>
       <c r="C91" t="n">
-        <v>0.287676</v>
+        <v>0.293257</v>
       </c>
       <c r="D91" t="n">
-        <v>0.310326</v>
+        <v>0.311534</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.458744</v>
+        <v>0.454007</v>
       </c>
       <c r="C92" t="n">
-        <v>0.283622</v>
+        <v>0.289345</v>
       </c>
       <c r="D92" t="n">
-        <v>0.304855</v>
+        <v>0.307513</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.452376</v>
+        <v>0.449597</v>
       </c>
       <c r="C93" t="n">
-        <v>0.288505</v>
+        <v>0.28316</v>
       </c>
       <c r="D93" t="n">
-        <v>0.30741</v>
+        <v>0.300691</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.446839</v>
+        <v>0.443643</v>
       </c>
       <c r="C94" t="n">
-        <v>0.473968</v>
+        <v>0.478201</v>
       </c>
       <c r="D94" t="n">
-        <v>0.561818</v>
+        <v>0.556664</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.582534</v>
+        <v>0.577801</v>
       </c>
       <c r="C95" t="n">
-        <v>0.473909</v>
+        <v>0.47269</v>
       </c>
       <c r="D95" t="n">
-        <v>0.55078</v>
+        <v>0.545949</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.580163</v>
+        <v>0.5796</v>
       </c>
       <c r="C96" t="n">
-        <v>0.46371</v>
+        <v>0.461665</v>
       </c>
       <c r="D96" t="n">
-        <v>0.535642</v>
+        <v>0.530567</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.572258</v>
+        <v>0.569692</v>
       </c>
       <c r="C97" t="n">
-        <v>0.450985</v>
+        <v>0.450165</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5188469999999999</v>
+        <v>0.514527</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.562046</v>
+        <v>0.559098</v>
       </c>
       <c r="C98" t="n">
-        <v>0.439054</v>
+        <v>0.438249</v>
       </c>
       <c r="D98" t="n">
-        <v>0.503858</v>
+        <v>0.502289</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5527339999999999</v>
+        <v>0.550401</v>
       </c>
       <c r="C99" t="n">
-        <v>0.428151</v>
+        <v>0.425662</v>
       </c>
       <c r="D99" t="n">
-        <v>0.482643</v>
+        <v>0.488301</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.545933</v>
+        <v>0.542698</v>
       </c>
       <c r="C100" t="n">
-        <v>0.41697</v>
+        <v>0.415797</v>
       </c>
       <c r="D100" t="n">
-        <v>0.468109</v>
+        <v>0.475359</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.53721</v>
+        <v>0.536513</v>
       </c>
       <c r="C101" t="n">
-        <v>0.407423</v>
+        <v>0.407319</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4642</v>
+        <v>0.460248</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.528925</v>
+        <v>0.529332</v>
       </c>
       <c r="C102" t="n">
-        <v>0.397589</v>
+        <v>0.397593</v>
       </c>
       <c r="D102" t="n">
-        <v>0.452356</v>
+        <v>0.446403</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.522075</v>
+        <v>0.522775</v>
       </c>
       <c r="C103" t="n">
-        <v>0.386929</v>
+        <v>0.389691</v>
       </c>
       <c r="D103" t="n">
-        <v>0.441515</v>
+        <v>0.440136</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.516974</v>
+        <v>0.516456</v>
       </c>
       <c r="C104" t="n">
-        <v>0.382315</v>
+        <v>0.379075</v>
       </c>
       <c r="D104" t="n">
-        <v>0.432011</v>
+        <v>0.428486</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.510803</v>
+        <v>0.5085</v>
       </c>
       <c r="C105" t="n">
-        <v>0.375481</v>
+        <v>0.373886</v>
       </c>
       <c r="D105" t="n">
-        <v>0.413113</v>
+        <v>0.421527</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.505077</v>
+        <v>0.503622</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3656</v>
+        <v>0.368328</v>
       </c>
       <c r="D106" t="n">
-        <v>0.416164</v>
+        <v>0.405076</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.501704</v>
+        <v>0.500518</v>
       </c>
       <c r="C107" t="n">
-        <v>0.361336</v>
+        <v>0.364623</v>
       </c>
       <c r="D107" t="n">
-        <v>0.410381</v>
+        <v>0.410102</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.497005</v>
+        <v>0.496356</v>
       </c>
       <c r="C108" t="n">
-        <v>0.560651</v>
+        <v>0.55718</v>
       </c>
       <c r="D108" t="n">
-        <v>0.584653</v>
+        <v>0.596549</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.496957</v>
+        <v>0.495381</v>
       </c>
       <c r="C109" t="n">
-        <v>0.553874</v>
+        <v>0.553405</v>
       </c>
       <c r="D109" t="n">
-        <v>0.577083</v>
+        <v>0.585283</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.688536</v>
+        <v>0.688078</v>
       </c>
       <c r="C110" t="n">
-        <v>0.541077</v>
+        <v>0.540739</v>
       </c>
       <c r="D110" t="n">
-        <v>0.563709</v>
+        <v>0.571709</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.678335</v>
+        <v>0.677284</v>
       </c>
       <c r="C111" t="n">
-        <v>0.527892</v>
+        <v>0.52849</v>
       </c>
       <c r="D111" t="n">
-        <v>0.550504</v>
+        <v>0.557212</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.667559</v>
+        <v>0.668067</v>
       </c>
       <c r="C112" t="n">
-        <v>0.51367</v>
+        <v>0.514657</v>
       </c>
       <c r="D112" t="n">
-        <v>0.548951</v>
+        <v>0.5381</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6567539999999999</v>
+        <v>0.657865</v>
       </c>
       <c r="C113" t="n">
-        <v>0.502789</v>
+        <v>0.502362</v>
       </c>
       <c r="D113" t="n">
-        <v>0.527957</v>
+        <v>0.535505</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.646998</v>
+        <v>0.647589</v>
       </c>
       <c r="C114" t="n">
-        <v>0.491897</v>
+        <v>0.490594</v>
       </c>
       <c r="D114" t="n">
-        <v>0.525301</v>
+        <v>0.524432</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.636749</v>
+        <v>0.638423</v>
       </c>
       <c r="C115" t="n">
-        <v>0.481653</v>
+        <v>0.481079</v>
       </c>
       <c r="D115" t="n">
-        <v>0.514336</v>
+        <v>0.512745</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.63015</v>
+        <v>0.628489</v>
       </c>
       <c r="C116" t="n">
-        <v>0.470693</v>
+        <v>0.474137</v>
       </c>
       <c r="D116" t="n">
-        <v>0.503273</v>
+        <v>0.498436</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.620567</v>
+        <v>0.620995</v>
       </c>
       <c r="C117" t="n">
-        <v>0.462059</v>
+        <v>0.462133</v>
       </c>
       <c r="D117" t="n">
-        <v>0.493611</v>
+        <v>0.488944</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.61031</v>
+        <v>0.61221</v>
       </c>
       <c r="C118" t="n">
-        <v>0.456705</v>
+        <v>0.453773</v>
       </c>
       <c r="D118" t="n">
-        <v>0.482034</v>
+        <v>0.476518</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.602228</v>
+        <v>0.605531</v>
       </c>
       <c r="C119" t="n">
-        <v>0.443305</v>
+        <v>0.445791</v>
       </c>
       <c r="D119" t="n">
-        <v>0.47634</v>
+        <v>0.472294</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.597496</v>
+        <v>0.600434</v>
       </c>
       <c r="C120" t="n">
-        <v>0.443296</v>
+        <v>0.440036</v>
       </c>
       <c r="D120" t="n">
-        <v>0.465196</v>
+        <v>0.461414</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.59327</v>
+        <v>0.593848</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432941</v>
+        <v>0.432762</v>
       </c>
       <c r="D121" t="n">
-        <v>0.46078</v>
+        <v>0.46117</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.586341</v>
+        <v>0.587619</v>
       </c>
       <c r="C122" t="n">
-        <v>0.429351</v>
+        <v>0.431457</v>
       </c>
       <c r="D122" t="n">
-        <v>0.457839</v>
+        <v>0.45681</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5856710000000001</v>
+        <v>0.58669</v>
       </c>
       <c r="C123" t="n">
-        <v>0.624777</v>
+        <v>0.620464</v>
       </c>
       <c r="D123" t="n">
-        <v>0.644081</v>
+        <v>0.649594</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.775554</v>
+        <v>0.7737270000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.616027</v>
+        <v>0.614876</v>
       </c>
       <c r="D124" t="n">
-        <v>0.634845</v>
+        <v>0.639463</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.764887</v>
+        <v>0.768503</v>
       </c>
       <c r="C125" t="n">
-        <v>0.608175</v>
+        <v>0.599963</v>
       </c>
       <c r="D125" t="n">
-        <v>0.62524</v>
+        <v>0.629266</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7587469999999999</v>
+        <v>0.7622719999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5982229999999999</v>
+        <v>0.592486</v>
       </c>
       <c r="D126" t="n">
-        <v>0.619977</v>
+        <v>0.6238899999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.750348</v>
+        <v>0.7533879999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.591791</v>
+        <v>0.585677</v>
       </c>
       <c r="D127" t="n">
-        <v>0.612976</v>
+        <v>0.615241</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.746507</v>
+        <v>0.746577</v>
       </c>
       <c r="C128" t="n">
-        <v>0.583834</v>
+        <v>0.576182</v>
       </c>
       <c r="D128" t="n">
-        <v>0.607434</v>
+        <v>0.60627</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.737483</v>
+        <v>0.739926</v>
       </c>
       <c r="C129" t="n">
-        <v>0.579534</v>
+        <v>0.568051</v>
       </c>
       <c r="D129" t="n">
-        <v>0.595659</v>
+        <v>0.595025</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.729336</v>
+        <v>0.7317979999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.572139</v>
+        <v>0.563069</v>
       </c>
       <c r="D130" t="n">
-        <v>0.588102</v>
+        <v>0.590188</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.72387</v>
+        <v>0.727172</v>
       </c>
       <c r="C131" t="n">
-        <v>0.566746</v>
+        <v>0.557931</v>
       </c>
       <c r="D131" t="n">
-        <v>0.580942</v>
+        <v>0.573112</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.721934</v>
+        <v>0.721465</v>
       </c>
       <c r="C132" t="n">
-        <v>0.556327</v>
+        <v>0.553016</v>
       </c>
       <c r="D132" t="n">
-        <v>0.567374</v>
+        <v>0.56978</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7184199999999999</v>
+        <v>0.715969</v>
       </c>
       <c r="C133" t="n">
-        <v>0.552287</v>
+        <v>0.547253</v>
       </c>
       <c r="D133" t="n">
-        <v>0.563571</v>
+        <v>0.560932</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.711495</v>
+        <v>0.71122</v>
       </c>
       <c r="C134" t="n">
-        <v>0.547089</v>
+        <v>0.539741</v>
       </c>
       <c r="D134" t="n">
-        <v>0.556283</v>
+        <v>0.563145</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.707627</v>
+        <v>0.705085</v>
       </c>
       <c r="C135" t="n">
-        <v>0.541857</v>
+        <v>0.536678</v>
       </c>
       <c r="D135" t="n">
-        <v>0.552631</v>
+        <v>0.559534</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.702163</v>
+        <v>0.701407</v>
       </c>
       <c r="C136" t="n">
-        <v>0.533099</v>
+        <v>0.532314</v>
       </c>
       <c r="D136" t="n">
-        <v>0.553277</v>
+        <v>0.5517609999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.699838</v>
+        <v>0.700779</v>
       </c>
       <c r="C137" t="n">
-        <v>0.730695</v>
+        <v>0.7190569999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.746067</v>
+        <v>0.747191</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.876877</v>
+        <v>0.882937</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7206050000000001</v>
+        <v>0.710414</v>
       </c>
       <c r="D138" t="n">
-        <v>0.738211</v>
+        <v>0.729776</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.879068</v>
+        <v>0.877417</v>
       </c>
       <c r="C139" t="n">
-        <v>0.715935</v>
+        <v>0.702565</v>
       </c>
       <c r="D139" t="n">
-        <v>0.721092</v>
+        <v>0.725568</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.872042</v>
+        <v>0.869928</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7075709999999999</v>
+        <v>0.694632</v>
       </c>
       <c r="D140" t="n">
-        <v>0.71599</v>
+        <v>0.7178870000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.865334</v>
+        <v>0.863739</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7051809999999999</v>
+        <v>0.683133</v>
       </c>
       <c r="D141" t="n">
-        <v>0.710834</v>
+        <v>0.711191</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.856324</v>
+        <v>0.85809</v>
       </c>
       <c r="C142" t="n">
-        <v>0.692675</v>
+        <v>0.677087</v>
       </c>
       <c r="D142" t="n">
-        <v>0.705103</v>
+        <v>0.703941</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.853081</v>
+        <v>0.853318</v>
       </c>
       <c r="C143" t="n">
-        <v>0.685793</v>
+        <v>0.671991</v>
       </c>
       <c r="D143" t="n">
-        <v>0.698292</v>
+        <v>0.692734</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250258</v>
+        <v>0.250417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.196285</v>
+        <v>0.195856</v>
       </c>
       <c r="D2" t="n">
-        <v>0.188602</v>
+        <v>0.188667</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.244923</v>
+        <v>0.245397</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191135</v>
+        <v>0.190885</v>
       </c>
       <c r="D3" t="n">
-        <v>0.182845</v>
+        <v>0.183325</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240012</v>
+        <v>0.240269</v>
       </c>
       <c r="C4" t="n">
-        <v>0.185745</v>
+        <v>0.184314</v>
       </c>
       <c r="D4" t="n">
-        <v>0.178286</v>
+        <v>0.177756</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235811</v>
+        <v>0.235589</v>
       </c>
       <c r="C5" t="n">
-        <v>0.181278</v>
+        <v>0.180345</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17464</v>
+        <v>0.17413</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231301</v>
+        <v>0.231432</v>
       </c>
       <c r="C6" t="n">
-        <v>0.178992</v>
+        <v>0.177163</v>
       </c>
       <c r="D6" t="n">
-        <v>0.171716</v>
+        <v>0.171551</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228687</v>
+        <v>0.228781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.176776</v>
+        <v>0.175745</v>
       </c>
       <c r="D7" t="n">
-        <v>0.169911</v>
+        <v>0.16955</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227572</v>
+        <v>0.227642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.178492</v>
+        <v>0.177843</v>
       </c>
       <c r="D8" t="n">
-        <v>0.171593</v>
+        <v>0.171659</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228285</v>
+        <v>0.227944</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27024</v>
+        <v>0.269245</v>
       </c>
       <c r="D9" t="n">
-        <v>0.257896</v>
+        <v>0.257514</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.315111</v>
+        <v>0.314922</v>
       </c>
       <c r="C10" t="n">
-        <v>0.259174</v>
+        <v>0.257394</v>
       </c>
       <c r="D10" t="n">
-        <v>0.249261</v>
+        <v>0.248616</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305987</v>
+        <v>0.305502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.249773</v>
+        <v>0.248736</v>
       </c>
       <c r="D11" t="n">
-        <v>0.241043</v>
+        <v>0.240584</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297212</v>
+        <v>0.296765</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242144</v>
+        <v>0.240929</v>
       </c>
       <c r="D12" t="n">
-        <v>0.233088</v>
+        <v>0.233141</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289192</v>
+        <v>0.288566</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234924</v>
+        <v>0.233465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225879</v>
+        <v>0.225559</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281019</v>
+        <v>0.280741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.227148</v>
+        <v>0.226292</v>
       </c>
       <c r="D14" t="n">
-        <v>0.218322</v>
+        <v>0.218377</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273731</v>
+        <v>0.273496</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220037</v>
+        <v>0.219635</v>
       </c>
       <c r="D15" t="n">
-        <v>0.212287</v>
+        <v>0.212115</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.26725</v>
+        <v>0.266732</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213225</v>
+        <v>0.213602</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206397</v>
+        <v>0.206393</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260911</v>
+        <v>0.260137</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209341</v>
+        <v>0.208122</v>
       </c>
       <c r="D17" t="n">
-        <v>0.201262</v>
+        <v>0.200849</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254936</v>
+        <v>0.254379</v>
       </c>
       <c r="C18" t="n">
-        <v>0.20364</v>
+        <v>0.203244</v>
       </c>
       <c r="D18" t="n">
-        <v>0.195795</v>
+        <v>0.195794</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.24972</v>
+        <v>0.249172</v>
       </c>
       <c r="C19" t="n">
-        <v>0.199342</v>
+        <v>0.199874</v>
       </c>
       <c r="D19" t="n">
-        <v>0.192194</v>
+        <v>0.192209</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245053</v>
+        <v>0.244681</v>
       </c>
       <c r="C20" t="n">
-        <v>0.197944</v>
+        <v>0.197597</v>
       </c>
       <c r="D20" t="n">
-        <v>0.188975</v>
+        <v>0.18929</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241468</v>
+        <v>0.24092</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196581</v>
+        <v>0.196782</v>
       </c>
       <c r="D21" t="n">
-        <v>0.188121</v>
+        <v>0.188064</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238943</v>
+        <v>0.238381</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198075</v>
+        <v>0.198293</v>
       </c>
       <c r="D22" t="n">
-        <v>0.188714</v>
+        <v>0.188764</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.238621</v>
+        <v>0.237966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.289394</v>
+        <v>0.289443</v>
       </c>
       <c r="D23" t="n">
-        <v>0.272608</v>
+        <v>0.273008</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.324828</v>
+        <v>0.325393</v>
       </c>
       <c r="C24" t="n">
-        <v>0.276678</v>
+        <v>0.279824</v>
       </c>
       <c r="D24" t="n">
-        <v>0.264062</v>
+        <v>0.264143</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315877</v>
+        <v>0.315912</v>
       </c>
       <c r="C25" t="n">
-        <v>0.268681</v>
+        <v>0.267726</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2554</v>
+        <v>0.254569</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.306725</v>
+        <v>0.306961</v>
       </c>
       <c r="C26" t="n">
-        <v>0.259929</v>
+        <v>0.258982</v>
       </c>
       <c r="D26" t="n">
-        <v>0.247243</v>
+        <v>0.246283</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298217</v>
+        <v>0.298513</v>
       </c>
       <c r="C27" t="n">
-        <v>0.251147</v>
+        <v>0.250782</v>
       </c>
       <c r="D27" t="n">
-        <v>0.239344</v>
+        <v>0.238501</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.290083</v>
+        <v>0.290314</v>
       </c>
       <c r="C28" t="n">
-        <v>0.243021</v>
+        <v>0.242868</v>
       </c>
       <c r="D28" t="n">
-        <v>0.232366</v>
+        <v>0.231462</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282997</v>
+        <v>0.282374</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237227</v>
+        <v>0.235562</v>
       </c>
       <c r="D29" t="n">
-        <v>0.225286</v>
+        <v>0.22459</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275714</v>
+        <v>0.275211</v>
       </c>
       <c r="C30" t="n">
-        <v>0.229557</v>
+        <v>0.228777</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219204</v>
+        <v>0.218194</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268719</v>
+        <v>0.26852</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222682</v>
+        <v>0.222753</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2134</v>
+        <v>0.212379</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262787</v>
+        <v>0.262345</v>
       </c>
       <c r="C32" t="n">
-        <v>0.21712</v>
+        <v>0.216957</v>
       </c>
       <c r="D32" t="n">
-        <v>0.208189</v>
+        <v>0.207319</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.257009</v>
+        <v>0.256778</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213384</v>
+        <v>0.212075</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203979</v>
+        <v>0.203148</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.252484</v>
+        <v>0.251875</v>
       </c>
       <c r="C34" t="n">
-        <v>0.209492</v>
+        <v>0.20857</v>
       </c>
       <c r="D34" t="n">
-        <v>0.200976</v>
+        <v>0.200086</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248028</v>
+        <v>0.24764</v>
       </c>
       <c r="C35" t="n">
-        <v>0.205809</v>
+        <v>0.205912</v>
       </c>
       <c r="D35" t="n">
-        <v>0.198713</v>
+        <v>0.197919</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244946</v>
+        <v>0.244679</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205444</v>
+        <v>0.205659</v>
       </c>
       <c r="D36" t="n">
-        <v>0.19854</v>
+        <v>0.19772</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.244314</v>
+        <v>0.243539</v>
       </c>
       <c r="C37" t="n">
-        <v>0.299076</v>
+        <v>0.30172</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284022</v>
+        <v>0.284103</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327103</v>
+        <v>0.327681</v>
       </c>
       <c r="C38" t="n">
-        <v>0.288291</v>
+        <v>0.290964</v>
       </c>
       <c r="D38" t="n">
-        <v>0.275122</v>
+        <v>0.273932</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.31857</v>
+        <v>0.318363</v>
       </c>
       <c r="C39" t="n">
-        <v>0.27907</v>
+        <v>0.279156</v>
       </c>
       <c r="D39" t="n">
-        <v>0.266477</v>
+        <v>0.265883</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.310131</v>
+        <v>0.310955</v>
       </c>
       <c r="C40" t="n">
-        <v>0.27003</v>
+        <v>0.272085</v>
       </c>
       <c r="D40" t="n">
-        <v>0.257999</v>
+        <v>0.257177</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301937</v>
+        <v>0.30295</v>
       </c>
       <c r="C41" t="n">
-        <v>0.260996</v>
+        <v>0.261696</v>
       </c>
       <c r="D41" t="n">
-        <v>0.250166</v>
+        <v>0.249455</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.29465</v>
+        <v>0.295256</v>
       </c>
       <c r="C42" t="n">
-        <v>0.253506</v>
+        <v>0.253593</v>
       </c>
       <c r="D42" t="n">
-        <v>0.242743</v>
+        <v>0.243476</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.286841</v>
+        <v>0.288109</v>
       </c>
       <c r="C43" t="n">
-        <v>0.245857</v>
+        <v>0.246278</v>
       </c>
       <c r="D43" t="n">
-        <v>0.235891</v>
+        <v>0.236417</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280079</v>
+        <v>0.28116</v>
       </c>
       <c r="C44" t="n">
-        <v>0.238928</v>
+        <v>0.239921</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229456</v>
+        <v>0.229765</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273573</v>
+        <v>0.27369</v>
       </c>
       <c r="C45" t="n">
-        <v>0.231748</v>
+        <v>0.232515</v>
       </c>
       <c r="D45" t="n">
-        <v>0.22345</v>
+        <v>0.222927</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.267606</v>
+        <v>0.269053</v>
       </c>
       <c r="C46" t="n">
-        <v>0.225648</v>
+        <v>0.227653</v>
       </c>
       <c r="D46" t="n">
-        <v>0.218126</v>
+        <v>0.2176</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262302</v>
+        <v>0.263436</v>
       </c>
       <c r="C47" t="n">
-        <v>0.220276</v>
+        <v>0.223154</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213525</v>
+        <v>0.213442</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257485</v>
+        <v>0.258052</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216434</v>
+        <v>0.216966</v>
       </c>
       <c r="D48" t="n">
-        <v>0.209089</v>
+        <v>0.208922</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253722</v>
+        <v>0.254847</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212989</v>
+        <v>0.213928</v>
       </c>
       <c r="D49" t="n">
-        <v>0.206584</v>
+        <v>0.206187</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250656</v>
+        <v>0.251928</v>
       </c>
       <c r="C50" t="n">
-        <v>0.210984</v>
+        <v>0.212352</v>
       </c>
       <c r="D50" t="n">
-        <v>0.205696</v>
+        <v>0.205281</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.248642</v>
+        <v>0.250364</v>
       </c>
       <c r="C51" t="n">
-        <v>0.308497</v>
+        <v>0.311664</v>
       </c>
       <c r="D51" t="n">
-        <v>0.293396</v>
+        <v>0.295695</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.249651</v>
+        <v>0.251193</v>
       </c>
       <c r="C52" t="n">
-        <v>0.298838</v>
+        <v>0.301777</v>
       </c>
       <c r="D52" t="n">
-        <v>0.284474</v>
+        <v>0.286979</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.330154</v>
+        <v>0.332629</v>
       </c>
       <c r="C53" t="n">
-        <v>0.289575</v>
+        <v>0.292385</v>
       </c>
       <c r="D53" t="n">
-        <v>0.27591</v>
+        <v>0.27795</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.321553</v>
+        <v>0.324087</v>
       </c>
       <c r="C54" t="n">
-        <v>0.280786</v>
+        <v>0.283306</v>
       </c>
       <c r="D54" t="n">
-        <v>0.267672</v>
+        <v>0.269559</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.313872</v>
+        <v>0.31622</v>
       </c>
       <c r="C55" t="n">
-        <v>0.272365</v>
+        <v>0.274715</v>
       </c>
       <c r="D55" t="n">
-        <v>0.26</v>
+        <v>0.261791</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.306377</v>
+        <v>0.308905</v>
       </c>
       <c r="C56" t="n">
-        <v>0.264551</v>
+        <v>0.26691</v>
       </c>
       <c r="D56" t="n">
-        <v>0.252725</v>
+        <v>0.254157</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.29954</v>
+        <v>0.301577</v>
       </c>
       <c r="C57" t="n">
-        <v>0.257078</v>
+        <v>0.259126</v>
       </c>
       <c r="D57" t="n">
-        <v>0.245801</v>
+        <v>0.247256</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.29259</v>
+        <v>0.295</v>
       </c>
       <c r="C58" t="n">
-        <v>0.250065</v>
+        <v>0.251966</v>
       </c>
       <c r="D58" t="n">
-        <v>0.239375</v>
+        <v>0.240538</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.286326</v>
+        <v>0.288704</v>
       </c>
       <c r="C59" t="n">
-        <v>0.24366</v>
+        <v>0.245302</v>
       </c>
       <c r="D59" t="n">
-        <v>0.233424</v>
+        <v>0.234404</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.280611</v>
+        <v>0.282985</v>
       </c>
       <c r="C60" t="n">
-        <v>0.237637</v>
+        <v>0.239289</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228049</v>
+        <v>0.228949</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275647</v>
+        <v>0.277447</v>
       </c>
       <c r="C61" t="n">
-        <v>0.232288</v>
+        <v>0.233867</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223436</v>
+        <v>0.224172</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.270928</v>
+        <v>0.272764</v>
       </c>
       <c r="C62" t="n">
-        <v>0.227269</v>
+        <v>0.229332</v>
       </c>
       <c r="D62" t="n">
-        <v>0.219375</v>
+        <v>0.220117</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267027</v>
+        <v>0.268841</v>
       </c>
       <c r="C63" t="n">
-        <v>0.224193</v>
+        <v>0.225991</v>
       </c>
       <c r="D63" t="n">
-        <v>0.216482</v>
+        <v>0.217443</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263888</v>
+        <v>0.265728</v>
       </c>
       <c r="C64" t="n">
-        <v>0.222354</v>
+        <v>0.224232</v>
       </c>
       <c r="D64" t="n">
-        <v>0.215057</v>
+        <v>0.215608</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262262</v>
+        <v>0.263909</v>
       </c>
       <c r="C65" t="n">
-        <v>0.222624</v>
+        <v>0.224792</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216193</v>
+        <v>0.21667</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.262408</v>
+        <v>0.264313</v>
       </c>
       <c r="C66" t="n">
-        <v>0.329439</v>
+        <v>0.331166</v>
       </c>
       <c r="D66" t="n">
-        <v>0.323683</v>
+        <v>0.326539</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388823</v>
+        <v>0.392506</v>
       </c>
       <c r="C67" t="n">
-        <v>0.319964</v>
+        <v>0.320655</v>
       </c>
       <c r="D67" t="n">
-        <v>0.314332</v>
+        <v>0.316518</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.380592</v>
+        <v>0.384405</v>
       </c>
       <c r="C68" t="n">
-        <v>0.31072</v>
+        <v>0.311396</v>
       </c>
       <c r="D68" t="n">
-        <v>0.305161</v>
+        <v>0.307184</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.373261</v>
+        <v>0.377037</v>
       </c>
       <c r="C69" t="n">
-        <v>0.301894</v>
+        <v>0.302878</v>
       </c>
       <c r="D69" t="n">
-        <v>0.296512</v>
+        <v>0.298496</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.366225</v>
+        <v>0.369616</v>
       </c>
       <c r="C70" t="n">
-        <v>0.29371</v>
+        <v>0.294566</v>
       </c>
       <c r="D70" t="n">
-        <v>0.288679</v>
+        <v>0.290195</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.360056</v>
+        <v>0.363063</v>
       </c>
       <c r="C71" t="n">
-        <v>0.286026</v>
+        <v>0.286285</v>
       </c>
       <c r="D71" t="n">
-        <v>0.281081</v>
+        <v>0.281967</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.354007</v>
+        <v>0.35683</v>
       </c>
       <c r="C72" t="n">
-        <v>0.27863</v>
+        <v>0.279017</v>
       </c>
       <c r="D72" t="n">
-        <v>0.273608</v>
+        <v>0.274389</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347652</v>
+        <v>0.350271</v>
       </c>
       <c r="C73" t="n">
-        <v>0.271597</v>
+        <v>0.271979</v>
       </c>
       <c r="D73" t="n">
-        <v>0.266761</v>
+        <v>0.267539</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.341518</v>
+        <v>0.344358</v>
       </c>
       <c r="C74" t="n">
-        <v>0.265321</v>
+        <v>0.265696</v>
       </c>
       <c r="D74" t="n">
-        <v>0.260483</v>
+        <v>0.261001</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.335773</v>
+        <v>0.338383</v>
       </c>
       <c r="C75" t="n">
-        <v>0.259291</v>
+        <v>0.259729</v>
       </c>
       <c r="D75" t="n">
-        <v>0.254937</v>
+        <v>0.255265</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.330097</v>
+        <v>0.332664</v>
       </c>
       <c r="C76" t="n">
-        <v>0.254309</v>
+        <v>0.254604</v>
       </c>
       <c r="D76" t="n">
-        <v>0.249769</v>
+        <v>0.250347</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.32524</v>
+        <v>0.327495</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250419</v>
+        <v>0.250702</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246329</v>
+        <v>0.246356</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.321398</v>
+        <v>0.322977</v>
       </c>
       <c r="C78" t="n">
-        <v>0.24808</v>
+        <v>0.248254</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244118</v>
+        <v>0.24407</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.318586</v>
+        <v>0.319589</v>
       </c>
       <c r="C79" t="n">
-        <v>0.248034</v>
+        <v>0.247931</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244137</v>
+        <v>0.243745</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.31696</v>
+        <v>0.317412</v>
       </c>
       <c r="C80" t="n">
-        <v>0.509167</v>
+        <v>0.509948</v>
       </c>
       <c r="D80" t="n">
-        <v>0.40335</v>
+        <v>0.400431</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.549625</v>
+        <v>0.553964</v>
       </c>
       <c r="C81" t="n">
-        <v>0.368862</v>
+        <v>0.368004</v>
       </c>
       <c r="D81" t="n">
-        <v>0.395357</v>
+        <v>0.394183</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.543056</v>
+        <v>0.547829</v>
       </c>
       <c r="C82" t="n">
-        <v>0.357703</v>
+        <v>0.359632</v>
       </c>
       <c r="D82" t="n">
-        <v>0.384019</v>
+        <v>0.385942</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.534357</v>
+        <v>0.538384</v>
       </c>
       <c r="C83" t="n">
-        <v>0.349872</v>
+        <v>0.350416</v>
       </c>
       <c r="D83" t="n">
-        <v>0.374422</v>
+        <v>0.374512</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.525562</v>
+        <v>0.529327</v>
       </c>
       <c r="C84" t="n">
-        <v>0.340233</v>
+        <v>0.341594</v>
       </c>
       <c r="D84" t="n">
-        <v>0.366003</v>
+        <v>0.366227</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.515938</v>
+        <v>0.5196769999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.335461</v>
+        <v>0.333745</v>
       </c>
       <c r="D85" t="n">
-        <v>0.358053</v>
+        <v>0.358241</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.506138</v>
+        <v>0.510369</v>
       </c>
       <c r="C86" t="n">
-        <v>0.326532</v>
+        <v>0.327038</v>
       </c>
       <c r="D86" t="n">
-        <v>0.347103</v>
+        <v>0.348967</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.497795</v>
+        <v>0.499962</v>
       </c>
       <c r="C87" t="n">
-        <v>0.319553</v>
+        <v>0.316977</v>
       </c>
       <c r="D87" t="n">
-        <v>0.339591</v>
+        <v>0.339007</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.487754</v>
+        <v>0.4907</v>
       </c>
       <c r="C88" t="n">
-        <v>0.311616</v>
+        <v>0.309012</v>
       </c>
       <c r="D88" t="n">
-        <v>0.330098</v>
+        <v>0.33065</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.479636</v>
+        <v>0.481175</v>
       </c>
       <c r="C89" t="n">
-        <v>0.300562</v>
+        <v>0.304307</v>
       </c>
       <c r="D89" t="n">
-        <v>0.320342</v>
+        <v>0.322774</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.471219</v>
+        <v>0.472351</v>
       </c>
       <c r="C90" t="n">
-        <v>0.293846</v>
+        <v>0.298218</v>
       </c>
       <c r="D90" t="n">
-        <v>0.313515</v>
+        <v>0.315892</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.461832</v>
+        <v>0.465313</v>
       </c>
       <c r="C91" t="n">
-        <v>0.293257</v>
+        <v>0.293329</v>
       </c>
       <c r="D91" t="n">
-        <v>0.311534</v>
+        <v>0.310857</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.454007</v>
+        <v>0.457828</v>
       </c>
       <c r="C92" t="n">
-        <v>0.289345</v>
+        <v>0.290827</v>
       </c>
       <c r="D92" t="n">
-        <v>0.307513</v>
+        <v>0.307376</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.449597</v>
+        <v>0.451091</v>
       </c>
       <c r="C93" t="n">
-        <v>0.28316</v>
+        <v>0.288273</v>
       </c>
       <c r="D93" t="n">
-        <v>0.300691</v>
+        <v>0.305968</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.443643</v>
+        <v>0.44592</v>
       </c>
       <c r="C94" t="n">
-        <v>0.478201</v>
+        <v>0.47891</v>
       </c>
       <c r="D94" t="n">
-        <v>0.556664</v>
+        <v>0.548362</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.577801</v>
+        <v>0.578402</v>
       </c>
       <c r="C95" t="n">
-        <v>0.47269</v>
+        <v>0.471764</v>
       </c>
       <c r="D95" t="n">
-        <v>0.545949</v>
+        <v>0.538422</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5796</v>
+        <v>0.576702</v>
       </c>
       <c r="C96" t="n">
-        <v>0.461665</v>
+        <v>0.461079</v>
       </c>
       <c r="D96" t="n">
-        <v>0.530567</v>
+        <v>0.523892</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.569692</v>
+        <v>0.568569</v>
       </c>
       <c r="C97" t="n">
-        <v>0.450165</v>
+        <v>0.448161</v>
       </c>
       <c r="D97" t="n">
-        <v>0.514527</v>
+        <v>0.516507</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.559098</v>
+        <v>0.557982</v>
       </c>
       <c r="C98" t="n">
-        <v>0.438249</v>
+        <v>0.436727</v>
       </c>
       <c r="D98" t="n">
-        <v>0.502289</v>
+        <v>0.50202</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.550401</v>
+        <v>0.550048</v>
       </c>
       <c r="C99" t="n">
-        <v>0.425662</v>
+        <v>0.426247</v>
       </c>
       <c r="D99" t="n">
-        <v>0.488301</v>
+        <v>0.48767</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.542698</v>
+        <v>0.542526</v>
       </c>
       <c r="C100" t="n">
-        <v>0.415797</v>
+        <v>0.415899</v>
       </c>
       <c r="D100" t="n">
-        <v>0.475359</v>
+        <v>0.473933</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.536513</v>
+        <v>0.536106</v>
       </c>
       <c r="C101" t="n">
-        <v>0.407319</v>
+        <v>0.405626</v>
       </c>
       <c r="D101" t="n">
-        <v>0.460248</v>
+        <v>0.464286</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.529332</v>
+        <v>0.5282210000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.397593</v>
+        <v>0.395861</v>
       </c>
       <c r="D102" t="n">
-        <v>0.446403</v>
+        <v>0.452952</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.522775</v>
+        <v>0.522593</v>
       </c>
       <c r="C103" t="n">
-        <v>0.389691</v>
+        <v>0.387249</v>
       </c>
       <c r="D103" t="n">
-        <v>0.440136</v>
+        <v>0.441855</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.516456</v>
+        <v>0.515601</v>
       </c>
       <c r="C104" t="n">
-        <v>0.379075</v>
+        <v>0.379894</v>
       </c>
       <c r="D104" t="n">
-        <v>0.428486</v>
+        <v>0.431885</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5085</v>
+        <v>0.51109</v>
       </c>
       <c r="C105" t="n">
-        <v>0.373886</v>
+        <v>0.373695</v>
       </c>
       <c r="D105" t="n">
-        <v>0.421527</v>
+        <v>0.423159</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.503622</v>
+        <v>0.504585</v>
       </c>
       <c r="C106" t="n">
-        <v>0.368328</v>
+        <v>0.367962</v>
       </c>
       <c r="D106" t="n">
-        <v>0.405076</v>
+        <v>0.415647</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.500518</v>
+        <v>0.499901</v>
       </c>
       <c r="C107" t="n">
-        <v>0.364623</v>
+        <v>0.365096</v>
       </c>
       <c r="D107" t="n">
-        <v>0.410102</v>
+        <v>0.409652</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.496356</v>
+        <v>0.496717</v>
       </c>
       <c r="C108" t="n">
-        <v>0.55718</v>
+        <v>0.557239</v>
       </c>
       <c r="D108" t="n">
-        <v>0.596549</v>
+        <v>0.595515</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.495381</v>
+        <v>0.495671</v>
       </c>
       <c r="C109" t="n">
-        <v>0.553405</v>
+        <v>0.5479039999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.585283</v>
+        <v>0.586699</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.688078</v>
+        <v>0.688968</v>
       </c>
       <c r="C110" t="n">
-        <v>0.540739</v>
+        <v>0.538566</v>
       </c>
       <c r="D110" t="n">
-        <v>0.571709</v>
+        <v>0.572937</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.677284</v>
+        <v>0.6783130000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.52849</v>
+        <v>0.524749</v>
       </c>
       <c r="D111" t="n">
-        <v>0.557212</v>
+        <v>0.5590079999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.668067</v>
+        <v>0.667342</v>
       </c>
       <c r="C112" t="n">
-        <v>0.514657</v>
+        <v>0.512435</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5381</v>
+        <v>0.54601</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.657865</v>
+        <v>0.656821</v>
       </c>
       <c r="C113" t="n">
-        <v>0.502362</v>
+        <v>0.501445</v>
       </c>
       <c r="D113" t="n">
-        <v>0.535505</v>
+        <v>0.534439</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.647589</v>
+        <v>0.647051</v>
       </c>
       <c r="C114" t="n">
-        <v>0.490594</v>
+        <v>0.490778</v>
       </c>
       <c r="D114" t="n">
-        <v>0.524432</v>
+        <v>0.523772</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.638423</v>
+        <v>0.638157</v>
       </c>
       <c r="C115" t="n">
-        <v>0.481079</v>
+        <v>0.481009</v>
       </c>
       <c r="D115" t="n">
-        <v>0.512745</v>
+        <v>0.5124339999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.628489</v>
+        <v>0.628919</v>
       </c>
       <c r="C116" t="n">
-        <v>0.474137</v>
+        <v>0.470645</v>
       </c>
       <c r="D116" t="n">
-        <v>0.498436</v>
+        <v>0.501189</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.620995</v>
+        <v>0.620735</v>
       </c>
       <c r="C117" t="n">
-        <v>0.462133</v>
+        <v>0.462459</v>
       </c>
       <c r="D117" t="n">
-        <v>0.488944</v>
+        <v>0.491186</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.61221</v>
+        <v>0.612698</v>
       </c>
       <c r="C118" t="n">
-        <v>0.453773</v>
+        <v>0.451327</v>
       </c>
       <c r="D118" t="n">
-        <v>0.476518</v>
+        <v>0.482672</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.605531</v>
+        <v>0.605469</v>
       </c>
       <c r="C119" t="n">
-        <v>0.445791</v>
+        <v>0.445279</v>
       </c>
       <c r="D119" t="n">
-        <v>0.472294</v>
+        <v>0.474293</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.600434</v>
+        <v>0.599406</v>
       </c>
       <c r="C120" t="n">
-        <v>0.440036</v>
+        <v>0.438486</v>
       </c>
       <c r="D120" t="n">
-        <v>0.461414</v>
+        <v>0.467112</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.593848</v>
+        <v>0.593482</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432762</v>
+        <v>0.432947</v>
       </c>
       <c r="D121" t="n">
-        <v>0.46117</v>
+        <v>0.459738</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.587619</v>
+        <v>0.588166</v>
       </c>
       <c r="C122" t="n">
-        <v>0.431457</v>
+        <v>0.43069</v>
       </c>
       <c r="D122" t="n">
-        <v>0.45681</v>
+        <v>0.455794</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.58669</v>
+        <v>0.5858449999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.620464</v>
+        <v>0.619838</v>
       </c>
       <c r="D123" t="n">
-        <v>0.649594</v>
+        <v>0.652813</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7737270000000001</v>
+        <v>0.776451</v>
       </c>
       <c r="C124" t="n">
-        <v>0.614876</v>
+        <v>0.6105930000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.639463</v>
+        <v>0.642146</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.768503</v>
+        <v>0.767969</v>
       </c>
       <c r="C125" t="n">
-        <v>0.599963</v>
+        <v>0.60144</v>
       </c>
       <c r="D125" t="n">
-        <v>0.629266</v>
+        <v>0.6289090000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7622719999999999</v>
+        <v>0.760355</v>
       </c>
       <c r="C126" t="n">
-        <v>0.592486</v>
+        <v>0.594082</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6238899999999999</v>
+        <v>0.617324</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7533879999999999</v>
+        <v>0.752091</v>
       </c>
       <c r="C127" t="n">
-        <v>0.585677</v>
+        <v>0.584046</v>
       </c>
       <c r="D127" t="n">
-        <v>0.615241</v>
+        <v>0.604545</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.746577</v>
+        <v>0.747144</v>
       </c>
       <c r="C128" t="n">
-        <v>0.576182</v>
+        <v>0.57692</v>
       </c>
       <c r="D128" t="n">
-        <v>0.60627</v>
+        <v>0.593768</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.739926</v>
+        <v>0.740282</v>
       </c>
       <c r="C129" t="n">
-        <v>0.568051</v>
+        <v>0.570427</v>
       </c>
       <c r="D129" t="n">
-        <v>0.595025</v>
+        <v>0.584972</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7317979999999999</v>
+        <v>0.734739</v>
       </c>
       <c r="C130" t="n">
-        <v>0.563069</v>
+        <v>0.563141</v>
       </c>
       <c r="D130" t="n">
-        <v>0.590188</v>
+        <v>0.584021</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.727172</v>
+        <v>0.727811</v>
       </c>
       <c r="C131" t="n">
-        <v>0.557931</v>
+        <v>0.556654</v>
       </c>
       <c r="D131" t="n">
-        <v>0.573112</v>
+        <v>0.5764860000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.721465</v>
+        <v>0.71932</v>
       </c>
       <c r="C132" t="n">
-        <v>0.553016</v>
+        <v>0.552579</v>
       </c>
       <c r="D132" t="n">
-        <v>0.56978</v>
+        <v>0.575972</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.715969</v>
+        <v>0.711873</v>
       </c>
       <c r="C133" t="n">
-        <v>0.547253</v>
+        <v>0.546917</v>
       </c>
       <c r="D133" t="n">
-        <v>0.560932</v>
+        <v>0.570049</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.71122</v>
+        <v>0.707965</v>
       </c>
       <c r="C134" t="n">
-        <v>0.539741</v>
+        <v>0.543175</v>
       </c>
       <c r="D134" t="n">
-        <v>0.563145</v>
+        <v>0.5635</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.705085</v>
+        <v>0.704365</v>
       </c>
       <c r="C135" t="n">
-        <v>0.536678</v>
+        <v>0.532481</v>
       </c>
       <c r="D135" t="n">
-        <v>0.559534</v>
+        <v>0.550181</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.701407</v>
+        <v>0.70607</v>
       </c>
       <c r="C136" t="n">
-        <v>0.532314</v>
+        <v>0.532172</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5517609999999999</v>
+        <v>0.545315</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.700779</v>
+        <v>0.702337</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7190569999999999</v>
+        <v>0.719363</v>
       </c>
       <c r="D137" t="n">
-        <v>0.747191</v>
+        <v>0.739501</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.882937</v>
+        <v>0.8848009999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>0.710414</v>
+        <v>0.711511</v>
       </c>
       <c r="D138" t="n">
-        <v>0.729776</v>
+        <v>0.733092</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.877417</v>
+        <v>0.878764</v>
       </c>
       <c r="C139" t="n">
-        <v>0.702565</v>
+        <v>0.699699</v>
       </c>
       <c r="D139" t="n">
-        <v>0.725568</v>
+        <v>0.727969</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.869928</v>
+        <v>0.87336</v>
       </c>
       <c r="C140" t="n">
-        <v>0.694632</v>
+        <v>0.689726</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7178870000000001</v>
+        <v>0.717648</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.863739</v>
+        <v>0.866326</v>
       </c>
       <c r="C141" t="n">
-        <v>0.683133</v>
+        <v>0.68283</v>
       </c>
       <c r="D141" t="n">
-        <v>0.711191</v>
+        <v>0.706686</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.85809</v>
+        <v>0.862398</v>
       </c>
       <c r="C142" t="n">
-        <v>0.677087</v>
+        <v>0.676998</v>
       </c>
       <c r="D142" t="n">
-        <v>0.703941</v>
+        <v>0.701728</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.853318</v>
+        <v>0.854534</v>
       </c>
       <c r="C143" t="n">
-        <v>0.671991</v>
+        <v>0.670369</v>
       </c>
       <c r="D143" t="n">
-        <v>0.692734</v>
+        <v>0.696422</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250417</v>
+        <v>0.25015</v>
       </c>
       <c r="C2" t="n">
-        <v>0.195856</v>
+        <v>0.198339</v>
       </c>
       <c r="D2" t="n">
-        <v>0.188667</v>
+        <v>0.547912</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245397</v>
+        <v>0.245785</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190885</v>
+        <v>0.193132</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183325</v>
+        <v>0.539911</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240269</v>
+        <v>0.236782</v>
       </c>
       <c r="C4" t="n">
-        <v>0.184314</v>
+        <v>0.18849</v>
       </c>
       <c r="D4" t="n">
-        <v>0.177756</v>
+        <v>0.533124</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235589</v>
+        <v>0.231197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.180345</v>
+        <v>0.183719</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17413</v>
+        <v>0.52934</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231432</v>
+        <v>0.226463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.177163</v>
+        <v>0.179786</v>
       </c>
       <c r="D6" t="n">
-        <v>0.171551</v>
+        <v>0.525061</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228781</v>
+        <v>0.229042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.175745</v>
+        <v>0.178695</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16955</v>
+        <v>0.681225</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227642</v>
+        <v>0.227597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.177843</v>
+        <v>0.18078</v>
       </c>
       <c r="D8" t="n">
-        <v>0.171659</v>
+        <v>0.666183</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.227944</v>
+        <v>0.226988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.269245</v>
+        <v>0.273427</v>
       </c>
       <c r="D9" t="n">
-        <v>0.257514</v>
+        <v>0.652536</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314922</v>
+        <v>0.317875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.257394</v>
+        <v>0.260897</v>
       </c>
       <c r="D10" t="n">
-        <v>0.248616</v>
+        <v>0.637346</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305502</v>
+        <v>0.304288</v>
       </c>
       <c r="C11" t="n">
-        <v>0.248736</v>
+        <v>0.252453</v>
       </c>
       <c r="D11" t="n">
-        <v>0.240584</v>
+        <v>0.623973</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296765</v>
+        <v>0.29807</v>
       </c>
       <c r="C12" t="n">
-        <v>0.240929</v>
+        <v>0.244088</v>
       </c>
       <c r="D12" t="n">
-        <v>0.233141</v>
+        <v>0.611421</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288566</v>
+        <v>0.28355</v>
       </c>
       <c r="C13" t="n">
-        <v>0.233465</v>
+        <v>0.238242</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225559</v>
+        <v>0.602701</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280741</v>
+        <v>0.281702</v>
       </c>
       <c r="C14" t="n">
-        <v>0.226292</v>
+        <v>0.230314</v>
       </c>
       <c r="D14" t="n">
-        <v>0.218377</v>
+        <v>0.595767</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273496</v>
+        <v>0.279948</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219635</v>
+        <v>0.222377</v>
       </c>
       <c r="D15" t="n">
-        <v>0.212115</v>
+        <v>0.583152</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266732</v>
+        <v>0.273286</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213602</v>
+        <v>0.217484</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206393</v>
+        <v>0.576949</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260137</v>
+        <v>0.266067</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208122</v>
+        <v>0.212016</v>
       </c>
       <c r="D17" t="n">
-        <v>0.200849</v>
+        <v>0.569576</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254379</v>
+        <v>0.260157</v>
       </c>
       <c r="C18" t="n">
-        <v>0.203244</v>
+        <v>0.206558</v>
       </c>
       <c r="D18" t="n">
-        <v>0.195794</v>
+        <v>0.562914</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249172</v>
+        <v>0.247802</v>
       </c>
       <c r="C19" t="n">
-        <v>0.199874</v>
+        <v>0.204094</v>
       </c>
       <c r="D19" t="n">
-        <v>0.192209</v>
+        <v>0.5614749999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244681</v>
+        <v>0.243382</v>
       </c>
       <c r="C20" t="n">
-        <v>0.197597</v>
+        <v>0.200464</v>
       </c>
       <c r="D20" t="n">
-        <v>0.18929</v>
+        <v>0.553989</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24092</v>
+        <v>0.242414</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196782</v>
+        <v>0.199501</v>
       </c>
       <c r="D21" t="n">
-        <v>0.188064</v>
+        <v>0.734471</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238381</v>
+        <v>0.238456</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198293</v>
+        <v>0.200747</v>
       </c>
       <c r="D22" t="n">
-        <v>0.188764</v>
+        <v>0.7184739999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237966</v>
+        <v>0.240648</v>
       </c>
       <c r="C23" t="n">
-        <v>0.289443</v>
+        <v>0.291881</v>
       </c>
       <c r="D23" t="n">
-        <v>0.273008</v>
+        <v>0.704461</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.325393</v>
+        <v>0.321368</v>
       </c>
       <c r="C24" t="n">
-        <v>0.279824</v>
+        <v>0.279236</v>
       </c>
       <c r="D24" t="n">
-        <v>0.264143</v>
+        <v>0.691937</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315912</v>
+        <v>0.31191</v>
       </c>
       <c r="C25" t="n">
-        <v>0.267726</v>
+        <v>0.270906</v>
       </c>
       <c r="D25" t="n">
-        <v>0.254569</v>
+        <v>0.678957</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.306961</v>
+        <v>0.303181</v>
       </c>
       <c r="C26" t="n">
-        <v>0.258982</v>
+        <v>0.261378</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246283</v>
+        <v>0.665578</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298513</v>
+        <v>0.295625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250782</v>
+        <v>0.254262</v>
       </c>
       <c r="D27" t="n">
-        <v>0.238501</v>
+        <v>0.65445</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.290314</v>
+        <v>0.287522</v>
       </c>
       <c r="C28" t="n">
-        <v>0.242868</v>
+        <v>0.24561</v>
       </c>
       <c r="D28" t="n">
-        <v>0.231462</v>
+        <v>0.643904</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282374</v>
+        <v>0.282718</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235562</v>
+        <v>0.241303</v>
       </c>
       <c r="D29" t="n">
-        <v>0.22459</v>
+        <v>0.634437</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275211</v>
+        <v>0.27471</v>
       </c>
       <c r="C30" t="n">
-        <v>0.228777</v>
+        <v>0.23205</v>
       </c>
       <c r="D30" t="n">
-        <v>0.218194</v>
+        <v>0.6276620000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.26852</v>
+        <v>0.269138</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222753</v>
+        <v>0.227661</v>
       </c>
       <c r="D31" t="n">
-        <v>0.212379</v>
+        <v>0.621941</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262345</v>
+        <v>0.262375</v>
       </c>
       <c r="C32" t="n">
-        <v>0.216957</v>
+        <v>0.222424</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207319</v>
+        <v>0.62314</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256778</v>
+        <v>0.256459</v>
       </c>
       <c r="C33" t="n">
-        <v>0.212075</v>
+        <v>0.21668</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203148</v>
+        <v>0.609868</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251875</v>
+        <v>0.251718</v>
       </c>
       <c r="C34" t="n">
-        <v>0.20857</v>
+        <v>0.212765</v>
       </c>
       <c r="D34" t="n">
-        <v>0.200086</v>
+        <v>0.604776</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.24764</v>
+        <v>0.246349</v>
       </c>
       <c r="C35" t="n">
-        <v>0.205912</v>
+        <v>0.209575</v>
       </c>
       <c r="D35" t="n">
-        <v>0.197919</v>
+        <v>0.794525</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244679</v>
+        <v>0.244627</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205659</v>
+        <v>0.208321</v>
       </c>
       <c r="D36" t="n">
-        <v>0.19772</v>
+        <v>0.780917</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243539</v>
+        <v>0.243661</v>
       </c>
       <c r="C37" t="n">
-        <v>0.30172</v>
+        <v>0.301125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284103</v>
+        <v>0.757986</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327681</v>
+        <v>0.325499</v>
       </c>
       <c r="C38" t="n">
-        <v>0.290964</v>
+        <v>0.290126</v>
       </c>
       <c r="D38" t="n">
-        <v>0.273932</v>
+        <v>0.742811</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318363</v>
+        <v>0.317618</v>
       </c>
       <c r="C39" t="n">
-        <v>0.279156</v>
+        <v>0.282318</v>
       </c>
       <c r="D39" t="n">
-        <v>0.265883</v>
+        <v>0.728978</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.310955</v>
+        <v>0.310681</v>
       </c>
       <c r="C40" t="n">
-        <v>0.272085</v>
+        <v>0.272471</v>
       </c>
       <c r="D40" t="n">
-        <v>0.257177</v>
+        <v>0.715233</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.30295</v>
+        <v>0.302599</v>
       </c>
       <c r="C41" t="n">
-        <v>0.261696</v>
+        <v>0.263154</v>
       </c>
       <c r="D41" t="n">
-        <v>0.249455</v>
+        <v>0.703333</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.295256</v>
+        <v>0.301674</v>
       </c>
       <c r="C42" t="n">
-        <v>0.253593</v>
+        <v>0.256621</v>
       </c>
       <c r="D42" t="n">
-        <v>0.243476</v>
+        <v>0.692598</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288109</v>
+        <v>0.285304</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246278</v>
+        <v>0.249342</v>
       </c>
       <c r="D43" t="n">
-        <v>0.236417</v>
+        <v>0.68196</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.28116</v>
+        <v>0.281216</v>
       </c>
       <c r="C44" t="n">
-        <v>0.239921</v>
+        <v>0.241521</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229765</v>
+        <v>0.673868</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.27369</v>
+        <v>0.286121</v>
       </c>
       <c r="C45" t="n">
-        <v>0.232515</v>
+        <v>0.23479</v>
       </c>
       <c r="D45" t="n">
-        <v>0.222927</v>
+        <v>0.665905</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.269053</v>
+        <v>0.279602</v>
       </c>
       <c r="C46" t="n">
-        <v>0.227653</v>
+        <v>0.228305</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2176</v>
+        <v>0.666229</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263436</v>
+        <v>0.261037</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223154</v>
+        <v>0.223445</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213442</v>
+        <v>0.653617</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.258052</v>
+        <v>0.261428</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216966</v>
+        <v>0.219407</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208922</v>
+        <v>0.647154</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254847</v>
+        <v>0.254564</v>
       </c>
       <c r="C49" t="n">
-        <v>0.213928</v>
+        <v>0.215466</v>
       </c>
       <c r="D49" t="n">
-        <v>0.206187</v>
+        <v>0.643016</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.251928</v>
+        <v>0.255273</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212352</v>
+        <v>0.212697</v>
       </c>
       <c r="D50" t="n">
-        <v>0.205281</v>
+        <v>0.822816</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.250364</v>
+        <v>0.253533</v>
       </c>
       <c r="C51" t="n">
-        <v>0.311664</v>
+        <v>0.311027</v>
       </c>
       <c r="D51" t="n">
-        <v>0.295695</v>
+        <v>0.804404</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.251193</v>
+        <v>0.253419</v>
       </c>
       <c r="C52" t="n">
-        <v>0.301777</v>
+        <v>0.299782</v>
       </c>
       <c r="D52" t="n">
-        <v>0.286979</v>
+        <v>0.787178</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.332629</v>
+        <v>0.334484</v>
       </c>
       <c r="C53" t="n">
-        <v>0.292385</v>
+        <v>0.291913</v>
       </c>
       <c r="D53" t="n">
-        <v>0.27795</v>
+        <v>0.771322</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.324087</v>
+        <v>0.331204</v>
       </c>
       <c r="C54" t="n">
-        <v>0.283306</v>
+        <v>0.282819</v>
       </c>
       <c r="D54" t="n">
-        <v>0.269559</v>
+        <v>0.756247</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.31622</v>
+        <v>0.320815</v>
       </c>
       <c r="C55" t="n">
-        <v>0.274715</v>
+        <v>0.272973</v>
       </c>
       <c r="D55" t="n">
-        <v>0.261791</v>
+        <v>0.744831</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.308905</v>
+        <v>0.312055</v>
       </c>
       <c r="C56" t="n">
-        <v>0.26691</v>
+        <v>0.268066</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254157</v>
+        <v>0.732509</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.301577</v>
+        <v>0.303968</v>
       </c>
       <c r="C57" t="n">
-        <v>0.259126</v>
+        <v>0.259788</v>
       </c>
       <c r="D57" t="n">
-        <v>0.247256</v>
+        <v>0.720671</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.295</v>
+        <v>0.301262</v>
       </c>
       <c r="C58" t="n">
-        <v>0.251966</v>
+        <v>0.250841</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240538</v>
+        <v>0.712069</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.288704</v>
+        <v>0.297762</v>
       </c>
       <c r="C59" t="n">
-        <v>0.245302</v>
+        <v>0.244394</v>
       </c>
       <c r="D59" t="n">
-        <v>0.234404</v>
+        <v>0.702362</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282985</v>
+        <v>0.287694</v>
       </c>
       <c r="C60" t="n">
-        <v>0.239289</v>
+        <v>0.23866</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228949</v>
+        <v>0.695377</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277447</v>
+        <v>0.283693</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233867</v>
+        <v>0.233397</v>
       </c>
       <c r="D61" t="n">
-        <v>0.224172</v>
+        <v>0.687912</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272764</v>
+        <v>0.278254</v>
       </c>
       <c r="C62" t="n">
-        <v>0.229332</v>
+        <v>0.228988</v>
       </c>
       <c r="D62" t="n">
-        <v>0.220117</v>
+        <v>0.6816410000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.268841</v>
+        <v>0.272397</v>
       </c>
       <c r="C63" t="n">
-        <v>0.225991</v>
+        <v>0.226164</v>
       </c>
       <c r="D63" t="n">
-        <v>0.217443</v>
+        <v>0.676193</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265728</v>
+        <v>0.279991</v>
       </c>
       <c r="C64" t="n">
-        <v>0.224232</v>
+        <v>0.223949</v>
       </c>
       <c r="D64" t="n">
-        <v>0.215608</v>
+        <v>0.897099</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263909</v>
+        <v>0.268539</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224792</v>
+        <v>0.224044</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21667</v>
+        <v>0.874147</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.264313</v>
+        <v>0.268047</v>
       </c>
       <c r="C66" t="n">
-        <v>0.331166</v>
+        <v>0.325281</v>
       </c>
       <c r="D66" t="n">
-        <v>0.326539</v>
+        <v>0.855722</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.392506</v>
+        <v>0.40996</v>
       </c>
       <c r="C67" t="n">
-        <v>0.320655</v>
+        <v>0.317571</v>
       </c>
       <c r="D67" t="n">
-        <v>0.316518</v>
+        <v>0.838521</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.384405</v>
+        <v>0.399903</v>
       </c>
       <c r="C68" t="n">
-        <v>0.311396</v>
+        <v>0.312614</v>
       </c>
       <c r="D68" t="n">
-        <v>0.307184</v>
+        <v>0.823041</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.377037</v>
+        <v>0.399132</v>
       </c>
       <c r="C69" t="n">
-        <v>0.302878</v>
+        <v>0.304725</v>
       </c>
       <c r="D69" t="n">
-        <v>0.298496</v>
+        <v>0.8110889999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.369616</v>
+        <v>0.426868</v>
       </c>
       <c r="C70" t="n">
-        <v>0.294566</v>
+        <v>0.296062</v>
       </c>
       <c r="D70" t="n">
-        <v>0.290195</v>
+        <v>0.798872</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.363063</v>
+        <v>0.374682</v>
       </c>
       <c r="C71" t="n">
-        <v>0.286285</v>
+        <v>0.283303</v>
       </c>
       <c r="D71" t="n">
-        <v>0.281967</v>
+        <v>0.789511</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.35683</v>
+        <v>0.371591</v>
       </c>
       <c r="C72" t="n">
-        <v>0.279017</v>
+        <v>0.277395</v>
       </c>
       <c r="D72" t="n">
-        <v>0.274389</v>
+        <v>0.781117</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350271</v>
+        <v>0.350339</v>
       </c>
       <c r="C73" t="n">
-        <v>0.271979</v>
+        <v>0.2703</v>
       </c>
       <c r="D73" t="n">
-        <v>0.267539</v>
+        <v>0.773633</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.344358</v>
+        <v>0.352868</v>
       </c>
       <c r="C74" t="n">
-        <v>0.265696</v>
+        <v>0.267478</v>
       </c>
       <c r="D74" t="n">
-        <v>0.261001</v>
+        <v>0.768279</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.338383</v>
+        <v>0.348509</v>
       </c>
       <c r="C75" t="n">
-        <v>0.259729</v>
+        <v>0.257891</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255265</v>
+        <v>0.764101</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.332664</v>
+        <v>0.368306</v>
       </c>
       <c r="C76" t="n">
-        <v>0.254604</v>
+        <v>0.254501</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250347</v>
+        <v>0.7621830000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.327495</v>
+        <v>0.345306</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250702</v>
+        <v>0.252334</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246356</v>
+        <v>0.762069</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.322977</v>
+        <v>0.372</v>
       </c>
       <c r="C78" t="n">
-        <v>0.248254</v>
+        <v>0.253586</v>
       </c>
       <c r="D78" t="n">
-        <v>0.24407</v>
+        <v>1.20976</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.319589</v>
+        <v>0.355142</v>
       </c>
       <c r="C79" t="n">
-        <v>0.247931</v>
+        <v>0.25244</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243745</v>
+        <v>1.1893</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.317412</v>
+        <v>0.337464</v>
       </c>
       <c r="C80" t="n">
-        <v>0.509948</v>
+        <v>0.375411</v>
       </c>
       <c r="D80" t="n">
-        <v>0.400431</v>
+        <v>1.17288</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.553964</v>
+        <v>0.477012</v>
       </c>
       <c r="C81" t="n">
-        <v>0.368004</v>
+        <v>0.37111</v>
       </c>
       <c r="D81" t="n">
-        <v>0.394183</v>
+        <v>1.15614</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.547829</v>
+        <v>0.468761</v>
       </c>
       <c r="C82" t="n">
-        <v>0.359632</v>
+        <v>0.360671</v>
       </c>
       <c r="D82" t="n">
-        <v>0.385942</v>
+        <v>1.14276</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.538384</v>
+        <v>0.457184</v>
       </c>
       <c r="C83" t="n">
-        <v>0.350416</v>
+        <v>0.349598</v>
       </c>
       <c r="D83" t="n">
-        <v>0.374512</v>
+        <v>1.13289</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.529327</v>
+        <v>0.453483</v>
       </c>
       <c r="C84" t="n">
-        <v>0.341594</v>
+        <v>0.346491</v>
       </c>
       <c r="D84" t="n">
-        <v>0.366227</v>
+        <v>1.12675</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5196769999999999</v>
+        <v>0.455409</v>
       </c>
       <c r="C85" t="n">
-        <v>0.333745</v>
+        <v>0.335908</v>
       </c>
       <c r="D85" t="n">
-        <v>0.358241</v>
+        <v>1.1221</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.510369</v>
+        <v>0.418369</v>
       </c>
       <c r="C86" t="n">
-        <v>0.327038</v>
+        <v>0.328615</v>
       </c>
       <c r="D86" t="n">
-        <v>0.348967</v>
+        <v>1.12255</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.499962</v>
+        <v>0.429631</v>
       </c>
       <c r="C87" t="n">
-        <v>0.316977</v>
+        <v>0.319918</v>
       </c>
       <c r="D87" t="n">
-        <v>0.339007</v>
+        <v>1.12312</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4907</v>
+        <v>0.427941</v>
       </c>
       <c r="C88" t="n">
-        <v>0.309012</v>
+        <v>0.314368</v>
       </c>
       <c r="D88" t="n">
-        <v>0.33065</v>
+        <v>1.12736</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.481175</v>
+        <v>0.428879</v>
       </c>
       <c r="C89" t="n">
-        <v>0.304307</v>
+        <v>0.30761</v>
       </c>
       <c r="D89" t="n">
-        <v>0.322774</v>
+        <v>1.13434</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.472351</v>
+        <v>0.44147</v>
       </c>
       <c r="C90" t="n">
-        <v>0.298218</v>
+        <v>0.300618</v>
       </c>
       <c r="D90" t="n">
-        <v>0.315892</v>
+        <v>1.14375</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.465313</v>
+        <v>0.468863</v>
       </c>
       <c r="C91" t="n">
-        <v>0.293329</v>
+        <v>0.29973</v>
       </c>
       <c r="D91" t="n">
-        <v>0.310857</v>
+        <v>1.14542</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.457828</v>
+        <v>0.414136</v>
       </c>
       <c r="C92" t="n">
-        <v>0.290827</v>
+        <v>0.292032</v>
       </c>
       <c r="D92" t="n">
-        <v>0.307376</v>
+        <v>1.68806</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.451091</v>
+        <v>0.414015</v>
       </c>
       <c r="C93" t="n">
-        <v>0.288273</v>
+        <v>0.292812</v>
       </c>
       <c r="D93" t="n">
-        <v>0.305968</v>
+        <v>1.68023</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.44592</v>
+        <v>0.391546</v>
       </c>
       <c r="C94" t="n">
-        <v>0.47891</v>
+        <v>0.475098</v>
       </c>
       <c r="D94" t="n">
-        <v>0.548362</v>
+        <v>1.65611</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.578402</v>
+        <v>0.585851</v>
       </c>
       <c r="C95" t="n">
-        <v>0.471764</v>
+        <v>0.466818</v>
       </c>
       <c r="D95" t="n">
-        <v>0.538422</v>
+        <v>1.64502</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.576702</v>
+        <v>0.588998</v>
       </c>
       <c r="C96" t="n">
-        <v>0.461079</v>
+        <v>0.457146</v>
       </c>
       <c r="D96" t="n">
-        <v>0.523892</v>
+        <v>1.63591</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.568569</v>
+        <v>0.608989</v>
       </c>
       <c r="C97" t="n">
-        <v>0.448161</v>
+        <v>0.446397</v>
       </c>
       <c r="D97" t="n">
-        <v>0.516507</v>
+        <v>1.62875</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.557982</v>
+        <v>0.578584</v>
       </c>
       <c r="C98" t="n">
-        <v>0.436727</v>
+        <v>0.43465</v>
       </c>
       <c r="D98" t="n">
-        <v>0.50202</v>
+        <v>1.62439</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.550048</v>
+        <v>0.559906</v>
       </c>
       <c r="C99" t="n">
-        <v>0.426247</v>
+        <v>0.422993</v>
       </c>
       <c r="D99" t="n">
-        <v>0.48767</v>
+        <v>1.62014</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.542526</v>
+        <v>0.555631</v>
       </c>
       <c r="C100" t="n">
-        <v>0.415899</v>
+        <v>0.411854</v>
       </c>
       <c r="D100" t="n">
-        <v>0.473933</v>
+        <v>1.62295</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.536106</v>
+        <v>0.547807</v>
       </c>
       <c r="C101" t="n">
-        <v>0.405626</v>
+        <v>0.404775</v>
       </c>
       <c r="D101" t="n">
-        <v>0.464286</v>
+        <v>1.6344</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5282210000000001</v>
+        <v>0.570171</v>
       </c>
       <c r="C102" t="n">
-        <v>0.395861</v>
+        <v>0.39685</v>
       </c>
       <c r="D102" t="n">
-        <v>0.452952</v>
+        <v>1.633</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.522593</v>
+        <v>0.52734</v>
       </c>
       <c r="C103" t="n">
-        <v>0.387249</v>
+        <v>0.384201</v>
       </c>
       <c r="D103" t="n">
-        <v>0.441855</v>
+        <v>1.64676</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.515601</v>
+        <v>0.530646</v>
       </c>
       <c r="C104" t="n">
-        <v>0.379894</v>
+        <v>0.38273</v>
       </c>
       <c r="D104" t="n">
-        <v>0.431885</v>
+        <v>1.65914</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.51109</v>
+        <v>0.505884</v>
       </c>
       <c r="C105" t="n">
-        <v>0.373695</v>
+        <v>0.370469</v>
       </c>
       <c r="D105" t="n">
-        <v>0.423159</v>
+        <v>1.67528</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.504585</v>
+        <v>0.529415</v>
       </c>
       <c r="C106" t="n">
-        <v>0.367962</v>
+        <v>0.366887</v>
       </c>
       <c r="D106" t="n">
-        <v>0.415647</v>
+        <v>1.69587</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.499901</v>
+        <v>0.5255609999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.365096</v>
+        <v>0.364687</v>
       </c>
       <c r="D107" t="n">
-        <v>0.409652</v>
+        <v>2.26498</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.496717</v>
+        <v>0.507387</v>
       </c>
       <c r="C108" t="n">
-        <v>0.557239</v>
+        <v>0.56053</v>
       </c>
       <c r="D108" t="n">
-        <v>0.595515</v>
+        <v>2.24128</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.495671</v>
+        <v>0.500603</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5479039999999999</v>
+        <v>0.552872</v>
       </c>
       <c r="D109" t="n">
-        <v>0.586699</v>
+        <v>2.21413</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.688968</v>
+        <v>0.701825</v>
       </c>
       <c r="C110" t="n">
-        <v>0.538566</v>
+        <v>0.540624</v>
       </c>
       <c r="D110" t="n">
-        <v>0.572937</v>
+        <v>2.20005</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6783130000000001</v>
+        <v>0.6907450000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.524749</v>
+        <v>0.527795</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5590079999999999</v>
+        <v>2.18991</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.667342</v>
+        <v>0.686802</v>
       </c>
       <c r="C112" t="n">
-        <v>0.512435</v>
+        <v>0.515326</v>
       </c>
       <c r="D112" t="n">
-        <v>0.54601</v>
+        <v>2.17359</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.656821</v>
+        <v>0.642528</v>
       </c>
       <c r="C113" t="n">
-        <v>0.501445</v>
+        <v>0.471305</v>
       </c>
       <c r="D113" t="n">
-        <v>0.534439</v>
+        <v>2.16559</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.647051</v>
+        <v>0.656505</v>
       </c>
       <c r="C114" t="n">
-        <v>0.490778</v>
+        <v>0.465914</v>
       </c>
       <c r="D114" t="n">
-        <v>0.523772</v>
+        <v>2.20954</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.638157</v>
+        <v>0.66266</v>
       </c>
       <c r="C115" t="n">
-        <v>0.481009</v>
+        <v>0.481138</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5124339999999999</v>
+        <v>2.22494</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.628919</v>
+        <v>0.646633</v>
       </c>
       <c r="C116" t="n">
-        <v>0.470645</v>
+        <v>0.471772</v>
       </c>
       <c r="D116" t="n">
-        <v>0.501189</v>
+        <v>2.2135</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.620735</v>
+        <v>0.630694</v>
       </c>
       <c r="C117" t="n">
-        <v>0.462459</v>
+        <v>0.462929</v>
       </c>
       <c r="D117" t="n">
-        <v>0.491186</v>
+        <v>2.22535</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.612698</v>
+        <v>0.617501</v>
       </c>
       <c r="C118" t="n">
-        <v>0.451327</v>
+        <v>0.455538</v>
       </c>
       <c r="D118" t="n">
-        <v>0.482672</v>
+        <v>2.16879</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.605469</v>
+        <v>0.592769</v>
       </c>
       <c r="C119" t="n">
-        <v>0.445279</v>
+        <v>0.42603</v>
       </c>
       <c r="D119" t="n">
-        <v>0.474293</v>
+        <v>2.16891</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.599406</v>
+        <v>0.575829</v>
       </c>
       <c r="C120" t="n">
-        <v>0.438486</v>
+        <v>0.419464</v>
       </c>
       <c r="D120" t="n">
-        <v>0.467112</v>
+        <v>2.17552</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.593482</v>
+        <v>0.588295</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432947</v>
+        <v>0.418929</v>
       </c>
       <c r="D121" t="n">
-        <v>0.459738</v>
+        <v>2.79835</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.588166</v>
+        <v>0.5985780000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.43069</v>
+        <v>0.413278</v>
       </c>
       <c r="D122" t="n">
-        <v>0.455794</v>
+        <v>2.76256</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5858449999999999</v>
+        <v>0.5766790000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.619838</v>
+        <v>0.604418</v>
       </c>
       <c r="D123" t="n">
-        <v>0.652813</v>
+        <v>2.72798</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.776451</v>
+        <v>0.789364</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6105930000000001</v>
+        <v>0.596843</v>
       </c>
       <c r="D124" t="n">
-        <v>0.642146</v>
+        <v>2.69607</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.767969</v>
+        <v>0.759029</v>
       </c>
       <c r="C125" t="n">
-        <v>0.60144</v>
+        <v>0.589758</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6289090000000001</v>
+        <v>2.67082</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.760355</v>
+        <v>0.772949</v>
       </c>
       <c r="C126" t="n">
-        <v>0.594082</v>
+        <v>0.582865</v>
       </c>
       <c r="D126" t="n">
-        <v>0.617324</v>
+        <v>2.64956</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.752091</v>
+        <v>0.755065</v>
       </c>
       <c r="C127" t="n">
-        <v>0.584046</v>
+        <v>0.574713</v>
       </c>
       <c r="D127" t="n">
-        <v>0.604545</v>
+        <v>2.61944</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.747144</v>
+        <v>0.75073</v>
       </c>
       <c r="C128" t="n">
-        <v>0.57692</v>
+        <v>0.563783</v>
       </c>
       <c r="D128" t="n">
-        <v>0.593768</v>
+        <v>2.60489</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.740282</v>
+        <v>0.749035</v>
       </c>
       <c r="C129" t="n">
-        <v>0.570427</v>
+        <v>0.57642</v>
       </c>
       <c r="D129" t="n">
-        <v>0.584972</v>
+        <v>2.60223</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.734739</v>
+        <v>0.72618</v>
       </c>
       <c r="C130" t="n">
-        <v>0.563141</v>
+        <v>0.555117</v>
       </c>
       <c r="D130" t="n">
-        <v>0.584021</v>
+        <v>2.58358</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.727811</v>
+        <v>0.721332</v>
       </c>
       <c r="C131" t="n">
-        <v>0.556654</v>
+        <v>0.549729</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5764860000000001</v>
+        <v>2.57897</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.71932</v>
+        <v>0.719557</v>
       </c>
       <c r="C132" t="n">
-        <v>0.552579</v>
+        <v>0.5437689999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.575972</v>
+        <v>2.57555</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.711873</v>
+        <v>0.715943</v>
       </c>
       <c r="C133" t="n">
-        <v>0.546917</v>
+        <v>0.531347</v>
       </c>
       <c r="D133" t="n">
-        <v>0.570049</v>
+        <v>2.57578</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.707965</v>
+        <v>0.715149</v>
       </c>
       <c r="C134" t="n">
-        <v>0.543175</v>
+        <v>0.533676</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5635</v>
+        <v>2.56142</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.704365</v>
+        <v>0.687159</v>
       </c>
       <c r="C135" t="n">
-        <v>0.532481</v>
+        <v>0.5101059999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.550181</v>
+        <v>3.19993</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.70607</v>
+        <v>0.697402</v>
       </c>
       <c r="C136" t="n">
-        <v>0.532172</v>
+        <v>0.5068859999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.545315</v>
+        <v>3.14494</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.702337</v>
+        <v>0.689021</v>
       </c>
       <c r="C137" t="n">
-        <v>0.719363</v>
+        <v>0.694187</v>
       </c>
       <c r="D137" t="n">
-        <v>0.739501</v>
+        <v>3.09788</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8848009999999999</v>
+        <v>0.877049</v>
       </c>
       <c r="C138" t="n">
-        <v>0.711511</v>
+        <v>0.688257</v>
       </c>
       <c r="D138" t="n">
-        <v>0.733092</v>
+        <v>3.05017</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.878764</v>
+        <v>0.892451</v>
       </c>
       <c r="C139" t="n">
-        <v>0.699699</v>
+        <v>0.680602</v>
       </c>
       <c r="D139" t="n">
-        <v>0.727969</v>
+        <v>3.0056</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.87336</v>
+        <v>0.844163</v>
       </c>
       <c r="C140" t="n">
-        <v>0.689726</v>
+        <v>0.674022</v>
       </c>
       <c r="D140" t="n">
-        <v>0.717648</v>
+        <v>2.98081</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.866326</v>
+        <v>0.857637</v>
       </c>
       <c r="C141" t="n">
-        <v>0.68283</v>
+        <v>0.664887</v>
       </c>
       <c r="D141" t="n">
-        <v>0.706686</v>
+        <v>2.95566</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.862398</v>
+        <v>0.853357</v>
       </c>
       <c r="C142" t="n">
-        <v>0.676998</v>
+        <v>0.661559</v>
       </c>
       <c r="D142" t="n">
-        <v>0.701728</v>
+        <v>2.94943</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.854534</v>
+        <v>0.854125</v>
       </c>
       <c r="C143" t="n">
-        <v>0.670369</v>
+        <v>0.6577769999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.696422</v>
+        <v>2.92041</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.170668</v>
+                  <v>0.15495</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.164843</v>
+                  <v>0.153545</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.165379</v>
+                  <v>0.156261</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.150997</v>
+                  <v>0.154468</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.152331</v>
+                  <v>0.159997</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149768</v>
+                  <v>0.148057</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.152588</v>
+                  <v>0.149778</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154628</v>
+                  <v>0.154311</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.221009</v>
+                  <v>0.223686</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.212625</v>
+                  <v>0.205186</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.211566</v>
+                  <v>0.205051</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.195441</v>
+                  <v>0.191499</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194947</v>
+                  <v>0.185229</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186434</v>
+                  <v>0.180374</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.178351</v>
+                  <v>0.173777</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.173591</v>
+                  <v>0.174067</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.168205</v>
+                  <v>0.166807</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.16688</v>
+                  <v>0.160047</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.159624</v>
+                  <v>0.157303</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.158982</v>
+                  <v>0.156402</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.157925</v>
+                  <v>0.163726</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157835</v>
+                  <v>0.160119</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235187</v>
+                  <v>0.240097</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234979</v>
+                  <v>0.231232</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.222812</v>
+                  <v>0.227764</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.212721</v>
+                  <v>0.219773</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.204469</v>
+                  <v>0.21386</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.19605</v>
+                  <v>0.200835</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.192526</v>
+                  <v>0.197722</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.179359</v>
+                  <v>0.185452</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182408</v>
+                  <v>0.185902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173725</v>
+                  <v>0.179391</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.172037</v>
+                  <v>0.174647</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.170274</v>
+                  <v>0.167433</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.163399</v>
+                  <v>0.173431</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.165498</v>
+                  <v>0.169377</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243844</v>
+                  <v>0.245427</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.23535</v>
+                  <v>0.236324</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226636</v>
+                  <v>0.228014</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.217798</v>
+                  <v>0.220475</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210594</v>
+                  <v>0.211363</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203038</v>
+                  <v>0.205815</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.200194</v>
+                  <v>0.198957</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.194085</v>
+                  <v>0.192026</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.189659</v>
+                  <v>0.186259</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.184056</v>
+                  <v>0.182829</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.179376</v>
+                  <v>0.178498</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.176819</v>
+                  <v>0.174932</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.175946</v>
+                  <v>0.173529</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.176716</v>
+                  <v>0.174603</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.179499</v>
+                  <v>0.178568</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.246194</v>
+                  <v>0.242911</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.236625</v>
+                  <v>0.233062</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.228535</v>
+                  <v>0.225756</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.220311</v>
+                  <v>0.219169</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.212764</v>
+                  <v>0.211266</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.205025</v>
+                  <v>0.204869</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198959</v>
+                  <v>0.198465</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.193449</v>
+                  <v>0.192641</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.188205</v>
+                  <v>0.187453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182403</v>
+                  <v>0.183317</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.179269</v>
+                  <v>0.180442</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177012</v>
+                  <v>0.178772</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177729</v>
+                  <v>0.178868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180358</v>
+                  <v>0.182404</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244029</v>
+                  <v>0.246499</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.236519</v>
+                  <v>0.24057</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228133</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220467</v>
+                  <v>0.222631</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212274</v>
+                  <v>0.214224</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205977</v>
+                  <v>0.208225</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199758</v>
+                  <v>0.200051</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19413</v>
+                  <v>0.196592</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188413</v>
+                  <v>0.191699</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184215</v>
+                  <v>0.187385</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181004</v>
+                  <v>0.184281</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178894</v>
+                  <v>0.181944</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17897</v>
+                  <v>0.181193</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180581</v>
+                  <v>0.183598</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.256846</v>
+                  <v>0.259901</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.250364</v>
+                  <v>0.251809</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.24198</v>
+                  <v>0.245416</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233548</v>
+                  <v>0.236506</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.227319</v>
+                  <v>0.228865</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219364</v>
+                  <v>0.222002</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213434</v>
+                  <v>0.215267</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207721</v>
+                  <v>0.208708</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201258</v>
+                  <v>0.203164</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19653</v>
+                  <v>0.198265</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192528</v>
+                  <v>0.194029</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189688</v>
+                  <v>0.191051</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188619</v>
+                  <v>0.190331</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189627</v>
+                  <v>0.190609</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270145</v>
+                  <v>0.271708</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.264648</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.257315</v>
+                  <v>0.258822</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.250563</v>
+                  <v>0.251693</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24473</v>
+                  <v>0.245207</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238846</v>
+                  <v>0.238911</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232631</v>
+                  <v>0.233314</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227556</v>
+                  <v>0.227926</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222112</v>
+                  <v>0.223038</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217608</v>
+                  <v>0.218392</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213903</v>
+                  <v>0.214392</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.21037</v>
+                  <v>0.211043</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208235</v>
+                  <v>0.208798</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208631</v>
+                  <v>0.208902</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210884</v>
+                  <v>0.210912</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.284085</v>
+                  <v>0.282122</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277325</v>
+                  <v>0.277332</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271154</v>
+                  <v>0.271849</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265253</v>
+                  <v>0.265643</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259777</v>
+                  <v>0.259825</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254644</v>
+                  <v>0.254755</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250128</v>
+                  <v>0.249822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245359</v>
+                  <v>0.24522</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241561</v>
+                  <v>0.241839</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23764</v>
+                  <v>0.23729</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234284</v>
+                  <v>0.234272</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231834</v>
+                  <v>0.232088</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231043</v>
+                  <v>0.231128</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232245</v>
+                  <v>0.232239</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.315814</v>
+                  <v>0.317627</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.310851</v>
+                  <v>0.312009</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.306028</v>
+                  <v>0.30586</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299753</v>
+                  <v>0.300592</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294531</v>
+                  <v>0.295357</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.289946</v>
+                  <v>0.291282</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285871</v>
+                  <v>0.290024</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28194</v>
+                  <v>0.292332</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278146</v>
+                  <v>0.316529</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275044</v>
+                  <v>0.313286</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.27231</v>
+                  <v>0.269433</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270276</v>
+                  <v>0.267928</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.26913</v>
+                  <v>0.267051</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270188</v>
+                  <v>0.267636</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.360478</v>
+                  <v>0.350842</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.354977</v>
+                  <v>0.345442</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.350567</v>
+                  <v>0.341276</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.345151</v>
+                  <v>0.336592</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34072</v>
+                  <v>0.332195</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.335998</v>
+                  <v>0.328062</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.136461</v>
+                  <v>0.133487</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.143885</v>
+                  <v>0.128996</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.138416</v>
+                  <v>0.128778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.131866</v>
+                  <v>0.123893</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.128733</v>
+                  <v>0.115629</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.125371</v>
+                  <v>0.117525</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.119173</v>
+                  <v>0.110211</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119054</v>
+                  <v>0.176215</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.199755</v>
+                  <v>0.169618</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.194893</v>
+                  <v>0.167522</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.186611</v>
+                  <v>0.164985</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.180929</v>
+                  <v>0.157948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.171719</v>
+                  <v>0.154722</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.164359</v>
+                  <v>0.145283</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.159604</v>
+                  <v>0.14847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.156142</v>
+                  <v>0.137933</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.148751</v>
+                  <v>0.132223</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.145812</v>
+                  <v>0.130486</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.141893</v>
+                  <v>0.124625</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.140321</v>
+                  <v>0.122399</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138166</v>
+                  <v>0.122231</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.138866</v>
+                  <v>0.215673</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.22216</v>
+                  <v>0.209008</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.214043</v>
+                  <v>0.196812</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.202789</v>
+                  <v>0.193513</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.194749</v>
+                  <v>0.186064</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.188153</v>
+                  <v>0.182841</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.180718</v>
+                  <v>0.175024</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.174444</v>
+                  <v>0.170131</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.168821</v>
+                  <v>0.161414</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.162937</v>
+                  <v>0.156848</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.157914</v>
+                  <v>0.155946</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.153826</v>
+                  <v>0.14656</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150082</v>
+                  <v>0.150628</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.147894</v>
+                  <v>0.146053</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.146972</v>
+                  <v>0.230175</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.223466</v>
+                  <v>0.222468</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214588</v>
+                  <v>0.212657</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.206551</v>
+                  <v>0.20674</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198601</v>
+                  <v>0.198642</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191216</v>
+                  <v>0.191772</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.18396</v>
+                  <v>0.188281</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.180497</v>
+                  <v>0.177377</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.174746</v>
+                  <v>0.171985</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.168726</v>
+                  <v>0.166429</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.16349</v>
+                  <v>0.166079</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159218</v>
+                  <v>0.159028</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.155587</v>
+                  <v>0.15706</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.153056</v>
+                  <v>0.156108</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.151411</v>
+                  <v>0.244006</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.152255</v>
+                  <v>0.234167</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.223567</v>
+                  <v>0.224348</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.215128</v>
+                  <v>0.216183</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206602</v>
+                  <v>0.208516</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.199106</v>
+                  <v>0.200898</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191861</v>
+                  <v>0.193874</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184943</v>
+                  <v>0.186857</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.178332</v>
+                  <v>0.180909</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172886</v>
+                  <v>0.175261</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167693</v>
+                  <v>0.170349</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.160526</v>
+                  <v>0.166078</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.156473</v>
+                  <v>0.163411</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.15361</v>
+                  <v>0.161494</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.151918</v>
+                  <v>0.16251</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.152658</v>
+                  <v>0.243741</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.228151</v>
+                  <v>0.233795</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.219456</v>
+                  <v>0.226048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.21135</v>
+                  <v>0.218522</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.203187</v>
+                  <v>0.208423</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.195914</v>
+                  <v>0.20239</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.188766</v>
+                  <v>0.195978</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.182265</v>
+                  <v>0.190244</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.176143</v>
+                  <v>0.183549</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.170713</v>
+                  <v>0.17921</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165631</v>
+                  <v>0.174505</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.161469</v>
+                  <v>0.17026</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.158217</v>
+                  <v>0.168555</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.156204</v>
+                  <v>0.167771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.156222</v>
+                  <v>0.243049</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.230333</v>
+                  <v>0.233663</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222566</v>
+                  <v>0.225806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.214771</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207566</v>
+                  <v>0.210345</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200837</v>
+                  <v>0.202909</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.19364</v>
+                  <v>0.196278</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.188096</v>
+                  <v>0.190457</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.181911</v>
+                  <v>0.184578</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176008</v>
+                  <v>0.179115</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.171451</v>
+                  <v>0.174858</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166593</v>
+                  <v>0.171276</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.163878</v>
+                  <v>0.168786</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.160923</v>
+                  <v>0.169004</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.160238</v>
+                  <v>0.254981</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.248401</v>
+                  <v>0.247215</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.240463</v>
+                  <v>0.239115</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.232944</v>
+                  <v>0.230624</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.225805</v>
+                  <v>0.222856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.22678</v>
+                  <v>0.21591</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.212444</v>
+                  <v>0.209102</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.206497</v>
+                  <v>0.202675</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.201607</v>
+                  <v>0.196973</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.195129</v>
+                  <v>0.19177</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.189518</v>
+                  <v>0.187172</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.186515</v>
+                  <v>0.183301</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18283</v>
+                  <v>0.18078</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.18042</v>
+                  <v>0.179522</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.179433</v>
+                  <v>0.269489</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.181014</v>
+                  <v>0.262897</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.260856</v>
+                  <v>0.256726</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.252951</v>
+                  <v>0.247451</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.245756</v>
+                  <v>0.24043</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.239063</v>
+                  <v>0.233607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.232542</v>
+                  <v>0.227423</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.226357</v>
+                  <v>0.221229</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.221257</v>
+                  <v>0.215868</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.217762</v>
+                  <v>0.210591</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.212853</v>
+                  <v>0.206479</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.208819</v>
+                  <v>0.202559</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.20483</v>
+                  <v>0.199773</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.201751</v>
+                  <v>0.198176</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200686</v>
+                  <v>0.198841</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.200643</v>
+                  <v>0.285232</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.284238</v>
+                  <v>0.276811</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.278287</v>
+                  <v>0.270839</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.268032</v>
+                  <v>0.265608</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.262246</v>
+                  <v>0.260523</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.2563</v>
+                  <v>0.255044</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.25157</v>
+                  <v>0.251807</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.247088</v>
+                  <v>0.249694</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.242605</v>
+                  <v>0.266801</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.238676</v>
+                  <v>0.263743</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.235063</v>
+                  <v>0.282668</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.231818</v>
+                  <v>0.233059</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229352</v>
+                  <v>0.231579</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.227891</v>
+                  <v>0.231913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.22831</v>
+                  <v>0.326305</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.321523</v>
+                  <v>0.320686</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315351</v>
+                  <v>0.315677</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309742</v>
+                  <v>0.310855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304011</v>
+                  <v>0.306001</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.29869</v>
+                  <v>0.30133</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29374</v>
+                  <v>0.297474</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.134178</v>
+                  <v>0.344005</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.131948</v>
+                  <v>0.340023</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.136503</v>
+                  <v>0.339171</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.127659</v>
+                  <v>0.337006</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.126491</v>
+                  <v>0.334346</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.127377</v>
+                  <v>0.44346</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.120481</v>
+                  <v>0.42934</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.189804</v>
+                  <v>0.422947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.193076</v>
+                  <v>0.414834</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.185771</v>
+                  <v>0.412844</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.175595</v>
+                  <v>0.410981</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.170808</v>
+                  <v>0.402817</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.163676</v>
+                  <v>0.395902</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.15658</v>
+                  <v>0.389522</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.15111</v>
+                  <v>0.38781</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.147927</v>
+                  <v>0.384793</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.144277</v>
+                  <v>0.379955</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.141029</v>
+                  <v>0.378853</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.138444</v>
+                  <v>0.373582</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.136899</v>
+                  <v>0.476217</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138731</v>
+                  <v>0.46546</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.22524</v>
+                  <v>0.464787</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.217581</v>
+                  <v>0.45141</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.205227</v>
+                  <v>0.445799</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.196362</v>
+                  <v>0.434497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.189144</v>
+                  <v>0.427631</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.18136</v>
+                  <v>0.419558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175284</v>
+                  <v>0.411806</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170321</v>
+                  <v>0.406268</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.162701</v>
+                  <v>0.401866</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.159519</v>
+                  <v>0.397333</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153345</v>
+                  <v>0.393844</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.150314</v>
+                  <v>0.389286</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.149603</v>
+                  <v>0.493518</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.148604</v>
+                  <v>0.484731</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230138</v>
+                  <v>0.475688</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.221941</v>
+                  <v>0.463878</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212902</v>
+                  <v>0.455129</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.202745</v>
+                  <v>0.446551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.197872</v>
+                  <v>0.438381</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.189578</v>
+                  <v>0.43272</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.181192</v>
+                  <v>0.425374</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178348</v>
+                  <v>0.420618</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.172191</v>
+                  <v>0.41841</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.16614</v>
+                  <v>0.414417</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.161458</v>
+                  <v>0.412106</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.158505</v>
+                  <v>0.406774</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.156259</v>
+                  <v>0.402662</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155863</v>
+                  <v>0.505211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.240125</v>
+                  <v>0.498063</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.228307</v>
+                  <v>0.485203</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222098</v>
+                  <v>0.477573</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.213257</v>
+                  <v>0.46772</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.204699</v>
+                  <v>0.463373</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.197271</v>
+                  <v>0.4539</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.189954</v>
+                  <v>0.446932</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.182964</v>
+                  <v>0.440617</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.176915</v>
+                  <v>0.437856</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172102</v>
+                  <v>0.432426</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167281</v>
+                  <v>0.428781</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.161153</v>
+                  <v>0.423174</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.158454</v>
+                  <v>0.422691</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.157323</v>
+                  <v>0.5450739999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.158629</v>
+                  <v>0.540152</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.235154</v>
+                  <v>0.524844</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.225864</v>
+                  <v>0.515304</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.218407</v>
+                  <v>0.507802</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.209007</v>
+                  <v>0.498374</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.201152</v>
+                  <v>0.494679</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.19372</v>
+                  <v>0.495527</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.186741</v>
+                  <v>0.483948</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.180491</v>
+                  <v>0.481365</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.174783</v>
+                  <v>0.496964</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.169469</v>
+                  <v>0.492901</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165683</v>
+                  <v>0.489043</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.162247</v>
+                  <v>0.486233</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.160468</v>
+                  <v>0.664263</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.161441</v>
+                  <v>0.653161</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238856</v>
+                  <v>0.643571</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.22991</v>
+                  <v>0.63595</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.220936</v>
+                  <v>0.629796</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.213054</v>
+                  <v>0.622012</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.205347</v>
+                  <v>0.619332</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.198292</v>
+                  <v>0.615398</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.191445</v>
+                  <v>0.615523</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.184661</v>
+                  <v>0.615955</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.179135</v>
+                  <v>0.622347</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.17408</v>
+                  <v>0.631071</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16936</v>
+                  <v>0.635074</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166191</v>
+                  <v>0.639845</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.164353</v>
+                  <v>0.852201</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.164271</v>
+                  <v>0.847971</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254673</v>
+                  <v>0.845392</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247489</v>
+                  <v>0.8368139999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.238121</v>
+                  <v>0.834033</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230923</v>
+                  <v>0.841704</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.223773</v>
+                  <v>0.83904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.215514</v>
+                  <v>0.838568</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.211001</v>
+                  <v>0.839709</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20299</v>
+                  <v>0.842832</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.197244</v>
+                  <v>0.8481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.191961</v>
+                  <v>0.858892</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.18761</v>
+                  <v>0.865506</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.184086</v>
+                  <v>0.870801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180878</v>
+                  <v>0.883047</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.180431</v>
+                  <v>1.1251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.27151</v>
+                  <v>1.11268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265086</v>
+                  <v>1.10474</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.257155</v>
+                  <v>1.09904</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.249492</v>
+                  <v>1.09986</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241637</v>
+                  <v>1.09551</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233598</v>
+                  <v>1.09076</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.228107</v>
+                  <v>1.09524</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221879</v>
+                  <v>1.09316</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.218226</v>
+                  <v>1.09388</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213206</v>
+                  <v>1.0979</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207735</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.203661</v>
+                  <v>1.11072</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.200217</v>
+                  <v>1.11523</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199303</v>
+                  <v>1.38026</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.199921</v>
+                  <v>1.36735</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.28659</v>
+                  <v>1.35413</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.280042</v>
+                  <v>1.34011</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.274273</v>
+                  <v>1.33068</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.264434</v>
+                  <v>1.32008</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.258887</v>
+                  <v>1.3181</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253968</v>
+                  <v>1.31133</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.248195</v>
+                  <v>1.2952</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.244422</v>
+                  <v>1.30043</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.240173</v>
+                  <v>1.45637</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.236482</v>
+                  <v>1.43621</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.23349</v>
+                  <v>1.30867</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.230364</v>
+                  <v>1.30653</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229418</v>
+                  <v>1.581</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.229508</v>
+                  <v>1.56049</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.325813</v>
+                  <v>1.53923</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320407</v>
+                  <v>1.52452</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.314921</v>
+                  <v>1.50727</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309403</v>
+                  <v>1.4928</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304799</v>
+                  <v>1.4814</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.300275</v>
+                  <v>1.46927</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29509</v>
+                  <v>1.46123</v>
                 </pt>
               </numCache>
             </numRef>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250417</v>
+        <v>0.25014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.195856</v>
+        <v>0.197074</v>
       </c>
       <c r="D2" t="n">
-        <v>0.188667</v>
+        <v>0.184296</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245397</v>
+        <v>0.244824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190885</v>
+        <v>0.190878</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183325</v>
+        <v>0.179751</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240269</v>
+        <v>0.239273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.184314</v>
+        <v>0.186157</v>
       </c>
       <c r="D4" t="n">
-        <v>0.177756</v>
+        <v>0.176094</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235589</v>
+        <v>0.234941</v>
       </c>
       <c r="C5" t="n">
-        <v>0.180345</v>
+        <v>0.18107</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17413</v>
+        <v>0.172186</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231432</v>
+        <v>0.230621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.177163</v>
+        <v>0.178483</v>
       </c>
       <c r="D6" t="n">
-        <v>0.171551</v>
+        <v>0.168872</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228781</v>
+        <v>0.228027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.175745</v>
+        <v>0.177003</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16955</v>
+        <v>0.168983</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227642</v>
+        <v>0.226954</v>
       </c>
       <c r="C8" t="n">
-        <v>0.177843</v>
+        <v>0.179386</v>
       </c>
       <c r="D8" t="n">
-        <v>0.171659</v>
+        <v>0.171773</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.227944</v>
+        <v>0.227705</v>
       </c>
       <c r="C9" t="n">
-        <v>0.269245</v>
+        <v>0.267832</v>
       </c>
       <c r="D9" t="n">
-        <v>0.257514</v>
+        <v>0.257549</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314922</v>
+        <v>0.314458</v>
       </c>
       <c r="C10" t="n">
-        <v>0.257394</v>
+        <v>0.258646</v>
       </c>
       <c r="D10" t="n">
-        <v>0.248616</v>
+        <v>0.248495</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305502</v>
+        <v>0.305004</v>
       </c>
       <c r="C11" t="n">
-        <v>0.248736</v>
+        <v>0.249724</v>
       </c>
       <c r="D11" t="n">
-        <v>0.240584</v>
+        <v>0.240576</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296765</v>
+        <v>0.296537</v>
       </c>
       <c r="C12" t="n">
-        <v>0.240929</v>
+        <v>0.241559</v>
       </c>
       <c r="D12" t="n">
-        <v>0.233141</v>
+        <v>0.232579</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288566</v>
+        <v>0.28815</v>
       </c>
       <c r="C13" t="n">
-        <v>0.233465</v>
+        <v>0.234209</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225559</v>
+        <v>0.225068</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280741</v>
+        <v>0.28041</v>
       </c>
       <c r="C14" t="n">
-        <v>0.226292</v>
+        <v>0.227108</v>
       </c>
       <c r="D14" t="n">
-        <v>0.218377</v>
+        <v>0.21844</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273496</v>
+        <v>0.273105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219635</v>
+        <v>0.220443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.212115</v>
+        <v>0.212095</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266732</v>
+        <v>0.266156</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213602</v>
+        <v>0.214093</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206393</v>
+        <v>0.206524</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260137</v>
+        <v>0.259619</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208122</v>
+        <v>0.208736</v>
       </c>
       <c r="D17" t="n">
-        <v>0.200849</v>
+        <v>0.201065</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254379</v>
+        <v>0.253851</v>
       </c>
       <c r="C18" t="n">
-        <v>0.203244</v>
+        <v>0.203789</v>
       </c>
       <c r="D18" t="n">
-        <v>0.195794</v>
+        <v>0.196362</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249172</v>
+        <v>0.248485</v>
       </c>
       <c r="C19" t="n">
-        <v>0.199874</v>
+        <v>0.200293</v>
       </c>
       <c r="D19" t="n">
-        <v>0.192209</v>
+        <v>0.192359</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244681</v>
+        <v>0.243801</v>
       </c>
       <c r="C20" t="n">
-        <v>0.197597</v>
+        <v>0.197467</v>
       </c>
       <c r="D20" t="n">
-        <v>0.18929</v>
+        <v>0.189984</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24092</v>
+        <v>0.240152</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196782</v>
+        <v>0.196753</v>
       </c>
       <c r="D21" t="n">
-        <v>0.188064</v>
+        <v>0.18929</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238381</v>
+        <v>0.237527</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198293</v>
+        <v>0.198246</v>
       </c>
       <c r="D22" t="n">
-        <v>0.188764</v>
+        <v>0.190893</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237966</v>
+        <v>0.237105</v>
       </c>
       <c r="C23" t="n">
-        <v>0.289443</v>
+        <v>0.289226</v>
       </c>
       <c r="D23" t="n">
-        <v>0.273008</v>
+        <v>0.272764</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.325393</v>
+        <v>0.323837</v>
       </c>
       <c r="C24" t="n">
-        <v>0.279824</v>
+        <v>0.279567</v>
       </c>
       <c r="D24" t="n">
-        <v>0.264143</v>
+        <v>0.263755</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315912</v>
+        <v>0.314386</v>
       </c>
       <c r="C25" t="n">
-        <v>0.267726</v>
+        <v>0.267585</v>
       </c>
       <c r="D25" t="n">
-        <v>0.254569</v>
+        <v>0.254481</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.306961</v>
+        <v>0.305481</v>
       </c>
       <c r="C26" t="n">
-        <v>0.258982</v>
+        <v>0.258766</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246283</v>
+        <v>0.246218</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298513</v>
+        <v>0.296951</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250782</v>
+        <v>0.250449</v>
       </c>
       <c r="D27" t="n">
-        <v>0.238501</v>
+        <v>0.238533</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.290314</v>
+        <v>0.288967</v>
       </c>
       <c r="C28" t="n">
-        <v>0.242868</v>
+        <v>0.242496</v>
       </c>
       <c r="D28" t="n">
-        <v>0.231462</v>
+        <v>0.231055</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282374</v>
+        <v>0.281331</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235562</v>
+        <v>0.23523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.22459</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275211</v>
+        <v>0.274191</v>
       </c>
       <c r="C30" t="n">
-        <v>0.228777</v>
+        <v>0.228368</v>
       </c>
       <c r="D30" t="n">
-        <v>0.218194</v>
+        <v>0.218014</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.26852</v>
+        <v>0.267496</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222753</v>
+        <v>0.222433</v>
       </c>
       <c r="D31" t="n">
-        <v>0.212379</v>
+        <v>0.212449</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262345</v>
+        <v>0.261353</v>
       </c>
       <c r="C32" t="n">
-        <v>0.216957</v>
+        <v>0.216747</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207319</v>
+        <v>0.207291</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256778</v>
+        <v>0.255752</v>
       </c>
       <c r="C33" t="n">
-        <v>0.212075</v>
+        <v>0.213956</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203148</v>
+        <v>0.203933</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251875</v>
+        <v>0.25168</v>
       </c>
       <c r="C34" t="n">
-        <v>0.20857</v>
+        <v>0.208265</v>
       </c>
       <c r="D34" t="n">
-        <v>0.200086</v>
+        <v>0.200701</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.24764</v>
+        <v>0.24718</v>
       </c>
       <c r="C35" t="n">
-        <v>0.205912</v>
+        <v>0.205583</v>
       </c>
       <c r="D35" t="n">
-        <v>0.197919</v>
+        <v>0.198714</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244679</v>
+        <v>0.244157</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205659</v>
+        <v>0.205848</v>
       </c>
       <c r="D36" t="n">
-        <v>0.19772</v>
+        <v>0.198659</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243539</v>
+        <v>0.242666</v>
       </c>
       <c r="C37" t="n">
-        <v>0.30172</v>
+        <v>0.299857</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284103</v>
+        <v>0.282923</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327681</v>
+        <v>0.32905</v>
       </c>
       <c r="C38" t="n">
-        <v>0.290964</v>
+        <v>0.29006</v>
       </c>
       <c r="D38" t="n">
-        <v>0.273932</v>
+        <v>0.274141</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318363</v>
+        <v>0.320103</v>
       </c>
       <c r="C39" t="n">
-        <v>0.279156</v>
+        <v>0.280364</v>
       </c>
       <c r="D39" t="n">
-        <v>0.265883</v>
+        <v>0.265401</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.310955</v>
+        <v>0.311372</v>
       </c>
       <c r="C40" t="n">
-        <v>0.272085</v>
+        <v>0.271058</v>
       </c>
       <c r="D40" t="n">
-        <v>0.257177</v>
+        <v>0.257337</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.30295</v>
+        <v>0.303831</v>
       </c>
       <c r="C41" t="n">
-        <v>0.261696</v>
+        <v>0.261997</v>
       </c>
       <c r="D41" t="n">
-        <v>0.249455</v>
+        <v>0.249648</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.295256</v>
+        <v>0.295075</v>
       </c>
       <c r="C42" t="n">
-        <v>0.253593</v>
+        <v>0.253819</v>
       </c>
       <c r="D42" t="n">
-        <v>0.243476</v>
+        <v>0.242291</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288109</v>
+        <v>0.288217</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246278</v>
+        <v>0.246414</v>
       </c>
       <c r="D43" t="n">
-        <v>0.236417</v>
+        <v>0.235427</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.28116</v>
+        <v>0.281382</v>
       </c>
       <c r="C44" t="n">
-        <v>0.239921</v>
+        <v>0.239619</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229765</v>
+        <v>0.228966</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.27369</v>
+        <v>0.275335</v>
       </c>
       <c r="C45" t="n">
-        <v>0.232515</v>
+        <v>0.232846</v>
       </c>
       <c r="D45" t="n">
-        <v>0.222927</v>
+        <v>0.223484</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.269053</v>
+        <v>0.268441</v>
       </c>
       <c r="C46" t="n">
-        <v>0.227653</v>
+        <v>0.226747</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2176</v>
+        <v>0.218198</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263436</v>
+        <v>0.263118</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223154</v>
+        <v>0.221452</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213442</v>
+        <v>0.213514</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.258052</v>
+        <v>0.259275</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216966</v>
+        <v>0.217136</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208922</v>
+        <v>0.209643</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254847</v>
+        <v>0.254391</v>
       </c>
       <c r="C49" t="n">
-        <v>0.213928</v>
+        <v>0.214632</v>
       </c>
       <c r="D49" t="n">
-        <v>0.206187</v>
+        <v>0.207052</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.251928</v>
+        <v>0.251897</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212352</v>
+        <v>0.212532</v>
       </c>
       <c r="D50" t="n">
-        <v>0.205281</v>
+        <v>0.206032</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.250364</v>
+        <v>0.250343</v>
       </c>
       <c r="C51" t="n">
-        <v>0.311664</v>
+        <v>0.308595</v>
       </c>
       <c r="D51" t="n">
-        <v>0.295695</v>
+        <v>0.293116</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.251193</v>
+        <v>0.250612</v>
       </c>
       <c r="C52" t="n">
-        <v>0.301777</v>
+        <v>0.298864</v>
       </c>
       <c r="D52" t="n">
-        <v>0.286979</v>
+        <v>0.284316</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.332629</v>
+        <v>0.329352</v>
       </c>
       <c r="C53" t="n">
-        <v>0.292385</v>
+        <v>0.289616</v>
       </c>
       <c r="D53" t="n">
-        <v>0.27795</v>
+        <v>0.275806</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.324087</v>
+        <v>0.320891</v>
       </c>
       <c r="C54" t="n">
-        <v>0.283306</v>
+        <v>0.28082</v>
       </c>
       <c r="D54" t="n">
-        <v>0.269559</v>
+        <v>0.267323</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.31622</v>
+        <v>0.31278</v>
       </c>
       <c r="C55" t="n">
-        <v>0.274715</v>
+        <v>0.272172</v>
       </c>
       <c r="D55" t="n">
-        <v>0.261791</v>
+        <v>0.260101</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.308905</v>
+        <v>0.305404</v>
       </c>
       <c r="C56" t="n">
-        <v>0.26691</v>
+        <v>0.264226</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254157</v>
+        <v>0.252919</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.301577</v>
+        <v>0.298137</v>
       </c>
       <c r="C57" t="n">
-        <v>0.259126</v>
+        <v>0.256788</v>
       </c>
       <c r="D57" t="n">
-        <v>0.247256</v>
+        <v>0.246181</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.295</v>
+        <v>0.291945</v>
       </c>
       <c r="C58" t="n">
-        <v>0.251966</v>
+        <v>0.250394</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240538</v>
+        <v>0.239707</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.288704</v>
+        <v>0.285782</v>
       </c>
       <c r="C59" t="n">
-        <v>0.245302</v>
+        <v>0.24332</v>
       </c>
       <c r="D59" t="n">
-        <v>0.234404</v>
+        <v>0.233547</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282985</v>
+        <v>0.28029</v>
       </c>
       <c r="C60" t="n">
-        <v>0.239289</v>
+        <v>0.237316</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228949</v>
+        <v>0.228356</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277447</v>
+        <v>0.275044</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233867</v>
+        <v>0.232133</v>
       </c>
       <c r="D61" t="n">
-        <v>0.224172</v>
+        <v>0.223462</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272764</v>
+        <v>0.270357</v>
       </c>
       <c r="C62" t="n">
-        <v>0.229332</v>
+        <v>0.227679</v>
       </c>
       <c r="D62" t="n">
-        <v>0.220117</v>
+        <v>0.219689</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.268841</v>
+        <v>0.266285</v>
       </c>
       <c r="C63" t="n">
-        <v>0.225991</v>
+        <v>0.224447</v>
       </c>
       <c r="D63" t="n">
-        <v>0.217443</v>
+        <v>0.217086</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265728</v>
+        <v>0.26297</v>
       </c>
       <c r="C64" t="n">
-        <v>0.224232</v>
+        <v>0.222829</v>
       </c>
       <c r="D64" t="n">
-        <v>0.215608</v>
+        <v>0.215874</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263909</v>
+        <v>0.260948</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224792</v>
+        <v>0.223375</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21667</v>
+        <v>0.216558</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.264313</v>
+        <v>0.261394</v>
       </c>
       <c r="C66" t="n">
-        <v>0.331166</v>
+        <v>0.330638</v>
       </c>
       <c r="D66" t="n">
-        <v>0.326539</v>
+        <v>0.326636</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.392506</v>
+        <v>0.388276</v>
       </c>
       <c r="C67" t="n">
-        <v>0.320655</v>
+        <v>0.321193</v>
       </c>
       <c r="D67" t="n">
-        <v>0.316518</v>
+        <v>0.317391</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.384405</v>
+        <v>0.381043</v>
       </c>
       <c r="C68" t="n">
-        <v>0.311396</v>
+        <v>0.312066</v>
       </c>
       <c r="D68" t="n">
-        <v>0.307184</v>
+        <v>0.308235</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.377037</v>
+        <v>0.37449</v>
       </c>
       <c r="C69" t="n">
-        <v>0.302878</v>
+        <v>0.303664</v>
       </c>
       <c r="D69" t="n">
-        <v>0.298496</v>
+        <v>0.29974</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.369616</v>
+        <v>0.368123</v>
       </c>
       <c r="C70" t="n">
-        <v>0.294566</v>
+        <v>0.295394</v>
       </c>
       <c r="D70" t="n">
-        <v>0.290195</v>
+        <v>0.291844</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.363063</v>
+        <v>0.361549</v>
       </c>
       <c r="C71" t="n">
-        <v>0.286285</v>
+        <v>0.287669</v>
       </c>
       <c r="D71" t="n">
-        <v>0.281967</v>
+        <v>0.284227</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.35683</v>
+        <v>0.355672</v>
       </c>
       <c r="C72" t="n">
-        <v>0.279017</v>
+        <v>0.280227</v>
       </c>
       <c r="D72" t="n">
-        <v>0.274389</v>
+        <v>0.277294</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350271</v>
+        <v>0.349623</v>
       </c>
       <c r="C73" t="n">
-        <v>0.271979</v>
+        <v>0.273303</v>
       </c>
       <c r="D73" t="n">
-        <v>0.267539</v>
+        <v>0.270778</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.344358</v>
+        <v>0.34375</v>
       </c>
       <c r="C74" t="n">
-        <v>0.265696</v>
+        <v>0.266953</v>
       </c>
       <c r="D74" t="n">
-        <v>0.261001</v>
+        <v>0.264773</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.338383</v>
+        <v>0.337876</v>
       </c>
       <c r="C75" t="n">
-        <v>0.259729</v>
+        <v>0.260866</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255265</v>
+        <v>0.259004</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.332664</v>
+        <v>0.3327</v>
       </c>
       <c r="C76" t="n">
-        <v>0.254604</v>
+        <v>0.255822</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250347</v>
+        <v>0.254199</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.327495</v>
+        <v>0.3277</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250702</v>
+        <v>0.25199</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246356</v>
+        <v>0.250449</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.322977</v>
+        <v>0.323581</v>
       </c>
       <c r="C78" t="n">
-        <v>0.248254</v>
+        <v>0.249681</v>
       </c>
       <c r="D78" t="n">
-        <v>0.24407</v>
+        <v>0.248417</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.319589</v>
+        <v>0.320159</v>
       </c>
       <c r="C79" t="n">
-        <v>0.247931</v>
+        <v>0.24941</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243745</v>
+        <v>0.248108</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.317412</v>
+        <v>0.318479</v>
       </c>
       <c r="C80" t="n">
-        <v>0.509948</v>
+        <v>0.510906</v>
       </c>
       <c r="D80" t="n">
-        <v>0.400431</v>
+        <v>0.404753</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.553964</v>
+        <v>0.553491</v>
       </c>
       <c r="C81" t="n">
-        <v>0.368004</v>
+        <v>0.367146</v>
       </c>
       <c r="D81" t="n">
-        <v>0.394183</v>
+        <v>0.396363</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.547829</v>
+        <v>0.546914</v>
       </c>
       <c r="C82" t="n">
-        <v>0.359632</v>
+        <v>0.359285</v>
       </c>
       <c r="D82" t="n">
-        <v>0.385942</v>
+        <v>0.385452</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.538384</v>
+        <v>0.5382710000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.350416</v>
+        <v>0.351411</v>
       </c>
       <c r="D83" t="n">
-        <v>0.374512</v>
+        <v>0.378539</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.529327</v>
+        <v>0.528622</v>
       </c>
       <c r="C84" t="n">
-        <v>0.341594</v>
+        <v>0.343534</v>
       </c>
       <c r="D84" t="n">
-        <v>0.366227</v>
+        <v>0.369294</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5196769999999999</v>
+        <v>0.519523</v>
       </c>
       <c r="C85" t="n">
-        <v>0.333745</v>
+        <v>0.334404</v>
       </c>
       <c r="D85" t="n">
-        <v>0.358241</v>
+        <v>0.358228</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.510369</v>
+        <v>0.51019</v>
       </c>
       <c r="C86" t="n">
-        <v>0.327038</v>
+        <v>0.328371</v>
       </c>
       <c r="D86" t="n">
-        <v>0.348967</v>
+        <v>0.350877</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.499962</v>
+        <v>0.501353</v>
       </c>
       <c r="C87" t="n">
-        <v>0.316977</v>
+        <v>0.315094</v>
       </c>
       <c r="D87" t="n">
-        <v>0.339007</v>
+        <v>0.339027</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4907</v>
+        <v>0.492394</v>
       </c>
       <c r="C88" t="n">
-        <v>0.309012</v>
+        <v>0.313947</v>
       </c>
       <c r="D88" t="n">
-        <v>0.33065</v>
+        <v>0.334626</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.481175</v>
+        <v>0.482976</v>
       </c>
       <c r="C89" t="n">
-        <v>0.304307</v>
+        <v>0.306972</v>
       </c>
       <c r="D89" t="n">
-        <v>0.322774</v>
+        <v>0.327296</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.472351</v>
+        <v>0.474264</v>
       </c>
       <c r="C90" t="n">
-        <v>0.298218</v>
+        <v>0.295443</v>
       </c>
       <c r="D90" t="n">
-        <v>0.315892</v>
+        <v>0.316278</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.465313</v>
+        <v>0.465769</v>
       </c>
       <c r="C91" t="n">
-        <v>0.293329</v>
+        <v>0.294325</v>
       </c>
       <c r="D91" t="n">
-        <v>0.310857</v>
+        <v>0.313928</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.457828</v>
+        <v>0.457288</v>
       </c>
       <c r="C92" t="n">
-        <v>0.290827</v>
+        <v>0.29264</v>
       </c>
       <c r="D92" t="n">
-        <v>0.307376</v>
+        <v>0.310774</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.451091</v>
+        <v>0.451753</v>
       </c>
       <c r="C93" t="n">
-        <v>0.288273</v>
+        <v>0.290194</v>
       </c>
       <c r="D93" t="n">
-        <v>0.305968</v>
+        <v>0.307408</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.44592</v>
+        <v>0.446773</v>
       </c>
       <c r="C94" t="n">
-        <v>0.47891</v>
+        <v>0.473872</v>
       </c>
       <c r="D94" t="n">
-        <v>0.548362</v>
+        <v>0.5643010000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.578402</v>
+        <v>0.581697</v>
       </c>
       <c r="C95" t="n">
-        <v>0.471764</v>
+        <v>0.472716</v>
       </c>
       <c r="D95" t="n">
-        <v>0.538422</v>
+        <v>0.550505</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.576702</v>
+        <v>0.578407</v>
       </c>
       <c r="C96" t="n">
-        <v>0.461079</v>
+        <v>0.461331</v>
       </c>
       <c r="D96" t="n">
-        <v>0.523892</v>
+        <v>0.539079</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.568569</v>
+        <v>0.570661</v>
       </c>
       <c r="C97" t="n">
-        <v>0.448161</v>
+        <v>0.449649</v>
       </c>
       <c r="D97" t="n">
-        <v>0.516507</v>
+        <v>0.515208</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.557982</v>
+        <v>0.562314</v>
       </c>
       <c r="C98" t="n">
-        <v>0.436727</v>
+        <v>0.438027</v>
       </c>
       <c r="D98" t="n">
-        <v>0.50202</v>
+        <v>0.500061</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.550048</v>
+        <v>0.553331</v>
       </c>
       <c r="C99" t="n">
-        <v>0.426247</v>
+        <v>0.426966</v>
       </c>
       <c r="D99" t="n">
-        <v>0.48767</v>
+        <v>0.486757</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.542526</v>
+        <v>0.545489</v>
       </c>
       <c r="C100" t="n">
-        <v>0.415899</v>
+        <v>0.415542</v>
       </c>
       <c r="D100" t="n">
-        <v>0.473933</v>
+        <v>0.479919</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.536106</v>
+        <v>0.5363250000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.405626</v>
+        <v>0.406903</v>
       </c>
       <c r="D101" t="n">
-        <v>0.464286</v>
+        <v>0.46482</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5282210000000001</v>
+        <v>0.529462</v>
       </c>
       <c r="C102" t="n">
-        <v>0.395861</v>
+        <v>0.39759</v>
       </c>
       <c r="D102" t="n">
-        <v>0.452952</v>
+        <v>0.458078</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.522593</v>
+        <v>0.523664</v>
       </c>
       <c r="C103" t="n">
-        <v>0.387249</v>
+        <v>0.389428</v>
       </c>
       <c r="D103" t="n">
-        <v>0.441855</v>
+        <v>0.442299</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.515601</v>
+        <v>0.516319</v>
       </c>
       <c r="C104" t="n">
-        <v>0.379894</v>
+        <v>0.380839</v>
       </c>
       <c r="D104" t="n">
-        <v>0.431885</v>
+        <v>0.436138</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.51109</v>
+        <v>0.51157</v>
       </c>
       <c r="C105" t="n">
-        <v>0.373695</v>
+        <v>0.375048</v>
       </c>
       <c r="D105" t="n">
-        <v>0.423159</v>
+        <v>0.416726</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.504585</v>
+        <v>0.5059129999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.367962</v>
+        <v>0.369521</v>
       </c>
       <c r="D106" t="n">
-        <v>0.415647</v>
+        <v>0.417758</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.499901</v>
+        <v>0.501622</v>
       </c>
       <c r="C107" t="n">
-        <v>0.365096</v>
+        <v>0.362928</v>
       </c>
       <c r="D107" t="n">
-        <v>0.409652</v>
+        <v>0.414306</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.496717</v>
+        <v>0.498438</v>
       </c>
       <c r="C108" t="n">
-        <v>0.557239</v>
+        <v>0.559606</v>
       </c>
       <c r="D108" t="n">
-        <v>0.595515</v>
+        <v>0.6001649999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.495671</v>
+        <v>0.496193</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5479039999999999</v>
+        <v>0.551748</v>
       </c>
       <c r="D109" t="n">
-        <v>0.586699</v>
+        <v>0.583165</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.688968</v>
+        <v>0.692682</v>
       </c>
       <c r="C110" t="n">
-        <v>0.538566</v>
+        <v>0.5381280000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.572937</v>
+        <v>0.576388</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6783130000000001</v>
+        <v>0.681169</v>
       </c>
       <c r="C111" t="n">
-        <v>0.524749</v>
+        <v>0.528435</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5590079999999999</v>
+        <v>0.562968</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.667342</v>
+        <v>0.670336</v>
       </c>
       <c r="C112" t="n">
-        <v>0.512435</v>
+        <v>0.51322</v>
       </c>
       <c r="D112" t="n">
-        <v>0.54601</v>
+        <v>0.549892</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.656821</v>
+        <v>0.659899</v>
       </c>
       <c r="C113" t="n">
-        <v>0.501445</v>
+        <v>0.5029400000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.534439</v>
+        <v>0.539675</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.647051</v>
+        <v>0.6494760000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.490778</v>
+        <v>0.490931</v>
       </c>
       <c r="D114" t="n">
-        <v>0.523772</v>
+        <v>0.521636</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.638157</v>
+        <v>0.641157</v>
       </c>
       <c r="C115" t="n">
-        <v>0.481009</v>
+        <v>0.480474</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5124339999999999</v>
+        <v>0.510455</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.628919</v>
+        <v>0.629809</v>
       </c>
       <c r="C116" t="n">
-        <v>0.470645</v>
+        <v>0.47458</v>
       </c>
       <c r="D116" t="n">
-        <v>0.501189</v>
+        <v>0.504445</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.620735</v>
+        <v>0.6226159999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.462459</v>
+        <v>0.462308</v>
       </c>
       <c r="D117" t="n">
-        <v>0.491186</v>
+        <v>0.496503</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.612698</v>
+        <v>0.615541</v>
       </c>
       <c r="C118" t="n">
-        <v>0.451327</v>
+        <v>0.455251</v>
       </c>
       <c r="D118" t="n">
-        <v>0.482672</v>
+        <v>0.488906</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.605469</v>
+        <v>0.6084349999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.445279</v>
+        <v>0.446263</v>
       </c>
       <c r="D119" t="n">
-        <v>0.474293</v>
+        <v>0.480179</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.599406</v>
+        <v>0.597746</v>
       </c>
       <c r="C120" t="n">
-        <v>0.438486</v>
+        <v>0.443009</v>
       </c>
       <c r="D120" t="n">
-        <v>0.467112</v>
+        <v>0.469435</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.593482</v>
+        <v>0.596153</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432947</v>
+        <v>0.436487</v>
       </c>
       <c r="D121" t="n">
-        <v>0.459738</v>
+        <v>0.464607</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.588166</v>
+        <v>0.586999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.43069</v>
+        <v>0.433109</v>
       </c>
       <c r="D122" t="n">
-        <v>0.455794</v>
+        <v>0.460723</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5858449999999999</v>
+        <v>0.585987</v>
       </c>
       <c r="C123" t="n">
-        <v>0.619838</v>
+        <v>0.623331</v>
       </c>
       <c r="D123" t="n">
-        <v>0.652813</v>
+        <v>0.651516</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.776451</v>
+        <v>0.776328</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6105930000000001</v>
+        <v>0.6135620000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.642146</v>
+        <v>0.645162</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.767969</v>
+        <v>0.766837</v>
       </c>
       <c r="C125" t="n">
-        <v>0.60144</v>
+        <v>0.603583</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6289090000000001</v>
+        <v>0.636082</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.760355</v>
+        <v>0.761705</v>
       </c>
       <c r="C126" t="n">
-        <v>0.594082</v>
+        <v>0.595184</v>
       </c>
       <c r="D126" t="n">
-        <v>0.617324</v>
+        <v>0.628402</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.752091</v>
+        <v>0.753193</v>
       </c>
       <c r="C127" t="n">
-        <v>0.584046</v>
+        <v>0.584983</v>
       </c>
       <c r="D127" t="n">
-        <v>0.604545</v>
+        <v>0.615775</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.747144</v>
+        <v>0.7455310000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.57692</v>
+        <v>0.5790380000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.593768</v>
+        <v>0.609896</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.740282</v>
+        <v>0.741357</v>
       </c>
       <c r="C129" t="n">
-        <v>0.570427</v>
+        <v>0.572226</v>
       </c>
       <c r="D129" t="n">
-        <v>0.584972</v>
+        <v>0.601039</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.734739</v>
+        <v>0.731872</v>
       </c>
       <c r="C130" t="n">
-        <v>0.563141</v>
+        <v>0.5623359999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.584021</v>
+        <v>0.590039</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.727811</v>
+        <v>0.729259</v>
       </c>
       <c r="C131" t="n">
-        <v>0.556654</v>
+        <v>0.553795</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5764860000000001</v>
+        <v>0.577606</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.71932</v>
+        <v>0.722708</v>
       </c>
       <c r="C132" t="n">
-        <v>0.552579</v>
+        <v>0.5491549999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.575972</v>
+        <v>0.572673</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.711873</v>
+        <v>0.719262</v>
       </c>
       <c r="C133" t="n">
-        <v>0.546917</v>
+        <v>0.546226</v>
       </c>
       <c r="D133" t="n">
-        <v>0.570049</v>
+        <v>0.564638</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.707965</v>
+        <v>0.712631</v>
       </c>
       <c r="C134" t="n">
-        <v>0.543175</v>
+        <v>0.54265</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5635</v>
+        <v>0.566936</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.704365</v>
+        <v>0.709353</v>
       </c>
       <c r="C135" t="n">
-        <v>0.532481</v>
+        <v>0.537937</v>
       </c>
       <c r="D135" t="n">
-        <v>0.550181</v>
+        <v>0.561508</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.70607</v>
+        <v>0.705395</v>
       </c>
       <c r="C136" t="n">
-        <v>0.532172</v>
+        <v>0.535656</v>
       </c>
       <c r="D136" t="n">
-        <v>0.545315</v>
+        <v>0.557907</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.702337</v>
+        <v>0.701506</v>
       </c>
       <c r="C137" t="n">
-        <v>0.719363</v>
+        <v>0.716029</v>
       </c>
       <c r="D137" t="n">
-        <v>0.739501</v>
+        <v>0.753896</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8848009999999999</v>
+        <v>0.889149</v>
       </c>
       <c r="C138" t="n">
-        <v>0.711511</v>
+        <v>0.709324</v>
       </c>
       <c r="D138" t="n">
-        <v>0.733092</v>
+        <v>0.73973</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.878764</v>
+        <v>0.882016</v>
       </c>
       <c r="C139" t="n">
-        <v>0.699699</v>
+        <v>0.704971</v>
       </c>
       <c r="D139" t="n">
-        <v>0.727969</v>
+        <v>0.730498</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.87336</v>
+        <v>0.872468</v>
       </c>
       <c r="C140" t="n">
-        <v>0.689726</v>
+        <v>0.693847</v>
       </c>
       <c r="D140" t="n">
-        <v>0.717648</v>
+        <v>0.7228250000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.866326</v>
+        <v>0.869861</v>
       </c>
       <c r="C141" t="n">
-        <v>0.68283</v>
+        <v>0.686458</v>
       </c>
       <c r="D141" t="n">
-        <v>0.706686</v>
+        <v>0.712253</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.862398</v>
+        <v>0.864555</v>
       </c>
       <c r="C142" t="n">
-        <v>0.676998</v>
+        <v>0.681949</v>
       </c>
       <c r="D142" t="n">
-        <v>0.701728</v>
+        <v>0.704747</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.854534</v>
+        <v>0.859637</v>
       </c>
       <c r="C143" t="n">
-        <v>0.670369</v>
+        <v>0.67545</v>
       </c>
       <c r="D143" t="n">
-        <v>0.696422</v>
+        <v>0.694685</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25014</v>
+        <v>0.250095</v>
       </c>
       <c r="C2" t="n">
-        <v>0.197074</v>
+        <v>0.197038</v>
       </c>
       <c r="D2" t="n">
-        <v>0.184296</v>
+        <v>0.185361</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.244824</v>
+        <v>0.245058</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190878</v>
+        <v>0.190886</v>
       </c>
       <c r="D3" t="n">
-        <v>0.179751</v>
+        <v>0.18069</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239273</v>
+        <v>0.239757</v>
       </c>
       <c r="C4" t="n">
-        <v>0.186157</v>
+        <v>0.186806</v>
       </c>
       <c r="D4" t="n">
-        <v>0.176094</v>
+        <v>0.176833</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.234941</v>
+        <v>0.235511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.18107</v>
+        <v>0.182301</v>
       </c>
       <c r="D5" t="n">
-        <v>0.172186</v>
+        <v>0.173057</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230621</v>
+        <v>0.231316</v>
       </c>
       <c r="C6" t="n">
-        <v>0.178483</v>
+        <v>0.178226</v>
       </c>
       <c r="D6" t="n">
-        <v>0.168872</v>
+        <v>0.169898</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228027</v>
+        <v>0.228575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.177003</v>
+        <v>0.17638</v>
       </c>
       <c r="D7" t="n">
-        <v>0.168983</v>
+        <v>0.16903</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226954</v>
+        <v>0.227682</v>
       </c>
       <c r="C8" t="n">
-        <v>0.179386</v>
+        <v>0.17821</v>
       </c>
       <c r="D8" t="n">
-        <v>0.171773</v>
+        <v>0.171847</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.227705</v>
+        <v>0.228533</v>
       </c>
       <c r="C9" t="n">
-        <v>0.267832</v>
+        <v>0.267493</v>
       </c>
       <c r="D9" t="n">
-        <v>0.257549</v>
+        <v>0.257212</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314458</v>
+        <v>0.314996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.258646</v>
+        <v>0.257949</v>
       </c>
       <c r="D10" t="n">
-        <v>0.248495</v>
+        <v>0.248499</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305004</v>
+        <v>0.305475</v>
       </c>
       <c r="C11" t="n">
-        <v>0.249724</v>
+        <v>0.249508</v>
       </c>
       <c r="D11" t="n">
-        <v>0.240576</v>
+        <v>0.24037</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296537</v>
+        <v>0.2967</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241559</v>
+        <v>0.241638</v>
       </c>
       <c r="D12" t="n">
-        <v>0.232579</v>
+        <v>0.232453</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.28815</v>
+        <v>0.288602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234209</v>
+        <v>0.234082</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225068</v>
+        <v>0.224602</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28041</v>
+        <v>0.280865</v>
       </c>
       <c r="C14" t="n">
-        <v>0.227108</v>
+        <v>0.226723</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21844</v>
+        <v>0.218102</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273105</v>
+        <v>0.273484</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220443</v>
+        <v>0.220312</v>
       </c>
       <c r="D15" t="n">
-        <v>0.212095</v>
+        <v>0.211792</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266156</v>
+        <v>0.266891</v>
       </c>
       <c r="C16" t="n">
-        <v>0.214093</v>
+        <v>0.214324</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206524</v>
+        <v>0.205832</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.259619</v>
+        <v>0.260236</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208736</v>
+        <v>0.208589</v>
       </c>
       <c r="D17" t="n">
-        <v>0.201065</v>
+        <v>0.201001</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253851</v>
+        <v>0.254295</v>
       </c>
       <c r="C18" t="n">
-        <v>0.203789</v>
+        <v>0.203877</v>
       </c>
       <c r="D18" t="n">
-        <v>0.196362</v>
+        <v>0.196092</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248485</v>
+        <v>0.249044</v>
       </c>
       <c r="C19" t="n">
-        <v>0.200293</v>
+        <v>0.200539</v>
       </c>
       <c r="D19" t="n">
-        <v>0.192359</v>
+        <v>0.192365</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.243801</v>
+        <v>0.244401</v>
       </c>
       <c r="C20" t="n">
-        <v>0.197467</v>
+        <v>0.198235</v>
       </c>
       <c r="D20" t="n">
-        <v>0.189984</v>
+        <v>0.18989</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240152</v>
+        <v>0.240581</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196753</v>
+        <v>0.19716</v>
       </c>
       <c r="D21" t="n">
-        <v>0.18929</v>
+        <v>0.189195</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.237527</v>
+        <v>0.2382</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198246</v>
+        <v>0.198325</v>
       </c>
       <c r="D22" t="n">
-        <v>0.190893</v>
+        <v>0.19051</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237105</v>
+        <v>0.237668</v>
       </c>
       <c r="C23" t="n">
-        <v>0.289226</v>
+        <v>0.28963</v>
       </c>
       <c r="D23" t="n">
-        <v>0.272764</v>
+        <v>0.272936</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323837</v>
+        <v>0.324447</v>
       </c>
       <c r="C24" t="n">
-        <v>0.279567</v>
+        <v>0.280269</v>
       </c>
       <c r="D24" t="n">
-        <v>0.263755</v>
+        <v>0.264415</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314386</v>
+        <v>0.315016</v>
       </c>
       <c r="C25" t="n">
-        <v>0.267585</v>
+        <v>0.268364</v>
       </c>
       <c r="D25" t="n">
-        <v>0.254481</v>
+        <v>0.254707</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305481</v>
+        <v>0.306131</v>
       </c>
       <c r="C26" t="n">
-        <v>0.258766</v>
+        <v>0.259746</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246218</v>
+        <v>0.246552</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.296951</v>
+        <v>0.297606</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250449</v>
+        <v>0.251495</v>
       </c>
       <c r="D27" t="n">
-        <v>0.238533</v>
+        <v>0.238936</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.288967</v>
+        <v>0.289571</v>
       </c>
       <c r="C28" t="n">
-        <v>0.242496</v>
+        <v>0.243607</v>
       </c>
       <c r="D28" t="n">
-        <v>0.231055</v>
+        <v>0.231576</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281331</v>
+        <v>0.281988</v>
       </c>
       <c r="C29" t="n">
-        <v>0.23523</v>
+        <v>0.2363</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2243</v>
+        <v>0.22485</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274191</v>
+        <v>0.27482</v>
       </c>
       <c r="C30" t="n">
-        <v>0.228368</v>
+        <v>0.229529</v>
       </c>
       <c r="D30" t="n">
-        <v>0.218014</v>
+        <v>0.21857</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267496</v>
+        <v>0.268183</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222433</v>
+        <v>0.223633</v>
       </c>
       <c r="D31" t="n">
-        <v>0.212449</v>
+        <v>0.213101</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261353</v>
+        <v>0.262144</v>
       </c>
       <c r="C32" t="n">
-        <v>0.216747</v>
+        <v>0.218</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207291</v>
+        <v>0.207857</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255752</v>
+        <v>0.256571</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213956</v>
+        <v>0.213156</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203933</v>
+        <v>0.203539</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25168</v>
+        <v>0.251737</v>
       </c>
       <c r="C34" t="n">
-        <v>0.208265</v>
+        <v>0.209362</v>
       </c>
       <c r="D34" t="n">
-        <v>0.200701</v>
+        <v>0.200273</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.24718</v>
+        <v>0.247553</v>
       </c>
       <c r="C35" t="n">
-        <v>0.205583</v>
+        <v>0.206857</v>
       </c>
       <c r="D35" t="n">
-        <v>0.198714</v>
+        <v>0.198229</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244157</v>
+        <v>0.244689</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205848</v>
+        <v>0.206659</v>
       </c>
       <c r="D36" t="n">
-        <v>0.198659</v>
+        <v>0.198141</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.242666</v>
+        <v>0.243429</v>
       </c>
       <c r="C37" t="n">
-        <v>0.299857</v>
+        <v>0.30037</v>
       </c>
       <c r="D37" t="n">
-        <v>0.282923</v>
+        <v>0.283204</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.32905</v>
+        <v>0.327535</v>
       </c>
       <c r="C38" t="n">
-        <v>0.29006</v>
+        <v>0.290637</v>
       </c>
       <c r="D38" t="n">
-        <v>0.274141</v>
+        <v>0.273619</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.320103</v>
+        <v>0.318053</v>
       </c>
       <c r="C39" t="n">
-        <v>0.280364</v>
+        <v>0.279171</v>
       </c>
       <c r="D39" t="n">
-        <v>0.265401</v>
+        <v>0.264423</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.311372</v>
+        <v>0.309515</v>
       </c>
       <c r="C40" t="n">
-        <v>0.271058</v>
+        <v>0.270328</v>
       </c>
       <c r="D40" t="n">
-        <v>0.257337</v>
+        <v>0.256321</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.303831</v>
+        <v>0.301389</v>
       </c>
       <c r="C41" t="n">
-        <v>0.261997</v>
+        <v>0.262005</v>
       </c>
       <c r="D41" t="n">
-        <v>0.249648</v>
+        <v>0.248434</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.295075</v>
+        <v>0.293732</v>
       </c>
       <c r="C42" t="n">
-        <v>0.253819</v>
+        <v>0.254027</v>
       </c>
       <c r="D42" t="n">
-        <v>0.242291</v>
+        <v>0.241111</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288217</v>
+        <v>0.286386</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246414</v>
+        <v>0.246514</v>
       </c>
       <c r="D43" t="n">
-        <v>0.235427</v>
+        <v>0.234417</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.281382</v>
+        <v>0.279439</v>
       </c>
       <c r="C44" t="n">
-        <v>0.239619</v>
+        <v>0.239483</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228966</v>
+        <v>0.227999</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.275335</v>
+        <v>0.273005</v>
       </c>
       <c r="C45" t="n">
-        <v>0.232846</v>
+        <v>0.232894</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223484</v>
+        <v>0.22211</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.268441</v>
+        <v>0.267004</v>
       </c>
       <c r="C46" t="n">
-        <v>0.226747</v>
+        <v>0.226933</v>
       </c>
       <c r="D46" t="n">
-        <v>0.218198</v>
+        <v>0.216819</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263118</v>
+        <v>0.261532</v>
       </c>
       <c r="C47" t="n">
-        <v>0.221452</v>
+        <v>0.221619</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213514</v>
+        <v>0.212061</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.259275</v>
+        <v>0.256803</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217136</v>
+        <v>0.217313</v>
       </c>
       <c r="D48" t="n">
-        <v>0.209643</v>
+        <v>0.208301</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254391</v>
+        <v>0.252779</v>
       </c>
       <c r="C49" t="n">
-        <v>0.214632</v>
+        <v>0.214252</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207052</v>
+        <v>0.205714</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.251897</v>
+        <v>0.249719</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212532</v>
+        <v>0.212723</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206032</v>
+        <v>0.204358</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.250343</v>
+        <v>0.247875</v>
       </c>
       <c r="C51" t="n">
-        <v>0.308595</v>
+        <v>0.311439</v>
       </c>
       <c r="D51" t="n">
-        <v>0.293116</v>
+        <v>0.293227</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.250612</v>
+        <v>0.249399</v>
       </c>
       <c r="C52" t="n">
-        <v>0.298864</v>
+        <v>0.29659</v>
       </c>
       <c r="D52" t="n">
-        <v>0.284316</v>
+        <v>0.282309</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329352</v>
+        <v>0.327937</v>
       </c>
       <c r="C53" t="n">
-        <v>0.289616</v>
+        <v>0.290659</v>
       </c>
       <c r="D53" t="n">
-        <v>0.275806</v>
+        <v>0.274222</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320891</v>
+        <v>0.319836</v>
       </c>
       <c r="C54" t="n">
-        <v>0.28082</v>
+        <v>0.28173</v>
       </c>
       <c r="D54" t="n">
-        <v>0.267323</v>
+        <v>0.267623</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.31278</v>
+        <v>0.31195</v>
       </c>
       <c r="C55" t="n">
-        <v>0.272172</v>
+        <v>0.273251</v>
       </c>
       <c r="D55" t="n">
-        <v>0.260101</v>
+        <v>0.259909</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.305404</v>
+        <v>0.304528</v>
       </c>
       <c r="C56" t="n">
-        <v>0.264226</v>
+        <v>0.265299</v>
       </c>
       <c r="D56" t="n">
-        <v>0.252919</v>
+        <v>0.252724</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.298137</v>
+        <v>0.297297</v>
       </c>
       <c r="C57" t="n">
-        <v>0.256788</v>
+        <v>0.258717</v>
       </c>
       <c r="D57" t="n">
-        <v>0.246181</v>
+        <v>0.245153</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.291945</v>
+        <v>0.290533</v>
       </c>
       <c r="C58" t="n">
-        <v>0.250394</v>
+        <v>0.251371</v>
       </c>
       <c r="D58" t="n">
-        <v>0.239707</v>
+        <v>0.239218</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.285782</v>
+        <v>0.284084</v>
       </c>
       <c r="C59" t="n">
-        <v>0.24332</v>
+        <v>0.244625</v>
       </c>
       <c r="D59" t="n">
-        <v>0.233547</v>
+        <v>0.233518</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.28029</v>
+        <v>0.278347</v>
       </c>
       <c r="C60" t="n">
-        <v>0.237316</v>
+        <v>0.238397</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228356</v>
+        <v>0.228462</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275044</v>
+        <v>0.27294</v>
       </c>
       <c r="C61" t="n">
-        <v>0.232133</v>
+        <v>0.23285</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223462</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.270357</v>
+        <v>0.268225</v>
       </c>
       <c r="C62" t="n">
-        <v>0.227679</v>
+        <v>0.22828</v>
       </c>
       <c r="D62" t="n">
-        <v>0.219689</v>
+        <v>0.220072</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266285</v>
+        <v>0.264194</v>
       </c>
       <c r="C63" t="n">
-        <v>0.224447</v>
+        <v>0.224763</v>
       </c>
       <c r="D63" t="n">
-        <v>0.217086</v>
+        <v>0.217343</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26297</v>
+        <v>0.261497</v>
       </c>
       <c r="C64" t="n">
-        <v>0.222829</v>
+        <v>0.223241</v>
       </c>
       <c r="D64" t="n">
-        <v>0.215874</v>
+        <v>0.21456</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.260948</v>
+        <v>0.259596</v>
       </c>
       <c r="C65" t="n">
-        <v>0.223375</v>
+        <v>0.223658</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216558</v>
+        <v>0.215523</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.261394</v>
+        <v>0.260156</v>
       </c>
       <c r="C66" t="n">
-        <v>0.330638</v>
+        <v>0.329709</v>
       </c>
       <c r="D66" t="n">
-        <v>0.326636</v>
+        <v>0.324456</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388276</v>
+        <v>0.388942</v>
       </c>
       <c r="C67" t="n">
-        <v>0.321193</v>
+        <v>0.320185</v>
       </c>
       <c r="D67" t="n">
-        <v>0.317391</v>
+        <v>0.31535</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.381043</v>
+        <v>0.380756</v>
       </c>
       <c r="C68" t="n">
-        <v>0.312066</v>
+        <v>0.310982</v>
       </c>
       <c r="D68" t="n">
-        <v>0.308235</v>
+        <v>0.306361</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.37449</v>
+        <v>0.373349</v>
       </c>
       <c r="C69" t="n">
-        <v>0.303664</v>
+        <v>0.30248</v>
       </c>
       <c r="D69" t="n">
-        <v>0.29974</v>
+        <v>0.298008</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.368123</v>
+        <v>0.366722</v>
       </c>
       <c r="C70" t="n">
-        <v>0.295394</v>
+        <v>0.294099</v>
       </c>
       <c r="D70" t="n">
-        <v>0.291844</v>
+        <v>0.289908</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.361549</v>
+        <v>0.360034</v>
       </c>
       <c r="C71" t="n">
-        <v>0.287669</v>
+        <v>0.286232</v>
       </c>
       <c r="D71" t="n">
-        <v>0.284227</v>
+        <v>0.282135</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.355672</v>
+        <v>0.353773</v>
       </c>
       <c r="C72" t="n">
-        <v>0.280227</v>
+        <v>0.278827</v>
       </c>
       <c r="D72" t="n">
-        <v>0.277294</v>
+        <v>0.274809</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.349623</v>
+        <v>0.347698</v>
       </c>
       <c r="C73" t="n">
-        <v>0.273303</v>
+        <v>0.271886</v>
       </c>
       <c r="D73" t="n">
-        <v>0.270778</v>
+        <v>0.268333</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.34375</v>
+        <v>0.342103</v>
       </c>
       <c r="C74" t="n">
-        <v>0.266953</v>
+        <v>0.265397</v>
       </c>
       <c r="D74" t="n">
-        <v>0.264773</v>
+        <v>0.262467</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.337876</v>
+        <v>0.336417</v>
       </c>
       <c r="C75" t="n">
-        <v>0.260866</v>
+        <v>0.259589</v>
       </c>
       <c r="D75" t="n">
-        <v>0.259004</v>
+        <v>0.256864</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3327</v>
+        <v>0.331041</v>
       </c>
       <c r="C76" t="n">
-        <v>0.255822</v>
+        <v>0.254677</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254199</v>
+        <v>0.252482</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3277</v>
+        <v>0.326191</v>
       </c>
       <c r="C77" t="n">
-        <v>0.25199</v>
+        <v>0.250821</v>
       </c>
       <c r="D77" t="n">
-        <v>0.250449</v>
+        <v>0.248879</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.323581</v>
+        <v>0.322052</v>
       </c>
       <c r="C78" t="n">
-        <v>0.249681</v>
+        <v>0.248557</v>
       </c>
       <c r="D78" t="n">
-        <v>0.248417</v>
+        <v>0.246811</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.320159</v>
+        <v>0.318577</v>
       </c>
       <c r="C79" t="n">
-        <v>0.24941</v>
+        <v>0.248235</v>
       </c>
       <c r="D79" t="n">
-        <v>0.248108</v>
+        <v>0.246783</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.318479</v>
+        <v>0.316825</v>
       </c>
       <c r="C80" t="n">
-        <v>0.510906</v>
+        <v>0.509586</v>
       </c>
       <c r="D80" t="n">
-        <v>0.404753</v>
+        <v>0.40027</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.553491</v>
+        <v>0.553913</v>
       </c>
       <c r="C81" t="n">
-        <v>0.367146</v>
+        <v>0.366892</v>
       </c>
       <c r="D81" t="n">
-        <v>0.396363</v>
+        <v>0.395461</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.546914</v>
+        <v>0.547618</v>
       </c>
       <c r="C82" t="n">
-        <v>0.359285</v>
+        <v>0.358315</v>
       </c>
       <c r="D82" t="n">
-        <v>0.385452</v>
+        <v>0.384155</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5382710000000001</v>
+        <v>0.538439</v>
       </c>
       <c r="C83" t="n">
-        <v>0.351411</v>
+        <v>0.351705</v>
       </c>
       <c r="D83" t="n">
-        <v>0.378539</v>
+        <v>0.376375</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.528622</v>
+        <v>0.529305</v>
       </c>
       <c r="C84" t="n">
-        <v>0.343534</v>
+        <v>0.342771</v>
       </c>
       <c r="D84" t="n">
-        <v>0.369294</v>
+        <v>0.365924</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.519523</v>
+        <v>0.519889</v>
       </c>
       <c r="C85" t="n">
-        <v>0.334404</v>
+        <v>0.332838</v>
       </c>
       <c r="D85" t="n">
-        <v>0.358228</v>
+        <v>0.356426</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.51019</v>
+        <v>0.510536</v>
       </c>
       <c r="C86" t="n">
-        <v>0.328371</v>
+        <v>0.328474</v>
       </c>
       <c r="D86" t="n">
-        <v>0.350877</v>
+        <v>0.349594</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.501353</v>
+        <v>0.501756</v>
       </c>
       <c r="C87" t="n">
-        <v>0.315094</v>
+        <v>0.320426</v>
       </c>
       <c r="D87" t="n">
-        <v>0.339027</v>
+        <v>0.341458</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.492394</v>
+        <v>0.492193</v>
       </c>
       <c r="C88" t="n">
-        <v>0.313947</v>
+        <v>0.311891</v>
       </c>
       <c r="D88" t="n">
-        <v>0.334626</v>
+        <v>0.332718</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.482976</v>
+        <v>0.483365</v>
       </c>
       <c r="C89" t="n">
-        <v>0.306972</v>
+        <v>0.305205</v>
       </c>
       <c r="D89" t="n">
-        <v>0.327296</v>
+        <v>0.326144</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.474264</v>
+        <v>0.474172</v>
       </c>
       <c r="C90" t="n">
-        <v>0.295443</v>
+        <v>0.29939</v>
       </c>
       <c r="D90" t="n">
-        <v>0.316278</v>
+        <v>0.319424</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.465769</v>
+        <v>0.46696</v>
       </c>
       <c r="C91" t="n">
-        <v>0.294325</v>
+        <v>0.289731</v>
       </c>
       <c r="D91" t="n">
-        <v>0.313928</v>
+        <v>0.308328</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.457288</v>
+        <v>0.459413</v>
       </c>
       <c r="C92" t="n">
-        <v>0.29264</v>
+        <v>0.285163</v>
       </c>
       <c r="D92" t="n">
-        <v>0.310774</v>
+        <v>0.304654</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.451753</v>
+        <v>0.451291</v>
       </c>
       <c r="C93" t="n">
-        <v>0.290194</v>
+        <v>0.289315</v>
       </c>
       <c r="D93" t="n">
-        <v>0.307408</v>
+        <v>0.307594</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.446773</v>
+        <v>0.446969</v>
       </c>
       <c r="C94" t="n">
-        <v>0.473872</v>
+        <v>0.479898</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5643010000000001</v>
+        <v>0.563949</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.581697</v>
+        <v>0.582802</v>
       </c>
       <c r="C95" t="n">
-        <v>0.472716</v>
+        <v>0.474109</v>
       </c>
       <c r="D95" t="n">
-        <v>0.550505</v>
+        <v>0.552796</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.578407</v>
+        <v>0.580463</v>
       </c>
       <c r="C96" t="n">
-        <v>0.461331</v>
+        <v>0.462102</v>
       </c>
       <c r="D96" t="n">
-        <v>0.539079</v>
+        <v>0.538064</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.570661</v>
+        <v>0.572061</v>
       </c>
       <c r="C97" t="n">
-        <v>0.449649</v>
+        <v>0.450503</v>
       </c>
       <c r="D97" t="n">
-        <v>0.515208</v>
+        <v>0.524052</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.562314</v>
+        <v>0.563266</v>
       </c>
       <c r="C98" t="n">
-        <v>0.438027</v>
+        <v>0.438728</v>
       </c>
       <c r="D98" t="n">
-        <v>0.500061</v>
+        <v>0.5068009999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.553331</v>
+        <v>0.553296</v>
       </c>
       <c r="C99" t="n">
-        <v>0.426966</v>
+        <v>0.427779</v>
       </c>
       <c r="D99" t="n">
-        <v>0.486757</v>
+        <v>0.494283</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.545489</v>
+        <v>0.545473</v>
       </c>
       <c r="C100" t="n">
-        <v>0.415542</v>
+        <v>0.415005</v>
       </c>
       <c r="D100" t="n">
-        <v>0.479919</v>
+        <v>0.479723</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5363250000000001</v>
+        <v>0.538044</v>
       </c>
       <c r="C101" t="n">
-        <v>0.406903</v>
+        <v>0.407742</v>
       </c>
       <c r="D101" t="n">
-        <v>0.46482</v>
+        <v>0.460778</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.529462</v>
+        <v>0.530233</v>
       </c>
       <c r="C102" t="n">
-        <v>0.39759</v>
+        <v>0.398291</v>
       </c>
       <c r="D102" t="n">
-        <v>0.458078</v>
+        <v>0.454701</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.523664</v>
+        <v>0.524444</v>
       </c>
       <c r="C103" t="n">
-        <v>0.389428</v>
+        <v>0.390224</v>
       </c>
       <c r="D103" t="n">
-        <v>0.442299</v>
+        <v>0.444305</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.516319</v>
+        <v>0.516059</v>
       </c>
       <c r="C104" t="n">
-        <v>0.380839</v>
+        <v>0.380439</v>
       </c>
       <c r="D104" t="n">
-        <v>0.436138</v>
+        <v>0.435223</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.51157</v>
+        <v>0.511338</v>
       </c>
       <c r="C105" t="n">
-        <v>0.375048</v>
+        <v>0.374178</v>
       </c>
       <c r="D105" t="n">
-        <v>0.416726</v>
+        <v>0.425668</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5059129999999999</v>
+        <v>0.505179</v>
       </c>
       <c r="C106" t="n">
-        <v>0.369521</v>
+        <v>0.370116</v>
       </c>
       <c r="D106" t="n">
-        <v>0.417758</v>
+        <v>0.40926</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.501622</v>
+        <v>0.501719</v>
       </c>
       <c r="C107" t="n">
-        <v>0.362928</v>
+        <v>0.366654</v>
       </c>
       <c r="D107" t="n">
-        <v>0.414306</v>
+        <v>0.413408</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.498438</v>
+        <v>0.497566</v>
       </c>
       <c r="C108" t="n">
-        <v>0.559606</v>
+        <v>0.560442</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6001649999999999</v>
+        <v>0.598612</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.496193</v>
+        <v>0.496619</v>
       </c>
       <c r="C109" t="n">
-        <v>0.551748</v>
+        <v>0.554083</v>
       </c>
       <c r="D109" t="n">
-        <v>0.583165</v>
+        <v>0.58117</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.692682</v>
+        <v>0.69098</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5381280000000001</v>
+        <v>0.541064</v>
       </c>
       <c r="D110" t="n">
-        <v>0.576388</v>
+        <v>0.574989</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.681169</v>
+        <v>0.680743</v>
       </c>
       <c r="C111" t="n">
-        <v>0.528435</v>
+        <v>0.528537</v>
       </c>
       <c r="D111" t="n">
-        <v>0.562968</v>
+        <v>0.554704</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.670336</v>
+        <v>0.668944</v>
       </c>
       <c r="C112" t="n">
-        <v>0.51322</v>
+        <v>0.515255</v>
       </c>
       <c r="D112" t="n">
-        <v>0.549892</v>
+        <v>0.550963</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.659899</v>
+        <v>0.659101</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5029400000000001</v>
+        <v>0.506377</v>
       </c>
       <c r="D113" t="n">
-        <v>0.539675</v>
+        <v>0.536668</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6494760000000001</v>
+        <v>0.650238</v>
       </c>
       <c r="C114" t="n">
-        <v>0.490931</v>
+        <v>0.492124</v>
       </c>
       <c r="D114" t="n">
-        <v>0.521636</v>
+        <v>0.527564</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.641157</v>
+        <v>0.641002</v>
       </c>
       <c r="C115" t="n">
-        <v>0.480474</v>
+        <v>0.484595</v>
       </c>
       <c r="D115" t="n">
-        <v>0.510455</v>
+        <v>0.510731</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.629809</v>
+        <v>0.6319399999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.47458</v>
+        <v>0.47533</v>
       </c>
       <c r="D116" t="n">
-        <v>0.504445</v>
+        <v>0.500189</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6226159999999999</v>
+        <v>0.623715</v>
       </c>
       <c r="C117" t="n">
-        <v>0.462308</v>
+        <v>0.464635</v>
       </c>
       <c r="D117" t="n">
-        <v>0.496503</v>
+        <v>0.495556</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.615541</v>
+        <v>0.615945</v>
       </c>
       <c r="C118" t="n">
-        <v>0.455251</v>
+        <v>0.456124</v>
       </c>
       <c r="D118" t="n">
-        <v>0.488906</v>
+        <v>0.480843</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6084349999999999</v>
+        <v>0.608575</v>
       </c>
       <c r="C119" t="n">
-        <v>0.446263</v>
+        <v>0.448129</v>
       </c>
       <c r="D119" t="n">
-        <v>0.480179</v>
+        <v>0.478384</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.597746</v>
+        <v>0.600585</v>
       </c>
       <c r="C120" t="n">
-        <v>0.443009</v>
+        <v>0.440128</v>
       </c>
       <c r="D120" t="n">
-        <v>0.469435</v>
+        <v>0.470944</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.596153</v>
+        <v>0.596185</v>
       </c>
       <c r="C121" t="n">
-        <v>0.436487</v>
+        <v>0.439065</v>
       </c>
       <c r="D121" t="n">
-        <v>0.464607</v>
+        <v>0.463318</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.586999</v>
+        <v>0.590885</v>
       </c>
       <c r="C122" t="n">
-        <v>0.433109</v>
+        <v>0.430814</v>
       </c>
       <c r="D122" t="n">
-        <v>0.460723</v>
+        <v>0.455596</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.585987</v>
+        <v>0.587674</v>
       </c>
       <c r="C123" t="n">
-        <v>0.623331</v>
+        <v>0.6228630000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.651516</v>
+        <v>0.65007</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.776328</v>
+        <v>0.781061</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6135620000000001</v>
+        <v>0.612999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.645162</v>
+        <v>0.641235</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.766837</v>
+        <v>0.772217</v>
       </c>
       <c r="C125" t="n">
-        <v>0.603583</v>
+        <v>0.6018790000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.636082</v>
+        <v>0.6353259999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.761705</v>
+        <v>0.763279</v>
       </c>
       <c r="C126" t="n">
-        <v>0.595184</v>
+        <v>0.59767</v>
       </c>
       <c r="D126" t="n">
-        <v>0.628402</v>
+        <v>0.626286</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.753193</v>
+        <v>0.755203</v>
       </c>
       <c r="C127" t="n">
-        <v>0.584983</v>
+        <v>0.590315</v>
       </c>
       <c r="D127" t="n">
-        <v>0.615775</v>
+        <v>0.613916</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7455310000000001</v>
+        <v>0.749332</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5790380000000001</v>
+        <v>0.57808</v>
       </c>
       <c r="D128" t="n">
-        <v>0.609896</v>
+        <v>0.607209</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.741357</v>
+        <v>0.7420639999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.572226</v>
+        <v>0.574449</v>
       </c>
       <c r="D129" t="n">
-        <v>0.601039</v>
+        <v>0.5991919999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.731872</v>
+        <v>0.734511</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5623359999999999</v>
+        <v>0.5666020000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.590039</v>
+        <v>0.5924430000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.729259</v>
+        <v>0.729741</v>
       </c>
       <c r="C131" t="n">
-        <v>0.553795</v>
+        <v>0.558754</v>
       </c>
       <c r="D131" t="n">
-        <v>0.577606</v>
+        <v>0.575288</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.722708</v>
+        <v>0.724668</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5491549999999999</v>
+        <v>0.55414</v>
       </c>
       <c r="D132" t="n">
-        <v>0.572673</v>
+        <v>0.569716</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.719262</v>
+        <v>0.715151</v>
       </c>
       <c r="C133" t="n">
-        <v>0.546226</v>
+        <v>0.544521</v>
       </c>
       <c r="D133" t="n">
-        <v>0.564638</v>
+        <v>0.562885</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.712631</v>
+        <v>0.71399</v>
       </c>
       <c r="C134" t="n">
-        <v>0.54265</v>
+        <v>0.544441</v>
       </c>
       <c r="D134" t="n">
-        <v>0.566936</v>
+        <v>0.55972</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.709353</v>
+        <v>0.711071</v>
       </c>
       <c r="C135" t="n">
-        <v>0.537937</v>
+        <v>0.539953</v>
       </c>
       <c r="D135" t="n">
-        <v>0.561508</v>
+        <v>0.558333</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.705395</v>
+        <v>0.7049299999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.535656</v>
+        <v>0.530388</v>
       </c>
       <c r="D136" t="n">
-        <v>0.557907</v>
+        <v>0.553856</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.701506</v>
+        <v>0.700276</v>
       </c>
       <c r="C137" t="n">
-        <v>0.716029</v>
+        <v>0.722735</v>
       </c>
       <c r="D137" t="n">
-        <v>0.753896</v>
+        <v>0.7516350000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.889149</v>
+        <v>0.885778</v>
       </c>
       <c r="C138" t="n">
-        <v>0.709324</v>
+        <v>0.710443</v>
       </c>
       <c r="D138" t="n">
-        <v>0.73973</v>
+        <v>0.737737</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.882016</v>
+        <v>0.883189</v>
       </c>
       <c r="C139" t="n">
-        <v>0.704971</v>
+        <v>0.705718</v>
       </c>
       <c r="D139" t="n">
-        <v>0.730498</v>
+        <v>0.7266899999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.872468</v>
+        <v>0.874705</v>
       </c>
       <c r="C140" t="n">
-        <v>0.693847</v>
+        <v>0.69616</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7228250000000001</v>
+        <v>0.7176169999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.869861</v>
+        <v>0.868521</v>
       </c>
       <c r="C141" t="n">
-        <v>0.686458</v>
+        <v>0.689757</v>
       </c>
       <c r="D141" t="n">
-        <v>0.712253</v>
+        <v>0.708574</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.864555</v>
+        <v>0.865022</v>
       </c>
       <c r="C142" t="n">
-        <v>0.681949</v>
+        <v>0.68314</v>
       </c>
       <c r="D142" t="n">
-        <v>0.704747</v>
+        <v>0.699651</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.859637</v>
+        <v>0.857298</v>
       </c>
       <c r="C143" t="n">
-        <v>0.67545</v>
+        <v>0.676462</v>
       </c>
       <c r="D143" t="n">
-        <v>0.694685</v>
+        <v>0.69168</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250095</v>
+        <v>0.260268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.197038</v>
+        <v>0.198603</v>
       </c>
       <c r="D2" t="n">
-        <v>0.185361</v>
+        <v>0.185147</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245058</v>
+        <v>0.254354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190886</v>
+        <v>0.193483</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18069</v>
+        <v>0.181402</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239757</v>
+        <v>0.248678</v>
       </c>
       <c r="C4" t="n">
-        <v>0.186806</v>
+        <v>0.186552</v>
       </c>
       <c r="D4" t="n">
-        <v>0.176833</v>
+        <v>0.176261</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235511</v>
+        <v>0.243884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.182301</v>
+        <v>0.183306</v>
       </c>
       <c r="D5" t="n">
-        <v>0.173057</v>
+        <v>0.173596</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231316</v>
+        <v>0.239173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.178226</v>
+        <v>0.180373</v>
       </c>
       <c r="D6" t="n">
-        <v>0.169898</v>
+        <v>0.171128</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228575</v>
+        <v>0.236242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.17638</v>
+        <v>0.177045</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16903</v>
+        <v>0.169596</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227682</v>
+        <v>0.235168</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17821</v>
+        <v>0.179701</v>
       </c>
       <c r="D8" t="n">
-        <v>0.171847</v>
+        <v>0.172971</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228533</v>
+        <v>0.235477</v>
       </c>
       <c r="C9" t="n">
-        <v>0.267493</v>
+        <v>0.269586</v>
       </c>
       <c r="D9" t="n">
-        <v>0.257212</v>
+        <v>0.257633</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314996</v>
+        <v>0.321757</v>
       </c>
       <c r="C10" t="n">
-        <v>0.257949</v>
+        <v>0.260372</v>
       </c>
       <c r="D10" t="n">
-        <v>0.248499</v>
+        <v>0.249556</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305475</v>
+        <v>0.312187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.249508</v>
+        <v>0.250882</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24037</v>
+        <v>0.241387</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2967</v>
+        <v>0.303016</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241638</v>
+        <v>0.243403</v>
       </c>
       <c r="D12" t="n">
-        <v>0.232453</v>
+        <v>0.233566</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288602</v>
+        <v>0.2948</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234082</v>
+        <v>0.23526</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224602</v>
+        <v>0.225556</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280865</v>
+        <v>0.285928</v>
       </c>
       <c r="C14" t="n">
-        <v>0.226723</v>
+        <v>0.227715</v>
       </c>
       <c r="D14" t="n">
-        <v>0.218102</v>
+        <v>0.218869</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273484</v>
+        <v>0.279498</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220312</v>
+        <v>0.222176</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211792</v>
+        <v>0.212685</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266891</v>
+        <v>0.272219</v>
       </c>
       <c r="C16" t="n">
-        <v>0.214324</v>
+        <v>0.21598</v>
       </c>
       <c r="D16" t="n">
-        <v>0.205832</v>
+        <v>0.206307</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260236</v>
+        <v>0.265177</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208589</v>
+        <v>0.208831</v>
       </c>
       <c r="D17" t="n">
-        <v>0.201001</v>
+        <v>0.201632</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254295</v>
+        <v>0.258992</v>
       </c>
       <c r="C18" t="n">
-        <v>0.203877</v>
+        <v>0.204128</v>
       </c>
       <c r="D18" t="n">
-        <v>0.196092</v>
+        <v>0.196788</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249044</v>
+        <v>0.253735</v>
       </c>
       <c r="C19" t="n">
-        <v>0.200539</v>
+        <v>0.202004</v>
       </c>
       <c r="D19" t="n">
-        <v>0.192365</v>
+        <v>0.192655</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244401</v>
+        <v>0.248935</v>
       </c>
       <c r="C20" t="n">
-        <v>0.198235</v>
+        <v>0.198669</v>
       </c>
       <c r="D20" t="n">
-        <v>0.18989</v>
+        <v>0.190382</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240581</v>
+        <v>0.24512</v>
       </c>
       <c r="C21" t="n">
-        <v>0.19716</v>
+        <v>0.197204</v>
       </c>
       <c r="D21" t="n">
-        <v>0.189195</v>
+        <v>0.19008</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2382</v>
+        <v>0.242402</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198325</v>
+        <v>0.198036</v>
       </c>
       <c r="D22" t="n">
-        <v>0.19051</v>
+        <v>0.191031</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237668</v>
+        <v>0.241794</v>
       </c>
       <c r="C23" t="n">
-        <v>0.28963</v>
+        <v>0.289543</v>
       </c>
       <c r="D23" t="n">
-        <v>0.272936</v>
+        <v>0.273255</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.324447</v>
+        <v>0.327642</v>
       </c>
       <c r="C24" t="n">
-        <v>0.280269</v>
+        <v>0.278363</v>
       </c>
       <c r="D24" t="n">
-        <v>0.264415</v>
+        <v>0.264562</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315016</v>
+        <v>0.318395</v>
       </c>
       <c r="C25" t="n">
-        <v>0.268364</v>
+        <v>0.269306</v>
       </c>
       <c r="D25" t="n">
-        <v>0.254707</v>
+        <v>0.256244</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.306131</v>
+        <v>0.309433</v>
       </c>
       <c r="C26" t="n">
-        <v>0.259746</v>
+        <v>0.26154</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246552</v>
+        <v>0.247999</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.297606</v>
+        <v>0.300682</v>
       </c>
       <c r="C27" t="n">
-        <v>0.251495</v>
+        <v>0.252218</v>
       </c>
       <c r="D27" t="n">
-        <v>0.238936</v>
+        <v>0.240111</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.289571</v>
+        <v>0.292911</v>
       </c>
       <c r="C28" t="n">
-        <v>0.243607</v>
+        <v>0.243652</v>
       </c>
       <c r="D28" t="n">
-        <v>0.231576</v>
+        <v>0.232782</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281988</v>
+        <v>0.284497</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2363</v>
+        <v>0.236679</v>
       </c>
       <c r="D29" t="n">
-        <v>0.22485</v>
+        <v>0.226029</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.27482</v>
+        <v>0.277712</v>
       </c>
       <c r="C30" t="n">
-        <v>0.229529</v>
+        <v>0.229531</v>
       </c>
       <c r="D30" t="n">
-        <v>0.21857</v>
+        <v>0.219777</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268183</v>
+        <v>0.270938</v>
       </c>
       <c r="C31" t="n">
-        <v>0.223633</v>
+        <v>0.224508</v>
       </c>
       <c r="D31" t="n">
-        <v>0.213101</v>
+        <v>0.214233</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262144</v>
+        <v>0.264361</v>
       </c>
       <c r="C32" t="n">
-        <v>0.218</v>
+        <v>0.218443</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207857</v>
+        <v>0.208912</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256571</v>
+        <v>0.259381</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213156</v>
+        <v>0.213863</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203539</v>
+        <v>0.204731</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251737</v>
+        <v>0.254339</v>
       </c>
       <c r="C34" t="n">
-        <v>0.209362</v>
+        <v>0.210039</v>
       </c>
       <c r="D34" t="n">
-        <v>0.200273</v>
+        <v>0.201259</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247553</v>
+        <v>0.249543</v>
       </c>
       <c r="C35" t="n">
-        <v>0.206857</v>
+        <v>0.207524</v>
       </c>
       <c r="D35" t="n">
-        <v>0.198229</v>
+        <v>0.199205</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244689</v>
+        <v>0.246512</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206659</v>
+        <v>0.20675</v>
       </c>
       <c r="D36" t="n">
-        <v>0.198141</v>
+        <v>0.199094</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243429</v>
+        <v>0.245492</v>
       </c>
       <c r="C37" t="n">
-        <v>0.30037</v>
+        <v>0.299948</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283204</v>
+        <v>0.283141</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327535</v>
+        <v>0.32928</v>
       </c>
       <c r="C38" t="n">
-        <v>0.290637</v>
+        <v>0.28937</v>
       </c>
       <c r="D38" t="n">
-        <v>0.273619</v>
+        <v>0.274432</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318053</v>
+        <v>0.3203</v>
       </c>
       <c r="C39" t="n">
-        <v>0.279171</v>
+        <v>0.279541</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264423</v>
+        <v>0.265927</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.309515</v>
+        <v>0.311547</v>
       </c>
       <c r="C40" t="n">
-        <v>0.270328</v>
+        <v>0.270793</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256321</v>
+        <v>0.257864</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301389</v>
+        <v>0.303312</v>
       </c>
       <c r="C41" t="n">
-        <v>0.262005</v>
+        <v>0.261808</v>
       </c>
       <c r="D41" t="n">
-        <v>0.248434</v>
+        <v>0.250115</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.293732</v>
+        <v>0.295324</v>
       </c>
       <c r="C42" t="n">
-        <v>0.254027</v>
+        <v>0.25459</v>
       </c>
       <c r="D42" t="n">
-        <v>0.241111</v>
+        <v>0.242862</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.286386</v>
+        <v>0.287878</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246514</v>
+        <v>0.246073</v>
       </c>
       <c r="D43" t="n">
-        <v>0.234417</v>
+        <v>0.236155</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.279439</v>
+        <v>0.280944</v>
       </c>
       <c r="C44" t="n">
-        <v>0.239483</v>
+        <v>0.238895</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227999</v>
+        <v>0.229846</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273005</v>
+        <v>0.274527</v>
       </c>
       <c r="C45" t="n">
-        <v>0.232894</v>
+        <v>0.232799</v>
       </c>
       <c r="D45" t="n">
-        <v>0.22211</v>
+        <v>0.22409</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.267004</v>
+        <v>0.268696</v>
       </c>
       <c r="C46" t="n">
-        <v>0.226933</v>
+        <v>0.226999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.216819</v>
+        <v>0.2188</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261532</v>
+        <v>0.262844</v>
       </c>
       <c r="C47" t="n">
-        <v>0.221619</v>
+        <v>0.221233</v>
       </c>
       <c r="D47" t="n">
-        <v>0.212061</v>
+        <v>0.214123</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.256803</v>
+        <v>0.258554</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217313</v>
+        <v>0.216823</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208301</v>
+        <v>0.21035</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.252779</v>
+        <v>0.254041</v>
       </c>
       <c r="C49" t="n">
-        <v>0.214252</v>
+        <v>0.213177</v>
       </c>
       <c r="D49" t="n">
-        <v>0.205714</v>
+        <v>0.207754</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249719</v>
+        <v>0.251001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212723</v>
+        <v>0.212249</v>
       </c>
       <c r="D50" t="n">
-        <v>0.204358</v>
+        <v>0.206639</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247875</v>
+        <v>0.249528</v>
       </c>
       <c r="C51" t="n">
-        <v>0.311439</v>
+        <v>0.306642</v>
       </c>
       <c r="D51" t="n">
-        <v>0.293227</v>
+        <v>0.293533</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.249399</v>
+        <v>0.250144</v>
       </c>
       <c r="C52" t="n">
-        <v>0.29659</v>
+        <v>0.297158</v>
       </c>
       <c r="D52" t="n">
-        <v>0.282309</v>
+        <v>0.284793</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.327937</v>
+        <v>0.329727</v>
       </c>
       <c r="C53" t="n">
-        <v>0.290659</v>
+        <v>0.28791</v>
       </c>
       <c r="D53" t="n">
-        <v>0.274222</v>
+        <v>0.276233</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.319836</v>
+        <v>0.321479</v>
       </c>
       <c r="C54" t="n">
-        <v>0.28173</v>
+        <v>0.279264</v>
       </c>
       <c r="D54" t="n">
-        <v>0.267623</v>
+        <v>0.268136</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.31195</v>
+        <v>0.313757</v>
       </c>
       <c r="C55" t="n">
-        <v>0.273251</v>
+        <v>0.270776</v>
       </c>
       <c r="D55" t="n">
-        <v>0.259909</v>
+        <v>0.260487</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.304528</v>
+        <v>0.306302</v>
       </c>
       <c r="C56" t="n">
-        <v>0.265299</v>
+        <v>0.263086</v>
       </c>
       <c r="D56" t="n">
-        <v>0.252724</v>
+        <v>0.253203</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.297297</v>
+        <v>0.299318</v>
       </c>
       <c r="C57" t="n">
-        <v>0.258717</v>
+        <v>0.256034</v>
       </c>
       <c r="D57" t="n">
-        <v>0.245153</v>
+        <v>0.246647</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.290533</v>
+        <v>0.292377</v>
       </c>
       <c r="C58" t="n">
-        <v>0.251371</v>
+        <v>0.24932</v>
       </c>
       <c r="D58" t="n">
-        <v>0.239218</v>
+        <v>0.240316</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.284084</v>
+        <v>0.28564</v>
       </c>
       <c r="C59" t="n">
-        <v>0.244625</v>
+        <v>0.242863</v>
       </c>
       <c r="D59" t="n">
-        <v>0.233518</v>
+        <v>0.234462</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.278347</v>
+        <v>0.279939</v>
       </c>
       <c r="C60" t="n">
-        <v>0.238397</v>
+        <v>0.236717</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228462</v>
+        <v>0.229252</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.27294</v>
+        <v>0.274674</v>
       </c>
       <c r="C61" t="n">
-        <v>0.23285</v>
+        <v>0.231672</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2238</v>
+        <v>0.224671</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.268225</v>
+        <v>0.26994</v>
       </c>
       <c r="C62" t="n">
-        <v>0.22828</v>
+        <v>0.227187</v>
       </c>
       <c r="D62" t="n">
-        <v>0.220072</v>
+        <v>0.221023</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264194</v>
+        <v>0.26594</v>
       </c>
       <c r="C63" t="n">
-        <v>0.224763</v>
+        <v>0.223684</v>
       </c>
       <c r="D63" t="n">
-        <v>0.217343</v>
+        <v>0.218148</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261497</v>
+        <v>0.263507</v>
       </c>
       <c r="C64" t="n">
-        <v>0.223241</v>
+        <v>0.222098</v>
       </c>
       <c r="D64" t="n">
-        <v>0.21456</v>
+        <v>0.216985</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.259596</v>
+        <v>0.261908</v>
       </c>
       <c r="C65" t="n">
-        <v>0.223658</v>
+        <v>0.223087</v>
       </c>
       <c r="D65" t="n">
-        <v>0.215523</v>
+        <v>0.217919</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.260156</v>
+        <v>0.261558</v>
       </c>
       <c r="C66" t="n">
-        <v>0.329709</v>
+        <v>0.330275</v>
       </c>
       <c r="D66" t="n">
-        <v>0.324456</v>
+        <v>0.326486</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388942</v>
+        <v>0.38997</v>
       </c>
       <c r="C67" t="n">
-        <v>0.320185</v>
+        <v>0.320991</v>
       </c>
       <c r="D67" t="n">
-        <v>0.31535</v>
+        <v>0.317372</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.380756</v>
+        <v>0.382313</v>
       </c>
       <c r="C68" t="n">
-        <v>0.310982</v>
+        <v>0.312101</v>
       </c>
       <c r="D68" t="n">
-        <v>0.306361</v>
+        <v>0.308366</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.373349</v>
+        <v>0.37511</v>
       </c>
       <c r="C69" t="n">
-        <v>0.30248</v>
+        <v>0.303614</v>
       </c>
       <c r="D69" t="n">
-        <v>0.298008</v>
+        <v>0.299349</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.366722</v>
+        <v>0.368156</v>
       </c>
       <c r="C70" t="n">
-        <v>0.294099</v>
+        <v>0.295313</v>
       </c>
       <c r="D70" t="n">
-        <v>0.289908</v>
+        <v>0.291494</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.360034</v>
+        <v>0.361725</v>
       </c>
       <c r="C71" t="n">
-        <v>0.286232</v>
+        <v>0.287432</v>
       </c>
       <c r="D71" t="n">
-        <v>0.282135</v>
+        <v>0.283728</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.353773</v>
+        <v>0.355243</v>
       </c>
       <c r="C72" t="n">
-        <v>0.278827</v>
+        <v>0.28011</v>
       </c>
       <c r="D72" t="n">
-        <v>0.274809</v>
+        <v>0.276557</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347698</v>
+        <v>0.349151</v>
       </c>
       <c r="C73" t="n">
-        <v>0.271886</v>
+        <v>0.273291</v>
       </c>
       <c r="D73" t="n">
-        <v>0.268333</v>
+        <v>0.269919</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.342103</v>
+        <v>0.343152</v>
       </c>
       <c r="C74" t="n">
-        <v>0.265397</v>
+        <v>0.266918</v>
       </c>
       <c r="D74" t="n">
-        <v>0.262467</v>
+        <v>0.263896</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.336417</v>
+        <v>0.337458</v>
       </c>
       <c r="C75" t="n">
-        <v>0.259589</v>
+        <v>0.260975</v>
       </c>
       <c r="D75" t="n">
-        <v>0.256864</v>
+        <v>0.258452</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.331041</v>
+        <v>0.331785</v>
       </c>
       <c r="C76" t="n">
-        <v>0.254677</v>
+        <v>0.256014</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252482</v>
+        <v>0.253626</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.326191</v>
+        <v>0.326856</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250821</v>
+        <v>0.251889</v>
       </c>
       <c r="D77" t="n">
-        <v>0.248879</v>
+        <v>0.250037</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.322052</v>
+        <v>0.322502</v>
       </c>
       <c r="C78" t="n">
-        <v>0.248557</v>
+        <v>0.249621</v>
       </c>
       <c r="D78" t="n">
-        <v>0.246811</v>
+        <v>0.247959</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.318577</v>
+        <v>0.319095</v>
       </c>
       <c r="C79" t="n">
-        <v>0.248235</v>
+        <v>0.249437</v>
       </c>
       <c r="D79" t="n">
-        <v>0.246783</v>
+        <v>0.2476</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.316825</v>
+        <v>0.317393</v>
       </c>
       <c r="C80" t="n">
-        <v>0.509586</v>
+        <v>0.505783</v>
       </c>
       <c r="D80" t="n">
-        <v>0.40027</v>
+        <v>0.399994</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.553913</v>
+        <v>0.5499579999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.366892</v>
+        <v>0.364703</v>
       </c>
       <c r="D81" t="n">
-        <v>0.395461</v>
+        <v>0.394178</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.547618</v>
+        <v>0.545059</v>
       </c>
       <c r="C82" t="n">
-        <v>0.358315</v>
+        <v>0.35882</v>
       </c>
       <c r="D82" t="n">
-        <v>0.384155</v>
+        <v>0.384519</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.538439</v>
+        <v>0.537682</v>
       </c>
       <c r="C83" t="n">
-        <v>0.351705</v>
+        <v>0.351415</v>
       </c>
       <c r="D83" t="n">
-        <v>0.376375</v>
+        <v>0.377782</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.529305</v>
+        <v>0.527778</v>
       </c>
       <c r="C84" t="n">
-        <v>0.342771</v>
+        <v>0.342474</v>
       </c>
       <c r="D84" t="n">
-        <v>0.365924</v>
+        <v>0.368122</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.519889</v>
+        <v>0.518205</v>
       </c>
       <c r="C85" t="n">
-        <v>0.332838</v>
+        <v>0.336038</v>
       </c>
       <c r="D85" t="n">
-        <v>0.356426</v>
+        <v>0.358299</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.510536</v>
+        <v>0.5084419999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.328474</v>
+        <v>0.327868</v>
       </c>
       <c r="D86" t="n">
-        <v>0.349594</v>
+        <v>0.350534</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.501756</v>
+        <v>0.499243</v>
       </c>
       <c r="C87" t="n">
-        <v>0.320426</v>
+        <v>0.315469</v>
       </c>
       <c r="D87" t="n">
-        <v>0.341458</v>
+        <v>0.337017</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.492193</v>
+        <v>0.490003</v>
       </c>
       <c r="C88" t="n">
-        <v>0.311891</v>
+        <v>0.308258</v>
       </c>
       <c r="D88" t="n">
-        <v>0.332718</v>
+        <v>0.32816</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.483365</v>
+        <v>0.480922</v>
       </c>
       <c r="C89" t="n">
-        <v>0.305205</v>
+        <v>0.301345</v>
       </c>
       <c r="D89" t="n">
-        <v>0.326144</v>
+        <v>0.321195</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.474172</v>
+        <v>0.472599</v>
       </c>
       <c r="C90" t="n">
-        <v>0.29939</v>
+        <v>0.299179</v>
       </c>
       <c r="D90" t="n">
-        <v>0.319424</v>
+        <v>0.317997</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.46696</v>
+        <v>0.463735</v>
       </c>
       <c r="C91" t="n">
-        <v>0.289731</v>
+        <v>0.293639</v>
       </c>
       <c r="D91" t="n">
-        <v>0.308328</v>
+        <v>0.312807</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.459413</v>
+        <v>0.457553</v>
       </c>
       <c r="C92" t="n">
-        <v>0.285163</v>
+        <v>0.290605</v>
       </c>
       <c r="D92" t="n">
-        <v>0.304654</v>
+        <v>0.308315</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.451291</v>
+        <v>0.450058</v>
       </c>
       <c r="C93" t="n">
-        <v>0.289315</v>
+        <v>0.283664</v>
       </c>
       <c r="D93" t="n">
-        <v>0.307594</v>
+        <v>0.301828</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.446969</v>
+        <v>0.445082</v>
       </c>
       <c r="C94" t="n">
-        <v>0.479898</v>
+        <v>0.481453</v>
       </c>
       <c r="D94" t="n">
-        <v>0.563949</v>
+        <v>0.553783</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.582802</v>
+        <v>0.582283</v>
       </c>
       <c r="C95" t="n">
-        <v>0.474109</v>
+        <v>0.474382</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552796</v>
+        <v>0.5506720000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.580463</v>
+        <v>0.578965</v>
       </c>
       <c r="C96" t="n">
-        <v>0.462102</v>
+        <v>0.461804</v>
       </c>
       <c r="D96" t="n">
-        <v>0.538064</v>
+        <v>0.537547</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.572061</v>
+        <v>0.570008</v>
       </c>
       <c r="C97" t="n">
-        <v>0.450503</v>
+        <v>0.449944</v>
       </c>
       <c r="D97" t="n">
-        <v>0.524052</v>
+        <v>0.522023</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.563266</v>
+        <v>0.561558</v>
       </c>
       <c r="C98" t="n">
-        <v>0.438728</v>
+        <v>0.438705</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5068009999999999</v>
+        <v>0.49934</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.553296</v>
+        <v>0.553277</v>
       </c>
       <c r="C99" t="n">
-        <v>0.427779</v>
+        <v>0.428359</v>
       </c>
       <c r="D99" t="n">
-        <v>0.494283</v>
+        <v>0.484008</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.545473</v>
+        <v>0.54455</v>
       </c>
       <c r="C100" t="n">
-        <v>0.415005</v>
+        <v>0.415666</v>
       </c>
       <c r="D100" t="n">
-        <v>0.479723</v>
+        <v>0.480119</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.538044</v>
+        <v>0.536597</v>
       </c>
       <c r="C101" t="n">
-        <v>0.407742</v>
+        <v>0.40523</v>
       </c>
       <c r="D101" t="n">
-        <v>0.460778</v>
+        <v>0.467254</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.530233</v>
+        <v>0.529802</v>
       </c>
       <c r="C102" t="n">
-        <v>0.398291</v>
+        <v>0.39844</v>
       </c>
       <c r="D102" t="n">
-        <v>0.454701</v>
+        <v>0.45603</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.524444</v>
+        <v>0.522998</v>
       </c>
       <c r="C103" t="n">
-        <v>0.390224</v>
+        <v>0.388642</v>
       </c>
       <c r="D103" t="n">
-        <v>0.444305</v>
+        <v>0.44479</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.516059</v>
+        <v>0.51679</v>
       </c>
       <c r="C104" t="n">
-        <v>0.380439</v>
+        <v>0.383733</v>
       </c>
       <c r="D104" t="n">
-        <v>0.435223</v>
+        <v>0.434042</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.511338</v>
+        <v>0.51049</v>
       </c>
       <c r="C105" t="n">
-        <v>0.374178</v>
+        <v>0.375558</v>
       </c>
       <c r="D105" t="n">
-        <v>0.425668</v>
+        <v>0.425574</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.505179</v>
+        <v>0.505866</v>
       </c>
       <c r="C106" t="n">
-        <v>0.370116</v>
+        <v>0.370345</v>
       </c>
       <c r="D106" t="n">
-        <v>0.40926</v>
+        <v>0.408009</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.501719</v>
+        <v>0.5025579999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.366654</v>
+        <v>0.363409</v>
       </c>
       <c r="D107" t="n">
-        <v>0.413408</v>
+        <v>0.413252</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.497566</v>
+        <v>0.498611</v>
       </c>
       <c r="C108" t="n">
-        <v>0.560442</v>
+        <v>0.556643</v>
       </c>
       <c r="D108" t="n">
-        <v>0.598612</v>
+        <v>0.601357</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.496619</v>
+        <v>0.49609</v>
       </c>
       <c r="C109" t="n">
-        <v>0.554083</v>
+        <v>0.551709</v>
       </c>
       <c r="D109" t="n">
-        <v>0.58117</v>
+        <v>0.581422</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.69098</v>
+        <v>0.693588</v>
       </c>
       <c r="C110" t="n">
-        <v>0.541064</v>
+        <v>0.539683</v>
       </c>
       <c r="D110" t="n">
-        <v>0.574989</v>
+        <v>0.567622</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.680743</v>
+        <v>0.682397</v>
       </c>
       <c r="C111" t="n">
-        <v>0.528537</v>
+        <v>0.52642</v>
       </c>
       <c r="D111" t="n">
-        <v>0.554704</v>
+        <v>0.555176</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.668944</v>
+        <v>0.670987</v>
       </c>
       <c r="C112" t="n">
-        <v>0.515255</v>
+        <v>0.514053</v>
       </c>
       <c r="D112" t="n">
-        <v>0.550963</v>
+        <v>0.542435</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.659101</v>
+        <v>0.660588</v>
       </c>
       <c r="C113" t="n">
-        <v>0.506377</v>
+        <v>0.501851</v>
       </c>
       <c r="D113" t="n">
-        <v>0.536668</v>
+        <v>0.5377150000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.650238</v>
+        <v>0.650469</v>
       </c>
       <c r="C114" t="n">
-        <v>0.492124</v>
+        <v>0.491417</v>
       </c>
       <c r="D114" t="n">
-        <v>0.527564</v>
+        <v>0.519324</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.641002</v>
+        <v>0.640746</v>
       </c>
       <c r="C115" t="n">
-        <v>0.484595</v>
+        <v>0.483809</v>
       </c>
       <c r="D115" t="n">
-        <v>0.510731</v>
+        <v>0.5092100000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6319399999999999</v>
+        <v>0.631946</v>
       </c>
       <c r="C116" t="n">
-        <v>0.47533</v>
+        <v>0.470854</v>
       </c>
       <c r="D116" t="n">
-        <v>0.500189</v>
+        <v>0.498241</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.623715</v>
+        <v>0.6243339999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.464635</v>
+        <v>0.461679</v>
       </c>
       <c r="D117" t="n">
-        <v>0.495556</v>
+        <v>0.488528</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.615945</v>
+        <v>0.616128</v>
       </c>
       <c r="C118" t="n">
-        <v>0.456124</v>
+        <v>0.452353</v>
       </c>
       <c r="D118" t="n">
-        <v>0.480843</v>
+        <v>0.480664</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.608575</v>
+        <v>0.608392</v>
       </c>
       <c r="C119" t="n">
-        <v>0.448129</v>
+        <v>0.44472</v>
       </c>
       <c r="D119" t="n">
-        <v>0.478384</v>
+        <v>0.478946</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.600585</v>
+        <v>0.60181</v>
       </c>
       <c r="C120" t="n">
-        <v>0.440128</v>
+        <v>0.438174</v>
       </c>
       <c r="D120" t="n">
-        <v>0.470944</v>
+        <v>0.469864</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.596185</v>
+        <v>0.596119</v>
       </c>
       <c r="C121" t="n">
-        <v>0.439065</v>
+        <v>0.436674</v>
       </c>
       <c r="D121" t="n">
-        <v>0.463318</v>
+        <v>0.459003</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.590885</v>
+        <v>0.592041</v>
       </c>
       <c r="C122" t="n">
-        <v>0.430814</v>
+        <v>0.429494</v>
       </c>
       <c r="D122" t="n">
-        <v>0.455596</v>
+        <v>0.454858</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.587674</v>
+        <v>0.5871769999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6228630000000001</v>
+        <v>0.618516</v>
       </c>
       <c r="D123" t="n">
-        <v>0.65007</v>
+        <v>0.649832</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.781061</v>
+        <v>0.780849</v>
       </c>
       <c r="C124" t="n">
-        <v>0.612999</v>
+        <v>0.608426</v>
       </c>
       <c r="D124" t="n">
-        <v>0.641235</v>
+        <v>0.639176</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.772217</v>
+        <v>0.76691</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6018790000000001</v>
+        <v>0.605115</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6353259999999999</v>
+        <v>0.632425</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.763279</v>
+        <v>0.764257</v>
       </c>
       <c r="C126" t="n">
-        <v>0.59767</v>
+        <v>0.5930839999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.626286</v>
+        <v>0.622965</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.755203</v>
+        <v>0.7552489999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.590315</v>
+        <v>0.58394</v>
       </c>
       <c r="D127" t="n">
-        <v>0.613916</v>
+        <v>0.612943</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.749332</v>
+        <v>0.7494729999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>0.57808</v>
+        <v>0.579031</v>
       </c>
       <c r="D128" t="n">
-        <v>0.607209</v>
+        <v>0.599669</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7420639999999999</v>
+        <v>0.738169</v>
       </c>
       <c r="C129" t="n">
-        <v>0.574449</v>
+        <v>0.573424</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5991919999999999</v>
+        <v>0.594247</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.734511</v>
+        <v>0.735712</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5666020000000001</v>
+        <v>0.562222</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5924430000000001</v>
+        <v>0.587636</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.729741</v>
+        <v>0.729616</v>
       </c>
       <c r="C131" t="n">
-        <v>0.558754</v>
+        <v>0.554022</v>
       </c>
       <c r="D131" t="n">
-        <v>0.575288</v>
+        <v>0.579901</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.724668</v>
+        <v>0.721046</v>
       </c>
       <c r="C132" t="n">
-        <v>0.55414</v>
+        <v>0.5544519999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.569716</v>
+        <v>0.573447</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.715151</v>
+        <v>0.714739</v>
       </c>
       <c r="C133" t="n">
-        <v>0.544521</v>
+        <v>0.542721</v>
       </c>
       <c r="D133" t="n">
-        <v>0.562885</v>
+        <v>0.56875</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.71399</v>
+        <v>0.711663</v>
       </c>
       <c r="C134" t="n">
-        <v>0.544441</v>
+        <v>0.545613</v>
       </c>
       <c r="D134" t="n">
-        <v>0.55972</v>
+        <v>0.561399</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.711071</v>
+        <v>0.708636</v>
       </c>
       <c r="C135" t="n">
-        <v>0.539953</v>
+        <v>0.54084</v>
       </c>
       <c r="D135" t="n">
-        <v>0.558333</v>
+        <v>0.556568</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7049299999999999</v>
+        <v>0.705118</v>
       </c>
       <c r="C136" t="n">
-        <v>0.530388</v>
+        <v>0.537084</v>
       </c>
       <c r="D136" t="n">
-        <v>0.553856</v>
+        <v>0.5509540000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.700276</v>
+        <v>0.705477</v>
       </c>
       <c r="C137" t="n">
-        <v>0.722735</v>
+        <v>0.721157</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7516350000000001</v>
+        <v>0.750575</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.885778</v>
+        <v>0.888207</v>
       </c>
       <c r="C138" t="n">
-        <v>0.710443</v>
+        <v>0.709134</v>
       </c>
       <c r="D138" t="n">
-        <v>0.737737</v>
+        <v>0.739629</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.883189</v>
+        <v>0.884754</v>
       </c>
       <c r="C139" t="n">
-        <v>0.705718</v>
+        <v>0.704522</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7266899999999999</v>
+        <v>0.731784</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.874705</v>
+        <v>0.874686</v>
       </c>
       <c r="C140" t="n">
-        <v>0.69616</v>
+        <v>0.695641</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7176169999999999</v>
+        <v>0.7208639999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.868521</v>
+        <v>0.868395</v>
       </c>
       <c r="C141" t="n">
-        <v>0.689757</v>
+        <v>0.689956</v>
       </c>
       <c r="D141" t="n">
-        <v>0.708574</v>
+        <v>0.711412</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.865022</v>
+        <v>0.8663920000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.68314</v>
+        <v>0.680552</v>
       </c>
       <c r="D142" t="n">
-        <v>0.699651</v>
+        <v>0.703615</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.857298</v>
+        <v>0.85947</v>
       </c>
       <c r="C143" t="n">
-        <v>0.676462</v>
+        <v>0.675669</v>
       </c>
       <c r="D143" t="n">
-        <v>0.69168</v>
+        <v>0.692717</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25015</v>
+        <v>0.247745</v>
       </c>
       <c r="C2" t="n">
-        <v>0.198339</v>
+        <v>0.194803</v>
       </c>
       <c r="D2" t="n">
-        <v>0.547912</v>
+        <v>0.563462</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245785</v>
+        <v>0.238731</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193132</v>
+        <v>0.190192</v>
       </c>
       <c r="D3" t="n">
-        <v>0.539911</v>
+        <v>0.556429</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.236782</v>
+        <v>0.234452</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18849</v>
+        <v>0.185322</v>
       </c>
       <c r="D4" t="n">
-        <v>0.533124</v>
+        <v>0.549553</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.231197</v>
+        <v>0.230315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.183719</v>
+        <v>0.180094</v>
       </c>
       <c r="D5" t="n">
-        <v>0.52934</v>
+        <v>0.541979</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.226463</v>
+        <v>0.230752</v>
       </c>
       <c r="C6" t="n">
-        <v>0.179786</v>
+        <v>0.176171</v>
       </c>
       <c r="D6" t="n">
-        <v>0.525061</v>
+        <v>0.537376</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.229042</v>
+        <v>0.224753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.178695</v>
+        <v>0.174967</v>
       </c>
       <c r="D7" t="n">
-        <v>0.681225</v>
+        <v>0.701284</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227597</v>
+        <v>0.226297</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18078</v>
+        <v>0.178747</v>
       </c>
       <c r="D8" t="n">
-        <v>0.666183</v>
+        <v>0.6850309999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226988</v>
+        <v>0.231318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.273427</v>
+        <v>0.268872</v>
       </c>
       <c r="D9" t="n">
-        <v>0.652536</v>
+        <v>0.667938</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.317875</v>
+        <v>0.320896</v>
       </c>
       <c r="C10" t="n">
-        <v>0.260897</v>
+        <v>0.258544</v>
       </c>
       <c r="D10" t="n">
-        <v>0.637346</v>
+        <v>0.655179</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.304288</v>
+        <v>0.301429</v>
       </c>
       <c r="C11" t="n">
-        <v>0.252453</v>
+        <v>0.251921</v>
       </c>
       <c r="D11" t="n">
-        <v>0.623973</v>
+        <v>0.641366</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.29807</v>
+        <v>0.300939</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244088</v>
+        <v>0.241572</v>
       </c>
       <c r="D12" t="n">
-        <v>0.611421</v>
+        <v>0.629598</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.28355</v>
+        <v>0.289597</v>
       </c>
       <c r="C13" t="n">
-        <v>0.238242</v>
+        <v>0.234084</v>
       </c>
       <c r="D13" t="n">
-        <v>0.602701</v>
+        <v>0.6260599999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281702</v>
+        <v>0.283271</v>
       </c>
       <c r="C14" t="n">
-        <v>0.230314</v>
+        <v>0.226815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.595767</v>
+        <v>0.613078</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.279948</v>
+        <v>0.275997</v>
       </c>
       <c r="C15" t="n">
-        <v>0.222377</v>
+        <v>0.220311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.583152</v>
+        <v>0.602999</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.273286</v>
+        <v>0.263515</v>
       </c>
       <c r="C16" t="n">
-        <v>0.217484</v>
+        <v>0.213954</v>
       </c>
       <c r="D16" t="n">
-        <v>0.576949</v>
+        <v>0.594997</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.266067</v>
+        <v>0.255908</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212016</v>
+        <v>0.208953</v>
       </c>
       <c r="D17" t="n">
-        <v>0.569576</v>
+        <v>0.588585</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.260157</v>
+        <v>0.251602</v>
       </c>
       <c r="C18" t="n">
-        <v>0.206558</v>
+        <v>0.204402</v>
       </c>
       <c r="D18" t="n">
-        <v>0.562914</v>
+        <v>0.583216</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.247802</v>
+        <v>0.248782</v>
       </c>
       <c r="C19" t="n">
-        <v>0.204094</v>
+        <v>0.199948</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5614749999999999</v>
+        <v>0.5826480000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.243382</v>
+        <v>0.246233</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200464</v>
+        <v>0.201506</v>
       </c>
       <c r="D20" t="n">
-        <v>0.553989</v>
+        <v>0.572179</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242414</v>
+        <v>0.242822</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199501</v>
+        <v>0.196738</v>
       </c>
       <c r="D21" t="n">
-        <v>0.734471</v>
+        <v>0.761704</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238456</v>
+        <v>0.240384</v>
       </c>
       <c r="C22" t="n">
-        <v>0.200747</v>
+        <v>0.198075</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7184739999999999</v>
+        <v>0.746804</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.240648</v>
+        <v>0.239692</v>
       </c>
       <c r="C23" t="n">
-        <v>0.291881</v>
+        <v>0.288337</v>
       </c>
       <c r="D23" t="n">
-        <v>0.704461</v>
+        <v>0.733513</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.321368</v>
+        <v>0.329734</v>
       </c>
       <c r="C24" t="n">
-        <v>0.279236</v>
+        <v>0.277698</v>
       </c>
       <c r="D24" t="n">
-        <v>0.691937</v>
+        <v>0.712376</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.31191</v>
+        <v>0.315227</v>
       </c>
       <c r="C25" t="n">
-        <v>0.270906</v>
+        <v>0.268579</v>
       </c>
       <c r="D25" t="n">
-        <v>0.678957</v>
+        <v>0.698497</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.303181</v>
+        <v>0.305241</v>
       </c>
       <c r="C26" t="n">
-        <v>0.261378</v>
+        <v>0.261369</v>
       </c>
       <c r="D26" t="n">
-        <v>0.665578</v>
+        <v>0.689782</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.295625</v>
+        <v>0.299319</v>
       </c>
       <c r="C27" t="n">
-        <v>0.254262</v>
+        <v>0.25168</v>
       </c>
       <c r="D27" t="n">
-        <v>0.65445</v>
+        <v>0.687457</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.287522</v>
+        <v>0.286826</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24561</v>
+        <v>0.243043</v>
       </c>
       <c r="D28" t="n">
-        <v>0.643904</v>
+        <v>0.663734</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282718</v>
+        <v>0.284209</v>
       </c>
       <c r="C29" t="n">
-        <v>0.241303</v>
+        <v>0.235783</v>
       </c>
       <c r="D29" t="n">
-        <v>0.634437</v>
+        <v>0.655143</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.27471</v>
+        <v>0.279064</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23205</v>
+        <v>0.229303</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6276620000000001</v>
+        <v>0.6465689999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269138</v>
+        <v>0.267606</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227661</v>
+        <v>0.223674</v>
       </c>
       <c r="D31" t="n">
-        <v>0.621941</v>
+        <v>0.636832</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262375</v>
+        <v>0.260818</v>
       </c>
       <c r="C32" t="n">
-        <v>0.222424</v>
+        <v>0.217929</v>
       </c>
       <c r="D32" t="n">
-        <v>0.62314</v>
+        <v>0.640225</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256459</v>
+        <v>0.260669</v>
       </c>
       <c r="C33" t="n">
-        <v>0.21668</v>
+        <v>0.212412</v>
       </c>
       <c r="D33" t="n">
-        <v>0.609868</v>
+        <v>0.625449</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251718</v>
+        <v>0.249708</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212765</v>
+        <v>0.208781</v>
       </c>
       <c r="D34" t="n">
-        <v>0.604776</v>
+        <v>0.626845</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.246349</v>
+        <v>0.253163</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209575</v>
+        <v>0.206994</v>
       </c>
       <c r="D35" t="n">
-        <v>0.794525</v>
+        <v>0.82485</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244627</v>
+        <v>0.24937</v>
       </c>
       <c r="C36" t="n">
-        <v>0.208321</v>
+        <v>0.206252</v>
       </c>
       <c r="D36" t="n">
-        <v>0.780917</v>
+        <v>0.804436</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243661</v>
+        <v>0.251252</v>
       </c>
       <c r="C37" t="n">
-        <v>0.301125</v>
+        <v>0.300283</v>
       </c>
       <c r="D37" t="n">
-        <v>0.757986</v>
+        <v>0.7863869999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.325499</v>
+        <v>0.336214</v>
       </c>
       <c r="C38" t="n">
-        <v>0.290126</v>
+        <v>0.28895</v>
       </c>
       <c r="D38" t="n">
-        <v>0.742811</v>
+        <v>0.771879</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.317618</v>
+        <v>0.321026</v>
       </c>
       <c r="C39" t="n">
-        <v>0.282318</v>
+        <v>0.280033</v>
       </c>
       <c r="D39" t="n">
-        <v>0.728978</v>
+        <v>0.753952</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.310681</v>
+        <v>0.315731</v>
       </c>
       <c r="C40" t="n">
-        <v>0.272471</v>
+        <v>0.269965</v>
       </c>
       <c r="D40" t="n">
-        <v>0.715233</v>
+        <v>0.742515</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302599</v>
+        <v>0.305804</v>
       </c>
       <c r="C41" t="n">
-        <v>0.263154</v>
+        <v>0.261996</v>
       </c>
       <c r="D41" t="n">
-        <v>0.703333</v>
+        <v>0.733276</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.301674</v>
+        <v>0.29457</v>
       </c>
       <c r="C42" t="n">
-        <v>0.256621</v>
+        <v>0.255025</v>
       </c>
       <c r="D42" t="n">
-        <v>0.692598</v>
+        <v>0.726622</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285304</v>
+        <v>0.288138</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249342</v>
+        <v>0.245672</v>
       </c>
       <c r="D43" t="n">
-        <v>0.68196</v>
+        <v>0.7096209999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.281216</v>
+        <v>0.281935</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241521</v>
+        <v>0.240037</v>
       </c>
       <c r="D44" t="n">
-        <v>0.673868</v>
+        <v>0.698653</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.286121</v>
+        <v>0.275778</v>
       </c>
       <c r="C45" t="n">
-        <v>0.23479</v>
+        <v>0.233212</v>
       </c>
       <c r="D45" t="n">
-        <v>0.665905</v>
+        <v>0.687598</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.279602</v>
+        <v>0.276226</v>
       </c>
       <c r="C46" t="n">
-        <v>0.228305</v>
+        <v>0.227351</v>
       </c>
       <c r="D46" t="n">
-        <v>0.666229</v>
+        <v>0.680728</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261037</v>
+        <v>0.270658</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223445</v>
+        <v>0.220703</v>
       </c>
       <c r="D47" t="n">
-        <v>0.653617</v>
+        <v>0.675783</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.261428</v>
+        <v>0.265212</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219407</v>
+        <v>0.216856</v>
       </c>
       <c r="D48" t="n">
-        <v>0.647154</v>
+        <v>0.671763</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254564</v>
+        <v>0.262678</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215466</v>
+        <v>0.214663</v>
       </c>
       <c r="D49" t="n">
-        <v>0.643016</v>
+        <v>0.666171</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.255273</v>
+        <v>0.258888</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212697</v>
+        <v>0.213127</v>
       </c>
       <c r="D50" t="n">
-        <v>0.822816</v>
+        <v>0.852904</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.253533</v>
+        <v>0.254972</v>
       </c>
       <c r="C51" t="n">
-        <v>0.311027</v>
+        <v>0.309908</v>
       </c>
       <c r="D51" t="n">
-        <v>0.804404</v>
+        <v>0.833572</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.253419</v>
+        <v>0.253043</v>
       </c>
       <c r="C52" t="n">
-        <v>0.299782</v>
+        <v>0.300082</v>
       </c>
       <c r="D52" t="n">
-        <v>0.787178</v>
+        <v>0.819159</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.334484</v>
+        <v>0.342054</v>
       </c>
       <c r="C53" t="n">
-        <v>0.291913</v>
+        <v>0.28865</v>
       </c>
       <c r="D53" t="n">
-        <v>0.771322</v>
+        <v>0.799404</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.331204</v>
+        <v>0.329138</v>
       </c>
       <c r="C54" t="n">
-        <v>0.282819</v>
+        <v>0.280862</v>
       </c>
       <c r="D54" t="n">
-        <v>0.756247</v>
+        <v>0.784637</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320815</v>
+        <v>0.324198</v>
       </c>
       <c r="C55" t="n">
-        <v>0.272973</v>
+        <v>0.271988</v>
       </c>
       <c r="D55" t="n">
-        <v>0.744831</v>
+        <v>0.768653</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.312055</v>
+        <v>0.311977</v>
       </c>
       <c r="C56" t="n">
-        <v>0.268066</v>
+        <v>0.264435</v>
       </c>
       <c r="D56" t="n">
-        <v>0.732509</v>
+        <v>0.755769</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.303968</v>
+        <v>0.304861</v>
       </c>
       <c r="C57" t="n">
-        <v>0.259788</v>
+        <v>0.256271</v>
       </c>
       <c r="D57" t="n">
-        <v>0.720671</v>
+        <v>0.744378</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.301262</v>
+        <v>0.306032</v>
       </c>
       <c r="C58" t="n">
-        <v>0.250841</v>
+        <v>0.249051</v>
       </c>
       <c r="D58" t="n">
-        <v>0.712069</v>
+        <v>0.735615</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.297762</v>
+        <v>0.289833</v>
       </c>
       <c r="C59" t="n">
-        <v>0.244394</v>
+        <v>0.243364</v>
       </c>
       <c r="D59" t="n">
-        <v>0.702362</v>
+        <v>0.7221689999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.287694</v>
+        <v>0.290366</v>
       </c>
       <c r="C60" t="n">
-        <v>0.23866</v>
+        <v>0.236445</v>
       </c>
       <c r="D60" t="n">
-        <v>0.695377</v>
+        <v>0.7207750000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283693</v>
+        <v>0.283592</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233397</v>
+        <v>0.231362</v>
       </c>
       <c r="D61" t="n">
-        <v>0.687912</v>
+        <v>0.709363</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.278254</v>
+        <v>0.272002</v>
       </c>
       <c r="C62" t="n">
-        <v>0.228988</v>
+        <v>0.226473</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6816410000000001</v>
+        <v>0.698267</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.272397</v>
+        <v>0.270729</v>
       </c>
       <c r="C63" t="n">
-        <v>0.226164</v>
+        <v>0.225161</v>
       </c>
       <c r="D63" t="n">
-        <v>0.676193</v>
+        <v>0.693422</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.279991</v>
+        <v>0.272986</v>
       </c>
       <c r="C64" t="n">
-        <v>0.223949</v>
+        <v>0.221716</v>
       </c>
       <c r="D64" t="n">
-        <v>0.897099</v>
+        <v>0.921783</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268539</v>
+        <v>0.266921</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224044</v>
+        <v>0.224249</v>
       </c>
       <c r="D65" t="n">
-        <v>0.874147</v>
+        <v>0.899962</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.268047</v>
+        <v>0.266137</v>
       </c>
       <c r="C66" t="n">
-        <v>0.325281</v>
+        <v>0.323</v>
       </c>
       <c r="D66" t="n">
-        <v>0.855722</v>
+        <v>0.87913</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.40996</v>
+        <v>0.413988</v>
       </c>
       <c r="C67" t="n">
-        <v>0.317571</v>
+        <v>0.312895</v>
       </c>
       <c r="D67" t="n">
-        <v>0.838521</v>
+        <v>0.861335</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.399903</v>
+        <v>0.382846</v>
       </c>
       <c r="C68" t="n">
-        <v>0.312614</v>
+        <v>0.304138</v>
       </c>
       <c r="D68" t="n">
-        <v>0.823041</v>
+        <v>0.843638</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.399132</v>
+        <v>0.379906</v>
       </c>
       <c r="C69" t="n">
-        <v>0.304725</v>
+        <v>0.295069</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8110889999999999</v>
+        <v>0.827997</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.426868</v>
+        <v>0.360355</v>
       </c>
       <c r="C70" t="n">
-        <v>0.296062</v>
+        <v>0.287378</v>
       </c>
       <c r="D70" t="n">
-        <v>0.798872</v>
+        <v>0.816886</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.374682</v>
+        <v>0.401088</v>
       </c>
       <c r="C71" t="n">
-        <v>0.283303</v>
+        <v>0.285328</v>
       </c>
       <c r="D71" t="n">
-        <v>0.789511</v>
+        <v>0.8074170000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.371591</v>
+        <v>0.349589</v>
       </c>
       <c r="C72" t="n">
-        <v>0.277395</v>
+        <v>0.277328</v>
       </c>
       <c r="D72" t="n">
-        <v>0.781117</v>
+        <v>0.795827</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350339</v>
+        <v>0.366426</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2703</v>
+        <v>0.265857</v>
       </c>
       <c r="D73" t="n">
-        <v>0.773633</v>
+        <v>0.78754</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.352868</v>
+        <v>0.344872</v>
       </c>
       <c r="C74" t="n">
-        <v>0.267478</v>
+        <v>0.259023</v>
       </c>
       <c r="D74" t="n">
-        <v>0.768279</v>
+        <v>0.787399</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.348509</v>
+        <v>0.366194</v>
       </c>
       <c r="C75" t="n">
-        <v>0.257891</v>
+        <v>0.254456</v>
       </c>
       <c r="D75" t="n">
-        <v>0.764101</v>
+        <v>0.77793</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.368306</v>
+        <v>0.35395</v>
       </c>
       <c r="C76" t="n">
-        <v>0.254501</v>
+        <v>0.25474</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7621830000000001</v>
+        <v>0.768006</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.345306</v>
+        <v>0.367654</v>
       </c>
       <c r="C77" t="n">
-        <v>0.252334</v>
+        <v>0.246011</v>
       </c>
       <c r="D77" t="n">
-        <v>0.762069</v>
+        <v>0.771709</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.372</v>
+        <v>0.364227</v>
       </c>
       <c r="C78" t="n">
-        <v>0.253586</v>
+        <v>0.244479</v>
       </c>
       <c r="D78" t="n">
-        <v>1.20976</v>
+        <v>1.23783</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.355142</v>
+        <v>0.321707</v>
       </c>
       <c r="C79" t="n">
-        <v>0.25244</v>
+        <v>0.243242</v>
       </c>
       <c r="D79" t="n">
-        <v>1.1893</v>
+        <v>1.21861</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.337464</v>
+        <v>0.326522</v>
       </c>
       <c r="C80" t="n">
-        <v>0.375411</v>
+        <v>0.371496</v>
       </c>
       <c r="D80" t="n">
-        <v>1.17288</v>
+        <v>1.1976</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.477012</v>
+        <v>0.473262</v>
       </c>
       <c r="C81" t="n">
-        <v>0.37111</v>
+        <v>0.364878</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15614</v>
+        <v>1.17786</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.468761</v>
+        <v>0.438122</v>
       </c>
       <c r="C82" t="n">
-        <v>0.360671</v>
+        <v>0.353222</v>
       </c>
       <c r="D82" t="n">
-        <v>1.14276</v>
+        <v>1.16105</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.457184</v>
+        <v>0.445932</v>
       </c>
       <c r="C83" t="n">
-        <v>0.349598</v>
+        <v>0.346142</v>
       </c>
       <c r="D83" t="n">
-        <v>1.13289</v>
+        <v>1.149</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.453483</v>
+        <v>0.419375</v>
       </c>
       <c r="C84" t="n">
-        <v>0.346491</v>
+        <v>0.336563</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12675</v>
+        <v>1.15581</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.455409</v>
+        <v>0.436857</v>
       </c>
       <c r="C85" t="n">
-        <v>0.335908</v>
+        <v>0.332711</v>
       </c>
       <c r="D85" t="n">
-        <v>1.1221</v>
+        <v>1.15254</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.418369</v>
+        <v>0.423152</v>
       </c>
       <c r="C86" t="n">
-        <v>0.328615</v>
+        <v>0.324884</v>
       </c>
       <c r="D86" t="n">
-        <v>1.12255</v>
+        <v>1.14895</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.429631</v>
+        <v>0.426084</v>
       </c>
       <c r="C87" t="n">
-        <v>0.319918</v>
+        <v>0.315854</v>
       </c>
       <c r="D87" t="n">
-        <v>1.12312</v>
+        <v>1.14977</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.427941</v>
+        <v>0.432317</v>
       </c>
       <c r="C88" t="n">
-        <v>0.314368</v>
+        <v>0.309296</v>
       </c>
       <c r="D88" t="n">
-        <v>1.12736</v>
+        <v>1.15011</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.428879</v>
+        <v>0.402664</v>
       </c>
       <c r="C89" t="n">
-        <v>0.30761</v>
+        <v>0.30354</v>
       </c>
       <c r="D89" t="n">
-        <v>1.13434</v>
+        <v>1.14892</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.44147</v>
+        <v>0.471251</v>
       </c>
       <c r="C90" t="n">
-        <v>0.300618</v>
+        <v>0.297002</v>
       </c>
       <c r="D90" t="n">
-        <v>1.14375</v>
+        <v>1.16514</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.468863</v>
+        <v>0.467779</v>
       </c>
       <c r="C91" t="n">
-        <v>0.29973</v>
+        <v>0.295662</v>
       </c>
       <c r="D91" t="n">
-        <v>1.14542</v>
+        <v>1.183</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.414136</v>
+        <v>0.439565</v>
       </c>
       <c r="C92" t="n">
-        <v>0.292032</v>
+        <v>0.289126</v>
       </c>
       <c r="D92" t="n">
-        <v>1.68806</v>
+        <v>1.75895</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.414015</v>
+        <v>0.414784</v>
       </c>
       <c r="C93" t="n">
-        <v>0.292812</v>
+        <v>0.287318</v>
       </c>
       <c r="D93" t="n">
-        <v>1.68023</v>
+        <v>1.74863</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.391546</v>
+        <v>0.454615</v>
       </c>
       <c r="C94" t="n">
-        <v>0.475098</v>
+        <v>0.475796</v>
       </c>
       <c r="D94" t="n">
-        <v>1.65611</v>
+        <v>1.73285</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.585851</v>
+        <v>0.593651</v>
       </c>
       <c r="C95" t="n">
-        <v>0.466818</v>
+        <v>0.472915</v>
       </c>
       <c r="D95" t="n">
-        <v>1.64502</v>
+        <v>1.72184</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.588998</v>
+        <v>0.607946</v>
       </c>
       <c r="C96" t="n">
-        <v>0.457146</v>
+        <v>0.462288</v>
       </c>
       <c r="D96" t="n">
-        <v>1.63591</v>
+        <v>1.71261</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.608989</v>
+        <v>0.587376</v>
       </c>
       <c r="C97" t="n">
-        <v>0.446397</v>
+        <v>0.450925</v>
       </c>
       <c r="D97" t="n">
-        <v>1.62875</v>
+        <v>1.70082</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.578584</v>
+        <v>0.575838</v>
       </c>
       <c r="C98" t="n">
-        <v>0.43465</v>
+        <v>0.438212</v>
       </c>
       <c r="D98" t="n">
-        <v>1.62439</v>
+        <v>1.69576</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.559906</v>
+        <v>0.570022</v>
       </c>
       <c r="C99" t="n">
-        <v>0.422993</v>
+        <v>0.425293</v>
       </c>
       <c r="D99" t="n">
-        <v>1.62014</v>
+        <v>1.69061</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.555631</v>
+        <v>0.555393</v>
       </c>
       <c r="C100" t="n">
-        <v>0.411854</v>
+        <v>0.413644</v>
       </c>
       <c r="D100" t="n">
-        <v>1.62295</v>
+        <v>1.6902</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.547807</v>
+        <v>0.546753</v>
       </c>
       <c r="C101" t="n">
-        <v>0.404775</v>
+        <v>0.403869</v>
       </c>
       <c r="D101" t="n">
-        <v>1.6344</v>
+        <v>1.69714</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.570171</v>
+        <v>0.550919</v>
       </c>
       <c r="C102" t="n">
-        <v>0.39685</v>
+        <v>0.395155</v>
       </c>
       <c r="D102" t="n">
-        <v>1.633</v>
+        <v>1.69955</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.52734</v>
+        <v>0.542243</v>
       </c>
       <c r="C103" t="n">
-        <v>0.384201</v>
+        <v>0.382449</v>
       </c>
       <c r="D103" t="n">
-        <v>1.64676</v>
+        <v>1.71239</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.530646</v>
+        <v>0.537137</v>
       </c>
       <c r="C104" t="n">
-        <v>0.38273</v>
+        <v>0.379524</v>
       </c>
       <c r="D104" t="n">
-        <v>1.65914</v>
+        <v>1.72161</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.505884</v>
+        <v>0.508023</v>
       </c>
       <c r="C105" t="n">
-        <v>0.370469</v>
+        <v>0.376695</v>
       </c>
       <c r="D105" t="n">
-        <v>1.67528</v>
+        <v>1.73711</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.529415</v>
+        <v>0.511118</v>
       </c>
       <c r="C106" t="n">
-        <v>0.366887</v>
+        <v>0.367823</v>
       </c>
       <c r="D106" t="n">
-        <v>1.69587</v>
+        <v>1.75806</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5255609999999999</v>
+        <v>0.51677</v>
       </c>
       <c r="C107" t="n">
-        <v>0.364687</v>
+        <v>0.362303</v>
       </c>
       <c r="D107" t="n">
-        <v>2.26498</v>
+        <v>2.37324</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.507387</v>
+        <v>0.511177</v>
       </c>
       <c r="C108" t="n">
-        <v>0.56053</v>
+        <v>0.556194</v>
       </c>
       <c r="D108" t="n">
-        <v>2.24128</v>
+        <v>2.33718</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.500603</v>
+        <v>0.506089</v>
       </c>
       <c r="C109" t="n">
-        <v>0.552872</v>
+        <v>0.5510119999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>2.21413</v>
+        <v>2.32365</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.701825</v>
+        <v>0.706261</v>
       </c>
       <c r="C110" t="n">
-        <v>0.540624</v>
+        <v>0.540039</v>
       </c>
       <c r="D110" t="n">
-        <v>2.20005</v>
+        <v>2.30624</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6907450000000001</v>
+        <v>0.707417</v>
       </c>
       <c r="C111" t="n">
-        <v>0.527795</v>
+        <v>0.527351</v>
       </c>
       <c r="D111" t="n">
-        <v>2.18991</v>
+        <v>2.283</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.686802</v>
+        <v>0.646795</v>
       </c>
       <c r="C112" t="n">
-        <v>0.515326</v>
+        <v>0.475642</v>
       </c>
       <c r="D112" t="n">
-        <v>2.17359</v>
+        <v>2.26241</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.642528</v>
+        <v>0.668414</v>
       </c>
       <c r="C113" t="n">
-        <v>0.471305</v>
+        <v>0.498033</v>
       </c>
       <c r="D113" t="n">
-        <v>2.16559</v>
+        <v>2.24818</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.656505</v>
+        <v>0.621298</v>
       </c>
       <c r="C114" t="n">
-        <v>0.465914</v>
+        <v>0.459307</v>
       </c>
       <c r="D114" t="n">
-        <v>2.20954</v>
+        <v>2.28038</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.66266</v>
+        <v>0.652177</v>
       </c>
       <c r="C115" t="n">
-        <v>0.481138</v>
+        <v>0.478621</v>
       </c>
       <c r="D115" t="n">
-        <v>2.22494</v>
+        <v>2.28124</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.646633</v>
+        <v>0.6424569999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.471772</v>
+        <v>0.470269</v>
       </c>
       <c r="D116" t="n">
-        <v>2.2135</v>
+        <v>2.27697</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.630694</v>
+        <v>0.636285</v>
       </c>
       <c r="C117" t="n">
-        <v>0.462929</v>
+        <v>0.462121</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22535</v>
+        <v>2.2732</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.617501</v>
+        <v>0.625646</v>
       </c>
       <c r="C118" t="n">
-        <v>0.455538</v>
+        <v>0.452494</v>
       </c>
       <c r="D118" t="n">
-        <v>2.16879</v>
+        <v>2.23992</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.592769</v>
+        <v>0.5929759999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.42603</v>
+        <v>0.424788</v>
       </c>
       <c r="D119" t="n">
-        <v>2.16891</v>
+        <v>2.24693</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.575829</v>
+        <v>0.5790149999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.419464</v>
+        <v>0.415462</v>
       </c>
       <c r="D120" t="n">
-        <v>2.17552</v>
+        <v>2.26724</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.588295</v>
+        <v>0.596651</v>
       </c>
       <c r="C121" t="n">
-        <v>0.418929</v>
+        <v>0.412527</v>
       </c>
       <c r="D121" t="n">
-        <v>2.79835</v>
+        <v>2.94203</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5985780000000001</v>
+        <v>0.588323</v>
       </c>
       <c r="C122" t="n">
-        <v>0.413278</v>
+        <v>0.416368</v>
       </c>
       <c r="D122" t="n">
-        <v>2.76256</v>
+        <v>2.89762</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5766790000000001</v>
+        <v>0.569231</v>
       </c>
       <c r="C123" t="n">
-        <v>0.604418</v>
+        <v>0.601008</v>
       </c>
       <c r="D123" t="n">
-        <v>2.72798</v>
+        <v>2.8463</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.789364</v>
+        <v>0.776116</v>
       </c>
       <c r="C124" t="n">
-        <v>0.596843</v>
+        <v>0.594493</v>
       </c>
       <c r="D124" t="n">
-        <v>2.69607</v>
+        <v>2.81547</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.759029</v>
+        <v>0.777393</v>
       </c>
       <c r="C125" t="n">
-        <v>0.589758</v>
+        <v>0.584122</v>
       </c>
       <c r="D125" t="n">
-        <v>2.67082</v>
+        <v>2.78399</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.772949</v>
+        <v>0.770072</v>
       </c>
       <c r="C126" t="n">
-        <v>0.582865</v>
+        <v>0.595359</v>
       </c>
       <c r="D126" t="n">
-        <v>2.64956</v>
+        <v>2.75504</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.755065</v>
+        <v>0.752946</v>
       </c>
       <c r="C127" t="n">
-        <v>0.574713</v>
+        <v>0.57258</v>
       </c>
       <c r="D127" t="n">
-        <v>2.61944</v>
+        <v>2.73954</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.75073</v>
+        <v>0.750879</v>
       </c>
       <c r="C128" t="n">
-        <v>0.563783</v>
+        <v>0.563486</v>
       </c>
       <c r="D128" t="n">
-        <v>2.60489</v>
+        <v>2.68908</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.749035</v>
+        <v>0.748203</v>
       </c>
       <c r="C129" t="n">
-        <v>0.57642</v>
+        <v>0.558719</v>
       </c>
       <c r="D129" t="n">
-        <v>2.60223</v>
+        <v>2.69377</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.72618</v>
+        <v>0.728375</v>
       </c>
       <c r="C130" t="n">
-        <v>0.555117</v>
+        <v>0.554022</v>
       </c>
       <c r="D130" t="n">
-        <v>2.58358</v>
+        <v>2.6648</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.721332</v>
+        <v>0.720921</v>
       </c>
       <c r="C131" t="n">
-        <v>0.549729</v>
+        <v>0.547816</v>
       </c>
       <c r="D131" t="n">
-        <v>2.57897</v>
+        <v>2.67107</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.719557</v>
+        <v>0.719965</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5437689999999999</v>
+        <v>0.541025</v>
       </c>
       <c r="D132" t="n">
-        <v>2.57555</v>
+        <v>2.6592</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.715943</v>
+        <v>0.726938</v>
       </c>
       <c r="C133" t="n">
-        <v>0.531347</v>
+        <v>0.537581</v>
       </c>
       <c r="D133" t="n">
-        <v>2.57578</v>
+        <v>2.65225</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.715149</v>
+        <v>0.712774</v>
       </c>
       <c r="C134" t="n">
-        <v>0.533676</v>
+        <v>0.530105</v>
       </c>
       <c r="D134" t="n">
-        <v>2.56142</v>
+        <v>2.63962</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.687159</v>
+        <v>0.709174</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5101059999999999</v>
+        <v>0.5099939999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>3.19993</v>
+        <v>3.33606</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.697402</v>
+        <v>0.683161</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5068859999999999</v>
+        <v>0.5028319999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>3.14494</v>
+        <v>3.28037</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.689021</v>
+        <v>0.675465</v>
       </c>
       <c r="C137" t="n">
-        <v>0.694187</v>
+        <v>0.700257</v>
       </c>
       <c r="D137" t="n">
-        <v>3.09788</v>
+        <v>3.23499</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.877049</v>
+        <v>0.852425</v>
       </c>
       <c r="C138" t="n">
-        <v>0.688257</v>
+        <v>0.681218</v>
       </c>
       <c r="D138" t="n">
-        <v>3.05017</v>
+        <v>3.18137</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.892451</v>
+        <v>0.868506</v>
       </c>
       <c r="C139" t="n">
-        <v>0.680602</v>
+        <v>0.678403</v>
       </c>
       <c r="D139" t="n">
-        <v>3.0056</v>
+        <v>3.14361</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.844163</v>
+        <v>0.850382</v>
       </c>
       <c r="C140" t="n">
-        <v>0.674022</v>
+        <v>0.673575</v>
       </c>
       <c r="D140" t="n">
-        <v>2.98081</v>
+        <v>3.10338</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.857637</v>
+        <v>0.875977</v>
       </c>
       <c r="C141" t="n">
-        <v>0.664887</v>
+        <v>0.669129</v>
       </c>
       <c r="D141" t="n">
-        <v>2.95566</v>
+        <v>3.06185</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.853357</v>
+        <v>0.849174</v>
       </c>
       <c r="C142" t="n">
-        <v>0.661559</v>
+        <v>0.662036</v>
       </c>
       <c r="D142" t="n">
-        <v>2.94943</v>
+        <v>3.0533</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.854125</v>
+        <v>0.854344</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6577769999999999</v>
+        <v>0.669035</v>
       </c>
       <c r="D143" t="n">
-        <v>2.92041</v>
+        <v>3.02004</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247745</v>
+        <v>0.246353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.194803</v>
+        <v>0.184303</v>
       </c>
       <c r="D2" t="n">
-        <v>0.563462</v>
+        <v>0.562997</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.238731</v>
+        <v>0.239288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190192</v>
+        <v>0.179275</v>
       </c>
       <c r="D3" t="n">
-        <v>0.556429</v>
+        <v>0.554238</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234452</v>
+        <v>0.239229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.185322</v>
+        <v>0.175721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.549553</v>
+        <v>0.549574</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.230315</v>
+        <v>0.23301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.180094</v>
+        <v>0.171412</v>
       </c>
       <c r="D5" t="n">
-        <v>0.541979</v>
+        <v>0.5439040000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230752</v>
+        <v>0.225047</v>
       </c>
       <c r="C6" t="n">
-        <v>0.176171</v>
+        <v>0.169093</v>
       </c>
       <c r="D6" t="n">
-        <v>0.537376</v>
+        <v>0.538336</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224753</v>
+        <v>0.222194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.174967</v>
+        <v>0.167989</v>
       </c>
       <c r="D7" t="n">
-        <v>0.701284</v>
+        <v>0.697958</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226297</v>
+        <v>0.226779</v>
       </c>
       <c r="C8" t="n">
-        <v>0.178747</v>
+        <v>0.172245</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6850309999999999</v>
+        <v>0.680661</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.231318</v>
+        <v>0.224083</v>
       </c>
       <c r="C9" t="n">
-        <v>0.268872</v>
+        <v>0.233385</v>
       </c>
       <c r="D9" t="n">
-        <v>0.667938</v>
+        <v>0.668447</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.320896</v>
+        <v>0.315245</v>
       </c>
       <c r="C10" t="n">
-        <v>0.258544</v>
+        <v>0.224968</v>
       </c>
       <c r="D10" t="n">
-        <v>0.655179</v>
+        <v>0.653995</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.301429</v>
+        <v>0.306984</v>
       </c>
       <c r="C11" t="n">
-        <v>0.251921</v>
+        <v>0.218132</v>
       </c>
       <c r="D11" t="n">
-        <v>0.641366</v>
+        <v>0.64053</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.300939</v>
+        <v>0.29646</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241572</v>
+        <v>0.21168</v>
       </c>
       <c r="D12" t="n">
-        <v>0.629598</v>
+        <v>0.628922</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289597</v>
+        <v>0.289042</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234084</v>
+        <v>0.20559</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6260599999999999</v>
+        <v>0.623031</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.283271</v>
+        <v>0.279163</v>
       </c>
       <c r="C14" t="n">
-        <v>0.226815</v>
+        <v>0.200064</v>
       </c>
       <c r="D14" t="n">
-        <v>0.613078</v>
+        <v>0.612634</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.275997</v>
+        <v>0.276461</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220311</v>
+        <v>0.196152</v>
       </c>
       <c r="D15" t="n">
-        <v>0.602999</v>
+        <v>0.603116</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.263515</v>
+        <v>0.265167</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213954</v>
+        <v>0.19056</v>
       </c>
       <c r="D16" t="n">
-        <v>0.594997</v>
+        <v>0.594185</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.255908</v>
+        <v>0.259058</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208953</v>
+        <v>0.186621</v>
       </c>
       <c r="D17" t="n">
-        <v>0.588585</v>
+        <v>0.587597</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251602</v>
+        <v>0.253412</v>
       </c>
       <c r="C18" t="n">
-        <v>0.204402</v>
+        <v>0.183436</v>
       </c>
       <c r="D18" t="n">
-        <v>0.583216</v>
+        <v>0.5824</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248782</v>
+        <v>0.248187</v>
       </c>
       <c r="C19" t="n">
-        <v>0.199948</v>
+        <v>0.180902</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5826480000000001</v>
+        <v>0.575874</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.246233</v>
+        <v>0.240624</v>
       </c>
       <c r="C20" t="n">
-        <v>0.201506</v>
+        <v>0.178372</v>
       </c>
       <c r="D20" t="n">
-        <v>0.572179</v>
+        <v>0.569349</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242822</v>
+        <v>0.242259</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196738</v>
+        <v>0.178895</v>
       </c>
       <c r="D21" t="n">
-        <v>0.761704</v>
+        <v>0.756872</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240384</v>
+        <v>0.23884</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198075</v>
+        <v>0.18182</v>
       </c>
       <c r="D22" t="n">
-        <v>0.746804</v>
+        <v>0.740467</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.239692</v>
+        <v>0.239166</v>
       </c>
       <c r="C23" t="n">
-        <v>0.288337</v>
+        <v>0.266896</v>
       </c>
       <c r="D23" t="n">
-        <v>0.733513</v>
+        <v>0.727321</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.329734</v>
+        <v>0.326373</v>
       </c>
       <c r="C24" t="n">
-        <v>0.277698</v>
+        <v>0.258186</v>
       </c>
       <c r="D24" t="n">
-        <v>0.712376</v>
+        <v>0.714145</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315227</v>
+        <v>0.315007</v>
       </c>
       <c r="C25" t="n">
-        <v>0.268579</v>
+        <v>0.249958</v>
       </c>
       <c r="D25" t="n">
-        <v>0.698497</v>
+        <v>0.699257</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305241</v>
+        <v>0.306062</v>
       </c>
       <c r="C26" t="n">
-        <v>0.261369</v>
+        <v>0.242416</v>
       </c>
       <c r="D26" t="n">
-        <v>0.689782</v>
+        <v>0.685893</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.299319</v>
+        <v>0.296912</v>
       </c>
       <c r="C27" t="n">
-        <v>0.25168</v>
+        <v>0.235306</v>
       </c>
       <c r="D27" t="n">
-        <v>0.687457</v>
+        <v>0.675964</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286826</v>
+        <v>0.287815</v>
       </c>
       <c r="C28" t="n">
-        <v>0.243043</v>
+        <v>0.227583</v>
       </c>
       <c r="D28" t="n">
-        <v>0.663734</v>
+        <v>0.663152</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284209</v>
+        <v>0.2783</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235783</v>
+        <v>0.221394</v>
       </c>
       <c r="D29" t="n">
-        <v>0.655143</v>
+        <v>0.654412</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.279064</v>
+        <v>0.272093</v>
       </c>
       <c r="C30" t="n">
-        <v>0.229303</v>
+        <v>0.216233</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6465689999999999</v>
+        <v>0.644946</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267606</v>
+        <v>0.282102</v>
       </c>
       <c r="C31" t="n">
-        <v>0.223674</v>
+        <v>0.210573</v>
       </c>
       <c r="D31" t="n">
-        <v>0.636832</v>
+        <v>0.637177</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260818</v>
+        <v>0.261453</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217929</v>
+        <v>0.205712</v>
       </c>
       <c r="D32" t="n">
-        <v>0.640225</v>
+        <v>0.629822</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.260669</v>
+        <v>0.258347</v>
       </c>
       <c r="C33" t="n">
-        <v>0.212412</v>
+        <v>0.201553</v>
       </c>
       <c r="D33" t="n">
-        <v>0.625449</v>
+        <v>0.62214</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249708</v>
+        <v>0.251462</v>
       </c>
       <c r="C34" t="n">
-        <v>0.208781</v>
+        <v>0.19859</v>
       </c>
       <c r="D34" t="n">
-        <v>0.626845</v>
+        <v>0.618019</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.253163</v>
+        <v>0.244788</v>
       </c>
       <c r="C35" t="n">
-        <v>0.206994</v>
+        <v>0.196413</v>
       </c>
       <c r="D35" t="n">
-        <v>0.82485</v>
+        <v>0.8165750000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24937</v>
+        <v>0.248559</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206252</v>
+        <v>0.196809</v>
       </c>
       <c r="D36" t="n">
-        <v>0.804436</v>
+        <v>0.7990429999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.251252</v>
+        <v>0.248994</v>
       </c>
       <c r="C37" t="n">
-        <v>0.300283</v>
+        <v>0.284675</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7863869999999999</v>
+        <v>0.779868</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.336214</v>
+        <v>0.328968</v>
       </c>
       <c r="C38" t="n">
-        <v>0.28895</v>
+        <v>0.274966</v>
       </c>
       <c r="D38" t="n">
-        <v>0.771879</v>
+        <v>0.764475</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.321026</v>
+        <v>0.318657</v>
       </c>
       <c r="C39" t="n">
-        <v>0.280033</v>
+        <v>0.266804</v>
       </c>
       <c r="D39" t="n">
-        <v>0.753952</v>
+        <v>0.749074</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.315731</v>
+        <v>0.307957</v>
       </c>
       <c r="C40" t="n">
-        <v>0.269965</v>
+        <v>0.258482</v>
       </c>
       <c r="D40" t="n">
-        <v>0.742515</v>
+        <v>0.73576</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.305804</v>
+        <v>0.305309</v>
       </c>
       <c r="C41" t="n">
-        <v>0.261996</v>
+        <v>0.250703</v>
       </c>
       <c r="D41" t="n">
-        <v>0.733276</v>
+        <v>0.7224660000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.29457</v>
+        <v>0.296787</v>
       </c>
       <c r="C42" t="n">
-        <v>0.255025</v>
+        <v>0.24359</v>
       </c>
       <c r="D42" t="n">
-        <v>0.726622</v>
+        <v>0.711934</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288138</v>
+        <v>0.285564</v>
       </c>
       <c r="C43" t="n">
-        <v>0.245672</v>
+        <v>0.236044</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7096209999999999</v>
+        <v>0.700055</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.281935</v>
+        <v>0.280896</v>
       </c>
       <c r="C44" t="n">
-        <v>0.240037</v>
+        <v>0.229863</v>
       </c>
       <c r="D44" t="n">
-        <v>0.698653</v>
+        <v>0.6897529999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.275778</v>
+        <v>0.27921</v>
       </c>
       <c r="C45" t="n">
-        <v>0.233212</v>
+        <v>0.223983</v>
       </c>
       <c r="D45" t="n">
-        <v>0.687598</v>
+        <v>0.6810929999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.276226</v>
+        <v>0.277188</v>
       </c>
       <c r="C46" t="n">
-        <v>0.227351</v>
+        <v>0.219427</v>
       </c>
       <c r="D46" t="n">
-        <v>0.680728</v>
+        <v>0.674156</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.270658</v>
+        <v>0.264964</v>
       </c>
       <c r="C47" t="n">
-        <v>0.220703</v>
+        <v>0.214082</v>
       </c>
       <c r="D47" t="n">
-        <v>0.675783</v>
+        <v>0.6672</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265212</v>
+        <v>0.266055</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216856</v>
+        <v>0.21039</v>
       </c>
       <c r="D48" t="n">
-        <v>0.671763</v>
+        <v>0.660541</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.262678</v>
+        <v>0.257</v>
       </c>
       <c r="C49" t="n">
-        <v>0.214663</v>
+        <v>0.20759</v>
       </c>
       <c r="D49" t="n">
-        <v>0.666171</v>
+        <v>0.654875</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.258888</v>
+        <v>0.252214</v>
       </c>
       <c r="C50" t="n">
-        <v>0.213127</v>
+        <v>0.206444</v>
       </c>
       <c r="D50" t="n">
-        <v>0.852904</v>
+        <v>0.844577</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.254972</v>
+        <v>0.25056</v>
       </c>
       <c r="C51" t="n">
-        <v>0.309908</v>
+        <v>0.296847</v>
       </c>
       <c r="D51" t="n">
-        <v>0.833572</v>
+        <v>0.825589</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.253043</v>
+        <v>0.256703</v>
       </c>
       <c r="C52" t="n">
-        <v>0.300082</v>
+        <v>0.287214</v>
       </c>
       <c r="D52" t="n">
-        <v>0.819159</v>
+        <v>0.807705</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.342054</v>
+        <v>0.341477</v>
       </c>
       <c r="C53" t="n">
-        <v>0.28865</v>
+        <v>0.279446</v>
       </c>
       <c r="D53" t="n">
-        <v>0.799404</v>
+        <v>0.791392</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.329138</v>
+        <v>0.322817</v>
       </c>
       <c r="C54" t="n">
-        <v>0.280862</v>
+        <v>0.270884</v>
       </c>
       <c r="D54" t="n">
-        <v>0.784637</v>
+        <v>0.775639</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.324198</v>
+        <v>0.318424</v>
       </c>
       <c r="C55" t="n">
-        <v>0.271988</v>
+        <v>0.263182</v>
       </c>
       <c r="D55" t="n">
-        <v>0.768653</v>
+        <v>0.7619089999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.311977</v>
+        <v>0.313969</v>
       </c>
       <c r="C56" t="n">
-        <v>0.264435</v>
+        <v>0.255636</v>
       </c>
       <c r="D56" t="n">
-        <v>0.755769</v>
+        <v>0.748644</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.304861</v>
+        <v>0.311076</v>
       </c>
       <c r="C57" t="n">
-        <v>0.256271</v>
+        <v>0.248938</v>
       </c>
       <c r="D57" t="n">
-        <v>0.744378</v>
+        <v>0.736271</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.306032</v>
+        <v>0.302845</v>
       </c>
       <c r="C58" t="n">
-        <v>0.249051</v>
+        <v>0.241814</v>
       </c>
       <c r="D58" t="n">
-        <v>0.735615</v>
+        <v>0.726145</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.289833</v>
+        <v>0.291633</v>
       </c>
       <c r="C59" t="n">
-        <v>0.243364</v>
+        <v>0.236722</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7221689999999999</v>
+        <v>0.71678</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.290366</v>
+        <v>0.290578</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236445</v>
+        <v>0.232222</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7207750000000001</v>
+        <v>0.708234</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283592</v>
+        <v>0.282038</v>
       </c>
       <c r="C61" t="n">
-        <v>0.231362</v>
+        <v>0.226964</v>
       </c>
       <c r="D61" t="n">
-        <v>0.709363</v>
+        <v>0.70033</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272002</v>
+        <v>0.274188</v>
       </c>
       <c r="C62" t="n">
-        <v>0.226473</v>
+        <v>0.222176</v>
       </c>
       <c r="D62" t="n">
-        <v>0.698267</v>
+        <v>0.692504</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.270729</v>
+        <v>0.269089</v>
       </c>
       <c r="C63" t="n">
-        <v>0.225161</v>
+        <v>0.218788</v>
       </c>
       <c r="D63" t="n">
-        <v>0.693422</v>
+        <v>0.686408</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.272986</v>
+        <v>0.272004</v>
       </c>
       <c r="C64" t="n">
-        <v>0.221716</v>
+        <v>0.218093</v>
       </c>
       <c r="D64" t="n">
-        <v>0.921783</v>
+        <v>0.9072480000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266921</v>
+        <v>0.265268</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224249</v>
+        <v>0.22107</v>
       </c>
       <c r="D65" t="n">
-        <v>0.899962</v>
+        <v>0.885447</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.266137</v>
+        <v>0.266513</v>
       </c>
       <c r="C66" t="n">
-        <v>0.323</v>
+        <v>0.306177</v>
       </c>
       <c r="D66" t="n">
-        <v>0.87913</v>
+        <v>0.865694</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.413988</v>
+        <v>0.415254</v>
       </c>
       <c r="C67" t="n">
-        <v>0.312895</v>
+        <v>0.298217</v>
       </c>
       <c r="D67" t="n">
-        <v>0.861335</v>
+        <v>0.848803</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.382846</v>
+        <v>0.39943</v>
       </c>
       <c r="C68" t="n">
-        <v>0.304138</v>
+        <v>0.290056</v>
       </c>
       <c r="D68" t="n">
-        <v>0.843638</v>
+        <v>0.832079</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.379906</v>
+        <v>0.394437</v>
       </c>
       <c r="C69" t="n">
-        <v>0.295069</v>
+        <v>0.282092</v>
       </c>
       <c r="D69" t="n">
-        <v>0.827997</v>
+        <v>0.817967</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.360355</v>
+        <v>0.381603</v>
       </c>
       <c r="C70" t="n">
-        <v>0.287378</v>
+        <v>0.274681</v>
       </c>
       <c r="D70" t="n">
-        <v>0.816886</v>
+        <v>0.805742</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.401088</v>
+        <v>0.356042</v>
       </c>
       <c r="C71" t="n">
-        <v>0.285328</v>
+        <v>0.26782</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8074170000000001</v>
+        <v>0.795997</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.349589</v>
+        <v>0.350367</v>
       </c>
       <c r="C72" t="n">
-        <v>0.277328</v>
+        <v>0.261375</v>
       </c>
       <c r="D72" t="n">
-        <v>0.795827</v>
+        <v>0.786366</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.366426</v>
+        <v>0.348026</v>
       </c>
       <c r="C73" t="n">
-        <v>0.265857</v>
+        <v>0.255102</v>
       </c>
       <c r="D73" t="n">
-        <v>0.78754</v>
+        <v>0.779084</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.344872</v>
+        <v>0.388691</v>
       </c>
       <c r="C74" t="n">
-        <v>0.259023</v>
+        <v>0.250272</v>
       </c>
       <c r="D74" t="n">
-        <v>0.787399</v>
+        <v>0.772715</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.366194</v>
+        <v>0.349995</v>
       </c>
       <c r="C75" t="n">
-        <v>0.254456</v>
+        <v>0.245516</v>
       </c>
       <c r="D75" t="n">
-        <v>0.77793</v>
+        <v>0.767505</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.35395</v>
+        <v>0.390296</v>
       </c>
       <c r="C76" t="n">
-        <v>0.25474</v>
+        <v>0.241392</v>
       </c>
       <c r="D76" t="n">
-        <v>0.768006</v>
+        <v>0.765764</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.367654</v>
+        <v>0.351955</v>
       </c>
       <c r="C77" t="n">
-        <v>0.246011</v>
+        <v>0.238503</v>
       </c>
       <c r="D77" t="n">
-        <v>0.771709</v>
+        <v>0.765389</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.364227</v>
+        <v>0.368202</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244479</v>
+        <v>0.236666</v>
       </c>
       <c r="D78" t="n">
-        <v>1.23783</v>
+        <v>1.23597</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.321707</v>
+        <v>0.334169</v>
       </c>
       <c r="C79" t="n">
-        <v>0.243242</v>
+        <v>0.236377</v>
       </c>
       <c r="D79" t="n">
-        <v>1.21861</v>
+        <v>1.21314</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.326522</v>
+        <v>0.351349</v>
       </c>
       <c r="C80" t="n">
-        <v>0.371496</v>
+        <v>0.33984</v>
       </c>
       <c r="D80" t="n">
-        <v>1.1976</v>
+        <v>1.19329</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.473262</v>
+        <v>0.45225</v>
       </c>
       <c r="C81" t="n">
-        <v>0.364878</v>
+        <v>0.332224</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17786</v>
+        <v>1.17473</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.438122</v>
+        <v>0.456412</v>
       </c>
       <c r="C82" t="n">
-        <v>0.353222</v>
+        <v>0.326122</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16105</v>
+        <v>1.16069</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.445932</v>
+        <v>0.450492</v>
       </c>
       <c r="C83" t="n">
-        <v>0.346142</v>
+        <v>0.319952</v>
       </c>
       <c r="D83" t="n">
-        <v>1.149</v>
+        <v>1.14835</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.419375</v>
+        <v>0.449027</v>
       </c>
       <c r="C84" t="n">
-        <v>0.336563</v>
+        <v>0.31297</v>
       </c>
       <c r="D84" t="n">
-        <v>1.15581</v>
+        <v>1.13965</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.436857</v>
+        <v>0.424205</v>
       </c>
       <c r="C85" t="n">
-        <v>0.332711</v>
+        <v>0.304645</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15254</v>
+        <v>1.13536</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.423152</v>
+        <v>0.438861</v>
       </c>
       <c r="C86" t="n">
-        <v>0.324884</v>
+        <v>0.299271</v>
       </c>
       <c r="D86" t="n">
-        <v>1.14895</v>
+        <v>1.1358</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.426084</v>
+        <v>0.420574</v>
       </c>
       <c r="C87" t="n">
-        <v>0.315854</v>
+        <v>0.294123</v>
       </c>
       <c r="D87" t="n">
-        <v>1.14977</v>
+        <v>1.14092</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.432317</v>
+        <v>0.440279</v>
       </c>
       <c r="C88" t="n">
-        <v>0.309296</v>
+        <v>0.287542</v>
       </c>
       <c r="D88" t="n">
-        <v>1.15011</v>
+        <v>1.14307</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.402664</v>
+        <v>0.418206</v>
       </c>
       <c r="C89" t="n">
-        <v>0.30354</v>
+        <v>0.283383</v>
       </c>
       <c r="D89" t="n">
-        <v>1.14892</v>
+        <v>1.15078</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.471251</v>
+        <v>0.47493</v>
       </c>
       <c r="C90" t="n">
-        <v>0.297002</v>
+        <v>0.277746</v>
       </c>
       <c r="D90" t="n">
-        <v>1.16514</v>
+        <v>1.16121</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.467779</v>
+        <v>0.458743</v>
       </c>
       <c r="C91" t="n">
-        <v>0.295662</v>
+        <v>0.274108</v>
       </c>
       <c r="D91" t="n">
-        <v>1.183</v>
+        <v>1.17035</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.439565</v>
+        <v>0.443237</v>
       </c>
       <c r="C92" t="n">
-        <v>0.289126</v>
+        <v>0.271398</v>
       </c>
       <c r="D92" t="n">
-        <v>1.75895</v>
+        <v>1.745</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.414784</v>
+        <v>0.419995</v>
       </c>
       <c r="C93" t="n">
-        <v>0.287318</v>
+        <v>0.271749</v>
       </c>
       <c r="D93" t="n">
-        <v>1.74863</v>
+        <v>1.73384</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.454615</v>
+        <v>0.39579</v>
       </c>
       <c r="C94" t="n">
-        <v>0.475796</v>
+        <v>0.534238</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73285</v>
+        <v>1.722</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.593651</v>
+        <v>0.634038</v>
       </c>
       <c r="C95" t="n">
-        <v>0.472915</v>
+        <v>0.517767</v>
       </c>
       <c r="D95" t="n">
-        <v>1.72184</v>
+        <v>1.70797</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.607946</v>
+        <v>0.590668</v>
       </c>
       <c r="C96" t="n">
-        <v>0.462288</v>
+        <v>0.503103</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71261</v>
+        <v>1.69714</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.587376</v>
+        <v>0.5776790000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.450925</v>
+        <v>0.489906</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70082</v>
+        <v>1.68909</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.575838</v>
+        <v>0.588963</v>
       </c>
       <c r="C98" t="n">
-        <v>0.438212</v>
+        <v>0.476002</v>
       </c>
       <c r="D98" t="n">
-        <v>1.69576</v>
+        <v>1.68266</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.570022</v>
+        <v>0.564381</v>
       </c>
       <c r="C99" t="n">
-        <v>0.425293</v>
+        <v>0.462958</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69061</v>
+        <v>1.68051</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.555393</v>
+        <v>0.6024890000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.413644</v>
+        <v>0.451479</v>
       </c>
       <c r="D100" t="n">
-        <v>1.6902</v>
+        <v>1.68129</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.546753</v>
+        <v>0.5370239999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.403869</v>
+        <v>0.439533</v>
       </c>
       <c r="D101" t="n">
-        <v>1.69714</v>
+        <v>1.68552</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.550919</v>
+        <v>0.560454</v>
       </c>
       <c r="C102" t="n">
-        <v>0.395155</v>
+        <v>0.428733</v>
       </c>
       <c r="D102" t="n">
-        <v>1.69955</v>
+        <v>1.69042</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.542243</v>
+        <v>0.536448</v>
       </c>
       <c r="C103" t="n">
-        <v>0.382449</v>
+        <v>0.418575</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71239</v>
+        <v>1.69852</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.537137</v>
+        <v>0.537496</v>
       </c>
       <c r="C104" t="n">
-        <v>0.379524</v>
+        <v>0.410324</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72161</v>
+        <v>1.71021</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.508023</v>
+        <v>0.5249740000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.376695</v>
+        <v>0.401632</v>
       </c>
       <c r="D105" t="n">
-        <v>1.73711</v>
+        <v>1.72424</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.511118</v>
+        <v>0.533173</v>
       </c>
       <c r="C106" t="n">
-        <v>0.367823</v>
+        <v>0.395762</v>
       </c>
       <c r="D106" t="n">
-        <v>1.75806</v>
+        <v>1.74158</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51677</v>
+        <v>0.499211</v>
       </c>
       <c r="C107" t="n">
-        <v>0.362303</v>
+        <v>0.390409</v>
       </c>
       <c r="D107" t="n">
-        <v>2.37324</v>
+        <v>2.34145</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.511177</v>
+        <v>0.520637</v>
       </c>
       <c r="C108" t="n">
-        <v>0.556194</v>
+        <v>0.581086</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33718</v>
+        <v>2.31203</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.506089</v>
+        <v>0.525823</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5510119999999999</v>
+        <v>0.572198</v>
       </c>
       <c r="D109" t="n">
-        <v>2.32365</v>
+        <v>2.28655</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.706261</v>
+        <v>0.709493</v>
       </c>
       <c r="C110" t="n">
-        <v>0.540039</v>
+        <v>0.558124</v>
       </c>
       <c r="D110" t="n">
-        <v>2.30624</v>
+        <v>2.26372</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.707417</v>
+        <v>0.633417</v>
       </c>
       <c r="C111" t="n">
-        <v>0.527351</v>
+        <v>0.493256</v>
       </c>
       <c r="D111" t="n">
-        <v>2.283</v>
+        <v>2.24389</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.646795</v>
+        <v>0.674239</v>
       </c>
       <c r="C112" t="n">
-        <v>0.475642</v>
+        <v>0.531386</v>
       </c>
       <c r="D112" t="n">
-        <v>2.26241</v>
+        <v>2.23034</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.668414</v>
+        <v>0.686042</v>
       </c>
       <c r="C113" t="n">
-        <v>0.498033</v>
+        <v>0.520725</v>
       </c>
       <c r="D113" t="n">
-        <v>2.24818</v>
+        <v>2.22009</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.621298</v>
+        <v>0.655379</v>
       </c>
       <c r="C114" t="n">
-        <v>0.459307</v>
+        <v>0.509128</v>
       </c>
       <c r="D114" t="n">
-        <v>2.28038</v>
+        <v>2.2544</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.652177</v>
+        <v>0.649583</v>
       </c>
       <c r="C115" t="n">
-        <v>0.478621</v>
+        <v>0.49949</v>
       </c>
       <c r="D115" t="n">
-        <v>2.28124</v>
+        <v>2.25314</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6424569999999999</v>
+        <v>0.65126</v>
       </c>
       <c r="C116" t="n">
-        <v>0.470269</v>
+        <v>0.488568</v>
       </c>
       <c r="D116" t="n">
-        <v>2.27697</v>
+        <v>2.25277</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.636285</v>
+        <v>0.63649</v>
       </c>
       <c r="C117" t="n">
-        <v>0.462121</v>
+        <v>0.478752</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2732</v>
+        <v>2.25376</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.625646</v>
+        <v>0.635582</v>
       </c>
       <c r="C118" t="n">
-        <v>0.452494</v>
+        <v>0.469945</v>
       </c>
       <c r="D118" t="n">
-        <v>2.23992</v>
+        <v>2.2146</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5929759999999999</v>
+        <v>0.629762</v>
       </c>
       <c r="C119" t="n">
-        <v>0.424788</v>
+        <v>0.425706</v>
       </c>
       <c r="D119" t="n">
-        <v>2.24693</v>
+        <v>2.21174</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5790149999999999</v>
+        <v>0.593929</v>
       </c>
       <c r="C120" t="n">
-        <v>0.415462</v>
+        <v>0.421526</v>
       </c>
       <c r="D120" t="n">
-        <v>2.26724</v>
+        <v>2.21925</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.596651</v>
+        <v>0.597482</v>
       </c>
       <c r="C121" t="n">
-        <v>0.412527</v>
+        <v>0.416306</v>
       </c>
       <c r="D121" t="n">
-        <v>2.94203</v>
+        <v>2.88734</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.588323</v>
+        <v>0.600375</v>
       </c>
       <c r="C122" t="n">
-        <v>0.416368</v>
+        <v>0.416503</v>
       </c>
       <c r="D122" t="n">
-        <v>2.89762</v>
+        <v>2.84353</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.569231</v>
+        <v>0.5954390000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.601008</v>
+        <v>0.629785</v>
       </c>
       <c r="D123" t="n">
-        <v>2.8463</v>
+        <v>2.80823</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.776116</v>
+        <v>0.765175</v>
       </c>
       <c r="C124" t="n">
-        <v>0.594493</v>
+        <v>0.592031</v>
       </c>
       <c r="D124" t="n">
-        <v>2.81547</v>
+        <v>2.77259</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.777393</v>
+        <v>0.770252</v>
       </c>
       <c r="C125" t="n">
-        <v>0.584122</v>
+        <v>0.585253</v>
       </c>
       <c r="D125" t="n">
-        <v>2.78399</v>
+        <v>2.74383</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.770072</v>
+        <v>0.748499</v>
       </c>
       <c r="C126" t="n">
-        <v>0.595359</v>
+        <v>0.576526</v>
       </c>
       <c r="D126" t="n">
-        <v>2.75504</v>
+        <v>2.7165</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.752946</v>
+        <v>0.759537</v>
       </c>
       <c r="C127" t="n">
-        <v>0.57258</v>
+        <v>0.569047</v>
       </c>
       <c r="D127" t="n">
-        <v>2.73954</v>
+        <v>2.68555</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.750879</v>
+        <v>0.743251</v>
       </c>
       <c r="C128" t="n">
-        <v>0.563486</v>
+        <v>0.559938</v>
       </c>
       <c r="D128" t="n">
-        <v>2.68908</v>
+        <v>2.65746</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.748203</v>
+        <v>0.726064</v>
       </c>
       <c r="C129" t="n">
-        <v>0.558719</v>
+        <v>0.554884</v>
       </c>
       <c r="D129" t="n">
-        <v>2.69377</v>
+        <v>2.64623</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.728375</v>
+        <v>0.721611</v>
       </c>
       <c r="C130" t="n">
-        <v>0.554022</v>
+        <v>0.546189</v>
       </c>
       <c r="D130" t="n">
-        <v>2.6648</v>
+        <v>2.63133</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.720921</v>
+        <v>0.724143</v>
       </c>
       <c r="C131" t="n">
-        <v>0.547816</v>
+        <v>0.543163</v>
       </c>
       <c r="D131" t="n">
-        <v>2.67107</v>
+        <v>2.6254</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.719965</v>
+        <v>0.717571</v>
       </c>
       <c r="C132" t="n">
-        <v>0.541025</v>
+        <v>0.533515</v>
       </c>
       <c r="D132" t="n">
-        <v>2.6592</v>
+        <v>2.62125</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.726938</v>
+        <v>0.714704</v>
       </c>
       <c r="C133" t="n">
-        <v>0.537581</v>
+        <v>0.527755</v>
       </c>
       <c r="D133" t="n">
-        <v>2.65225</v>
+        <v>2.61246</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.712774</v>
+        <v>0.698601</v>
       </c>
       <c r="C134" t="n">
-        <v>0.530105</v>
+        <v>0.525831</v>
       </c>
       <c r="D134" t="n">
-        <v>2.63962</v>
+        <v>2.59162</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.709174</v>
+        <v>0.696482</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5099939999999999</v>
+        <v>0.495843</v>
       </c>
       <c r="D135" t="n">
-        <v>3.33606</v>
+        <v>3.27529</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.683161</v>
+        <v>0.6982969999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5028319999999999</v>
+        <v>0.520607</v>
       </c>
       <c r="D136" t="n">
-        <v>3.28037</v>
+        <v>3.21272</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.675465</v>
+        <v>0.697303</v>
       </c>
       <c r="C137" t="n">
-        <v>0.700257</v>
+        <v>0.674085</v>
       </c>
       <c r="D137" t="n">
-        <v>3.23499</v>
+        <v>3.1684</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.852425</v>
+        <v>0.890811</v>
       </c>
       <c r="C138" t="n">
-        <v>0.681218</v>
+        <v>0.666893</v>
       </c>
       <c r="D138" t="n">
-        <v>3.18137</v>
+        <v>3.12365</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.868506</v>
+        <v>0.871709</v>
       </c>
       <c r="C139" t="n">
-        <v>0.678403</v>
+        <v>0.65928</v>
       </c>
       <c r="D139" t="n">
-        <v>3.14361</v>
+        <v>3.09072</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.850382</v>
+        <v>0.876444</v>
       </c>
       <c r="C140" t="n">
-        <v>0.673575</v>
+        <v>0.680046</v>
       </c>
       <c r="D140" t="n">
-        <v>3.10338</v>
+        <v>3.04606</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.875977</v>
+        <v>0.86673</v>
       </c>
       <c r="C141" t="n">
-        <v>0.669129</v>
+        <v>0.647481</v>
       </c>
       <c r="D141" t="n">
-        <v>3.06185</v>
+        <v>3.01945</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.849174</v>
+        <v>0.848368</v>
       </c>
       <c r="C142" t="n">
-        <v>0.662036</v>
+        <v>0.643131</v>
       </c>
       <c r="D142" t="n">
-        <v>3.0533</v>
+        <v>2.99025</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.854344</v>
+        <v>0.856116</v>
       </c>
       <c r="C143" t="n">
-        <v>0.669035</v>
+        <v>0.655262</v>
       </c>
       <c r="D143" t="n">
-        <v>3.02004</v>
+        <v>2.97053</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247745</v>
+        <v>0.246883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.194803</v>
+        <v>0.209814</v>
       </c>
       <c r="D2" t="n">
-        <v>0.563462</v>
+        <v>0.566017</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.238731</v>
+        <v>0.240262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190192</v>
+        <v>0.20374</v>
       </c>
       <c r="D3" t="n">
-        <v>0.556429</v>
+        <v>0.5594789999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234452</v>
+        <v>0.234042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.185322</v>
+        <v>0.197848</v>
       </c>
       <c r="D4" t="n">
-        <v>0.549553</v>
+        <v>0.551471</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.230315</v>
+        <v>0.230729</v>
       </c>
       <c r="C5" t="n">
-        <v>0.180094</v>
+        <v>0.19448</v>
       </c>
       <c r="D5" t="n">
-        <v>0.541979</v>
+        <v>0.544788</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230752</v>
+        <v>0.230215</v>
       </c>
       <c r="C6" t="n">
-        <v>0.176171</v>
+        <v>0.188697</v>
       </c>
       <c r="D6" t="n">
-        <v>0.537376</v>
+        <v>0.537872</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224753</v>
+        <v>0.220752</v>
       </c>
       <c r="C7" t="n">
-        <v>0.174967</v>
+        <v>0.186794</v>
       </c>
       <c r="D7" t="n">
-        <v>0.701284</v>
+        <v>0.702763</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226297</v>
+        <v>0.221128</v>
       </c>
       <c r="C8" t="n">
-        <v>0.178747</v>
+        <v>0.190339</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6850309999999999</v>
+        <v>0.688576</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.231318</v>
+        <v>0.238046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.268872</v>
+        <v>0.286438</v>
       </c>
       <c r="D9" t="n">
-        <v>0.667938</v>
+        <v>0.675461</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.320896</v>
+        <v>0.313764</v>
       </c>
       <c r="C10" t="n">
-        <v>0.258544</v>
+        <v>0.275452</v>
       </c>
       <c r="D10" t="n">
-        <v>0.655179</v>
+        <v>0.657768</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.301429</v>
+        <v>0.305771</v>
       </c>
       <c r="C11" t="n">
-        <v>0.251921</v>
+        <v>0.266292</v>
       </c>
       <c r="D11" t="n">
-        <v>0.641366</v>
+        <v>0.648778</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.300939</v>
+        <v>0.298568</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241572</v>
+        <v>0.257535</v>
       </c>
       <c r="D12" t="n">
-        <v>0.629598</v>
+        <v>0.637615</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289597</v>
+        <v>0.284378</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234084</v>
+        <v>0.249059</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6260599999999999</v>
+        <v>0.626297</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.283271</v>
+        <v>0.28032</v>
       </c>
       <c r="C14" t="n">
-        <v>0.226815</v>
+        <v>0.240861</v>
       </c>
       <c r="D14" t="n">
-        <v>0.613078</v>
+        <v>0.616168</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.275997</v>
+        <v>0.269831</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220311</v>
+        <v>0.234761</v>
       </c>
       <c r="D15" t="n">
-        <v>0.602999</v>
+        <v>0.608057</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.263515</v>
+        <v>0.27749</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213954</v>
+        <v>0.226644</v>
       </c>
       <c r="D16" t="n">
-        <v>0.594997</v>
+        <v>0.597451</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.255908</v>
+        <v>0.257433</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208953</v>
+        <v>0.221622</v>
       </c>
       <c r="D17" t="n">
-        <v>0.588585</v>
+        <v>0.589834</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251602</v>
+        <v>0.250289</v>
       </c>
       <c r="C18" t="n">
-        <v>0.204402</v>
+        <v>0.215973</v>
       </c>
       <c r="D18" t="n">
-        <v>0.583216</v>
+        <v>0.582803</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248782</v>
+        <v>0.249892</v>
       </c>
       <c r="C19" t="n">
-        <v>0.199948</v>
+        <v>0.213253</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5826480000000001</v>
+        <v>0.576047</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.246233</v>
+        <v>0.246296</v>
       </c>
       <c r="C20" t="n">
-        <v>0.201506</v>
+        <v>0.208185</v>
       </c>
       <c r="D20" t="n">
-        <v>0.572179</v>
+        <v>0.572742</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242822</v>
+        <v>0.240531</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196738</v>
+        <v>0.207253</v>
       </c>
       <c r="D21" t="n">
-        <v>0.761704</v>
+        <v>0.759892</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240384</v>
+        <v>0.235435</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198075</v>
+        <v>0.207735</v>
       </c>
       <c r="D22" t="n">
-        <v>0.746804</v>
+        <v>0.743009</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.239692</v>
+        <v>0.239491</v>
       </c>
       <c r="C23" t="n">
-        <v>0.288337</v>
+        <v>0.308411</v>
       </c>
       <c r="D23" t="n">
-        <v>0.733513</v>
+        <v>0.725158</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.329734</v>
+        <v>0.323408</v>
       </c>
       <c r="C24" t="n">
-        <v>0.277698</v>
+        <v>0.293222</v>
       </c>
       <c r="D24" t="n">
-        <v>0.712376</v>
+        <v>0.711879</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315227</v>
+        <v>0.314585</v>
       </c>
       <c r="C25" t="n">
-        <v>0.268579</v>
+        <v>0.287101</v>
       </c>
       <c r="D25" t="n">
-        <v>0.698497</v>
+        <v>0.698979</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305241</v>
+        <v>0.305835</v>
       </c>
       <c r="C26" t="n">
-        <v>0.261369</v>
+        <v>0.277389</v>
       </c>
       <c r="D26" t="n">
-        <v>0.689782</v>
+        <v>0.684598</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.299319</v>
+        <v>0.296943</v>
       </c>
       <c r="C27" t="n">
-        <v>0.25168</v>
+        <v>0.264892</v>
       </c>
       <c r="D27" t="n">
-        <v>0.687457</v>
+        <v>0.672923</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286826</v>
+        <v>0.287993</v>
       </c>
       <c r="C28" t="n">
-        <v>0.243043</v>
+        <v>0.256348</v>
       </c>
       <c r="D28" t="n">
-        <v>0.663734</v>
+        <v>0.6609660000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284209</v>
+        <v>0.286718</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235783</v>
+        <v>0.247767</v>
       </c>
       <c r="D29" t="n">
-        <v>0.655143</v>
+        <v>0.6530899999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.279064</v>
+        <v>0.274054</v>
       </c>
       <c r="C30" t="n">
-        <v>0.229303</v>
+        <v>0.240748</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6465689999999999</v>
+        <v>0.643723</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267606</v>
+        <v>0.272009</v>
       </c>
       <c r="C31" t="n">
-        <v>0.223674</v>
+        <v>0.234613</v>
       </c>
       <c r="D31" t="n">
-        <v>0.636832</v>
+        <v>0.636342</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260818</v>
+        <v>0.264739</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217929</v>
+        <v>0.228467</v>
       </c>
       <c r="D32" t="n">
-        <v>0.640225</v>
+        <v>0.628397</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.260669</v>
+        <v>0.263243</v>
       </c>
       <c r="C33" t="n">
-        <v>0.212412</v>
+        <v>0.224107</v>
       </c>
       <c r="D33" t="n">
-        <v>0.625449</v>
+        <v>0.621953</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249708</v>
+        <v>0.264799</v>
       </c>
       <c r="C34" t="n">
-        <v>0.208781</v>
+        <v>0.219084</v>
       </c>
       <c r="D34" t="n">
-        <v>0.626845</v>
+        <v>0.615684</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.253163</v>
+        <v>0.248737</v>
       </c>
       <c r="C35" t="n">
-        <v>0.206994</v>
+        <v>0.215937</v>
       </c>
       <c r="D35" t="n">
-        <v>0.82485</v>
+        <v>0.814709</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24937</v>
+        <v>0.243466</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206252</v>
+        <v>0.216297</v>
       </c>
       <c r="D36" t="n">
-        <v>0.804436</v>
+        <v>0.795655</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.251252</v>
+        <v>0.240382</v>
       </c>
       <c r="C37" t="n">
-        <v>0.300283</v>
+        <v>0.317291</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7863869999999999</v>
+        <v>0.777176</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.336214</v>
+        <v>0.323737</v>
       </c>
       <c r="C38" t="n">
-        <v>0.28895</v>
+        <v>0.305005</v>
       </c>
       <c r="D38" t="n">
-        <v>0.771879</v>
+        <v>0.76154</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.321026</v>
+        <v>0.317642</v>
       </c>
       <c r="C39" t="n">
-        <v>0.280033</v>
+        <v>0.293195</v>
       </c>
       <c r="D39" t="n">
-        <v>0.753952</v>
+        <v>0.747679</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.315731</v>
+        <v>0.316709</v>
       </c>
       <c r="C40" t="n">
-        <v>0.269965</v>
+        <v>0.283822</v>
       </c>
       <c r="D40" t="n">
-        <v>0.742515</v>
+        <v>0.7336859999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.305804</v>
+        <v>0.306033</v>
       </c>
       <c r="C41" t="n">
-        <v>0.261996</v>
+        <v>0.274972</v>
       </c>
       <c r="D41" t="n">
-        <v>0.733276</v>
+        <v>0.721092</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.29457</v>
+        <v>0.298477</v>
       </c>
       <c r="C42" t="n">
-        <v>0.255025</v>
+        <v>0.266151</v>
       </c>
       <c r="D42" t="n">
-        <v>0.726622</v>
+        <v>0.710377</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288138</v>
+        <v>0.290996</v>
       </c>
       <c r="C43" t="n">
-        <v>0.245672</v>
+        <v>0.258044</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7096209999999999</v>
+        <v>0.697975</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.281935</v>
+        <v>0.283938</v>
       </c>
       <c r="C44" t="n">
-        <v>0.240037</v>
+        <v>0.250426</v>
       </c>
       <c r="D44" t="n">
-        <v>0.698653</v>
+        <v>0.689646</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.275778</v>
+        <v>0.27933</v>
       </c>
       <c r="C45" t="n">
-        <v>0.233212</v>
+        <v>0.243426</v>
       </c>
       <c r="D45" t="n">
-        <v>0.687598</v>
+        <v>0.680623</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.276226</v>
+        <v>0.2772</v>
       </c>
       <c r="C46" t="n">
-        <v>0.227351</v>
+        <v>0.237333</v>
       </c>
       <c r="D46" t="n">
-        <v>0.680728</v>
+        <v>0.673411</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.270658</v>
+        <v>0.27219</v>
       </c>
       <c r="C47" t="n">
-        <v>0.220703</v>
+        <v>0.23154</v>
       </c>
       <c r="D47" t="n">
-        <v>0.675783</v>
+        <v>0.665541</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265212</v>
+        <v>0.266373</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216856</v>
+        <v>0.226819</v>
       </c>
       <c r="D48" t="n">
-        <v>0.671763</v>
+        <v>0.659836</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.262678</v>
+        <v>0.265312</v>
       </c>
       <c r="C49" t="n">
-        <v>0.214663</v>
+        <v>0.2228</v>
       </c>
       <c r="D49" t="n">
-        <v>0.666171</v>
+        <v>0.654358</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.258888</v>
+        <v>0.260575</v>
       </c>
       <c r="C50" t="n">
-        <v>0.213127</v>
+        <v>0.220949</v>
       </c>
       <c r="D50" t="n">
-        <v>0.852904</v>
+        <v>0.84396</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.254972</v>
+        <v>0.252762</v>
       </c>
       <c r="C51" t="n">
-        <v>0.309908</v>
+        <v>0.323671</v>
       </c>
       <c r="D51" t="n">
-        <v>0.833572</v>
+        <v>0.824649</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.253043</v>
+        <v>0.250047</v>
       </c>
       <c r="C52" t="n">
-        <v>0.300082</v>
+        <v>0.313098</v>
       </c>
       <c r="D52" t="n">
-        <v>0.819159</v>
+        <v>0.80647</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.342054</v>
+        <v>0.330885</v>
       </c>
       <c r="C53" t="n">
-        <v>0.28865</v>
+        <v>0.302829</v>
       </c>
       <c r="D53" t="n">
-        <v>0.799404</v>
+        <v>0.7903790000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.329138</v>
+        <v>0.325017</v>
       </c>
       <c r="C54" t="n">
-        <v>0.280862</v>
+        <v>0.29305</v>
       </c>
       <c r="D54" t="n">
-        <v>0.784637</v>
+        <v>0.774394</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.324198</v>
+        <v>0.312819</v>
       </c>
       <c r="C55" t="n">
-        <v>0.271988</v>
+        <v>0.2849</v>
       </c>
       <c r="D55" t="n">
-        <v>0.768653</v>
+        <v>0.761042</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.311977</v>
+        <v>0.310107</v>
       </c>
       <c r="C56" t="n">
-        <v>0.264435</v>
+        <v>0.276108</v>
       </c>
       <c r="D56" t="n">
-        <v>0.755769</v>
+        <v>0.748364</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.304861</v>
+        <v>0.305956</v>
       </c>
       <c r="C57" t="n">
-        <v>0.256271</v>
+        <v>0.269494</v>
       </c>
       <c r="D57" t="n">
-        <v>0.744378</v>
+        <v>0.736277</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.306032</v>
+        <v>0.308513</v>
       </c>
       <c r="C58" t="n">
-        <v>0.249051</v>
+        <v>0.26095</v>
       </c>
       <c r="D58" t="n">
-        <v>0.735615</v>
+        <v>0.726755</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.289833</v>
+        <v>0.301506</v>
       </c>
       <c r="C59" t="n">
-        <v>0.243364</v>
+        <v>0.253788</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7221689999999999</v>
+        <v>0.716646</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.290366</v>
+        <v>0.283015</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236445</v>
+        <v>0.247456</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7207750000000001</v>
+        <v>0.708538</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283592</v>
+        <v>0.282968</v>
       </c>
       <c r="C61" t="n">
-        <v>0.231362</v>
+        <v>0.242321</v>
       </c>
       <c r="D61" t="n">
-        <v>0.709363</v>
+        <v>0.700233</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272002</v>
+        <v>0.279599</v>
       </c>
       <c r="C62" t="n">
-        <v>0.226473</v>
+        <v>0.236891</v>
       </c>
       <c r="D62" t="n">
-        <v>0.698267</v>
+        <v>0.692993</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.270729</v>
+        <v>0.270919</v>
       </c>
       <c r="C63" t="n">
-        <v>0.225161</v>
+        <v>0.23307</v>
       </c>
       <c r="D63" t="n">
-        <v>0.693422</v>
+        <v>0.686675</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.272986</v>
+        <v>0.272369</v>
       </c>
       <c r="C64" t="n">
-        <v>0.221716</v>
+        <v>0.23129</v>
       </c>
       <c r="D64" t="n">
-        <v>0.921783</v>
+        <v>0.907029</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266921</v>
+        <v>0.264733</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224249</v>
+        <v>0.231006</v>
       </c>
       <c r="D65" t="n">
-        <v>0.899962</v>
+        <v>0.887273</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.266137</v>
+        <v>0.268842</v>
       </c>
       <c r="C66" t="n">
-        <v>0.323</v>
+        <v>0.345757</v>
       </c>
       <c r="D66" t="n">
-        <v>0.87913</v>
+        <v>0.867286</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.413988</v>
+        <v>0.414698</v>
       </c>
       <c r="C67" t="n">
-        <v>0.312895</v>
+        <v>0.34081</v>
       </c>
       <c r="D67" t="n">
-        <v>0.861335</v>
+        <v>0.848948</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.382846</v>
+        <v>0.408087</v>
       </c>
       <c r="C68" t="n">
-        <v>0.304138</v>
+        <v>0.325059</v>
       </c>
       <c r="D68" t="n">
-        <v>0.843638</v>
+        <v>0.832124</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.379906</v>
+        <v>0.392933</v>
       </c>
       <c r="C69" t="n">
-        <v>0.295069</v>
+        <v>0.314873</v>
       </c>
       <c r="D69" t="n">
-        <v>0.827997</v>
+        <v>0.817391</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.360355</v>
+        <v>0.371593</v>
       </c>
       <c r="C70" t="n">
-        <v>0.287378</v>
+        <v>0.306865</v>
       </c>
       <c r="D70" t="n">
-        <v>0.816886</v>
+        <v>0.806094</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.401088</v>
+        <v>0.380211</v>
       </c>
       <c r="C71" t="n">
-        <v>0.285328</v>
+        <v>0.298496</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8074170000000001</v>
+        <v>0.796146</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.349589</v>
+        <v>0.385833</v>
       </c>
       <c r="C72" t="n">
-        <v>0.277328</v>
+        <v>0.29227</v>
       </c>
       <c r="D72" t="n">
-        <v>0.795827</v>
+        <v>0.787557</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.366426</v>
+        <v>0.364439</v>
       </c>
       <c r="C73" t="n">
-        <v>0.265857</v>
+        <v>0.284787</v>
       </c>
       <c r="D73" t="n">
-        <v>0.78754</v>
+        <v>0.781353</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.344872</v>
+        <v>0.37258</v>
       </c>
       <c r="C74" t="n">
-        <v>0.259023</v>
+        <v>0.278307</v>
       </c>
       <c r="D74" t="n">
-        <v>0.787399</v>
+        <v>0.7758119999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.366194</v>
+        <v>0.370997</v>
       </c>
       <c r="C75" t="n">
-        <v>0.254456</v>
+        <v>0.270741</v>
       </c>
       <c r="D75" t="n">
-        <v>0.77793</v>
+        <v>0.771439</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.35395</v>
+        <v>0.361652</v>
       </c>
       <c r="C76" t="n">
-        <v>0.25474</v>
+        <v>0.271222</v>
       </c>
       <c r="D76" t="n">
-        <v>0.768006</v>
+        <v>0.768972</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.367654</v>
+        <v>0.361779</v>
       </c>
       <c r="C77" t="n">
-        <v>0.246011</v>
+        <v>0.261143</v>
       </c>
       <c r="D77" t="n">
-        <v>0.771709</v>
+        <v>0.76967</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.364227</v>
+        <v>0.351301</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244479</v>
+        <v>0.261937</v>
       </c>
       <c r="D78" t="n">
-        <v>1.23783</v>
+        <v>1.2561</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.321707</v>
+        <v>0.34304</v>
       </c>
       <c r="C79" t="n">
-        <v>0.243242</v>
+        <v>0.259762</v>
       </c>
       <c r="D79" t="n">
-        <v>1.21861</v>
+        <v>1.23421</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.326522</v>
+        <v>0.364916</v>
       </c>
       <c r="C80" t="n">
-        <v>0.371496</v>
+        <v>0.4048</v>
       </c>
       <c r="D80" t="n">
-        <v>1.1976</v>
+        <v>1.21075</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.473262</v>
+        <v>0.470929</v>
       </c>
       <c r="C81" t="n">
-        <v>0.364878</v>
+        <v>0.393318</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17786</v>
+        <v>1.19294</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.438122</v>
+        <v>0.489983</v>
       </c>
       <c r="C82" t="n">
-        <v>0.353222</v>
+        <v>0.383549</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16105</v>
+        <v>1.17874</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.445932</v>
+        <v>0.463281</v>
       </c>
       <c r="C83" t="n">
-        <v>0.346142</v>
+        <v>0.376396</v>
       </c>
       <c r="D83" t="n">
-        <v>1.149</v>
+        <v>1.16676</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.419375</v>
+        <v>0.445435</v>
       </c>
       <c r="C84" t="n">
-        <v>0.336563</v>
+        <v>0.369467</v>
       </c>
       <c r="D84" t="n">
-        <v>1.15581</v>
+        <v>1.15931</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.436857</v>
+        <v>0.440466</v>
       </c>
       <c r="C85" t="n">
-        <v>0.332711</v>
+        <v>0.355425</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15254</v>
+        <v>1.15363</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.423152</v>
+        <v>0.434175</v>
       </c>
       <c r="C86" t="n">
-        <v>0.324884</v>
+        <v>0.347033</v>
       </c>
       <c r="D86" t="n">
-        <v>1.14895</v>
+        <v>1.1507</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.426084</v>
+        <v>0.450317</v>
       </c>
       <c r="C87" t="n">
-        <v>0.315854</v>
+        <v>0.341938</v>
       </c>
       <c r="D87" t="n">
-        <v>1.14977</v>
+        <v>1.15035</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.432317</v>
+        <v>0.420501</v>
       </c>
       <c r="C88" t="n">
-        <v>0.309296</v>
+        <v>0.330106</v>
       </c>
       <c r="D88" t="n">
-        <v>1.15011</v>
+        <v>1.15297</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.402664</v>
+        <v>0.464546</v>
       </c>
       <c r="C89" t="n">
-        <v>0.30354</v>
+        <v>0.324441</v>
       </c>
       <c r="D89" t="n">
-        <v>1.14892</v>
+        <v>1.16127</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.471251</v>
+        <v>0.48278</v>
       </c>
       <c r="C90" t="n">
-        <v>0.297002</v>
+        <v>0.315794</v>
       </c>
       <c r="D90" t="n">
-        <v>1.16514</v>
+        <v>1.1689</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.467779</v>
+        <v>0.465674</v>
       </c>
       <c r="C91" t="n">
-        <v>0.295662</v>
+        <v>0.309449</v>
       </c>
       <c r="D91" t="n">
-        <v>1.183</v>
+        <v>1.17885</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.439565</v>
+        <v>0.462415</v>
       </c>
       <c r="C92" t="n">
-        <v>0.289126</v>
+        <v>0.308722</v>
       </c>
       <c r="D92" t="n">
-        <v>1.75895</v>
+        <v>1.77064</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.414784</v>
+        <v>0.458204</v>
       </c>
       <c r="C93" t="n">
-        <v>0.287318</v>
+        <v>0.302876</v>
       </c>
       <c r="D93" t="n">
-        <v>1.74863</v>
+        <v>1.75979</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.454615</v>
+        <v>0.441988</v>
       </c>
       <c r="C94" t="n">
-        <v>0.475796</v>
+        <v>0.515388</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73285</v>
+        <v>1.74533</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.593651</v>
+        <v>0.604908</v>
       </c>
       <c r="C95" t="n">
-        <v>0.472915</v>
+        <v>0.507142</v>
       </c>
       <c r="D95" t="n">
-        <v>1.72184</v>
+        <v>1.7301</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.607946</v>
+        <v>0.632282</v>
       </c>
       <c r="C96" t="n">
-        <v>0.462288</v>
+        <v>0.49157</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71261</v>
+        <v>1.71707</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.587376</v>
+        <v>0.6049290000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.450925</v>
+        <v>0.480282</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70082</v>
+        <v>1.70689</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.575838</v>
+        <v>0.593831</v>
       </c>
       <c r="C98" t="n">
-        <v>0.438212</v>
+        <v>0.469148</v>
       </c>
       <c r="D98" t="n">
-        <v>1.69576</v>
+        <v>1.70184</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.570022</v>
+        <v>0.575285</v>
       </c>
       <c r="C99" t="n">
-        <v>0.425293</v>
+        <v>0.454832</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69061</v>
+        <v>1.6961</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.555393</v>
+        <v>0.571889</v>
       </c>
       <c r="C100" t="n">
-        <v>0.413644</v>
+        <v>0.445256</v>
       </c>
       <c r="D100" t="n">
-        <v>1.6902</v>
+        <v>1.69546</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.546753</v>
+        <v>0.563327</v>
       </c>
       <c r="C101" t="n">
-        <v>0.403869</v>
+        <v>0.433302</v>
       </c>
       <c r="D101" t="n">
-        <v>1.69714</v>
+        <v>1.69877</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.550919</v>
+        <v>0.584708</v>
       </c>
       <c r="C102" t="n">
-        <v>0.395155</v>
+        <v>0.423175</v>
       </c>
       <c r="D102" t="n">
-        <v>1.69955</v>
+        <v>1.7032</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.542243</v>
+        <v>0.574408</v>
       </c>
       <c r="C103" t="n">
-        <v>0.382449</v>
+        <v>0.417783</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71239</v>
+        <v>1.71159</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.537137</v>
+        <v>0.55226</v>
       </c>
       <c r="C104" t="n">
-        <v>0.379524</v>
+        <v>0.405826</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72161</v>
+        <v>1.72111</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.508023</v>
+        <v>0.562391</v>
       </c>
       <c r="C105" t="n">
-        <v>0.376695</v>
+        <v>0.398114</v>
       </c>
       <c r="D105" t="n">
-        <v>1.73711</v>
+        <v>1.73207</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.511118</v>
+        <v>0.511447</v>
       </c>
       <c r="C106" t="n">
-        <v>0.367823</v>
+        <v>0.394329</v>
       </c>
       <c r="D106" t="n">
-        <v>1.75806</v>
+        <v>1.74897</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51677</v>
+        <v>0.517199</v>
       </c>
       <c r="C107" t="n">
-        <v>0.362303</v>
+        <v>0.390093</v>
       </c>
       <c r="D107" t="n">
-        <v>2.37324</v>
+        <v>2.36517</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.511177</v>
+        <v>0.548416</v>
       </c>
       <c r="C108" t="n">
-        <v>0.556194</v>
+        <v>0.6013269999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33718</v>
+        <v>2.34057</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.506089</v>
+        <v>0.512293</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5510119999999999</v>
+        <v>0.596606</v>
       </c>
       <c r="D109" t="n">
-        <v>2.32365</v>
+        <v>2.31558</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.706261</v>
+        <v>0.734691</v>
       </c>
       <c r="C110" t="n">
-        <v>0.540039</v>
+        <v>0.583247</v>
       </c>
       <c r="D110" t="n">
-        <v>2.30624</v>
+        <v>2.29783</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.707417</v>
+        <v>0.748017</v>
       </c>
       <c r="C111" t="n">
-        <v>0.527351</v>
+        <v>0.568178</v>
       </c>
       <c r="D111" t="n">
-        <v>2.283</v>
+        <v>2.2775</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.646795</v>
+        <v>0.712239</v>
       </c>
       <c r="C112" t="n">
-        <v>0.475642</v>
+        <v>0.555606</v>
       </c>
       <c r="D112" t="n">
-        <v>2.26241</v>
+        <v>2.26351</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.668414</v>
+        <v>0.672497</v>
       </c>
       <c r="C113" t="n">
-        <v>0.498033</v>
+        <v>0.507609</v>
       </c>
       <c r="D113" t="n">
-        <v>2.24818</v>
+        <v>2.25066</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.621298</v>
+        <v>0.6922700000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.459307</v>
+        <v>0.531132</v>
       </c>
       <c r="D114" t="n">
-        <v>2.28038</v>
+        <v>2.29939</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.652177</v>
+        <v>0.676651</v>
       </c>
       <c r="C115" t="n">
-        <v>0.478621</v>
+        <v>0.51933</v>
       </c>
       <c r="D115" t="n">
-        <v>2.28124</v>
+        <v>2.28639</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6424569999999999</v>
+        <v>0.670284</v>
       </c>
       <c r="C116" t="n">
-        <v>0.470269</v>
+        <v>0.509312</v>
       </c>
       <c r="D116" t="n">
-        <v>2.27697</v>
+        <v>2.29448</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.636285</v>
+        <v>0.649124</v>
       </c>
       <c r="C117" t="n">
-        <v>0.462121</v>
+        <v>0.470331</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2732</v>
+        <v>2.29503</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.625646</v>
+        <v>0.65715</v>
       </c>
       <c r="C118" t="n">
-        <v>0.452494</v>
+        <v>0.491055</v>
       </c>
       <c r="D118" t="n">
-        <v>2.23992</v>
+        <v>2.24241</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5929759999999999</v>
+        <v>0.6061609999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.424788</v>
+        <v>0.457057</v>
       </c>
       <c r="D119" t="n">
-        <v>2.24693</v>
+        <v>2.24878</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5790149999999999</v>
+        <v>0.638983</v>
       </c>
       <c r="C120" t="n">
-        <v>0.415462</v>
+        <v>0.447794</v>
       </c>
       <c r="D120" t="n">
-        <v>2.26724</v>
+        <v>2.25798</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.596651</v>
+        <v>0.62563</v>
       </c>
       <c r="C121" t="n">
-        <v>0.412527</v>
+        <v>0.444433</v>
       </c>
       <c r="D121" t="n">
-        <v>2.94203</v>
+        <v>2.94961</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.588323</v>
+        <v>0.589865</v>
       </c>
       <c r="C122" t="n">
-        <v>0.416368</v>
+        <v>0.440724</v>
       </c>
       <c r="D122" t="n">
-        <v>2.89762</v>
+        <v>2.90838</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.569231</v>
+        <v>0.610943</v>
       </c>
       <c r="C123" t="n">
-        <v>0.601008</v>
+        <v>0.652537</v>
       </c>
       <c r="D123" t="n">
-        <v>2.8463</v>
+        <v>2.87014</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.776116</v>
+        <v>0.798279</v>
       </c>
       <c r="C124" t="n">
-        <v>0.594493</v>
+        <v>0.643954</v>
       </c>
       <c r="D124" t="n">
-        <v>2.81547</v>
+        <v>2.83341</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.777393</v>
+        <v>0.819652</v>
       </c>
       <c r="C125" t="n">
-        <v>0.584122</v>
+        <v>0.635469</v>
       </c>
       <c r="D125" t="n">
-        <v>2.78399</v>
+        <v>2.80625</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.770072</v>
+        <v>0.798573</v>
       </c>
       <c r="C126" t="n">
-        <v>0.595359</v>
+        <v>0.627728</v>
       </c>
       <c r="D126" t="n">
-        <v>2.75504</v>
+        <v>2.77326</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.752946</v>
+        <v>0.799777</v>
       </c>
       <c r="C127" t="n">
-        <v>0.57258</v>
+        <v>0.619528</v>
       </c>
       <c r="D127" t="n">
-        <v>2.73954</v>
+        <v>2.74774</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.750879</v>
+        <v>0.779186</v>
       </c>
       <c r="C128" t="n">
-        <v>0.563486</v>
+        <v>0.610497</v>
       </c>
       <c r="D128" t="n">
-        <v>2.68908</v>
+        <v>2.72952</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.748203</v>
+        <v>0.779338</v>
       </c>
       <c r="C129" t="n">
-        <v>0.558719</v>
+        <v>0.6044580000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>2.69377</v>
+        <v>2.71463</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.728375</v>
+        <v>0.766796</v>
       </c>
       <c r="C130" t="n">
-        <v>0.554022</v>
+        <v>0.597316</v>
       </c>
       <c r="D130" t="n">
-        <v>2.6648</v>
+        <v>2.70288</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.720921</v>
+        <v>0.770784</v>
       </c>
       <c r="C131" t="n">
-        <v>0.547816</v>
+        <v>0.590409</v>
       </c>
       <c r="D131" t="n">
-        <v>2.67107</v>
+        <v>2.69744</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.719965</v>
+        <v>0.770127</v>
       </c>
       <c r="C132" t="n">
-        <v>0.541025</v>
+        <v>0.5856710000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>2.6592</v>
+        <v>2.68916</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.726938</v>
+        <v>0.754563</v>
       </c>
       <c r="C133" t="n">
-        <v>0.537581</v>
+        <v>0.580454</v>
       </c>
       <c r="D133" t="n">
-        <v>2.65225</v>
+        <v>2.68721</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.712774</v>
+        <v>0.7496390000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.530105</v>
+        <v>0.575556</v>
       </c>
       <c r="D134" t="n">
-        <v>2.63962</v>
+        <v>2.67471</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.709174</v>
+        <v>0.73794</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5099939999999999</v>
+        <v>0.546691</v>
       </c>
       <c r="D135" t="n">
-        <v>3.33606</v>
+        <v>3.40593</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.683161</v>
+        <v>0.724754</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5028319999999999</v>
+        <v>0.543992</v>
       </c>
       <c r="D136" t="n">
-        <v>3.28037</v>
+        <v>3.35159</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.675465</v>
+        <v>0.71133</v>
       </c>
       <c r="C137" t="n">
-        <v>0.700257</v>
+        <v>0.750262</v>
       </c>
       <c r="D137" t="n">
-        <v>3.23499</v>
+        <v>3.29691</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.852425</v>
+        <v>0.923785</v>
       </c>
       <c r="C138" t="n">
-        <v>0.681218</v>
+        <v>0.7407280000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>3.18137</v>
+        <v>3.2485</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.868506</v>
+        <v>0.908841</v>
       </c>
       <c r="C139" t="n">
-        <v>0.678403</v>
+        <v>0.735026</v>
       </c>
       <c r="D139" t="n">
-        <v>3.14361</v>
+        <v>3.19987</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.850382</v>
+        <v>0.90547</v>
       </c>
       <c r="C140" t="n">
-        <v>0.673575</v>
+        <v>0.726342</v>
       </c>
       <c r="D140" t="n">
-        <v>3.10338</v>
+        <v>3.16152</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.875977</v>
+        <v>0.923891</v>
       </c>
       <c r="C141" t="n">
-        <v>0.669129</v>
+        <v>0.7391760000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>3.06185</v>
+        <v>3.12501</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.849174</v>
+        <v>0.9112980000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.662036</v>
+        <v>0.7155550000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>3.0533</v>
+        <v>3.11177</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.854344</v>
+        <v>0.910846</v>
       </c>
       <c r="C143" t="n">
-        <v>0.669035</v>
+        <v>0.726832</v>
       </c>
       <c r="D143" t="n">
-        <v>3.02004</v>
+        <v>3.08728</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247745</v>
+        <v>0.246449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.194803</v>
+        <v>0.20788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.563462</v>
+        <v>0.565313</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.238731</v>
+        <v>0.240922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190192</v>
+        <v>0.202721</v>
       </c>
       <c r="D3" t="n">
-        <v>0.556429</v>
+        <v>0.557935</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234452</v>
+        <v>0.235424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.185322</v>
+        <v>0.196608</v>
       </c>
       <c r="D4" t="n">
-        <v>0.549553</v>
+        <v>0.552131</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.230315</v>
+        <v>0.231345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.180094</v>
+        <v>0.191364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.541979</v>
+        <v>0.546331</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230752</v>
+        <v>0.230088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.176171</v>
+        <v>0.187597</v>
       </c>
       <c r="D6" t="n">
-        <v>0.537376</v>
+        <v>0.540571</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224753</v>
+        <v>0.222371</v>
       </c>
       <c r="C7" t="n">
-        <v>0.174967</v>
+        <v>0.185261</v>
       </c>
       <c r="D7" t="n">
-        <v>0.701284</v>
+        <v>0.705191</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226297</v>
+        <v>0.227379</v>
       </c>
       <c r="C8" t="n">
-        <v>0.178747</v>
+        <v>0.186101</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6850309999999999</v>
+        <v>0.688433</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.231318</v>
+        <v>0.228866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.268872</v>
+        <v>0.277856</v>
       </c>
       <c r="D9" t="n">
-        <v>0.667938</v>
+        <v>0.67386</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.320896</v>
+        <v>0.316029</v>
       </c>
       <c r="C10" t="n">
-        <v>0.258544</v>
+        <v>0.26627</v>
       </c>
       <c r="D10" t="n">
-        <v>0.655179</v>
+        <v>0.660299</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.301429</v>
+        <v>0.306773</v>
       </c>
       <c r="C11" t="n">
-        <v>0.251921</v>
+        <v>0.257955</v>
       </c>
       <c r="D11" t="n">
-        <v>0.641366</v>
+        <v>0.647111</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.300939</v>
+        <v>0.297976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241572</v>
+        <v>0.249647</v>
       </c>
       <c r="D12" t="n">
-        <v>0.629598</v>
+        <v>0.6344</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289597</v>
+        <v>0.286205</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234084</v>
+        <v>0.242918</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6260599999999999</v>
+        <v>0.624037</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.283271</v>
+        <v>0.279558</v>
       </c>
       <c r="C14" t="n">
-        <v>0.226815</v>
+        <v>0.236252</v>
       </c>
       <c r="D14" t="n">
-        <v>0.613078</v>
+        <v>0.6141799999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.275997</v>
+        <v>0.272322</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220311</v>
+        <v>0.229412</v>
       </c>
       <c r="D15" t="n">
-        <v>0.602999</v>
+        <v>0.604219</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.263515</v>
+        <v>0.263028</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213954</v>
+        <v>0.224024</v>
       </c>
       <c r="D16" t="n">
-        <v>0.594997</v>
+        <v>0.597673</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.255908</v>
+        <v>0.25526</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208953</v>
+        <v>0.218544</v>
       </c>
       <c r="D17" t="n">
-        <v>0.588585</v>
+        <v>0.590673</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251602</v>
+        <v>0.258658</v>
       </c>
       <c r="C18" t="n">
-        <v>0.204402</v>
+        <v>0.21282</v>
       </c>
       <c r="D18" t="n">
-        <v>0.583216</v>
+        <v>0.58256</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248782</v>
+        <v>0.243933</v>
       </c>
       <c r="C19" t="n">
-        <v>0.199948</v>
+        <v>0.209695</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5826480000000001</v>
+        <v>0.57556</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.246233</v>
+        <v>0.240881</v>
       </c>
       <c r="C20" t="n">
-        <v>0.201506</v>
+        <v>0.206522</v>
       </c>
       <c r="D20" t="n">
-        <v>0.572179</v>
+        <v>0.570417</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242822</v>
+        <v>0.24236</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196738</v>
+        <v>0.206713</v>
       </c>
       <c r="D21" t="n">
-        <v>0.761704</v>
+        <v>0.765598</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240384</v>
+        <v>0.237495</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198075</v>
+        <v>0.208932</v>
       </c>
       <c r="D22" t="n">
-        <v>0.746804</v>
+        <v>0.746546</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.239692</v>
+        <v>0.238742</v>
       </c>
       <c r="C23" t="n">
-        <v>0.288337</v>
+        <v>0.300732</v>
       </c>
       <c r="D23" t="n">
-        <v>0.733513</v>
+        <v>0.730723</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.329734</v>
+        <v>0.323451</v>
       </c>
       <c r="C24" t="n">
-        <v>0.277698</v>
+        <v>0.288386</v>
       </c>
       <c r="D24" t="n">
-        <v>0.712376</v>
+        <v>0.714063</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315227</v>
+        <v>0.314181</v>
       </c>
       <c r="C25" t="n">
-        <v>0.268579</v>
+        <v>0.280008</v>
       </c>
       <c r="D25" t="n">
-        <v>0.698497</v>
+        <v>0.69948</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305241</v>
+        <v>0.305272</v>
       </c>
       <c r="C26" t="n">
-        <v>0.261369</v>
+        <v>0.271087</v>
       </c>
       <c r="D26" t="n">
-        <v>0.689782</v>
+        <v>0.688895</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.299319</v>
+        <v>0.294603</v>
       </c>
       <c r="C27" t="n">
-        <v>0.25168</v>
+        <v>0.262567</v>
       </c>
       <c r="D27" t="n">
-        <v>0.687457</v>
+        <v>0.677237</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286826</v>
+        <v>0.28677</v>
       </c>
       <c r="C28" t="n">
-        <v>0.243043</v>
+        <v>0.254711</v>
       </c>
       <c r="D28" t="n">
-        <v>0.663734</v>
+        <v>0.665519</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284209</v>
+        <v>0.282121</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235783</v>
+        <v>0.24722</v>
       </c>
       <c r="D29" t="n">
-        <v>0.655143</v>
+        <v>0.656652</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.279064</v>
+        <v>0.272509</v>
       </c>
       <c r="C30" t="n">
-        <v>0.229303</v>
+        <v>0.240365</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6465689999999999</v>
+        <v>0.646308</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267606</v>
+        <v>0.26927</v>
       </c>
       <c r="C31" t="n">
-        <v>0.223674</v>
+        <v>0.234776</v>
       </c>
       <c r="D31" t="n">
-        <v>0.636832</v>
+        <v>0.639215</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260818</v>
+        <v>0.274226</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217929</v>
+        <v>0.228921</v>
       </c>
       <c r="D32" t="n">
-        <v>0.640225</v>
+        <v>0.634732</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.260669</v>
+        <v>0.255968</v>
       </c>
       <c r="C33" t="n">
-        <v>0.212412</v>
+        <v>0.223529</v>
       </c>
       <c r="D33" t="n">
-        <v>0.625449</v>
+        <v>0.628587</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249708</v>
+        <v>0.249982</v>
       </c>
       <c r="C34" t="n">
-        <v>0.208781</v>
+        <v>0.219332</v>
       </c>
       <c r="D34" t="n">
-        <v>0.626845</v>
+        <v>0.622248</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.253163</v>
+        <v>0.248488</v>
       </c>
       <c r="C35" t="n">
-        <v>0.206994</v>
+        <v>0.218025</v>
       </c>
       <c r="D35" t="n">
-        <v>0.82485</v>
+        <v>0.82501</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24937</v>
+        <v>0.243966</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206252</v>
+        <v>0.216912</v>
       </c>
       <c r="D36" t="n">
-        <v>0.804436</v>
+        <v>0.805917</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.251252</v>
+        <v>0.245007</v>
       </c>
       <c r="C37" t="n">
-        <v>0.300283</v>
+        <v>0.31173</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7863869999999999</v>
+        <v>0.788562</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.336214</v>
+        <v>0.329825</v>
       </c>
       <c r="C38" t="n">
-        <v>0.28895</v>
+        <v>0.299934</v>
       </c>
       <c r="D38" t="n">
-        <v>0.771879</v>
+        <v>0.771116</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.321026</v>
+        <v>0.318544</v>
       </c>
       <c r="C39" t="n">
-        <v>0.280033</v>
+        <v>0.290742</v>
       </c>
       <c r="D39" t="n">
-        <v>0.753952</v>
+        <v>0.756139</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.315731</v>
+        <v>0.308044</v>
       </c>
       <c r="C40" t="n">
-        <v>0.269965</v>
+        <v>0.282738</v>
       </c>
       <c r="D40" t="n">
-        <v>0.742515</v>
+        <v>0.741908</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.305804</v>
+        <v>0.301164</v>
       </c>
       <c r="C41" t="n">
-        <v>0.261996</v>
+        <v>0.273425</v>
       </c>
       <c r="D41" t="n">
-        <v>0.733276</v>
+        <v>0.728545</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.29457</v>
+        <v>0.296671</v>
       </c>
       <c r="C42" t="n">
-        <v>0.255025</v>
+        <v>0.265571</v>
       </c>
       <c r="D42" t="n">
-        <v>0.726622</v>
+        <v>0.716793</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288138</v>
+        <v>0.288588</v>
       </c>
       <c r="C43" t="n">
-        <v>0.245672</v>
+        <v>0.25769</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7096209999999999</v>
+        <v>0.705433</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.281935</v>
+        <v>0.280067</v>
       </c>
       <c r="C44" t="n">
-        <v>0.240037</v>
+        <v>0.251074</v>
       </c>
       <c r="D44" t="n">
-        <v>0.698653</v>
+        <v>0.695497</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.275778</v>
+        <v>0.284474</v>
       </c>
       <c r="C45" t="n">
-        <v>0.233212</v>
+        <v>0.244875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.687598</v>
+        <v>0.686447</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.276226</v>
+        <v>0.283963</v>
       </c>
       <c r="C46" t="n">
-        <v>0.227351</v>
+        <v>0.238827</v>
       </c>
       <c r="D46" t="n">
-        <v>0.680728</v>
+        <v>0.6784289999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.270658</v>
+        <v>0.262242</v>
       </c>
       <c r="C47" t="n">
-        <v>0.220703</v>
+        <v>0.23447</v>
       </c>
       <c r="D47" t="n">
-        <v>0.675783</v>
+        <v>0.671439</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265212</v>
+        <v>0.256854</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216856</v>
+        <v>0.230399</v>
       </c>
       <c r="D48" t="n">
-        <v>0.671763</v>
+        <v>0.664949</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.262678</v>
+        <v>0.256407</v>
       </c>
       <c r="C49" t="n">
-        <v>0.214663</v>
+        <v>0.228434</v>
       </c>
       <c r="D49" t="n">
-        <v>0.666171</v>
+        <v>0.659283</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.258888</v>
+        <v>0.252298</v>
       </c>
       <c r="C50" t="n">
-        <v>0.213127</v>
+        <v>0.224728</v>
       </c>
       <c r="D50" t="n">
-        <v>0.852904</v>
+        <v>0.854281</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.254972</v>
+        <v>0.251341</v>
       </c>
       <c r="C51" t="n">
-        <v>0.309908</v>
+        <v>0.326997</v>
       </c>
       <c r="D51" t="n">
-        <v>0.833572</v>
+        <v>0.834584</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.253043</v>
+        <v>0.252117</v>
       </c>
       <c r="C52" t="n">
-        <v>0.300082</v>
+        <v>0.316777</v>
       </c>
       <c r="D52" t="n">
-        <v>0.819159</v>
+        <v>0.8161580000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.342054</v>
+        <v>0.336005</v>
       </c>
       <c r="C53" t="n">
-        <v>0.28865</v>
+        <v>0.307493</v>
       </c>
       <c r="D53" t="n">
-        <v>0.799404</v>
+        <v>0.799228</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.329138</v>
+        <v>0.331883</v>
       </c>
       <c r="C54" t="n">
-        <v>0.280862</v>
+        <v>0.298235</v>
       </c>
       <c r="D54" t="n">
-        <v>0.784637</v>
+        <v>0.783617</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.324198</v>
+        <v>0.318468</v>
       </c>
       <c r="C55" t="n">
-        <v>0.271988</v>
+        <v>0.289733</v>
       </c>
       <c r="D55" t="n">
-        <v>0.768653</v>
+        <v>0.769248</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.311977</v>
+        <v>0.315555</v>
       </c>
       <c r="C56" t="n">
-        <v>0.264435</v>
+        <v>0.282384</v>
       </c>
       <c r="D56" t="n">
-        <v>0.755769</v>
+        <v>0.756377</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.304861</v>
+        <v>0.307478</v>
       </c>
       <c r="C57" t="n">
-        <v>0.256271</v>
+        <v>0.273757</v>
       </c>
       <c r="D57" t="n">
-        <v>0.744378</v>
+        <v>0.745933</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.306032</v>
+        <v>0.302974</v>
       </c>
       <c r="C58" t="n">
-        <v>0.249051</v>
+        <v>0.267898</v>
       </c>
       <c r="D58" t="n">
-        <v>0.735615</v>
+        <v>0.733164</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.289833</v>
+        <v>0.291255</v>
       </c>
       <c r="C59" t="n">
-        <v>0.243364</v>
+        <v>0.261687</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7221689999999999</v>
+        <v>0.722895</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.290366</v>
+        <v>0.285439</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236445</v>
+        <v>0.254636</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7207750000000001</v>
+        <v>0.714686</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283592</v>
+        <v>0.28081</v>
       </c>
       <c r="C61" t="n">
-        <v>0.231362</v>
+        <v>0.250653</v>
       </c>
       <c r="D61" t="n">
-        <v>0.709363</v>
+        <v>0.7064510000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272002</v>
+        <v>0.279147</v>
       </c>
       <c r="C62" t="n">
-        <v>0.226473</v>
+        <v>0.245086</v>
       </c>
       <c r="D62" t="n">
-        <v>0.698267</v>
+        <v>0.699264</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.270729</v>
+        <v>0.27196</v>
       </c>
       <c r="C63" t="n">
-        <v>0.225161</v>
+        <v>0.241479</v>
       </c>
       <c r="D63" t="n">
-        <v>0.693422</v>
+        <v>0.692856</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.272986</v>
+        <v>0.271436</v>
       </c>
       <c r="C64" t="n">
-        <v>0.221716</v>
+        <v>0.240227</v>
       </c>
       <c r="D64" t="n">
-        <v>0.921783</v>
+        <v>0.920394</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266921</v>
+        <v>0.265054</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224249</v>
+        <v>0.240459</v>
       </c>
       <c r="D65" t="n">
-        <v>0.899962</v>
+        <v>0.899159</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.266137</v>
+        <v>0.268459</v>
       </c>
       <c r="C66" t="n">
-        <v>0.323</v>
+        <v>0.344342</v>
       </c>
       <c r="D66" t="n">
-        <v>0.87913</v>
+        <v>0.87873</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.413988</v>
+        <v>0.396569</v>
       </c>
       <c r="C67" t="n">
-        <v>0.312895</v>
+        <v>0.330674</v>
       </c>
       <c r="D67" t="n">
-        <v>0.861335</v>
+        <v>0.860832</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.382846</v>
+        <v>0.389714</v>
       </c>
       <c r="C68" t="n">
-        <v>0.304138</v>
+        <v>0.328099</v>
       </c>
       <c r="D68" t="n">
-        <v>0.843638</v>
+        <v>0.8438290000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.379906</v>
+        <v>0.399905</v>
       </c>
       <c r="C69" t="n">
-        <v>0.295069</v>
+        <v>0.314919</v>
       </c>
       <c r="D69" t="n">
-        <v>0.827997</v>
+        <v>0.830415</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.360355</v>
+        <v>0.366716</v>
       </c>
       <c r="C70" t="n">
-        <v>0.287378</v>
+        <v>0.310726</v>
       </c>
       <c r="D70" t="n">
-        <v>0.816886</v>
+        <v>0.8178569999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.401088</v>
+        <v>0.40856</v>
       </c>
       <c r="C71" t="n">
-        <v>0.285328</v>
+        <v>0.29876</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8074170000000001</v>
+        <v>0.807081</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.349589</v>
+        <v>0.363787</v>
       </c>
       <c r="C72" t="n">
-        <v>0.277328</v>
+        <v>0.292055</v>
       </c>
       <c r="D72" t="n">
-        <v>0.795827</v>
+        <v>0.798435</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.366426</v>
+        <v>0.352803</v>
       </c>
       <c r="C73" t="n">
-        <v>0.265857</v>
+        <v>0.289237</v>
       </c>
       <c r="D73" t="n">
-        <v>0.78754</v>
+        <v>0.791462</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.344872</v>
+        <v>0.346896</v>
       </c>
       <c r="C74" t="n">
-        <v>0.259023</v>
+        <v>0.279798</v>
       </c>
       <c r="D74" t="n">
-        <v>0.787399</v>
+        <v>0.785556</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.366194</v>
+        <v>0.343076</v>
       </c>
       <c r="C75" t="n">
-        <v>0.254456</v>
+        <v>0.274613</v>
       </c>
       <c r="D75" t="n">
-        <v>0.77793</v>
+        <v>0.781603</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.35395</v>
+        <v>0.374657</v>
       </c>
       <c r="C76" t="n">
-        <v>0.25474</v>
+        <v>0.274388</v>
       </c>
       <c r="D76" t="n">
-        <v>0.768006</v>
+        <v>0.776068</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.367654</v>
+        <v>0.349501</v>
       </c>
       <c r="C77" t="n">
-        <v>0.246011</v>
+        <v>0.265063</v>
       </c>
       <c r="D77" t="n">
-        <v>0.771709</v>
+        <v>0.775946</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.364227</v>
+        <v>0.333683</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244479</v>
+        <v>0.262434</v>
       </c>
       <c r="D78" t="n">
-        <v>1.23783</v>
+        <v>1.24099</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.321707</v>
+        <v>0.338736</v>
       </c>
       <c r="C79" t="n">
-        <v>0.243242</v>
+        <v>0.262586</v>
       </c>
       <c r="D79" t="n">
-        <v>1.21861</v>
+        <v>1.21741</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.326522</v>
+        <v>0.341344</v>
       </c>
       <c r="C80" t="n">
-        <v>0.371496</v>
+        <v>0.384763</v>
       </c>
       <c r="D80" t="n">
-        <v>1.1976</v>
+        <v>1.19757</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.473262</v>
+        <v>0.450886</v>
       </c>
       <c r="C81" t="n">
-        <v>0.364878</v>
+        <v>0.378426</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17786</v>
+        <v>1.17992</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.438122</v>
+        <v>0.463817</v>
       </c>
       <c r="C82" t="n">
-        <v>0.353222</v>
+        <v>0.371517</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16105</v>
+        <v>1.16504</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.445932</v>
+        <v>0.462477</v>
       </c>
       <c r="C83" t="n">
-        <v>0.346142</v>
+        <v>0.360665</v>
       </c>
       <c r="D83" t="n">
-        <v>1.149</v>
+        <v>1.15385</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.419375</v>
+        <v>0.437536</v>
       </c>
       <c r="C84" t="n">
-        <v>0.336563</v>
+        <v>0.355048</v>
       </c>
       <c r="D84" t="n">
-        <v>1.15581</v>
+        <v>1.144</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.436857</v>
+        <v>0.448152</v>
       </c>
       <c r="C85" t="n">
-        <v>0.332711</v>
+        <v>0.347629</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15254</v>
+        <v>1.13738</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.423152</v>
+        <v>0.436159</v>
       </c>
       <c r="C86" t="n">
-        <v>0.324884</v>
+        <v>0.340189</v>
       </c>
       <c r="D86" t="n">
-        <v>1.14895</v>
+        <v>1.1342</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.426084</v>
+        <v>0.41983</v>
       </c>
       <c r="C87" t="n">
-        <v>0.315854</v>
+        <v>0.334306</v>
       </c>
       <c r="D87" t="n">
-        <v>1.14977</v>
+        <v>1.1345</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.432317</v>
+        <v>0.436235</v>
       </c>
       <c r="C88" t="n">
-        <v>0.309296</v>
+        <v>0.323168</v>
       </c>
       <c r="D88" t="n">
-        <v>1.15011</v>
+        <v>1.13553</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.402664</v>
+        <v>0.417811</v>
       </c>
       <c r="C89" t="n">
-        <v>0.30354</v>
+        <v>0.318675</v>
       </c>
       <c r="D89" t="n">
-        <v>1.14892</v>
+        <v>1.14287</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.471251</v>
+        <v>0.471303</v>
       </c>
       <c r="C90" t="n">
-        <v>0.297002</v>
+        <v>0.316668</v>
       </c>
       <c r="D90" t="n">
-        <v>1.16514</v>
+        <v>1.15086</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.467779</v>
+        <v>0.439234</v>
       </c>
       <c r="C91" t="n">
-        <v>0.295662</v>
+        <v>0.310648</v>
       </c>
       <c r="D91" t="n">
-        <v>1.183</v>
+        <v>1.16572</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.439565</v>
+        <v>0.417011</v>
       </c>
       <c r="C92" t="n">
-        <v>0.289126</v>
+        <v>0.303801</v>
       </c>
       <c r="D92" t="n">
-        <v>1.75895</v>
+        <v>1.7245</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.414784</v>
+        <v>0.412757</v>
       </c>
       <c r="C93" t="n">
-        <v>0.287318</v>
+        <v>0.305582</v>
       </c>
       <c r="D93" t="n">
-        <v>1.74863</v>
+        <v>1.7139</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.454615</v>
+        <v>0.388044</v>
       </c>
       <c r="C94" t="n">
-        <v>0.475796</v>
+        <v>0.498763</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73285</v>
+        <v>1.69704</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.593651</v>
+        <v>0.590143</v>
       </c>
       <c r="C95" t="n">
-        <v>0.472915</v>
+        <v>0.493106</v>
       </c>
       <c r="D95" t="n">
-        <v>1.72184</v>
+        <v>1.68585</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.607946</v>
+        <v>0.593116</v>
       </c>
       <c r="C96" t="n">
-        <v>0.462288</v>
+        <v>0.480369</v>
       </c>
       <c r="D96" t="n">
-        <v>1.71261</v>
+        <v>1.67669</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.587376</v>
+        <v>0.611774</v>
       </c>
       <c r="C97" t="n">
-        <v>0.450925</v>
+        <v>0.466925</v>
       </c>
       <c r="D97" t="n">
-        <v>1.70082</v>
+        <v>1.66788</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.575838</v>
+        <v>0.560907</v>
       </c>
       <c r="C98" t="n">
-        <v>0.438212</v>
+        <v>0.457558</v>
       </c>
       <c r="D98" t="n">
-        <v>1.69576</v>
+        <v>1.66231</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.570022</v>
+        <v>0.593585</v>
       </c>
       <c r="C99" t="n">
-        <v>0.425293</v>
+        <v>0.449158</v>
       </c>
       <c r="D99" t="n">
-        <v>1.69061</v>
+        <v>1.6592</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.555393</v>
+        <v>0.573847</v>
       </c>
       <c r="C100" t="n">
-        <v>0.413644</v>
+        <v>0.439738</v>
       </c>
       <c r="D100" t="n">
-        <v>1.6902</v>
+        <v>1.658</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.546753</v>
+        <v>0.543852</v>
       </c>
       <c r="C101" t="n">
-        <v>0.403869</v>
+        <v>0.426224</v>
       </c>
       <c r="D101" t="n">
-        <v>1.69714</v>
+        <v>1.66497</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.550919</v>
+        <v>0.561847</v>
       </c>
       <c r="C102" t="n">
-        <v>0.395155</v>
+        <v>0.421219</v>
       </c>
       <c r="D102" t="n">
-        <v>1.69955</v>
+        <v>1.66941</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.542243</v>
+        <v>0.531277</v>
       </c>
       <c r="C103" t="n">
-        <v>0.382449</v>
+        <v>0.409372</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71239</v>
+        <v>1.68214</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.537137</v>
+        <v>0.538284</v>
       </c>
       <c r="C104" t="n">
-        <v>0.379524</v>
+        <v>0.40224</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72161</v>
+        <v>1.6892</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.508023</v>
+        <v>0.526131</v>
       </c>
       <c r="C105" t="n">
-        <v>0.376695</v>
+        <v>0.395099</v>
       </c>
       <c r="D105" t="n">
-        <v>1.73711</v>
+        <v>1.70305</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.511118</v>
+        <v>0.53146</v>
       </c>
       <c r="C106" t="n">
-        <v>0.367823</v>
+        <v>0.392535</v>
       </c>
       <c r="D106" t="n">
-        <v>1.75806</v>
+        <v>1.71924</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51677</v>
+        <v>0.522865</v>
       </c>
       <c r="C107" t="n">
-        <v>0.362303</v>
+        <v>0.388306</v>
       </c>
       <c r="D107" t="n">
-        <v>2.37324</v>
+        <v>2.30608</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.511177</v>
+        <v>0.514336</v>
       </c>
       <c r="C108" t="n">
-        <v>0.556194</v>
+        <v>0.589768</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33718</v>
+        <v>2.2781</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.506089</v>
+        <v>0.509334</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5510119999999999</v>
+        <v>0.58104</v>
       </c>
       <c r="D109" t="n">
-        <v>2.32365</v>
+        <v>2.25322</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.706261</v>
+        <v>0.719949</v>
       </c>
       <c r="C110" t="n">
-        <v>0.540039</v>
+        <v>0.571943</v>
       </c>
       <c r="D110" t="n">
-        <v>2.30624</v>
+        <v>2.23051</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.707417</v>
+        <v>0.664429</v>
       </c>
       <c r="C111" t="n">
-        <v>0.527351</v>
+        <v>0.515997</v>
       </c>
       <c r="D111" t="n">
-        <v>2.283</v>
+        <v>2.2129</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.646795</v>
+        <v>0.67901</v>
       </c>
       <c r="C112" t="n">
-        <v>0.475642</v>
+        <v>0.5436879999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>2.26241</v>
+        <v>2.20024</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.668414</v>
+        <v>0.648542</v>
       </c>
       <c r="C113" t="n">
-        <v>0.498033</v>
+        <v>0.492781</v>
       </c>
       <c r="D113" t="n">
-        <v>2.24818</v>
+        <v>2.1841</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.621298</v>
+        <v>0.649966</v>
       </c>
       <c r="C114" t="n">
-        <v>0.459307</v>
+        <v>0.522722</v>
       </c>
       <c r="D114" t="n">
-        <v>2.28038</v>
+        <v>2.23643</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.652177</v>
+        <v>0.629745</v>
       </c>
       <c r="C115" t="n">
-        <v>0.478621</v>
+        <v>0.475258</v>
       </c>
       <c r="D115" t="n">
-        <v>2.28124</v>
+        <v>2.22454</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6424569999999999</v>
+        <v>0.641366</v>
       </c>
       <c r="C116" t="n">
-        <v>0.470269</v>
+        <v>0.500791</v>
       </c>
       <c r="D116" t="n">
-        <v>2.27697</v>
+        <v>2.22312</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.636285</v>
+        <v>0.6324650000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.462121</v>
+        <v>0.49395</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2732</v>
+        <v>2.22416</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.625646</v>
+        <v>0.619326</v>
       </c>
       <c r="C118" t="n">
-        <v>0.452494</v>
+        <v>0.484297</v>
       </c>
       <c r="D118" t="n">
-        <v>2.23992</v>
+        <v>2.16889</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5929759999999999</v>
+        <v>0.613157</v>
       </c>
       <c r="C119" t="n">
-        <v>0.424788</v>
+        <v>0.446599</v>
       </c>
       <c r="D119" t="n">
-        <v>2.24693</v>
+        <v>2.17724</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5790149999999999</v>
+        <v>0.596093</v>
       </c>
       <c r="C120" t="n">
-        <v>0.415462</v>
+        <v>0.443887</v>
       </c>
       <c r="D120" t="n">
-        <v>2.26724</v>
+        <v>2.18564</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.596651</v>
+        <v>0.580172</v>
       </c>
       <c r="C121" t="n">
-        <v>0.412527</v>
+        <v>0.438301</v>
       </c>
       <c r="D121" t="n">
-        <v>2.94203</v>
+        <v>2.84777</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.588323</v>
+        <v>0.562849</v>
       </c>
       <c r="C122" t="n">
-        <v>0.416368</v>
+        <v>0.433154</v>
       </c>
       <c r="D122" t="n">
-        <v>2.89762</v>
+        <v>2.79771</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.569231</v>
+        <v>0.571828</v>
       </c>
       <c r="C123" t="n">
-        <v>0.601008</v>
+        <v>0.628501</v>
       </c>
       <c r="D123" t="n">
-        <v>2.8463</v>
+        <v>2.7647</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.776116</v>
+        <v>0.7776999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>0.594493</v>
+        <v>0.621514</v>
       </c>
       <c r="D124" t="n">
-        <v>2.81547</v>
+        <v>2.731</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.777393</v>
+        <v>0.7586580000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.584122</v>
+        <v>0.613333</v>
       </c>
       <c r="D125" t="n">
-        <v>2.78399</v>
+        <v>2.69714</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.770072</v>
+        <v>0.758686</v>
       </c>
       <c r="C126" t="n">
-        <v>0.595359</v>
+        <v>0.608535</v>
       </c>
       <c r="D126" t="n">
-        <v>2.75504</v>
+        <v>2.67169</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.752946</v>
+        <v>0.732066</v>
       </c>
       <c r="C127" t="n">
-        <v>0.57258</v>
+        <v>0.602455</v>
       </c>
       <c r="D127" t="n">
-        <v>2.73954</v>
+        <v>2.65345</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.750879</v>
+        <v>0.73968</v>
       </c>
       <c r="C128" t="n">
-        <v>0.563486</v>
+        <v>0.594907</v>
       </c>
       <c r="D128" t="n">
-        <v>2.68908</v>
+        <v>2.62877</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.748203</v>
+        <v>0.743862</v>
       </c>
       <c r="C129" t="n">
-        <v>0.558719</v>
+        <v>0.608143</v>
       </c>
       <c r="D129" t="n">
-        <v>2.69377</v>
+        <v>2.61843</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.728375</v>
+        <v>0.724953</v>
       </c>
       <c r="C130" t="n">
-        <v>0.554022</v>
+        <v>0.583557</v>
       </c>
       <c r="D130" t="n">
-        <v>2.6648</v>
+        <v>2.60197</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.720921</v>
+        <v>0.716597</v>
       </c>
       <c r="C131" t="n">
-        <v>0.547816</v>
+        <v>0.57806</v>
       </c>
       <c r="D131" t="n">
-        <v>2.67107</v>
+        <v>2.58944</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.719965</v>
+        <v>0.706728</v>
       </c>
       <c r="C132" t="n">
-        <v>0.541025</v>
+        <v>0.574248</v>
       </c>
       <c r="D132" t="n">
-        <v>2.6592</v>
+        <v>2.58862</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.726938</v>
+        <v>0.704865</v>
       </c>
       <c r="C133" t="n">
-        <v>0.537581</v>
+        <v>0.570164</v>
       </c>
       <c r="D133" t="n">
-        <v>2.65225</v>
+        <v>2.58325</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.712774</v>
+        <v>0.697972</v>
       </c>
       <c r="C134" t="n">
-        <v>0.530105</v>
+        <v>0.565074</v>
       </c>
       <c r="D134" t="n">
-        <v>2.63962</v>
+        <v>2.57185</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.709174</v>
+        <v>0.68968</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5099939999999999</v>
+        <v>0.5337809999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>3.33606</v>
+        <v>3.23677</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.683161</v>
+        <v>0.660798</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5028319999999999</v>
+        <v>0.5323870000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>3.28037</v>
+        <v>3.18008</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.675465</v>
+        <v>0.683525</v>
       </c>
       <c r="C137" t="n">
-        <v>0.700257</v>
+        <v>0.723307</v>
       </c>
       <c r="D137" t="n">
-        <v>3.23499</v>
+        <v>3.1336</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.852425</v>
+        <v>0.837556</v>
       </c>
       <c r="C138" t="n">
-        <v>0.681218</v>
+        <v>0.718962</v>
       </c>
       <c r="D138" t="n">
-        <v>3.18137</v>
+        <v>3.08596</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.868506</v>
+        <v>0.871201</v>
       </c>
       <c r="C139" t="n">
-        <v>0.678403</v>
+        <v>0.7373499999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>3.14361</v>
+        <v>3.05541</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.850382</v>
+        <v>0.836411</v>
       </c>
       <c r="C140" t="n">
-        <v>0.673575</v>
+        <v>0.710585</v>
       </c>
       <c r="D140" t="n">
-        <v>3.10338</v>
+        <v>3.01454</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.875977</v>
+        <v>0.824106</v>
       </c>
       <c r="C141" t="n">
-        <v>0.669129</v>
+        <v>0.704287</v>
       </c>
       <c r="D141" t="n">
-        <v>3.06185</v>
+        <v>2.99026</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.849174</v>
+        <v>0.854308</v>
       </c>
       <c r="C142" t="n">
-        <v>0.662036</v>
+        <v>0.701751</v>
       </c>
       <c r="D142" t="n">
-        <v>3.0533</v>
+        <v>2.96603</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.854344</v>
+        <v>0.840995</v>
       </c>
       <c r="C143" t="n">
-        <v>0.669035</v>
+        <v>0.702354</v>
       </c>
       <c r="D143" t="n">
-        <v>3.02004</v>
+        <v>2.94054</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246449</v>
+        <v>0.246988</v>
       </c>
       <c r="C2" t="n">
-        <v>0.20788</v>
+        <v>0.208687</v>
       </c>
       <c r="D2" t="n">
-        <v>0.565313</v>
+        <v>0.564725</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240922</v>
+        <v>0.240302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.202721</v>
+        <v>0.203501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.557935</v>
+        <v>0.56158</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.235424</v>
+        <v>0.235038</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196608</v>
+        <v>0.197579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.552131</v>
+        <v>0.553801</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.231345</v>
+        <v>0.229262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.191364</v>
+        <v>0.192402</v>
       </c>
       <c r="D5" t="n">
-        <v>0.546331</v>
+        <v>0.547955</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230088</v>
+        <v>0.226506</v>
       </c>
       <c r="C6" t="n">
-        <v>0.187597</v>
+        <v>0.188959</v>
       </c>
       <c r="D6" t="n">
-        <v>0.540571</v>
+        <v>0.541608</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.222371</v>
+        <v>0.223085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.185261</v>
+        <v>0.185977</v>
       </c>
       <c r="D7" t="n">
-        <v>0.705191</v>
+        <v>0.707511</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227379</v>
+        <v>0.222802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.186101</v>
+        <v>0.186722</v>
       </c>
       <c r="D8" t="n">
-        <v>0.688433</v>
+        <v>0.689612</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228866</v>
+        <v>0.227461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.277856</v>
+        <v>0.278036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.67386</v>
+        <v>0.676859</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.316029</v>
+        <v>0.30971</v>
       </c>
       <c r="C10" t="n">
-        <v>0.26627</v>
+        <v>0.267382</v>
       </c>
       <c r="D10" t="n">
-        <v>0.660299</v>
+        <v>0.662331</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.306773</v>
+        <v>0.311381</v>
       </c>
       <c r="C11" t="n">
-        <v>0.257955</v>
+        <v>0.258162</v>
       </c>
       <c r="D11" t="n">
-        <v>0.647111</v>
+        <v>0.649326</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297976</v>
+        <v>0.296184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.249647</v>
+        <v>0.252371</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6344</v>
+        <v>0.638697</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286205</v>
+        <v>0.298219</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242918</v>
+        <v>0.244252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.624037</v>
+        <v>0.628041</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.279558</v>
+        <v>0.276047</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236252</v>
+        <v>0.236035</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6141799999999999</v>
+        <v>0.617968</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.272322</v>
+        <v>0.269046</v>
       </c>
       <c r="C15" t="n">
-        <v>0.229412</v>
+        <v>0.230018</v>
       </c>
       <c r="D15" t="n">
-        <v>0.604219</v>
+        <v>0.6064659999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.263028</v>
+        <v>0.261865</v>
       </c>
       <c r="C16" t="n">
-        <v>0.224024</v>
+        <v>0.224224</v>
       </c>
       <c r="D16" t="n">
-        <v>0.597673</v>
+        <v>0.5999989999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25526</v>
+        <v>0.255277</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218544</v>
+        <v>0.218701</v>
       </c>
       <c r="D17" t="n">
-        <v>0.590673</v>
+        <v>0.5932460000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.258658</v>
+        <v>0.251244</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21282</v>
+        <v>0.213382</v>
       </c>
       <c r="D18" t="n">
-        <v>0.58256</v>
+        <v>0.586108</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.243933</v>
+        <v>0.246341</v>
       </c>
       <c r="C19" t="n">
-        <v>0.209695</v>
+        <v>0.208104</v>
       </c>
       <c r="D19" t="n">
-        <v>0.57556</v>
+        <v>0.5791190000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.240881</v>
+        <v>0.24639</v>
       </c>
       <c r="C20" t="n">
-        <v>0.206522</v>
+        <v>0.206767</v>
       </c>
       <c r="D20" t="n">
-        <v>0.570417</v>
+        <v>0.573614</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24236</v>
+        <v>0.246923</v>
       </c>
       <c r="C21" t="n">
-        <v>0.206713</v>
+        <v>0.203633</v>
       </c>
       <c r="D21" t="n">
-        <v>0.765598</v>
+        <v>0.766962</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.237495</v>
+        <v>0.234757</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208932</v>
+        <v>0.204821</v>
       </c>
       <c r="D22" t="n">
-        <v>0.746546</v>
+        <v>0.749328</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.238742</v>
+        <v>0.23938</v>
       </c>
       <c r="C23" t="n">
-        <v>0.300732</v>
+        <v>0.299714</v>
       </c>
       <c r="D23" t="n">
-        <v>0.730723</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323451</v>
+        <v>0.320074</v>
       </c>
       <c r="C24" t="n">
-        <v>0.288386</v>
+        <v>0.286288</v>
       </c>
       <c r="D24" t="n">
-        <v>0.714063</v>
+        <v>0.717793</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314181</v>
+        <v>0.313561</v>
       </c>
       <c r="C25" t="n">
-        <v>0.280008</v>
+        <v>0.276783</v>
       </c>
       <c r="D25" t="n">
-        <v>0.69948</v>
+        <v>0.702137</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305272</v>
+        <v>0.304594</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271087</v>
+        <v>0.270532</v>
       </c>
       <c r="D26" t="n">
-        <v>0.688895</v>
+        <v>0.689724</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294603</v>
+        <v>0.295725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.262567</v>
+        <v>0.260188</v>
       </c>
       <c r="D27" t="n">
-        <v>0.677237</v>
+        <v>0.679023</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.28677</v>
+        <v>0.287294</v>
       </c>
       <c r="C28" t="n">
-        <v>0.254711</v>
+        <v>0.253786</v>
       </c>
       <c r="D28" t="n">
-        <v>0.665519</v>
+        <v>0.667096</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282121</v>
+        <v>0.284305</v>
       </c>
       <c r="C29" t="n">
-        <v>0.24722</v>
+        <v>0.244797</v>
       </c>
       <c r="D29" t="n">
-        <v>0.656652</v>
+        <v>0.659211</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.272509</v>
+        <v>0.273933</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240365</v>
+        <v>0.239693</v>
       </c>
       <c r="D30" t="n">
-        <v>0.646308</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.26927</v>
+        <v>0.26488</v>
       </c>
       <c r="C31" t="n">
-        <v>0.234776</v>
+        <v>0.231872</v>
       </c>
       <c r="D31" t="n">
-        <v>0.639215</v>
+        <v>0.641714</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.274226</v>
+        <v>0.257619</v>
       </c>
       <c r="C32" t="n">
-        <v>0.228921</v>
+        <v>0.226337</v>
       </c>
       <c r="D32" t="n">
-        <v>0.634732</v>
+        <v>0.633876</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255968</v>
+        <v>0.251944</v>
       </c>
       <c r="C33" t="n">
-        <v>0.223529</v>
+        <v>0.223905</v>
       </c>
       <c r="D33" t="n">
-        <v>0.628587</v>
+        <v>0.627458</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249982</v>
+        <v>0.253661</v>
       </c>
       <c r="C34" t="n">
-        <v>0.219332</v>
+        <v>0.21942</v>
       </c>
       <c r="D34" t="n">
-        <v>0.622248</v>
+        <v>0.621468</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248488</v>
+        <v>0.246003</v>
       </c>
       <c r="C35" t="n">
-        <v>0.218025</v>
+        <v>0.214934</v>
       </c>
       <c r="D35" t="n">
-        <v>0.82501</v>
+        <v>0.8245209999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243966</v>
+        <v>0.24648</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216912</v>
+        <v>0.214904</v>
       </c>
       <c r="D36" t="n">
-        <v>0.805917</v>
+        <v>0.80437</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.245007</v>
+        <v>0.245161</v>
       </c>
       <c r="C37" t="n">
-        <v>0.31173</v>
+        <v>0.31</v>
       </c>
       <c r="D37" t="n">
-        <v>0.788562</v>
+        <v>0.786949</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.329825</v>
+        <v>0.326758</v>
       </c>
       <c r="C38" t="n">
-        <v>0.299934</v>
+        <v>0.298356</v>
       </c>
       <c r="D38" t="n">
-        <v>0.771116</v>
+        <v>0.771594</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318544</v>
+        <v>0.317812</v>
       </c>
       <c r="C39" t="n">
-        <v>0.290742</v>
+        <v>0.290757</v>
       </c>
       <c r="D39" t="n">
-        <v>0.756139</v>
+        <v>0.7547970000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.308044</v>
+        <v>0.314685</v>
       </c>
       <c r="C40" t="n">
-        <v>0.282738</v>
+        <v>0.282148</v>
       </c>
       <c r="D40" t="n">
-        <v>0.741908</v>
+        <v>0.740734</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301164</v>
+        <v>0.306149</v>
       </c>
       <c r="C41" t="n">
-        <v>0.273425</v>
+        <v>0.274074</v>
       </c>
       <c r="D41" t="n">
-        <v>0.728545</v>
+        <v>0.7285199999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.296671</v>
+        <v>0.294742</v>
       </c>
       <c r="C42" t="n">
-        <v>0.265571</v>
+        <v>0.264065</v>
       </c>
       <c r="D42" t="n">
-        <v>0.716793</v>
+        <v>0.716795</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288588</v>
+        <v>0.287268</v>
       </c>
       <c r="C43" t="n">
-        <v>0.25769</v>
+        <v>0.258112</v>
       </c>
       <c r="D43" t="n">
-        <v>0.705433</v>
+        <v>0.704799</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280067</v>
+        <v>0.282985</v>
       </c>
       <c r="C44" t="n">
-        <v>0.251074</v>
+        <v>0.250692</v>
       </c>
       <c r="D44" t="n">
-        <v>0.695497</v>
+        <v>0.695305</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.284474</v>
+        <v>0.274333</v>
       </c>
       <c r="C45" t="n">
-        <v>0.244875</v>
+        <v>0.243384</v>
       </c>
       <c r="D45" t="n">
-        <v>0.686447</v>
+        <v>0.686461</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.283963</v>
+        <v>0.277551</v>
       </c>
       <c r="C46" t="n">
-        <v>0.238827</v>
+        <v>0.239537</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6784289999999999</v>
+        <v>0.679131</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262242</v>
+        <v>0.264158</v>
       </c>
       <c r="C47" t="n">
-        <v>0.23447</v>
+        <v>0.232395</v>
       </c>
       <c r="D47" t="n">
-        <v>0.671439</v>
+        <v>0.670922</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.256854</v>
+        <v>0.262275</v>
       </c>
       <c r="C48" t="n">
-        <v>0.230399</v>
+        <v>0.229042</v>
       </c>
       <c r="D48" t="n">
-        <v>0.664949</v>
+        <v>0.664942</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256407</v>
+        <v>0.259341</v>
       </c>
       <c r="C49" t="n">
-        <v>0.228434</v>
+        <v>0.225872</v>
       </c>
       <c r="D49" t="n">
-        <v>0.659283</v>
+        <v>0.658843</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.252298</v>
+        <v>0.257071</v>
       </c>
       <c r="C50" t="n">
-        <v>0.224728</v>
+        <v>0.223939</v>
       </c>
       <c r="D50" t="n">
-        <v>0.854281</v>
+        <v>0.8545469999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.251341</v>
+        <v>0.253474</v>
       </c>
       <c r="C51" t="n">
-        <v>0.326997</v>
+        <v>0.321855</v>
       </c>
       <c r="D51" t="n">
-        <v>0.834584</v>
+        <v>0.835496</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.252117</v>
+        <v>0.255809</v>
       </c>
       <c r="C52" t="n">
-        <v>0.316777</v>
+        <v>0.314623</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8161580000000001</v>
+        <v>0.816202</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.336005</v>
+        <v>0.332492</v>
       </c>
       <c r="C53" t="n">
-        <v>0.307493</v>
+        <v>0.30489</v>
       </c>
       <c r="D53" t="n">
-        <v>0.799228</v>
+        <v>0.799385</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.331883</v>
+        <v>0.327292</v>
       </c>
       <c r="C54" t="n">
-        <v>0.298235</v>
+        <v>0.294776</v>
       </c>
       <c r="D54" t="n">
-        <v>0.783617</v>
+        <v>0.783213</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318468</v>
+        <v>0.318499</v>
       </c>
       <c r="C55" t="n">
-        <v>0.289733</v>
+        <v>0.287821</v>
       </c>
       <c r="D55" t="n">
-        <v>0.769248</v>
+        <v>0.76879</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.315555</v>
+        <v>0.308413</v>
       </c>
       <c r="C56" t="n">
-        <v>0.282384</v>
+        <v>0.280312</v>
       </c>
       <c r="D56" t="n">
-        <v>0.756377</v>
+        <v>0.755823</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.307478</v>
+        <v>0.305758</v>
       </c>
       <c r="C57" t="n">
-        <v>0.273757</v>
+        <v>0.272674</v>
       </c>
       <c r="D57" t="n">
-        <v>0.745933</v>
+        <v>0.743618</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.302974</v>
+        <v>0.297886</v>
       </c>
       <c r="C58" t="n">
-        <v>0.267898</v>
+        <v>0.267027</v>
       </c>
       <c r="D58" t="n">
-        <v>0.733164</v>
+        <v>0.733124</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.291255</v>
+        <v>0.293276</v>
       </c>
       <c r="C59" t="n">
-        <v>0.261687</v>
+        <v>0.2591</v>
       </c>
       <c r="D59" t="n">
-        <v>0.722895</v>
+        <v>0.722936</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.285439</v>
+        <v>0.289042</v>
       </c>
       <c r="C60" t="n">
-        <v>0.254636</v>
+        <v>0.253914</v>
       </c>
       <c r="D60" t="n">
-        <v>0.714686</v>
+        <v>0.715984</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.28081</v>
+        <v>0.280611</v>
       </c>
       <c r="C61" t="n">
-        <v>0.250653</v>
+        <v>0.248896</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7064510000000001</v>
+        <v>0.706057</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.279147</v>
+        <v>0.279699</v>
       </c>
       <c r="C62" t="n">
-        <v>0.245086</v>
+        <v>0.244597</v>
       </c>
       <c r="D62" t="n">
-        <v>0.699264</v>
+        <v>0.698638</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.27196</v>
+        <v>0.267569</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241479</v>
+        <v>0.239404</v>
       </c>
       <c r="D63" t="n">
-        <v>0.692856</v>
+        <v>0.692155</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.271436</v>
+        <v>0.280166</v>
       </c>
       <c r="C64" t="n">
-        <v>0.240227</v>
+        <v>0.239129</v>
       </c>
       <c r="D64" t="n">
-        <v>0.920394</v>
+        <v>0.916907</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.265054</v>
+        <v>0.267412</v>
       </c>
       <c r="C65" t="n">
-        <v>0.240459</v>
+        <v>0.238237</v>
       </c>
       <c r="D65" t="n">
-        <v>0.899159</v>
+        <v>0.896664</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.268459</v>
+        <v>0.266901</v>
       </c>
       <c r="C66" t="n">
-        <v>0.344342</v>
+        <v>0.338814</v>
       </c>
       <c r="D66" t="n">
-        <v>0.87873</v>
+        <v>0.877274</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.396569</v>
+        <v>0.391773</v>
       </c>
       <c r="C67" t="n">
-        <v>0.330674</v>
+        <v>0.329048</v>
       </c>
       <c r="D67" t="n">
-        <v>0.860832</v>
+        <v>0.8586819999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.389714</v>
+        <v>0.41519</v>
       </c>
       <c r="C68" t="n">
-        <v>0.328099</v>
+        <v>0.320233</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8438290000000001</v>
+        <v>0.84209</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.399905</v>
+        <v>0.38293</v>
       </c>
       <c r="C69" t="n">
-        <v>0.314919</v>
+        <v>0.313512</v>
       </c>
       <c r="D69" t="n">
-        <v>0.830415</v>
+        <v>0.827439</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.366716</v>
+        <v>0.372954</v>
       </c>
       <c r="C70" t="n">
-        <v>0.310726</v>
+        <v>0.309296</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8178569999999999</v>
+        <v>0.815068</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.40856</v>
+        <v>0.35467</v>
       </c>
       <c r="C71" t="n">
-        <v>0.29876</v>
+        <v>0.298087</v>
       </c>
       <c r="D71" t="n">
-        <v>0.807081</v>
+        <v>0.803886</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.363787</v>
+        <v>0.386775</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292055</v>
+        <v>0.294485</v>
       </c>
       <c r="D72" t="n">
-        <v>0.798435</v>
+        <v>0.795185</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.352803</v>
+        <v>0.364977</v>
       </c>
       <c r="C73" t="n">
-        <v>0.289237</v>
+        <v>0.287962</v>
       </c>
       <c r="D73" t="n">
-        <v>0.791462</v>
+        <v>0.787146</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.346896</v>
+        <v>0.363941</v>
       </c>
       <c r="C74" t="n">
-        <v>0.279798</v>
+        <v>0.280892</v>
       </c>
       <c r="D74" t="n">
-        <v>0.785556</v>
+        <v>0.781297</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.343076</v>
+        <v>0.337738</v>
       </c>
       <c r="C75" t="n">
-        <v>0.274613</v>
+        <v>0.276013</v>
       </c>
       <c r="D75" t="n">
-        <v>0.781603</v>
+        <v>0.7755379999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.374657</v>
+        <v>0.36947</v>
       </c>
       <c r="C76" t="n">
-        <v>0.274388</v>
+        <v>0.274407</v>
       </c>
       <c r="D76" t="n">
-        <v>0.776068</v>
+        <v>0.773845</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.349501</v>
+        <v>0.336737</v>
       </c>
       <c r="C77" t="n">
-        <v>0.265063</v>
+        <v>0.265909</v>
       </c>
       <c r="D77" t="n">
-        <v>0.775946</v>
+        <v>0.774431</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.333683</v>
+        <v>0.365379</v>
       </c>
       <c r="C78" t="n">
-        <v>0.262434</v>
+        <v>0.264821</v>
       </c>
       <c r="D78" t="n">
-        <v>1.24099</v>
+        <v>1.23997</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.338736</v>
+        <v>0.352532</v>
       </c>
       <c r="C79" t="n">
-        <v>0.262586</v>
+        <v>0.262949</v>
       </c>
       <c r="D79" t="n">
-        <v>1.21741</v>
+        <v>1.21761</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.341344</v>
+        <v>0.333378</v>
       </c>
       <c r="C80" t="n">
-        <v>0.384763</v>
+        <v>0.389753</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19757</v>
+        <v>1.19693</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.450886</v>
+        <v>0.456751</v>
       </c>
       <c r="C81" t="n">
-        <v>0.378426</v>
+        <v>0.380378</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17992</v>
+        <v>1.17916</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.463817</v>
+        <v>0.450828</v>
       </c>
       <c r="C82" t="n">
-        <v>0.371517</v>
+        <v>0.367239</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16504</v>
+        <v>1.16455</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.462477</v>
+        <v>0.457072</v>
       </c>
       <c r="C83" t="n">
-        <v>0.360665</v>
+        <v>0.363817</v>
       </c>
       <c r="D83" t="n">
-        <v>1.15385</v>
+        <v>1.15317</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.437536</v>
+        <v>0.432796</v>
       </c>
       <c r="C84" t="n">
-        <v>0.355048</v>
+        <v>0.352692</v>
       </c>
       <c r="D84" t="n">
-        <v>1.144</v>
+        <v>1.14398</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.448152</v>
+        <v>0.407434</v>
       </c>
       <c r="C85" t="n">
-        <v>0.347629</v>
+        <v>0.348973</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13738</v>
+        <v>1.13845</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.436159</v>
+        <v>0.440146</v>
       </c>
       <c r="C86" t="n">
-        <v>0.340189</v>
+        <v>0.340258</v>
       </c>
       <c r="D86" t="n">
-        <v>1.1342</v>
+        <v>1.13371</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.41983</v>
+        <v>0.434773</v>
       </c>
       <c r="C87" t="n">
-        <v>0.334306</v>
+        <v>0.332432</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1345</v>
+        <v>1.13199</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.436235</v>
+        <v>0.495299</v>
       </c>
       <c r="C88" t="n">
-        <v>0.323168</v>
+        <v>0.329445</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13553</v>
+        <v>1.13491</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.417811</v>
+        <v>0.400899</v>
       </c>
       <c r="C89" t="n">
-        <v>0.318675</v>
+        <v>0.322213</v>
       </c>
       <c r="D89" t="n">
-        <v>1.14287</v>
+        <v>1.14114</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.471303</v>
+        <v>0.471961</v>
       </c>
       <c r="C90" t="n">
-        <v>0.316668</v>
+        <v>0.317548</v>
       </c>
       <c r="D90" t="n">
-        <v>1.15086</v>
+        <v>1.1492</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.439234</v>
+        <v>0.455714</v>
       </c>
       <c r="C91" t="n">
-        <v>0.310648</v>
+        <v>0.309064</v>
       </c>
       <c r="D91" t="n">
-        <v>1.16572</v>
+        <v>1.1628</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.417011</v>
+        <v>0.429893</v>
       </c>
       <c r="C92" t="n">
-        <v>0.303801</v>
+        <v>0.309883</v>
       </c>
       <c r="D92" t="n">
-        <v>1.7245</v>
+        <v>1.72102</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.412757</v>
+        <v>0.403693</v>
       </c>
       <c r="C93" t="n">
-        <v>0.305582</v>
+        <v>0.303162</v>
       </c>
       <c r="D93" t="n">
-        <v>1.7139</v>
+        <v>1.71205</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.388044</v>
+        <v>0.428838</v>
       </c>
       <c r="C94" t="n">
-        <v>0.498763</v>
+        <v>0.496807</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69704</v>
+        <v>1.70083</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.590143</v>
+        <v>0.597131</v>
       </c>
       <c r="C95" t="n">
-        <v>0.493106</v>
+        <v>0.49199</v>
       </c>
       <c r="D95" t="n">
-        <v>1.68585</v>
+        <v>1.687</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.593116</v>
+        <v>0.599627</v>
       </c>
       <c r="C96" t="n">
-        <v>0.480369</v>
+        <v>0.481868</v>
       </c>
       <c r="D96" t="n">
-        <v>1.67669</v>
+        <v>1.67333</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.611774</v>
+        <v>0.586689</v>
       </c>
       <c r="C97" t="n">
-        <v>0.466925</v>
+        <v>0.470477</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66788</v>
+        <v>1.66653</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.560907</v>
+        <v>0.571176</v>
       </c>
       <c r="C98" t="n">
-        <v>0.457558</v>
+        <v>0.460673</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66231</v>
+        <v>1.66054</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.593585</v>
+        <v>0.547215</v>
       </c>
       <c r="C99" t="n">
-        <v>0.449158</v>
+        <v>0.448692</v>
       </c>
       <c r="D99" t="n">
-        <v>1.6592</v>
+        <v>1.65634</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.573847</v>
+        <v>0.5407920000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.439738</v>
+        <v>0.439163</v>
       </c>
       <c r="D100" t="n">
-        <v>1.658</v>
+        <v>1.65723</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.543852</v>
+        <v>0.587431</v>
       </c>
       <c r="C101" t="n">
-        <v>0.426224</v>
+        <v>0.429988</v>
       </c>
       <c r="D101" t="n">
-        <v>1.66497</v>
+        <v>1.66314</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.561847</v>
+        <v>0.532382</v>
       </c>
       <c r="C102" t="n">
-        <v>0.421219</v>
+        <v>0.419437</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66941</v>
+        <v>1.66887</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.531277</v>
+        <v>0.541998</v>
       </c>
       <c r="C103" t="n">
-        <v>0.409372</v>
+        <v>0.413219</v>
       </c>
       <c r="D103" t="n">
-        <v>1.68214</v>
+        <v>1.67551</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.538284</v>
+        <v>0.527712</v>
       </c>
       <c r="C104" t="n">
-        <v>0.40224</v>
+        <v>0.403049</v>
       </c>
       <c r="D104" t="n">
-        <v>1.6892</v>
+        <v>1.69192</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.526131</v>
+        <v>0.512898</v>
       </c>
       <c r="C105" t="n">
-        <v>0.395099</v>
+        <v>0.394959</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70305</v>
+        <v>1.70084</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.53146</v>
+        <v>0.515602</v>
       </c>
       <c r="C106" t="n">
-        <v>0.392535</v>
+        <v>0.391843</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71924</v>
+        <v>1.7171</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.522865</v>
+        <v>0.507485</v>
       </c>
       <c r="C107" t="n">
-        <v>0.388306</v>
+        <v>0.386182</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30608</v>
+        <v>2.30368</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.514336</v>
+        <v>0.50693</v>
       </c>
       <c r="C108" t="n">
-        <v>0.589768</v>
+        <v>0.587469</v>
       </c>
       <c r="D108" t="n">
-        <v>2.2781</v>
+        <v>2.27643</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.509334</v>
+        <v>0.514909</v>
       </c>
       <c r="C109" t="n">
-        <v>0.58104</v>
+        <v>0.580799</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25322</v>
+        <v>2.2482</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.719949</v>
+        <v>0.713309</v>
       </c>
       <c r="C110" t="n">
-        <v>0.571943</v>
+        <v>0.569896</v>
       </c>
       <c r="D110" t="n">
-        <v>2.23051</v>
+        <v>2.22708</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.664429</v>
+        <v>0.669559</v>
       </c>
       <c r="C111" t="n">
-        <v>0.515997</v>
+        <v>0.516586</v>
       </c>
       <c r="D111" t="n">
-        <v>2.2129</v>
+        <v>2.20877</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.67901</v>
+        <v>0.663938</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5436879999999999</v>
+        <v>0.508775</v>
       </c>
       <c r="D112" t="n">
-        <v>2.20024</v>
+        <v>2.19617</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.648542</v>
+        <v>0.664131</v>
       </c>
       <c r="C113" t="n">
-        <v>0.492781</v>
+        <v>0.49366</v>
       </c>
       <c r="D113" t="n">
-        <v>2.1841</v>
+        <v>2.19119</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.649966</v>
+        <v>0.65786</v>
       </c>
       <c r="C114" t="n">
-        <v>0.522722</v>
+        <v>0.520559</v>
       </c>
       <c r="D114" t="n">
-        <v>2.23643</v>
+        <v>2.2119</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.629745</v>
+        <v>0.659396</v>
       </c>
       <c r="C115" t="n">
-        <v>0.475258</v>
+        <v>0.512316</v>
       </c>
       <c r="D115" t="n">
-        <v>2.22454</v>
+        <v>2.23117</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.641366</v>
+        <v>0.648525</v>
       </c>
       <c r="C116" t="n">
-        <v>0.500791</v>
+        <v>0.504521</v>
       </c>
       <c r="D116" t="n">
-        <v>2.22312</v>
+        <v>2.23615</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6324650000000001</v>
+        <v>0.623713</v>
       </c>
       <c r="C117" t="n">
-        <v>0.49395</v>
+        <v>0.463229</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22416</v>
+        <v>2.23409</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.619326</v>
+        <v>0.62995</v>
       </c>
       <c r="C118" t="n">
-        <v>0.484297</v>
+        <v>0.485661</v>
       </c>
       <c r="D118" t="n">
-        <v>2.16889</v>
+        <v>2.17972</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.613157</v>
+        <v>0.593324</v>
       </c>
       <c r="C119" t="n">
-        <v>0.446599</v>
+        <v>0.44617</v>
       </c>
       <c r="D119" t="n">
-        <v>2.17724</v>
+        <v>2.18037</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.596093</v>
+        <v>0.574214</v>
       </c>
       <c r="C120" t="n">
-        <v>0.443887</v>
+        <v>0.442812</v>
       </c>
       <c r="D120" t="n">
-        <v>2.18564</v>
+        <v>2.1978</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.580172</v>
+        <v>0.584551</v>
       </c>
       <c r="C121" t="n">
-        <v>0.438301</v>
+        <v>0.436243</v>
       </c>
       <c r="D121" t="n">
-        <v>2.84777</v>
+        <v>2.85961</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.562849</v>
+        <v>0.579811</v>
       </c>
       <c r="C122" t="n">
-        <v>0.433154</v>
+        <v>0.43603</v>
       </c>
       <c r="D122" t="n">
-        <v>2.79771</v>
+        <v>2.8067</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.571828</v>
+        <v>0.584164</v>
       </c>
       <c r="C123" t="n">
-        <v>0.628501</v>
+        <v>0.626086</v>
       </c>
       <c r="D123" t="n">
-        <v>2.7647</v>
+        <v>2.77115</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7776999999999999</v>
+        <v>0.772611</v>
       </c>
       <c r="C124" t="n">
-        <v>0.621514</v>
+        <v>0.621051</v>
       </c>
       <c r="D124" t="n">
-        <v>2.731</v>
+        <v>2.73369</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7586580000000001</v>
+        <v>0.747703</v>
       </c>
       <c r="C125" t="n">
-        <v>0.613333</v>
+        <v>0.615962</v>
       </c>
       <c r="D125" t="n">
-        <v>2.69714</v>
+        <v>2.70964</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.758686</v>
+        <v>0.764997</v>
       </c>
       <c r="C126" t="n">
-        <v>0.608535</v>
+        <v>0.608283</v>
       </c>
       <c r="D126" t="n">
-        <v>2.67169</v>
+        <v>2.67314</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.732066</v>
+        <v>0.740966</v>
       </c>
       <c r="C127" t="n">
-        <v>0.602455</v>
+        <v>0.600118</v>
       </c>
       <c r="D127" t="n">
-        <v>2.65345</v>
+        <v>2.65239</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.73968</v>
+        <v>0.736675</v>
       </c>
       <c r="C128" t="n">
-        <v>0.594907</v>
+        <v>0.594166</v>
       </c>
       <c r="D128" t="n">
-        <v>2.62877</v>
+        <v>2.63312</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.743862</v>
+        <v>0.732432</v>
       </c>
       <c r="C129" t="n">
-        <v>0.608143</v>
+        <v>0.590006</v>
       </c>
       <c r="D129" t="n">
-        <v>2.61843</v>
+        <v>2.62044</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.724953</v>
+        <v>0.7178639999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.583557</v>
+        <v>0.583512</v>
       </c>
       <c r="D130" t="n">
-        <v>2.60197</v>
+        <v>2.6079</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.716597</v>
+        <v>0.707344</v>
       </c>
       <c r="C131" t="n">
-        <v>0.57806</v>
+        <v>0.5781849999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>2.58944</v>
+        <v>2.59379</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.706728</v>
+        <v>0.715445</v>
       </c>
       <c r="C132" t="n">
-        <v>0.574248</v>
+        <v>0.574637</v>
       </c>
       <c r="D132" t="n">
-        <v>2.58862</v>
+        <v>2.58691</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.704865</v>
+        <v>0.705112</v>
       </c>
       <c r="C133" t="n">
-        <v>0.570164</v>
+        <v>0.568288</v>
       </c>
       <c r="D133" t="n">
-        <v>2.58325</v>
+        <v>2.5915</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.697972</v>
+        <v>0.704483</v>
       </c>
       <c r="C134" t="n">
-        <v>0.565074</v>
+        <v>0.565472</v>
       </c>
       <c r="D134" t="n">
-        <v>2.57185</v>
+        <v>2.56893</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.68968</v>
+        <v>0.682691</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5337809999999999</v>
+        <v>0.534101</v>
       </c>
       <c r="D135" t="n">
-        <v>3.23677</v>
+        <v>3.2431</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.660798</v>
+        <v>0.687178</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5323870000000001</v>
+        <v>0.534257</v>
       </c>
       <c r="D136" t="n">
-        <v>3.18008</v>
+        <v>3.18198</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.683525</v>
+        <v>0.655496</v>
       </c>
       <c r="C137" t="n">
-        <v>0.723307</v>
+        <v>0.723971</v>
       </c>
       <c r="D137" t="n">
-        <v>3.1336</v>
+        <v>3.13354</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.837556</v>
+        <v>0.845908</v>
       </c>
       <c r="C138" t="n">
-        <v>0.718962</v>
+        <v>0.720446</v>
       </c>
       <c r="D138" t="n">
-        <v>3.08596</v>
+        <v>3.08923</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.871201</v>
+        <v>0.853609</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7373499999999999</v>
+        <v>0.71387</v>
       </c>
       <c r="D139" t="n">
-        <v>3.05541</v>
+        <v>3.04503</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.836411</v>
+        <v>0.8304049999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>0.710585</v>
+        <v>0.712768</v>
       </c>
       <c r="D140" t="n">
-        <v>3.01454</v>
+        <v>3.00667</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.824106</v>
+        <v>0.856025</v>
       </c>
       <c r="C141" t="n">
-        <v>0.704287</v>
+        <v>0.706806</v>
       </c>
       <c r="D141" t="n">
-        <v>2.99026</v>
+        <v>2.97897</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.854308</v>
+        <v>0.853541</v>
       </c>
       <c r="C142" t="n">
-        <v>0.701751</v>
+        <v>0.7248599999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>2.96603</v>
+        <v>2.96218</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.840995</v>
+        <v>0.850113</v>
       </c>
       <c r="C143" t="n">
-        <v>0.702354</v>
+        <v>0.701264</v>
       </c>
       <c r="D143" t="n">
-        <v>2.94054</v>
+        <v>2.94206</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246988</v>
+        <v>0.24746</v>
       </c>
       <c r="C2" t="n">
-        <v>0.208687</v>
+        <v>0.572569</v>
       </c>
       <c r="D2" t="n">
-        <v>0.564725</v>
+        <v>0.208007</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.384966</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240302</v>
+        <v>0.245842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.203501</v>
+        <v>0.563985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.56158</v>
+        <v>0.201281</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.378555</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.235038</v>
+        <v>0.238798</v>
       </c>
       <c r="C4" t="n">
-        <v>0.197579</v>
+        <v>0.556924</v>
       </c>
       <c r="D4" t="n">
-        <v>0.553801</v>
+        <v>0.196438</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.37241</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229262</v>
+        <v>0.237421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192402</v>
+        <v>0.550224</v>
       </c>
       <c r="D5" t="n">
-        <v>0.547955</v>
+        <v>0.19173</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.367397</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.226506</v>
+        <v>0.235342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.188959</v>
+        <v>0.542894</v>
       </c>
       <c r="D6" t="n">
-        <v>0.541608</v>
+        <v>0.187888</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.363617</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223085</v>
+        <v>0.233779</v>
       </c>
       <c r="C7" t="n">
-        <v>0.185977</v>
+        <v>0.703745</v>
       </c>
       <c r="D7" t="n">
-        <v>0.707511</v>
+        <v>0.186017</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.360971</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.222802</v>
+        <v>0.23173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.186722</v>
+        <v>0.688708</v>
       </c>
       <c r="D8" t="n">
-        <v>0.689612</v>
+        <v>0.187384</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.361522</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.227461</v>
+        <v>0.228604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278036</v>
+        <v>0.674743</v>
       </c>
       <c r="D9" t="n">
-        <v>0.676859</v>
+        <v>0.277631</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.451037</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30971</v>
+        <v>0.311409</v>
       </c>
       <c r="C10" t="n">
-        <v>0.267382</v>
+        <v>0.6601900000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.662331</v>
+        <v>0.267585</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.439949</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.311381</v>
+        <v>0.301929</v>
       </c>
       <c r="C11" t="n">
-        <v>0.258162</v>
+        <v>0.647882</v>
       </c>
       <c r="D11" t="n">
-        <v>0.649326</v>
+        <v>0.258201</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.431074</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296184</v>
+        <v>0.29544</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252371</v>
+        <v>0.635525</v>
       </c>
       <c r="D12" t="n">
-        <v>0.638697</v>
+        <v>0.251706</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.421418</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.298219</v>
+        <v>0.285604</v>
       </c>
       <c r="C13" t="n">
-        <v>0.244252</v>
+        <v>0.624993</v>
       </c>
       <c r="D13" t="n">
-        <v>0.628041</v>
+        <v>0.243773</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.412786</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.276047</v>
+        <v>0.278341</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236035</v>
+        <v>0.61483</v>
       </c>
       <c r="D14" t="n">
-        <v>0.617968</v>
+        <v>0.236636</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.404568</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.269046</v>
+        <v>0.273511</v>
       </c>
       <c r="C15" t="n">
-        <v>0.230018</v>
+        <v>0.605742</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6064659999999999</v>
+        <v>0.230692</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.396771</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.261865</v>
+        <v>0.263612</v>
       </c>
       <c r="C16" t="n">
-        <v>0.224224</v>
+        <v>0.599676</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5999989999999999</v>
+        <v>0.223682</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.389666</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.255277</v>
+        <v>0.261742</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218701</v>
+        <v>0.592213</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5932460000000001</v>
+        <v>0.218593</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.382739</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251244</v>
+        <v>0.253205</v>
       </c>
       <c r="C18" t="n">
-        <v>0.213382</v>
+        <v>0.582179</v>
       </c>
       <c r="D18" t="n">
-        <v>0.586108</v>
+        <v>0.213269</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.376564</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.246341</v>
+        <v>0.249137</v>
       </c>
       <c r="C19" t="n">
-        <v>0.208104</v>
+        <v>0.575325</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5791190000000001</v>
+        <v>0.209301</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.372805</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24639</v>
+        <v>0.242685</v>
       </c>
       <c r="C20" t="n">
-        <v>0.206767</v>
+        <v>0.575562</v>
       </c>
       <c r="D20" t="n">
-        <v>0.573614</v>
+        <v>0.205983</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.369031</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.246923</v>
+        <v>0.240231</v>
       </c>
       <c r="C21" t="n">
-        <v>0.203633</v>
+        <v>0.76313</v>
       </c>
       <c r="D21" t="n">
-        <v>0.766962</v>
+        <v>0.204762</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.36655</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.234757</v>
+        <v>0.234904</v>
       </c>
       <c r="C22" t="n">
-        <v>0.204821</v>
+        <v>0.748898</v>
       </c>
       <c r="D22" t="n">
-        <v>0.749328</v>
+        <v>0.205653</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.367003</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.23938</v>
+        <v>0.237112</v>
       </c>
       <c r="C23" t="n">
-        <v>0.299714</v>
+        <v>0.732822</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7331</v>
+        <v>0.297953</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.462129</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.320074</v>
+        <v>0.323506</v>
       </c>
       <c r="C24" t="n">
-        <v>0.286288</v>
+        <v>0.715266</v>
       </c>
       <c r="D24" t="n">
-        <v>0.717793</v>
+        <v>0.286461</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.450854</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.313561</v>
+        <v>0.309046</v>
       </c>
       <c r="C25" t="n">
-        <v>0.276783</v>
+        <v>0.701484</v>
       </c>
       <c r="D25" t="n">
-        <v>0.702137</v>
+        <v>0.279277</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.441213</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.304594</v>
+        <v>0.303709</v>
       </c>
       <c r="C26" t="n">
-        <v>0.270532</v>
+        <v>0.705322</v>
       </c>
       <c r="D26" t="n">
-        <v>0.689724</v>
+        <v>0.26855</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.432024</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.295725</v>
+        <v>0.29871</v>
       </c>
       <c r="C27" t="n">
-        <v>0.260188</v>
+        <v>0.686495</v>
       </c>
       <c r="D27" t="n">
-        <v>0.679023</v>
+        <v>0.260226</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.423225</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.287294</v>
+        <v>0.287355</v>
       </c>
       <c r="C28" t="n">
-        <v>0.253786</v>
+        <v>0.668412</v>
       </c>
       <c r="D28" t="n">
-        <v>0.667096</v>
+        <v>0.253073</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.41491</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284305</v>
+        <v>0.281817</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244797</v>
+        <v>0.661492</v>
       </c>
       <c r="D29" t="n">
-        <v>0.659211</v>
+        <v>0.245319</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.407479</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.273933</v>
+        <v>0.270993</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239693</v>
+        <v>0.652199</v>
       </c>
       <c r="D30" t="n">
-        <v>0.649</v>
+        <v>0.237799</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.400141</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.26488</v>
+        <v>0.266197</v>
       </c>
       <c r="C31" t="n">
-        <v>0.231872</v>
+        <v>0.650814</v>
       </c>
       <c r="D31" t="n">
-        <v>0.641714</v>
+        <v>0.232486</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.393787</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.257619</v>
+        <v>0.258661</v>
       </c>
       <c r="C32" t="n">
-        <v>0.226337</v>
+        <v>0.637468</v>
       </c>
       <c r="D32" t="n">
-        <v>0.633876</v>
+        <v>0.226601</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.387586</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.251944</v>
+        <v>0.256839</v>
       </c>
       <c r="C33" t="n">
-        <v>0.223905</v>
+        <v>0.63093</v>
       </c>
       <c r="D33" t="n">
-        <v>0.627458</v>
+        <v>0.222327</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.382508</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.253661</v>
+        <v>0.248214</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21942</v>
+        <v>0.621677</v>
       </c>
       <c r="D34" t="n">
-        <v>0.621468</v>
+        <v>0.217913</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.378617</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.246003</v>
+        <v>0.248837</v>
       </c>
       <c r="C35" t="n">
-        <v>0.214934</v>
+        <v>0.820228</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8245209999999999</v>
+        <v>0.216946</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.375846</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24648</v>
+        <v>0.24316</v>
       </c>
       <c r="C36" t="n">
-        <v>0.214904</v>
+        <v>0.8022899999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.80437</v>
+        <v>0.216038</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.375351</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.245161</v>
+        <v>0.243111</v>
       </c>
       <c r="C37" t="n">
-        <v>0.31</v>
+        <v>0.783996</v>
       </c>
       <c r="D37" t="n">
-        <v>0.786949</v>
+        <v>0.309927</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.472982</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.326758</v>
+        <v>0.32455</v>
       </c>
       <c r="C38" t="n">
-        <v>0.298356</v>
+        <v>0.769653</v>
       </c>
       <c r="D38" t="n">
-        <v>0.771594</v>
+        <v>0.300113</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.46341</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.317812</v>
+        <v>0.324085</v>
       </c>
       <c r="C39" t="n">
-        <v>0.290757</v>
+        <v>0.7511060000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7547970000000001</v>
+        <v>0.288357</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.453375</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.314685</v>
+        <v>0.308165</v>
       </c>
       <c r="C40" t="n">
-        <v>0.282148</v>
+        <v>0.736531</v>
       </c>
       <c r="D40" t="n">
-        <v>0.740734</v>
+        <v>0.280056</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.444786</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.306149</v>
+        <v>0.306003</v>
       </c>
       <c r="C41" t="n">
-        <v>0.274074</v>
+        <v>0.7306240000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7285199999999999</v>
+        <v>0.275562</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.436011</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294742</v>
+        <v>0.294546</v>
       </c>
       <c r="C42" t="n">
-        <v>0.264065</v>
+        <v>0.721451</v>
       </c>
       <c r="D42" t="n">
-        <v>0.716795</v>
+        <v>0.265479</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.427399</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.287268</v>
+        <v>0.284432</v>
       </c>
       <c r="C43" t="n">
-        <v>0.258112</v>
+        <v>0.70175</v>
       </c>
       <c r="D43" t="n">
-        <v>0.704799</v>
+        <v>0.257234</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.420039</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.282985</v>
+        <v>0.280239</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250692</v>
+        <v>0.693415</v>
       </c>
       <c r="D44" t="n">
-        <v>0.695305</v>
+        <v>0.249612</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.413059</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.274333</v>
+        <v>0.287873</v>
       </c>
       <c r="C45" t="n">
-        <v>0.243384</v>
+        <v>0.683212</v>
       </c>
       <c r="D45" t="n">
-        <v>0.686461</v>
+        <v>0.242728</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.40589</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.277551</v>
+        <v>0.275456</v>
       </c>
       <c r="C46" t="n">
-        <v>0.239537</v>
+        <v>0.679589</v>
       </c>
       <c r="D46" t="n">
-        <v>0.679131</v>
+        <v>0.237083</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.399508</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.264158</v>
+        <v>0.268847</v>
       </c>
       <c r="C47" t="n">
-        <v>0.232395</v>
+        <v>0.669091</v>
       </c>
       <c r="D47" t="n">
-        <v>0.670922</v>
+        <v>0.232738</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.394241</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.262275</v>
+        <v>0.269412</v>
       </c>
       <c r="C48" t="n">
-        <v>0.229042</v>
+        <v>0.662294</v>
       </c>
       <c r="D48" t="n">
-        <v>0.664942</v>
+        <v>0.227117</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.389784</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.259341</v>
+        <v>0.258319</v>
       </c>
       <c r="C49" t="n">
-        <v>0.225872</v>
+        <v>0.6568929999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.658843</v>
+        <v>0.224044</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.386745</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.257071</v>
+        <v>0.250365</v>
       </c>
       <c r="C50" t="n">
-        <v>0.223939</v>
+        <v>0.847692</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8545469999999999</v>
+        <v>0.223151</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.385248</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.253474</v>
+        <v>0.254275</v>
       </c>
       <c r="C51" t="n">
-        <v>0.321855</v>
+        <v>0.827109</v>
       </c>
       <c r="D51" t="n">
-        <v>0.835496</v>
+        <v>0.324937</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.490878</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.255809</v>
+        <v>0.260711</v>
       </c>
       <c r="C52" t="n">
-        <v>0.314623</v>
+        <v>0.809389</v>
       </c>
       <c r="D52" t="n">
-        <v>0.816202</v>
+        <v>0.313558</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.480495</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.332492</v>
+        <v>0.334551</v>
       </c>
       <c r="C53" t="n">
-        <v>0.30489</v>
+        <v>0.792595</v>
       </c>
       <c r="D53" t="n">
-        <v>0.799385</v>
+        <v>0.305049</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.469685</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.327292</v>
+        <v>0.327943</v>
       </c>
       <c r="C54" t="n">
-        <v>0.294776</v>
+        <v>0.776957</v>
       </c>
       <c r="D54" t="n">
-        <v>0.783213</v>
+        <v>0.296027</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.46116</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318499</v>
+        <v>0.320532</v>
       </c>
       <c r="C55" t="n">
-        <v>0.287821</v>
+        <v>0.763703</v>
       </c>
       <c r="D55" t="n">
-        <v>0.76879</v>
+        <v>0.288583</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.455304</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.308413</v>
+        <v>0.31251</v>
       </c>
       <c r="C56" t="n">
-        <v>0.280312</v>
+        <v>0.751325</v>
       </c>
       <c r="D56" t="n">
-        <v>0.755823</v>
+        <v>0.280285</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.446626</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.305758</v>
+        <v>0.305249</v>
       </c>
       <c r="C57" t="n">
-        <v>0.272674</v>
+        <v>0.738434</v>
       </c>
       <c r="D57" t="n">
-        <v>0.743618</v>
+        <v>0.273775</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.438301</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.297886</v>
+        <v>0.293296</v>
       </c>
       <c r="C58" t="n">
-        <v>0.267027</v>
+        <v>0.728179</v>
       </c>
       <c r="D58" t="n">
-        <v>0.733124</v>
+        <v>0.265667</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.432071</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.293276</v>
+        <v>0.290222</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2591</v>
+        <v>0.718294</v>
       </c>
       <c r="D59" t="n">
-        <v>0.722936</v>
+        <v>0.259601</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.426675</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.289042</v>
+        <v>0.285073</v>
       </c>
       <c r="C60" t="n">
-        <v>0.253914</v>
+        <v>0.710683</v>
       </c>
       <c r="D60" t="n">
-        <v>0.715984</v>
+        <v>0.253181</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.419062</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.280611</v>
+        <v>0.276789</v>
       </c>
       <c r="C61" t="n">
-        <v>0.248896</v>
+        <v>0.702599</v>
       </c>
       <c r="D61" t="n">
-        <v>0.706057</v>
+        <v>0.248369</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.414486</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.279699</v>
+        <v>0.273757</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244597</v>
+        <v>0.694985</v>
       </c>
       <c r="D62" t="n">
-        <v>0.698638</v>
+        <v>0.244685</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.410468</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267569</v>
+        <v>0.267502</v>
       </c>
       <c r="C63" t="n">
-        <v>0.239404</v>
+        <v>0.68893</v>
       </c>
       <c r="D63" t="n">
-        <v>0.692155</v>
+        <v>0.241279</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.408867</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.280166</v>
+        <v>0.266752</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239129</v>
+        <v>0.911386</v>
       </c>
       <c r="D64" t="n">
-        <v>0.916907</v>
+        <v>0.239316</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.405316</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.267412</v>
+        <v>0.263764</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238237</v>
+        <v>0.889114</v>
       </c>
       <c r="D65" t="n">
-        <v>0.896664</v>
+        <v>0.239257</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.405737</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.266901</v>
+        <v>0.268239</v>
       </c>
       <c r="C66" t="n">
-        <v>0.338814</v>
+        <v>0.870455</v>
       </c>
       <c r="D66" t="n">
-        <v>0.877274</v>
+        <v>0.339878</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.520018</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.391773</v>
+        <v>0.409385</v>
       </c>
       <c r="C67" t="n">
-        <v>0.329048</v>
+        <v>0.852128</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8586819999999999</v>
+        <v>0.33561</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.513202</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.41519</v>
+        <v>0.394865</v>
       </c>
       <c r="C68" t="n">
-        <v>0.320233</v>
+        <v>0.835134</v>
       </c>
       <c r="D68" t="n">
-        <v>0.84209</v>
+        <v>0.326465</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.506294</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.38293</v>
+        <v>0.400268</v>
       </c>
       <c r="C69" t="n">
-        <v>0.313512</v>
+        <v>0.821289</v>
       </c>
       <c r="D69" t="n">
-        <v>0.827439</v>
+        <v>0.313669</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.498763</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.372954</v>
+        <v>0.373635</v>
       </c>
       <c r="C70" t="n">
-        <v>0.309296</v>
+        <v>0.809322</v>
       </c>
       <c r="D70" t="n">
-        <v>0.815068</v>
+        <v>0.31073</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.491178</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.35467</v>
+        <v>0.393527</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298087</v>
+        <v>0.79893</v>
       </c>
       <c r="D71" t="n">
-        <v>0.803886</v>
+        <v>0.299386</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.48402</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.386775</v>
+        <v>0.382504</v>
       </c>
       <c r="C72" t="n">
-        <v>0.294485</v>
+        <v>0.789945</v>
       </c>
       <c r="D72" t="n">
-        <v>0.795185</v>
+        <v>0.292211</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.477859</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.364977</v>
+        <v>0.367369</v>
       </c>
       <c r="C73" t="n">
-        <v>0.287962</v>
+        <v>0.782614</v>
       </c>
       <c r="D73" t="n">
-        <v>0.787146</v>
+        <v>0.286091</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.472535</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.363941</v>
+        <v>0.355583</v>
       </c>
       <c r="C74" t="n">
-        <v>0.280892</v>
+        <v>0.776828</v>
       </c>
       <c r="D74" t="n">
-        <v>0.781297</v>
+        <v>0.281763</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.467217</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.337738</v>
+        <v>0.362248</v>
       </c>
       <c r="C75" t="n">
-        <v>0.276013</v>
+        <v>0.772022</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7755379999999999</v>
+        <v>0.273707</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.463184</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.36947</v>
+        <v>0.346023</v>
       </c>
       <c r="C76" t="n">
-        <v>0.274407</v>
+        <v>0.76883</v>
       </c>
       <c r="D76" t="n">
-        <v>0.773845</v>
+        <v>0.272409</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.459911</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.336737</v>
+        <v>0.344223</v>
       </c>
       <c r="C77" t="n">
-        <v>0.265909</v>
+        <v>0.76795</v>
       </c>
       <c r="D77" t="n">
-        <v>0.774431</v>
+        <v>0.267323</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.457333</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.365379</v>
+        <v>0.322835</v>
       </c>
       <c r="C78" t="n">
-        <v>0.264821</v>
+        <v>1.23429</v>
       </c>
       <c r="D78" t="n">
-        <v>1.23997</v>
+        <v>0.265919</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.457053</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.352532</v>
+        <v>0.340629</v>
       </c>
       <c r="C79" t="n">
-        <v>0.262949</v>
+        <v>1.2116</v>
       </c>
       <c r="D79" t="n">
-        <v>1.21761</v>
+        <v>0.261055</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.457609</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.333378</v>
+        <v>0.348632</v>
       </c>
       <c r="C80" t="n">
-        <v>0.389753</v>
+        <v>1.19086</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19693</v>
+        <v>0.38571</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.7460599999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.456751</v>
+        <v>0.458947</v>
       </c>
       <c r="C81" t="n">
-        <v>0.380378</v>
+        <v>1.17658</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17916</v>
+        <v>0.375413</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.75058</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.450828</v>
+        <v>0.420864</v>
       </c>
       <c r="C82" t="n">
-        <v>0.367239</v>
+        <v>1.16178</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16455</v>
+        <v>0.369326</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.746263</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.457072</v>
+        <v>0.444277</v>
       </c>
       <c r="C83" t="n">
-        <v>0.363817</v>
+        <v>1.14973</v>
       </c>
       <c r="D83" t="n">
-        <v>1.15317</v>
+        <v>0.363448</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.7385659999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.432796</v>
+        <v>0.437449</v>
       </c>
       <c r="C84" t="n">
-        <v>0.352692</v>
+        <v>1.1417</v>
       </c>
       <c r="D84" t="n">
-        <v>1.14398</v>
+        <v>0.355929</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.728059</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.407434</v>
+        <v>0.421959</v>
       </c>
       <c r="C85" t="n">
-        <v>0.348973</v>
+        <v>1.13607</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13845</v>
+        <v>0.348193</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.716242</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.440146</v>
+        <v>0.453603</v>
       </c>
       <c r="C86" t="n">
-        <v>0.340258</v>
+        <v>1.13368</v>
       </c>
       <c r="D86" t="n">
-        <v>1.13371</v>
+        <v>0.337841</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.701722</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.434773</v>
+        <v>0.421311</v>
       </c>
       <c r="C87" t="n">
-        <v>0.332432</v>
+        <v>1.12933</v>
       </c>
       <c r="D87" t="n">
-        <v>1.13199</v>
+        <v>0.3362</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.68767</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.495299</v>
+        <v>0.413039</v>
       </c>
       <c r="C88" t="n">
-        <v>0.329445</v>
+        <v>1.13265</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13491</v>
+        <v>0.329411</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6750429999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.400899</v>
+        <v>0.409955</v>
       </c>
       <c r="C89" t="n">
-        <v>0.322213</v>
+        <v>1.13927</v>
       </c>
       <c r="D89" t="n">
-        <v>1.14114</v>
+        <v>0.322583</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.665717</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.471961</v>
+        <v>0.3867</v>
       </c>
       <c r="C90" t="n">
-        <v>0.317548</v>
+        <v>1.15166</v>
       </c>
       <c r="D90" t="n">
-        <v>1.1492</v>
+        <v>0.314814</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.655853</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.455714</v>
+        <v>0.391249</v>
       </c>
       <c r="C91" t="n">
-        <v>0.309064</v>
+        <v>1.1626</v>
       </c>
       <c r="D91" t="n">
-        <v>1.1628</v>
+        <v>0.308667</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.647188</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.429893</v>
+        <v>0.390932</v>
       </c>
       <c r="C92" t="n">
-        <v>0.309883</v>
+        <v>1.72677</v>
       </c>
       <c r="D92" t="n">
-        <v>1.72102</v>
+        <v>0.305917</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.639301</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.403693</v>
+        <v>0.407362</v>
       </c>
       <c r="C93" t="n">
-        <v>0.303162</v>
+        <v>1.7162</v>
       </c>
       <c r="D93" t="n">
-        <v>1.71205</v>
+        <v>0.302937</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.633949</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.428838</v>
+        <v>0.364061</v>
       </c>
       <c r="C94" t="n">
-        <v>0.496807</v>
+        <v>1.70258</v>
       </c>
       <c r="D94" t="n">
-        <v>1.70083</v>
+        <v>0.499172</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.12535</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.597131</v>
+        <v>0.600563</v>
       </c>
       <c r="C95" t="n">
-        <v>0.49199</v>
+        <v>1.6862</v>
       </c>
       <c r="D95" t="n">
-        <v>1.687</v>
+        <v>0.496794</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.12123</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.599627</v>
+        <v>0.58536</v>
       </c>
       <c r="C96" t="n">
-        <v>0.481868</v>
+        <v>1.67728</v>
       </c>
       <c r="D96" t="n">
-        <v>1.67333</v>
+        <v>0.483198</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.10964</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.586689</v>
+        <v>0.571614</v>
       </c>
       <c r="C97" t="n">
-        <v>0.470477</v>
+        <v>1.67177</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66653</v>
+        <v>0.473554</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.09295</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.571176</v>
+        <v>0.564543</v>
       </c>
       <c r="C98" t="n">
-        <v>0.460673</v>
+        <v>1.66319</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66054</v>
+        <v>0.461276</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.07473</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.547215</v>
+        <v>0.5514289999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.448692</v>
+        <v>1.66208</v>
       </c>
       <c r="D99" t="n">
-        <v>1.65634</v>
+        <v>0.450427</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.05586</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5407920000000001</v>
+        <v>0.549584</v>
       </c>
       <c r="C100" t="n">
-        <v>0.439163</v>
+        <v>1.66014</v>
       </c>
       <c r="D100" t="n">
-        <v>1.65723</v>
+        <v>0.435734</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.03886</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.587431</v>
+        <v>0.549997</v>
       </c>
       <c r="C101" t="n">
-        <v>0.429988</v>
+        <v>1.66373</v>
       </c>
       <c r="D101" t="n">
-        <v>1.66314</v>
+        <v>0.427512</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.02269</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.532382</v>
+        <v>0.53146</v>
       </c>
       <c r="C102" t="n">
-        <v>0.419437</v>
+        <v>1.67078</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66887</v>
+        <v>0.420294</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.00928</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.541998</v>
+        <v>0.535662</v>
       </c>
       <c r="C103" t="n">
-        <v>0.413219</v>
+        <v>1.68159</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67551</v>
+        <v>0.412606</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.9938669999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.527712</v>
+        <v>0.512297</v>
       </c>
       <c r="C104" t="n">
-        <v>0.403049</v>
+        <v>1.69073</v>
       </c>
       <c r="D104" t="n">
-        <v>1.69192</v>
+        <v>0.405501</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.982271</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.512898</v>
+        <v>0.5045770000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.394959</v>
+        <v>1.70449</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70084</v>
+        <v>0.396216</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.969838</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.515602</v>
+        <v>0.500727</v>
       </c>
       <c r="C106" t="n">
-        <v>0.391843</v>
+        <v>1.72054</v>
       </c>
       <c r="D106" t="n">
-        <v>1.7171</v>
+        <v>0.391054</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.947252</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.507485</v>
+        <v>0.507863</v>
       </c>
       <c r="C107" t="n">
-        <v>0.386182</v>
+        <v>2.30739</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30368</v>
+        <v>0.385303</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.952891</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.50693</v>
+        <v>0.503865</v>
       </c>
       <c r="C108" t="n">
-        <v>0.587469</v>
+        <v>2.27868</v>
       </c>
       <c r="D108" t="n">
-        <v>2.27643</v>
+        <v>0.589538</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.37487</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.514909</v>
+        <v>0.521685</v>
       </c>
       <c r="C109" t="n">
-        <v>0.580799</v>
+        <v>2.25489</v>
       </c>
       <c r="D109" t="n">
-        <v>2.2482</v>
+        <v>0.533147</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.38836</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.713309</v>
+        <v>0.7012</v>
       </c>
       <c r="C110" t="n">
-        <v>0.569896</v>
+        <v>2.23346</v>
       </c>
       <c r="D110" t="n">
-        <v>2.22708</v>
+        <v>0.572201</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.388</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.669559</v>
+        <v>0.709764</v>
       </c>
       <c r="C111" t="n">
-        <v>0.516586</v>
+        <v>2.22879</v>
       </c>
       <c r="D111" t="n">
-        <v>2.20877</v>
+        <v>0.558763</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.39056</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.663938</v>
+        <v>0.668815</v>
       </c>
       <c r="C112" t="n">
-        <v>0.508775</v>
+        <v>2.20782</v>
       </c>
       <c r="D112" t="n">
-        <v>2.19617</v>
+        <v>0.503377</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.40176</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.664131</v>
+        <v>0.678231</v>
       </c>
       <c r="C113" t="n">
-        <v>0.49366</v>
+        <v>2.19769</v>
       </c>
       <c r="D113" t="n">
-        <v>2.19119</v>
+        <v>0.535184</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.39587</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.65786</v>
+        <v>0.670232</v>
       </c>
       <c r="C114" t="n">
-        <v>0.520559</v>
+        <v>2.21427</v>
       </c>
       <c r="D114" t="n">
-        <v>2.2119</v>
+        <v>0.488191</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.40172</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.659396</v>
+        <v>0.658902</v>
       </c>
       <c r="C115" t="n">
-        <v>0.512316</v>
+        <v>2.21019</v>
       </c>
       <c r="D115" t="n">
-        <v>2.23117</v>
+        <v>0.5140709999999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.39104</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.648525</v>
+        <v>0.626128</v>
       </c>
       <c r="C116" t="n">
-        <v>0.504521</v>
+        <v>2.23246</v>
       </c>
       <c r="D116" t="n">
-        <v>2.23615</v>
+        <v>0.5045809999999999</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.40167</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.623713</v>
+        <v>0.6442329999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.463229</v>
+        <v>2.2177</v>
       </c>
       <c r="D117" t="n">
-        <v>2.23409</v>
+        <v>0.494625</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.40886</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.62995</v>
+        <v>0.620441</v>
       </c>
       <c r="C118" t="n">
-        <v>0.485661</v>
+        <v>2.19019</v>
       </c>
       <c r="D118" t="n">
-        <v>2.17972</v>
+        <v>0.45395</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.21892</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.593324</v>
+        <v>0.617777</v>
       </c>
       <c r="C119" t="n">
-        <v>0.44617</v>
+        <v>2.18277</v>
       </c>
       <c r="D119" t="n">
-        <v>2.18037</v>
+        <v>0.44916</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.22158</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.574214</v>
+        <v>0.622027</v>
       </c>
       <c r="C120" t="n">
-        <v>0.442812</v>
+        <v>2.19869</v>
       </c>
       <c r="D120" t="n">
-        <v>2.1978</v>
+        <v>0.442064</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.42764</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.584551</v>
+        <v>0.598081</v>
       </c>
       <c r="C121" t="n">
-        <v>0.436243</v>
+        <v>2.8582</v>
       </c>
       <c r="D121" t="n">
-        <v>2.85961</v>
+        <v>0.43842</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.00517</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.579811</v>
+        <v>0.592025</v>
       </c>
       <c r="C122" t="n">
-        <v>0.43603</v>
+        <v>2.81795</v>
       </c>
       <c r="D122" t="n">
-        <v>2.8067</v>
+        <v>0.438689</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.00867</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.584164</v>
+        <v>0.580934</v>
       </c>
       <c r="C123" t="n">
-        <v>0.626086</v>
+        <v>2.77876</v>
       </c>
       <c r="D123" t="n">
-        <v>2.77115</v>
+        <v>0.6314340000000001</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.90488</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.772611</v>
+        <v>0.777168</v>
       </c>
       <c r="C124" t="n">
-        <v>0.621051</v>
+        <v>2.73675</v>
       </c>
       <c r="D124" t="n">
-        <v>2.73369</v>
+        <v>0.6232</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.89761</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.747703</v>
+        <v>0.7690900000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.615962</v>
+        <v>2.7063</v>
       </c>
       <c r="D125" t="n">
-        <v>2.70964</v>
+        <v>0.6355189999999999</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.88901</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.764997</v>
+        <v>0.746537</v>
       </c>
       <c r="C126" t="n">
-        <v>0.608283</v>
+        <v>2.68451</v>
       </c>
       <c r="D126" t="n">
-        <v>2.67314</v>
+        <v>0.607087</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.87862</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.740966</v>
+        <v>0.755089</v>
       </c>
       <c r="C127" t="n">
-        <v>0.600118</v>
+        <v>2.66377</v>
       </c>
       <c r="D127" t="n">
-        <v>2.65239</v>
+        <v>0.6009</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.87909</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.736675</v>
+        <v>0.732233</v>
       </c>
       <c r="C128" t="n">
-        <v>0.594166</v>
+        <v>2.63835</v>
       </c>
       <c r="D128" t="n">
-        <v>2.63312</v>
+        <v>0.596723</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.87535</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.732432</v>
+        <v>0.723677</v>
       </c>
       <c r="C129" t="n">
-        <v>0.590006</v>
+        <v>2.62467</v>
       </c>
       <c r="D129" t="n">
-        <v>2.62044</v>
+        <v>0.58875</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.86624</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7178639999999999</v>
+        <v>0.733423</v>
       </c>
       <c r="C130" t="n">
-        <v>0.583512</v>
+        <v>2.60577</v>
       </c>
       <c r="D130" t="n">
-        <v>2.6079</v>
+        <v>0.5832079999999999</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.86248</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.707344</v>
+        <v>0.706091</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5781849999999999</v>
+        <v>2.59634</v>
       </c>
       <c r="D131" t="n">
-        <v>2.59379</v>
+        <v>0.578792</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.85972</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.715445</v>
+        <v>0.707856</v>
       </c>
       <c r="C132" t="n">
-        <v>0.574637</v>
+        <v>2.59015</v>
       </c>
       <c r="D132" t="n">
-        <v>2.58691</v>
+        <v>0.573617</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.86592</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.705112</v>
+        <v>0.712125</v>
       </c>
       <c r="C133" t="n">
-        <v>0.568288</v>
+        <v>2.58406</v>
       </c>
       <c r="D133" t="n">
-        <v>2.5915</v>
+        <v>0.571709</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.86585</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.704483</v>
+        <v>0.701805</v>
       </c>
       <c r="C134" t="n">
-        <v>0.565472</v>
+        <v>2.57826</v>
       </c>
       <c r="D134" t="n">
-        <v>2.56893</v>
+        <v>0.538988</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.63369</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.682691</v>
+        <v>0.694173</v>
       </c>
       <c r="C135" t="n">
-        <v>0.534101</v>
+        <v>3.24911</v>
       </c>
       <c r="D135" t="n">
-        <v>3.2431</v>
+        <v>0.538102</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.39661</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.687178</v>
+        <v>0.677716</v>
       </c>
       <c r="C136" t="n">
-        <v>0.534257</v>
+        <v>3.18844</v>
       </c>
       <c r="D136" t="n">
-        <v>3.18198</v>
+        <v>0.536419</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.86513</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.655496</v>
+        <v>0.689264</v>
       </c>
       <c r="C137" t="n">
-        <v>0.723971</v>
+        <v>3.14047</v>
       </c>
       <c r="D137" t="n">
-        <v>3.13354</v>
+        <v>0.726558</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.32317</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.845908</v>
+        <v>0.876729</v>
       </c>
       <c r="C138" t="n">
-        <v>0.720446</v>
+        <v>3.09845</v>
       </c>
       <c r="D138" t="n">
-        <v>3.08923</v>
+        <v>0.720624</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.31187</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.853609</v>
+        <v>0.838609</v>
       </c>
       <c r="C139" t="n">
-        <v>0.71387</v>
+        <v>3.05493</v>
       </c>
       <c r="D139" t="n">
-        <v>3.04503</v>
+        <v>0.717467</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.30093</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8304049999999999</v>
+        <v>0.850859</v>
       </c>
       <c r="C140" t="n">
-        <v>0.712768</v>
+        <v>3.01252</v>
       </c>
       <c r="D140" t="n">
-        <v>3.00667</v>
+        <v>0.713731</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.28294</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.856025</v>
+        <v>0.843341</v>
       </c>
       <c r="C141" t="n">
-        <v>0.706806</v>
+        <v>2.98471</v>
       </c>
       <c r="D141" t="n">
-        <v>2.97897</v>
+        <v>0.709314</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.26933</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.853541</v>
+        <v>0.841199</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7248599999999999</v>
+        <v>2.9712</v>
       </c>
       <c r="D142" t="n">
-        <v>2.96218</v>
+        <v>0.707006</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.25231</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.850113</v>
+        <v>0.845819</v>
       </c>
       <c r="C143" t="n">
-        <v>0.701264</v>
+        <v>2.94593</v>
       </c>
       <c r="D143" t="n">
-        <v>2.94206</v>
+        <v>0.701485</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.23777</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15495</v>
+                  <v>0.15337</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.153545</v>
+                  <v>0.155158</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.156261</v>
+                  <v>0.159661</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.154468</v>
+                  <v>0.151036</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.159997</v>
+                  <v>0.145481</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.148057</v>
+                  <v>0.143135</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.149778</v>
+                  <v>0.148369</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154311</v>
+                  <v>0.150446</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.223686</v>
+                  <v>0.207322</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.205186</v>
+                  <v>0.209592</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.205051</v>
+                  <v>0.195598</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.191499</v>
+                  <v>0.190781</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.185229</v>
+                  <v>0.190823</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.180374</v>
+                  <v>0.175134</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.173777</v>
+                  <v>0.168551</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174067</v>
+                  <v>0.159679</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.166807</v>
+                  <v>0.164206</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.160047</v>
+                  <v>0.167199</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.157303</v>
+                  <v>0.154037</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.156402</v>
+                  <v>0.157372</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163726</v>
+                  <v>0.151621</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.160119</v>
+                  <v>0.157259</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.240097</v>
+                  <v>0.238303</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231232</v>
+                  <v>0.224434</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227764</v>
+                  <v>0.224004</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.219773</v>
+                  <v>0.215688</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.21386</v>
+                  <v>0.20293</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.200835</v>
+                  <v>0.198964</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.197722</v>
+                  <v>0.187941</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185452</v>
+                  <v>0.185272</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.185902</v>
+                  <v>0.178074</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179391</v>
+                  <v>0.173278</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.174647</v>
+                  <v>0.170074</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.167433</v>
+                  <v>0.168305</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.173431</v>
+                  <v>0.170652</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169377</v>
+                  <v>0.167843</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.245427</v>
+                  <v>0.243961</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236324</v>
+                  <v>0.235067</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.228014</v>
+                  <v>0.22627</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.220475</v>
+                  <v>0.218024</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.211363</v>
+                  <v>0.210212</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.205815</v>
+                  <v>0.202858</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.198957</v>
+                  <v>0.196171</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.192026</v>
+                  <v>0.190461</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.186259</v>
+                  <v>0.185034</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.182829</v>
+                  <v>0.180206</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.178498</v>
+                  <v>0.176532</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174932</v>
+                  <v>0.173492</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173529</v>
+                  <v>0.171855</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.174603</v>
+                  <v>0.172451</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.178568</v>
+                  <v>0.174531</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.242911</v>
+                  <v>0.241212</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233062</v>
+                  <v>0.231315</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.225756</v>
+                  <v>0.222959</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219169</v>
+                  <v>0.216001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.211266</v>
+                  <v>0.208546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.204869</v>
+                  <v>0.20144</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198465</v>
+                  <v>0.195596</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.192641</v>
+                  <v>0.189667</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.187453</v>
+                  <v>0.184353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.183317</v>
+                  <v>0.180335</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.180442</v>
+                  <v>0.178093</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.178772</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.178868</v>
+                  <v>0.176322</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.182404</v>
+                  <v>0.178398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246499</v>
+                  <v>0.246205</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.24057</v>
+                  <v>0.235745</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.229261</v>
+                  <v>0.22844</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.222631</v>
+                  <v>0.219722</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.214224</v>
+                  <v>0.211882</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.208225</v>
+                  <v>0.205851</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200051</v>
+                  <v>0.199915</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.196592</v>
+                  <v>0.19416</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.191699</v>
+                  <v>0.188783</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.187385</v>
+                  <v>0.183925</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.184281</v>
+                  <v>0.182219</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.181944</v>
+                  <v>0.178711</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.181193</v>
+                  <v>0.17904</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.183598</v>
+                  <v>0.180346</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.259901</v>
+                  <v>0.257797</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.251809</v>
+                  <v>0.248989</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245416</v>
+                  <v>0.242374</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.236506</v>
+                  <v>0.233789</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.228865</v>
+                  <v>0.22662</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222002</v>
+                  <v>0.219911</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215267</v>
+                  <v>0.21385</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208708</v>
+                  <v>0.20712</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.203164</v>
+                  <v>0.2016</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.198265</v>
+                  <v>0.196505</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.194029</v>
+                  <v>0.193329</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.191051</v>
+                  <v>0.190124</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.190331</v>
+                  <v>0.188597</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.190609</v>
+                  <v>0.189371</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271708</v>
+                  <v>0.270674</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265444</v>
+                  <v>0.265072</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258822</v>
+                  <v>0.258834</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251693</v>
+                  <v>0.251641</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245207</v>
+                  <v>0.245263</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238911</v>
+                  <v>0.238488</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233314</v>
+                  <v>0.233411</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227926</v>
+                  <v>0.227946</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.223038</v>
+                  <v>0.222458</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218392</v>
+                  <v>0.218327</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214392</v>
+                  <v>0.214176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211043</v>
+                  <v>0.211275</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208798</v>
+                  <v>0.208723</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208902</v>
+                  <v>0.208655</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210912</v>
+                  <v>0.210629</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.282122</v>
+                  <v>0.285509</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277332</v>
+                  <v>0.278433</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271849</v>
+                  <v>0.271806</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265643</v>
+                  <v>0.266427</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259825</v>
+                  <v>0.260565</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254755</v>
+                  <v>0.255512</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.249822</v>
+                  <v>0.250615</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.24522</v>
+                  <v>0.245594</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241839</v>
+                  <v>0.244716</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23729</v>
+                  <v>0.237814</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234272</v>
+                  <v>0.234924</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232088</v>
+                  <v>0.232693</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231128</v>
+                  <v>0.231404</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232239</v>
+                  <v>0.232607</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.317627</v>
+                  <v>0.316721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.312009</v>
+                  <v>0.311521</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.30586</v>
+                  <v>0.304916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.300592</v>
+                  <v>0.299863</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.295357</v>
+                  <v>0.294634</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291282</v>
+                  <v>0.290007</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.290024</v>
+                  <v>0.285681</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.292332</v>
+                  <v>0.281672</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.316529</v>
+                  <v>0.278486</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.313286</v>
+                  <v>0.275255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.269433</v>
+                  <v>0.272149</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.267928</v>
+                  <v>0.270314</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.267051</v>
+                  <v>0.269997</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267636</v>
+                  <v>0.270583</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.350842</v>
+                  <v>0.369063</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.345442</v>
+                  <v>0.363506</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.341276</v>
+                  <v>0.358269</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.336592</v>
+                  <v>0.352863</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.332195</v>
+                  <v>0.34801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.328062</v>
+                  <v>0.34351</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.133487</v>
+                  <v>0.312145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.128996</v>
+                  <v>0.311864</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.128778</v>
+                  <v>0.311341</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.123893</v>
+                  <v>0.306772</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.115629</v>
+                  <v>0.308161</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.117525</v>
+                  <v>0.408994</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.110211</v>
+                  <v>0.405189</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.176215</v>
+                  <v>0.401577</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.169618</v>
+                  <v>0.391147</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167522</v>
+                  <v>0.391102</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.164985</v>
+                  <v>0.38111</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.157948</v>
+                  <v>0.379912</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.154722</v>
+                  <v>0.376405</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.145283</v>
+                  <v>0.370044</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.14847</v>
+                  <v>0.366509</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.137933</v>
+                  <v>0.362169</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.132223</v>
+                  <v>0.364199</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.130486</v>
+                  <v>0.36117</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.124625</v>
+                  <v>0.357351</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.122399</v>
+                  <v>0.478261</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.122231</v>
+                  <v>0.464696</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.215673</v>
+                  <v>0.456439</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209008</v>
+                  <v>0.448159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.196812</v>
+                  <v>0.440673</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.193513</v>
+                  <v>0.431649</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.186064</v>
+                  <v>0.425692</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.182841</v>
+                  <v>0.418998</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175024</v>
+                  <v>0.412593</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170131</v>
+                  <v>0.408417</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.161414</v>
+                  <v>0.40367</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.156848</v>
+                  <v>0.399719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.155946</v>
+                  <v>0.393748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14656</v>
+                  <v>0.390428</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150628</v>
+                  <v>0.499331</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.146053</v>
+                  <v>0.48684</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230175</v>
+                  <v>0.478061</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222468</v>
+                  <v>0.46875</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212657</v>
+                  <v>0.458947</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20674</v>
+                  <v>0.450864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198642</v>
+                  <v>0.443182</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191772</v>
+                  <v>0.437353</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.188281</v>
+                  <v>0.430382</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.177377</v>
+                  <v>0.424477</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171985</v>
+                  <v>0.419409</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166429</v>
+                  <v>0.414636</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.166079</v>
+                  <v>0.40978</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159028</v>
+                  <v>0.406225</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.15706</v>
+                  <v>0.403185</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.156108</v>
+                  <v>0.506923</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.244006</v>
+                  <v>0.49607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.234167</v>
+                  <v>0.485393</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.224348</v>
+                  <v>0.47704</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.216183</v>
+                  <v>0.467187</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.208516</v>
+                  <v>0.459395</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.200898</v>
+                  <v>0.452921</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.193874</v>
+                  <v>0.445497</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.186857</v>
+                  <v>0.440853</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.180909</v>
+                  <v>0.434352</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.175261</v>
+                  <v>0.430313</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.170349</v>
+                  <v>0.426534</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.166078</v>
+                  <v>0.422625</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.163411</v>
+                  <v>0.419713</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.161494</v>
+                  <v>0.544347</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.16251</v>
+                  <v>0.53371</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.243741</v>
+                  <v>0.523499</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.233795</v>
+                  <v>0.516787</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.226048</v>
+                  <v>0.508951</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.218522</v>
+                  <v>0.500625</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.208423</v>
+                  <v>0.494779</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.20239</v>
+                  <v>0.489162</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.195978</v>
+                  <v>0.483936</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.190244</v>
+                  <v>0.481121</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.183549</v>
+                  <v>0.496074</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17921</v>
+                  <v>0.488899</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.174505</v>
+                  <v>0.486092</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.17026</v>
+                  <v>0.483301</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.168555</v>
+                  <v>0.6619080000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.167771</v>
+                  <v>0.651641</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.243049</v>
+                  <v>0.6414840000000001</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.233663</v>
+                  <v>0.634898</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.225806</v>
+                  <v>0.626458</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.217961</v>
+                  <v>0.619111</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.210345</v>
+                  <v>0.618937</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.202909</v>
+                  <v>0.616578</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.196278</v>
+                  <v>0.616543</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.190457</v>
+                  <v>0.618468</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.184578</v>
+                  <v>0.618605</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.179115</v>
+                  <v>0.631288</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.174858</v>
+                  <v>0.634706</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.171276</v>
+                  <v>0.640709</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.168786</v>
+                  <v>0.853437</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.169004</v>
+                  <v>0.851041</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254981</v>
+                  <v>0.846677</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247215</v>
+                  <v>0.839566</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.239115</v>
+                  <v>0.837027</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230624</v>
+                  <v>0.84036</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.222856</v>
+                  <v>0.840439</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21591</v>
+                  <v>0.841024</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.209102</v>
+                  <v>0.84118</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.202675</v>
+                  <v>0.845235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.196973</v>
+                  <v>0.849178</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.19177</v>
+                  <v>0.859448</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.187172</v>
+                  <v>0.866117</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.183301</v>
+                  <v>0.873801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18078</v>
+                  <v>0.882031</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179522</v>
+                  <v>1.12628</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.269489</v>
+                  <v>1.11366</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.262897</v>
+                  <v>1.10831</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.256726</v>
+                  <v>1.09924</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.247451</v>
+                  <v>1.10141</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24043</v>
+                  <v>1.09589</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233607</v>
+                  <v>1.09404</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227423</v>
+                  <v>1.09267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221229</v>
+                  <v>1.09583</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215868</v>
+                  <v>1.09592</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.210591</v>
+                  <v>1.09785</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.206479</v>
+                  <v>1.10406</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.202559</v>
+                  <v>1.1105</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.199773</v>
+                  <v>1.1192</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198176</v>
+                  <v>1.38021</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.198841</v>
+                  <v>1.36711</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285232</v>
+                  <v>1.35208</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.276811</v>
+                  <v>1.33879</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.270839</v>
+                  <v>1.33025</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.265608</v>
+                  <v>1.32117</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.260523</v>
+                  <v>1.31379</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.255044</v>
+                  <v>1.30768</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.251807</v>
+                  <v>1.30326</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.249694</v>
+                  <v>1.30056</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.266801</v>
+                  <v>1.30008</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.263743</v>
+                  <v>1.30108</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.282668</v>
+                  <v>1.30141</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.233059</v>
+                  <v>1.30559</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.231579</v>
+                  <v>1.58034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.231913</v>
+                  <v>1.55781</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.326305</v>
+                  <v>1.53836</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320686</v>
+                  <v>1.5207</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315677</v>
+                  <v>1.50344</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.310855</v>
+                  <v>1.49007</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.306001</v>
+                  <v>1.47742</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.30133</v>
+                  <v>1.46587</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.297474</v>
+                  <v>1.45791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.344005</v>
+                  <v>0.142888</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.340023</v>
+                  <v>0.144159</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.339171</v>
+                  <v>0.139729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.337006</v>
+                  <v>0.130455</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.334346</v>
+                  <v>0.130001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.44346</v>
+                  <v>0.114646</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.42934</v>
+                  <v>0.121203</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.422947</v>
+                  <v>0.177485</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.414834</v>
+                  <v>0.178184</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.412844</v>
+                  <v>0.167977</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.410981</v>
+                  <v>0.158496</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.402817</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.395902</v>
+                  <v>0.15716</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.389522</v>
+                  <v>0.142005</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.38781</v>
+                  <v>0.136816</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.384793</v>
+                  <v>0.139587</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.379955</v>
+                  <v>0.131545</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.378853</v>
+                  <v>0.129135</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.373582</v>
+                  <v>0.123154</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.476217</v>
+                  <v>0.1263</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.46546</v>
+                  <v>0.129065</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.464787</v>
+                  <v>0.214336</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.45141</v>
+                  <v>0.21995</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.445799</v>
+                  <v>0.204141</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.434497</v>
+                  <v>0.187606</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.427631</v>
+                  <v>0.185954</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.419558</v>
+                  <v>0.178845</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.411806</v>
+                  <v>0.168237</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.406268</v>
+                  <v>0.165532</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.401866</v>
+                  <v>0.164239</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.397333</v>
+                  <v>0.154562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393844</v>
+                  <v>0.153521</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.389286</v>
+                  <v>0.14963</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.493518</v>
+                  <v>0.150836</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.484731</v>
+                  <v>0.14771</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.475688</v>
+                  <v>0.230768</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.463878</v>
+                  <v>0.222972</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.455129</v>
+                  <v>0.213998</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.446551</v>
+                  <v>0.205509</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.438381</v>
+                  <v>0.19903</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.43272</v>
+                  <v>0.191431</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.425374</v>
+                  <v>0.185004</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.420618</v>
+                  <v>0.178242</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.41841</v>
+                  <v>0.171721</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414417</v>
+                  <v>0.166785</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.412106</v>
+                  <v>0.163076</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406774</v>
+                  <v>0.159074</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.402662</v>
+                  <v>0.157048</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.505211</v>
+                  <v>0.155008</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.498063</v>
+                  <v>0.241177</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485203</v>
+                  <v>0.232474</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.477573</v>
+                  <v>0.222617</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.46772</v>
+                  <v>0.214052</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.463373</v>
+                  <v>0.206278</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.4539</v>
+                  <v>0.198674</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.446932</v>
+                  <v>0.191601</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440617</v>
+                  <v>0.184668</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.437856</v>
+                  <v>0.179357</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.432426</v>
+                  <v>0.1736</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.428781</v>
+                  <v>0.168138</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.423174</v>
+                  <v>0.164634</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.422691</v>
+                  <v>0.161852</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.5450739999999999</v>
+                  <v>0.159915</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.540152</v>
+                  <v>0.160633</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.524844</v>
+                  <v>0.241778</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.515304</v>
+                  <v>0.234316</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.507802</v>
+                  <v>0.223856</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.498374</v>
+                  <v>0.214878</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494679</v>
+                  <v>0.206553</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.495527</v>
+                  <v>0.200975</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483948</v>
+                  <v>0.194188</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481365</v>
+                  <v>0.188362</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496964</v>
+                  <v>0.182427</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.492901</v>
+                  <v>0.17682</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.489043</v>
+                  <v>0.171969</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.486233</v>
+                  <v>0.167466</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.664263</v>
+                  <v>0.166872</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.653161</v>
+                  <v>0.166623</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.643571</v>
+                  <v>0.2389</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.63595</v>
+                  <v>0.231233</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.629796</v>
+                  <v>0.222629</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.622012</v>
+                  <v>0.215057</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.619332</v>
+                  <v>0.207065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.615398</v>
+                  <v>0.200438</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.615523</v>
+                  <v>0.193262</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.615955</v>
+                  <v>0.187335</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.622347</v>
+                  <v>0.182132</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631071</v>
+                  <v>0.176589</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.635074</v>
+                  <v>0.173081</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.639845</v>
+                  <v>0.169023</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.852201</v>
+                  <v>0.166908</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.847971</v>
+                  <v>0.166814</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.845392</v>
+                  <v>0.252534</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.8368139999999999</v>
+                  <v>0.244438</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.834033</v>
+                  <v>0.236967</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.841704</v>
+                  <v>0.229011</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.83904</v>
+                  <v>0.220682</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.838568</v>
+                  <v>0.213943</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.839709</v>
+                  <v>0.20784</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.842832</v>
+                  <v>0.20147</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.8481</v>
+                  <v>0.195865</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.858892</v>
+                  <v>0.190898</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.865506</v>
+                  <v>0.186294</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.870801</v>
+                  <v>0.182449</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.883047</v>
+                  <v>0.180164</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.1251</v>
+                  <v>0.179211</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11268</v>
+                  <v>0.268571</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10474</v>
+                  <v>0.263123</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09904</v>
+                  <v>0.255147</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.09986</v>
+                  <v>0.248045</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09551</v>
+                  <v>0.24044</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09076</v>
+                  <v>0.234071</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09524</v>
+                  <v>0.227632</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09316</v>
+                  <v>0.22211</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09388</v>
+                  <v>0.216672</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.0979</v>
+                  <v>0.211883</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10358</v>
+                  <v>0.2085</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.11072</v>
+                  <v>0.204125</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.11523</v>
+                  <v>0.201067</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38026</v>
+                  <v>0.199423</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36735</v>
+                  <v>0.200191</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35413</v>
+                  <v>0.285389</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.34011</v>
+                  <v>0.279535</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33068</v>
+                  <v>0.273237</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32008</v>
+                  <v>0.267652</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.3181</v>
+                  <v>0.26304</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.31133</v>
+                  <v>0.258886</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.2952</v>
+                  <v>0.254448</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30043</v>
+                  <v>0.250205</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.45637</v>
+                  <v>0.24612</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.43621</v>
+                  <v>0.243283</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30867</v>
+                  <v>0.240187</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30653</v>
+                  <v>0.238426</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.581</v>
+                  <v>0.236633</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.56049</v>
+                  <v>0.23708</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53923</v>
+                  <v>0.334836</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.52452</v>
+                  <v>0.329067</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50727</v>
+                  <v>0.323726</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.4928</v>
+                  <v>0.319833</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.4814</v>
+                  <v>0.314732</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46927</v>
+                  <v>0.310756</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.46123</v>
+                  <v>0.307162</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.271192</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.269766</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.261942</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.266898</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.264205</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.261823</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.260876</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.337755</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.32141</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.306307</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.303579</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.295531</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.290788</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.286236</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.27627</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.269827</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.269586</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.261332</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.262818</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.25938</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.25735</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.333717</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.338816</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.31587</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.308427</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.298987</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.294611</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.288183</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.281609</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.27668</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272235</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.267661</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.264742</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.262336</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263208</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347369</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.339619</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.332237</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323095</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315365</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.308467</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.302061</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296349</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.290374</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.285623</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.281956</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.278551</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.276744</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.275847</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.35945</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.352226</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342043</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334021</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.329362</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.3219</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.31556</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.309051</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.303773</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298791</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.29423</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.29061</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.28855</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286849</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288573</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.368444</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.360264</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.351966</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.346137</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.338777</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.33184</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.324914</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.319398</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.313882</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.308808</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.305441</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301947</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.303099</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.303311</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.384061</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.377682</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.372194</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.364102</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360852</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.355225</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.34856</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.34299</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338553</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332812</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329783</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.326459</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.325092</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.32522</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.452238</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.451668</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.447145</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.442183</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.437287</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.432007</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.428233</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.423292</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.418646</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.41523</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.411758</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.409843</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.408188</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.407718</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.566439</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.564304</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.557965</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.551828</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.544925</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.5423289999999999</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.536821</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.533166</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.529174</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.526789</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.52432</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.523133</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.520985</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.520991</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.522709</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.694646</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.688746</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.685202</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.680929</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.678063</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.660381</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.669822</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.66858</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.666127</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.664091</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.662888</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.662808</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.663058</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.664988</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.847299</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.846291</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.845287</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.8449950000000001</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.844019</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.844831</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.844638</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24746</v>
+        <v>0.25186</v>
       </c>
       <c r="C2" t="n">
-        <v>0.572569</v>
+        <v>0.416778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.208007</v>
+        <v>0.208304</v>
       </c>
       <c r="E2" t="n">
-        <v>0.384966</v>
+        <v>0.384434</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245842</v>
+        <v>0.250174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.563985</v>
+        <v>0.411219</v>
       </c>
       <c r="D3" t="n">
-        <v>0.201281</v>
+        <v>0.20182</v>
       </c>
       <c r="E3" t="n">
-        <v>0.378555</v>
+        <v>0.378442</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.238798</v>
+        <v>0.238476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.556924</v>
+        <v>0.404802</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196438</v>
+        <v>0.195358</v>
       </c>
       <c r="E4" t="n">
-        <v>0.37241</v>
+        <v>0.373395</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237421</v>
+        <v>0.234595</v>
       </c>
       <c r="C5" t="n">
-        <v>0.550224</v>
+        <v>0.398405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19173</v>
+        <v>0.191262</v>
       </c>
       <c r="E5" t="n">
-        <v>0.367397</v>
+        <v>0.368485</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235342</v>
+        <v>0.231904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.542894</v>
+        <v>0.39387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.187888</v>
+        <v>0.186718</v>
       </c>
       <c r="E6" t="n">
-        <v>0.363617</v>
+        <v>0.365764</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.233779</v>
+        <v>0.230179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.703745</v>
+        <v>0.390375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.186017</v>
+        <v>0.183867</v>
       </c>
       <c r="E7" t="n">
-        <v>0.360971</v>
+        <v>0.362486</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.23173</v>
+        <v>0.225788</v>
       </c>
       <c r="C8" t="n">
-        <v>0.688708</v>
+        <v>0.389482</v>
       </c>
       <c r="D8" t="n">
-        <v>0.187384</v>
+        <v>0.182971</v>
       </c>
       <c r="E8" t="n">
-        <v>0.361522</v>
+        <v>0.363714</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228604</v>
+        <v>0.226439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.674743</v>
+        <v>0.390062</v>
       </c>
       <c r="D9" t="n">
-        <v>0.277631</v>
+        <v>0.275169</v>
       </c>
       <c r="E9" t="n">
-        <v>0.451037</v>
+        <v>0.451254</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.311409</v>
+        <v>0.316157</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6601900000000001</v>
+        <v>0.47921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.267585</v>
+        <v>0.264365</v>
       </c>
       <c r="E10" t="n">
-        <v>0.439949</v>
+        <v>0.441369</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.301929</v>
+        <v>0.307337</v>
       </c>
       <c r="C11" t="n">
-        <v>0.647882</v>
+        <v>0.469241</v>
       </c>
       <c r="D11" t="n">
-        <v>0.258201</v>
+        <v>0.258436</v>
       </c>
       <c r="E11" t="n">
-        <v>0.431074</v>
+        <v>0.43048</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.29544</v>
+        <v>0.296077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.635525</v>
+        <v>0.460377</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251706</v>
+        <v>0.248255</v>
       </c>
       <c r="E12" t="n">
-        <v>0.421418</v>
+        <v>0.421941</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.285604</v>
+        <v>0.288956</v>
       </c>
       <c r="C13" t="n">
-        <v>0.624993</v>
+        <v>0.450894</v>
       </c>
       <c r="D13" t="n">
-        <v>0.243773</v>
+        <v>0.241404</v>
       </c>
       <c r="E13" t="n">
-        <v>0.412786</v>
+        <v>0.412376</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.278341</v>
+        <v>0.282733</v>
       </c>
       <c r="C14" t="n">
-        <v>0.61483</v>
+        <v>0.442</v>
       </c>
       <c r="D14" t="n">
-        <v>0.236636</v>
+        <v>0.234874</v>
       </c>
       <c r="E14" t="n">
-        <v>0.404568</v>
+        <v>0.404108</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273511</v>
+        <v>0.274966</v>
       </c>
       <c r="C15" t="n">
-        <v>0.605742</v>
+        <v>0.434091</v>
       </c>
       <c r="D15" t="n">
-        <v>0.230692</v>
+        <v>0.228302</v>
       </c>
       <c r="E15" t="n">
-        <v>0.396771</v>
+        <v>0.396795</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.263612</v>
+        <v>0.267898</v>
       </c>
       <c r="C16" t="n">
-        <v>0.599676</v>
+        <v>0.426393</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223682</v>
+        <v>0.22208</v>
       </c>
       <c r="E16" t="n">
-        <v>0.389666</v>
+        <v>0.390754</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.261742</v>
+        <v>0.262198</v>
       </c>
       <c r="C17" t="n">
-        <v>0.592213</v>
+        <v>0.420242</v>
       </c>
       <c r="D17" t="n">
-        <v>0.218593</v>
+        <v>0.216047</v>
       </c>
       <c r="E17" t="n">
-        <v>0.382739</v>
+        <v>0.384305</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253205</v>
+        <v>0.257761</v>
       </c>
       <c r="C18" t="n">
-        <v>0.582179</v>
+        <v>0.415627</v>
       </c>
       <c r="D18" t="n">
-        <v>0.213269</v>
+        <v>0.211156</v>
       </c>
       <c r="E18" t="n">
-        <v>0.376564</v>
+        <v>0.37669</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249137</v>
+        <v>0.25126</v>
       </c>
       <c r="C19" t="n">
-        <v>0.575325</v>
+        <v>0.409332</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209301</v>
+        <v>0.20761</v>
       </c>
       <c r="E19" t="n">
-        <v>0.372805</v>
+        <v>0.373358</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.242685</v>
+        <v>0.252415</v>
       </c>
       <c r="C20" t="n">
-        <v>0.575562</v>
+        <v>0.406382</v>
       </c>
       <c r="D20" t="n">
-        <v>0.205983</v>
+        <v>0.204611</v>
       </c>
       <c r="E20" t="n">
-        <v>0.369031</v>
+        <v>0.369274</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240231</v>
+        <v>0.243672</v>
       </c>
       <c r="C21" t="n">
-        <v>0.76313</v>
+        <v>0.4004</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204762</v>
+        <v>0.202874</v>
       </c>
       <c r="E21" t="n">
-        <v>0.36655</v>
+        <v>0.366608</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.234904</v>
+        <v>0.246857</v>
       </c>
       <c r="C22" t="n">
-        <v>0.748898</v>
+        <v>0.398164</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205653</v>
+        <v>0.204018</v>
       </c>
       <c r="E22" t="n">
-        <v>0.367003</v>
+        <v>0.366444</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237112</v>
+        <v>0.241163</v>
       </c>
       <c r="C23" t="n">
-        <v>0.732822</v>
+        <v>0.398559</v>
       </c>
       <c r="D23" t="n">
-        <v>0.297953</v>
+        <v>0.297345</v>
       </c>
       <c r="E23" t="n">
-        <v>0.462129</v>
+        <v>0.46107</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323506</v>
+        <v>0.323197</v>
       </c>
       <c r="C24" t="n">
-        <v>0.715266</v>
+        <v>0.495274</v>
       </c>
       <c r="D24" t="n">
-        <v>0.286461</v>
+        <v>0.287491</v>
       </c>
       <c r="E24" t="n">
-        <v>0.450854</v>
+        <v>0.450187</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.309046</v>
+        <v>0.314424</v>
       </c>
       <c r="C25" t="n">
-        <v>0.701484</v>
+        <v>0.484527</v>
       </c>
       <c r="D25" t="n">
-        <v>0.279277</v>
+        <v>0.277254</v>
       </c>
       <c r="E25" t="n">
-        <v>0.441213</v>
+        <v>0.44038</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.303709</v>
+        <v>0.304216</v>
       </c>
       <c r="C26" t="n">
-        <v>0.705322</v>
+        <v>0.474459</v>
       </c>
       <c r="D26" t="n">
-        <v>0.26855</v>
+        <v>0.267527</v>
       </c>
       <c r="E26" t="n">
-        <v>0.432024</v>
+        <v>0.431127</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29871</v>
+        <v>0.29879</v>
       </c>
       <c r="C27" t="n">
-        <v>0.686495</v>
+        <v>0.465816</v>
       </c>
       <c r="D27" t="n">
-        <v>0.260226</v>
+        <v>0.260171</v>
       </c>
       <c r="E27" t="n">
-        <v>0.423225</v>
+        <v>0.422403</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.287355</v>
+        <v>0.292793</v>
       </c>
       <c r="C28" t="n">
-        <v>0.668412</v>
+        <v>0.456857</v>
       </c>
       <c r="D28" t="n">
-        <v>0.253073</v>
+        <v>0.251884</v>
       </c>
       <c r="E28" t="n">
-        <v>0.41491</v>
+        <v>0.414113</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281817</v>
+        <v>0.285623</v>
       </c>
       <c r="C29" t="n">
-        <v>0.661492</v>
+        <v>0.448637</v>
       </c>
       <c r="D29" t="n">
-        <v>0.245319</v>
+        <v>0.245271</v>
       </c>
       <c r="E29" t="n">
-        <v>0.407479</v>
+        <v>0.406289</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.270993</v>
+        <v>0.273898</v>
       </c>
       <c r="C30" t="n">
-        <v>0.652199</v>
+        <v>0.440582</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237799</v>
+        <v>0.240107</v>
       </c>
       <c r="E30" t="n">
-        <v>0.400141</v>
+        <v>0.398889</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.266197</v>
+        <v>0.268932</v>
       </c>
       <c r="C31" t="n">
-        <v>0.650814</v>
+        <v>0.433031</v>
       </c>
       <c r="D31" t="n">
-        <v>0.232486</v>
+        <v>0.23182</v>
       </c>
       <c r="E31" t="n">
-        <v>0.393787</v>
+        <v>0.392509</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.258661</v>
+        <v>0.263924</v>
       </c>
       <c r="C32" t="n">
-        <v>0.637468</v>
+        <v>0.427519</v>
       </c>
       <c r="D32" t="n">
-        <v>0.226601</v>
+        <v>0.226321</v>
       </c>
       <c r="E32" t="n">
-        <v>0.387586</v>
+        <v>0.386124</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256839</v>
+        <v>0.259534</v>
       </c>
       <c r="C33" t="n">
-        <v>0.63093</v>
+        <v>0.421506</v>
       </c>
       <c r="D33" t="n">
-        <v>0.222327</v>
+        <v>0.222649</v>
       </c>
       <c r="E33" t="n">
-        <v>0.382508</v>
+        <v>0.38156</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248214</v>
+        <v>0.251048</v>
       </c>
       <c r="C34" t="n">
-        <v>0.621677</v>
+        <v>0.415674</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217913</v>
+        <v>0.217632</v>
       </c>
       <c r="E34" t="n">
-        <v>0.378617</v>
+        <v>0.377356</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248837</v>
+        <v>0.245766</v>
       </c>
       <c r="C35" t="n">
-        <v>0.820228</v>
+        <v>0.411596</v>
       </c>
       <c r="D35" t="n">
-        <v>0.216946</v>
+        <v>0.215135</v>
       </c>
       <c r="E35" t="n">
-        <v>0.375846</v>
+        <v>0.37345</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24316</v>
+        <v>0.24478</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8022899999999999</v>
+        <v>0.408653</v>
       </c>
       <c r="D36" t="n">
-        <v>0.216038</v>
+        <v>0.214586</v>
       </c>
       <c r="E36" t="n">
-        <v>0.375351</v>
+        <v>0.373152</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243111</v>
+        <v>0.242102</v>
       </c>
       <c r="C37" t="n">
-        <v>0.783996</v>
+        <v>0.40694</v>
       </c>
       <c r="D37" t="n">
-        <v>0.309927</v>
+        <v>0.309518</v>
       </c>
       <c r="E37" t="n">
-        <v>0.472982</v>
+        <v>0.471844</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.32455</v>
+        <v>0.326131</v>
       </c>
       <c r="C38" t="n">
-        <v>0.769653</v>
+        <v>0.507282</v>
       </c>
       <c r="D38" t="n">
-        <v>0.300113</v>
+        <v>0.300052</v>
       </c>
       <c r="E38" t="n">
-        <v>0.46341</v>
+        <v>0.461472</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.324085</v>
+        <v>0.318934</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7511060000000001</v>
+        <v>0.497238</v>
       </c>
       <c r="D39" t="n">
-        <v>0.288357</v>
+        <v>0.288647</v>
       </c>
       <c r="E39" t="n">
-        <v>0.453375</v>
+        <v>0.453277</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.308165</v>
+        <v>0.310889</v>
       </c>
       <c r="C40" t="n">
-        <v>0.736531</v>
+        <v>0.488865</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280056</v>
+        <v>0.280777</v>
       </c>
       <c r="E40" t="n">
-        <v>0.444786</v>
+        <v>0.44403</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.306003</v>
+        <v>0.303161</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7306240000000001</v>
+        <v>0.47914</v>
       </c>
       <c r="D41" t="n">
-        <v>0.275562</v>
+        <v>0.273316</v>
       </c>
       <c r="E41" t="n">
-        <v>0.436011</v>
+        <v>0.435932</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294546</v>
+        <v>0.297183</v>
       </c>
       <c r="C42" t="n">
-        <v>0.721451</v>
+        <v>0.470918</v>
       </c>
       <c r="D42" t="n">
-        <v>0.265479</v>
+        <v>0.265573</v>
       </c>
       <c r="E42" t="n">
-        <v>0.427399</v>
+        <v>0.427429</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.284432</v>
+        <v>0.28654</v>
       </c>
       <c r="C43" t="n">
-        <v>0.70175</v>
+        <v>0.464113</v>
       </c>
       <c r="D43" t="n">
-        <v>0.257234</v>
+        <v>0.256631</v>
       </c>
       <c r="E43" t="n">
-        <v>0.420039</v>
+        <v>0.420026</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280239</v>
+        <v>0.27982</v>
       </c>
       <c r="C44" t="n">
-        <v>0.693415</v>
+        <v>0.456678</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249612</v>
+        <v>0.249797</v>
       </c>
       <c r="E44" t="n">
-        <v>0.413059</v>
+        <v>0.412649</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.287873</v>
+        <v>0.277246</v>
       </c>
       <c r="C45" t="n">
-        <v>0.683212</v>
+        <v>0.448844</v>
       </c>
       <c r="D45" t="n">
-        <v>0.242728</v>
+        <v>0.243957</v>
       </c>
       <c r="E45" t="n">
-        <v>0.40589</v>
+        <v>0.405271</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.275456</v>
+        <v>0.26853</v>
       </c>
       <c r="C46" t="n">
-        <v>0.679589</v>
+        <v>0.443686</v>
       </c>
       <c r="D46" t="n">
-        <v>0.237083</v>
+        <v>0.238727</v>
       </c>
       <c r="E46" t="n">
-        <v>0.399508</v>
+        <v>0.399032</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.268847</v>
+        <v>0.264152</v>
       </c>
       <c r="C47" t="n">
-        <v>0.669091</v>
+        <v>0.439291</v>
       </c>
       <c r="D47" t="n">
-        <v>0.232738</v>
+        <v>0.232388</v>
       </c>
       <c r="E47" t="n">
-        <v>0.394241</v>
+        <v>0.393908</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.269412</v>
+        <v>0.261307</v>
       </c>
       <c r="C48" t="n">
-        <v>0.662294</v>
+        <v>0.433769</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227117</v>
+        <v>0.227442</v>
       </c>
       <c r="E48" t="n">
-        <v>0.389784</v>
+        <v>0.389464</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.258319</v>
+        <v>0.254132</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6568929999999999</v>
+        <v>0.429189</v>
       </c>
       <c r="D49" t="n">
-        <v>0.224044</v>
+        <v>0.226085</v>
       </c>
       <c r="E49" t="n">
-        <v>0.386745</v>
+        <v>0.387162</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250365</v>
+        <v>0.252329</v>
       </c>
       <c r="C50" t="n">
-        <v>0.847692</v>
+        <v>0.426752</v>
       </c>
       <c r="D50" t="n">
-        <v>0.223151</v>
+        <v>0.223793</v>
       </c>
       <c r="E50" t="n">
-        <v>0.385248</v>
+        <v>0.385134</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.254275</v>
+        <v>0.249694</v>
       </c>
       <c r="C51" t="n">
-        <v>0.827109</v>
+        <v>0.424109</v>
       </c>
       <c r="D51" t="n">
-        <v>0.324937</v>
+        <v>0.323324</v>
       </c>
       <c r="E51" t="n">
-        <v>0.490878</v>
+        <v>0.487553</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.260711</v>
+        <v>0.254166</v>
       </c>
       <c r="C52" t="n">
-        <v>0.809389</v>
+        <v>0.423936</v>
       </c>
       <c r="D52" t="n">
-        <v>0.313558</v>
+        <v>0.315318</v>
       </c>
       <c r="E52" t="n">
-        <v>0.480495</v>
+        <v>0.478524</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.334551</v>
+        <v>0.341717</v>
       </c>
       <c r="C53" t="n">
-        <v>0.792595</v>
+        <v>0.515647</v>
       </c>
       <c r="D53" t="n">
-        <v>0.305049</v>
+        <v>0.30474</v>
       </c>
       <c r="E53" t="n">
-        <v>0.469685</v>
+        <v>0.469445</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.327943</v>
+        <v>0.327644</v>
       </c>
       <c r="C54" t="n">
-        <v>0.776957</v>
+        <v>0.509727</v>
       </c>
       <c r="D54" t="n">
-        <v>0.296027</v>
+        <v>0.296355</v>
       </c>
       <c r="E54" t="n">
-        <v>0.46116</v>
+        <v>0.460061</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320532</v>
+        <v>0.324861</v>
       </c>
       <c r="C55" t="n">
-        <v>0.763703</v>
+        <v>0.50132</v>
       </c>
       <c r="D55" t="n">
-        <v>0.288583</v>
+        <v>0.287129</v>
       </c>
       <c r="E55" t="n">
-        <v>0.455304</v>
+        <v>0.455333</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.31251</v>
+        <v>0.311713</v>
       </c>
       <c r="C56" t="n">
-        <v>0.751325</v>
+        <v>0.493547</v>
       </c>
       <c r="D56" t="n">
-        <v>0.280285</v>
+        <v>0.279807</v>
       </c>
       <c r="E56" t="n">
-        <v>0.446626</v>
+        <v>0.446386</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.305249</v>
+        <v>0.302448</v>
       </c>
       <c r="C57" t="n">
-        <v>0.738434</v>
+        <v>0.485595</v>
       </c>
       <c r="D57" t="n">
-        <v>0.273775</v>
+        <v>0.273638</v>
       </c>
       <c r="E57" t="n">
-        <v>0.438301</v>
+        <v>0.437354</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.293296</v>
+        <v>0.304252</v>
       </c>
       <c r="C58" t="n">
-        <v>0.728179</v>
+        <v>0.478277</v>
       </c>
       <c r="D58" t="n">
-        <v>0.265667</v>
+        <v>0.265853</v>
       </c>
       <c r="E58" t="n">
-        <v>0.432071</v>
+        <v>0.432875</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.290222</v>
+        <v>0.292328</v>
       </c>
       <c r="C59" t="n">
-        <v>0.718294</v>
+        <v>0.473863</v>
       </c>
       <c r="D59" t="n">
-        <v>0.259601</v>
+        <v>0.259296</v>
       </c>
       <c r="E59" t="n">
-        <v>0.426675</v>
+        <v>0.42656</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.285073</v>
+        <v>0.288033</v>
       </c>
       <c r="C60" t="n">
-        <v>0.710683</v>
+        <v>0.466911</v>
       </c>
       <c r="D60" t="n">
-        <v>0.253181</v>
+        <v>0.254013</v>
       </c>
       <c r="E60" t="n">
-        <v>0.419062</v>
+        <v>0.418188</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276789</v>
+        <v>0.283879</v>
       </c>
       <c r="C61" t="n">
-        <v>0.702599</v>
+        <v>0.461947</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248369</v>
+        <v>0.248261</v>
       </c>
       <c r="E61" t="n">
-        <v>0.414486</v>
+        <v>0.412902</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273757</v>
+        <v>0.279638</v>
       </c>
       <c r="C62" t="n">
-        <v>0.694985</v>
+        <v>0.456661</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244685</v>
+        <v>0.24448</v>
       </c>
       <c r="E62" t="n">
-        <v>0.410468</v>
+        <v>0.409639</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267502</v>
+        <v>0.271981</v>
       </c>
       <c r="C63" t="n">
-        <v>0.68893</v>
+        <v>0.453805</v>
       </c>
       <c r="D63" t="n">
-        <v>0.241279</v>
+        <v>0.240236</v>
       </c>
       <c r="E63" t="n">
-        <v>0.408867</v>
+        <v>0.407921</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.266752</v>
+        <v>0.271693</v>
       </c>
       <c r="C64" t="n">
-        <v>0.911386</v>
+        <v>0.451743</v>
       </c>
       <c r="D64" t="n">
-        <v>0.239316</v>
+        <v>0.238884</v>
       </c>
       <c r="E64" t="n">
-        <v>0.405316</v>
+        <v>0.405802</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263764</v>
+        <v>0.269455</v>
       </c>
       <c r="C65" t="n">
-        <v>0.889114</v>
+        <v>0.449609</v>
       </c>
       <c r="D65" t="n">
-        <v>0.239257</v>
+        <v>0.239813</v>
       </c>
       <c r="E65" t="n">
-        <v>0.405737</v>
+        <v>0.405817</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.268239</v>
+        <v>0.269515</v>
       </c>
       <c r="C66" t="n">
-        <v>0.870455</v>
+        <v>0.449084</v>
       </c>
       <c r="D66" t="n">
-        <v>0.339878</v>
+        <v>0.344083</v>
       </c>
       <c r="E66" t="n">
-        <v>0.520018</v>
+        <v>0.519903</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.409385</v>
+        <v>0.434639</v>
       </c>
       <c r="C67" t="n">
-        <v>0.852128</v>
+        <v>0.595817</v>
       </c>
       <c r="D67" t="n">
-        <v>0.33561</v>
+        <v>0.329283</v>
       </c>
       <c r="E67" t="n">
-        <v>0.513202</v>
+        <v>0.513603</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.394865</v>
+        <v>0.407794</v>
       </c>
       <c r="C68" t="n">
-        <v>0.835134</v>
+        <v>0.588545</v>
       </c>
       <c r="D68" t="n">
-        <v>0.326465</v>
+        <v>0.325165</v>
       </c>
       <c r="E68" t="n">
-        <v>0.506294</v>
+        <v>0.506448</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.400268</v>
+        <v>0.401725</v>
       </c>
       <c r="C69" t="n">
-        <v>0.821289</v>
+        <v>0.581306</v>
       </c>
       <c r="D69" t="n">
-        <v>0.313669</v>
+        <v>0.316745</v>
       </c>
       <c r="E69" t="n">
-        <v>0.498763</v>
+        <v>0.499259</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.373635</v>
+        <v>0.387606</v>
       </c>
       <c r="C70" t="n">
-        <v>0.809322</v>
+        <v>0.574252</v>
       </c>
       <c r="D70" t="n">
-        <v>0.31073</v>
+        <v>0.306584</v>
       </c>
       <c r="E70" t="n">
-        <v>0.491178</v>
+        <v>0.491101</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.393527</v>
+        <v>0.383253</v>
       </c>
       <c r="C71" t="n">
-        <v>0.79893</v>
+        <v>0.568253</v>
       </c>
       <c r="D71" t="n">
-        <v>0.299386</v>
+        <v>0.30121</v>
       </c>
       <c r="E71" t="n">
-        <v>0.48402</v>
+        <v>0.48346</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.382504</v>
+        <v>0.382588</v>
       </c>
       <c r="C72" t="n">
-        <v>0.789945</v>
+        <v>0.560858</v>
       </c>
       <c r="D72" t="n">
-        <v>0.292211</v>
+        <v>0.292437</v>
       </c>
       <c r="E72" t="n">
-        <v>0.477859</v>
+        <v>0.476932</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.367369</v>
+        <v>0.352465</v>
       </c>
       <c r="C73" t="n">
-        <v>0.782614</v>
+        <v>0.5535099999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.286091</v>
+        <v>0.286052</v>
       </c>
       <c r="E73" t="n">
-        <v>0.472535</v>
+        <v>0.470721</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.355583</v>
+        <v>0.379372</v>
       </c>
       <c r="C74" t="n">
-        <v>0.776828</v>
+        <v>0.551924</v>
       </c>
       <c r="D74" t="n">
-        <v>0.281763</v>
+        <v>0.27883</v>
       </c>
       <c r="E74" t="n">
-        <v>0.467217</v>
+        <v>0.465402</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.362248</v>
+        <v>0.349326</v>
       </c>
       <c r="C75" t="n">
-        <v>0.772022</v>
+        <v>0.545512</v>
       </c>
       <c r="D75" t="n">
-        <v>0.273707</v>
+        <v>0.27735</v>
       </c>
       <c r="E75" t="n">
-        <v>0.463184</v>
+        <v>0.460481</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.346023</v>
+        <v>0.351483</v>
       </c>
       <c r="C76" t="n">
-        <v>0.76883</v>
+        <v>0.5425140000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.272409</v>
+        <v>0.270122</v>
       </c>
       <c r="E76" t="n">
-        <v>0.459911</v>
+        <v>0.456514</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.344223</v>
+        <v>0.35556</v>
       </c>
       <c r="C77" t="n">
-        <v>0.76795</v>
+        <v>0.537368</v>
       </c>
       <c r="D77" t="n">
-        <v>0.267323</v>
+        <v>0.26469</v>
       </c>
       <c r="E77" t="n">
-        <v>0.457333</v>
+        <v>0.454082</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.322835</v>
+        <v>0.344663</v>
       </c>
       <c r="C78" t="n">
-        <v>1.23429</v>
+        <v>0.534784</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265919</v>
+        <v>0.263889</v>
       </c>
       <c r="E78" t="n">
-        <v>0.457053</v>
+        <v>0.452587</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.340629</v>
+        <v>0.337561</v>
       </c>
       <c r="C79" t="n">
-        <v>1.2116</v>
+        <v>0.534921</v>
       </c>
       <c r="D79" t="n">
-        <v>0.261055</v>
+        <v>0.263316</v>
       </c>
       <c r="E79" t="n">
-        <v>0.457609</v>
+        <v>0.453041</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.348632</v>
+        <v>0.324562</v>
       </c>
       <c r="C80" t="n">
-        <v>1.19086</v>
+        <v>0.5353560000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.38571</v>
+        <v>0.388505</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7460599999999999</v>
+        <v>0.739565</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.458947</v>
+        <v>0.4359</v>
       </c>
       <c r="C81" t="n">
-        <v>1.17658</v>
+        <v>0.839324</v>
       </c>
       <c r="D81" t="n">
-        <v>0.375413</v>
+        <v>0.384106</v>
       </c>
       <c r="E81" t="n">
-        <v>0.75058</v>
+        <v>0.744771</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.420864</v>
+        <v>0.459083</v>
       </c>
       <c r="C82" t="n">
-        <v>1.16178</v>
+        <v>0.834098</v>
       </c>
       <c r="D82" t="n">
-        <v>0.369326</v>
+        <v>0.370274</v>
       </c>
       <c r="E82" t="n">
-        <v>0.746263</v>
+        <v>0.737762</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.444277</v>
+        <v>0.446925</v>
       </c>
       <c r="C83" t="n">
-        <v>1.14973</v>
+        <v>0.8396169999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.363448</v>
+        <v>0.362329</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7385659999999999</v>
+        <v>0.730479</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.437449</v>
+        <v>0.430661</v>
       </c>
       <c r="C84" t="n">
-        <v>1.1417</v>
+        <v>0.848752</v>
       </c>
       <c r="D84" t="n">
-        <v>0.355929</v>
+        <v>0.358397</v>
       </c>
       <c r="E84" t="n">
-        <v>0.728059</v>
+        <v>0.719098</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.421959</v>
+        <v>0.425694</v>
       </c>
       <c r="C85" t="n">
-        <v>1.13607</v>
+        <v>0.8360880000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.348193</v>
+        <v>0.345545</v>
       </c>
       <c r="E85" t="n">
-        <v>0.716242</v>
+        <v>0.707842</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.453603</v>
+        <v>0.428496</v>
       </c>
       <c r="C86" t="n">
-        <v>1.13368</v>
+        <v>0.823209</v>
       </c>
       <c r="D86" t="n">
-        <v>0.337841</v>
+        <v>0.343045</v>
       </c>
       <c r="E86" t="n">
-        <v>0.701722</v>
+        <v>0.694412</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.421311</v>
+        <v>0.452466</v>
       </c>
       <c r="C87" t="n">
-        <v>1.12933</v>
+        <v>0.812153</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3362</v>
+        <v>0.329603</v>
       </c>
       <c r="E87" t="n">
-        <v>0.68767</v>
+        <v>0.68115</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.413039</v>
+        <v>0.418579</v>
       </c>
       <c r="C88" t="n">
-        <v>1.13265</v>
+        <v>0.8038149999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.329411</v>
+        <v>0.324544</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6750429999999999</v>
+        <v>0.668329</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.409955</v>
+        <v>0.415512</v>
       </c>
       <c r="C89" t="n">
-        <v>1.13927</v>
+        <v>0.7935219999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.322583</v>
+        <v>0.321296</v>
       </c>
       <c r="E89" t="n">
-        <v>0.665717</v>
+        <v>0.6578619999999999</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3867</v>
+        <v>0.422226</v>
       </c>
       <c r="C90" t="n">
-        <v>1.15166</v>
+        <v>0.7780359999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.314814</v>
+        <v>0.316343</v>
       </c>
       <c r="E90" t="n">
-        <v>0.655853</v>
+        <v>0.647497</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.391249</v>
+        <v>0.418105</v>
       </c>
       <c r="C91" t="n">
-        <v>1.1626</v>
+        <v>0.771764</v>
       </c>
       <c r="D91" t="n">
-        <v>0.308667</v>
+        <v>0.311234</v>
       </c>
       <c r="E91" t="n">
-        <v>0.647188</v>
+        <v>0.636415</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.390932</v>
+        <v>0.404169</v>
       </c>
       <c r="C92" t="n">
-        <v>1.72677</v>
+        <v>0.75929</v>
       </c>
       <c r="D92" t="n">
-        <v>0.305917</v>
+        <v>0.307324</v>
       </c>
       <c r="E92" t="n">
-        <v>0.639301</v>
+        <v>0.630609</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.407362</v>
+        <v>0.396663</v>
       </c>
       <c r="C93" t="n">
-        <v>1.7162</v>
+        <v>0.7536310000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.302937</v>
+        <v>0.302817</v>
       </c>
       <c r="E93" t="n">
-        <v>0.633949</v>
+        <v>0.62347</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.364061</v>
+        <v>0.390775</v>
       </c>
       <c r="C94" t="n">
-        <v>1.70258</v>
+        <v>0.745664</v>
       </c>
       <c r="D94" t="n">
-        <v>0.499172</v>
+        <v>0.503539</v>
       </c>
       <c r="E94" t="n">
-        <v>1.12535</v>
+        <v>1.10954</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.600563</v>
+        <v>0.57147</v>
       </c>
       <c r="C95" t="n">
-        <v>1.6862</v>
+        <v>1.14949</v>
       </c>
       <c r="D95" t="n">
-        <v>0.496794</v>
+        <v>0.489683</v>
       </c>
       <c r="E95" t="n">
-        <v>1.12123</v>
+        <v>1.10841</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.58536</v>
+        <v>0.597471</v>
       </c>
       <c r="C96" t="n">
-        <v>1.67728</v>
+        <v>1.15891</v>
       </c>
       <c r="D96" t="n">
-        <v>0.483198</v>
+        <v>0.477058</v>
       </c>
       <c r="E96" t="n">
-        <v>1.10964</v>
+        <v>1.09449</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.571614</v>
+        <v>0.569375</v>
       </c>
       <c r="C97" t="n">
-        <v>1.67177</v>
+        <v>1.13672</v>
       </c>
       <c r="D97" t="n">
-        <v>0.473554</v>
+        <v>0.468123</v>
       </c>
       <c r="E97" t="n">
-        <v>1.09295</v>
+        <v>1.07871</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.564543</v>
+        <v>0.56424</v>
       </c>
       <c r="C98" t="n">
-        <v>1.66319</v>
+        <v>1.12355</v>
       </c>
       <c r="D98" t="n">
-        <v>0.461276</v>
+        <v>0.458747</v>
       </c>
       <c r="E98" t="n">
-        <v>1.07473</v>
+        <v>1.06201</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5514289999999999</v>
+        <v>0.563256</v>
       </c>
       <c r="C99" t="n">
-        <v>1.66208</v>
+        <v>1.10819</v>
       </c>
       <c r="D99" t="n">
-        <v>0.450427</v>
+        <v>0.448783</v>
       </c>
       <c r="E99" t="n">
-        <v>1.05586</v>
+        <v>1.02753</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.549584</v>
+        <v>0.544507</v>
       </c>
       <c r="C100" t="n">
-        <v>1.66014</v>
+        <v>1.10397</v>
       </c>
       <c r="D100" t="n">
-        <v>0.435734</v>
+        <v>0.438145</v>
       </c>
       <c r="E100" t="n">
-        <v>1.03886</v>
+        <v>1.02626</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.549997</v>
+        <v>0.531372</v>
       </c>
       <c r="C101" t="n">
-        <v>1.66373</v>
+        <v>1.09611</v>
       </c>
       <c r="D101" t="n">
-        <v>0.427512</v>
+        <v>0.424398</v>
       </c>
       <c r="E101" t="n">
-        <v>1.02269</v>
+        <v>1.01104</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.53146</v>
+        <v>0.528311</v>
       </c>
       <c r="C102" t="n">
-        <v>1.67078</v>
+        <v>1.07562</v>
       </c>
       <c r="D102" t="n">
-        <v>0.420294</v>
+        <v>0.413955</v>
       </c>
       <c r="E102" t="n">
-        <v>1.00928</v>
+        <v>0.994635</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.535662</v>
+        <v>0.533667</v>
       </c>
       <c r="C103" t="n">
-        <v>1.68159</v>
+        <v>1.05466</v>
       </c>
       <c r="D103" t="n">
-        <v>0.412606</v>
+        <v>0.405889</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9938669999999999</v>
+        <v>0.977931</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.512297</v>
+        <v>0.516246</v>
       </c>
       <c r="C104" t="n">
-        <v>1.69073</v>
+        <v>1.04859</v>
       </c>
       <c r="D104" t="n">
-        <v>0.405501</v>
+        <v>0.400562</v>
       </c>
       <c r="E104" t="n">
-        <v>0.982271</v>
+        <v>0.969199</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5045770000000001</v>
+        <v>0.499138</v>
       </c>
       <c r="C105" t="n">
-        <v>1.70449</v>
+        <v>1.03881</v>
       </c>
       <c r="D105" t="n">
-        <v>0.396216</v>
+        <v>0.391075</v>
       </c>
       <c r="E105" t="n">
-        <v>0.969838</v>
+        <v>0.957693</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.500727</v>
+        <v>0.503169</v>
       </c>
       <c r="C106" t="n">
-        <v>1.72054</v>
+        <v>1.03861</v>
       </c>
       <c r="D106" t="n">
-        <v>0.391054</v>
+        <v>0.387704</v>
       </c>
       <c r="E106" t="n">
-        <v>0.947252</v>
+        <v>0.947781</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.507863</v>
+        <v>0.490138</v>
       </c>
       <c r="C107" t="n">
-        <v>2.30739</v>
+        <v>1.02936</v>
       </c>
       <c r="D107" t="n">
-        <v>0.385303</v>
+        <v>0.385043</v>
       </c>
       <c r="E107" t="n">
-        <v>0.952891</v>
+        <v>0.936488</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.503865</v>
+        <v>0.489618</v>
       </c>
       <c r="C108" t="n">
-        <v>2.27868</v>
+        <v>1.01921</v>
       </c>
       <c r="D108" t="n">
-        <v>0.589538</v>
+        <v>0.576369</v>
       </c>
       <c r="E108" t="n">
-        <v>2.37487</v>
+        <v>2.36054</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.521685</v>
+        <v>0.490734</v>
       </c>
       <c r="C109" t="n">
-        <v>2.25489</v>
+        <v>1.02129</v>
       </c>
       <c r="D109" t="n">
-        <v>0.533147</v>
+        <v>0.572666</v>
       </c>
       <c r="E109" t="n">
-        <v>2.38836</v>
+        <v>2.37311</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7012</v>
+        <v>0.703367</v>
       </c>
       <c r="C110" t="n">
-        <v>2.23346</v>
+        <v>2.56059</v>
       </c>
       <c r="D110" t="n">
-        <v>0.572201</v>
+        <v>0.516425</v>
       </c>
       <c r="E110" t="n">
-        <v>2.388</v>
+        <v>2.38356</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.709764</v>
+        <v>0.650182</v>
       </c>
       <c r="C111" t="n">
-        <v>2.22879</v>
+        <v>2.56512</v>
       </c>
       <c r="D111" t="n">
-        <v>0.558763</v>
+        <v>0.54674</v>
       </c>
       <c r="E111" t="n">
-        <v>2.39056</v>
+        <v>2.3778</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.668815</v>
+        <v>0.670176</v>
       </c>
       <c r="C112" t="n">
-        <v>2.20782</v>
+        <v>2.55173</v>
       </c>
       <c r="D112" t="n">
-        <v>0.503377</v>
+        <v>0.496497</v>
       </c>
       <c r="E112" t="n">
-        <v>2.40176</v>
+        <v>2.37996</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.678231</v>
+        <v>0.667231</v>
       </c>
       <c r="C113" t="n">
-        <v>2.19769</v>
+        <v>2.55163</v>
       </c>
       <c r="D113" t="n">
-        <v>0.535184</v>
+        <v>0.490692</v>
       </c>
       <c r="E113" t="n">
-        <v>2.39587</v>
+        <v>2.38807</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.670232</v>
+        <v>0.655143</v>
       </c>
       <c r="C114" t="n">
-        <v>2.21427</v>
+        <v>2.56923</v>
       </c>
       <c r="D114" t="n">
-        <v>0.488191</v>
+        <v>0.515771</v>
       </c>
       <c r="E114" t="n">
-        <v>2.40172</v>
+        <v>2.38918</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.658902</v>
+        <v>0.646541</v>
       </c>
       <c r="C115" t="n">
-        <v>2.21019</v>
+        <v>2.54814</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5140709999999999</v>
+        <v>0.503792</v>
       </c>
       <c r="E115" t="n">
-        <v>2.39104</v>
+        <v>2.39039</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.626128</v>
+        <v>0.5829299999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>2.23246</v>
+        <v>2.55413</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5045809999999999</v>
+        <v>0.49635</v>
       </c>
       <c r="E116" t="n">
-        <v>2.40167</v>
+        <v>2.39024</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6442329999999999</v>
+        <v>0.625516</v>
       </c>
       <c r="C117" t="n">
-        <v>2.2177</v>
+        <v>2.56847</v>
       </c>
       <c r="D117" t="n">
-        <v>0.494625</v>
+        <v>0.488599</v>
       </c>
       <c r="E117" t="n">
-        <v>2.40886</v>
+        <v>2.39472</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.620441</v>
+        <v>0.612687</v>
       </c>
       <c r="C118" t="n">
-        <v>2.19019</v>
+        <v>2.57325</v>
       </c>
       <c r="D118" t="n">
-        <v>0.45395</v>
+        <v>0.478468</v>
       </c>
       <c r="E118" t="n">
-        <v>2.21892</v>
+        <v>2.40279</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.617777</v>
+        <v>0.604426</v>
       </c>
       <c r="C119" t="n">
-        <v>2.18277</v>
+        <v>2.60162</v>
       </c>
       <c r="D119" t="n">
-        <v>0.44916</v>
+        <v>0.473103</v>
       </c>
       <c r="E119" t="n">
-        <v>2.22158</v>
+        <v>2.40286</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.622027</v>
+        <v>0.57961</v>
       </c>
       <c r="C120" t="n">
-        <v>2.19869</v>
+        <v>2.5801</v>
       </c>
       <c r="D120" t="n">
-        <v>0.442064</v>
+        <v>0.463633</v>
       </c>
       <c r="E120" t="n">
-        <v>2.42764</v>
+        <v>2.41672</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.598081</v>
+        <v>0.598422</v>
       </c>
       <c r="C121" t="n">
-        <v>2.8582</v>
+        <v>2.58539</v>
       </c>
       <c r="D121" t="n">
-        <v>0.43842</v>
+        <v>0.432584</v>
       </c>
       <c r="E121" t="n">
-        <v>2.00517</v>
+        <v>2.41758</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.592025</v>
+        <v>0.596409</v>
       </c>
       <c r="C122" t="n">
-        <v>2.81795</v>
+        <v>2.56943</v>
       </c>
       <c r="D122" t="n">
-        <v>0.438689</v>
+        <v>0.455384</v>
       </c>
       <c r="E122" t="n">
-        <v>2.00867</v>
+        <v>2.42143</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.580934</v>
+        <v>0.565269</v>
       </c>
       <c r="C123" t="n">
-        <v>2.77876</v>
+        <v>2.59071</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6314340000000001</v>
+        <v>0.648486</v>
       </c>
       <c r="E123" t="n">
-        <v>2.90488</v>
+        <v>2.88677</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.777168</v>
+        <v>0.769193</v>
       </c>
       <c r="C124" t="n">
-        <v>2.73675</v>
+        <v>3.12692</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6232</v>
+        <v>0.6399319999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>2.89761</v>
+        <v>2.88093</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7690900000000001</v>
+        <v>0.768539</v>
       </c>
       <c r="C125" t="n">
-        <v>2.7063</v>
+        <v>3.11081</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6355189999999999</v>
+        <v>0.6338780000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>2.88901</v>
+        <v>2.87874</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.746537</v>
+        <v>0.7557120000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>2.68451</v>
+        <v>3.12129</v>
       </c>
       <c r="D126" t="n">
-        <v>0.607087</v>
+        <v>0.603956</v>
       </c>
       <c r="E126" t="n">
-        <v>2.87862</v>
+        <v>2.86937</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.755089</v>
+        <v>0.734692</v>
       </c>
       <c r="C127" t="n">
-        <v>2.66377</v>
+        <v>3.10711</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6009</v>
+        <v>0.598598</v>
       </c>
       <c r="E127" t="n">
-        <v>2.87909</v>
+        <v>2.86504</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.732233</v>
+        <v>0.730007</v>
       </c>
       <c r="C128" t="n">
-        <v>2.63835</v>
+        <v>3.08931</v>
       </c>
       <c r="D128" t="n">
-        <v>0.596723</v>
+        <v>0.611049</v>
       </c>
       <c r="E128" t="n">
-        <v>2.87535</v>
+        <v>2.86867</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.723677</v>
+        <v>0.727443</v>
       </c>
       <c r="C129" t="n">
-        <v>2.62467</v>
+        <v>3.08012</v>
       </c>
       <c r="D129" t="n">
-        <v>0.58875</v>
+        <v>0.586203</v>
       </c>
       <c r="E129" t="n">
-        <v>2.86624</v>
+        <v>2.8572</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.733423</v>
+        <v>0.713055</v>
       </c>
       <c r="C130" t="n">
-        <v>2.60577</v>
+        <v>3.08958</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5832079999999999</v>
+        <v>0.580493</v>
       </c>
       <c r="E130" t="n">
-        <v>2.86248</v>
+        <v>2.84993</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.706091</v>
+        <v>0.706389</v>
       </c>
       <c r="C131" t="n">
-        <v>2.59634</v>
+        <v>3.06903</v>
       </c>
       <c r="D131" t="n">
-        <v>0.578792</v>
+        <v>0.576425</v>
       </c>
       <c r="E131" t="n">
-        <v>2.85972</v>
+        <v>2.85511</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.707856</v>
+        <v>0.719195</v>
       </c>
       <c r="C132" t="n">
-        <v>2.59015</v>
+        <v>3.06406</v>
       </c>
       <c r="D132" t="n">
-        <v>0.573617</v>
+        <v>0.571037</v>
       </c>
       <c r="E132" t="n">
-        <v>2.86592</v>
+        <v>2.85848</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.712125</v>
+        <v>0.6969649999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>2.58406</v>
+        <v>3.06004</v>
       </c>
       <c r="D133" t="n">
-        <v>0.571709</v>
+        <v>0.566775</v>
       </c>
       <c r="E133" t="n">
-        <v>2.86585</v>
+        <v>2.85953</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.701805</v>
+        <v>0.702524</v>
       </c>
       <c r="C134" t="n">
-        <v>2.57826</v>
+        <v>3.05881</v>
       </c>
       <c r="D134" t="n">
-        <v>0.538988</v>
+        <v>0.538489</v>
       </c>
       <c r="E134" t="n">
-        <v>2.63369</v>
+        <v>2.85015</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.694173</v>
+        <v>0.664668</v>
       </c>
       <c r="C135" t="n">
-        <v>3.24911</v>
+        <v>3.04516</v>
       </c>
       <c r="D135" t="n">
-        <v>0.538102</v>
+        <v>0.559951</v>
       </c>
       <c r="E135" t="n">
-        <v>2.39661</v>
+        <v>2.85301</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.677716</v>
+        <v>0.664698</v>
       </c>
       <c r="C136" t="n">
-        <v>3.18844</v>
+        <v>3.02913</v>
       </c>
       <c r="D136" t="n">
-        <v>0.536419</v>
+        <v>0.555061</v>
       </c>
       <c r="E136" t="n">
-        <v>2.86513</v>
+        <v>2.85616</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.689264</v>
+        <v>0.691739</v>
       </c>
       <c r="C137" t="n">
-        <v>3.14047</v>
+        <v>3.05364</v>
       </c>
       <c r="D137" t="n">
-        <v>0.726558</v>
+        <v>0.745637</v>
       </c>
       <c r="E137" t="n">
-        <v>3.32317</v>
+        <v>3.3281</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.876729</v>
+        <v>0.881104</v>
       </c>
       <c r="C138" t="n">
-        <v>3.09845</v>
+        <v>3.54859</v>
       </c>
       <c r="D138" t="n">
-        <v>0.720624</v>
+        <v>0.740367</v>
       </c>
       <c r="E138" t="n">
-        <v>3.31187</v>
+        <v>3.31313</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.838609</v>
+        <v>0.850316</v>
       </c>
       <c r="C139" t="n">
-        <v>3.05493</v>
+        <v>3.52777</v>
       </c>
       <c r="D139" t="n">
-        <v>0.717467</v>
+        <v>0.715433</v>
       </c>
       <c r="E139" t="n">
-        <v>3.30093</v>
+        <v>3.2968</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.850859</v>
+        <v>0.834114</v>
       </c>
       <c r="C140" t="n">
-        <v>3.01252</v>
+        <v>3.50227</v>
       </c>
       <c r="D140" t="n">
-        <v>0.713731</v>
+        <v>0.711883</v>
       </c>
       <c r="E140" t="n">
-        <v>3.28294</v>
+        <v>3.27821</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.843341</v>
+        <v>0.8620100000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>2.98471</v>
+        <v>3.46827</v>
       </c>
       <c r="D141" t="n">
-        <v>0.709314</v>
+        <v>0.724865</v>
       </c>
       <c r="E141" t="n">
-        <v>3.26933</v>
+        <v>3.26269</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.841199</v>
+        <v>0.852785</v>
       </c>
       <c r="C142" t="n">
-        <v>2.9712</v>
+        <v>3.465</v>
       </c>
       <c r="D142" t="n">
-        <v>0.707006</v>
+        <v>0.702468</v>
       </c>
       <c r="E142" t="n">
-        <v>3.25231</v>
+        <v>3.24728</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.845819</v>
+        <v>0.815159</v>
       </c>
       <c r="C143" t="n">
-        <v>2.94593</v>
+        <v>3.46011</v>
       </c>
       <c r="D143" t="n">
-        <v>0.701485</v>
+        <v>0.699667</v>
       </c>
       <c r="E143" t="n">
-        <v>3.23777</v>
+        <v>3.23323</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24746</v>
+        <v>0.247536</v>
       </c>
       <c r="C2" t="n">
-        <v>0.572569</v>
+        <v>0.572087</v>
       </c>
       <c r="D2" t="n">
-        <v>0.208007</v>
+        <v>0.208297</v>
       </c>
       <c r="E2" t="n">
-        <v>0.384966</v>
+        <v>0.385072</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245842</v>
+        <v>0.243731</v>
       </c>
       <c r="C3" t="n">
-        <v>0.563985</v>
+        <v>0.563402</v>
       </c>
       <c r="D3" t="n">
-        <v>0.201281</v>
+        <v>0.202856</v>
       </c>
       <c r="E3" t="n">
-        <v>0.378555</v>
+        <v>0.378378</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.238798</v>
+        <v>0.240042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.556924</v>
+        <v>0.5620540000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196438</v>
+        <v>0.196262</v>
       </c>
       <c r="E4" t="n">
-        <v>0.37241</v>
+        <v>0.372452</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237421</v>
+        <v>0.23303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.550224</v>
+        <v>0.555554</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19173</v>
+        <v>0.191963</v>
       </c>
       <c r="E5" t="n">
-        <v>0.367397</v>
+        <v>0.367874</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235342</v>
+        <v>0.229801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.542894</v>
+        <v>0.550493</v>
       </c>
       <c r="D6" t="n">
-        <v>0.187888</v>
+        <v>0.188414</v>
       </c>
       <c r="E6" t="n">
-        <v>0.363617</v>
+        <v>0.364865</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.233779</v>
+        <v>0.230056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.703745</v>
+        <v>0.711973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.186017</v>
+        <v>0.185379</v>
       </c>
       <c r="E7" t="n">
-        <v>0.360971</v>
+        <v>0.36242</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.23173</v>
+        <v>0.22516</v>
       </c>
       <c r="C8" t="n">
-        <v>0.688708</v>
+        <v>0.6958220000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.187384</v>
+        <v>0.18786</v>
       </c>
       <c r="E8" t="n">
-        <v>0.361522</v>
+        <v>0.361656</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228604</v>
+        <v>0.225943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.674743</v>
+        <v>0.6811120000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.277631</v>
+        <v>0.278722</v>
       </c>
       <c r="E9" t="n">
-        <v>0.451037</v>
+        <v>0.452076</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.311409</v>
+        <v>0.308324</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6601900000000001</v>
+        <v>0.66786</v>
       </c>
       <c r="D10" t="n">
-        <v>0.267585</v>
+        <v>0.269896</v>
       </c>
       <c r="E10" t="n">
-        <v>0.439949</v>
+        <v>0.44043</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.301929</v>
+        <v>0.302757</v>
       </c>
       <c r="C11" t="n">
-        <v>0.647882</v>
+        <v>0.655484</v>
       </c>
       <c r="D11" t="n">
-        <v>0.258201</v>
+        <v>0.258763</v>
       </c>
       <c r="E11" t="n">
-        <v>0.431074</v>
+        <v>0.432655</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.29544</v>
+        <v>0.296461</v>
       </c>
       <c r="C12" t="n">
-        <v>0.635525</v>
+        <v>0.642444</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251706</v>
+        <v>0.252502</v>
       </c>
       <c r="E12" t="n">
-        <v>0.421418</v>
+        <v>0.421535</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.285604</v>
+        <v>0.287914</v>
       </c>
       <c r="C13" t="n">
-        <v>0.624993</v>
+        <v>0.630445</v>
       </c>
       <c r="D13" t="n">
-        <v>0.243773</v>
+        <v>0.245657</v>
       </c>
       <c r="E13" t="n">
-        <v>0.412786</v>
+        <v>0.414254</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.278341</v>
+        <v>0.279311</v>
       </c>
       <c r="C14" t="n">
-        <v>0.61483</v>
+        <v>0.617962</v>
       </c>
       <c r="D14" t="n">
-        <v>0.236636</v>
+        <v>0.23735</v>
       </c>
       <c r="E14" t="n">
-        <v>0.404568</v>
+        <v>0.404547</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273511</v>
+        <v>0.272622</v>
       </c>
       <c r="C15" t="n">
-        <v>0.605742</v>
+        <v>0.625035</v>
       </c>
       <c r="D15" t="n">
-        <v>0.230692</v>
+        <v>0.229576</v>
       </c>
       <c r="E15" t="n">
-        <v>0.396771</v>
+        <v>0.397737</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.263612</v>
+        <v>0.26701</v>
       </c>
       <c r="C16" t="n">
-        <v>0.599676</v>
+        <v>0.623677</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223682</v>
+        <v>0.225015</v>
       </c>
       <c r="E16" t="n">
-        <v>0.389666</v>
+        <v>0.389887</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.261742</v>
+        <v>0.258452</v>
       </c>
       <c r="C17" t="n">
-        <v>0.592213</v>
+        <v>0.601066</v>
       </c>
       <c r="D17" t="n">
-        <v>0.218593</v>
+        <v>0.218535</v>
       </c>
       <c r="E17" t="n">
-        <v>0.382739</v>
+        <v>0.384296</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253205</v>
+        <v>0.25268</v>
       </c>
       <c r="C18" t="n">
-        <v>0.582179</v>
+        <v>0.602579</v>
       </c>
       <c r="D18" t="n">
-        <v>0.213269</v>
+        <v>0.213291</v>
       </c>
       <c r="E18" t="n">
-        <v>0.376564</v>
+        <v>0.377152</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249137</v>
+        <v>0.247432</v>
       </c>
       <c r="C19" t="n">
-        <v>0.575325</v>
+        <v>0.581616</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209301</v>
+        <v>0.208556</v>
       </c>
       <c r="E19" t="n">
-        <v>0.372805</v>
+        <v>0.372796</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.242685</v>
+        <v>0.239079</v>
       </c>
       <c r="C20" t="n">
-        <v>0.575562</v>
+        <v>0.578763</v>
       </c>
       <c r="D20" t="n">
-        <v>0.205983</v>
+        <v>0.20618</v>
       </c>
       <c r="E20" t="n">
-        <v>0.369031</v>
+        <v>0.368705</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240231</v>
+        <v>0.238402</v>
       </c>
       <c r="C21" t="n">
-        <v>0.76313</v>
+        <v>0.765282</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204762</v>
+        <v>0.205504</v>
       </c>
       <c r="E21" t="n">
-        <v>0.36655</v>
+        <v>0.365958</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.234904</v>
+        <v>0.239843</v>
       </c>
       <c r="C22" t="n">
-        <v>0.748898</v>
+        <v>0.748744</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205653</v>
+        <v>0.206208</v>
       </c>
       <c r="E22" t="n">
-        <v>0.367003</v>
+        <v>0.366619</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237112</v>
+        <v>0.241633</v>
       </c>
       <c r="C23" t="n">
-        <v>0.732822</v>
+        <v>0.734525</v>
       </c>
       <c r="D23" t="n">
-        <v>0.297953</v>
+        <v>0.298408</v>
       </c>
       <c r="E23" t="n">
-        <v>0.462129</v>
+        <v>0.462422</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323506</v>
+        <v>0.32104</v>
       </c>
       <c r="C24" t="n">
-        <v>0.715266</v>
+        <v>0.719624</v>
       </c>
       <c r="D24" t="n">
-        <v>0.286461</v>
+        <v>0.291364</v>
       </c>
       <c r="E24" t="n">
-        <v>0.450854</v>
+        <v>0.451647</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.309046</v>
+        <v>0.329041</v>
       </c>
       <c r="C25" t="n">
-        <v>0.701484</v>
+        <v>0.7068410000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.279277</v>
+        <v>0.277388</v>
       </c>
       <c r="E25" t="n">
-        <v>0.441213</v>
+        <v>0.442062</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.303709</v>
+        <v>0.305053</v>
       </c>
       <c r="C26" t="n">
-        <v>0.705322</v>
+        <v>0.70087</v>
       </c>
       <c r="D26" t="n">
-        <v>0.26855</v>
+        <v>0.271351</v>
       </c>
       <c r="E26" t="n">
-        <v>0.432024</v>
+        <v>0.432773</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29871</v>
+        <v>0.29942</v>
       </c>
       <c r="C27" t="n">
-        <v>0.686495</v>
+        <v>0.680444</v>
       </c>
       <c r="D27" t="n">
-        <v>0.260226</v>
+        <v>0.261234</v>
       </c>
       <c r="E27" t="n">
-        <v>0.423225</v>
+        <v>0.425558</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.287355</v>
+        <v>0.300702</v>
       </c>
       <c r="C28" t="n">
-        <v>0.668412</v>
+        <v>0.669619</v>
       </c>
       <c r="D28" t="n">
-        <v>0.253073</v>
+        <v>0.254797</v>
       </c>
       <c r="E28" t="n">
-        <v>0.41491</v>
+        <v>0.415891</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281817</v>
+        <v>0.278284</v>
       </c>
       <c r="C29" t="n">
-        <v>0.661492</v>
+        <v>0.663474</v>
       </c>
       <c r="D29" t="n">
-        <v>0.245319</v>
+        <v>0.245672</v>
       </c>
       <c r="E29" t="n">
-        <v>0.407479</v>
+        <v>0.40822</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.270993</v>
+        <v>0.281556</v>
       </c>
       <c r="C30" t="n">
-        <v>0.652199</v>
+        <v>0.656816</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237799</v>
+        <v>0.239763</v>
       </c>
       <c r="E30" t="n">
-        <v>0.400141</v>
+        <v>0.401192</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.266197</v>
+        <v>0.273334</v>
       </c>
       <c r="C31" t="n">
-        <v>0.650814</v>
+        <v>0.644348</v>
       </c>
       <c r="D31" t="n">
-        <v>0.232486</v>
+        <v>0.232987</v>
       </c>
       <c r="E31" t="n">
-        <v>0.393787</v>
+        <v>0.394134</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.258661</v>
+        <v>0.2655</v>
       </c>
       <c r="C32" t="n">
-        <v>0.637468</v>
+        <v>0.636076</v>
       </c>
       <c r="D32" t="n">
-        <v>0.226601</v>
+        <v>0.229412</v>
       </c>
       <c r="E32" t="n">
-        <v>0.387586</v>
+        <v>0.387957</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256839</v>
+        <v>0.263957</v>
       </c>
       <c r="C33" t="n">
-        <v>0.63093</v>
+        <v>0.636991</v>
       </c>
       <c r="D33" t="n">
-        <v>0.222327</v>
+        <v>0.223471</v>
       </c>
       <c r="E33" t="n">
-        <v>0.382508</v>
+        <v>0.382811</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248214</v>
+        <v>0.255619</v>
       </c>
       <c r="C34" t="n">
-        <v>0.621677</v>
+        <v>0.627337</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217913</v>
+        <v>0.21971</v>
       </c>
       <c r="E34" t="n">
-        <v>0.378617</v>
+        <v>0.379127</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248837</v>
+        <v>0.254386</v>
       </c>
       <c r="C35" t="n">
-        <v>0.820228</v>
+        <v>0.820677</v>
       </c>
       <c r="D35" t="n">
-        <v>0.216946</v>
+        <v>0.217154</v>
       </c>
       <c r="E35" t="n">
-        <v>0.375846</v>
+        <v>0.376399</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24316</v>
+        <v>0.252821</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8022899999999999</v>
+        <v>0.80121</v>
       </c>
       <c r="D36" t="n">
-        <v>0.216038</v>
+        <v>0.216716</v>
       </c>
       <c r="E36" t="n">
-        <v>0.375351</v>
+        <v>0.375442</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243111</v>
+        <v>0.250414</v>
       </c>
       <c r="C37" t="n">
-        <v>0.783996</v>
+        <v>0.783528</v>
       </c>
       <c r="D37" t="n">
-        <v>0.309927</v>
+        <v>0.31064</v>
       </c>
       <c r="E37" t="n">
-        <v>0.472982</v>
+        <v>0.472488</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.32455</v>
+        <v>0.334767</v>
       </c>
       <c r="C38" t="n">
-        <v>0.769653</v>
+        <v>0.769716</v>
       </c>
       <c r="D38" t="n">
-        <v>0.300113</v>
+        <v>0.299614</v>
       </c>
       <c r="E38" t="n">
-        <v>0.46341</v>
+        <v>0.4628</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.324085</v>
+        <v>0.318122</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7511060000000001</v>
+        <v>0.753701</v>
       </c>
       <c r="D39" t="n">
-        <v>0.288357</v>
+        <v>0.289602</v>
       </c>
       <c r="E39" t="n">
-        <v>0.453375</v>
+        <v>0.452761</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.308165</v>
+        <v>0.308988</v>
       </c>
       <c r="C40" t="n">
-        <v>0.736531</v>
+        <v>0.737598</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280056</v>
+        <v>0.280501</v>
       </c>
       <c r="E40" t="n">
-        <v>0.444786</v>
+        <v>0.444147</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.306003</v>
+        <v>0.301303</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7306240000000001</v>
+        <v>0.732146</v>
       </c>
       <c r="D41" t="n">
-        <v>0.275562</v>
+        <v>0.273125</v>
       </c>
       <c r="E41" t="n">
-        <v>0.436011</v>
+        <v>0.435641</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294546</v>
+        <v>0.293092</v>
       </c>
       <c r="C42" t="n">
-        <v>0.721451</v>
+        <v>0.7146169999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.265479</v>
+        <v>0.265668</v>
       </c>
       <c r="E42" t="n">
-        <v>0.427399</v>
+        <v>0.428609</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.284432</v>
+        <v>0.293003</v>
       </c>
       <c r="C43" t="n">
-        <v>0.70175</v>
+        <v>0.701839</v>
       </c>
       <c r="D43" t="n">
-        <v>0.257234</v>
+        <v>0.257018</v>
       </c>
       <c r="E43" t="n">
-        <v>0.420039</v>
+        <v>0.419881</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280239</v>
+        <v>0.282511</v>
       </c>
       <c r="C44" t="n">
-        <v>0.693415</v>
+        <v>0.691347</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249612</v>
+        <v>0.250955</v>
       </c>
       <c r="E44" t="n">
-        <v>0.413059</v>
+        <v>0.412747</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.287873</v>
+        <v>0.273526</v>
       </c>
       <c r="C45" t="n">
-        <v>0.683212</v>
+        <v>0.683169</v>
       </c>
       <c r="D45" t="n">
-        <v>0.242728</v>
+        <v>0.243354</v>
       </c>
       <c r="E45" t="n">
-        <v>0.40589</v>
+        <v>0.406215</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.275456</v>
+        <v>0.266053</v>
       </c>
       <c r="C46" t="n">
-        <v>0.679589</v>
+        <v>0.6773</v>
       </c>
       <c r="D46" t="n">
-        <v>0.237083</v>
+        <v>0.237902</v>
       </c>
       <c r="E46" t="n">
-        <v>0.399508</v>
+        <v>0.399784</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.268847</v>
+        <v>0.268187</v>
       </c>
       <c r="C47" t="n">
-        <v>0.669091</v>
+        <v>0.670189</v>
       </c>
       <c r="D47" t="n">
-        <v>0.232738</v>
+        <v>0.231528</v>
       </c>
       <c r="E47" t="n">
-        <v>0.394241</v>
+        <v>0.394212</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.269412</v>
+        <v>0.260302</v>
       </c>
       <c r="C48" t="n">
-        <v>0.662294</v>
+        <v>0.670019</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227117</v>
+        <v>0.227688</v>
       </c>
       <c r="E48" t="n">
-        <v>0.389784</v>
+        <v>0.389759</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.258319</v>
+        <v>0.25908</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6568929999999999</v>
+        <v>0.65721</v>
       </c>
       <c r="D49" t="n">
-        <v>0.224044</v>
+        <v>0.224957</v>
       </c>
       <c r="E49" t="n">
-        <v>0.386745</v>
+        <v>0.386777</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250365</v>
+        <v>0.249959</v>
       </c>
       <c r="C50" t="n">
-        <v>0.847692</v>
+        <v>0.847211</v>
       </c>
       <c r="D50" t="n">
-        <v>0.223151</v>
+        <v>0.223352</v>
       </c>
       <c r="E50" t="n">
-        <v>0.385248</v>
+        <v>0.385453</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.254275</v>
+        <v>0.254326</v>
       </c>
       <c r="C51" t="n">
-        <v>0.827109</v>
+        <v>0.827487</v>
       </c>
       <c r="D51" t="n">
-        <v>0.324937</v>
+        <v>0.323375</v>
       </c>
       <c r="E51" t="n">
-        <v>0.490878</v>
+        <v>0.488235</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.260711</v>
+        <v>0.251936</v>
       </c>
       <c r="C52" t="n">
-        <v>0.809389</v>
+        <v>0.809738</v>
       </c>
       <c r="D52" t="n">
-        <v>0.313558</v>
+        <v>0.315036</v>
       </c>
       <c r="E52" t="n">
-        <v>0.480495</v>
+        <v>0.478562</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.334551</v>
+        <v>0.343862</v>
       </c>
       <c r="C53" t="n">
-        <v>0.792595</v>
+        <v>0.79303</v>
       </c>
       <c r="D53" t="n">
-        <v>0.305049</v>
+        <v>0.30586</v>
       </c>
       <c r="E53" t="n">
-        <v>0.469685</v>
+        <v>0.469309</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.327943</v>
+        <v>0.328582</v>
       </c>
       <c r="C54" t="n">
-        <v>0.776957</v>
+        <v>0.7773139999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.296027</v>
+        <v>0.296598</v>
       </c>
       <c r="E54" t="n">
-        <v>0.46116</v>
+        <v>0.460198</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320532</v>
+        <v>0.315496</v>
       </c>
       <c r="C55" t="n">
-        <v>0.763703</v>
+        <v>0.763859</v>
       </c>
       <c r="D55" t="n">
-        <v>0.288583</v>
+        <v>0.287061</v>
       </c>
       <c r="E55" t="n">
-        <v>0.455304</v>
+        <v>0.452407</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.31251</v>
+        <v>0.313781</v>
       </c>
       <c r="C56" t="n">
-        <v>0.751325</v>
+        <v>0.751533</v>
       </c>
       <c r="D56" t="n">
-        <v>0.280285</v>
+        <v>0.280199</v>
       </c>
       <c r="E56" t="n">
-        <v>0.446626</v>
+        <v>0.445294</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.305249</v>
+        <v>0.304831</v>
       </c>
       <c r="C57" t="n">
-        <v>0.738434</v>
+        <v>0.742071</v>
       </c>
       <c r="D57" t="n">
-        <v>0.273775</v>
+        <v>0.273735</v>
       </c>
       <c r="E57" t="n">
-        <v>0.438301</v>
+        <v>0.438082</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.293296</v>
+        <v>0.292413</v>
       </c>
       <c r="C58" t="n">
-        <v>0.728179</v>
+        <v>0.728503</v>
       </c>
       <c r="D58" t="n">
-        <v>0.265667</v>
+        <v>0.266608</v>
       </c>
       <c r="E58" t="n">
-        <v>0.432071</v>
+        <v>0.430183</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.290222</v>
+        <v>0.290515</v>
       </c>
       <c r="C59" t="n">
-        <v>0.718294</v>
+        <v>0.718916</v>
       </c>
       <c r="D59" t="n">
-        <v>0.259601</v>
+        <v>0.259857</v>
       </c>
       <c r="E59" t="n">
-        <v>0.426675</v>
+        <v>0.424118</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.285073</v>
+        <v>0.283543</v>
       </c>
       <c r="C60" t="n">
-        <v>0.710683</v>
+        <v>0.710541</v>
       </c>
       <c r="D60" t="n">
-        <v>0.253181</v>
+        <v>0.253613</v>
       </c>
       <c r="E60" t="n">
-        <v>0.419062</v>
+        <v>0.419286</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276789</v>
+        <v>0.277745</v>
       </c>
       <c r="C61" t="n">
-        <v>0.702599</v>
+        <v>0.704164</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248369</v>
+        <v>0.249628</v>
       </c>
       <c r="E61" t="n">
-        <v>0.414486</v>
+        <v>0.41339</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273757</v>
+        <v>0.273439</v>
       </c>
       <c r="C62" t="n">
-        <v>0.694985</v>
+        <v>0.695163</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244685</v>
+        <v>0.243015</v>
       </c>
       <c r="E62" t="n">
-        <v>0.410468</v>
+        <v>0.411306</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267502</v>
+        <v>0.267379</v>
       </c>
       <c r="C63" t="n">
-        <v>0.68893</v>
+        <v>0.689117</v>
       </c>
       <c r="D63" t="n">
-        <v>0.241279</v>
+        <v>0.240509</v>
       </c>
       <c r="E63" t="n">
-        <v>0.408867</v>
+        <v>0.406348</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.266752</v>
+        <v>0.267231</v>
       </c>
       <c r="C64" t="n">
-        <v>0.911386</v>
+        <v>0.911446</v>
       </c>
       <c r="D64" t="n">
-        <v>0.239316</v>
+        <v>0.238571</v>
       </c>
       <c r="E64" t="n">
-        <v>0.405316</v>
+        <v>0.404078</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263764</v>
+        <v>0.265241</v>
       </c>
       <c r="C65" t="n">
-        <v>0.889114</v>
+        <v>0.889406</v>
       </c>
       <c r="D65" t="n">
-        <v>0.239257</v>
+        <v>0.238448</v>
       </c>
       <c r="E65" t="n">
-        <v>0.405737</v>
+        <v>0.405094</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.268239</v>
+        <v>0.268804</v>
       </c>
       <c r="C66" t="n">
-        <v>0.870455</v>
+        <v>0.869702</v>
       </c>
       <c r="D66" t="n">
-        <v>0.339878</v>
+        <v>0.33868</v>
       </c>
       <c r="E66" t="n">
-        <v>0.520018</v>
+        <v>0.521276</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.409385</v>
+        <v>0.408425</v>
       </c>
       <c r="C67" t="n">
-        <v>0.852128</v>
+        <v>0.851839</v>
       </c>
       <c r="D67" t="n">
-        <v>0.33561</v>
+        <v>0.333737</v>
       </c>
       <c r="E67" t="n">
-        <v>0.513202</v>
+        <v>0.514891</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.394865</v>
+        <v>0.39354</v>
       </c>
       <c r="C68" t="n">
-        <v>0.835134</v>
+        <v>0.835349</v>
       </c>
       <c r="D68" t="n">
-        <v>0.326465</v>
+        <v>0.32175</v>
       </c>
       <c r="E68" t="n">
-        <v>0.506294</v>
+        <v>0.508007</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.400268</v>
+        <v>0.410669</v>
       </c>
       <c r="C69" t="n">
-        <v>0.821289</v>
+        <v>0.823223</v>
       </c>
       <c r="D69" t="n">
-        <v>0.313669</v>
+        <v>0.31441</v>
       </c>
       <c r="E69" t="n">
-        <v>0.498763</v>
+        <v>0.500825</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.373635</v>
+        <v>0.378806</v>
       </c>
       <c r="C70" t="n">
-        <v>0.809322</v>
+        <v>0.809603</v>
       </c>
       <c r="D70" t="n">
-        <v>0.31073</v>
+        <v>0.305416</v>
       </c>
       <c r="E70" t="n">
-        <v>0.491178</v>
+        <v>0.493566</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.393527</v>
+        <v>0.372184</v>
       </c>
       <c r="C71" t="n">
-        <v>0.79893</v>
+        <v>0.799809</v>
       </c>
       <c r="D71" t="n">
-        <v>0.299386</v>
+        <v>0.298057</v>
       </c>
       <c r="E71" t="n">
-        <v>0.48402</v>
+        <v>0.485887</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.382504</v>
+        <v>0.379807</v>
       </c>
       <c r="C72" t="n">
-        <v>0.789945</v>
+        <v>0.79061</v>
       </c>
       <c r="D72" t="n">
-        <v>0.292211</v>
+        <v>0.29142</v>
       </c>
       <c r="E72" t="n">
-        <v>0.477859</v>
+        <v>0.479426</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.367369</v>
+        <v>0.374926</v>
       </c>
       <c r="C73" t="n">
-        <v>0.782614</v>
+        <v>0.782612</v>
       </c>
       <c r="D73" t="n">
-        <v>0.286091</v>
+        <v>0.289135</v>
       </c>
       <c r="E73" t="n">
-        <v>0.472535</v>
+        <v>0.474148</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.355583</v>
+        <v>0.371014</v>
       </c>
       <c r="C74" t="n">
-        <v>0.776828</v>
+        <v>0.777469</v>
       </c>
       <c r="D74" t="n">
-        <v>0.281763</v>
+        <v>0.282559</v>
       </c>
       <c r="E74" t="n">
-        <v>0.467217</v>
+        <v>0.469131</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.362248</v>
+        <v>0.360621</v>
       </c>
       <c r="C75" t="n">
-        <v>0.772022</v>
+        <v>0.774609</v>
       </c>
       <c r="D75" t="n">
-        <v>0.273707</v>
+        <v>0.273662</v>
       </c>
       <c r="E75" t="n">
-        <v>0.463184</v>
+        <v>0.46442</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.346023</v>
+        <v>0.355292</v>
       </c>
       <c r="C76" t="n">
-        <v>0.76883</v>
+        <v>0.7723640000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.272409</v>
+        <v>0.274058</v>
       </c>
       <c r="E76" t="n">
-        <v>0.459911</v>
+        <v>0.460677</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.344223</v>
+        <v>0.330528</v>
       </c>
       <c r="C77" t="n">
-        <v>0.76795</v>
+        <v>0.771096</v>
       </c>
       <c r="D77" t="n">
-        <v>0.267323</v>
+        <v>0.265617</v>
       </c>
       <c r="E77" t="n">
-        <v>0.457333</v>
+        <v>0.458213</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.322835</v>
+        <v>0.320942</v>
       </c>
       <c r="C78" t="n">
-        <v>1.23429</v>
+        <v>1.23644</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265919</v>
+        <v>0.262807</v>
       </c>
       <c r="E78" t="n">
-        <v>0.457053</v>
+        <v>0.457112</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.340629</v>
+        <v>0.338748</v>
       </c>
       <c r="C79" t="n">
-        <v>1.2116</v>
+        <v>1.21397</v>
       </c>
       <c r="D79" t="n">
-        <v>0.261055</v>
+        <v>0.261751</v>
       </c>
       <c r="E79" t="n">
-        <v>0.457609</v>
+        <v>0.457489</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.348632</v>
+        <v>0.334892</v>
       </c>
       <c r="C80" t="n">
-        <v>1.19086</v>
+        <v>1.19377</v>
       </c>
       <c r="D80" t="n">
-        <v>0.38571</v>
+        <v>0.385924</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7460599999999999</v>
+        <v>0.748204</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.458947</v>
+        <v>0.433336</v>
       </c>
       <c r="C81" t="n">
-        <v>1.17658</v>
+        <v>1.17524</v>
       </c>
       <c r="D81" t="n">
-        <v>0.375413</v>
+        <v>0.382614</v>
       </c>
       <c r="E81" t="n">
-        <v>0.75058</v>
+        <v>0.750241</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.420864</v>
+        <v>0.423358</v>
       </c>
       <c r="C82" t="n">
-        <v>1.16178</v>
+        <v>1.16104</v>
       </c>
       <c r="D82" t="n">
-        <v>0.369326</v>
+        <v>0.373085</v>
       </c>
       <c r="E82" t="n">
-        <v>0.746263</v>
+        <v>0.746774</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.444277</v>
+        <v>0.447212</v>
       </c>
       <c r="C83" t="n">
-        <v>1.14973</v>
+        <v>1.14864</v>
       </c>
       <c r="D83" t="n">
-        <v>0.363448</v>
+        <v>0.365518</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7385659999999999</v>
+        <v>0.740058</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.437449</v>
+        <v>0.426488</v>
       </c>
       <c r="C84" t="n">
-        <v>1.1417</v>
+        <v>1.14469</v>
       </c>
       <c r="D84" t="n">
-        <v>0.355929</v>
+        <v>0.352739</v>
       </c>
       <c r="E84" t="n">
-        <v>0.728059</v>
+        <v>0.731506</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.421959</v>
+        <v>0.421894</v>
       </c>
       <c r="C85" t="n">
-        <v>1.13607</v>
+        <v>1.13949</v>
       </c>
       <c r="D85" t="n">
-        <v>0.348193</v>
+        <v>0.349847</v>
       </c>
       <c r="E85" t="n">
-        <v>0.716242</v>
+        <v>0.718654</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.453603</v>
+        <v>0.454457</v>
       </c>
       <c r="C86" t="n">
-        <v>1.13368</v>
+        <v>1.13527</v>
       </c>
       <c r="D86" t="n">
-        <v>0.337841</v>
+        <v>0.338979</v>
       </c>
       <c r="E86" t="n">
-        <v>0.701722</v>
+        <v>0.704993</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.421311</v>
+        <v>0.423131</v>
       </c>
       <c r="C87" t="n">
-        <v>1.12933</v>
+        <v>1.13733</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3362</v>
+        <v>0.337509</v>
       </c>
       <c r="E87" t="n">
-        <v>0.68767</v>
+        <v>0.690613</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.413039</v>
+        <v>0.414397</v>
       </c>
       <c r="C88" t="n">
-        <v>1.13265</v>
+        <v>1.1418</v>
       </c>
       <c r="D88" t="n">
-        <v>0.329411</v>
+        <v>0.329768</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6750429999999999</v>
+        <v>0.678664</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.409955</v>
+        <v>0.412858</v>
       </c>
       <c r="C89" t="n">
-        <v>1.13927</v>
+        <v>1.14612</v>
       </c>
       <c r="D89" t="n">
-        <v>0.322583</v>
+        <v>0.323388</v>
       </c>
       <c r="E89" t="n">
-        <v>0.665717</v>
+        <v>0.666643</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3867</v>
+        <v>0.388246</v>
       </c>
       <c r="C90" t="n">
-        <v>1.15166</v>
+        <v>1.15207</v>
       </c>
       <c r="D90" t="n">
-        <v>0.314814</v>
+        <v>0.315729</v>
       </c>
       <c r="E90" t="n">
-        <v>0.655853</v>
+        <v>0.654688</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.391249</v>
+        <v>0.393282</v>
       </c>
       <c r="C91" t="n">
-        <v>1.1626</v>
+        <v>1.1577</v>
       </c>
       <c r="D91" t="n">
-        <v>0.308667</v>
+        <v>0.30998</v>
       </c>
       <c r="E91" t="n">
-        <v>0.647188</v>
+        <v>0.646777</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.390932</v>
+        <v>0.391612</v>
       </c>
       <c r="C92" t="n">
-        <v>1.72677</v>
+        <v>1.72802</v>
       </c>
       <c r="D92" t="n">
-        <v>0.305917</v>
+        <v>0.306618</v>
       </c>
       <c r="E92" t="n">
-        <v>0.639301</v>
+        <v>0.638265</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.407362</v>
+        <v>0.409312</v>
       </c>
       <c r="C93" t="n">
-        <v>1.7162</v>
+        <v>1.72499</v>
       </c>
       <c r="D93" t="n">
-        <v>0.302937</v>
+        <v>0.304631</v>
       </c>
       <c r="E93" t="n">
-        <v>0.633949</v>
+        <v>0.635722</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.364061</v>
+        <v>0.36533</v>
       </c>
       <c r="C94" t="n">
-        <v>1.70258</v>
+        <v>1.70961</v>
       </c>
       <c r="D94" t="n">
-        <v>0.499172</v>
+        <v>0.489715</v>
       </c>
       <c r="E94" t="n">
-        <v>1.12535</v>
+        <v>1.11782</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.600563</v>
+        <v>0.589069</v>
       </c>
       <c r="C95" t="n">
-        <v>1.6862</v>
+        <v>1.69895</v>
       </c>
       <c r="D95" t="n">
-        <v>0.496794</v>
+        <v>0.487534</v>
       </c>
       <c r="E95" t="n">
-        <v>1.12123</v>
+        <v>1.11392</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.58536</v>
+        <v>0.574952</v>
       </c>
       <c r="C96" t="n">
-        <v>1.67728</v>
+        <v>1.68886</v>
       </c>
       <c r="D96" t="n">
-        <v>0.483198</v>
+        <v>0.474174</v>
       </c>
       <c r="E96" t="n">
-        <v>1.10964</v>
+        <v>1.10289</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.571614</v>
+        <v>0.560232</v>
       </c>
       <c r="C97" t="n">
-        <v>1.67177</v>
+        <v>1.67492</v>
       </c>
       <c r="D97" t="n">
-        <v>0.473554</v>
+        <v>0.464669</v>
       </c>
       <c r="E97" t="n">
-        <v>1.09295</v>
+        <v>1.08762</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.564543</v>
+        <v>0.555872</v>
       </c>
       <c r="C98" t="n">
-        <v>1.66319</v>
+        <v>1.67169</v>
       </c>
       <c r="D98" t="n">
-        <v>0.461276</v>
+        <v>0.453452</v>
       </c>
       <c r="E98" t="n">
-        <v>1.07473</v>
+        <v>1.0693</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5514289999999999</v>
+        <v>0.54304</v>
       </c>
       <c r="C99" t="n">
-        <v>1.66208</v>
+        <v>1.66848</v>
       </c>
       <c r="D99" t="n">
-        <v>0.450427</v>
+        <v>0.442078</v>
       </c>
       <c r="E99" t="n">
-        <v>1.05586</v>
+        <v>1.05316</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.549584</v>
+        <v>0.541683</v>
       </c>
       <c r="C100" t="n">
-        <v>1.66014</v>
+        <v>1.66935</v>
       </c>
       <c r="D100" t="n">
-        <v>0.435734</v>
+        <v>0.428046</v>
       </c>
       <c r="E100" t="n">
-        <v>1.03886</v>
+        <v>1.03512</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.549997</v>
+        <v>0.542766</v>
       </c>
       <c r="C101" t="n">
-        <v>1.66373</v>
+        <v>1.67115</v>
       </c>
       <c r="D101" t="n">
-        <v>0.427512</v>
+        <v>0.421485</v>
       </c>
       <c r="E101" t="n">
-        <v>1.02269</v>
+        <v>1.01829</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.53146</v>
+        <v>0.524874</v>
       </c>
       <c r="C102" t="n">
-        <v>1.67078</v>
+        <v>1.68121</v>
       </c>
       <c r="D102" t="n">
-        <v>0.420294</v>
+        <v>0.410786</v>
       </c>
       <c r="E102" t="n">
-        <v>1.00928</v>
+        <v>1.002</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.535662</v>
+        <v>0.530067</v>
       </c>
       <c r="C103" t="n">
-        <v>1.68159</v>
+        <v>1.6852</v>
       </c>
       <c r="D103" t="n">
-        <v>0.412606</v>
+        <v>0.405521</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9938669999999999</v>
+        <v>0.986893</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.512297</v>
+        <v>0.506152</v>
       </c>
       <c r="C104" t="n">
-        <v>1.69073</v>
+        <v>1.69547</v>
       </c>
       <c r="D104" t="n">
-        <v>0.405501</v>
+        <v>0.397903</v>
       </c>
       <c r="E104" t="n">
-        <v>0.982271</v>
+        <v>0.974017</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5045770000000001</v>
+        <v>0.499209</v>
       </c>
       <c r="C105" t="n">
-        <v>1.70449</v>
+        <v>1.70479</v>
       </c>
       <c r="D105" t="n">
-        <v>0.396216</v>
+        <v>0.389555</v>
       </c>
       <c r="E105" t="n">
-        <v>0.969838</v>
+        <v>0.961461</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.500727</v>
+        <v>0.495265</v>
       </c>
       <c r="C106" t="n">
-        <v>1.72054</v>
+        <v>1.72719</v>
       </c>
       <c r="D106" t="n">
-        <v>0.391054</v>
+        <v>0.384458</v>
       </c>
       <c r="E106" t="n">
-        <v>0.947252</v>
+        <v>0.939837</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.507863</v>
+        <v>0.503323</v>
       </c>
       <c r="C107" t="n">
-        <v>2.30739</v>
+        <v>2.32185</v>
       </c>
       <c r="D107" t="n">
-        <v>0.385303</v>
+        <v>0.379184</v>
       </c>
       <c r="E107" t="n">
-        <v>0.952891</v>
+        <v>0.944511</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.503865</v>
+        <v>0.5006350000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>2.27868</v>
+        <v>2.29191</v>
       </c>
       <c r="D108" t="n">
-        <v>0.589538</v>
+        <v>0.569561</v>
       </c>
       <c r="E108" t="n">
-        <v>2.37487</v>
+        <v>2.38152</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.521685</v>
+        <v>0.517016</v>
       </c>
       <c r="C109" t="n">
-        <v>2.25489</v>
+        <v>2.26848</v>
       </c>
       <c r="D109" t="n">
-        <v>0.533147</v>
+        <v>0.522913</v>
       </c>
       <c r="E109" t="n">
-        <v>2.38836</v>
+        <v>2.39606</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7012</v>
+        <v>0.6851429999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>2.23346</v>
+        <v>2.24993</v>
       </c>
       <c r="D110" t="n">
-        <v>0.572201</v>
+        <v>0.5535870000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>2.388</v>
+        <v>2.39419</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.709764</v>
+        <v>0.694479</v>
       </c>
       <c r="C111" t="n">
-        <v>2.22879</v>
+        <v>2.23723</v>
       </c>
       <c r="D111" t="n">
-        <v>0.558763</v>
+        <v>0.539808</v>
       </c>
       <c r="E111" t="n">
-        <v>2.39056</v>
+        <v>2.39509</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.668815</v>
+        <v>0.659903</v>
       </c>
       <c r="C112" t="n">
-        <v>2.20782</v>
+        <v>2.2174</v>
       </c>
       <c r="D112" t="n">
-        <v>0.503377</v>
+        <v>0.492527</v>
       </c>
       <c r="E112" t="n">
-        <v>2.40176</v>
+        <v>2.40956</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.678231</v>
+        <v>0.66346</v>
       </c>
       <c r="C113" t="n">
-        <v>2.19769</v>
+        <v>2.20592</v>
       </c>
       <c r="D113" t="n">
-        <v>0.535184</v>
+        <v>0.519699</v>
       </c>
       <c r="E113" t="n">
-        <v>2.39587</v>
+        <v>2.39366</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.670232</v>
+        <v>0.656551</v>
       </c>
       <c r="C114" t="n">
-        <v>2.21427</v>
+        <v>2.21972</v>
       </c>
       <c r="D114" t="n">
-        <v>0.488191</v>
+        <v>0.479773</v>
       </c>
       <c r="E114" t="n">
-        <v>2.40172</v>
+        <v>2.40552</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.658902</v>
+        <v>0.644236</v>
       </c>
       <c r="C115" t="n">
-        <v>2.21019</v>
+        <v>2.22339</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5140709999999999</v>
+        <v>0.498282</v>
       </c>
       <c r="E115" t="n">
-        <v>2.39104</v>
+        <v>2.39558</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.626128</v>
+        <v>0.619096</v>
       </c>
       <c r="C116" t="n">
-        <v>2.23246</v>
+        <v>2.237</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5045809999999999</v>
+        <v>0.49285</v>
       </c>
       <c r="E116" t="n">
-        <v>2.40167</v>
+        <v>2.40482</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6442329999999999</v>
+        <v>0.633195</v>
       </c>
       <c r="C117" t="n">
-        <v>2.2177</v>
+        <v>2.22273</v>
       </c>
       <c r="D117" t="n">
-        <v>0.494625</v>
+        <v>0.481387</v>
       </c>
       <c r="E117" t="n">
-        <v>2.40886</v>
+        <v>2.4047</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.620441</v>
+        <v>0.609941</v>
       </c>
       <c r="C118" t="n">
-        <v>2.19019</v>
+        <v>2.18981</v>
       </c>
       <c r="D118" t="n">
-        <v>0.45395</v>
+        <v>0.446001</v>
       </c>
       <c r="E118" t="n">
-        <v>2.21892</v>
+        <v>2.2125</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.617777</v>
+        <v>0.609556</v>
       </c>
       <c r="C119" t="n">
-        <v>2.18277</v>
+        <v>2.18825</v>
       </c>
       <c r="D119" t="n">
-        <v>0.44916</v>
+        <v>0.441511</v>
       </c>
       <c r="E119" t="n">
-        <v>2.22158</v>
+        <v>2.21537</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.622027</v>
+        <v>0.61277</v>
       </c>
       <c r="C120" t="n">
-        <v>2.19869</v>
+        <v>2.20338</v>
       </c>
       <c r="D120" t="n">
-        <v>0.442064</v>
+        <v>0.43433</v>
       </c>
       <c r="E120" t="n">
-        <v>2.42764</v>
+        <v>2.4381</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.598081</v>
+        <v>0.593959</v>
       </c>
       <c r="C121" t="n">
-        <v>2.8582</v>
+        <v>2.86353</v>
       </c>
       <c r="D121" t="n">
-        <v>0.43842</v>
+        <v>0.428667</v>
       </c>
       <c r="E121" t="n">
-        <v>2.00517</v>
+        <v>2.00493</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.592025</v>
+        <v>0.582552</v>
       </c>
       <c r="C122" t="n">
-        <v>2.81795</v>
+        <v>2.83217</v>
       </c>
       <c r="D122" t="n">
-        <v>0.438689</v>
+        <v>0.432744</v>
       </c>
       <c r="E122" t="n">
-        <v>2.00867</v>
+        <v>2.01081</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.580934</v>
+        <v>0.577087</v>
       </c>
       <c r="C123" t="n">
-        <v>2.77876</v>
+        <v>2.77442</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6314340000000001</v>
+        <v>0.616001</v>
       </c>
       <c r="E123" t="n">
-        <v>2.90488</v>
+        <v>2.90191</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.777168</v>
+        <v>0.764056</v>
       </c>
       <c r="C124" t="n">
-        <v>2.73675</v>
+        <v>2.73854</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6232</v>
+        <v>0.611524</v>
       </c>
       <c r="E124" t="n">
-        <v>2.89761</v>
+        <v>2.89799</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7690900000000001</v>
+        <v>0.759313</v>
       </c>
       <c r="C125" t="n">
-        <v>2.7063</v>
+        <v>2.71309</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6355189999999999</v>
+        <v>0.615011</v>
       </c>
       <c r="E125" t="n">
-        <v>2.88901</v>
+        <v>2.89537</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.746537</v>
+        <v>0.73911</v>
       </c>
       <c r="C126" t="n">
-        <v>2.68451</v>
+        <v>2.68989</v>
       </c>
       <c r="D126" t="n">
-        <v>0.607087</v>
+        <v>0.597591</v>
       </c>
       <c r="E126" t="n">
-        <v>2.87862</v>
+        <v>2.88949</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.755089</v>
+        <v>0.749789</v>
       </c>
       <c r="C127" t="n">
-        <v>2.66377</v>
+        <v>2.66477</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6009</v>
+        <v>0.59001</v>
       </c>
       <c r="E127" t="n">
-        <v>2.87909</v>
+        <v>2.88073</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.732233</v>
+        <v>0.723776</v>
       </c>
       <c r="C128" t="n">
-        <v>2.63835</v>
+        <v>2.64719</v>
       </c>
       <c r="D128" t="n">
-        <v>0.596723</v>
+        <v>0.585346</v>
       </c>
       <c r="E128" t="n">
-        <v>2.87535</v>
+        <v>2.8783</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.723677</v>
+        <v>0.710474</v>
       </c>
       <c r="C129" t="n">
-        <v>2.62467</v>
+        <v>2.62985</v>
       </c>
       <c r="D129" t="n">
-        <v>0.58875</v>
+        <v>0.577938</v>
       </c>
       <c r="E129" t="n">
-        <v>2.86624</v>
+        <v>2.87384</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.733423</v>
+        <v>0.7208059999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>2.60577</v>
+        <v>2.6244</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5832079999999999</v>
+        <v>0.571183</v>
       </c>
       <c r="E130" t="n">
-        <v>2.86248</v>
+        <v>2.868</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.706091</v>
+        <v>0.69965</v>
       </c>
       <c r="C131" t="n">
-        <v>2.59634</v>
+        <v>2.60565</v>
       </c>
       <c r="D131" t="n">
-        <v>0.578792</v>
+        <v>0.570909</v>
       </c>
       <c r="E131" t="n">
-        <v>2.85972</v>
+        <v>2.86957</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.707856</v>
+        <v>0.701552</v>
       </c>
       <c r="C132" t="n">
-        <v>2.59015</v>
+        <v>2.59752</v>
       </c>
       <c r="D132" t="n">
-        <v>0.573617</v>
+        <v>0.565025</v>
       </c>
       <c r="E132" t="n">
-        <v>2.86592</v>
+        <v>2.86886</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.712125</v>
+        <v>0.707127</v>
       </c>
       <c r="C133" t="n">
-        <v>2.58406</v>
+        <v>2.59292</v>
       </c>
       <c r="D133" t="n">
-        <v>0.571709</v>
+        <v>0.55806</v>
       </c>
       <c r="E133" t="n">
-        <v>2.86585</v>
+        <v>2.87171</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.701805</v>
+        <v>0.695711</v>
       </c>
       <c r="C134" t="n">
-        <v>2.57826</v>
+        <v>2.58243</v>
       </c>
       <c r="D134" t="n">
-        <v>0.538988</v>
+        <v>0.530495</v>
       </c>
       <c r="E134" t="n">
-        <v>2.63369</v>
+        <v>2.63726</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.694173</v>
+        <v>0.689142</v>
       </c>
       <c r="C135" t="n">
-        <v>3.24911</v>
+        <v>3.2654</v>
       </c>
       <c r="D135" t="n">
-        <v>0.538102</v>
+        <v>0.537283</v>
       </c>
       <c r="E135" t="n">
-        <v>2.39661</v>
+        <v>2.40099</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.677716</v>
+        <v>0.677196</v>
       </c>
       <c r="C136" t="n">
-        <v>3.18844</v>
+        <v>3.20859</v>
       </c>
       <c r="D136" t="n">
-        <v>0.536419</v>
+        <v>0.533674</v>
       </c>
       <c r="E136" t="n">
-        <v>2.86513</v>
+        <v>2.87715</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.689264</v>
+        <v>0.683355</v>
       </c>
       <c r="C137" t="n">
-        <v>3.14047</v>
+        <v>3.15593</v>
       </c>
       <c r="D137" t="n">
-        <v>0.726558</v>
+        <v>0.719311</v>
       </c>
       <c r="E137" t="n">
-        <v>3.32317</v>
+        <v>3.33574</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.876729</v>
+        <v>0.865462</v>
       </c>
       <c r="C138" t="n">
-        <v>3.09845</v>
+        <v>3.11268</v>
       </c>
       <c r="D138" t="n">
-        <v>0.720624</v>
+        <v>0.712194</v>
       </c>
       <c r="E138" t="n">
-        <v>3.31187</v>
+        <v>3.32641</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.838609</v>
+        <v>0.833139</v>
       </c>
       <c r="C139" t="n">
-        <v>3.05493</v>
+        <v>3.06911</v>
       </c>
       <c r="D139" t="n">
-        <v>0.717467</v>
+        <v>0.710128</v>
       </c>
       <c r="E139" t="n">
-        <v>3.30093</v>
+        <v>3.31142</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.850859</v>
+        <v>0.84312</v>
       </c>
       <c r="C140" t="n">
-        <v>3.01252</v>
+        <v>3.03672</v>
       </c>
       <c r="D140" t="n">
-        <v>0.713731</v>
+        <v>0.705078</v>
       </c>
       <c r="E140" t="n">
-        <v>3.28294</v>
+        <v>3.28882</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.843341</v>
+        <v>0.838792</v>
       </c>
       <c r="C141" t="n">
-        <v>2.98471</v>
+        <v>3.00005</v>
       </c>
       <c r="D141" t="n">
-        <v>0.709314</v>
+        <v>0.701628</v>
       </c>
       <c r="E141" t="n">
-        <v>3.26933</v>
+        <v>3.27995</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.841199</v>
+        <v>0.835867</v>
       </c>
       <c r="C142" t="n">
-        <v>2.9712</v>
+        <v>2.98161</v>
       </c>
       <c r="D142" t="n">
-        <v>0.707006</v>
+        <v>0.696323</v>
       </c>
       <c r="E142" t="n">
-        <v>3.25231</v>
+        <v>3.26483</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.845819</v>
+        <v>0.840564</v>
       </c>
       <c r="C143" t="n">
-        <v>2.94593</v>
+        <v>2.95828</v>
       </c>
       <c r="D143" t="n">
-        <v>0.701485</v>
+        <v>0.693329</v>
       </c>
       <c r="E143" t="n">
-        <v>3.23777</v>
+        <v>3.2445</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247536</v>
+        <v>0.254662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.572087</v>
+        <v>0.415744</v>
       </c>
       <c r="D2" t="n">
-        <v>0.208297</v>
+        <v>0.572972</v>
       </c>
       <c r="E2" t="n">
-        <v>0.385072</v>
+        <v>0.207822</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.384332</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243731</v>
+        <v>0.245358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.563402</v>
+        <v>0.411826</v>
       </c>
       <c r="D3" t="n">
-        <v>0.202856</v>
+        <v>0.566558</v>
       </c>
       <c r="E3" t="n">
-        <v>0.378378</v>
+        <v>0.201677</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.378068</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240042</v>
+        <v>0.244148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5620540000000001</v>
+        <v>0.408011</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196262</v>
+        <v>0.557788</v>
       </c>
       <c r="E4" t="n">
-        <v>0.372452</v>
+        <v>0.196771</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.372891</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.23303</v>
+        <v>0.232962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.555554</v>
+        <v>0.401855</v>
       </c>
       <c r="D5" t="n">
-        <v>0.191963</v>
+        <v>0.5535330000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.367874</v>
+        <v>0.191237</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.368281</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.229801</v>
+        <v>0.232653</v>
       </c>
       <c r="C6" t="n">
-        <v>0.550493</v>
+        <v>0.397042</v>
       </c>
       <c r="D6" t="n">
-        <v>0.188414</v>
+        <v>0.548443</v>
       </c>
       <c r="E6" t="n">
-        <v>0.364865</v>
+        <v>0.188174</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.364738</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.230056</v>
+        <v>0.230686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.711973</v>
+        <v>0.394085</v>
       </c>
       <c r="D7" t="n">
-        <v>0.185379</v>
+        <v>0.707499</v>
       </c>
       <c r="E7" t="n">
-        <v>0.36242</v>
+        <v>0.185889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.361932</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22516</v>
+        <v>0.228383</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6958220000000001</v>
+        <v>0.391942</v>
       </c>
       <c r="D8" t="n">
-        <v>0.18786</v>
+        <v>0.69304</v>
       </c>
       <c r="E8" t="n">
-        <v>0.361656</v>
+        <v>0.186985</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.362506</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.225943</v>
+        <v>0.225312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6811120000000001</v>
+        <v>0.390348</v>
       </c>
       <c r="D9" t="n">
-        <v>0.278722</v>
+        <v>0.675658</v>
       </c>
       <c r="E9" t="n">
-        <v>0.452076</v>
+        <v>0.278857</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.450921</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.308324</v>
+        <v>0.315125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.66786</v>
+        <v>0.482215</v>
       </c>
       <c r="D10" t="n">
-        <v>0.269896</v>
+        <v>0.661803</v>
       </c>
       <c r="E10" t="n">
-        <v>0.44043</v>
+        <v>0.26746</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.440444</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.302757</v>
+        <v>0.303211</v>
       </c>
       <c r="C11" t="n">
-        <v>0.655484</v>
+        <v>0.471682</v>
       </c>
       <c r="D11" t="n">
-        <v>0.258763</v>
+        <v>0.649892</v>
       </c>
       <c r="E11" t="n">
-        <v>0.432655</v>
+        <v>0.259902</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.431381</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296461</v>
+        <v>0.298114</v>
       </c>
       <c r="C12" t="n">
-        <v>0.642444</v>
+        <v>0.461487</v>
       </c>
       <c r="D12" t="n">
-        <v>0.252502</v>
+        <v>0.6367969999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.421535</v>
+        <v>0.250823</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.421842</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.287914</v>
+        <v>0.285205</v>
       </c>
       <c r="C13" t="n">
-        <v>0.630445</v>
+        <v>0.450724</v>
       </c>
       <c r="D13" t="n">
-        <v>0.245657</v>
+        <v>0.628251</v>
       </c>
       <c r="E13" t="n">
-        <v>0.414254</v>
+        <v>0.244893</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.413426</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.279311</v>
+        <v>0.278811</v>
       </c>
       <c r="C14" t="n">
-        <v>0.617962</v>
+        <v>0.441925</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23735</v>
+        <v>0.616401</v>
       </c>
       <c r="E14" t="n">
-        <v>0.404547</v>
+        <v>0.236425</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.404794</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.272622</v>
+        <v>0.27111</v>
       </c>
       <c r="C15" t="n">
-        <v>0.625035</v>
+        <v>0.434297</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229576</v>
+        <v>0.6060950000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.397737</v>
+        <v>0.23104</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.397241</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.26701</v>
+        <v>0.266566</v>
       </c>
       <c r="C16" t="n">
-        <v>0.623677</v>
+        <v>0.428002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225015</v>
+        <v>0.599643</v>
       </c>
       <c r="E16" t="n">
-        <v>0.389887</v>
+        <v>0.223159</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.390244</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.258452</v>
+        <v>0.262819</v>
       </c>
       <c r="C17" t="n">
-        <v>0.601066</v>
+        <v>0.421003</v>
       </c>
       <c r="D17" t="n">
-        <v>0.218535</v>
+        <v>0.592333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.384296</v>
+        <v>0.217891</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.383257</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25268</v>
+        <v>0.252861</v>
       </c>
       <c r="C18" t="n">
-        <v>0.602579</v>
+        <v>0.415006</v>
       </c>
       <c r="D18" t="n">
-        <v>0.213291</v>
+        <v>0.583664</v>
       </c>
       <c r="E18" t="n">
-        <v>0.377152</v>
+        <v>0.212928</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.377168</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.247432</v>
+        <v>0.253763</v>
       </c>
       <c r="C19" t="n">
-        <v>0.581616</v>
+        <v>0.411056</v>
       </c>
       <c r="D19" t="n">
-        <v>0.208556</v>
+        <v>0.577037</v>
       </c>
       <c r="E19" t="n">
-        <v>0.372796</v>
+        <v>0.208213</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.372984</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239079</v>
+        <v>0.243012</v>
       </c>
       <c r="C20" t="n">
-        <v>0.578763</v>
+        <v>0.407836</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20618</v>
+        <v>0.572428</v>
       </c>
       <c r="E20" t="n">
-        <v>0.368705</v>
+        <v>0.20576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.368609</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.238402</v>
+        <v>0.239246</v>
       </c>
       <c r="C21" t="n">
-        <v>0.765282</v>
+        <v>0.397617</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205504</v>
+        <v>0.765737</v>
       </c>
       <c r="E21" t="n">
-        <v>0.365958</v>
+        <v>0.204218</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.366119</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239843</v>
+        <v>0.240277</v>
       </c>
       <c r="C22" t="n">
-        <v>0.748744</v>
+        <v>0.39919</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206208</v>
+        <v>0.74742</v>
       </c>
       <c r="E22" t="n">
-        <v>0.366619</v>
+        <v>0.204779</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.366149</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.241633</v>
+        <v>0.239863</v>
       </c>
       <c r="C23" t="n">
-        <v>0.734525</v>
+        <v>0.396986</v>
       </c>
       <c r="D23" t="n">
-        <v>0.298408</v>
+        <v>0.733856</v>
       </c>
       <c r="E23" t="n">
-        <v>0.462422</v>
+        <v>0.297191</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.461634</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.32104</v>
+        <v>0.325979</v>
       </c>
       <c r="C24" t="n">
-        <v>0.719624</v>
+        <v>0.494076</v>
       </c>
       <c r="D24" t="n">
-        <v>0.291364</v>
+        <v>0.722212</v>
       </c>
       <c r="E24" t="n">
-        <v>0.451647</v>
+        <v>0.285946</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.450824</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.329041</v>
+        <v>0.313701</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7068410000000001</v>
+        <v>0.483036</v>
       </c>
       <c r="D25" t="n">
-        <v>0.277388</v>
+        <v>0.704877</v>
       </c>
       <c r="E25" t="n">
-        <v>0.442062</v>
+        <v>0.27685</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.440972</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305053</v>
+        <v>0.304498</v>
       </c>
       <c r="C26" t="n">
-        <v>0.70087</v>
+        <v>0.473734</v>
       </c>
       <c r="D26" t="n">
-        <v>0.271351</v>
+        <v>0.68742</v>
       </c>
       <c r="E26" t="n">
-        <v>0.432773</v>
+        <v>0.270291</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.431669</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29942</v>
+        <v>0.29621</v>
       </c>
       <c r="C27" t="n">
-        <v>0.680444</v>
+        <v>0.465656</v>
       </c>
       <c r="D27" t="n">
-        <v>0.261234</v>
+        <v>0.674664</v>
       </c>
       <c r="E27" t="n">
-        <v>0.425558</v>
+        <v>0.260081</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.423022</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.300702</v>
+        <v>0.288508</v>
       </c>
       <c r="C28" t="n">
-        <v>0.669619</v>
+        <v>0.458457</v>
       </c>
       <c r="D28" t="n">
-        <v>0.254797</v>
+        <v>0.66342</v>
       </c>
       <c r="E28" t="n">
-        <v>0.415891</v>
+        <v>0.252494</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.415033</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.278284</v>
+        <v>0.279989</v>
       </c>
       <c r="C29" t="n">
-        <v>0.663474</v>
+        <v>0.451107</v>
       </c>
       <c r="D29" t="n">
-        <v>0.245672</v>
+        <v>0.654327</v>
       </c>
       <c r="E29" t="n">
-        <v>0.40822</v>
+        <v>0.245907</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.407233</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.281556</v>
+        <v>0.271517</v>
       </c>
       <c r="C30" t="n">
-        <v>0.656816</v>
+        <v>0.444411</v>
       </c>
       <c r="D30" t="n">
-        <v>0.239763</v>
+        <v>0.645293</v>
       </c>
       <c r="E30" t="n">
-        <v>0.401192</v>
+        <v>0.238675</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.399624</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.273334</v>
+        <v>0.266372</v>
       </c>
       <c r="C31" t="n">
-        <v>0.644348</v>
+        <v>0.434698</v>
       </c>
       <c r="D31" t="n">
-        <v>0.232987</v>
+        <v>0.64006</v>
       </c>
       <c r="E31" t="n">
-        <v>0.394134</v>
+        <v>0.23487</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.392845</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2655</v>
+        <v>0.260489</v>
       </c>
       <c r="C32" t="n">
-        <v>0.636076</v>
+        <v>0.430155</v>
       </c>
       <c r="D32" t="n">
-        <v>0.229412</v>
+        <v>0.631252</v>
       </c>
       <c r="E32" t="n">
-        <v>0.387957</v>
+        <v>0.226703</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.386424</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.263957</v>
+        <v>0.254031</v>
       </c>
       <c r="C33" t="n">
-        <v>0.636991</v>
+        <v>0.422234</v>
       </c>
       <c r="D33" t="n">
-        <v>0.223471</v>
+        <v>0.627213</v>
       </c>
       <c r="E33" t="n">
-        <v>0.382811</v>
+        <v>0.222152</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.381122</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.255619</v>
+        <v>0.25408</v>
       </c>
       <c r="C34" t="n">
-        <v>0.627337</v>
+        <v>0.420584</v>
       </c>
       <c r="D34" t="n">
-        <v>0.21971</v>
+        <v>0.620049</v>
       </c>
       <c r="E34" t="n">
-        <v>0.379127</v>
+        <v>0.217376</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.376838</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.254386</v>
+        <v>0.24797</v>
       </c>
       <c r="C35" t="n">
-        <v>0.820677</v>
+        <v>0.41258</v>
       </c>
       <c r="D35" t="n">
-        <v>0.217154</v>
+        <v>0.81958</v>
       </c>
       <c r="E35" t="n">
-        <v>0.376399</v>
+        <v>0.215347</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.374098</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.252821</v>
+        <v>0.245916</v>
       </c>
       <c r="C36" t="n">
-        <v>0.80121</v>
+        <v>0.410673</v>
       </c>
       <c r="D36" t="n">
-        <v>0.216716</v>
+        <v>0.805283</v>
       </c>
       <c r="E36" t="n">
-        <v>0.375442</v>
+        <v>0.214461</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.373219</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.250414</v>
+        <v>0.243864</v>
       </c>
       <c r="C37" t="n">
-        <v>0.783528</v>
+        <v>0.405433</v>
       </c>
       <c r="D37" t="n">
-        <v>0.31064</v>
+        <v>0.78322</v>
       </c>
       <c r="E37" t="n">
-        <v>0.472488</v>
+        <v>0.311143</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.471267</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.334767</v>
+        <v>0.325572</v>
       </c>
       <c r="C38" t="n">
-        <v>0.769716</v>
+        <v>0.5147929999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.299614</v>
+        <v>0.766607</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4628</v>
+        <v>0.29843</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.461364</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318122</v>
+        <v>0.316645</v>
       </c>
       <c r="C39" t="n">
-        <v>0.753701</v>
+        <v>0.504954</v>
       </c>
       <c r="D39" t="n">
-        <v>0.289602</v>
+        <v>0.750186</v>
       </c>
       <c r="E39" t="n">
-        <v>0.452761</v>
+        <v>0.287789</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.451682</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.308988</v>
+        <v>0.308904</v>
       </c>
       <c r="C40" t="n">
-        <v>0.737598</v>
+        <v>0.494573</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280501</v>
+        <v>0.735529</v>
       </c>
       <c r="E40" t="n">
-        <v>0.444147</v>
+        <v>0.279946</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.443743</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301303</v>
+        <v>0.30418</v>
       </c>
       <c r="C41" t="n">
-        <v>0.732146</v>
+        <v>0.485361</v>
       </c>
       <c r="D41" t="n">
-        <v>0.273125</v>
+        <v>0.7218329999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.435641</v>
+        <v>0.272024</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.435422</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.293092</v>
+        <v>0.29239</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7146169999999999</v>
+        <v>0.475967</v>
       </c>
       <c r="D42" t="n">
-        <v>0.265668</v>
+        <v>0.7130919999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.428609</v>
+        <v>0.264218</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.427456</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.293003</v>
+        <v>0.287998</v>
       </c>
       <c r="C43" t="n">
-        <v>0.701839</v>
+        <v>0.468323</v>
       </c>
       <c r="D43" t="n">
-        <v>0.257018</v>
+        <v>0.701055</v>
       </c>
       <c r="E43" t="n">
-        <v>0.419881</v>
+        <v>0.256536</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.420364</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.282511</v>
+        <v>0.284814</v>
       </c>
       <c r="C44" t="n">
-        <v>0.691347</v>
+        <v>0.45984</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250955</v>
+        <v>0.690425</v>
       </c>
       <c r="E44" t="n">
-        <v>0.412747</v>
+        <v>0.249125</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.412959</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273526</v>
+        <v>0.280751</v>
       </c>
       <c r="C45" t="n">
-        <v>0.683169</v>
+        <v>0.45284</v>
       </c>
       <c r="D45" t="n">
-        <v>0.243354</v>
+        <v>0.683001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.406215</v>
+        <v>0.242626</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.406828</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.266053</v>
+        <v>0.271288</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6773</v>
+        <v>0.448558</v>
       </c>
       <c r="D46" t="n">
-        <v>0.237902</v>
+        <v>0.67578</v>
       </c>
       <c r="E46" t="n">
-        <v>0.399784</v>
+        <v>0.236985</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.400285</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.268187</v>
+        <v>0.271506</v>
       </c>
       <c r="C47" t="n">
-        <v>0.670189</v>
+        <v>0.440867</v>
       </c>
       <c r="D47" t="n">
-        <v>0.231528</v>
+        <v>0.667754</v>
       </c>
       <c r="E47" t="n">
-        <v>0.394212</v>
+        <v>0.231996</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.395866</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.260302</v>
+        <v>0.258387</v>
       </c>
       <c r="C48" t="n">
-        <v>0.670019</v>
+        <v>0.436984</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227688</v>
+        <v>0.66231</v>
       </c>
       <c r="E48" t="n">
-        <v>0.389759</v>
+        <v>0.231124</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.391563</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25908</v>
+        <v>0.264656</v>
       </c>
       <c r="C49" t="n">
-        <v>0.65721</v>
+        <v>0.431976</v>
       </c>
       <c r="D49" t="n">
-        <v>0.224957</v>
+        <v>0.656721</v>
       </c>
       <c r="E49" t="n">
-        <v>0.386777</v>
+        <v>0.223917</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.390534</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249959</v>
+        <v>0.25593</v>
       </c>
       <c r="C50" t="n">
-        <v>0.847211</v>
+        <v>0.429273</v>
       </c>
       <c r="D50" t="n">
-        <v>0.223352</v>
+        <v>0.845962</v>
       </c>
       <c r="E50" t="n">
-        <v>0.385453</v>
+        <v>0.225387</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.388753</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.254326</v>
+        <v>0.255761</v>
       </c>
       <c r="C51" t="n">
-        <v>0.827487</v>
+        <v>0.42733</v>
       </c>
       <c r="D51" t="n">
-        <v>0.323375</v>
+        <v>0.826825</v>
       </c>
       <c r="E51" t="n">
-        <v>0.488235</v>
+        <v>0.327804</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.491633</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.251936</v>
+        <v>0.257685</v>
       </c>
       <c r="C52" t="n">
-        <v>0.809738</v>
+        <v>0.427126</v>
       </c>
       <c r="D52" t="n">
-        <v>0.315036</v>
+        <v>0.809517</v>
       </c>
       <c r="E52" t="n">
-        <v>0.478562</v>
+        <v>0.316067</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.482297</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.343862</v>
+        <v>0.341933</v>
       </c>
       <c r="C53" t="n">
-        <v>0.79303</v>
+        <v>0.5264489999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.30586</v>
+        <v>0.792928</v>
       </c>
       <c r="E53" t="n">
-        <v>0.469309</v>
+        <v>0.306539</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.473112</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.328582</v>
+        <v>0.332799</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7773139999999999</v>
+        <v>0.518139</v>
       </c>
       <c r="D54" t="n">
-        <v>0.296598</v>
+        <v>0.776648</v>
       </c>
       <c r="E54" t="n">
-        <v>0.460198</v>
+        <v>0.297228</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.464651</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.315496</v>
+        <v>0.318492</v>
       </c>
       <c r="C55" t="n">
-        <v>0.763859</v>
+        <v>0.509721</v>
       </c>
       <c r="D55" t="n">
-        <v>0.287061</v>
+        <v>0.763737</v>
       </c>
       <c r="E55" t="n">
-        <v>0.452407</v>
+        <v>0.287609</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.456108</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.313781</v>
+        <v>0.314673</v>
       </c>
       <c r="C56" t="n">
-        <v>0.751533</v>
+        <v>0.5010829999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.280199</v>
+        <v>0.750915</v>
       </c>
       <c r="E56" t="n">
-        <v>0.445294</v>
+        <v>0.281871</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.448275</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.304831</v>
+        <v>0.311975</v>
       </c>
       <c r="C57" t="n">
-        <v>0.742071</v>
+        <v>0.495163</v>
       </c>
       <c r="D57" t="n">
-        <v>0.273735</v>
+        <v>0.738408</v>
       </c>
       <c r="E57" t="n">
-        <v>0.438082</v>
+        <v>0.274111</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.441225</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.292413</v>
+        <v>0.301012</v>
       </c>
       <c r="C58" t="n">
-        <v>0.728503</v>
+        <v>0.486285</v>
       </c>
       <c r="D58" t="n">
-        <v>0.266608</v>
+        <v>0.7284</v>
       </c>
       <c r="E58" t="n">
-        <v>0.430183</v>
+        <v>0.26661</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.434231</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.290515</v>
+        <v>0.292214</v>
       </c>
       <c r="C59" t="n">
-        <v>0.718916</v>
+        <v>0.481579</v>
       </c>
       <c r="D59" t="n">
-        <v>0.259857</v>
+        <v>0.7186399999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.424118</v>
+        <v>0.260251</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.427837</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.283543</v>
+        <v>0.290019</v>
       </c>
       <c r="C60" t="n">
-        <v>0.710541</v>
+        <v>0.473487</v>
       </c>
       <c r="D60" t="n">
-        <v>0.253613</v>
+        <v>0.710452</v>
       </c>
       <c r="E60" t="n">
-        <v>0.419286</v>
+        <v>0.254009</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.421994</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277745</v>
+        <v>0.284469</v>
       </c>
       <c r="C61" t="n">
-        <v>0.704164</v>
+        <v>0.469139</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249628</v>
+        <v>0.701895</v>
       </c>
       <c r="E61" t="n">
-        <v>0.41339</v>
+        <v>0.249672</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.417134</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273439</v>
+        <v>0.276324</v>
       </c>
       <c r="C62" t="n">
-        <v>0.695163</v>
+        <v>0.463572</v>
       </c>
       <c r="D62" t="n">
-        <v>0.243015</v>
+        <v>0.694679</v>
       </c>
       <c r="E62" t="n">
-        <v>0.411306</v>
+        <v>0.244497</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.412975</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267379</v>
+        <v>0.274065</v>
       </c>
       <c r="C63" t="n">
-        <v>0.689117</v>
+        <v>0.459261</v>
       </c>
       <c r="D63" t="n">
-        <v>0.240509</v>
+        <v>0.688506</v>
       </c>
       <c r="E63" t="n">
-        <v>0.406348</v>
+        <v>0.240518</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.409997</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.267231</v>
+        <v>0.27088</v>
       </c>
       <c r="C64" t="n">
-        <v>0.911446</v>
+        <v>0.454522</v>
       </c>
       <c r="D64" t="n">
-        <v>0.238571</v>
+        <v>0.914172</v>
       </c>
       <c r="E64" t="n">
-        <v>0.404078</v>
+        <v>0.239177</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.408472</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.265241</v>
+        <v>0.269965</v>
       </c>
       <c r="C65" t="n">
-        <v>0.889406</v>
+        <v>0.449606</v>
       </c>
       <c r="D65" t="n">
-        <v>0.238448</v>
+        <v>0.893597</v>
       </c>
       <c r="E65" t="n">
-        <v>0.405094</v>
+        <v>0.239256</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.408082</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.268804</v>
+        <v>0.267346</v>
       </c>
       <c r="C66" t="n">
-        <v>0.869702</v>
+        <v>0.449647</v>
       </c>
       <c r="D66" t="n">
-        <v>0.33868</v>
+        <v>0.874314</v>
       </c>
       <c r="E66" t="n">
-        <v>0.521276</v>
+        <v>0.337169</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.524678</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.408425</v>
+        <v>0.39536</v>
       </c>
       <c r="C67" t="n">
-        <v>0.851839</v>
+        <v>0.598256</v>
       </c>
       <c r="D67" t="n">
-        <v>0.333737</v>
+        <v>0.856259</v>
       </c>
       <c r="E67" t="n">
-        <v>0.514891</v>
+        <v>0.331962</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.5173990000000001</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.39354</v>
+        <v>0.399932</v>
       </c>
       <c r="C68" t="n">
-        <v>0.835349</v>
+        <v>0.591527</v>
       </c>
       <c r="D68" t="n">
-        <v>0.32175</v>
+        <v>0.839811</v>
       </c>
       <c r="E68" t="n">
-        <v>0.508007</v>
+        <v>0.324112</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.510041</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.410669</v>
+        <v>0.394809</v>
       </c>
       <c r="C69" t="n">
-        <v>0.823223</v>
+        <v>0.584786</v>
       </c>
       <c r="D69" t="n">
-        <v>0.31441</v>
+        <v>0.825623</v>
       </c>
       <c r="E69" t="n">
-        <v>0.500825</v>
+        <v>0.311789</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.502572</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.378806</v>
+        <v>0.383548</v>
       </c>
       <c r="C70" t="n">
-        <v>0.809603</v>
+        <v>0.574083</v>
       </c>
       <c r="D70" t="n">
-        <v>0.305416</v>
+        <v>0.813643</v>
       </c>
       <c r="E70" t="n">
-        <v>0.493566</v>
+        <v>0.307683</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.495228</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.372184</v>
+        <v>0.376381</v>
       </c>
       <c r="C71" t="n">
-        <v>0.799809</v>
+        <v>0.566792</v>
       </c>
       <c r="D71" t="n">
-        <v>0.298057</v>
+        <v>0.802814</v>
       </c>
       <c r="E71" t="n">
-        <v>0.485887</v>
+        <v>0.301083</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.487646</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.379807</v>
+        <v>0.364071</v>
       </c>
       <c r="C72" t="n">
-        <v>0.79061</v>
+        <v>0.559428</v>
       </c>
       <c r="D72" t="n">
-        <v>0.29142</v>
+        <v>0.793258</v>
       </c>
       <c r="E72" t="n">
-        <v>0.479426</v>
+        <v>0.294815</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.481591</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.374926</v>
+        <v>0.351984</v>
       </c>
       <c r="C73" t="n">
-        <v>0.782612</v>
+        <v>0.552577</v>
       </c>
       <c r="D73" t="n">
-        <v>0.289135</v>
+        <v>0.785595</v>
       </c>
       <c r="E73" t="n">
-        <v>0.474148</v>
+        <v>0.286975</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.475429</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.371014</v>
+        <v>0.355211</v>
       </c>
       <c r="C74" t="n">
-        <v>0.777469</v>
+        <v>0.550148</v>
       </c>
       <c r="D74" t="n">
-        <v>0.282559</v>
+        <v>0.779317</v>
       </c>
       <c r="E74" t="n">
-        <v>0.469131</v>
+        <v>0.280678</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.470073</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.360621</v>
+        <v>0.352392</v>
       </c>
       <c r="C75" t="n">
-        <v>0.774609</v>
+        <v>0.543928</v>
       </c>
       <c r="D75" t="n">
-        <v>0.273662</v>
+        <v>0.773602</v>
       </c>
       <c r="E75" t="n">
-        <v>0.46442</v>
+        <v>0.274863</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.465389</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.355292</v>
+        <v>0.344885</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7723640000000001</v>
+        <v>0.541829</v>
       </c>
       <c r="D76" t="n">
-        <v>0.274058</v>
+        <v>0.771115</v>
       </c>
       <c r="E76" t="n">
-        <v>0.460677</v>
+        <v>0.271757</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.462073</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.330528</v>
+        <v>0.336994</v>
       </c>
       <c r="C77" t="n">
-        <v>0.771096</v>
+        <v>0.536295</v>
       </c>
       <c r="D77" t="n">
-        <v>0.265617</v>
+        <v>0.769648</v>
       </c>
       <c r="E77" t="n">
-        <v>0.458213</v>
+        <v>0.267889</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.45916</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.320942</v>
+        <v>0.336808</v>
       </c>
       <c r="C78" t="n">
-        <v>1.23644</v>
+        <v>0.536946</v>
       </c>
       <c r="D78" t="n">
-        <v>0.262807</v>
+        <v>1.23242</v>
       </c>
       <c r="E78" t="n">
-        <v>0.457112</v>
+        <v>0.260561</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.458461</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.338748</v>
+        <v>0.330514</v>
       </c>
       <c r="C79" t="n">
-        <v>1.21397</v>
+        <v>0.531758</v>
       </c>
       <c r="D79" t="n">
-        <v>0.261751</v>
+        <v>1.20921</v>
       </c>
       <c r="E79" t="n">
-        <v>0.457489</v>
+        <v>0.263055</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.458752</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.334892</v>
+        <v>0.337387</v>
       </c>
       <c r="C80" t="n">
-        <v>1.19377</v>
+        <v>0.5352749999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.385924</v>
+        <v>1.19153</v>
       </c>
       <c r="E80" t="n">
-        <v>0.748204</v>
+        <v>0.380648</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.746828</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.433336</v>
+        <v>0.44234</v>
       </c>
       <c r="C81" t="n">
-        <v>1.17524</v>
+        <v>0.8606200000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.382614</v>
+        <v>1.17044</v>
       </c>
       <c r="E81" t="n">
-        <v>0.750241</v>
+        <v>0.373922</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.748177</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.423358</v>
+        <v>0.441547</v>
       </c>
       <c r="C82" t="n">
-        <v>1.16104</v>
+        <v>0.866313</v>
       </c>
       <c r="D82" t="n">
-        <v>0.373085</v>
+        <v>1.15984</v>
       </c>
       <c r="E82" t="n">
-        <v>0.746774</v>
+        <v>0.369395</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.74453</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.447212</v>
+        <v>0.443128</v>
       </c>
       <c r="C83" t="n">
-        <v>1.14864</v>
+        <v>0.861755</v>
       </c>
       <c r="D83" t="n">
-        <v>0.365518</v>
+        <v>1.14751</v>
       </c>
       <c r="E83" t="n">
-        <v>0.740058</v>
+        <v>0.358892</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.735212</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.426488</v>
+        <v>0.433458</v>
       </c>
       <c r="C84" t="n">
-        <v>1.14469</v>
+        <v>0.850654</v>
       </c>
       <c r="D84" t="n">
-        <v>0.352739</v>
+        <v>1.13357</v>
       </c>
       <c r="E84" t="n">
-        <v>0.731506</v>
+        <v>0.353904</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.724519</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.421894</v>
+        <v>0.4318</v>
       </c>
       <c r="C85" t="n">
-        <v>1.13949</v>
+        <v>0.845617</v>
       </c>
       <c r="D85" t="n">
-        <v>0.349847</v>
+        <v>1.12812</v>
       </c>
       <c r="E85" t="n">
-        <v>0.718654</v>
+        <v>0.346441</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.712803</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.454457</v>
+        <v>0.432145</v>
       </c>
       <c r="C86" t="n">
-        <v>1.13527</v>
+        <v>0.832083</v>
       </c>
       <c r="D86" t="n">
-        <v>0.338979</v>
+        <v>1.12568</v>
       </c>
       <c r="E86" t="n">
-        <v>0.704993</v>
+        <v>0.336987</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.699533</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.423131</v>
+        <v>0.456806</v>
       </c>
       <c r="C87" t="n">
-        <v>1.13733</v>
+        <v>0.818765</v>
       </c>
       <c r="D87" t="n">
-        <v>0.337509</v>
+        <v>1.1328</v>
       </c>
       <c r="E87" t="n">
-        <v>0.690613</v>
+        <v>0.330075</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.686206</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.414397</v>
+        <v>0.432382</v>
       </c>
       <c r="C88" t="n">
-        <v>1.1418</v>
+        <v>0.808908</v>
       </c>
       <c r="D88" t="n">
-        <v>0.329768</v>
+        <v>1.12478</v>
       </c>
       <c r="E88" t="n">
-        <v>0.678664</v>
+        <v>0.326411</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.673941</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.412858</v>
+        <v>0.41664</v>
       </c>
       <c r="C89" t="n">
-        <v>1.14612</v>
+        <v>0.791554</v>
       </c>
       <c r="D89" t="n">
-        <v>0.323388</v>
+        <v>1.14134</v>
       </c>
       <c r="E89" t="n">
-        <v>0.666643</v>
+        <v>0.317559</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.662393</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.388246</v>
+        <v>0.408711</v>
       </c>
       <c r="C90" t="n">
-        <v>1.15207</v>
+        <v>0.781983</v>
       </c>
       <c r="D90" t="n">
-        <v>0.315729</v>
+        <v>1.13853</v>
       </c>
       <c r="E90" t="n">
-        <v>0.654688</v>
+        <v>0.313465</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.651579</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.393282</v>
+        <v>0.394169</v>
       </c>
       <c r="C91" t="n">
-        <v>1.1577</v>
+        <v>0.773871</v>
       </c>
       <c r="D91" t="n">
-        <v>0.30998</v>
+        <v>1.15851</v>
       </c>
       <c r="E91" t="n">
-        <v>0.646777</v>
+        <v>0.311085</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.642655</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.391612</v>
+        <v>0.392537</v>
       </c>
       <c r="C92" t="n">
-        <v>1.72802</v>
+        <v>0.7607930000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.306618</v>
+        <v>1.71922</v>
       </c>
       <c r="E92" t="n">
-        <v>0.638265</v>
+        <v>0.306189</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.635883</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.409312</v>
+        <v>0.39091</v>
       </c>
       <c r="C93" t="n">
-        <v>1.72499</v>
+        <v>0.751486</v>
       </c>
       <c r="D93" t="n">
-        <v>0.304631</v>
+        <v>1.71614</v>
       </c>
       <c r="E93" t="n">
-        <v>0.635722</v>
+        <v>0.303885</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.631367</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.36533</v>
+        <v>0.384881</v>
       </c>
       <c r="C94" t="n">
-        <v>1.70961</v>
+        <v>0.7556310000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.489715</v>
+        <v>1.70033</v>
       </c>
       <c r="E94" t="n">
-        <v>1.11782</v>
+        <v>0.490691</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.11824</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.589069</v>
+        <v>0.571798</v>
       </c>
       <c r="C95" t="n">
-        <v>1.69895</v>
+        <v>1.14394</v>
       </c>
       <c r="D95" t="n">
-        <v>0.487534</v>
+        <v>1.68607</v>
       </c>
       <c r="E95" t="n">
-        <v>1.11392</v>
+        <v>0.486498</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.114</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.574952</v>
+        <v>0.567351</v>
       </c>
       <c r="C96" t="n">
-        <v>1.68886</v>
+        <v>1.14541</v>
       </c>
       <c r="D96" t="n">
-        <v>0.474174</v>
+        <v>1.67529</v>
       </c>
       <c r="E96" t="n">
-        <v>1.10289</v>
+        <v>0.469976</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.10138</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.560232</v>
+        <v>0.5697950000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>1.67492</v>
+        <v>1.13687</v>
       </c>
       <c r="D97" t="n">
-        <v>0.464669</v>
+        <v>1.67014</v>
       </c>
       <c r="E97" t="n">
-        <v>1.08762</v>
+        <v>0.459718</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.08442</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.555872</v>
+        <v>0.573443</v>
       </c>
       <c r="C98" t="n">
-        <v>1.67169</v>
+        <v>1.1251</v>
       </c>
       <c r="D98" t="n">
-        <v>0.453452</v>
+        <v>1.66126</v>
       </c>
       <c r="E98" t="n">
-        <v>1.0693</v>
+        <v>0.450686</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.06763</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.54304</v>
+        <v>0.539964</v>
       </c>
       <c r="C99" t="n">
-        <v>1.66848</v>
+        <v>1.12089</v>
       </c>
       <c r="D99" t="n">
-        <v>0.442078</v>
+        <v>1.66002</v>
       </c>
       <c r="E99" t="n">
-        <v>1.05316</v>
+        <v>0.441581</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.0517</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.541683</v>
+        <v>0.54896</v>
       </c>
       <c r="C100" t="n">
-        <v>1.66935</v>
+        <v>1.11719</v>
       </c>
       <c r="D100" t="n">
-        <v>0.428046</v>
+        <v>1.66184</v>
       </c>
       <c r="E100" t="n">
-        <v>1.03512</v>
+        <v>0.432587</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.03394</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.542766</v>
+        <v>0.532408</v>
       </c>
       <c r="C101" t="n">
-        <v>1.67115</v>
+        <v>1.10262</v>
       </c>
       <c r="D101" t="n">
-        <v>0.421485</v>
+        <v>1.66636</v>
       </c>
       <c r="E101" t="n">
-        <v>1.01829</v>
+        <v>0.420819</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.01759</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.524874</v>
+        <v>0.518255</v>
       </c>
       <c r="C102" t="n">
-        <v>1.68121</v>
+        <v>1.08206</v>
       </c>
       <c r="D102" t="n">
-        <v>0.410786</v>
+        <v>1.67357</v>
       </c>
       <c r="E102" t="n">
-        <v>1.002</v>
+        <v>0.412952</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.00338</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.530067</v>
+        <v>0.530493</v>
       </c>
       <c r="C103" t="n">
-        <v>1.6852</v>
+        <v>1.06129</v>
       </c>
       <c r="D103" t="n">
-        <v>0.405521</v>
+        <v>1.67989</v>
       </c>
       <c r="E103" t="n">
-        <v>0.986893</v>
+        <v>0.404372</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.988973</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.506152</v>
+        <v>0.507915</v>
       </c>
       <c r="C104" t="n">
-        <v>1.69547</v>
+        <v>1.05528</v>
       </c>
       <c r="D104" t="n">
-        <v>0.397903</v>
+        <v>1.6907</v>
       </c>
       <c r="E104" t="n">
-        <v>0.974017</v>
+        <v>0.398408</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.959811</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.499209</v>
+        <v>0.497687</v>
       </c>
       <c r="C105" t="n">
-        <v>1.70479</v>
+        <v>1.05408</v>
       </c>
       <c r="D105" t="n">
-        <v>0.389555</v>
+        <v>1.70401</v>
       </c>
       <c r="E105" t="n">
-        <v>0.961461</v>
+        <v>0.391311</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.962048</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.495265</v>
+        <v>0.498964</v>
       </c>
       <c r="C106" t="n">
-        <v>1.72719</v>
+        <v>1.04452</v>
       </c>
       <c r="D106" t="n">
-        <v>0.384458</v>
+        <v>1.72356</v>
       </c>
       <c r="E106" t="n">
-        <v>0.939837</v>
+        <v>0.387044</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.952658</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.503323</v>
+        <v>0.500962</v>
       </c>
       <c r="C107" t="n">
-        <v>2.32185</v>
+        <v>1.02957</v>
       </c>
       <c r="D107" t="n">
-        <v>0.379184</v>
+        <v>2.31474</v>
       </c>
       <c r="E107" t="n">
-        <v>0.944511</v>
+        <v>0.380736</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.943496</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5006350000000001</v>
+        <v>0.488953</v>
       </c>
       <c r="C108" t="n">
-        <v>2.29191</v>
+        <v>1.02723</v>
       </c>
       <c r="D108" t="n">
-        <v>0.569561</v>
+        <v>2.28637</v>
       </c>
       <c r="E108" t="n">
-        <v>2.38152</v>
+        <v>0.575577</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.37438</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.517016</v>
+        <v>0.49761</v>
       </c>
       <c r="C109" t="n">
-        <v>2.26848</v>
+        <v>1.02272</v>
       </c>
       <c r="D109" t="n">
-        <v>0.522913</v>
+        <v>2.26241</v>
       </c>
       <c r="E109" t="n">
-        <v>2.39606</v>
+        <v>0.573699</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.38073</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6851429999999999</v>
+        <v>0.701258</v>
       </c>
       <c r="C110" t="n">
-        <v>2.24993</v>
+        <v>2.54405</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5535870000000001</v>
+        <v>2.24529</v>
       </c>
       <c r="E110" t="n">
-        <v>2.39419</v>
+        <v>0.560301</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.38809</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.694479</v>
+        <v>0.7007679999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>2.23723</v>
+        <v>2.56262</v>
       </c>
       <c r="D111" t="n">
-        <v>0.539808</v>
+        <v>2.227</v>
       </c>
       <c r="E111" t="n">
-        <v>2.39509</v>
+        <v>0.5463170000000001</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.40302</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.659903</v>
+        <v>0.686048</v>
       </c>
       <c r="C112" t="n">
-        <v>2.2174</v>
+        <v>2.55012</v>
       </c>
       <c r="D112" t="n">
-        <v>0.492527</v>
+        <v>2.21932</v>
       </c>
       <c r="E112" t="n">
-        <v>2.40956</v>
+        <v>0.496288</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.40321</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.66346</v>
+        <v>0.671889</v>
       </c>
       <c r="C113" t="n">
-        <v>2.20592</v>
+        <v>2.56953</v>
       </c>
       <c r="D113" t="n">
-        <v>0.519699</v>
+        <v>2.21373</v>
       </c>
       <c r="E113" t="n">
-        <v>2.39366</v>
+        <v>0.525383</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.40001</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.656551</v>
+        <v>0.6653480000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>2.21972</v>
+        <v>2.55564</v>
       </c>
       <c r="D114" t="n">
-        <v>0.479773</v>
+        <v>2.23131</v>
       </c>
       <c r="E114" t="n">
-        <v>2.40552</v>
+        <v>0.479865</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.39456</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.644236</v>
+        <v>0.648792</v>
       </c>
       <c r="C115" t="n">
-        <v>2.22339</v>
+        <v>2.55615</v>
       </c>
       <c r="D115" t="n">
-        <v>0.498282</v>
+        <v>2.2313</v>
       </c>
       <c r="E115" t="n">
-        <v>2.39558</v>
+        <v>0.473899</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.40742</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.619096</v>
+        <v>0.6180290000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>2.237</v>
+        <v>2.56417</v>
       </c>
       <c r="D116" t="n">
-        <v>0.49285</v>
+        <v>2.22124</v>
       </c>
       <c r="E116" t="n">
-        <v>2.40482</v>
+        <v>0.493539</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.40948</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.633195</v>
+        <v>0.59533</v>
       </c>
       <c r="C117" t="n">
-        <v>2.22273</v>
+        <v>2.56937</v>
       </c>
       <c r="D117" t="n">
-        <v>0.481387</v>
+        <v>2.21971</v>
       </c>
       <c r="E117" t="n">
-        <v>2.4047</v>
+        <v>0.487132</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.41694</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.609941</v>
+        <v>0.626281</v>
       </c>
       <c r="C118" t="n">
-        <v>2.18981</v>
+        <v>2.55976</v>
       </c>
       <c r="D118" t="n">
-        <v>0.446001</v>
+        <v>2.19556</v>
       </c>
       <c r="E118" t="n">
-        <v>2.2125</v>
+        <v>0.449301</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.2183</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.609556</v>
+        <v>0.606015</v>
       </c>
       <c r="C119" t="n">
-        <v>2.18825</v>
+        <v>2.58827</v>
       </c>
       <c r="D119" t="n">
-        <v>0.441511</v>
+        <v>2.18383</v>
       </c>
       <c r="E119" t="n">
-        <v>2.21537</v>
+        <v>0.443309</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.41251</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.61277</v>
+        <v>0.580008</v>
       </c>
       <c r="C120" t="n">
-        <v>2.20338</v>
+        <v>2.16123</v>
       </c>
       <c r="D120" t="n">
-        <v>0.43433</v>
+        <v>2.20829</v>
       </c>
       <c r="E120" t="n">
-        <v>2.4381</v>
+        <v>0.438834</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.01178</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.593959</v>
+        <v>0.603892</v>
       </c>
       <c r="C121" t="n">
-        <v>2.86353</v>
+        <v>2.57756</v>
       </c>
       <c r="D121" t="n">
-        <v>0.428667</v>
+        <v>2.86923</v>
       </c>
       <c r="E121" t="n">
-        <v>2.00493</v>
+        <v>0.436275</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.79889</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.582552</v>
+        <v>0.590537</v>
       </c>
       <c r="C122" t="n">
-        <v>2.83217</v>
+        <v>2.57551</v>
       </c>
       <c r="D122" t="n">
-        <v>0.432744</v>
+        <v>2.82014</v>
       </c>
       <c r="E122" t="n">
-        <v>2.01081</v>
+        <v>0.455684</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.43935</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.577087</v>
+        <v>0.592401</v>
       </c>
       <c r="C123" t="n">
-        <v>2.77442</v>
+        <v>2.59241</v>
       </c>
       <c r="D123" t="n">
-        <v>0.616001</v>
+        <v>2.7852</v>
       </c>
       <c r="E123" t="n">
-        <v>2.90191</v>
+        <v>0.624486</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2.89855</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.764056</v>
+        <v>0.773829</v>
       </c>
       <c r="C124" t="n">
-        <v>2.73854</v>
+        <v>3.13706</v>
       </c>
       <c r="D124" t="n">
-        <v>0.611524</v>
+        <v>2.74949</v>
       </c>
       <c r="E124" t="n">
-        <v>2.89799</v>
+        <v>0.614718</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.90729</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.759313</v>
+        <v>0.754401</v>
       </c>
       <c r="C125" t="n">
-        <v>2.71309</v>
+        <v>3.13373</v>
       </c>
       <c r="D125" t="n">
-        <v>0.615011</v>
+        <v>2.7233</v>
       </c>
       <c r="E125" t="n">
-        <v>2.89537</v>
+        <v>0.607499</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.90177</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.73911</v>
+        <v>0.760947</v>
       </c>
       <c r="C126" t="n">
-        <v>2.68989</v>
+        <v>3.13609</v>
       </c>
       <c r="D126" t="n">
-        <v>0.597591</v>
+        <v>2.69578</v>
       </c>
       <c r="E126" t="n">
-        <v>2.88949</v>
+        <v>0.622692</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2.88035</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.749789</v>
+        <v>0.7266319999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>2.66477</v>
+        <v>3.11339</v>
       </c>
       <c r="D127" t="n">
-        <v>0.59001</v>
+        <v>2.66148</v>
       </c>
       <c r="E127" t="n">
-        <v>2.88073</v>
+        <v>0.597799</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.88407</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.723776</v>
+        <v>0.7342070000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>2.64719</v>
+        <v>3.1004</v>
       </c>
       <c r="D128" t="n">
-        <v>0.585346</v>
+        <v>2.63753</v>
       </c>
       <c r="E128" t="n">
-        <v>2.8783</v>
+        <v>0.591545</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.88018</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.710474</v>
+        <v>0.717168</v>
       </c>
       <c r="C129" t="n">
-        <v>2.62985</v>
+        <v>3.09338</v>
       </c>
       <c r="D129" t="n">
-        <v>0.577938</v>
+        <v>2.62947</v>
       </c>
       <c r="E129" t="n">
-        <v>2.87384</v>
+        <v>0.585492</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2.86548</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7208059999999999</v>
+        <v>0.712503</v>
       </c>
       <c r="C130" t="n">
-        <v>2.6244</v>
+        <v>3.08827</v>
       </c>
       <c r="D130" t="n">
-        <v>0.571183</v>
+        <v>2.61205</v>
       </c>
       <c r="E130" t="n">
-        <v>2.868</v>
+        <v>0.57901</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.86388</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.69965</v>
+        <v>0.707417</v>
       </c>
       <c r="C131" t="n">
-        <v>2.60565</v>
+        <v>3.0765</v>
       </c>
       <c r="D131" t="n">
-        <v>0.570909</v>
+        <v>2.6029</v>
       </c>
       <c r="E131" t="n">
-        <v>2.86957</v>
+        <v>0.573595</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.86442</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.701552</v>
+        <v>0.714735</v>
       </c>
       <c r="C132" t="n">
-        <v>2.59752</v>
+        <v>3.07953</v>
       </c>
       <c r="D132" t="n">
-        <v>0.565025</v>
+        <v>2.59348</v>
       </c>
       <c r="E132" t="n">
-        <v>2.86886</v>
+        <v>0.570186</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.86734</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.707127</v>
+        <v>0.70631</v>
       </c>
       <c r="C133" t="n">
-        <v>2.59292</v>
+        <v>3.06209</v>
       </c>
       <c r="D133" t="n">
-        <v>0.55806</v>
+        <v>2.58974</v>
       </c>
       <c r="E133" t="n">
-        <v>2.87171</v>
+        <v>0.5669920000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.868</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.695711</v>
+        <v>0.6878030000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>2.58243</v>
+        <v>3.0588</v>
       </c>
       <c r="D134" t="n">
-        <v>0.530495</v>
+        <v>2.57312</v>
       </c>
       <c r="E134" t="n">
-        <v>2.63726</v>
+        <v>0.536432</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2.16179</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.689142</v>
+        <v>0.692473</v>
       </c>
       <c r="C135" t="n">
-        <v>3.2654</v>
+        <v>3.06134</v>
       </c>
       <c r="D135" t="n">
-        <v>0.537283</v>
+        <v>3.25856</v>
       </c>
       <c r="E135" t="n">
-        <v>2.40099</v>
+        <v>0.533417</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.86844</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.677196</v>
+        <v>0.691728</v>
       </c>
       <c r="C136" t="n">
-        <v>3.20859</v>
+        <v>3.04958</v>
       </c>
       <c r="D136" t="n">
-        <v>0.533674</v>
+        <v>3.20553</v>
       </c>
       <c r="E136" t="n">
-        <v>2.87715</v>
+        <v>0.530556</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.40028</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.683355</v>
+        <v>0.675598</v>
       </c>
       <c r="C137" t="n">
-        <v>3.15593</v>
+        <v>3.0494</v>
       </c>
       <c r="D137" t="n">
-        <v>0.719311</v>
+        <v>3.14493</v>
       </c>
       <c r="E137" t="n">
-        <v>3.33574</v>
+        <v>0.717487</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.31997</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.865462</v>
+        <v>0.857311</v>
       </c>
       <c r="C138" t="n">
-        <v>3.11268</v>
+        <v>3.56046</v>
       </c>
       <c r="D138" t="n">
-        <v>0.712194</v>
+        <v>3.10247</v>
       </c>
       <c r="E138" t="n">
-        <v>3.32641</v>
+        <v>0.711844</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3.30417</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.833139</v>
+        <v>0.838676</v>
       </c>
       <c r="C139" t="n">
-        <v>3.06911</v>
+        <v>3.53411</v>
       </c>
       <c r="D139" t="n">
-        <v>0.710128</v>
+        <v>3.05819</v>
       </c>
       <c r="E139" t="n">
-        <v>3.31142</v>
+        <v>0.708829</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3.29762</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.84312</v>
+        <v>0.855427</v>
       </c>
       <c r="C140" t="n">
-        <v>3.03672</v>
+        <v>3.49017</v>
       </c>
       <c r="D140" t="n">
-        <v>0.705078</v>
+        <v>3.02358</v>
       </c>
       <c r="E140" t="n">
-        <v>3.28882</v>
+        <v>0.70669</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3.27942</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.838792</v>
+        <v>0.824632</v>
       </c>
       <c r="C141" t="n">
-        <v>3.00005</v>
+        <v>3.47108</v>
       </c>
       <c r="D141" t="n">
-        <v>0.701628</v>
+        <v>2.99108</v>
       </c>
       <c r="E141" t="n">
-        <v>3.27995</v>
+        <v>0.70047</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.26759</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.835867</v>
+        <v>0.814859</v>
       </c>
       <c r="C142" t="n">
-        <v>2.98161</v>
+        <v>3.46398</v>
       </c>
       <c r="D142" t="n">
-        <v>0.696323</v>
+        <v>2.97769</v>
       </c>
       <c r="E142" t="n">
-        <v>3.26483</v>
+        <v>0.698168</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3.25128</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.840564</v>
+        <v>0.820478</v>
       </c>
       <c r="C143" t="n">
-        <v>2.95828</v>
+        <v>3.44974</v>
       </c>
       <c r="D143" t="n">
-        <v>0.693329</v>
+        <v>2.94616</v>
       </c>
       <c r="E143" t="n">
-        <v>3.2445</v>
+        <v>0.695986</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.23294</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15337</v>
+                  <v>0.146039</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.155158</v>
+                  <v>0.148013</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.159661</v>
+                  <v>0.138681</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.151036</v>
+                  <v>0.14359</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.145481</v>
+                  <v>0.135845</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.143135</v>
+                  <v>0.135477</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.148369</v>
+                  <v>0.138485</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.150446</v>
+                  <v>0.146058</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207322</v>
+                  <v>0.200991</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209592</v>
+                  <v>0.199168</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.195598</v>
+                  <v>0.189428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.190781</v>
+                  <v>0.187799</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.190823</v>
+                  <v>0.184312</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.175134</v>
+                  <v>0.170536</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.168551</v>
+                  <v>0.165581</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.159679</v>
+                  <v>0.161496</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.164206</v>
+                  <v>0.158637</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.167199</v>
+                  <v>0.157383</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.154037</v>
+                  <v>0.155905</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.157372</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.151621</v>
+                  <v>0.153328</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157259</v>
+                  <v>0.155101</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.238303</v>
+                  <v>0.237836</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.224434</v>
+                  <v>0.232792</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.224004</v>
+                  <v>0.220818</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.215688</v>
+                  <v>0.214188</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.20293</v>
+                  <v>0.206863</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.198964</v>
+                  <v>0.198074</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.187941</v>
+                  <v>0.190476</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185272</v>
+                  <v>0.189206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.178074</v>
+                  <v>0.179889</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173278</v>
+                  <v>0.176719</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.170074</v>
+                  <v>0.171518</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.168305</v>
+                  <v>0.170802</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.170652</v>
+                  <v>0.171714</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.167843</v>
+                  <v>0.170411</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243961</v>
+                  <v>0.242776</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.235067</v>
+                  <v>0.234175</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.22627</v>
+                  <v>0.22518</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218024</v>
+                  <v>0.217734</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210212</v>
+                  <v>0.209982</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.202858</v>
+                  <v>0.202762</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196171</v>
+                  <v>0.196177</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.190461</v>
+                  <v>0.190435</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.185034</v>
+                  <v>0.185025</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.180206</v>
+                  <v>0.179638</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.176532</v>
+                  <v>0.176655</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.173492</v>
+                  <v>0.173549</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.171855</v>
+                  <v>0.171866</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172451</v>
+                  <v>0.172691</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.174531</v>
+                  <v>0.175807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.241212</v>
+                  <v>0.240716</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.231315</v>
+                  <v>0.232852</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.222959</v>
+                  <v>0.224402</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.216001</v>
+                  <v>0.217265</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.208546</v>
+                  <v>0.208892</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.20144</v>
+                  <v>0.202409</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.195596</v>
+                  <v>0.195381</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.189667</v>
+                  <v>0.190447</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.184353</v>
+                  <v>0.185342</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.180335</v>
+                  <v>0.181484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178093</v>
+                  <v>0.177209</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.176032</v>
+                  <v>0.176375</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176322</v>
+                  <v>0.17631</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178398</v>
+                  <v>0.179257</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246205</v>
+                  <v>0.244087</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235745</v>
+                  <v>0.23551</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.22844</v>
+                  <v>0.228011</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219722</v>
+                  <v>0.219299</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.211882</v>
+                  <v>0.212195</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205851</v>
+                  <v>0.204906</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199915</v>
+                  <v>0.198988</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19416</v>
+                  <v>0.193473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188783</v>
+                  <v>0.188598</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183925</v>
+                  <v>0.183295</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.182219</v>
+                  <v>0.180748</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178711</v>
+                  <v>0.178691</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17904</v>
+                  <v>0.178316</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180346</v>
+                  <v>0.180884</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257797</v>
+                  <v>0.256673</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.248989</v>
+                  <v>0.248828</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.242374</v>
+                  <v>0.241687</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233789</v>
+                  <v>0.233823</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.22662</v>
+                  <v>0.226435</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219911</v>
+                  <v>0.219403</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21385</v>
+                  <v>0.212981</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.20712</v>
+                  <v>0.206654</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.2016</v>
+                  <v>0.201478</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.196505</v>
+                  <v>0.195737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.193329</v>
+                  <v>0.192256</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190124</v>
+                  <v>0.189382</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188597</v>
+                  <v>0.188583</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189371</v>
+                  <v>0.18968</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270674</v>
+                  <v>0.271413</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265072</v>
+                  <v>0.265435</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258834</v>
+                  <v>0.258773</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251641</v>
+                  <v>0.252024</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245263</v>
+                  <v>0.245278</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238488</v>
+                  <v>0.239437</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233411</v>
+                  <v>0.233272</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227946</v>
+                  <v>0.227822</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222458</v>
+                  <v>0.222804</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218327</v>
+                  <v>0.218299</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214176</v>
+                  <v>0.214387</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211275</v>
+                  <v>0.211097</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208723</v>
+                  <v>0.209085</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208655</v>
+                  <v>0.209158</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210629</v>
+                  <v>0.211426</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.285509</v>
+                  <v>0.29328</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.278433</v>
+                  <v>0.28665</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271806</v>
+                  <v>0.279989</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266427</v>
+                  <v>0.273564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260565</v>
+                  <v>0.26764</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255512</v>
+                  <v>0.262322</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250615</v>
+                  <v>0.257025</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245594</v>
+                  <v>0.25203</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.244716</v>
+                  <v>0.247571</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.237814</v>
+                  <v>0.243348</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234924</v>
+                  <v>0.239959</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232693</v>
+                  <v>0.237783</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231404</v>
+                  <v>0.236599</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232607</v>
+                  <v>0.237197</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.316721</v>
+                  <v>0.328962</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.311521</v>
+                  <v>0.323242</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.304916</v>
+                  <v>0.317089</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299863</v>
+                  <v>0.310426</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294634</v>
+                  <v>0.306459</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.290007</v>
+                  <v>0.301111</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285681</v>
+                  <v>0.295255</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.281672</v>
+                  <v>0.290688</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278486</v>
+                  <v>0.28664</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275255</v>
+                  <v>0.282957</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.272149</v>
+                  <v>0.280443</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270314</v>
+                  <v>0.277925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.269997</v>
+                  <v>0.277999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270583</v>
+                  <v>0.278357</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.369063</v>
+                  <v>0.369562</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.363506</v>
+                  <v>0.360547</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.358269</v>
+                  <v>0.355884</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.352863</v>
+                  <v>0.352816</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34801</v>
+                  <v>0.346455</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.34351</v>
+                  <v>0.341422</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.312145</v>
+                  <v>0.28211</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.311864</v>
+                  <v>0.278115</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.311341</v>
+                  <v>0.271292</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.306772</v>
+                  <v>0.274151</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.308161</v>
+                  <v>0.266767</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.408994</v>
+                  <v>0.266578</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.405189</v>
+                  <v>0.266281</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.401577</v>
+                  <v>0.272086</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.391147</v>
+                  <v>0.331698</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.391102</v>
+                  <v>0.319212</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.38111</v>
+                  <v>0.308191</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.379912</v>
+                  <v>0.307945</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.376405</v>
+                  <v>0.295667</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.370044</v>
+                  <v>0.292683</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.366509</v>
+                  <v>0.283847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.362169</v>
+                  <v>0.280388</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.364199</v>
+                  <v>0.277733</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.36117</v>
+                  <v>0.273149</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.357351</v>
+                  <v>0.268271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.478261</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.464696</v>
+                  <v>0.270153</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.456439</v>
+                  <v>0.273148</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.448159</v>
+                  <v>0.340388</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.440673</v>
+                  <v>0.331711</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.431649</v>
+                  <v>0.323314</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.425692</v>
+                  <v>0.316365</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.418998</v>
+                  <v>0.310543</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.412593</v>
+                  <v>0.301656</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.408417</v>
+                  <v>0.296089</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.40367</v>
+                  <v>0.291172</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.399719</v>
+                  <v>0.285343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393748</v>
+                  <v>0.283907</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.390428</v>
+                  <v>0.278823</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.499331</v>
+                  <v>0.280175</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.48684</v>
+                  <v>0.276888</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.478061</v>
+                  <v>0.279208</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.46875</v>
+                  <v>0.350466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.458947</v>
+                  <v>0.343127</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.450864</v>
+                  <v>0.334872</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.443182</v>
+                  <v>0.327488</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.437353</v>
+                  <v>0.320628</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.430382</v>
+                  <v>0.31489</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.424477</v>
+                  <v>0.309181</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.419409</v>
+                  <v>0.303399</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414636</v>
+                  <v>0.299576</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.40978</v>
+                  <v>0.295042</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406225</v>
+                  <v>0.293079</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.403185</v>
+                  <v>0.290591</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.506923</v>
+                  <v>0.290977</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.49607</v>
+                  <v>0.292093</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485393</v>
+                  <v>0.297895</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.47704</v>
+                  <v>0.354931</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.467187</v>
+                  <v>0.347367</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.459395</v>
+                  <v>0.342722</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.452921</v>
+                  <v>0.334916</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.445497</v>
+                  <v>0.328959</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440853</v>
+                  <v>0.3234</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.434352</v>
+                  <v>0.317305</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.430313</v>
+                  <v>0.312179</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.426534</v>
+                  <v>0.308366</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.422625</v>
+                  <v>0.305196</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.419713</v>
+                  <v>0.30302</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.544347</v>
+                  <v>0.302263</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.53371</v>
+                  <v>0.303818</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.523499</v>
+                  <v>0.306058</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.516787</v>
+                  <v>0.374633</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.508951</v>
+                  <v>0.365677</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.500625</v>
+                  <v>0.360799</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494779</v>
+                  <v>0.353591</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.489162</v>
+                  <v>0.34577</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483936</v>
+                  <v>0.339963</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481121</v>
+                  <v>0.333846</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496074</v>
+                  <v>0.329286</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.488899</v>
+                  <v>0.325082</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.486092</v>
+                  <v>0.320758</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.483301</v>
+                  <v>0.319095</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.6619080000000001</v>
+                  <v>0.319423</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.651641</v>
+                  <v>0.319311</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.6414840000000001</v>
+                  <v>0.322843</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.634898</v>
+                  <v>0.393431</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.626458</v>
+                  <v>0.389378</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.619111</v>
+                  <v>0.384671</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.618937</v>
+                  <v>0.382238</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.616578</v>
+                  <v>0.3759</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.616543</v>
+                  <v>0.371191</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.618468</v>
+                  <v>0.36512</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.618605</v>
+                  <v>0.361874</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631288</v>
+                  <v>0.356697</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.634706</v>
+                  <v>0.352438</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.640709</v>
+                  <v>0.349891</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.853437</v>
+                  <v>0.35005</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.851041</v>
+                  <v>0.349669</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.846677</v>
+                  <v>0.352299</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.839566</v>
+                  <v>0.466457</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.837027</v>
+                  <v>0.465911</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.84036</v>
+                  <v>0.461742</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.840439</v>
+                  <v>0.458425</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.841024</v>
+                  <v>0.454048</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.84118</v>
+                  <v>0.450047</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.845235</v>
+                  <v>0.445345</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.849178</v>
+                  <v>0.441259</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.859448</v>
+                  <v>0.438357</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.866117</v>
+                  <v>0.435239</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.873801</v>
+                  <v>0.434282</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.882031</v>
+                  <v>0.433819</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.12628</v>
+                  <v>0.433981</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11366</v>
+                  <v>0.436931</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10831</v>
+                  <v>0.442964</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09924</v>
+                  <v>0.580354</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.10141</v>
+                  <v>0.574171</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09589</v>
+                  <v>0.569311</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09404</v>
+                  <v>0.563511</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09267</v>
+                  <v>0.558854</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09583</v>
+                  <v>0.555304</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09592</v>
+                  <v>0.551573</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.09785</v>
+                  <v>0.5418269999999999</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10406</v>
+                  <v>0.546025</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.1105</v>
+                  <v>0.544721</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.1192</v>
+                  <v>0.544034</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38021</v>
+                  <v>0.544782</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36711</v>
+                  <v>0.547028</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35208</v>
+                  <v>0.550917</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.33879</v>
+                  <v>0.714383</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33025</v>
+                  <v>0.709817</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32117</v>
+                  <v>0.703954</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.31379</v>
+                  <v>0.700326</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.30768</v>
+                  <v>0.698059</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.30326</v>
+                  <v>0.6951850000000001</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30056</v>
+                  <v>0.6917450000000001</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.30008</v>
+                  <v>0.689099</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.30108</v>
+                  <v>0.6884</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30141</v>
+                  <v>0.687611</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30559</v>
+                  <v>0.688626</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.58034</v>
+                  <v>0.689466</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.55781</v>
+                  <v>0.6928609999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53836</v>
+                  <v>0.696013</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.5207</v>
+                  <v>0.876258</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50344</v>
+                  <v>0.866931</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.49007</v>
+                  <v>0.874781</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.47742</v>
+                  <v>0.874434</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46587</v>
+                  <v>0.87453</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.45791</v>
+                  <v>0.874256</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.142888</v>
+                  <v>0.345535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.144159</v>
+                  <v>0.342328</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.139729</v>
+                  <v>0.339524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.130455</v>
+                  <v>0.338964</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.130001</v>
+                  <v>0.337026</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.114646</v>
+                  <v>0.441059</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.121203</v>
+                  <v>0.432636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.177485</v>
+                  <v>0.422785</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.178184</v>
+                  <v>0.425798</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167977</v>
+                  <v>0.41258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.158496</v>
+                  <v>0.406096</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.152255</v>
+                  <v>0.399408</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.15716</v>
+                  <v>0.393713</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.142005</v>
+                  <v>0.390631</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.136816</v>
+                  <v>0.384493</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.139587</v>
+                  <v>0.382714</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.131545</v>
+                  <v>0.376462</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.129135</v>
+                  <v>0.372734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.123154</v>
+                  <v>0.371468</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1263</v>
+                  <v>0.471596</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.129065</v>
+                  <v>0.461926</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.214336</v>
+                  <v>0.453195</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.21995</v>
+                  <v>0.442569</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.204141</v>
+                  <v>0.439045</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.187606</v>
+                  <v>0.428046</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.185954</v>
+                  <v>0.422639</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.178845</v>
+                  <v>0.415176</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.168237</v>
+                  <v>0.409081</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.165532</v>
+                  <v>0.404025</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.164239</v>
+                  <v>0.401541</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.154562</v>
+                  <v>0.396396</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153521</v>
+                  <v>0.392233</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14963</v>
+                  <v>0.387418</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150836</v>
+                  <v>0.492552</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.14771</v>
+                  <v>0.481008</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230768</v>
+                  <v>0.472016</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222972</v>
+                  <v>0.462267</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.213998</v>
+                  <v>0.453779</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.205509</v>
+                  <v>0.445558</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.19903</v>
+                  <v>0.438178</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191431</v>
+                  <v>0.431525</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.185004</v>
+                  <v>0.424981</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178242</v>
+                  <v>0.417433</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171721</v>
+                  <v>0.412907</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166785</v>
+                  <v>0.40713</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.163076</v>
+                  <v>0.404255</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159074</v>
+                  <v>0.399219</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.157048</v>
+                  <v>0.398134</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155008</v>
+                  <v>0.5057199999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.241177</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.232474</v>
+                  <v>0.482606</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222617</v>
+                  <v>0.473133</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.214052</v>
+                  <v>0.46451</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206278</v>
+                  <v>0.458181</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.198674</v>
+                  <v>0.449409</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191601</v>
+                  <v>0.444813</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184668</v>
+                  <v>0.437137</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.179357</v>
+                  <v>0.433472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.1736</v>
+                  <v>0.427729</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.168138</v>
+                  <v>0.423128</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.164634</v>
+                  <v>0.420407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.161852</v>
+                  <v>0.418269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.159915</v>
+                  <v>0.542173</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.160633</v>
+                  <v>0.531938</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.241778</v>
+                  <v>0.521979</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234316</v>
+                  <v>0.513247</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.223856</v>
+                  <v>0.507066</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.214878</v>
+                  <v>0.501045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.206553</v>
+                  <v>0.491954</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.200975</v>
+                  <v>0.487567</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.194188</v>
+                  <v>0.484235</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.188362</v>
+                  <v>0.479325</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.182427</v>
+                  <v>0.49454</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17682</v>
+                  <v>0.492253</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.171969</v>
+                  <v>0.485952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.167466</v>
+                  <v>0.483849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.166872</v>
+                  <v>0.660579</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.166623</v>
+                  <v>0.651858</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.2389</v>
+                  <v>0.641418</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.231233</v>
+                  <v>0.633701</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222629</v>
+                  <v>0.628771</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.215057</v>
+                  <v>0.622203</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207065</v>
+                  <v>0.619414</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200438</v>
+                  <v>0.619362</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.193262</v>
+                  <v>0.616466</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.187335</v>
+                  <v>0.617853</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182132</v>
+                  <v>0.617096</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176589</v>
+                  <v>0.63459</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.173081</v>
+                  <v>0.636581</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.169023</v>
+                  <v>0.641432</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.166908</v>
+                  <v>0.856594</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.166814</v>
+                  <v>0.849894</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.252534</v>
+                  <v>0.845252</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.244438</v>
+                  <v>0.841065</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.236967</v>
+                  <v>0.836136</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229011</v>
+                  <v>0.842166</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.220682</v>
+                  <v>0.844179</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.213943</v>
+                  <v>0.841984</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.20784</v>
+                  <v>0.8411689999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20147</v>
+                  <v>0.8479989999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.195865</v>
+                  <v>0.85105</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.190898</v>
+                  <v>0.858108</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.186294</v>
+                  <v>0.865494</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.182449</v>
+                  <v>0.873856</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180164</v>
+                  <v>0.882892</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179211</v>
+                  <v>1.12623</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.268571</v>
+                  <v>1.11708</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.263123</v>
+                  <v>1.10725</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.255147</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.248045</v>
+                  <v>1.09922</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24044</v>
+                  <v>1.09309</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.234071</v>
+                  <v>1.09198</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227632</v>
+                  <v>1.09188</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22211</v>
+                  <v>1.09281</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.216672</v>
+                  <v>1.09812</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.211883</v>
+                  <v>1.10047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.2085</v>
+                  <v>1.10279</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.204125</v>
+                  <v>1.10901</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.201067</v>
+                  <v>1.11641</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199423</v>
+                  <v>1.37934</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200191</v>
+                  <v>1.36609</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285389</v>
+                  <v>1.34952</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.279535</v>
+                  <v>1.33903</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.273237</v>
+                  <v>1.33181</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.267652</v>
+                  <v>1.3199</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.26304</v>
+                  <v>1.31294</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.258886</v>
+                  <v>1.31028</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.254448</v>
+                  <v>1.30308</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.250205</v>
+                  <v>1.30133</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24612</v>
+                  <v>1.30114</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.243283</v>
+                  <v>1.30065</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.240187</v>
+                  <v>1.30238</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.238426</v>
+                  <v>1.30428</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.236633</v>
+                  <v>1.57893</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.23708</v>
+                  <v>1.55759</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.334836</v>
+                  <v>1.53738</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.329067</v>
+                  <v>1.52081</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.323726</v>
+                  <v>1.50381</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.319833</v>
+                  <v>1.48922</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.314732</v>
+                  <v>1.47882</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.310756</v>
+                  <v>1.46512</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.307162</v>
+                  <v>1.45783</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.271192</v>
+                  <v>0.137761</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.269766</v>
+                  <v>0.136591</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.261942</v>
+                  <v>0.130647</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.266898</v>
+                  <v>0.124825</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.264205</v>
+                  <v>0.121236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.261823</v>
+                  <v>0.120823</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.260876</v>
+                  <v>0.115242</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.337755</v>
+                  <v>0.18197</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.32141</v>
+                  <v>0.191717</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.306307</v>
+                  <v>0.171582</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.303579</v>
+                  <v>0.163208</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.295531</v>
+                  <v>0.159341</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.290788</v>
+                  <v>0.15144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.286236</v>
+                  <v>0.148414</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.27627</v>
+                  <v>0.141748</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.269827</v>
+                  <v>0.138354</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.269586</v>
+                  <v>0.135532</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.261332</v>
+                  <v>0.137513</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.262818</v>
+                  <v>0.131088</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.25938</v>
+                  <v>0.129522</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.25735</v>
+                  <v>0.139204</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.333717</v>
+                  <v>0.22233</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.338816</v>
+                  <v>0.213797</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.31587</v>
+                  <v>0.207877</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.308427</v>
+                  <v>0.199287</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.298987</v>
+                  <v>0.19247</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.294611</v>
+                  <v>0.183147</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.288183</v>
+                  <v>0.175943</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.281609</v>
+                  <v>0.173927</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.27668</v>
+                  <v>0.165062</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.272235</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.267661</v>
+                  <v>0.159688</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.264742</v>
+                  <v>0.153782</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.262336</v>
+                  <v>0.150904</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.263208</v>
+                  <v>0.150984</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.347369</v>
+                  <v>0.230682</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.339619</v>
+                  <v>0.221791</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.332237</v>
+                  <v>0.212191</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.323095</v>
+                  <v>0.205325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.315365</v>
+                  <v>0.196669</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.308467</v>
+                  <v>0.189453</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.302061</v>
+                  <v>0.182552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.296349</v>
+                  <v>0.177439</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.290374</v>
+                  <v>0.171551</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.285623</v>
+                  <v>0.164983</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.281956</v>
+                  <v>0.161123</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.278551</v>
+                  <v>0.157815</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.276744</v>
+                  <v>0.155224</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.275847</v>
+                  <v>0.154986</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.35945</v>
+                  <v>0.239</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.352226</v>
+                  <v>0.230927</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.342043</v>
+                  <v>0.221685</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.334021</v>
+                  <v>0.212571</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.329362</v>
+                  <v>0.204879</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.3219</v>
+                  <v>0.196931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.31556</v>
+                  <v>0.190889</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.309051</v>
+                  <v>0.184201</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.303773</v>
+                  <v>0.177873</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.298791</v>
+                  <v>0.172243</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.29423</v>
+                  <v>0.167354</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.29061</v>
+                  <v>0.163961</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.28855</v>
+                  <v>0.160669</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.286849</v>
+                  <v>0.159794</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.288573</v>
+                  <v>0.159922</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.368444</v>
+                  <v>0.24182</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.360264</v>
+                  <v>0.231229</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.351966</v>
+                  <v>0.22419</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.346137</v>
+                  <v>0.215874</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.338777</v>
+                  <v>0.206048</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.33184</v>
+                  <v>0.198942</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.324914</v>
+                  <v>0.191778</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.319398</v>
+                  <v>0.185223</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.313882</v>
+                  <v>0.179302</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.308808</v>
+                  <v>0.174516</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.305441</v>
+                  <v>0.170705</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.301947</v>
+                  <v>0.167401</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.303099</v>
+                  <v>0.165988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.303311</v>
+                  <v>0.165089</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.384061</v>
+                  <v>0.238743</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.377682</v>
+                  <v>0.229209</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.372194</v>
+                  <v>0.221431</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.364102</v>
+                  <v>0.213546</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.360852</v>
+                  <v>0.206373</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.355225</v>
+                  <v>0.199238</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.34856</v>
+                  <v>0.192686</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.34299</v>
+                  <v>0.185131</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.338553</v>
+                  <v>0.180498</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.332812</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.329783</v>
+                  <v>0.170999</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.326459</v>
+                  <v>0.167733</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.325092</v>
+                  <v>0.164963</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.32522</v>
+                  <v>0.165351</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.452238</v>
+                  <v>0.250369</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.451668</v>
+                  <v>0.242842</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.447145</v>
+                  <v>0.235119</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.442183</v>
+                  <v>0.227356</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.437287</v>
+                  <v>0.220251</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.432007</v>
+                  <v>0.212871</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.428233</v>
+                  <v>0.206496</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.423292</v>
+                  <v>0.200455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.418646</v>
+                  <v>0.194783</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.41523</v>
+                  <v>0.189878</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.411758</v>
+                  <v>0.184885</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.409843</v>
+                  <v>0.181716</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.408188</v>
+                  <v>0.179034</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.407718</v>
+                  <v>0.177966</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.566439</v>
+                  <v>0.267166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.564304</v>
+                  <v>0.261253</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.557965</v>
+                  <v>0.25341</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.551828</v>
+                  <v>0.24629</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.544925</v>
+                  <v>0.239018</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.5423289999999999</v>
+                  <v>0.232958</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.536821</v>
+                  <v>0.226405</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.533166</v>
+                  <v>0.22103</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.529174</v>
+                  <v>0.215579</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.526789</v>
+                  <v>0.211122</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.52432</v>
+                  <v>0.206632</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.523133</v>
+                  <v>0.202954</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.520985</v>
+                  <v>0.200086</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.520991</v>
+                  <v>0.198735</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.522709</v>
+                  <v>0.199173</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.694646</v>
+                  <v>0.283443</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.688746</v>
+                  <v>0.277303</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.685202</v>
+                  <v>0.271758</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.680929</v>
+                  <v>0.266349</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.678063</v>
+                  <v>0.261528</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.660381</v>
+                  <v>0.256727</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.669822</v>
+                  <v>0.252371</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.66858</v>
+                  <v>0.248279</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.666127</v>
+                  <v>0.244665</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.664091</v>
+                  <v>0.241331</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.662888</v>
+                  <v>0.238531</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.662808</v>
+                  <v>0.236023</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.663058</v>
+                  <v>0.234907</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.664988</v>
+                  <v>0.234963</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.847299</v>
+                  <v>0.33469</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.846291</v>
+                  <v>0.327289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.845287</v>
+                  <v>0.322215</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.8449950000000001</v>
+                  <v>0.317731</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.844019</v>
+                  <v>0.313643</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.844831</v>
+                  <v>0.309114</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.844638</v>
+                  <v>0.305505</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.270475</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.272824</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.263759</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.259957</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.256232</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.258115</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.255855</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.325155</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.320399</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.30968</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.300998</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.293913</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.286153</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.281139</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.275524</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.274898</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.2676</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.265662</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.26002</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.260183</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.262609</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.330212</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.325548</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.315918</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.310409</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.301635</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.295574</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.290029</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.282872</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.278507</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272359</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.269059</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.266677</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.264372</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263709</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347984</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.340065</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.330786</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323484</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315716</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.309133</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.301912</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296867</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.291421</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.286315</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.282309</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.279336</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.27722</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.277116</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.358783</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.350324</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342116</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334006</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.328195</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.320973</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.314597</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.307473</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.302578</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298176</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.292764</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.289646</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.287274</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286847</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288163</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.366526</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.358653</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.349644</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.344332</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.337322</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.329298</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.323319</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.317402</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.312372</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.306709</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.302411</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301187</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.302301</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.301667</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.38254</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.376441</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.370388</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.363729</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360141</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.354189</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.348061</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.341194</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338365</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332626</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329316</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.325646</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.324753</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.325698</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.450633</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.449133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.444822</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.440212</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.434334</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.429843</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.424907</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.4203</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.415853</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.412994</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.409492</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.407402</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.406375</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.406548</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.560538</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.560684</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.553851</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.548923</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.543926</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.538116</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.533978</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.529934</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.5271940000000001</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.524362</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.522272</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.519097</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.518203</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.517801</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.519348</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.690275</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.685513</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.681941</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.677575</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.67488</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.673596</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.668506</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.665758</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.663705</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.661956</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.661919</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.661756</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.662496</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.66482</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.845621</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.845018</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.843253</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.84311</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.842824</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.843188</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.842601</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.254662</v>
+        <v>0.254243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.415744</v>
+        <v>0.416735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.572972</v>
+        <v>0.574263</v>
       </c>
       <c r="E2" t="n">
-        <v>0.207822</v>
+        <v>0.208208</v>
       </c>
       <c r="F2" t="n">
-        <v>0.384332</v>
+        <v>0.385447</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245358</v>
+        <v>0.243041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.411826</v>
+        <v>0.420019</v>
       </c>
       <c r="D3" t="n">
-        <v>0.566558</v>
+        <v>0.56633</v>
       </c>
       <c r="E3" t="n">
-        <v>0.201677</v>
+        <v>0.201101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.378068</v>
+        <v>0.378794</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.244148</v>
+        <v>0.239917</v>
       </c>
       <c r="C4" t="n">
-        <v>0.408011</v>
+        <v>0.412885</v>
       </c>
       <c r="D4" t="n">
-        <v>0.557788</v>
+        <v>0.557993</v>
       </c>
       <c r="E4" t="n">
-        <v>0.196771</v>
+        <v>0.195689</v>
       </c>
       <c r="F4" t="n">
-        <v>0.372891</v>
+        <v>0.37305</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.232962</v>
+        <v>0.237089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.401855</v>
+        <v>0.406562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5535330000000001</v>
+        <v>0.552086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.191237</v>
+        <v>0.19114</v>
       </c>
       <c r="F5" t="n">
-        <v>0.368281</v>
+        <v>0.368084</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232653</v>
+        <v>0.228544</v>
       </c>
       <c r="C6" t="n">
-        <v>0.397042</v>
+        <v>0.40492</v>
       </c>
       <c r="D6" t="n">
-        <v>0.548443</v>
+        <v>0.546995</v>
       </c>
       <c r="E6" t="n">
-        <v>0.188174</v>
+        <v>0.188223</v>
       </c>
       <c r="F6" t="n">
-        <v>0.364738</v>
+        <v>0.364679</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.230686</v>
+        <v>0.226288</v>
       </c>
       <c r="C7" t="n">
-        <v>0.394085</v>
+        <v>0.40206</v>
       </c>
       <c r="D7" t="n">
-        <v>0.707499</v>
+        <v>0.708923</v>
       </c>
       <c r="E7" t="n">
-        <v>0.185889</v>
+        <v>0.185202</v>
       </c>
       <c r="F7" t="n">
-        <v>0.361932</v>
+        <v>0.362502</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.228383</v>
+        <v>0.226612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.391942</v>
+        <v>0.398422</v>
       </c>
       <c r="D8" t="n">
-        <v>0.69304</v>
+        <v>0.695574</v>
       </c>
       <c r="E8" t="n">
-        <v>0.186985</v>
+        <v>0.187281</v>
       </c>
       <c r="F8" t="n">
-        <v>0.362506</v>
+        <v>0.362521</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.225312</v>
+        <v>0.226014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.390348</v>
+        <v>0.39671</v>
       </c>
       <c r="D9" t="n">
-        <v>0.675658</v>
+        <v>0.677567</v>
       </c>
       <c r="E9" t="n">
-        <v>0.278857</v>
+        <v>0.278781</v>
       </c>
       <c r="F9" t="n">
-        <v>0.450921</v>
+        <v>0.451485</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.315125</v>
+        <v>0.314617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.482215</v>
+        <v>0.481018</v>
       </c>
       <c r="D10" t="n">
-        <v>0.661803</v>
+        <v>0.664679</v>
       </c>
       <c r="E10" t="n">
-        <v>0.26746</v>
+        <v>0.267471</v>
       </c>
       <c r="F10" t="n">
-        <v>0.440444</v>
+        <v>0.440695</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303211</v>
+        <v>0.315191</v>
       </c>
       <c r="C11" t="n">
-        <v>0.471682</v>
+        <v>0.470044</v>
       </c>
       <c r="D11" t="n">
-        <v>0.649892</v>
+        <v>0.652693</v>
       </c>
       <c r="E11" t="n">
-        <v>0.259902</v>
+        <v>0.258977</v>
       </c>
       <c r="F11" t="n">
-        <v>0.431381</v>
+        <v>0.431423</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.298114</v>
+        <v>0.293328</v>
       </c>
       <c r="C12" t="n">
-        <v>0.461487</v>
+        <v>0.460505</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6367969999999999</v>
+        <v>0.640203</v>
       </c>
       <c r="E12" t="n">
-        <v>0.250823</v>
+        <v>0.250975</v>
       </c>
       <c r="F12" t="n">
-        <v>0.421842</v>
+        <v>0.422027</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.285205</v>
+        <v>0.286519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.450724</v>
+        <v>0.450951</v>
       </c>
       <c r="D13" t="n">
-        <v>0.628251</v>
+        <v>0.628493</v>
       </c>
       <c r="E13" t="n">
-        <v>0.244893</v>
+        <v>0.243855</v>
       </c>
       <c r="F13" t="n">
-        <v>0.413426</v>
+        <v>0.413386</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.278811</v>
+        <v>0.275953</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441925</v>
+        <v>0.441698</v>
       </c>
       <c r="D14" t="n">
-        <v>0.616401</v>
+        <v>0.623489</v>
       </c>
       <c r="E14" t="n">
-        <v>0.236425</v>
+        <v>0.236281</v>
       </c>
       <c r="F14" t="n">
-        <v>0.404794</v>
+        <v>0.40502</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.27111</v>
+        <v>0.272625</v>
       </c>
       <c r="C15" t="n">
-        <v>0.434297</v>
+        <v>0.434621</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6060950000000001</v>
+        <v>0.612347</v>
       </c>
       <c r="E15" t="n">
-        <v>0.23104</v>
+        <v>0.229603</v>
       </c>
       <c r="F15" t="n">
-        <v>0.397241</v>
+        <v>0.397438</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266566</v>
+        <v>0.26543</v>
       </c>
       <c r="C16" t="n">
-        <v>0.428002</v>
+        <v>0.427848</v>
       </c>
       <c r="D16" t="n">
-        <v>0.599643</v>
+        <v>0.605208</v>
       </c>
       <c r="E16" t="n">
-        <v>0.223159</v>
+        <v>0.224333</v>
       </c>
       <c r="F16" t="n">
-        <v>0.390244</v>
+        <v>0.390339</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.262819</v>
+        <v>0.265402</v>
       </c>
       <c r="C17" t="n">
-        <v>0.421003</v>
+        <v>0.423222</v>
       </c>
       <c r="D17" t="n">
-        <v>0.592333</v>
+        <v>0.597863</v>
       </c>
       <c r="E17" t="n">
-        <v>0.217891</v>
+        <v>0.218604</v>
       </c>
       <c r="F17" t="n">
-        <v>0.383257</v>
+        <v>0.383274</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.252861</v>
+        <v>0.254965</v>
       </c>
       <c r="C18" t="n">
-        <v>0.415006</v>
+        <v>0.416292</v>
       </c>
       <c r="D18" t="n">
-        <v>0.583664</v>
+        <v>0.585372</v>
       </c>
       <c r="E18" t="n">
-        <v>0.212928</v>
+        <v>0.212367</v>
       </c>
       <c r="F18" t="n">
-        <v>0.377168</v>
+        <v>0.377466</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253763</v>
+        <v>0.245632</v>
       </c>
       <c r="C19" t="n">
-        <v>0.411056</v>
+        <v>0.411115</v>
       </c>
       <c r="D19" t="n">
-        <v>0.577037</v>
+        <v>0.579197</v>
       </c>
       <c r="E19" t="n">
-        <v>0.208213</v>
+        <v>0.207925</v>
       </c>
       <c r="F19" t="n">
-        <v>0.372984</v>
+        <v>0.37376</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.243012</v>
+        <v>0.244967</v>
       </c>
       <c r="C20" t="n">
-        <v>0.407836</v>
+        <v>0.407196</v>
       </c>
       <c r="D20" t="n">
-        <v>0.572428</v>
+        <v>0.576402</v>
       </c>
       <c r="E20" t="n">
-        <v>0.20576</v>
+        <v>0.204964</v>
       </c>
       <c r="F20" t="n">
-        <v>0.368609</v>
+        <v>0.369403</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239246</v>
+        <v>0.239482</v>
       </c>
       <c r="C21" t="n">
-        <v>0.397617</v>
+        <v>0.401977</v>
       </c>
       <c r="D21" t="n">
-        <v>0.765737</v>
+        <v>0.765652</v>
       </c>
       <c r="E21" t="n">
-        <v>0.204218</v>
+        <v>0.204435</v>
       </c>
       <c r="F21" t="n">
-        <v>0.366119</v>
+        <v>0.366874</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240277</v>
+        <v>0.244064</v>
       </c>
       <c r="C22" t="n">
-        <v>0.39919</v>
+        <v>0.400508</v>
       </c>
       <c r="D22" t="n">
-        <v>0.74742</v>
+        <v>0.746958</v>
       </c>
       <c r="E22" t="n">
-        <v>0.204779</v>
+        <v>0.20462</v>
       </c>
       <c r="F22" t="n">
-        <v>0.366149</v>
+        <v>0.367137</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.239863</v>
+        <v>0.245607</v>
       </c>
       <c r="C23" t="n">
-        <v>0.396986</v>
+        <v>0.3988</v>
       </c>
       <c r="D23" t="n">
-        <v>0.733856</v>
+        <v>0.738127</v>
       </c>
       <c r="E23" t="n">
-        <v>0.297191</v>
+        <v>0.29852</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461634</v>
+        <v>0.461853</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.325979</v>
+        <v>0.321466</v>
       </c>
       <c r="C24" t="n">
-        <v>0.494076</v>
+        <v>0.489269</v>
       </c>
       <c r="D24" t="n">
-        <v>0.722212</v>
+        <v>0.715265</v>
       </c>
       <c r="E24" t="n">
-        <v>0.285946</v>
+        <v>0.285835</v>
       </c>
       <c r="F24" t="n">
-        <v>0.450824</v>
+        <v>0.451487</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.313701</v>
+        <v>0.313079</v>
       </c>
       <c r="C25" t="n">
-        <v>0.483036</v>
+        <v>0.479336</v>
       </c>
       <c r="D25" t="n">
-        <v>0.704877</v>
+        <v>0.70138</v>
       </c>
       <c r="E25" t="n">
-        <v>0.27685</v>
+        <v>0.276129</v>
       </c>
       <c r="F25" t="n">
-        <v>0.440972</v>
+        <v>0.441061</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.304498</v>
+        <v>0.302882</v>
       </c>
       <c r="C26" t="n">
-        <v>0.473734</v>
+        <v>0.471928</v>
       </c>
       <c r="D26" t="n">
-        <v>0.68742</v>
+        <v>0.690419</v>
       </c>
       <c r="E26" t="n">
-        <v>0.270291</v>
+        <v>0.269331</v>
       </c>
       <c r="F26" t="n">
-        <v>0.431669</v>
+        <v>0.432307</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29621</v>
+        <v>0.294338</v>
       </c>
       <c r="C27" t="n">
-        <v>0.465656</v>
+        <v>0.463385</v>
       </c>
       <c r="D27" t="n">
-        <v>0.674664</v>
+        <v>0.678958</v>
       </c>
       <c r="E27" t="n">
-        <v>0.260081</v>
+        <v>0.259641</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423022</v>
+        <v>0.423145</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.288508</v>
+        <v>0.28839</v>
       </c>
       <c r="C28" t="n">
-        <v>0.458457</v>
+        <v>0.456135</v>
       </c>
       <c r="D28" t="n">
-        <v>0.66342</v>
+        <v>0.669781</v>
       </c>
       <c r="E28" t="n">
-        <v>0.252494</v>
+        <v>0.252151</v>
       </c>
       <c r="F28" t="n">
-        <v>0.415033</v>
+        <v>0.415044</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.279989</v>
+        <v>0.284574</v>
       </c>
       <c r="C29" t="n">
-        <v>0.451107</v>
+        <v>0.448014</v>
       </c>
       <c r="D29" t="n">
-        <v>0.654327</v>
+        <v>0.656578</v>
       </c>
       <c r="E29" t="n">
-        <v>0.245907</v>
+        <v>0.245058</v>
       </c>
       <c r="F29" t="n">
-        <v>0.407233</v>
+        <v>0.407064</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.271517</v>
+        <v>0.274449</v>
       </c>
       <c r="C30" t="n">
-        <v>0.444411</v>
+        <v>0.441485</v>
       </c>
       <c r="D30" t="n">
-        <v>0.645293</v>
+        <v>0.646554</v>
       </c>
       <c r="E30" t="n">
-        <v>0.238675</v>
+        <v>0.238754</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399624</v>
+        <v>0.399618</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.266372</v>
+        <v>0.268083</v>
       </c>
       <c r="C31" t="n">
-        <v>0.434698</v>
+        <v>0.434888</v>
       </c>
       <c r="D31" t="n">
-        <v>0.64006</v>
+        <v>0.638038</v>
       </c>
       <c r="E31" t="n">
-        <v>0.23487</v>
+        <v>0.231696</v>
       </c>
       <c r="F31" t="n">
-        <v>0.392845</v>
+        <v>0.392449</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260489</v>
+        <v>0.259717</v>
       </c>
       <c r="C32" t="n">
-        <v>0.430155</v>
+        <v>0.428413</v>
       </c>
       <c r="D32" t="n">
-        <v>0.631252</v>
+        <v>0.6316850000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.226703</v>
+        <v>0.227007</v>
       </c>
       <c r="F32" t="n">
-        <v>0.386424</v>
+        <v>0.386656</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254031</v>
+        <v>0.253757</v>
       </c>
       <c r="C33" t="n">
-        <v>0.422234</v>
+        <v>0.42184</v>
       </c>
       <c r="D33" t="n">
-        <v>0.627213</v>
+        <v>0.626007</v>
       </c>
       <c r="E33" t="n">
-        <v>0.222152</v>
+        <v>0.222628</v>
       </c>
       <c r="F33" t="n">
-        <v>0.381122</v>
+        <v>0.380901</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25408</v>
+        <v>0.248764</v>
       </c>
       <c r="C34" t="n">
-        <v>0.420584</v>
+        <v>0.415598</v>
       </c>
       <c r="D34" t="n">
-        <v>0.620049</v>
+        <v>0.619398</v>
       </c>
       <c r="E34" t="n">
-        <v>0.217376</v>
+        <v>0.217895</v>
       </c>
       <c r="F34" t="n">
-        <v>0.376838</v>
+        <v>0.376633</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.24797</v>
+        <v>0.248426</v>
       </c>
       <c r="C35" t="n">
-        <v>0.41258</v>
+        <v>0.41586</v>
       </c>
       <c r="D35" t="n">
-        <v>0.81958</v>
+        <v>0.817875</v>
       </c>
       <c r="E35" t="n">
-        <v>0.215347</v>
+        <v>0.216589</v>
       </c>
       <c r="F35" t="n">
-        <v>0.374098</v>
+        <v>0.373845</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245916</v>
+        <v>0.244856</v>
       </c>
       <c r="C36" t="n">
-        <v>0.410673</v>
+        <v>0.412031</v>
       </c>
       <c r="D36" t="n">
-        <v>0.805283</v>
+        <v>0.7993710000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>0.214461</v>
+        <v>0.214233</v>
       </c>
       <c r="F36" t="n">
-        <v>0.373219</v>
+        <v>0.372899</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243864</v>
+        <v>0.241743</v>
       </c>
       <c r="C37" t="n">
-        <v>0.405433</v>
+        <v>0.410536</v>
       </c>
       <c r="D37" t="n">
-        <v>0.78322</v>
+        <v>0.781717</v>
       </c>
       <c r="E37" t="n">
-        <v>0.311143</v>
+        <v>0.309642</v>
       </c>
       <c r="F37" t="n">
-        <v>0.471267</v>
+        <v>0.470812</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.325572</v>
+        <v>0.329474</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5147929999999999</v>
+        <v>0.506965</v>
       </c>
       <c r="D38" t="n">
-        <v>0.766607</v>
+        <v>0.764858</v>
       </c>
       <c r="E38" t="n">
-        <v>0.29843</v>
+        <v>0.299505</v>
       </c>
       <c r="F38" t="n">
-        <v>0.461364</v>
+        <v>0.460634</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.316645</v>
+        <v>0.318374</v>
       </c>
       <c r="C39" t="n">
-        <v>0.504954</v>
+        <v>0.501729</v>
       </c>
       <c r="D39" t="n">
-        <v>0.750186</v>
+        <v>0.75007</v>
       </c>
       <c r="E39" t="n">
-        <v>0.287789</v>
+        <v>0.28903</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451682</v>
+        <v>0.451923</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.308904</v>
+        <v>0.311633</v>
       </c>
       <c r="C40" t="n">
-        <v>0.494573</v>
+        <v>0.492654</v>
       </c>
       <c r="D40" t="n">
-        <v>0.735529</v>
+        <v>0.735791</v>
       </c>
       <c r="E40" t="n">
-        <v>0.279946</v>
+        <v>0.27896</v>
       </c>
       <c r="F40" t="n">
-        <v>0.443743</v>
+        <v>0.44463</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.30418</v>
+        <v>0.302448</v>
       </c>
       <c r="C41" t="n">
-        <v>0.485361</v>
+        <v>0.483424</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7218329999999999</v>
+        <v>0.722261</v>
       </c>
       <c r="E41" t="n">
-        <v>0.272024</v>
+        <v>0.271824</v>
       </c>
       <c r="F41" t="n">
-        <v>0.435422</v>
+        <v>0.435445</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.29239</v>
+        <v>0.297642</v>
       </c>
       <c r="C42" t="n">
-        <v>0.475967</v>
+        <v>0.474364</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7130919999999999</v>
+        <v>0.711786</v>
       </c>
       <c r="E42" t="n">
-        <v>0.264218</v>
+        <v>0.264415</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427456</v>
+        <v>0.427225</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.287998</v>
+        <v>0.291373</v>
       </c>
       <c r="C43" t="n">
-        <v>0.468323</v>
+        <v>0.466612</v>
       </c>
       <c r="D43" t="n">
-        <v>0.701055</v>
+        <v>0.700499</v>
       </c>
       <c r="E43" t="n">
-        <v>0.256536</v>
+        <v>0.255862</v>
       </c>
       <c r="F43" t="n">
-        <v>0.420364</v>
+        <v>0.420377</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.284814</v>
+        <v>0.286887</v>
       </c>
       <c r="C44" t="n">
-        <v>0.45984</v>
+        <v>0.45818</v>
       </c>
       <c r="D44" t="n">
-        <v>0.690425</v>
+        <v>0.690591</v>
       </c>
       <c r="E44" t="n">
-        <v>0.249125</v>
+        <v>0.249181</v>
       </c>
       <c r="F44" t="n">
-        <v>0.412959</v>
+        <v>0.412913</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.280751</v>
+        <v>0.278778</v>
       </c>
       <c r="C45" t="n">
-        <v>0.45284</v>
+        <v>0.450835</v>
       </c>
       <c r="D45" t="n">
-        <v>0.683001</v>
+        <v>0.6828920000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.242626</v>
+        <v>0.244437</v>
       </c>
       <c r="F45" t="n">
-        <v>0.406828</v>
+        <v>0.405868</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.271288</v>
+        <v>0.274641</v>
       </c>
       <c r="C46" t="n">
-        <v>0.448558</v>
+        <v>0.444503</v>
       </c>
       <c r="D46" t="n">
-        <v>0.67578</v>
+        <v>0.674596</v>
       </c>
       <c r="E46" t="n">
-        <v>0.236985</v>
+        <v>0.237939</v>
       </c>
       <c r="F46" t="n">
-        <v>0.400285</v>
+        <v>0.39959</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.271506</v>
+        <v>0.262398</v>
       </c>
       <c r="C47" t="n">
-        <v>0.440867</v>
+        <v>0.437891</v>
       </c>
       <c r="D47" t="n">
-        <v>0.667754</v>
+        <v>0.667256</v>
       </c>
       <c r="E47" t="n">
-        <v>0.231996</v>
+        <v>0.231513</v>
       </c>
       <c r="F47" t="n">
-        <v>0.395866</v>
+        <v>0.394756</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.258387</v>
+        <v>0.264171</v>
       </c>
       <c r="C48" t="n">
-        <v>0.436984</v>
+        <v>0.432631</v>
       </c>
       <c r="D48" t="n">
-        <v>0.66231</v>
+        <v>0.660874</v>
       </c>
       <c r="E48" t="n">
-        <v>0.231124</v>
+        <v>0.227516</v>
       </c>
       <c r="F48" t="n">
-        <v>0.391563</v>
+        <v>0.390317</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.264656</v>
+        <v>0.255564</v>
       </c>
       <c r="C49" t="n">
-        <v>0.431976</v>
+        <v>0.428841</v>
       </c>
       <c r="D49" t="n">
-        <v>0.656721</v>
+        <v>0.655853</v>
       </c>
       <c r="E49" t="n">
-        <v>0.223917</v>
+        <v>0.224982</v>
       </c>
       <c r="F49" t="n">
-        <v>0.390534</v>
+        <v>0.387004</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.25593</v>
+        <v>0.254481</v>
       </c>
       <c r="C50" t="n">
-        <v>0.429273</v>
+        <v>0.425594</v>
       </c>
       <c r="D50" t="n">
-        <v>0.845962</v>
+        <v>0.8450260000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.225387</v>
+        <v>0.222637</v>
       </c>
       <c r="F50" t="n">
-        <v>0.388753</v>
+        <v>0.385198</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.255761</v>
+        <v>0.253886</v>
       </c>
       <c r="C51" t="n">
-        <v>0.42733</v>
+        <v>0.422974</v>
       </c>
       <c r="D51" t="n">
-        <v>0.826825</v>
+        <v>0.825866</v>
       </c>
       <c r="E51" t="n">
-        <v>0.327804</v>
+        <v>0.323545</v>
       </c>
       <c r="F51" t="n">
-        <v>0.491633</v>
+        <v>0.489727</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.257685</v>
+        <v>0.248862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.427126</v>
+        <v>0.42338</v>
       </c>
       <c r="D52" t="n">
-        <v>0.809517</v>
+        <v>0.808235</v>
       </c>
       <c r="E52" t="n">
-        <v>0.316067</v>
+        <v>0.314814</v>
       </c>
       <c r="F52" t="n">
-        <v>0.482297</v>
+        <v>0.480099</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.341933</v>
+        <v>0.34103</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5264489999999999</v>
+        <v>0.535948</v>
       </c>
       <c r="D53" t="n">
-        <v>0.792928</v>
+        <v>0.791561</v>
       </c>
       <c r="E53" t="n">
-        <v>0.306539</v>
+        <v>0.306257</v>
       </c>
       <c r="F53" t="n">
-        <v>0.473112</v>
+        <v>0.470311</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.332799</v>
+        <v>0.327505</v>
       </c>
       <c r="C54" t="n">
-        <v>0.518139</v>
+        <v>0.525438</v>
       </c>
       <c r="D54" t="n">
-        <v>0.776648</v>
+        <v>0.775513</v>
       </c>
       <c r="E54" t="n">
-        <v>0.297228</v>
+        <v>0.297792</v>
       </c>
       <c r="F54" t="n">
-        <v>0.464651</v>
+        <v>0.46124</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318492</v>
+        <v>0.323686</v>
       </c>
       <c r="C55" t="n">
-        <v>0.509721</v>
+        <v>0.517223</v>
       </c>
       <c r="D55" t="n">
-        <v>0.763737</v>
+        <v>0.762628</v>
       </c>
       <c r="E55" t="n">
-        <v>0.287609</v>
+        <v>0.290302</v>
       </c>
       <c r="F55" t="n">
-        <v>0.456108</v>
+        <v>0.453244</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.314673</v>
+        <v>0.314152</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5010829999999999</v>
+        <v>0.506866</v>
       </c>
       <c r="D56" t="n">
-        <v>0.750915</v>
+        <v>0.749763</v>
       </c>
       <c r="E56" t="n">
-        <v>0.281871</v>
+        <v>0.2803</v>
       </c>
       <c r="F56" t="n">
-        <v>0.448275</v>
+        <v>0.444929</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.311975</v>
+        <v>0.303458</v>
       </c>
       <c r="C57" t="n">
-        <v>0.495163</v>
+        <v>0.499267</v>
       </c>
       <c r="D57" t="n">
-        <v>0.738408</v>
+        <v>0.73795</v>
       </c>
       <c r="E57" t="n">
-        <v>0.274111</v>
+        <v>0.273346</v>
       </c>
       <c r="F57" t="n">
-        <v>0.441225</v>
+        <v>0.438166</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.301012</v>
+        <v>0.299017</v>
       </c>
       <c r="C58" t="n">
-        <v>0.486285</v>
+        <v>0.494339</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7284</v>
+        <v>0.727367</v>
       </c>
       <c r="E58" t="n">
-        <v>0.26661</v>
+        <v>0.264904</v>
       </c>
       <c r="F58" t="n">
-        <v>0.434231</v>
+        <v>0.430972</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.292214</v>
+        <v>0.295136</v>
       </c>
       <c r="C59" t="n">
-        <v>0.481579</v>
+        <v>0.485555</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7186399999999999</v>
+        <v>0.7178020000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.260251</v>
+        <v>0.261079</v>
       </c>
       <c r="F59" t="n">
-        <v>0.427837</v>
+        <v>0.425007</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.290019</v>
+        <v>0.286763</v>
       </c>
       <c r="C60" t="n">
-        <v>0.473487</v>
+        <v>0.48055</v>
       </c>
       <c r="D60" t="n">
-        <v>0.710452</v>
+        <v>0.70947</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254009</v>
+        <v>0.254763</v>
       </c>
       <c r="F60" t="n">
-        <v>0.421994</v>
+        <v>0.419674</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284469</v>
+        <v>0.28187</v>
       </c>
       <c r="C61" t="n">
-        <v>0.469139</v>
+        <v>0.474055</v>
       </c>
       <c r="D61" t="n">
-        <v>0.701895</v>
+        <v>0.701766</v>
       </c>
       <c r="E61" t="n">
-        <v>0.249672</v>
+        <v>0.249622</v>
       </c>
       <c r="F61" t="n">
-        <v>0.417134</v>
+        <v>0.413865</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.276324</v>
+        <v>0.279049</v>
       </c>
       <c r="C62" t="n">
-        <v>0.463572</v>
+        <v>0.468214</v>
       </c>
       <c r="D62" t="n">
-        <v>0.694679</v>
+        <v>0.694327</v>
       </c>
       <c r="E62" t="n">
-        <v>0.244497</v>
+        <v>0.244869</v>
       </c>
       <c r="F62" t="n">
-        <v>0.412975</v>
+        <v>0.411992</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.274065</v>
+        <v>0.276712</v>
       </c>
       <c r="C63" t="n">
-        <v>0.459261</v>
+        <v>0.464126</v>
       </c>
       <c r="D63" t="n">
-        <v>0.688506</v>
+        <v>0.688097</v>
       </c>
       <c r="E63" t="n">
-        <v>0.240518</v>
+        <v>0.240669</v>
       </c>
       <c r="F63" t="n">
-        <v>0.409997</v>
+        <v>0.40917</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.27088</v>
+        <v>0.271371</v>
       </c>
       <c r="C64" t="n">
-        <v>0.454522</v>
+        <v>0.460098</v>
       </c>
       <c r="D64" t="n">
-        <v>0.914172</v>
+        <v>0.902219</v>
       </c>
       <c r="E64" t="n">
-        <v>0.239177</v>
+        <v>0.238707</v>
       </c>
       <c r="F64" t="n">
-        <v>0.408472</v>
+        <v>0.407973</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.269965</v>
+        <v>0.268564</v>
       </c>
       <c r="C65" t="n">
-        <v>0.449606</v>
+        <v>0.459111</v>
       </c>
       <c r="D65" t="n">
-        <v>0.893597</v>
+        <v>0.882526</v>
       </c>
       <c r="E65" t="n">
-        <v>0.239256</v>
+        <v>0.239695</v>
       </c>
       <c r="F65" t="n">
-        <v>0.408082</v>
+        <v>0.409343</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.267346</v>
+        <v>0.26969</v>
       </c>
       <c r="C66" t="n">
-        <v>0.449647</v>
+        <v>0.455964</v>
       </c>
       <c r="D66" t="n">
-        <v>0.874314</v>
+        <v>0.863023</v>
       </c>
       <c r="E66" t="n">
-        <v>0.337169</v>
+        <v>0.337482</v>
       </c>
       <c r="F66" t="n">
-        <v>0.524678</v>
+        <v>0.519489</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.39536</v>
+        <v>0.395093</v>
       </c>
       <c r="C67" t="n">
-        <v>0.598256</v>
+        <v>0.602135</v>
       </c>
       <c r="D67" t="n">
-        <v>0.856259</v>
+        <v>0.845179</v>
       </c>
       <c r="E67" t="n">
-        <v>0.331962</v>
+        <v>0.333179</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5173990000000001</v>
+        <v>0.51225</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.399932</v>
+        <v>0.412222</v>
       </c>
       <c r="C68" t="n">
-        <v>0.591527</v>
+        <v>0.594467</v>
       </c>
       <c r="D68" t="n">
-        <v>0.839811</v>
+        <v>0.828873</v>
       </c>
       <c r="E68" t="n">
-        <v>0.324112</v>
+        <v>0.321235</v>
       </c>
       <c r="F68" t="n">
-        <v>0.510041</v>
+        <v>0.505447</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.394809</v>
+        <v>0.385574</v>
       </c>
       <c r="C69" t="n">
-        <v>0.584786</v>
+        <v>0.585128</v>
       </c>
       <c r="D69" t="n">
-        <v>0.825623</v>
+        <v>0.814239</v>
       </c>
       <c r="E69" t="n">
-        <v>0.311789</v>
+        <v>0.313538</v>
       </c>
       <c r="F69" t="n">
-        <v>0.502572</v>
+        <v>0.498047</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.383548</v>
+        <v>0.394964</v>
       </c>
       <c r="C70" t="n">
-        <v>0.574083</v>
+        <v>0.578105</v>
       </c>
       <c r="D70" t="n">
-        <v>0.813643</v>
+        <v>0.802321</v>
       </c>
       <c r="E70" t="n">
-        <v>0.307683</v>
+        <v>0.309712</v>
       </c>
       <c r="F70" t="n">
-        <v>0.495228</v>
+        <v>0.490221</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.376381</v>
+        <v>0.367309</v>
       </c>
       <c r="C71" t="n">
-        <v>0.566792</v>
+        <v>0.570569</v>
       </c>
       <c r="D71" t="n">
-        <v>0.802814</v>
+        <v>0.7919850000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.301083</v>
+        <v>0.299179</v>
       </c>
       <c r="F71" t="n">
-        <v>0.487646</v>
+        <v>0.483081</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.364071</v>
+        <v>0.363214</v>
       </c>
       <c r="C72" t="n">
-        <v>0.559428</v>
+        <v>0.56284</v>
       </c>
       <c r="D72" t="n">
-        <v>0.793258</v>
+        <v>0.783107</v>
       </c>
       <c r="E72" t="n">
-        <v>0.294815</v>
+        <v>0.294778</v>
       </c>
       <c r="F72" t="n">
-        <v>0.481591</v>
+        <v>0.477338</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.351984</v>
+        <v>0.373048</v>
       </c>
       <c r="C73" t="n">
-        <v>0.552577</v>
+        <v>0.556496</v>
       </c>
       <c r="D73" t="n">
-        <v>0.785595</v>
+        <v>0.77585</v>
       </c>
       <c r="E73" t="n">
-        <v>0.286975</v>
+        <v>0.287676</v>
       </c>
       <c r="F73" t="n">
-        <v>0.475429</v>
+        <v>0.472165</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.355211</v>
+        <v>0.365654</v>
       </c>
       <c r="C74" t="n">
-        <v>0.550148</v>
+        <v>0.554168</v>
       </c>
       <c r="D74" t="n">
-        <v>0.779317</v>
+        <v>0.770469</v>
       </c>
       <c r="E74" t="n">
-        <v>0.280678</v>
+        <v>0.281985</v>
       </c>
       <c r="F74" t="n">
-        <v>0.470073</v>
+        <v>0.46712</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.352392</v>
+        <v>0.368949</v>
       </c>
       <c r="C75" t="n">
-        <v>0.543928</v>
+        <v>0.543838</v>
       </c>
       <c r="D75" t="n">
-        <v>0.773602</v>
+        <v>0.7669010000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274863</v>
+        <v>0.272481</v>
       </c>
       <c r="F75" t="n">
-        <v>0.465389</v>
+        <v>0.46227</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.344885</v>
+        <v>0.349639</v>
       </c>
       <c r="C76" t="n">
-        <v>0.541829</v>
+        <v>0.543453</v>
       </c>
       <c r="D76" t="n">
-        <v>0.771115</v>
+        <v>0.764419</v>
       </c>
       <c r="E76" t="n">
-        <v>0.271757</v>
+        <v>0.274245</v>
       </c>
       <c r="F76" t="n">
-        <v>0.462073</v>
+        <v>0.459093</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.336994</v>
+        <v>0.342149</v>
       </c>
       <c r="C77" t="n">
-        <v>0.536295</v>
+        <v>0.539332</v>
       </c>
       <c r="D77" t="n">
-        <v>0.769648</v>
+        <v>0.763713</v>
       </c>
       <c r="E77" t="n">
-        <v>0.267889</v>
+        <v>0.264661</v>
       </c>
       <c r="F77" t="n">
-        <v>0.45916</v>
+        <v>0.45671</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.336808</v>
+        <v>0.334323</v>
       </c>
       <c r="C78" t="n">
-        <v>0.536946</v>
+        <v>0.535031</v>
       </c>
       <c r="D78" t="n">
-        <v>1.23242</v>
+        <v>1.22638</v>
       </c>
       <c r="E78" t="n">
-        <v>0.260561</v>
+        <v>0.26542</v>
       </c>
       <c r="F78" t="n">
-        <v>0.458461</v>
+        <v>0.455259</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.330514</v>
+        <v>0.330153</v>
       </c>
       <c r="C79" t="n">
-        <v>0.531758</v>
+        <v>0.535798</v>
       </c>
       <c r="D79" t="n">
-        <v>1.20921</v>
+        <v>1.20386</v>
       </c>
       <c r="E79" t="n">
-        <v>0.263055</v>
+        <v>0.260028</v>
       </c>
       <c r="F79" t="n">
-        <v>0.458752</v>
+        <v>0.456248</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.337387</v>
+        <v>0.321414</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5352749999999999</v>
+        <v>0.535762</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19153</v>
+        <v>1.18535</v>
       </c>
       <c r="E80" t="n">
-        <v>0.380648</v>
+        <v>0.384395</v>
       </c>
       <c r="F80" t="n">
-        <v>0.746828</v>
+        <v>0.743368</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.44234</v>
+        <v>0.467185</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8606200000000001</v>
+        <v>0.8530450000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17044</v>
+        <v>1.1687</v>
       </c>
       <c r="E81" t="n">
-        <v>0.373922</v>
+        <v>0.378557</v>
       </c>
       <c r="F81" t="n">
-        <v>0.748177</v>
+        <v>0.7455079999999999</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.441547</v>
+        <v>0.437776</v>
       </c>
       <c r="C82" t="n">
-        <v>0.866313</v>
+        <v>0.864017</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15984</v>
+        <v>1.1544</v>
       </c>
       <c r="E82" t="n">
-        <v>0.369395</v>
+        <v>0.371974</v>
       </c>
       <c r="F82" t="n">
-        <v>0.74453</v>
+        <v>0.741163</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.443128</v>
+        <v>0.429204</v>
       </c>
       <c r="C83" t="n">
-        <v>0.861755</v>
+        <v>0.8607359999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14751</v>
+        <v>1.14627</v>
       </c>
       <c r="E83" t="n">
-        <v>0.358892</v>
+        <v>0.363677</v>
       </c>
       <c r="F83" t="n">
-        <v>0.735212</v>
+        <v>0.733532</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.433458</v>
+        <v>0.437691</v>
       </c>
       <c r="C84" t="n">
-        <v>0.850654</v>
+        <v>0.851949</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13357</v>
+        <v>1.1386</v>
       </c>
       <c r="E84" t="n">
-        <v>0.353904</v>
+        <v>0.35592</v>
       </c>
       <c r="F84" t="n">
-        <v>0.724519</v>
+        <v>0.723036</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4318</v>
+        <v>0.413841</v>
       </c>
       <c r="C85" t="n">
-        <v>0.845617</v>
+        <v>0.842291</v>
       </c>
       <c r="D85" t="n">
-        <v>1.12812</v>
+        <v>1.13302</v>
       </c>
       <c r="E85" t="n">
-        <v>0.346441</v>
+        <v>0.346259</v>
       </c>
       <c r="F85" t="n">
-        <v>0.712803</v>
+        <v>0.710993</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.432145</v>
+        <v>0.425946</v>
       </c>
       <c r="C86" t="n">
-        <v>0.832083</v>
+        <v>0.833052</v>
       </c>
       <c r="D86" t="n">
-        <v>1.12568</v>
+        <v>1.12967</v>
       </c>
       <c r="E86" t="n">
-        <v>0.336987</v>
+        <v>0.341077</v>
       </c>
       <c r="F86" t="n">
-        <v>0.699533</v>
+        <v>0.697731</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.456806</v>
+        <v>0.414566</v>
       </c>
       <c r="C87" t="n">
-        <v>0.818765</v>
+        <v>0.81443</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1328</v>
+        <v>1.1308</v>
       </c>
       <c r="E87" t="n">
-        <v>0.330075</v>
+        <v>0.3333</v>
       </c>
       <c r="F87" t="n">
-        <v>0.686206</v>
+        <v>0.686202</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.432382</v>
+        <v>0.412712</v>
       </c>
       <c r="C88" t="n">
-        <v>0.808908</v>
+        <v>0.8050929999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>1.12478</v>
+        <v>1.13041</v>
       </c>
       <c r="E88" t="n">
-        <v>0.326411</v>
+        <v>0.326236</v>
       </c>
       <c r="F88" t="n">
-        <v>0.673941</v>
+        <v>0.6729270000000001</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.41664</v>
+        <v>0.396101</v>
       </c>
       <c r="C89" t="n">
-        <v>0.791554</v>
+        <v>0.795724</v>
       </c>
       <c r="D89" t="n">
-        <v>1.14134</v>
+        <v>1.13798</v>
       </c>
       <c r="E89" t="n">
-        <v>0.317559</v>
+        <v>0.314928</v>
       </c>
       <c r="F89" t="n">
-        <v>0.662393</v>
+        <v>0.662362</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.408711</v>
+        <v>0.388006</v>
       </c>
       <c r="C90" t="n">
-        <v>0.781983</v>
+        <v>0.784195</v>
       </c>
       <c r="D90" t="n">
-        <v>1.13853</v>
+        <v>1.14633</v>
       </c>
       <c r="E90" t="n">
-        <v>0.313465</v>
+        <v>0.315211</v>
       </c>
       <c r="F90" t="n">
-        <v>0.651579</v>
+        <v>0.653134</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.394169</v>
+        <v>0.396523</v>
       </c>
       <c r="C91" t="n">
-        <v>0.773871</v>
+        <v>0.776886</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15851</v>
+        <v>1.16061</v>
       </c>
       <c r="E91" t="n">
-        <v>0.311085</v>
+        <v>0.30375</v>
       </c>
       <c r="F91" t="n">
-        <v>0.642655</v>
+        <v>0.642626</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.392537</v>
+        <v>0.403287</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7607930000000001</v>
+        <v>0.763977</v>
       </c>
       <c r="D92" t="n">
-        <v>1.71922</v>
+        <v>1.71909</v>
       </c>
       <c r="E92" t="n">
-        <v>0.306189</v>
+        <v>0.302967</v>
       </c>
       <c r="F92" t="n">
-        <v>0.635883</v>
+        <v>0.633836</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.39091</v>
+        <v>0.386329</v>
       </c>
       <c r="C93" t="n">
-        <v>0.751486</v>
+        <v>0.756368</v>
       </c>
       <c r="D93" t="n">
-        <v>1.71614</v>
+        <v>1.70892</v>
       </c>
       <c r="E93" t="n">
-        <v>0.303885</v>
+        <v>0.305423</v>
       </c>
       <c r="F93" t="n">
-        <v>0.631367</v>
+        <v>0.62966</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.384881</v>
+        <v>0.387879</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7556310000000001</v>
+        <v>0.752439</v>
       </c>
       <c r="D94" t="n">
-        <v>1.70033</v>
+        <v>1.69681</v>
       </c>
       <c r="E94" t="n">
-        <v>0.490691</v>
+        <v>0.498313</v>
       </c>
       <c r="F94" t="n">
-        <v>1.11824</v>
+        <v>1.12036</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.571798</v>
+        <v>0.57689</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14394</v>
+        <v>1.13676</v>
       </c>
       <c r="D95" t="n">
-        <v>1.68607</v>
+        <v>1.6845</v>
       </c>
       <c r="E95" t="n">
-        <v>0.486498</v>
+        <v>0.49295</v>
       </c>
       <c r="F95" t="n">
-        <v>1.114</v>
+        <v>1.11782</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.567351</v>
+        <v>0.569798</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14541</v>
+        <v>1.15514</v>
       </c>
       <c r="D96" t="n">
-        <v>1.67529</v>
+        <v>1.67298</v>
       </c>
       <c r="E96" t="n">
-        <v>0.469976</v>
+        <v>0.476948</v>
       </c>
       <c r="F96" t="n">
-        <v>1.10138</v>
+        <v>1.09408</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5697950000000001</v>
+        <v>0.580389</v>
       </c>
       <c r="C97" t="n">
-        <v>1.13687</v>
+        <v>1.14132</v>
       </c>
       <c r="D97" t="n">
-        <v>1.67014</v>
+        <v>1.66884</v>
       </c>
       <c r="E97" t="n">
-        <v>0.459718</v>
+        <v>0.470089</v>
       </c>
       <c r="F97" t="n">
-        <v>1.08442</v>
+        <v>1.087</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.573443</v>
+        <v>0.579443</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1251</v>
+        <v>1.12878</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66126</v>
+        <v>1.66129</v>
       </c>
       <c r="E98" t="n">
-        <v>0.450686</v>
+        <v>0.456931</v>
       </c>
       <c r="F98" t="n">
-        <v>1.06763</v>
+        <v>1.06023</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.539964</v>
+        <v>0.547942</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12089</v>
+        <v>1.12053</v>
       </c>
       <c r="D99" t="n">
-        <v>1.66002</v>
+        <v>1.65728</v>
       </c>
       <c r="E99" t="n">
-        <v>0.441581</v>
+        <v>0.44725</v>
       </c>
       <c r="F99" t="n">
-        <v>1.0517</v>
+        <v>1.04409</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.54896</v>
+        <v>0.5463980000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11719</v>
+        <v>1.11793</v>
       </c>
       <c r="D100" t="n">
-        <v>1.66184</v>
+        <v>1.65979</v>
       </c>
       <c r="E100" t="n">
-        <v>0.432587</v>
+        <v>0.437704</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03394</v>
+        <v>1.03621</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.532408</v>
+        <v>0.546075</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10262</v>
+        <v>1.08472</v>
       </c>
       <c r="D101" t="n">
-        <v>1.66636</v>
+        <v>1.6636</v>
       </c>
       <c r="E101" t="n">
-        <v>0.420819</v>
+        <v>0.431482</v>
       </c>
       <c r="F101" t="n">
-        <v>1.01759</v>
+        <v>1.0192</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.518255</v>
+        <v>0.530415</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08206</v>
+        <v>1.06864</v>
       </c>
       <c r="D102" t="n">
-        <v>1.67357</v>
+        <v>1.66721</v>
       </c>
       <c r="E102" t="n">
-        <v>0.412952</v>
+        <v>0.415567</v>
       </c>
       <c r="F102" t="n">
-        <v>1.00338</v>
+        <v>1.00319</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.530493</v>
+        <v>0.508377</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06129</v>
+        <v>1.05628</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67989</v>
+        <v>1.6779</v>
       </c>
       <c r="E103" t="n">
-        <v>0.404372</v>
+        <v>0.408353</v>
       </c>
       <c r="F103" t="n">
-        <v>0.988973</v>
+        <v>0.990698</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.507915</v>
+        <v>0.517827</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05528</v>
+        <v>1.04929</v>
       </c>
       <c r="D104" t="n">
-        <v>1.6907</v>
+        <v>1.6866</v>
       </c>
       <c r="E104" t="n">
-        <v>0.398408</v>
+        <v>0.399702</v>
       </c>
       <c r="F104" t="n">
-        <v>0.959811</v>
+        <v>0.96666</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.497687</v>
+        <v>0.506462</v>
       </c>
       <c r="C105" t="n">
-        <v>1.05408</v>
+        <v>1.04517</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70401</v>
+        <v>1.70071</v>
       </c>
       <c r="E105" t="n">
-        <v>0.391311</v>
+        <v>0.394132</v>
       </c>
       <c r="F105" t="n">
-        <v>0.962048</v>
+        <v>0.952193</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.498964</v>
+        <v>0.499347</v>
       </c>
       <c r="C106" t="n">
-        <v>1.04452</v>
+        <v>1.03884</v>
       </c>
       <c r="D106" t="n">
-        <v>1.72356</v>
+        <v>1.71801</v>
       </c>
       <c r="E106" t="n">
-        <v>0.387044</v>
+        <v>0.391333</v>
       </c>
       <c r="F106" t="n">
-        <v>0.952658</v>
+        <v>0.955402</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.500962</v>
+        <v>0.495471</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02957</v>
+        <v>1.03554</v>
       </c>
       <c r="D107" t="n">
-        <v>2.31474</v>
+        <v>2.30885</v>
       </c>
       <c r="E107" t="n">
-        <v>0.380736</v>
+        <v>0.387694</v>
       </c>
       <c r="F107" t="n">
-        <v>0.943496</v>
+        <v>0.908249</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.488953</v>
+        <v>0.492637</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02723</v>
+        <v>1.01881</v>
       </c>
       <c r="D108" t="n">
-        <v>2.28637</v>
+        <v>2.27869</v>
       </c>
       <c r="E108" t="n">
-        <v>0.575577</v>
+        <v>0.5876169999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>2.37438</v>
+        <v>2.37848</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.49761</v>
+        <v>0.505358</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02272</v>
+        <v>1.03076</v>
       </c>
       <c r="D109" t="n">
-        <v>2.26241</v>
+        <v>2.25356</v>
       </c>
       <c r="E109" t="n">
-        <v>0.573699</v>
+        <v>0.583368</v>
       </c>
       <c r="F109" t="n">
-        <v>2.38073</v>
+        <v>2.38547</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.701258</v>
+        <v>0.7159450000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>2.54405</v>
+        <v>2.55395</v>
       </c>
       <c r="D110" t="n">
-        <v>2.24529</v>
+        <v>2.23341</v>
       </c>
       <c r="E110" t="n">
-        <v>0.560301</v>
+        <v>0.569796</v>
       </c>
       <c r="F110" t="n">
-        <v>2.38809</v>
+        <v>2.38734</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7007679999999999</v>
+        <v>0.701896</v>
       </c>
       <c r="C111" t="n">
-        <v>2.56262</v>
+        <v>2.54804</v>
       </c>
       <c r="D111" t="n">
-        <v>2.227</v>
+        <v>2.233</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5463170000000001</v>
+        <v>0.5573360000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>2.40302</v>
+        <v>2.38888</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.686048</v>
+        <v>0.633323</v>
       </c>
       <c r="C112" t="n">
-        <v>2.55012</v>
+        <v>2.56256</v>
       </c>
       <c r="D112" t="n">
-        <v>2.21932</v>
+        <v>2.21991</v>
       </c>
       <c r="E112" t="n">
-        <v>0.496288</v>
+        <v>0.503433</v>
       </c>
       <c r="F112" t="n">
-        <v>2.40321</v>
+        <v>2.39067</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.671889</v>
+        <v>0.6868880000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>2.56953</v>
+        <v>2.55907</v>
       </c>
       <c r="D113" t="n">
-        <v>2.21373</v>
+        <v>2.19476</v>
       </c>
       <c r="E113" t="n">
-        <v>0.525383</v>
+        <v>0.495936</v>
       </c>
       <c r="F113" t="n">
-        <v>2.40001</v>
+        <v>2.38687</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6653480000000001</v>
+        <v>0.663678</v>
       </c>
       <c r="C114" t="n">
-        <v>2.55564</v>
+        <v>2.54621</v>
       </c>
       <c r="D114" t="n">
-        <v>2.23131</v>
+        <v>2.20907</v>
       </c>
       <c r="E114" t="n">
-        <v>0.479865</v>
+        <v>0.521869</v>
       </c>
       <c r="F114" t="n">
-        <v>2.39456</v>
+        <v>2.3919</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.648792</v>
+        <v>0.659953</v>
       </c>
       <c r="C115" t="n">
-        <v>2.55615</v>
+        <v>2.54956</v>
       </c>
       <c r="D115" t="n">
-        <v>2.2313</v>
+        <v>2.24736</v>
       </c>
       <c r="E115" t="n">
-        <v>0.473899</v>
+        <v>0.475448</v>
       </c>
       <c r="F115" t="n">
-        <v>2.40742</v>
+        <v>2.39262</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6180290000000001</v>
+        <v>0.620854</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56417</v>
+        <v>2.56047</v>
       </c>
       <c r="D116" t="n">
-        <v>2.22124</v>
+        <v>2.23854</v>
       </c>
       <c r="E116" t="n">
-        <v>0.493539</v>
+        <v>0.502959</v>
       </c>
       <c r="F116" t="n">
-        <v>2.40948</v>
+        <v>2.39269</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.59533</v>
+        <v>0.636175</v>
       </c>
       <c r="C117" t="n">
-        <v>2.56937</v>
+        <v>2.5501</v>
       </c>
       <c r="D117" t="n">
-        <v>2.21971</v>
+        <v>2.21336</v>
       </c>
       <c r="E117" t="n">
-        <v>0.487132</v>
+        <v>0.494395</v>
       </c>
       <c r="F117" t="n">
-        <v>2.41694</v>
+        <v>2.3959</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626281</v>
+        <v>0.6277199999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>2.55976</v>
+        <v>2.55599</v>
       </c>
       <c r="D118" t="n">
-        <v>2.19556</v>
+        <v>2.19145</v>
       </c>
       <c r="E118" t="n">
-        <v>0.449301</v>
+        <v>0.455655</v>
       </c>
       <c r="F118" t="n">
-        <v>2.2183</v>
+        <v>2.2077</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.606015</v>
+        <v>0.6230560000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>2.58827</v>
+        <v>2.57914</v>
       </c>
       <c r="D119" t="n">
-        <v>2.18383</v>
+        <v>2.18347</v>
       </c>
       <c r="E119" t="n">
-        <v>0.443309</v>
+        <v>0.445369</v>
       </c>
       <c r="F119" t="n">
-        <v>2.41251</v>
+        <v>1.79197</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.580008</v>
+        <v>0.601506</v>
       </c>
       <c r="C120" t="n">
-        <v>2.16123</v>
+        <v>2.561</v>
       </c>
       <c r="D120" t="n">
-        <v>2.20829</v>
+        <v>2.19341</v>
       </c>
       <c r="E120" t="n">
-        <v>0.438834</v>
+        <v>0.440311</v>
       </c>
       <c r="F120" t="n">
-        <v>2.01178</v>
+        <v>1.59425</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.603892</v>
+        <v>0.607674</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57756</v>
+        <v>2.57388</v>
       </c>
       <c r="D121" t="n">
-        <v>2.86923</v>
+        <v>2.85997</v>
       </c>
       <c r="E121" t="n">
-        <v>0.436275</v>
+        <v>0.438794</v>
       </c>
       <c r="F121" t="n">
-        <v>1.79889</v>
+        <v>1.79509</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.590537</v>
+        <v>0.586322</v>
       </c>
       <c r="C122" t="n">
-        <v>2.57551</v>
+        <v>2.57106</v>
       </c>
       <c r="D122" t="n">
-        <v>2.82014</v>
+        <v>2.80817</v>
       </c>
       <c r="E122" t="n">
-        <v>0.455684</v>
+        <v>0.435497</v>
       </c>
       <c r="F122" t="n">
-        <v>2.43935</v>
+        <v>1.79698</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.592401</v>
+        <v>0.59311</v>
       </c>
       <c r="C123" t="n">
-        <v>2.59241</v>
+        <v>2.57885</v>
       </c>
       <c r="D123" t="n">
-        <v>2.7852</v>
+        <v>2.76729</v>
       </c>
       <c r="E123" t="n">
-        <v>0.624486</v>
+        <v>0.630643</v>
       </c>
       <c r="F123" t="n">
-        <v>2.89855</v>
+        <v>2.90369</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.773829</v>
+        <v>0.785037</v>
       </c>
       <c r="C124" t="n">
-        <v>3.13706</v>
+        <v>3.14201</v>
       </c>
       <c r="D124" t="n">
-        <v>2.74949</v>
+        <v>2.74192</v>
       </c>
       <c r="E124" t="n">
-        <v>0.614718</v>
+        <v>0.624178</v>
       </c>
       <c r="F124" t="n">
-        <v>2.90729</v>
+        <v>2.893</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.754401</v>
+        <v>0.771209</v>
       </c>
       <c r="C125" t="n">
-        <v>3.13373</v>
+        <v>3.11739</v>
       </c>
       <c r="D125" t="n">
-        <v>2.7233</v>
+        <v>2.70836</v>
       </c>
       <c r="E125" t="n">
-        <v>0.607499</v>
+        <v>0.617513</v>
       </c>
       <c r="F125" t="n">
-        <v>2.90177</v>
+        <v>2.88643</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.760947</v>
+        <v>0.751703</v>
       </c>
       <c r="C126" t="n">
-        <v>3.13609</v>
+        <v>3.1099</v>
       </c>
       <c r="D126" t="n">
-        <v>2.69578</v>
+        <v>2.67925</v>
       </c>
       <c r="E126" t="n">
-        <v>0.622692</v>
+        <v>0.607727</v>
       </c>
       <c r="F126" t="n">
-        <v>2.88035</v>
+        <v>2.8765</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7266319999999999</v>
+        <v>0.756811</v>
       </c>
       <c r="C127" t="n">
-        <v>3.11339</v>
+        <v>3.09541</v>
       </c>
       <c r="D127" t="n">
-        <v>2.66148</v>
+        <v>2.66346</v>
       </c>
       <c r="E127" t="n">
-        <v>0.597799</v>
+        <v>0.600533</v>
       </c>
       <c r="F127" t="n">
-        <v>2.88407</v>
+        <v>2.87957</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7342070000000001</v>
+        <v>0.751846</v>
       </c>
       <c r="C128" t="n">
-        <v>3.1004</v>
+        <v>3.09427</v>
       </c>
       <c r="D128" t="n">
-        <v>2.63753</v>
+        <v>2.63023</v>
       </c>
       <c r="E128" t="n">
-        <v>0.591545</v>
+        <v>0.594256</v>
       </c>
       <c r="F128" t="n">
-        <v>2.88018</v>
+        <v>2.86949</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.717168</v>
+        <v>0.7324349999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>3.09338</v>
+        <v>3.07125</v>
       </c>
       <c r="D129" t="n">
-        <v>2.62947</v>
+        <v>2.61652</v>
       </c>
       <c r="E129" t="n">
-        <v>0.585492</v>
+        <v>0.589456</v>
       </c>
       <c r="F129" t="n">
-        <v>2.86548</v>
+        <v>2.86048</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.712503</v>
+        <v>0.722463</v>
       </c>
       <c r="C130" t="n">
-        <v>3.08827</v>
+        <v>3.08048</v>
       </c>
       <c r="D130" t="n">
-        <v>2.61205</v>
+        <v>2.60907</v>
       </c>
       <c r="E130" t="n">
-        <v>0.57901</v>
+        <v>0.58292</v>
       </c>
       <c r="F130" t="n">
-        <v>2.86388</v>
+        <v>2.84822</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.707417</v>
+        <v>0.711272</v>
       </c>
       <c r="C131" t="n">
-        <v>3.0765</v>
+        <v>3.06994</v>
       </c>
       <c r="D131" t="n">
-        <v>2.6029</v>
+        <v>2.58977</v>
       </c>
       <c r="E131" t="n">
-        <v>0.573595</v>
+        <v>0.577603</v>
       </c>
       <c r="F131" t="n">
-        <v>2.86442</v>
+        <v>2.85765</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.714735</v>
+        <v>0.705618</v>
       </c>
       <c r="C132" t="n">
-        <v>3.07953</v>
+        <v>3.05906</v>
       </c>
       <c r="D132" t="n">
-        <v>2.59348</v>
+        <v>2.58641</v>
       </c>
       <c r="E132" t="n">
-        <v>0.570186</v>
+        <v>0.572951</v>
       </c>
       <c r="F132" t="n">
-        <v>2.86734</v>
+        <v>2.8567</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.70631</v>
+        <v>0.708291</v>
       </c>
       <c r="C133" t="n">
-        <v>3.06209</v>
+        <v>3.04756</v>
       </c>
       <c r="D133" t="n">
-        <v>2.58974</v>
+        <v>2.58033</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5669920000000001</v>
+        <v>0.568101</v>
       </c>
       <c r="F133" t="n">
-        <v>2.868</v>
+        <v>2.85956</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6878030000000001</v>
+        <v>0.698974</v>
       </c>
       <c r="C134" t="n">
-        <v>3.0588</v>
+        <v>3.0419</v>
       </c>
       <c r="D134" t="n">
-        <v>2.57312</v>
+        <v>2.56066</v>
       </c>
       <c r="E134" t="n">
-        <v>0.536432</v>
+        <v>0.536829</v>
       </c>
       <c r="F134" t="n">
-        <v>2.16179</v>
+        <v>2.39622</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.692473</v>
+        <v>0.691912</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06134</v>
+        <v>3.04675</v>
       </c>
       <c r="D135" t="n">
-        <v>3.25856</v>
+        <v>3.24443</v>
       </c>
       <c r="E135" t="n">
-        <v>0.533417</v>
+        <v>0.534931</v>
       </c>
       <c r="F135" t="n">
-        <v>2.86844</v>
+        <v>2.3888</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.691728</v>
+        <v>0.687009</v>
       </c>
       <c r="C136" t="n">
-        <v>3.04958</v>
+        <v>3.03332</v>
       </c>
       <c r="D136" t="n">
-        <v>3.20553</v>
+        <v>3.20152</v>
       </c>
       <c r="E136" t="n">
-        <v>0.530556</v>
+        <v>0.53217</v>
       </c>
       <c r="F136" t="n">
-        <v>2.40028</v>
+        <v>2.39478</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.675598</v>
+        <v>0.656654</v>
       </c>
       <c r="C137" t="n">
-        <v>3.0494</v>
+        <v>3.04248</v>
       </c>
       <c r="D137" t="n">
-        <v>3.14493</v>
+        <v>3.13902</v>
       </c>
       <c r="E137" t="n">
-        <v>0.717487</v>
+        <v>0.7228869999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>3.31997</v>
+        <v>3.31485</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.857311</v>
+        <v>0.869004</v>
       </c>
       <c r="C138" t="n">
-        <v>3.56046</v>
+        <v>3.5902</v>
       </c>
       <c r="D138" t="n">
-        <v>3.10247</v>
+        <v>3.09092</v>
       </c>
       <c r="E138" t="n">
-        <v>0.711844</v>
+        <v>0.717319</v>
       </c>
       <c r="F138" t="n">
-        <v>3.30417</v>
+        <v>3.30309</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.838676</v>
+        <v>0.832659</v>
       </c>
       <c r="C139" t="n">
-        <v>3.53411</v>
+        <v>3.50737</v>
       </c>
       <c r="D139" t="n">
-        <v>3.05819</v>
+        <v>3.05248</v>
       </c>
       <c r="E139" t="n">
-        <v>0.708829</v>
+        <v>0.71373</v>
       </c>
       <c r="F139" t="n">
-        <v>3.29762</v>
+        <v>3.2912</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.855427</v>
+        <v>0.864725</v>
       </c>
       <c r="C140" t="n">
-        <v>3.49017</v>
+        <v>3.49306</v>
       </c>
       <c r="D140" t="n">
-        <v>3.02358</v>
+        <v>3.01277</v>
       </c>
       <c r="E140" t="n">
-        <v>0.70669</v>
+        <v>0.711181</v>
       </c>
       <c r="F140" t="n">
-        <v>3.27942</v>
+        <v>3.27499</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.824632</v>
+        <v>0.847248</v>
       </c>
       <c r="C141" t="n">
-        <v>3.47108</v>
+        <v>3.47501</v>
       </c>
       <c r="D141" t="n">
-        <v>2.99108</v>
+        <v>2.9874</v>
       </c>
       <c r="E141" t="n">
-        <v>0.70047</v>
+        <v>0.706557</v>
       </c>
       <c r="F141" t="n">
-        <v>3.26759</v>
+        <v>3.2584</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.814859</v>
+        <v>0.853939</v>
       </c>
       <c r="C142" t="n">
-        <v>3.46398</v>
+        <v>3.4558</v>
       </c>
       <c r="D142" t="n">
-        <v>2.97769</v>
+        <v>2.96047</v>
       </c>
       <c r="E142" t="n">
-        <v>0.698168</v>
+        <v>0.720809</v>
       </c>
       <c r="F142" t="n">
-        <v>3.25128</v>
+        <v>3.24335</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.820478</v>
+        <v>0.835917</v>
       </c>
       <c r="C143" t="n">
-        <v>3.44974</v>
+        <v>3.43877</v>
       </c>
       <c r="D143" t="n">
-        <v>2.94616</v>
+        <v>2.94192</v>
       </c>
       <c r="E143" t="n">
-        <v>0.695986</v>
+        <v>0.717707</v>
       </c>
       <c r="F143" t="n">
-        <v>3.23294</v>
+        <v>3.22643</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.254243</v>
+        <v>0.254624</v>
       </c>
       <c r="C2" t="n">
-        <v>0.416735</v>
+        <v>0.41604</v>
       </c>
       <c r="D2" t="n">
-        <v>0.574263</v>
+        <v>0.569035</v>
       </c>
       <c r="E2" t="n">
-        <v>0.208208</v>
+        <v>0.207955</v>
       </c>
       <c r="F2" t="n">
-        <v>0.385447</v>
+        <v>0.385801</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243041</v>
+        <v>0.248909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.420019</v>
+        <v>0.413618</v>
       </c>
       <c r="D3" t="n">
-        <v>0.56633</v>
+        <v>0.565941</v>
       </c>
       <c r="E3" t="n">
-        <v>0.201101</v>
+        <v>0.20147</v>
       </c>
       <c r="F3" t="n">
-        <v>0.378794</v>
+        <v>0.378869</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239917</v>
+        <v>0.236954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.412885</v>
+        <v>0.407652</v>
       </c>
       <c r="D4" t="n">
-        <v>0.557993</v>
+        <v>0.559314</v>
       </c>
       <c r="E4" t="n">
-        <v>0.195689</v>
+        <v>0.196166</v>
       </c>
       <c r="F4" t="n">
-        <v>0.37305</v>
+        <v>0.373603</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237089</v>
+        <v>0.230996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.406562</v>
+        <v>0.401238</v>
       </c>
       <c r="D5" t="n">
-        <v>0.552086</v>
+        <v>0.553534</v>
       </c>
       <c r="E5" t="n">
-        <v>0.19114</v>
+        <v>0.191322</v>
       </c>
       <c r="F5" t="n">
-        <v>0.368084</v>
+        <v>0.368211</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.228544</v>
+        <v>0.235148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.40492</v>
+        <v>0.397479</v>
       </c>
       <c r="D6" t="n">
-        <v>0.546995</v>
+        <v>0.546926</v>
       </c>
       <c r="E6" t="n">
-        <v>0.188223</v>
+        <v>0.188104</v>
       </c>
       <c r="F6" t="n">
-        <v>0.364679</v>
+        <v>0.364952</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226288</v>
+        <v>0.230766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.40206</v>
+        <v>0.394372</v>
       </c>
       <c r="D7" t="n">
-        <v>0.708923</v>
+        <v>0.707026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.185202</v>
+        <v>0.185892</v>
       </c>
       <c r="F7" t="n">
-        <v>0.362502</v>
+        <v>0.362662</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226612</v>
+        <v>0.229251</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398422</v>
+        <v>0.393378</v>
       </c>
       <c r="D8" t="n">
-        <v>0.695574</v>
+        <v>0.690725</v>
       </c>
       <c r="E8" t="n">
-        <v>0.187281</v>
+        <v>0.187822</v>
       </c>
       <c r="F8" t="n">
-        <v>0.362521</v>
+        <v>0.362534</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226014</v>
+        <v>0.228712</v>
       </c>
       <c r="C9" t="n">
-        <v>0.39671</v>
+        <v>0.392506</v>
       </c>
       <c r="D9" t="n">
-        <v>0.677567</v>
+        <v>0.68203</v>
       </c>
       <c r="E9" t="n">
-        <v>0.278781</v>
+        <v>0.278879</v>
       </c>
       <c r="F9" t="n">
-        <v>0.451485</v>
+        <v>0.452393</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314617</v>
+        <v>0.317337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.481018</v>
+        <v>0.48102</v>
       </c>
       <c r="D10" t="n">
-        <v>0.664679</v>
+        <v>0.661358</v>
       </c>
       <c r="E10" t="n">
-        <v>0.267471</v>
+        <v>0.269201</v>
       </c>
       <c r="F10" t="n">
-        <v>0.440695</v>
+        <v>0.440376</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.315191</v>
+        <v>0.307368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.470044</v>
+        <v>0.470633</v>
       </c>
       <c r="D11" t="n">
-        <v>0.652693</v>
+        <v>0.649104</v>
       </c>
       <c r="E11" t="n">
-        <v>0.258977</v>
+        <v>0.258947</v>
       </c>
       <c r="F11" t="n">
-        <v>0.431423</v>
+        <v>0.434555</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.293328</v>
+        <v>0.296976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.460505</v>
+        <v>0.461148</v>
       </c>
       <c r="D12" t="n">
-        <v>0.640203</v>
+        <v>0.638642</v>
       </c>
       <c r="E12" t="n">
-        <v>0.250975</v>
+        <v>0.250912</v>
       </c>
       <c r="F12" t="n">
-        <v>0.422027</v>
+        <v>0.425563</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286519</v>
+        <v>0.286664</v>
       </c>
       <c r="C13" t="n">
-        <v>0.450951</v>
+        <v>0.449779</v>
       </c>
       <c r="D13" t="n">
-        <v>0.628493</v>
+        <v>0.6256350000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.243855</v>
+        <v>0.243836</v>
       </c>
       <c r="F13" t="n">
-        <v>0.413386</v>
+        <v>0.41532</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275953</v>
+        <v>0.278438</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441698</v>
+        <v>0.440244</v>
       </c>
       <c r="D14" t="n">
-        <v>0.623489</v>
+        <v>0.615923</v>
       </c>
       <c r="E14" t="n">
-        <v>0.236281</v>
+        <v>0.237845</v>
       </c>
       <c r="F14" t="n">
-        <v>0.40502</v>
+        <v>0.407048</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.272625</v>
+        <v>0.274771</v>
       </c>
       <c r="C15" t="n">
-        <v>0.434621</v>
+        <v>0.432329</v>
       </c>
       <c r="D15" t="n">
-        <v>0.612347</v>
+        <v>0.608967</v>
       </c>
       <c r="E15" t="n">
-        <v>0.229603</v>
+        <v>0.229276</v>
       </c>
       <c r="F15" t="n">
-        <v>0.397438</v>
+        <v>0.399968</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.26543</v>
+        <v>0.270288</v>
       </c>
       <c r="C16" t="n">
-        <v>0.427848</v>
+        <v>0.426379</v>
       </c>
       <c r="D16" t="n">
-        <v>0.605208</v>
+        <v>0.601245</v>
       </c>
       <c r="E16" t="n">
-        <v>0.224333</v>
+        <v>0.223127</v>
       </c>
       <c r="F16" t="n">
-        <v>0.390339</v>
+        <v>0.39242</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.265402</v>
+        <v>0.258922</v>
       </c>
       <c r="C17" t="n">
-        <v>0.423222</v>
+        <v>0.420508</v>
       </c>
       <c r="D17" t="n">
-        <v>0.597863</v>
+        <v>0.594019</v>
       </c>
       <c r="E17" t="n">
-        <v>0.218604</v>
+        <v>0.217823</v>
       </c>
       <c r="F17" t="n">
-        <v>0.383274</v>
+        <v>0.38445</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254965</v>
+        <v>0.250638</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416292</v>
+        <v>0.414499</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585372</v>
+        <v>0.587385</v>
       </c>
       <c r="E18" t="n">
-        <v>0.212367</v>
+        <v>0.213202</v>
       </c>
       <c r="F18" t="n">
-        <v>0.377466</v>
+        <v>0.379978</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.245632</v>
+        <v>0.253049</v>
       </c>
       <c r="C19" t="n">
-        <v>0.411115</v>
+        <v>0.407967</v>
       </c>
       <c r="D19" t="n">
-        <v>0.579197</v>
+        <v>0.578309</v>
       </c>
       <c r="E19" t="n">
-        <v>0.207925</v>
+        <v>0.208242</v>
       </c>
       <c r="F19" t="n">
-        <v>0.37376</v>
+        <v>0.373656</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244967</v>
+        <v>0.252062</v>
       </c>
       <c r="C20" t="n">
-        <v>0.407196</v>
+        <v>0.404854</v>
       </c>
       <c r="D20" t="n">
-        <v>0.576402</v>
+        <v>0.572341</v>
       </c>
       <c r="E20" t="n">
-        <v>0.204964</v>
+        <v>0.205089</v>
       </c>
       <c r="F20" t="n">
-        <v>0.369403</v>
+        <v>0.369648</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239482</v>
+        <v>0.243163</v>
       </c>
       <c r="C21" t="n">
-        <v>0.401977</v>
+        <v>0.398113</v>
       </c>
       <c r="D21" t="n">
-        <v>0.765652</v>
+        <v>0.762332</v>
       </c>
       <c r="E21" t="n">
-        <v>0.204435</v>
+        <v>0.205383</v>
       </c>
       <c r="F21" t="n">
-        <v>0.366874</v>
+        <v>0.366656</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.244064</v>
+        <v>0.238782</v>
       </c>
       <c r="C22" t="n">
-        <v>0.400508</v>
+        <v>0.395763</v>
       </c>
       <c r="D22" t="n">
-        <v>0.746958</v>
+        <v>0.744022</v>
       </c>
       <c r="E22" t="n">
-        <v>0.20462</v>
+        <v>0.206308</v>
       </c>
       <c r="F22" t="n">
-        <v>0.367137</v>
+        <v>0.367144</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.245607</v>
+        <v>0.241129</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3988</v>
+        <v>0.395044</v>
       </c>
       <c r="D23" t="n">
-        <v>0.738127</v>
+        <v>0.727823</v>
       </c>
       <c r="E23" t="n">
-        <v>0.29852</v>
+        <v>0.297838</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461853</v>
+        <v>0.462398</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.321466</v>
+        <v>0.319813</v>
       </c>
       <c r="C24" t="n">
-        <v>0.489269</v>
+        <v>0.492458</v>
       </c>
       <c r="D24" t="n">
-        <v>0.715265</v>
+        <v>0.714911</v>
       </c>
       <c r="E24" t="n">
-        <v>0.285835</v>
+        <v>0.286512</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451487</v>
+        <v>0.451042</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.313079</v>
+        <v>0.317915</v>
       </c>
       <c r="C25" t="n">
-        <v>0.479336</v>
+        <v>0.482298</v>
       </c>
       <c r="D25" t="n">
-        <v>0.70138</v>
+        <v>0.700201</v>
       </c>
       <c r="E25" t="n">
-        <v>0.276129</v>
+        <v>0.277142</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441061</v>
+        <v>0.441526</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.302882</v>
+        <v>0.308888</v>
       </c>
       <c r="C26" t="n">
-        <v>0.471928</v>
+        <v>0.470968</v>
       </c>
       <c r="D26" t="n">
-        <v>0.690419</v>
+        <v>0.686026</v>
       </c>
       <c r="E26" t="n">
-        <v>0.269331</v>
+        <v>0.268364</v>
       </c>
       <c r="F26" t="n">
-        <v>0.432307</v>
+        <v>0.432426</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294338</v>
+        <v>0.293702</v>
       </c>
       <c r="C27" t="n">
-        <v>0.463385</v>
+        <v>0.461858</v>
       </c>
       <c r="D27" t="n">
-        <v>0.678958</v>
+        <v>0.67604</v>
       </c>
       <c r="E27" t="n">
-        <v>0.259641</v>
+        <v>0.261099</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423145</v>
+        <v>0.423338</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.28839</v>
+        <v>0.283667</v>
       </c>
       <c r="C28" t="n">
-        <v>0.456135</v>
+        <v>0.455281</v>
       </c>
       <c r="D28" t="n">
-        <v>0.669781</v>
+        <v>0.665004</v>
       </c>
       <c r="E28" t="n">
-        <v>0.252151</v>
+        <v>0.2533</v>
       </c>
       <c r="F28" t="n">
-        <v>0.415044</v>
+        <v>0.41595</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284574</v>
+        <v>0.279827</v>
       </c>
       <c r="C29" t="n">
-        <v>0.448014</v>
+        <v>0.447242</v>
       </c>
       <c r="D29" t="n">
-        <v>0.656578</v>
+        <v>0.656721</v>
       </c>
       <c r="E29" t="n">
-        <v>0.245058</v>
+        <v>0.245568</v>
       </c>
       <c r="F29" t="n">
-        <v>0.407064</v>
+        <v>0.406976</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274449</v>
+        <v>0.272963</v>
       </c>
       <c r="C30" t="n">
-        <v>0.441485</v>
+        <v>0.440769</v>
       </c>
       <c r="D30" t="n">
-        <v>0.646554</v>
+        <v>0.647147</v>
       </c>
       <c r="E30" t="n">
-        <v>0.238754</v>
+        <v>0.238455</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399618</v>
+        <v>0.399361</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268083</v>
+        <v>0.268596</v>
       </c>
       <c r="C31" t="n">
-        <v>0.434888</v>
+        <v>0.433007</v>
       </c>
       <c r="D31" t="n">
-        <v>0.638038</v>
+        <v>0.637427</v>
       </c>
       <c r="E31" t="n">
-        <v>0.231696</v>
+        <v>0.233488</v>
       </c>
       <c r="F31" t="n">
-        <v>0.392449</v>
+        <v>0.392352</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.259717</v>
+        <v>0.260945</v>
       </c>
       <c r="C32" t="n">
-        <v>0.428413</v>
+        <v>0.425988</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6316850000000001</v>
+        <v>0.632185</v>
       </c>
       <c r="E32" t="n">
-        <v>0.227007</v>
+        <v>0.228018</v>
       </c>
       <c r="F32" t="n">
-        <v>0.386656</v>
+        <v>0.386046</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.253757</v>
+        <v>0.254988</v>
       </c>
       <c r="C33" t="n">
-        <v>0.42184</v>
+        <v>0.420959</v>
       </c>
       <c r="D33" t="n">
-        <v>0.626007</v>
+        <v>0.627732</v>
       </c>
       <c r="E33" t="n">
-        <v>0.222628</v>
+        <v>0.222655</v>
       </c>
       <c r="F33" t="n">
-        <v>0.380901</v>
+        <v>0.380894</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248764</v>
+        <v>0.251134</v>
       </c>
       <c r="C34" t="n">
-        <v>0.415598</v>
+        <v>0.417446</v>
       </c>
       <c r="D34" t="n">
-        <v>0.619398</v>
+        <v>0.619163</v>
       </c>
       <c r="E34" t="n">
-        <v>0.217895</v>
+        <v>0.219371</v>
       </c>
       <c r="F34" t="n">
-        <v>0.376633</v>
+        <v>0.376413</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248426</v>
+        <v>0.246645</v>
       </c>
       <c r="C35" t="n">
-        <v>0.41586</v>
+        <v>0.410188</v>
       </c>
       <c r="D35" t="n">
-        <v>0.817875</v>
+        <v>0.818777</v>
       </c>
       <c r="E35" t="n">
-        <v>0.216589</v>
+        <v>0.216773</v>
       </c>
       <c r="F35" t="n">
-        <v>0.373845</v>
+        <v>0.373415</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244856</v>
+        <v>0.244279</v>
       </c>
       <c r="C36" t="n">
-        <v>0.412031</v>
+        <v>0.408673</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7993710000000001</v>
+        <v>0.7998769999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.214233</v>
+        <v>0.214258</v>
       </c>
       <c r="F36" t="n">
-        <v>0.372899</v>
+        <v>0.372516</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.241743</v>
+        <v>0.242445</v>
       </c>
       <c r="C37" t="n">
-        <v>0.410536</v>
+        <v>0.40703</v>
       </c>
       <c r="D37" t="n">
-        <v>0.781717</v>
+        <v>0.782</v>
       </c>
       <c r="E37" t="n">
-        <v>0.309642</v>
+        <v>0.308513</v>
       </c>
       <c r="F37" t="n">
-        <v>0.470812</v>
+        <v>0.470662</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.329474</v>
+        <v>0.328337</v>
       </c>
       <c r="C38" t="n">
-        <v>0.506965</v>
+        <v>0.503038</v>
       </c>
       <c r="D38" t="n">
-        <v>0.764858</v>
+        <v>0.765915</v>
       </c>
       <c r="E38" t="n">
-        <v>0.299505</v>
+        <v>0.298686</v>
       </c>
       <c r="F38" t="n">
-        <v>0.460634</v>
+        <v>0.460596</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318374</v>
+        <v>0.315657</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501729</v>
+        <v>0.49951</v>
       </c>
       <c r="D39" t="n">
-        <v>0.75007</v>
+        <v>0.749356</v>
       </c>
       <c r="E39" t="n">
-        <v>0.28903</v>
+        <v>0.288951</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451923</v>
+        <v>0.451972</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.311633</v>
+        <v>0.310923</v>
       </c>
       <c r="C40" t="n">
-        <v>0.492654</v>
+        <v>0.490375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.735791</v>
+        <v>0.735979</v>
       </c>
       <c r="E40" t="n">
-        <v>0.27896</v>
+        <v>0.280264</v>
       </c>
       <c r="F40" t="n">
-        <v>0.44463</v>
+        <v>0.443044</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302448</v>
+        <v>0.302464</v>
       </c>
       <c r="C41" t="n">
-        <v>0.483424</v>
+        <v>0.48098</v>
       </c>
       <c r="D41" t="n">
-        <v>0.722261</v>
+        <v>0.723335</v>
       </c>
       <c r="E41" t="n">
-        <v>0.271824</v>
+        <v>0.271786</v>
       </c>
       <c r="F41" t="n">
-        <v>0.435445</v>
+        <v>0.434353</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.297642</v>
+        <v>0.295724</v>
       </c>
       <c r="C42" t="n">
-        <v>0.474364</v>
+        <v>0.473585</v>
       </c>
       <c r="D42" t="n">
-        <v>0.711786</v>
+        <v>0.712457</v>
       </c>
       <c r="E42" t="n">
-        <v>0.264415</v>
+        <v>0.263993</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427225</v>
+        <v>0.426932</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.291373</v>
+        <v>0.294849</v>
       </c>
       <c r="C43" t="n">
-        <v>0.466612</v>
+        <v>0.464888</v>
       </c>
       <c r="D43" t="n">
-        <v>0.700499</v>
+        <v>0.7009880000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.255862</v>
+        <v>0.255882</v>
       </c>
       <c r="F43" t="n">
-        <v>0.420377</v>
+        <v>0.419957</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.286887</v>
+        <v>0.288422</v>
       </c>
       <c r="C44" t="n">
-        <v>0.45818</v>
+        <v>0.457265</v>
       </c>
       <c r="D44" t="n">
-        <v>0.690591</v>
+        <v>0.692474</v>
       </c>
       <c r="E44" t="n">
-        <v>0.249181</v>
+        <v>0.249662</v>
       </c>
       <c r="F44" t="n">
-        <v>0.412913</v>
+        <v>0.412261</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.278778</v>
+        <v>0.278611</v>
       </c>
       <c r="C45" t="n">
-        <v>0.450835</v>
+        <v>0.452141</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6828920000000001</v>
+        <v>0.682764</v>
       </c>
       <c r="E45" t="n">
-        <v>0.244437</v>
+        <v>0.243101</v>
       </c>
       <c r="F45" t="n">
-        <v>0.405868</v>
+        <v>0.406181</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.274641</v>
+        <v>0.273732</v>
       </c>
       <c r="C46" t="n">
-        <v>0.444503</v>
+        <v>0.444743</v>
       </c>
       <c r="D46" t="n">
-        <v>0.674596</v>
+        <v>0.6740080000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.237939</v>
+        <v>0.237471</v>
       </c>
       <c r="F46" t="n">
-        <v>0.39959</v>
+        <v>0.399373</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262398</v>
+        <v>0.268806</v>
       </c>
       <c r="C47" t="n">
-        <v>0.437891</v>
+        <v>0.438515</v>
       </c>
       <c r="D47" t="n">
-        <v>0.667256</v>
+        <v>0.667342</v>
       </c>
       <c r="E47" t="n">
-        <v>0.231513</v>
+        <v>0.232302</v>
       </c>
       <c r="F47" t="n">
-        <v>0.394756</v>
+        <v>0.394047</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.264171</v>
+        <v>0.264743</v>
       </c>
       <c r="C48" t="n">
-        <v>0.432631</v>
+        <v>0.43265</v>
       </c>
       <c r="D48" t="n">
-        <v>0.660874</v>
+        <v>0.660712</v>
       </c>
       <c r="E48" t="n">
-        <v>0.227516</v>
+        <v>0.229082</v>
       </c>
       <c r="F48" t="n">
-        <v>0.390317</v>
+        <v>0.390015</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255564</v>
+        <v>0.263695</v>
       </c>
       <c r="C49" t="n">
-        <v>0.428841</v>
+        <v>0.429516</v>
       </c>
       <c r="D49" t="n">
-        <v>0.655853</v>
+        <v>0.655289</v>
       </c>
       <c r="E49" t="n">
-        <v>0.224982</v>
+        <v>0.225365</v>
       </c>
       <c r="F49" t="n">
-        <v>0.387004</v>
+        <v>0.386735</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.254481</v>
+        <v>0.257406</v>
       </c>
       <c r="C50" t="n">
-        <v>0.425594</v>
+        <v>0.425401</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8450260000000001</v>
+        <v>0.84532</v>
       </c>
       <c r="E50" t="n">
-        <v>0.222637</v>
+        <v>0.225556</v>
       </c>
       <c r="F50" t="n">
-        <v>0.385198</v>
+        <v>0.385106</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.253886</v>
+        <v>0.250716</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422974</v>
+        <v>0.423423</v>
       </c>
       <c r="D51" t="n">
-        <v>0.825866</v>
+        <v>0.825802</v>
       </c>
       <c r="E51" t="n">
-        <v>0.323545</v>
+        <v>0.324763</v>
       </c>
       <c r="F51" t="n">
-        <v>0.489727</v>
+        <v>0.488096</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.248862</v>
+        <v>0.254804</v>
       </c>
       <c r="C52" t="n">
-        <v>0.42338</v>
+        <v>0.422714</v>
       </c>
       <c r="D52" t="n">
-        <v>0.808235</v>
+        <v>0.808096</v>
       </c>
       <c r="E52" t="n">
-        <v>0.314814</v>
+        <v>0.314858</v>
       </c>
       <c r="F52" t="n">
-        <v>0.480099</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34103</v>
+        <v>0.351247</v>
       </c>
       <c r="C53" t="n">
-        <v>0.535948</v>
+        <v>0.521961</v>
       </c>
       <c r="D53" t="n">
-        <v>0.791561</v>
+        <v>0.792164</v>
       </c>
       <c r="E53" t="n">
-        <v>0.306257</v>
+        <v>0.306389</v>
       </c>
       <c r="F53" t="n">
-        <v>0.470311</v>
+        <v>0.469356</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.327505</v>
+        <v>0.330349</v>
       </c>
       <c r="C54" t="n">
-        <v>0.525438</v>
+        <v>0.514124</v>
       </c>
       <c r="D54" t="n">
-        <v>0.775513</v>
+        <v>0.775891</v>
       </c>
       <c r="E54" t="n">
-        <v>0.297792</v>
+        <v>0.297717</v>
       </c>
       <c r="F54" t="n">
-        <v>0.46124</v>
+        <v>0.46181</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.323686</v>
+        <v>0.318087</v>
       </c>
       <c r="C55" t="n">
-        <v>0.517223</v>
+        <v>0.504811</v>
       </c>
       <c r="D55" t="n">
-        <v>0.762628</v>
+        <v>0.763134</v>
       </c>
       <c r="E55" t="n">
-        <v>0.290302</v>
+        <v>0.288543</v>
       </c>
       <c r="F55" t="n">
-        <v>0.453244</v>
+        <v>0.454579</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.314152</v>
+        <v>0.313526</v>
       </c>
       <c r="C56" t="n">
-        <v>0.506866</v>
+        <v>0.499091</v>
       </c>
       <c r="D56" t="n">
-        <v>0.749763</v>
+        <v>0.750556</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2803</v>
+        <v>0.280264</v>
       </c>
       <c r="F56" t="n">
-        <v>0.444929</v>
+        <v>0.446784</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.303458</v>
+        <v>0.306835</v>
       </c>
       <c r="C57" t="n">
-        <v>0.499267</v>
+        <v>0.489767</v>
       </c>
       <c r="D57" t="n">
-        <v>0.73795</v>
+        <v>0.7379869999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.273346</v>
+        <v>0.273049</v>
       </c>
       <c r="F57" t="n">
-        <v>0.438166</v>
+        <v>0.439957</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.299017</v>
+        <v>0.299326</v>
       </c>
       <c r="C58" t="n">
-        <v>0.494339</v>
+        <v>0.483267</v>
       </c>
       <c r="D58" t="n">
-        <v>0.727367</v>
+        <v>0.727867</v>
       </c>
       <c r="E58" t="n">
-        <v>0.264904</v>
+        <v>0.266287</v>
       </c>
       <c r="F58" t="n">
-        <v>0.430972</v>
+        <v>0.432655</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295136</v>
+        <v>0.289006</v>
       </c>
       <c r="C59" t="n">
-        <v>0.485555</v>
+        <v>0.477376</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7178020000000001</v>
+        <v>0.717697</v>
       </c>
       <c r="E59" t="n">
-        <v>0.261079</v>
+        <v>0.259041</v>
       </c>
       <c r="F59" t="n">
-        <v>0.425007</v>
+        <v>0.426365</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.286763</v>
+        <v>0.286991</v>
       </c>
       <c r="C60" t="n">
-        <v>0.48055</v>
+        <v>0.470668</v>
       </c>
       <c r="D60" t="n">
-        <v>0.70947</v>
+        <v>0.708665</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254763</v>
+        <v>0.254862</v>
       </c>
       <c r="F60" t="n">
-        <v>0.419674</v>
+        <v>0.420396</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.28187</v>
+        <v>0.282822</v>
       </c>
       <c r="C61" t="n">
-        <v>0.474055</v>
+        <v>0.464222</v>
       </c>
       <c r="D61" t="n">
-        <v>0.701766</v>
+        <v>0.700927</v>
       </c>
       <c r="E61" t="n">
-        <v>0.249622</v>
+        <v>0.248738</v>
       </c>
       <c r="F61" t="n">
-        <v>0.413865</v>
+        <v>0.415513</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.279049</v>
+        <v>0.278802</v>
       </c>
       <c r="C62" t="n">
-        <v>0.468214</v>
+        <v>0.459792</v>
       </c>
       <c r="D62" t="n">
-        <v>0.694327</v>
+        <v>0.693607</v>
       </c>
       <c r="E62" t="n">
-        <v>0.244869</v>
+        <v>0.243588</v>
       </c>
       <c r="F62" t="n">
-        <v>0.411992</v>
+        <v>0.411631</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.276712</v>
+        <v>0.271973</v>
       </c>
       <c r="C63" t="n">
-        <v>0.464126</v>
+        <v>0.454278</v>
       </c>
       <c r="D63" t="n">
-        <v>0.688097</v>
+        <v>0.687542</v>
       </c>
       <c r="E63" t="n">
-        <v>0.240669</v>
+        <v>0.241048</v>
       </c>
       <c r="F63" t="n">
-        <v>0.40917</v>
+        <v>0.408677</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.271371</v>
+        <v>0.265432</v>
       </c>
       <c r="C64" t="n">
-        <v>0.460098</v>
+        <v>0.451848</v>
       </c>
       <c r="D64" t="n">
-        <v>0.902219</v>
+        <v>0.904921</v>
       </c>
       <c r="E64" t="n">
-        <v>0.238707</v>
+        <v>0.237874</v>
       </c>
       <c r="F64" t="n">
-        <v>0.407973</v>
+        <v>0.406955</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268564</v>
+        <v>0.270464</v>
       </c>
       <c r="C65" t="n">
-        <v>0.459111</v>
+        <v>0.446567</v>
       </c>
       <c r="D65" t="n">
-        <v>0.882526</v>
+        <v>0.883945</v>
       </c>
       <c r="E65" t="n">
-        <v>0.239695</v>
+        <v>0.239101</v>
       </c>
       <c r="F65" t="n">
-        <v>0.409343</v>
+        <v>0.408305</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26969</v>
+        <v>0.265575</v>
       </c>
       <c r="C66" t="n">
-        <v>0.455964</v>
+        <v>0.44619</v>
       </c>
       <c r="D66" t="n">
-        <v>0.863023</v>
+        <v>0.865245</v>
       </c>
       <c r="E66" t="n">
-        <v>0.337482</v>
+        <v>0.341</v>
       </c>
       <c r="F66" t="n">
-        <v>0.519489</v>
+        <v>0.517035</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.395093</v>
+        <v>0.413799</v>
       </c>
       <c r="C67" t="n">
-        <v>0.602135</v>
+        <v>0.599477</v>
       </c>
       <c r="D67" t="n">
-        <v>0.845179</v>
+        <v>0.847218</v>
       </c>
       <c r="E67" t="n">
-        <v>0.333179</v>
+        <v>0.334327</v>
       </c>
       <c r="F67" t="n">
-        <v>0.51225</v>
+        <v>0.510425</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.412222</v>
+        <v>0.39514</v>
       </c>
       <c r="C68" t="n">
-        <v>0.594467</v>
+        <v>0.590292</v>
       </c>
       <c r="D68" t="n">
-        <v>0.828873</v>
+        <v>0.831014</v>
       </c>
       <c r="E68" t="n">
-        <v>0.321235</v>
+        <v>0.325248</v>
       </c>
       <c r="F68" t="n">
-        <v>0.505447</v>
+        <v>0.503826</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.385574</v>
+        <v>0.399301</v>
       </c>
       <c r="C69" t="n">
-        <v>0.585128</v>
+        <v>0.584622</v>
       </c>
       <c r="D69" t="n">
-        <v>0.814239</v>
+        <v>0.817454</v>
       </c>
       <c r="E69" t="n">
-        <v>0.313538</v>
+        <v>0.317381</v>
       </c>
       <c r="F69" t="n">
-        <v>0.498047</v>
+        <v>0.496896</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.394964</v>
+        <v>0.379651</v>
       </c>
       <c r="C70" t="n">
-        <v>0.578105</v>
+        <v>0.573751</v>
       </c>
       <c r="D70" t="n">
-        <v>0.802321</v>
+        <v>0.805103</v>
       </c>
       <c r="E70" t="n">
-        <v>0.309712</v>
+        <v>0.304364</v>
       </c>
       <c r="F70" t="n">
-        <v>0.490221</v>
+        <v>0.489377</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.367309</v>
+        <v>0.375149</v>
       </c>
       <c r="C71" t="n">
-        <v>0.570569</v>
+        <v>0.569684</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7919850000000001</v>
+        <v>0.794042</v>
       </c>
       <c r="E71" t="n">
-        <v>0.299179</v>
+        <v>0.298508</v>
       </c>
       <c r="F71" t="n">
-        <v>0.483081</v>
+        <v>0.482231</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.363214</v>
+        <v>0.370579</v>
       </c>
       <c r="C72" t="n">
-        <v>0.56284</v>
+        <v>0.561326</v>
       </c>
       <c r="D72" t="n">
-        <v>0.783107</v>
+        <v>0.78548</v>
       </c>
       <c r="E72" t="n">
-        <v>0.294778</v>
+        <v>0.292545</v>
       </c>
       <c r="F72" t="n">
-        <v>0.477338</v>
+        <v>0.476311</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.373048</v>
+        <v>0.363288</v>
       </c>
       <c r="C73" t="n">
-        <v>0.556496</v>
+        <v>0.556244</v>
       </c>
       <c r="D73" t="n">
-        <v>0.77585</v>
+        <v>0.77876</v>
       </c>
       <c r="E73" t="n">
-        <v>0.287676</v>
+        <v>0.287552</v>
       </c>
       <c r="F73" t="n">
-        <v>0.472165</v>
+        <v>0.470559</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.365654</v>
+        <v>0.36166</v>
       </c>
       <c r="C74" t="n">
-        <v>0.554168</v>
+        <v>0.551004</v>
       </c>
       <c r="D74" t="n">
-        <v>0.770469</v>
+        <v>0.772406</v>
       </c>
       <c r="E74" t="n">
-        <v>0.281985</v>
+        <v>0.277672</v>
       </c>
       <c r="F74" t="n">
-        <v>0.46712</v>
+        <v>0.465592</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.368949</v>
+        <v>0.34553</v>
       </c>
       <c r="C75" t="n">
-        <v>0.543838</v>
+        <v>0.547135</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7669010000000001</v>
+        <v>0.769299</v>
       </c>
       <c r="E75" t="n">
-        <v>0.272481</v>
+        <v>0.275203</v>
       </c>
       <c r="F75" t="n">
-        <v>0.46227</v>
+        <v>0.461728</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.349639</v>
+        <v>0.327561</v>
       </c>
       <c r="C76" t="n">
-        <v>0.543453</v>
+        <v>0.543643</v>
       </c>
       <c r="D76" t="n">
-        <v>0.764419</v>
+        <v>0.766795</v>
       </c>
       <c r="E76" t="n">
-        <v>0.274245</v>
+        <v>0.272225</v>
       </c>
       <c r="F76" t="n">
-        <v>0.459093</v>
+        <v>0.458382</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.342149</v>
+        <v>0.352291</v>
       </c>
       <c r="C77" t="n">
-        <v>0.539332</v>
+        <v>0.536751</v>
       </c>
       <c r="D77" t="n">
-        <v>0.763713</v>
+        <v>0.76614</v>
       </c>
       <c r="E77" t="n">
-        <v>0.264661</v>
+        <v>0.264997</v>
       </c>
       <c r="F77" t="n">
-        <v>0.45671</v>
+        <v>0.455377</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.334323</v>
+        <v>0.337896</v>
       </c>
       <c r="C78" t="n">
-        <v>0.535031</v>
+        <v>0.53195</v>
       </c>
       <c r="D78" t="n">
-        <v>1.22638</v>
+        <v>1.2299</v>
       </c>
       <c r="E78" t="n">
-        <v>0.26542</v>
+        <v>0.264389</v>
       </c>
       <c r="F78" t="n">
-        <v>0.455259</v>
+        <v>0.454456</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.330153</v>
+        <v>0.3409</v>
       </c>
       <c r="C79" t="n">
-        <v>0.535798</v>
+        <v>0.533853</v>
       </c>
       <c r="D79" t="n">
-        <v>1.20386</v>
+        <v>1.20963</v>
       </c>
       <c r="E79" t="n">
-        <v>0.260028</v>
+        <v>0.261028</v>
       </c>
       <c r="F79" t="n">
-        <v>0.456248</v>
+        <v>0.455437</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.321414</v>
+        <v>0.326755</v>
       </c>
       <c r="C80" t="n">
-        <v>0.535762</v>
+        <v>0.533555</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18535</v>
+        <v>1.18995</v>
       </c>
       <c r="E80" t="n">
-        <v>0.384395</v>
+        <v>0.386121</v>
       </c>
       <c r="F80" t="n">
-        <v>0.743368</v>
+        <v>0.743458</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.467185</v>
+        <v>0.443049</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8530450000000001</v>
+        <v>0.859666</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1687</v>
+        <v>1.17112</v>
       </c>
       <c r="E81" t="n">
-        <v>0.378557</v>
+        <v>0.372791</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7455079999999999</v>
+        <v>0.746601</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.437776</v>
+        <v>0.453501</v>
       </c>
       <c r="C82" t="n">
-        <v>0.864017</v>
+        <v>0.861026</v>
       </c>
       <c r="D82" t="n">
-        <v>1.1544</v>
+        <v>1.15566</v>
       </c>
       <c r="E82" t="n">
-        <v>0.371974</v>
+        <v>0.365931</v>
       </c>
       <c r="F82" t="n">
-        <v>0.741163</v>
+        <v>0.7420949999999999</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.429204</v>
+        <v>0.430595</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8607359999999999</v>
+        <v>0.858666</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14627</v>
+        <v>1.14416</v>
       </c>
       <c r="E83" t="n">
-        <v>0.363677</v>
+        <v>0.358721</v>
       </c>
       <c r="F83" t="n">
-        <v>0.733532</v>
+        <v>0.734334</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.437691</v>
+        <v>0.426775</v>
       </c>
       <c r="C84" t="n">
-        <v>0.851949</v>
+        <v>0.851147</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1386</v>
+        <v>1.13627</v>
       </c>
       <c r="E84" t="n">
-        <v>0.35592</v>
+        <v>0.357478</v>
       </c>
       <c r="F84" t="n">
-        <v>0.723036</v>
+        <v>0.723567</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.413841</v>
+        <v>0.448244</v>
       </c>
       <c r="C85" t="n">
-        <v>0.842291</v>
+        <v>0.837858</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13302</v>
+        <v>1.12919</v>
       </c>
       <c r="E85" t="n">
-        <v>0.346259</v>
+        <v>0.342507</v>
       </c>
       <c r="F85" t="n">
-        <v>0.710993</v>
+        <v>0.713979</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.425946</v>
+        <v>0.423978</v>
       </c>
       <c r="C86" t="n">
-        <v>0.833052</v>
+        <v>0.823245</v>
       </c>
       <c r="D86" t="n">
-        <v>1.12967</v>
+        <v>1.13267</v>
       </c>
       <c r="E86" t="n">
-        <v>0.341077</v>
+        <v>0.338259</v>
       </c>
       <c r="F86" t="n">
-        <v>0.697731</v>
+        <v>0.700809</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.414566</v>
+        <v>0.431107</v>
       </c>
       <c r="C87" t="n">
-        <v>0.81443</v>
+        <v>0.818195</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1308</v>
+        <v>1.13226</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3333</v>
+        <v>0.334101</v>
       </c>
       <c r="F87" t="n">
-        <v>0.686202</v>
+        <v>0.687591</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.412712</v>
+        <v>0.424207</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8050929999999999</v>
+        <v>0.805575</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13041</v>
+        <v>1.13499</v>
       </c>
       <c r="E88" t="n">
-        <v>0.326236</v>
+        <v>0.326246</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6729270000000001</v>
+        <v>0.675548</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.396101</v>
+        <v>0.421797</v>
       </c>
       <c r="C89" t="n">
-        <v>0.795724</v>
+        <v>0.787996</v>
       </c>
       <c r="D89" t="n">
-        <v>1.13798</v>
+        <v>1.14253</v>
       </c>
       <c r="E89" t="n">
-        <v>0.314928</v>
+        <v>0.316642</v>
       </c>
       <c r="F89" t="n">
-        <v>0.662362</v>
+        <v>0.662957</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.388006</v>
+        <v>0.402234</v>
       </c>
       <c r="C90" t="n">
-        <v>0.784195</v>
+        <v>0.775687</v>
       </c>
       <c r="D90" t="n">
-        <v>1.14633</v>
+        <v>1.14746</v>
       </c>
       <c r="E90" t="n">
-        <v>0.315211</v>
+        <v>0.317996</v>
       </c>
       <c r="F90" t="n">
-        <v>0.653134</v>
+        <v>0.6523910000000001</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.396523</v>
+        <v>0.399157</v>
       </c>
       <c r="C91" t="n">
-        <v>0.776886</v>
+        <v>0.768091</v>
       </c>
       <c r="D91" t="n">
-        <v>1.16061</v>
+        <v>1.16125</v>
       </c>
       <c r="E91" t="n">
-        <v>0.30375</v>
+        <v>0.304737</v>
       </c>
       <c r="F91" t="n">
-        <v>0.642626</v>
+        <v>0.642162</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.403287</v>
+        <v>0.390396</v>
       </c>
       <c r="C92" t="n">
-        <v>0.763977</v>
+        <v>0.760663</v>
       </c>
       <c r="D92" t="n">
-        <v>1.71909</v>
+        <v>1.72198</v>
       </c>
       <c r="E92" t="n">
-        <v>0.302967</v>
+        <v>0.307803</v>
       </c>
       <c r="F92" t="n">
-        <v>0.633836</v>
+        <v>0.635663</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.386329</v>
+        <v>0.386946</v>
       </c>
       <c r="C93" t="n">
-        <v>0.756368</v>
+        <v>0.758147</v>
       </c>
       <c r="D93" t="n">
-        <v>1.70892</v>
+        <v>1.71211</v>
       </c>
       <c r="E93" t="n">
-        <v>0.305423</v>
+        <v>0.303125</v>
       </c>
       <c r="F93" t="n">
-        <v>0.62966</v>
+        <v>0.630389</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387879</v>
+        <v>0.392059</v>
       </c>
       <c r="C94" t="n">
-        <v>0.752439</v>
+        <v>0.751921</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69681</v>
+        <v>1.70023</v>
       </c>
       <c r="E94" t="n">
-        <v>0.498313</v>
+        <v>0.497398</v>
       </c>
       <c r="F94" t="n">
-        <v>1.12036</v>
+        <v>1.12105</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.57689</v>
+        <v>0.5827599999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>1.13676</v>
+        <v>1.15228</v>
       </c>
       <c r="D95" t="n">
-        <v>1.6845</v>
+        <v>1.68407</v>
       </c>
       <c r="E95" t="n">
-        <v>0.49295</v>
+        <v>0.492084</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11782</v>
+        <v>1.117</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.569798</v>
+        <v>0.571198</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15514</v>
+        <v>1.15871</v>
       </c>
       <c r="D96" t="n">
-        <v>1.67298</v>
+        <v>1.67569</v>
       </c>
       <c r="E96" t="n">
-        <v>0.476948</v>
+        <v>0.478165</v>
       </c>
       <c r="F96" t="n">
-        <v>1.09408</v>
+        <v>1.10386</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.580389</v>
+        <v>0.557646</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14132</v>
+        <v>1.15602</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66884</v>
+        <v>1.66593</v>
       </c>
       <c r="E97" t="n">
-        <v>0.470089</v>
+        <v>0.469303</v>
       </c>
       <c r="F97" t="n">
-        <v>1.087</v>
+        <v>1.08716</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.579443</v>
+        <v>0.564822</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12878</v>
+        <v>1.1218</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66129</v>
+        <v>1.6603</v>
       </c>
       <c r="E98" t="n">
-        <v>0.456931</v>
+        <v>0.455794</v>
       </c>
       <c r="F98" t="n">
-        <v>1.06023</v>
+        <v>1.05937</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.547942</v>
+        <v>0.550278</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12053</v>
+        <v>1.12929</v>
       </c>
       <c r="D99" t="n">
-        <v>1.65728</v>
+        <v>1.65774</v>
       </c>
       <c r="E99" t="n">
-        <v>0.44725</v>
+        <v>0.44627</v>
       </c>
       <c r="F99" t="n">
-        <v>1.04409</v>
+        <v>1.0368</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5463980000000001</v>
+        <v>0.53598</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11793</v>
+        <v>1.1097</v>
       </c>
       <c r="D100" t="n">
-        <v>1.65979</v>
+        <v>1.65704</v>
       </c>
       <c r="E100" t="n">
-        <v>0.437704</v>
+        <v>0.436852</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03621</v>
+        <v>1.02132</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.546075</v>
+        <v>0.531213</v>
       </c>
       <c r="C101" t="n">
-        <v>1.08472</v>
+        <v>1.09447</v>
       </c>
       <c r="D101" t="n">
-        <v>1.6636</v>
+        <v>1.66398</v>
       </c>
       <c r="E101" t="n">
-        <v>0.431482</v>
+        <v>0.427929</v>
       </c>
       <c r="F101" t="n">
-        <v>1.0192</v>
+        <v>1.02019</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.530415</v>
+        <v>0.527293</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06864</v>
+        <v>1.07294</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66721</v>
+        <v>1.66871</v>
       </c>
       <c r="E102" t="n">
-        <v>0.415567</v>
+        <v>0.415404</v>
       </c>
       <c r="F102" t="n">
-        <v>1.00319</v>
+        <v>1.0032</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.508377</v>
+        <v>0.512736</v>
       </c>
       <c r="C103" t="n">
-        <v>1.05628</v>
+        <v>1.06311</v>
       </c>
       <c r="D103" t="n">
-        <v>1.6779</v>
+        <v>1.67719</v>
       </c>
       <c r="E103" t="n">
-        <v>0.408353</v>
+        <v>0.407916</v>
       </c>
       <c r="F103" t="n">
-        <v>0.990698</v>
+        <v>0.989749</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.517827</v>
+        <v>0.519648</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04929</v>
+        <v>1.04896</v>
       </c>
       <c r="D104" t="n">
-        <v>1.6866</v>
+        <v>1.68711</v>
       </c>
       <c r="E104" t="n">
-        <v>0.399702</v>
+        <v>0.4029</v>
       </c>
       <c r="F104" t="n">
-        <v>0.96666</v>
+        <v>0.977757</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.506462</v>
+        <v>0.513836</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04517</v>
+        <v>1.04162</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70071</v>
+        <v>1.69945</v>
       </c>
       <c r="E105" t="n">
-        <v>0.394132</v>
+        <v>0.39593</v>
       </c>
       <c r="F105" t="n">
-        <v>0.952193</v>
+        <v>0.9642539999999999</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.499347</v>
+        <v>0.504035</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03884</v>
+        <v>1.03399</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71801</v>
+        <v>1.71752</v>
       </c>
       <c r="E106" t="n">
-        <v>0.391333</v>
+        <v>0.390822</v>
       </c>
       <c r="F106" t="n">
-        <v>0.955402</v>
+        <v>0.954466</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.495471</v>
+        <v>0.506365</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03554</v>
+        <v>1.0426</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30885</v>
+        <v>2.30622</v>
       </c>
       <c r="E107" t="n">
-        <v>0.387694</v>
+        <v>0.382441</v>
       </c>
       <c r="F107" t="n">
-        <v>0.908249</v>
+        <v>0.936013</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492637</v>
+        <v>0.498259</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01881</v>
+        <v>1.01771</v>
       </c>
       <c r="D108" t="n">
-        <v>2.27869</v>
+        <v>2.2766</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5876169999999999</v>
+        <v>0.578658</v>
       </c>
       <c r="F108" t="n">
-        <v>2.37848</v>
+        <v>2.35846</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.505358</v>
+        <v>0.515549</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03076</v>
+        <v>1.02331</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25356</v>
+        <v>2.25397</v>
       </c>
       <c r="E109" t="n">
-        <v>0.583368</v>
+        <v>0.572989</v>
       </c>
       <c r="F109" t="n">
-        <v>2.38547</v>
+        <v>2.36182</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7159450000000001</v>
+        <v>0.704526</v>
       </c>
       <c r="C110" t="n">
-        <v>2.55395</v>
+        <v>2.56683</v>
       </c>
       <c r="D110" t="n">
-        <v>2.23341</v>
+        <v>2.23882</v>
       </c>
       <c r="E110" t="n">
-        <v>0.569796</v>
+        <v>0.559518</v>
       </c>
       <c r="F110" t="n">
-        <v>2.38734</v>
+        <v>2.37687</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.701896</v>
+        <v>0.69043</v>
       </c>
       <c r="C111" t="n">
-        <v>2.54804</v>
+        <v>2.55248</v>
       </c>
       <c r="D111" t="n">
-        <v>2.233</v>
+        <v>2.22598</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5573360000000001</v>
+        <v>0.552529</v>
       </c>
       <c r="F111" t="n">
-        <v>2.38888</v>
+        <v>2.38733</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.633323</v>
+        <v>0.660411</v>
       </c>
       <c r="C112" t="n">
-        <v>2.56256</v>
+        <v>2.55913</v>
       </c>
       <c r="D112" t="n">
-        <v>2.21991</v>
+        <v>2.21984</v>
       </c>
       <c r="E112" t="n">
-        <v>0.503433</v>
+        <v>0.536785</v>
       </c>
       <c r="F112" t="n">
-        <v>2.39067</v>
+        <v>2.38536</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6868880000000001</v>
+        <v>0.636806</v>
       </c>
       <c r="C113" t="n">
-        <v>2.55907</v>
+        <v>2.54862</v>
       </c>
       <c r="D113" t="n">
-        <v>2.19476</v>
+        <v>2.20822</v>
       </c>
       <c r="E113" t="n">
-        <v>0.495936</v>
+        <v>0.526088</v>
       </c>
       <c r="F113" t="n">
-        <v>2.38687</v>
+        <v>2.38969</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.663678</v>
+        <v>0.652178</v>
       </c>
       <c r="C114" t="n">
-        <v>2.54621</v>
+        <v>2.5509</v>
       </c>
       <c r="D114" t="n">
-        <v>2.20907</v>
+        <v>2.22967</v>
       </c>
       <c r="E114" t="n">
-        <v>0.521869</v>
+        <v>0.477387</v>
       </c>
       <c r="F114" t="n">
-        <v>2.3919</v>
+        <v>2.39487</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.659953</v>
+        <v>0.636012</v>
       </c>
       <c r="C115" t="n">
-        <v>2.54956</v>
+        <v>2.53801</v>
       </c>
       <c r="D115" t="n">
-        <v>2.24736</v>
+        <v>2.23421</v>
       </c>
       <c r="E115" t="n">
-        <v>0.475448</v>
+        <v>0.507953</v>
       </c>
       <c r="F115" t="n">
-        <v>2.39262</v>
+        <v>2.37925</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.620854</v>
+        <v>0.619855</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56047</v>
+        <v>2.54725</v>
       </c>
       <c r="D116" t="n">
-        <v>2.23854</v>
+        <v>2.23674</v>
       </c>
       <c r="E116" t="n">
-        <v>0.502959</v>
+        <v>0.463191</v>
       </c>
       <c r="F116" t="n">
-        <v>2.39269</v>
+        <v>2.39921</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.636175</v>
+        <v>0.631579</v>
       </c>
       <c r="C117" t="n">
-        <v>2.5501</v>
+        <v>2.55443</v>
       </c>
       <c r="D117" t="n">
-        <v>2.21336</v>
+        <v>2.22127</v>
       </c>
       <c r="E117" t="n">
-        <v>0.494395</v>
+        <v>0.488387</v>
       </c>
       <c r="F117" t="n">
-        <v>2.3959</v>
+        <v>2.40499</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6277199999999999</v>
+        <v>0.613749</v>
       </c>
       <c r="C118" t="n">
-        <v>2.55599</v>
+        <v>2.54925</v>
       </c>
       <c r="D118" t="n">
-        <v>2.19145</v>
+        <v>2.18273</v>
       </c>
       <c r="E118" t="n">
-        <v>0.455655</v>
+        <v>0.449907</v>
       </c>
       <c r="F118" t="n">
-        <v>2.2077</v>
+        <v>2.20407</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6230560000000001</v>
+        <v>0.610687</v>
       </c>
       <c r="C119" t="n">
-        <v>2.57914</v>
+        <v>2.56744</v>
       </c>
       <c r="D119" t="n">
-        <v>2.18347</v>
+        <v>2.18753</v>
       </c>
       <c r="E119" t="n">
-        <v>0.445369</v>
+        <v>0.441704</v>
       </c>
       <c r="F119" t="n">
-        <v>1.79197</v>
+        <v>2.20077</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.601506</v>
+        <v>0.5918679999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>2.561</v>
+        <v>2.55507</v>
       </c>
       <c r="D120" t="n">
-        <v>2.19341</v>
+        <v>2.19301</v>
       </c>
       <c r="E120" t="n">
-        <v>0.440311</v>
+        <v>0.435364</v>
       </c>
       <c r="F120" t="n">
-        <v>1.59425</v>
+        <v>1.5826</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.607674</v>
+        <v>0.582874</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57388</v>
+        <v>1.9749</v>
       </c>
       <c r="D121" t="n">
-        <v>2.85997</v>
+        <v>2.85887</v>
       </c>
       <c r="E121" t="n">
-        <v>0.438794</v>
+        <v>0.431719</v>
       </c>
       <c r="F121" t="n">
-        <v>1.79509</v>
+        <v>1.8046</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.586322</v>
+        <v>0.567744</v>
       </c>
       <c r="C122" t="n">
-        <v>2.57106</v>
+        <v>2.58231</v>
       </c>
       <c r="D122" t="n">
-        <v>2.80817</v>
+        <v>2.81988</v>
       </c>
       <c r="E122" t="n">
-        <v>0.435497</v>
+        <v>0.431175</v>
       </c>
       <c r="F122" t="n">
-        <v>1.79698</v>
+        <v>1.7837</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.59311</v>
+        <v>0.571967</v>
       </c>
       <c r="C123" t="n">
-        <v>2.57885</v>
+        <v>2.58584</v>
       </c>
       <c r="D123" t="n">
-        <v>2.76729</v>
+        <v>2.76923</v>
       </c>
       <c r="E123" t="n">
-        <v>0.630643</v>
+        <v>0.623732</v>
       </c>
       <c r="F123" t="n">
-        <v>2.90369</v>
+        <v>2.89461</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.785037</v>
+        <v>0.76569</v>
       </c>
       <c r="C124" t="n">
-        <v>3.14201</v>
+        <v>3.12642</v>
       </c>
       <c r="D124" t="n">
-        <v>2.74192</v>
+        <v>2.73311</v>
       </c>
       <c r="E124" t="n">
-        <v>0.624178</v>
+        <v>0.618876</v>
       </c>
       <c r="F124" t="n">
-        <v>2.893</v>
+        <v>2.88737</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.771209</v>
+        <v>0.759003</v>
       </c>
       <c r="C125" t="n">
-        <v>3.11739</v>
+        <v>3.11962</v>
       </c>
       <c r="D125" t="n">
-        <v>2.70836</v>
+        <v>2.70572</v>
       </c>
       <c r="E125" t="n">
-        <v>0.617513</v>
+        <v>0.609689</v>
       </c>
       <c r="F125" t="n">
-        <v>2.88643</v>
+        <v>2.8889</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.751703</v>
+        <v>0.752047</v>
       </c>
       <c r="C126" t="n">
-        <v>3.1099</v>
+        <v>3.1114</v>
       </c>
       <c r="D126" t="n">
-        <v>2.67925</v>
+        <v>2.68097</v>
       </c>
       <c r="E126" t="n">
-        <v>0.607727</v>
+        <v>0.60101</v>
       </c>
       <c r="F126" t="n">
-        <v>2.8765</v>
+        <v>2.87093</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.756811</v>
+        <v>0.7354889999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>3.09541</v>
+        <v>3.10265</v>
       </c>
       <c r="D127" t="n">
-        <v>2.66346</v>
+        <v>2.65573</v>
       </c>
       <c r="E127" t="n">
-        <v>0.600533</v>
+        <v>0.6186120000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>2.87957</v>
+        <v>2.86565</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.751846</v>
+        <v>0.7354889999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>3.09427</v>
+        <v>3.0826</v>
       </c>
       <c r="D128" t="n">
-        <v>2.63023</v>
+        <v>2.63954</v>
       </c>
       <c r="E128" t="n">
-        <v>0.594256</v>
+        <v>0.591296</v>
       </c>
       <c r="F128" t="n">
-        <v>2.86949</v>
+        <v>2.87024</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7324349999999999</v>
+        <v>0.734348</v>
       </c>
       <c r="C129" t="n">
-        <v>3.07125</v>
+        <v>3.06696</v>
       </c>
       <c r="D129" t="n">
-        <v>2.61652</v>
+        <v>2.62056</v>
       </c>
       <c r="E129" t="n">
-        <v>0.589456</v>
+        <v>0.585774</v>
       </c>
       <c r="F129" t="n">
-        <v>2.86048</v>
+        <v>2.85722</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.722463</v>
+        <v>0.715705</v>
       </c>
       <c r="C130" t="n">
-        <v>3.08048</v>
+        <v>3.06774</v>
       </c>
       <c r="D130" t="n">
-        <v>2.60907</v>
+        <v>2.60709</v>
       </c>
       <c r="E130" t="n">
-        <v>0.58292</v>
+        <v>0.5800149999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>2.84822</v>
+        <v>2.84831</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.711272</v>
+        <v>0.718261</v>
       </c>
       <c r="C131" t="n">
-        <v>3.06994</v>
+        <v>3.06032</v>
       </c>
       <c r="D131" t="n">
-        <v>2.58977</v>
+        <v>2.60372</v>
       </c>
       <c r="E131" t="n">
-        <v>0.577603</v>
+        <v>0.574752</v>
       </c>
       <c r="F131" t="n">
-        <v>2.85765</v>
+        <v>2.85696</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.705618</v>
+        <v>0.704264</v>
       </c>
       <c r="C132" t="n">
-        <v>3.05906</v>
+        <v>3.05733</v>
       </c>
       <c r="D132" t="n">
-        <v>2.58641</v>
+        <v>2.60182</v>
       </c>
       <c r="E132" t="n">
-        <v>0.572951</v>
+        <v>0.571129</v>
       </c>
       <c r="F132" t="n">
-        <v>2.8567</v>
+        <v>2.85987</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.708291</v>
+        <v>0.703444</v>
       </c>
       <c r="C133" t="n">
-        <v>3.04756</v>
+        <v>3.04657</v>
       </c>
       <c r="D133" t="n">
-        <v>2.58033</v>
+        <v>2.5635</v>
       </c>
       <c r="E133" t="n">
-        <v>0.568101</v>
+        <v>0.567649</v>
       </c>
       <c r="F133" t="n">
-        <v>2.85956</v>
+        <v>2.86112</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.698974</v>
+        <v>0.691129</v>
       </c>
       <c r="C134" t="n">
-        <v>3.0419</v>
+        <v>3.0461</v>
       </c>
       <c r="D134" t="n">
-        <v>2.56066</v>
+        <v>2.56693</v>
       </c>
       <c r="E134" t="n">
-        <v>0.536829</v>
+        <v>0.534654</v>
       </c>
       <c r="F134" t="n">
-        <v>2.39622</v>
+        <v>2.8577</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.691912</v>
+        <v>0.69547</v>
       </c>
       <c r="C135" t="n">
-        <v>3.04675</v>
+        <v>3.04854</v>
       </c>
       <c r="D135" t="n">
-        <v>3.24443</v>
+        <v>3.26057</v>
       </c>
       <c r="E135" t="n">
-        <v>0.534931</v>
+        <v>0.535863</v>
       </c>
       <c r="F135" t="n">
-        <v>2.3888</v>
+        <v>2.85105</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.687009</v>
+        <v>0.691728</v>
       </c>
       <c r="C136" t="n">
-        <v>3.03332</v>
+        <v>3.0348</v>
       </c>
       <c r="D136" t="n">
-        <v>3.20152</v>
+        <v>3.1882</v>
       </c>
       <c r="E136" t="n">
-        <v>0.53217</v>
+        <v>0.531375</v>
       </c>
       <c r="F136" t="n">
-        <v>2.39478</v>
+        <v>2.62507</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.656654</v>
+        <v>0.676627</v>
       </c>
       <c r="C137" t="n">
-        <v>3.04248</v>
+        <v>3.03543</v>
       </c>
       <c r="D137" t="n">
-        <v>3.13902</v>
+        <v>3.13524</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7228869999999999</v>
+        <v>0.725796</v>
       </c>
       <c r="F137" t="n">
-        <v>3.31485</v>
+        <v>3.31909</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.869004</v>
+        <v>0.879391</v>
       </c>
       <c r="C138" t="n">
-        <v>3.5902</v>
+        <v>3.54011</v>
       </c>
       <c r="D138" t="n">
-        <v>3.09092</v>
+        <v>3.08762</v>
       </c>
       <c r="E138" t="n">
-        <v>0.717319</v>
+        <v>0.718114</v>
       </c>
       <c r="F138" t="n">
-        <v>3.30309</v>
+        <v>3.31268</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.832659</v>
+        <v>0.838189</v>
       </c>
       <c r="C139" t="n">
-        <v>3.50737</v>
+        <v>3.52879</v>
       </c>
       <c r="D139" t="n">
-        <v>3.05248</v>
+        <v>3.05083</v>
       </c>
       <c r="E139" t="n">
-        <v>0.71373</v>
+        <v>0.713749</v>
       </c>
       <c r="F139" t="n">
-        <v>3.2912</v>
+        <v>3.30123</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.864725</v>
+        <v>0.857328</v>
       </c>
       <c r="C140" t="n">
-        <v>3.49306</v>
+        <v>3.49454</v>
       </c>
       <c r="D140" t="n">
-        <v>3.01277</v>
+        <v>3.01159</v>
       </c>
       <c r="E140" t="n">
-        <v>0.711181</v>
+        <v>0.728519</v>
       </c>
       <c r="F140" t="n">
-        <v>3.27499</v>
+        <v>3.28326</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.847248</v>
+        <v>0.852434</v>
       </c>
       <c r="C141" t="n">
-        <v>3.47501</v>
+        <v>3.4677</v>
       </c>
       <c r="D141" t="n">
-        <v>2.9874</v>
+        <v>2.98577</v>
       </c>
       <c r="E141" t="n">
-        <v>0.706557</v>
+        <v>0.70474</v>
       </c>
       <c r="F141" t="n">
-        <v>3.2584</v>
+        <v>3.2621</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.853939</v>
+        <v>0.843537</v>
       </c>
       <c r="C142" t="n">
-        <v>3.4558</v>
+        <v>3.46127</v>
       </c>
       <c r="D142" t="n">
-        <v>2.96047</v>
+        <v>2.96433</v>
       </c>
       <c r="E142" t="n">
-        <v>0.720809</v>
+        <v>0.7010690000000001</v>
       </c>
       <c r="F142" t="n">
-        <v>3.24335</v>
+        <v>3.24878</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.835917</v>
+        <v>0.834827</v>
       </c>
       <c r="C143" t="n">
-        <v>3.43877</v>
+        <v>3.43872</v>
       </c>
       <c r="D143" t="n">
-        <v>2.94192</v>
+        <v>2.9436</v>
       </c>
       <c r="E143" t="n">
-        <v>0.717707</v>
+        <v>0.698512</v>
       </c>
       <c r="F143" t="n">
-        <v>3.22643</v>
+        <v>3.22835</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.254624</v>
+        <v>0.254256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.41604</v>
+        <v>0.416238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.569035</v>
+        <v>0.57317</v>
       </c>
       <c r="E2" t="n">
-        <v>0.207955</v>
+        <v>0.208161</v>
       </c>
       <c r="F2" t="n">
-        <v>0.385801</v>
+        <v>0.386075</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.248909</v>
+        <v>0.242226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.413618</v>
+        <v>0.413292</v>
       </c>
       <c r="D3" t="n">
-        <v>0.565941</v>
+        <v>0.563514</v>
       </c>
       <c r="E3" t="n">
-        <v>0.20147</v>
+        <v>0.201974</v>
       </c>
       <c r="F3" t="n">
-        <v>0.378869</v>
+        <v>0.379083</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.236954</v>
+        <v>0.2415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.407652</v>
+        <v>0.406144</v>
       </c>
       <c r="D4" t="n">
-        <v>0.559314</v>
+        <v>0.557997</v>
       </c>
       <c r="E4" t="n">
-        <v>0.196166</v>
+        <v>0.197352</v>
       </c>
       <c r="F4" t="n">
-        <v>0.373603</v>
+        <v>0.374261</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.230996</v>
+        <v>0.237608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.401238</v>
+        <v>0.401223</v>
       </c>
       <c r="D5" t="n">
-        <v>0.553534</v>
+        <v>0.550919</v>
       </c>
       <c r="E5" t="n">
-        <v>0.191322</v>
+        <v>0.192207</v>
       </c>
       <c r="F5" t="n">
-        <v>0.368211</v>
+        <v>0.36863</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235148</v>
+        <v>0.227701</v>
       </c>
       <c r="C6" t="n">
-        <v>0.397479</v>
+        <v>0.396504</v>
       </c>
       <c r="D6" t="n">
-        <v>0.546926</v>
+        <v>0.545384</v>
       </c>
       <c r="E6" t="n">
-        <v>0.188104</v>
+        <v>0.188264</v>
       </c>
       <c r="F6" t="n">
-        <v>0.364952</v>
+        <v>0.366835</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.230766</v>
+        <v>0.233257</v>
       </c>
       <c r="C7" t="n">
-        <v>0.394372</v>
+        <v>0.393554</v>
       </c>
       <c r="D7" t="n">
-        <v>0.707026</v>
+        <v>0.706854</v>
       </c>
       <c r="E7" t="n">
-        <v>0.185892</v>
+        <v>0.188199</v>
       </c>
       <c r="F7" t="n">
-        <v>0.362662</v>
+        <v>0.362466</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229251</v>
+        <v>0.228876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.393378</v>
+        <v>0.390894</v>
       </c>
       <c r="D8" t="n">
-        <v>0.690725</v>
+        <v>0.689945</v>
       </c>
       <c r="E8" t="n">
-        <v>0.187822</v>
+        <v>0.187448</v>
       </c>
       <c r="F8" t="n">
-        <v>0.362534</v>
+        <v>0.363457</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228712</v>
+        <v>0.227755</v>
       </c>
       <c r="C9" t="n">
-        <v>0.392506</v>
+        <v>0.391456</v>
       </c>
       <c r="D9" t="n">
-        <v>0.68203</v>
+        <v>0.677613</v>
       </c>
       <c r="E9" t="n">
-        <v>0.278879</v>
+        <v>0.278393</v>
       </c>
       <c r="F9" t="n">
-        <v>0.452393</v>
+        <v>0.452607</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.317337</v>
+        <v>0.310729</v>
       </c>
       <c r="C10" t="n">
-        <v>0.48102</v>
+        <v>0.481917</v>
       </c>
       <c r="D10" t="n">
-        <v>0.661358</v>
+        <v>0.66269</v>
       </c>
       <c r="E10" t="n">
-        <v>0.269201</v>
+        <v>0.269818</v>
       </c>
       <c r="F10" t="n">
-        <v>0.440376</v>
+        <v>0.441936</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.307368</v>
+        <v>0.301455</v>
       </c>
       <c r="C11" t="n">
-        <v>0.470633</v>
+        <v>0.470369</v>
       </c>
       <c r="D11" t="n">
-        <v>0.649104</v>
+        <v>0.648434</v>
       </c>
       <c r="E11" t="n">
-        <v>0.258947</v>
+        <v>0.259178</v>
       </c>
       <c r="F11" t="n">
-        <v>0.434555</v>
+        <v>0.432727</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296976</v>
+        <v>0.297545</v>
       </c>
       <c r="C12" t="n">
-        <v>0.461148</v>
+        <v>0.461267</v>
       </c>
       <c r="D12" t="n">
-        <v>0.638642</v>
+        <v>0.636253</v>
       </c>
       <c r="E12" t="n">
-        <v>0.250912</v>
+        <v>0.252418</v>
       </c>
       <c r="F12" t="n">
-        <v>0.425563</v>
+        <v>0.423164</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286664</v>
+        <v>0.285912</v>
       </c>
       <c r="C13" t="n">
-        <v>0.449779</v>
+        <v>0.455082</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6256350000000001</v>
+        <v>0.627099</v>
       </c>
       <c r="E13" t="n">
-        <v>0.243836</v>
+        <v>0.244367</v>
       </c>
       <c r="F13" t="n">
-        <v>0.41532</v>
+        <v>0.413337</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.278438</v>
+        <v>0.280593</v>
       </c>
       <c r="C14" t="n">
-        <v>0.440244</v>
+        <v>0.451718</v>
       </c>
       <c r="D14" t="n">
-        <v>0.615923</v>
+        <v>0.6177550000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.237845</v>
+        <v>0.237199</v>
       </c>
       <c r="F14" t="n">
-        <v>0.407048</v>
+        <v>0.405102</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.274771</v>
+        <v>0.276123</v>
       </c>
       <c r="C15" t="n">
-        <v>0.432329</v>
+        <v>0.443964</v>
       </c>
       <c r="D15" t="n">
-        <v>0.608967</v>
+        <v>0.608684</v>
       </c>
       <c r="E15" t="n">
-        <v>0.229276</v>
+        <v>0.229857</v>
       </c>
       <c r="F15" t="n">
-        <v>0.399968</v>
+        <v>0.397058</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270288</v>
+        <v>0.267125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.426379</v>
+        <v>0.428287</v>
       </c>
       <c r="D16" t="n">
-        <v>0.601245</v>
+        <v>0.599865</v>
       </c>
       <c r="E16" t="n">
-        <v>0.223127</v>
+        <v>0.224</v>
       </c>
       <c r="F16" t="n">
-        <v>0.39242</v>
+        <v>0.390527</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.258922</v>
+        <v>0.257278</v>
       </c>
       <c r="C17" t="n">
-        <v>0.420508</v>
+        <v>0.422189</v>
       </c>
       <c r="D17" t="n">
-        <v>0.594019</v>
+        <v>0.59253</v>
       </c>
       <c r="E17" t="n">
-        <v>0.217823</v>
+        <v>0.218698</v>
       </c>
       <c r="F17" t="n">
-        <v>0.38445</v>
+        <v>0.383912</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.250638</v>
+        <v>0.25536</v>
       </c>
       <c r="C18" t="n">
-        <v>0.414499</v>
+        <v>0.41798</v>
       </c>
       <c r="D18" t="n">
-        <v>0.587385</v>
+        <v>0.58414</v>
       </c>
       <c r="E18" t="n">
-        <v>0.213202</v>
+        <v>0.213484</v>
       </c>
       <c r="F18" t="n">
-        <v>0.379978</v>
+        <v>0.377109</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253049</v>
+        <v>0.249782</v>
       </c>
       <c r="C19" t="n">
-        <v>0.407967</v>
+        <v>0.415452</v>
       </c>
       <c r="D19" t="n">
-        <v>0.578309</v>
+        <v>0.579016</v>
       </c>
       <c r="E19" t="n">
-        <v>0.208242</v>
+        <v>0.20817</v>
       </c>
       <c r="F19" t="n">
-        <v>0.373656</v>
+        <v>0.373607</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.252062</v>
+        <v>0.243163</v>
       </c>
       <c r="C20" t="n">
-        <v>0.404854</v>
+        <v>0.407619</v>
       </c>
       <c r="D20" t="n">
-        <v>0.572341</v>
+        <v>0.576041</v>
       </c>
       <c r="E20" t="n">
-        <v>0.205089</v>
+        <v>0.207115</v>
       </c>
       <c r="F20" t="n">
-        <v>0.369648</v>
+        <v>0.36893</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243163</v>
+        <v>0.24383</v>
       </c>
       <c r="C21" t="n">
-        <v>0.398113</v>
+        <v>0.401068</v>
       </c>
       <c r="D21" t="n">
-        <v>0.762332</v>
+        <v>0.761553</v>
       </c>
       <c r="E21" t="n">
-        <v>0.205383</v>
+        <v>0.205673</v>
       </c>
       <c r="F21" t="n">
-        <v>0.366656</v>
+        <v>0.367492</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238782</v>
+        <v>0.243121</v>
       </c>
       <c r="C22" t="n">
-        <v>0.395763</v>
+        <v>0.397774</v>
       </c>
       <c r="D22" t="n">
-        <v>0.744022</v>
+        <v>0.746169</v>
       </c>
       <c r="E22" t="n">
-        <v>0.206308</v>
+        <v>0.206383</v>
       </c>
       <c r="F22" t="n">
-        <v>0.367144</v>
+        <v>0.367263</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.241129</v>
+        <v>0.238801</v>
       </c>
       <c r="C23" t="n">
-        <v>0.395044</v>
+        <v>0.396181</v>
       </c>
       <c r="D23" t="n">
-        <v>0.727823</v>
+        <v>0.7322</v>
       </c>
       <c r="E23" t="n">
-        <v>0.297838</v>
+        <v>0.298512</v>
       </c>
       <c r="F23" t="n">
-        <v>0.462398</v>
+        <v>0.461391</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.319813</v>
+        <v>0.325097</v>
       </c>
       <c r="C24" t="n">
-        <v>0.492458</v>
+        <v>0.490386</v>
       </c>
       <c r="D24" t="n">
-        <v>0.714911</v>
+        <v>0.713351</v>
       </c>
       <c r="E24" t="n">
-        <v>0.286512</v>
+        <v>0.288581</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451042</v>
+        <v>0.451024</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.317915</v>
+        <v>0.308319</v>
       </c>
       <c r="C25" t="n">
-        <v>0.482298</v>
+        <v>0.48008</v>
       </c>
       <c r="D25" t="n">
-        <v>0.700201</v>
+        <v>0.703381</v>
       </c>
       <c r="E25" t="n">
-        <v>0.277142</v>
+        <v>0.276351</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441526</v>
+        <v>0.441086</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.308888</v>
+        <v>0.302043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.470968</v>
+        <v>0.471827</v>
       </c>
       <c r="D26" t="n">
-        <v>0.686026</v>
+        <v>0.690811</v>
       </c>
       <c r="E26" t="n">
-        <v>0.268364</v>
+        <v>0.269732</v>
       </c>
       <c r="F26" t="n">
-        <v>0.432426</v>
+        <v>0.432333</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.293702</v>
+        <v>0.29845</v>
       </c>
       <c r="C27" t="n">
-        <v>0.461858</v>
+        <v>0.462054</v>
       </c>
       <c r="D27" t="n">
-        <v>0.67604</v>
+        <v>0.673951</v>
       </c>
       <c r="E27" t="n">
-        <v>0.261099</v>
+        <v>0.259784</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423338</v>
+        <v>0.423306</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.283667</v>
+        <v>0.287031</v>
       </c>
       <c r="C28" t="n">
-        <v>0.455281</v>
+        <v>0.455462</v>
       </c>
       <c r="D28" t="n">
-        <v>0.665004</v>
+        <v>0.665457</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2533</v>
+        <v>0.255031</v>
       </c>
       <c r="F28" t="n">
-        <v>0.41595</v>
+        <v>0.414641</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.279827</v>
+        <v>0.277506</v>
       </c>
       <c r="C29" t="n">
-        <v>0.447242</v>
+        <v>0.447344</v>
       </c>
       <c r="D29" t="n">
-        <v>0.656721</v>
+        <v>0.6570589999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.245568</v>
+        <v>0.247022</v>
       </c>
       <c r="F29" t="n">
-        <v>0.406976</v>
+        <v>0.407108</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.272963</v>
+        <v>0.272031</v>
       </c>
       <c r="C30" t="n">
-        <v>0.440769</v>
+        <v>0.439367</v>
       </c>
       <c r="D30" t="n">
-        <v>0.647147</v>
+        <v>0.645583</v>
       </c>
       <c r="E30" t="n">
-        <v>0.238455</v>
+        <v>0.239501</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399361</v>
+        <v>0.400009</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268596</v>
+        <v>0.267831</v>
       </c>
       <c r="C31" t="n">
-        <v>0.433007</v>
+        <v>0.433485</v>
       </c>
       <c r="D31" t="n">
-        <v>0.637427</v>
+        <v>0.637581</v>
       </c>
       <c r="E31" t="n">
-        <v>0.233488</v>
+        <v>0.232361</v>
       </c>
       <c r="F31" t="n">
-        <v>0.392352</v>
+        <v>0.393156</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260945</v>
+        <v>0.263026</v>
       </c>
       <c r="C32" t="n">
-        <v>0.425988</v>
+        <v>0.426372</v>
       </c>
       <c r="D32" t="n">
-        <v>0.632185</v>
+        <v>0.63101</v>
       </c>
       <c r="E32" t="n">
-        <v>0.228018</v>
+        <v>0.227262</v>
       </c>
       <c r="F32" t="n">
-        <v>0.386046</v>
+        <v>0.38628</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254988</v>
+        <v>0.256536</v>
       </c>
       <c r="C33" t="n">
-        <v>0.420959</v>
+        <v>0.419857</v>
       </c>
       <c r="D33" t="n">
-        <v>0.627732</v>
+        <v>0.624341</v>
       </c>
       <c r="E33" t="n">
-        <v>0.222655</v>
+        <v>0.222901</v>
       </c>
       <c r="F33" t="n">
-        <v>0.380894</v>
+        <v>0.381025</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251134</v>
+        <v>0.25063</v>
       </c>
       <c r="C34" t="n">
-        <v>0.417446</v>
+        <v>0.41923</v>
       </c>
       <c r="D34" t="n">
-        <v>0.619163</v>
+        <v>0.619503</v>
       </c>
       <c r="E34" t="n">
-        <v>0.219371</v>
+        <v>0.219387</v>
       </c>
       <c r="F34" t="n">
-        <v>0.376413</v>
+        <v>0.376697</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.246645</v>
+        <v>0.246892</v>
       </c>
       <c r="C35" t="n">
-        <v>0.410188</v>
+        <v>0.412731</v>
       </c>
       <c r="D35" t="n">
-        <v>0.818777</v>
+        <v>0.817528</v>
       </c>
       <c r="E35" t="n">
-        <v>0.216773</v>
+        <v>0.216048</v>
       </c>
       <c r="F35" t="n">
-        <v>0.373415</v>
+        <v>0.374309</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244279</v>
+        <v>0.243432</v>
       </c>
       <c r="C36" t="n">
-        <v>0.408673</v>
+        <v>0.409047</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7998769999999999</v>
+        <v>0.798708</v>
       </c>
       <c r="E36" t="n">
-        <v>0.214258</v>
+        <v>0.215229</v>
       </c>
       <c r="F36" t="n">
-        <v>0.372516</v>
+        <v>0.373169</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.242445</v>
+        <v>0.243546</v>
       </c>
       <c r="C37" t="n">
-        <v>0.40703</v>
+        <v>0.408537</v>
       </c>
       <c r="D37" t="n">
-        <v>0.782</v>
+        <v>0.781237</v>
       </c>
       <c r="E37" t="n">
-        <v>0.308513</v>
+        <v>0.309316</v>
       </c>
       <c r="F37" t="n">
-        <v>0.470662</v>
+        <v>0.470847</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.328337</v>
+        <v>0.32897</v>
       </c>
       <c r="C38" t="n">
-        <v>0.503038</v>
+        <v>0.5159</v>
       </c>
       <c r="D38" t="n">
-        <v>0.765915</v>
+        <v>0.764481</v>
       </c>
       <c r="E38" t="n">
-        <v>0.298686</v>
+        <v>0.300398</v>
       </c>
       <c r="F38" t="n">
-        <v>0.460596</v>
+        <v>0.461395</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.315657</v>
+        <v>0.320072</v>
       </c>
       <c r="C39" t="n">
-        <v>0.49951</v>
+        <v>0.515528</v>
       </c>
       <c r="D39" t="n">
-        <v>0.749356</v>
+        <v>0.749756</v>
       </c>
       <c r="E39" t="n">
-        <v>0.288951</v>
+        <v>0.288165</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451972</v>
+        <v>0.451669</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.310923</v>
+        <v>0.309347</v>
       </c>
       <c r="C40" t="n">
-        <v>0.490375</v>
+        <v>0.505535</v>
       </c>
       <c r="D40" t="n">
-        <v>0.735979</v>
+        <v>0.735936</v>
       </c>
       <c r="E40" t="n">
-        <v>0.280264</v>
+        <v>0.2794</v>
       </c>
       <c r="F40" t="n">
-        <v>0.443044</v>
+        <v>0.444172</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302464</v>
+        <v>0.309623</v>
       </c>
       <c r="C41" t="n">
-        <v>0.48098</v>
+        <v>0.494256</v>
       </c>
       <c r="D41" t="n">
-        <v>0.723335</v>
+        <v>0.721179</v>
       </c>
       <c r="E41" t="n">
-        <v>0.271786</v>
+        <v>0.273159</v>
       </c>
       <c r="F41" t="n">
-        <v>0.434353</v>
+        <v>0.435617</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.295724</v>
+        <v>0.295984</v>
       </c>
       <c r="C42" t="n">
-        <v>0.473585</v>
+        <v>0.485175</v>
       </c>
       <c r="D42" t="n">
-        <v>0.712457</v>
+        <v>0.710796</v>
       </c>
       <c r="E42" t="n">
-        <v>0.263993</v>
+        <v>0.263625</v>
       </c>
       <c r="F42" t="n">
-        <v>0.426932</v>
+        <v>0.427947</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.294849</v>
+        <v>0.287792</v>
       </c>
       <c r="C43" t="n">
-        <v>0.464888</v>
+        <v>0.476721</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7009880000000001</v>
+        <v>0.700132</v>
       </c>
       <c r="E43" t="n">
-        <v>0.255882</v>
+        <v>0.256204</v>
       </c>
       <c r="F43" t="n">
-        <v>0.419957</v>
+        <v>0.420729</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288422</v>
+        <v>0.28527</v>
       </c>
       <c r="C44" t="n">
-        <v>0.457265</v>
+        <v>0.469072</v>
       </c>
       <c r="D44" t="n">
-        <v>0.692474</v>
+        <v>0.690222</v>
       </c>
       <c r="E44" t="n">
-        <v>0.249662</v>
+        <v>0.2491</v>
       </c>
       <c r="F44" t="n">
-        <v>0.412261</v>
+        <v>0.413909</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.278611</v>
+        <v>0.273838</v>
       </c>
       <c r="C45" t="n">
-        <v>0.452141</v>
+        <v>0.460744</v>
       </c>
       <c r="D45" t="n">
-        <v>0.682764</v>
+        <v>0.681553</v>
       </c>
       <c r="E45" t="n">
-        <v>0.243101</v>
+        <v>0.242517</v>
       </c>
       <c r="F45" t="n">
-        <v>0.406181</v>
+        <v>0.40654</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.273732</v>
+        <v>0.272816</v>
       </c>
       <c r="C46" t="n">
-        <v>0.444743</v>
+        <v>0.448786</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6740080000000001</v>
+        <v>0.6740969999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.237471</v>
+        <v>0.236767</v>
       </c>
       <c r="F46" t="n">
-        <v>0.399373</v>
+        <v>0.400482</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.268806</v>
+        <v>0.271411</v>
       </c>
       <c r="C47" t="n">
-        <v>0.438515</v>
+        <v>0.441386</v>
       </c>
       <c r="D47" t="n">
-        <v>0.667342</v>
+        <v>0.667012</v>
       </c>
       <c r="E47" t="n">
-        <v>0.232302</v>
+        <v>0.231239</v>
       </c>
       <c r="F47" t="n">
-        <v>0.394047</v>
+        <v>0.394756</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.264743</v>
+        <v>0.262936</v>
       </c>
       <c r="C48" t="n">
-        <v>0.43265</v>
+        <v>0.436793</v>
       </c>
       <c r="D48" t="n">
-        <v>0.660712</v>
+        <v>0.663087</v>
       </c>
       <c r="E48" t="n">
-        <v>0.229082</v>
+        <v>0.228335</v>
       </c>
       <c r="F48" t="n">
-        <v>0.390015</v>
+        <v>0.390591</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.263695</v>
+        <v>0.257645</v>
       </c>
       <c r="C49" t="n">
-        <v>0.429516</v>
+        <v>0.432153</v>
       </c>
       <c r="D49" t="n">
-        <v>0.655289</v>
+        <v>0.655323</v>
       </c>
       <c r="E49" t="n">
-        <v>0.225365</v>
+        <v>0.224625</v>
       </c>
       <c r="F49" t="n">
-        <v>0.386735</v>
+        <v>0.387712</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.257406</v>
+        <v>0.250418</v>
       </c>
       <c r="C50" t="n">
-        <v>0.425401</v>
+        <v>0.427539</v>
       </c>
       <c r="D50" t="n">
-        <v>0.84532</v>
+        <v>0.845916</v>
       </c>
       <c r="E50" t="n">
-        <v>0.225556</v>
+        <v>0.223897</v>
       </c>
       <c r="F50" t="n">
-        <v>0.385106</v>
+        <v>0.386479</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.250716</v>
+        <v>0.252151</v>
       </c>
       <c r="C51" t="n">
-        <v>0.423423</v>
+        <v>0.424955</v>
       </c>
       <c r="D51" t="n">
-        <v>0.825802</v>
+        <v>0.826199</v>
       </c>
       <c r="E51" t="n">
-        <v>0.324763</v>
+        <v>0.321593</v>
       </c>
       <c r="F51" t="n">
-        <v>0.488096</v>
+        <v>0.487493</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.254804</v>
+        <v>0.254357</v>
       </c>
       <c r="C52" t="n">
-        <v>0.422714</v>
+        <v>0.425054</v>
       </c>
       <c r="D52" t="n">
-        <v>0.808096</v>
+        <v>0.808552</v>
       </c>
       <c r="E52" t="n">
-        <v>0.314858</v>
+        <v>0.313951</v>
       </c>
       <c r="F52" t="n">
-        <v>0.479</v>
+        <v>0.479078</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.351247</v>
+        <v>0.332908</v>
       </c>
       <c r="C53" t="n">
-        <v>0.521961</v>
+        <v>0.520217</v>
       </c>
       <c r="D53" t="n">
-        <v>0.792164</v>
+        <v>0.792053</v>
       </c>
       <c r="E53" t="n">
-        <v>0.306389</v>
+        <v>0.303617</v>
       </c>
       <c r="F53" t="n">
-        <v>0.469356</v>
+        <v>0.469047</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.330349</v>
+        <v>0.330705</v>
       </c>
       <c r="C54" t="n">
-        <v>0.514124</v>
+        <v>0.512592</v>
       </c>
       <c r="D54" t="n">
-        <v>0.775891</v>
+        <v>0.775822</v>
       </c>
       <c r="E54" t="n">
-        <v>0.297717</v>
+        <v>0.293335</v>
       </c>
       <c r="F54" t="n">
-        <v>0.46181</v>
+        <v>0.460594</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318087</v>
+        <v>0.323879</v>
       </c>
       <c r="C55" t="n">
-        <v>0.504811</v>
+        <v>0.506229</v>
       </c>
       <c r="D55" t="n">
-        <v>0.763134</v>
+        <v>0.762301</v>
       </c>
       <c r="E55" t="n">
-        <v>0.288543</v>
+        <v>0.288998</v>
       </c>
       <c r="F55" t="n">
-        <v>0.454579</v>
+        <v>0.454574</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.313526</v>
+        <v>0.311121</v>
       </c>
       <c r="C56" t="n">
-        <v>0.499091</v>
+        <v>0.500474</v>
       </c>
       <c r="D56" t="n">
-        <v>0.750556</v>
+        <v>0.7513300000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.280264</v>
+        <v>0.279466</v>
       </c>
       <c r="F56" t="n">
-        <v>0.446784</v>
+        <v>0.445652</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.306835</v>
+        <v>0.306399</v>
       </c>
       <c r="C57" t="n">
-        <v>0.489767</v>
+        <v>0.489539</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7379869999999999</v>
+        <v>0.737089</v>
       </c>
       <c r="E57" t="n">
-        <v>0.273049</v>
+        <v>0.272743</v>
       </c>
       <c r="F57" t="n">
-        <v>0.439957</v>
+        <v>0.440047</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.299326</v>
+        <v>0.294987</v>
       </c>
       <c r="C58" t="n">
-        <v>0.483267</v>
+        <v>0.483125</v>
       </c>
       <c r="D58" t="n">
-        <v>0.727867</v>
+        <v>0.72695</v>
       </c>
       <c r="E58" t="n">
-        <v>0.266287</v>
+        <v>0.265817</v>
       </c>
       <c r="F58" t="n">
-        <v>0.432655</v>
+        <v>0.433049</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.289006</v>
+        <v>0.289464</v>
       </c>
       <c r="C59" t="n">
-        <v>0.477376</v>
+        <v>0.478119</v>
       </c>
       <c r="D59" t="n">
-        <v>0.717697</v>
+        <v>0.717461</v>
       </c>
       <c r="E59" t="n">
-        <v>0.259041</v>
+        <v>0.259704</v>
       </c>
       <c r="F59" t="n">
-        <v>0.426365</v>
+        <v>0.424833</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.286991</v>
+        <v>0.28834</v>
       </c>
       <c r="C60" t="n">
-        <v>0.470668</v>
+        <v>0.472544</v>
       </c>
       <c r="D60" t="n">
-        <v>0.708665</v>
+        <v>0.709059</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254862</v>
+        <v>0.254504</v>
       </c>
       <c r="F60" t="n">
-        <v>0.420396</v>
+        <v>0.420227</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.282822</v>
+        <v>0.281153</v>
       </c>
       <c r="C61" t="n">
-        <v>0.464222</v>
+        <v>0.466328</v>
       </c>
       <c r="D61" t="n">
-        <v>0.700927</v>
+        <v>0.700901</v>
       </c>
       <c r="E61" t="n">
-        <v>0.248738</v>
+        <v>0.24725</v>
       </c>
       <c r="F61" t="n">
-        <v>0.415513</v>
+        <v>0.414735</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.278802</v>
+        <v>0.274102</v>
       </c>
       <c r="C62" t="n">
-        <v>0.459792</v>
+        <v>0.460101</v>
       </c>
       <c r="D62" t="n">
-        <v>0.693607</v>
+        <v>0.691963</v>
       </c>
       <c r="E62" t="n">
-        <v>0.243588</v>
+        <v>0.244256</v>
       </c>
       <c r="F62" t="n">
-        <v>0.411631</v>
+        <v>0.410179</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.271973</v>
+        <v>0.271672</v>
       </c>
       <c r="C63" t="n">
-        <v>0.454278</v>
+        <v>0.454471</v>
       </c>
       <c r="D63" t="n">
-        <v>0.687542</v>
+        <v>0.685206</v>
       </c>
       <c r="E63" t="n">
-        <v>0.241048</v>
+        <v>0.240779</v>
       </c>
       <c r="F63" t="n">
-        <v>0.408677</v>
+        <v>0.407594</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265432</v>
+        <v>0.269401</v>
       </c>
       <c r="C64" t="n">
-        <v>0.451848</v>
+        <v>0.450783</v>
       </c>
       <c r="D64" t="n">
-        <v>0.904921</v>
+        <v>0.903725</v>
       </c>
       <c r="E64" t="n">
-        <v>0.237874</v>
+        <v>0.238141</v>
       </c>
       <c r="F64" t="n">
-        <v>0.406955</v>
+        <v>0.405664</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.270464</v>
+        <v>0.263392</v>
       </c>
       <c r="C65" t="n">
-        <v>0.446567</v>
+        <v>0.44699</v>
       </c>
       <c r="D65" t="n">
-        <v>0.883945</v>
+        <v>0.882351</v>
       </c>
       <c r="E65" t="n">
-        <v>0.239101</v>
+        <v>0.240057</v>
       </c>
       <c r="F65" t="n">
-        <v>0.408305</v>
+        <v>0.405941</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.265575</v>
+        <v>0.269888</v>
       </c>
       <c r="C66" t="n">
-        <v>0.44619</v>
+        <v>0.447348</v>
       </c>
       <c r="D66" t="n">
-        <v>0.865245</v>
+        <v>0.8630370000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.341</v>
+        <v>0.337831</v>
       </c>
       <c r="F66" t="n">
-        <v>0.517035</v>
+        <v>0.518921</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.413799</v>
+        <v>0.393001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.599477</v>
+        <v>0.595099</v>
       </c>
       <c r="D67" t="n">
-        <v>0.847218</v>
+        <v>0.845473</v>
       </c>
       <c r="E67" t="n">
-        <v>0.334327</v>
+        <v>0.328466</v>
       </c>
       <c r="F67" t="n">
-        <v>0.510425</v>
+        <v>0.51251</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.39514</v>
+        <v>0.387407</v>
       </c>
       <c r="C68" t="n">
-        <v>0.590292</v>
+        <v>0.587612</v>
       </c>
       <c r="D68" t="n">
-        <v>0.831014</v>
+        <v>0.829599</v>
       </c>
       <c r="E68" t="n">
-        <v>0.325248</v>
+        <v>0.324687</v>
       </c>
       <c r="F68" t="n">
-        <v>0.503826</v>
+        <v>0.5054959999999999</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.399301</v>
+        <v>0.378403</v>
       </c>
       <c r="C69" t="n">
-        <v>0.584622</v>
+        <v>0.5774899999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.817454</v>
+        <v>0.816821</v>
       </c>
       <c r="E69" t="n">
-        <v>0.317381</v>
+        <v>0.316301</v>
       </c>
       <c r="F69" t="n">
-        <v>0.496896</v>
+        <v>0.497556</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.379651</v>
+        <v>0.390126</v>
       </c>
       <c r="C70" t="n">
-        <v>0.573751</v>
+        <v>0.568684</v>
       </c>
       <c r="D70" t="n">
-        <v>0.805103</v>
+        <v>0.80399</v>
       </c>
       <c r="E70" t="n">
-        <v>0.304364</v>
+        <v>0.305233</v>
       </c>
       <c r="F70" t="n">
-        <v>0.489377</v>
+        <v>0.490575</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.375149</v>
+        <v>0.390387</v>
       </c>
       <c r="C71" t="n">
-        <v>0.569684</v>
+        <v>0.562308</v>
       </c>
       <c r="D71" t="n">
-        <v>0.794042</v>
+        <v>0.793206</v>
       </c>
       <c r="E71" t="n">
-        <v>0.298508</v>
+        <v>0.300824</v>
       </c>
       <c r="F71" t="n">
-        <v>0.482231</v>
+        <v>0.483139</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.370579</v>
+        <v>0.357064</v>
       </c>
       <c r="C72" t="n">
-        <v>0.561326</v>
+        <v>0.555504</v>
       </c>
       <c r="D72" t="n">
-        <v>0.78548</v>
+        <v>0.7839699999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.292545</v>
+        <v>0.293298</v>
       </c>
       <c r="F72" t="n">
-        <v>0.476311</v>
+        <v>0.477444</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.363288</v>
+        <v>0.344271</v>
       </c>
       <c r="C73" t="n">
-        <v>0.556244</v>
+        <v>0.550603</v>
       </c>
       <c r="D73" t="n">
-        <v>0.77876</v>
+        <v>0.777002</v>
       </c>
       <c r="E73" t="n">
-        <v>0.287552</v>
+        <v>0.28399</v>
       </c>
       <c r="F73" t="n">
-        <v>0.470559</v>
+        <v>0.47192</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.36166</v>
+        <v>0.352843</v>
       </c>
       <c r="C74" t="n">
-        <v>0.551004</v>
+        <v>0.544283</v>
       </c>
       <c r="D74" t="n">
-        <v>0.772406</v>
+        <v>0.771609</v>
       </c>
       <c r="E74" t="n">
-        <v>0.277672</v>
+        <v>0.278034</v>
       </c>
       <c r="F74" t="n">
-        <v>0.465592</v>
+        <v>0.46655</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.34553</v>
+        <v>0.355383</v>
       </c>
       <c r="C75" t="n">
-        <v>0.547135</v>
+        <v>0.541454</v>
       </c>
       <c r="D75" t="n">
-        <v>0.769299</v>
+        <v>0.769129</v>
       </c>
       <c r="E75" t="n">
-        <v>0.275203</v>
+        <v>0.275964</v>
       </c>
       <c r="F75" t="n">
-        <v>0.461728</v>
+        <v>0.462091</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.327561</v>
+        <v>0.352008</v>
       </c>
       <c r="C76" t="n">
-        <v>0.543643</v>
+        <v>0.536372</v>
       </c>
       <c r="D76" t="n">
-        <v>0.766795</v>
+        <v>0.765476</v>
       </c>
       <c r="E76" t="n">
-        <v>0.272225</v>
+        <v>0.267793</v>
       </c>
       <c r="F76" t="n">
-        <v>0.458382</v>
+        <v>0.458293</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.352291</v>
+        <v>0.346855</v>
       </c>
       <c r="C77" t="n">
-        <v>0.536751</v>
+        <v>0.535252</v>
       </c>
       <c r="D77" t="n">
-        <v>0.76614</v>
+        <v>0.765745</v>
       </c>
       <c r="E77" t="n">
-        <v>0.264997</v>
+        <v>0.26331</v>
       </c>
       <c r="F77" t="n">
-        <v>0.455377</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.337896</v>
+        <v>0.334542</v>
       </c>
       <c r="C78" t="n">
-        <v>0.53195</v>
+        <v>0.5314449999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>1.2299</v>
+        <v>1.22867</v>
       </c>
       <c r="E78" t="n">
-        <v>0.264389</v>
+        <v>0.262242</v>
       </c>
       <c r="F78" t="n">
-        <v>0.454456</v>
+        <v>0.4551</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3409</v>
+        <v>0.332507</v>
       </c>
       <c r="C79" t="n">
-        <v>0.533853</v>
+        <v>0.531967</v>
       </c>
       <c r="D79" t="n">
-        <v>1.20963</v>
+        <v>1.20695</v>
       </c>
       <c r="E79" t="n">
-        <v>0.261028</v>
+        <v>0.261475</v>
       </c>
       <c r="F79" t="n">
-        <v>0.455437</v>
+        <v>0.456243</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.326755</v>
+        <v>0.318942</v>
       </c>
       <c r="C80" t="n">
-        <v>0.533555</v>
+        <v>0.529867</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18995</v>
+        <v>1.18733</v>
       </c>
       <c r="E80" t="n">
-        <v>0.386121</v>
+        <v>0.380751</v>
       </c>
       <c r="F80" t="n">
-        <v>0.743458</v>
+        <v>0.745265</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.443049</v>
+        <v>0.486792</v>
       </c>
       <c r="C81" t="n">
-        <v>0.859666</v>
+        <v>0.847628</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17112</v>
+        <v>1.17167</v>
       </c>
       <c r="E81" t="n">
-        <v>0.372791</v>
+        <v>0.379698</v>
       </c>
       <c r="F81" t="n">
-        <v>0.746601</v>
+        <v>0.748569</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.453501</v>
+        <v>0.432516</v>
       </c>
       <c r="C82" t="n">
-        <v>0.861026</v>
+        <v>0.863532</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15566</v>
+        <v>1.16117</v>
       </c>
       <c r="E82" t="n">
-        <v>0.365931</v>
+        <v>0.36958</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7420949999999999</v>
+        <v>0.744769</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.430595</v>
+        <v>0.431916</v>
       </c>
       <c r="C83" t="n">
-        <v>0.858666</v>
+        <v>0.860962</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14416</v>
+        <v>1.14941</v>
       </c>
       <c r="E83" t="n">
-        <v>0.358721</v>
+        <v>0.363836</v>
       </c>
       <c r="F83" t="n">
-        <v>0.734334</v>
+        <v>0.7364810000000001</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.426775</v>
+        <v>0.448407</v>
       </c>
       <c r="C84" t="n">
-        <v>0.851147</v>
+        <v>0.8530219999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13627</v>
+        <v>1.14177</v>
       </c>
       <c r="E84" t="n">
-        <v>0.357478</v>
+        <v>0.354301</v>
       </c>
       <c r="F84" t="n">
-        <v>0.723567</v>
+        <v>0.727895</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.448244</v>
+        <v>0.475543</v>
       </c>
       <c r="C85" t="n">
-        <v>0.837858</v>
+        <v>0.8533230000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>1.12919</v>
+        <v>1.13659</v>
       </c>
       <c r="E85" t="n">
-        <v>0.342507</v>
+        <v>0.347326</v>
       </c>
       <c r="F85" t="n">
-        <v>0.713979</v>
+        <v>0.715968</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.423978</v>
+        <v>0.445597</v>
       </c>
       <c r="C86" t="n">
-        <v>0.823245</v>
+        <v>0.833093</v>
       </c>
       <c r="D86" t="n">
-        <v>1.13267</v>
+        <v>1.1342</v>
       </c>
       <c r="E86" t="n">
-        <v>0.338259</v>
+        <v>0.337036</v>
       </c>
       <c r="F86" t="n">
-        <v>0.700809</v>
+        <v>0.700731</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.431107</v>
+        <v>0.400217</v>
       </c>
       <c r="C87" t="n">
-        <v>0.818195</v>
+        <v>0.814854</v>
       </c>
       <c r="D87" t="n">
-        <v>1.13226</v>
+        <v>1.13018</v>
       </c>
       <c r="E87" t="n">
-        <v>0.334101</v>
+        <v>0.331145</v>
       </c>
       <c r="F87" t="n">
-        <v>0.687591</v>
+        <v>0.688107</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.424207</v>
+        <v>0.423726</v>
       </c>
       <c r="C88" t="n">
-        <v>0.805575</v>
+        <v>0.803245</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13499</v>
+        <v>1.13464</v>
       </c>
       <c r="E88" t="n">
-        <v>0.326246</v>
+        <v>0.324021</v>
       </c>
       <c r="F88" t="n">
-        <v>0.675548</v>
+        <v>0.674637</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.421797</v>
+        <v>0.39515</v>
       </c>
       <c r="C89" t="n">
-        <v>0.787996</v>
+        <v>0.793502</v>
       </c>
       <c r="D89" t="n">
-        <v>1.14253</v>
+        <v>1.14143</v>
       </c>
       <c r="E89" t="n">
-        <v>0.316642</v>
+        <v>0.317099</v>
       </c>
       <c r="F89" t="n">
-        <v>0.662957</v>
+        <v>0.664396</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.402234</v>
+        <v>0.402505</v>
       </c>
       <c r="C90" t="n">
-        <v>0.775687</v>
+        <v>0.7781670000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>1.14746</v>
+        <v>1.1498</v>
       </c>
       <c r="E90" t="n">
-        <v>0.317996</v>
+        <v>0.311547</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6523910000000001</v>
+        <v>0.654572</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.399157</v>
+        <v>0.418081</v>
       </c>
       <c r="C91" t="n">
-        <v>0.768091</v>
+        <v>0.776481</v>
       </c>
       <c r="D91" t="n">
-        <v>1.16125</v>
+        <v>1.16316</v>
       </c>
       <c r="E91" t="n">
-        <v>0.304737</v>
+        <v>0.304586</v>
       </c>
       <c r="F91" t="n">
-        <v>0.642162</v>
+        <v>0.644088</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.390396</v>
+        <v>0.413277</v>
       </c>
       <c r="C92" t="n">
-        <v>0.760663</v>
+        <v>0.7653759999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>1.72198</v>
+        <v>1.72683</v>
       </c>
       <c r="E92" t="n">
-        <v>0.307803</v>
+        <v>0.307672</v>
       </c>
       <c r="F92" t="n">
-        <v>0.635663</v>
+        <v>0.635526</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.386946</v>
+        <v>0.39792</v>
       </c>
       <c r="C93" t="n">
-        <v>0.758147</v>
+        <v>0.760938</v>
       </c>
       <c r="D93" t="n">
-        <v>1.71211</v>
+        <v>1.71798</v>
       </c>
       <c r="E93" t="n">
-        <v>0.303125</v>
+        <v>0.305306</v>
       </c>
       <c r="F93" t="n">
-        <v>0.630389</v>
+        <v>0.631709</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.392059</v>
+        <v>0.383673</v>
       </c>
       <c r="C94" t="n">
-        <v>0.751921</v>
+        <v>0.75641</v>
       </c>
       <c r="D94" t="n">
-        <v>1.70023</v>
+        <v>1.70316</v>
       </c>
       <c r="E94" t="n">
-        <v>0.497398</v>
+        <v>0.49369</v>
       </c>
       <c r="F94" t="n">
-        <v>1.12105</v>
+        <v>1.11862</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5827599999999999</v>
+        <v>0.568168</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15228</v>
+        <v>1.15536</v>
       </c>
       <c r="D95" t="n">
-        <v>1.68407</v>
+        <v>1.69214</v>
       </c>
       <c r="E95" t="n">
-        <v>0.492084</v>
+        <v>0.483499</v>
       </c>
       <c r="F95" t="n">
-        <v>1.117</v>
+        <v>1.11474</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.571198</v>
+        <v>0.5740960000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15871</v>
+        <v>1.16319</v>
       </c>
       <c r="D96" t="n">
-        <v>1.67569</v>
+        <v>1.68159</v>
       </c>
       <c r="E96" t="n">
-        <v>0.478165</v>
+        <v>0.474712</v>
       </c>
       <c r="F96" t="n">
-        <v>1.10386</v>
+        <v>1.10254</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.557646</v>
+        <v>0.558388</v>
       </c>
       <c r="C97" t="n">
-        <v>1.15602</v>
+        <v>1.14488</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66593</v>
+        <v>1.67218</v>
       </c>
       <c r="E97" t="n">
-        <v>0.469303</v>
+        <v>0.462985</v>
       </c>
       <c r="F97" t="n">
-        <v>1.08716</v>
+        <v>1.08738</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.564822</v>
+        <v>0.567816</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1218</v>
+        <v>1.13554</v>
       </c>
       <c r="D98" t="n">
-        <v>1.6603</v>
+        <v>1.66367</v>
       </c>
       <c r="E98" t="n">
-        <v>0.455794</v>
+        <v>0.45143</v>
       </c>
       <c r="F98" t="n">
-        <v>1.05937</v>
+        <v>1.0603</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.550278</v>
+        <v>0.556349</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12929</v>
+        <v>1.12575</v>
       </c>
       <c r="D99" t="n">
-        <v>1.65774</v>
+        <v>1.66254</v>
       </c>
       <c r="E99" t="n">
-        <v>0.44627</v>
+        <v>0.438649</v>
       </c>
       <c r="F99" t="n">
-        <v>1.0368</v>
+        <v>1.0523</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.53598</v>
+        <v>0.543856</v>
       </c>
       <c r="C100" t="n">
-        <v>1.1097</v>
+        <v>1.10808</v>
       </c>
       <c r="D100" t="n">
-        <v>1.65704</v>
+        <v>1.66615</v>
       </c>
       <c r="E100" t="n">
-        <v>0.436852</v>
+        <v>0.431856</v>
       </c>
       <c r="F100" t="n">
-        <v>1.02132</v>
+        <v>1.03512</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.531213</v>
+        <v>0.524944</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09447</v>
+        <v>1.09274</v>
       </c>
       <c r="D101" t="n">
-        <v>1.66398</v>
+        <v>1.66888</v>
       </c>
       <c r="E101" t="n">
-        <v>0.427929</v>
+        <v>0.423817</v>
       </c>
       <c r="F101" t="n">
-        <v>1.02019</v>
+        <v>1.01833</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.527293</v>
+        <v>0.5230860000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>1.07294</v>
+        <v>1.08975</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66871</v>
+        <v>1.67444</v>
       </c>
       <c r="E102" t="n">
-        <v>0.415404</v>
+        <v>0.411958</v>
       </c>
       <c r="F102" t="n">
-        <v>1.0032</v>
+        <v>0.9981</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.512736</v>
+        <v>0.524806</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06311</v>
+        <v>1.06725</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67719</v>
+        <v>1.68333</v>
       </c>
       <c r="E103" t="n">
-        <v>0.407916</v>
+        <v>0.403983</v>
       </c>
       <c r="F103" t="n">
-        <v>0.989749</v>
+        <v>0.989301</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.519648</v>
+        <v>0.515997</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04896</v>
+        <v>1.03772</v>
       </c>
       <c r="D104" t="n">
-        <v>1.68711</v>
+        <v>1.69495</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4029</v>
+        <v>0.399451</v>
       </c>
       <c r="F104" t="n">
-        <v>0.977757</v>
+        <v>0.9754080000000001</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.513836</v>
+        <v>0.506942</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04162</v>
+        <v>1.05656</v>
       </c>
       <c r="D105" t="n">
-        <v>1.69945</v>
+        <v>1.70994</v>
       </c>
       <c r="E105" t="n">
-        <v>0.39593</v>
+        <v>0.392864</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9642539999999999</v>
+        <v>0.964564</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.504035</v>
+        <v>0.5013919999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03399</v>
+        <v>1.04499</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71752</v>
+        <v>1.72382</v>
       </c>
       <c r="E106" t="n">
-        <v>0.390822</v>
+        <v>0.387554</v>
       </c>
       <c r="F106" t="n">
-        <v>0.954466</v>
+        <v>0.951251</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.506365</v>
+        <v>0.493156</v>
       </c>
       <c r="C107" t="n">
-        <v>1.0426</v>
+        <v>1.03114</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30622</v>
+        <v>2.31404</v>
       </c>
       <c r="E107" t="n">
-        <v>0.382441</v>
+        <v>0.384537</v>
       </c>
       <c r="F107" t="n">
-        <v>0.936013</v>
+        <v>0.94378</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.498259</v>
+        <v>0.496061</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01771</v>
+        <v>1.03013</v>
       </c>
       <c r="D108" t="n">
-        <v>2.2766</v>
+        <v>2.29092</v>
       </c>
       <c r="E108" t="n">
-        <v>0.578658</v>
+        <v>0.576271</v>
       </c>
       <c r="F108" t="n">
-        <v>2.35846</v>
+        <v>2.38746</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.515549</v>
+        <v>0.511962</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02331</v>
+        <v>1.01594</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25397</v>
+        <v>2.26573</v>
       </c>
       <c r="E109" t="n">
-        <v>0.572989</v>
+        <v>0.531458</v>
       </c>
       <c r="F109" t="n">
-        <v>2.36182</v>
+        <v>2.38651</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.704526</v>
+        <v>0.70677</v>
       </c>
       <c r="C110" t="n">
-        <v>2.56683</v>
+        <v>2.56508</v>
       </c>
       <c r="D110" t="n">
-        <v>2.23882</v>
+        <v>2.2458</v>
       </c>
       <c r="E110" t="n">
-        <v>0.559518</v>
+        <v>0.56015</v>
       </c>
       <c r="F110" t="n">
-        <v>2.37687</v>
+        <v>2.39542</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.69043</v>
+        <v>0.702458</v>
       </c>
       <c r="C111" t="n">
-        <v>2.55248</v>
+        <v>2.56989</v>
       </c>
       <c r="D111" t="n">
-        <v>2.22598</v>
+        <v>2.23563</v>
       </c>
       <c r="E111" t="n">
-        <v>0.552529</v>
+        <v>0.548686</v>
       </c>
       <c r="F111" t="n">
-        <v>2.38733</v>
+        <v>2.39224</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.660411</v>
+        <v>0.677463</v>
       </c>
       <c r="C112" t="n">
-        <v>2.55913</v>
+        <v>2.56176</v>
       </c>
       <c r="D112" t="n">
-        <v>2.21984</v>
+        <v>2.21548</v>
       </c>
       <c r="E112" t="n">
-        <v>0.536785</v>
+        <v>0.535074</v>
       </c>
       <c r="F112" t="n">
-        <v>2.38536</v>
+        <v>2.40123</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.636806</v>
+        <v>0.657924</v>
       </c>
       <c r="C113" t="n">
-        <v>2.54862</v>
+        <v>2.57549</v>
       </c>
       <c r="D113" t="n">
-        <v>2.20822</v>
+        <v>2.21399</v>
       </c>
       <c r="E113" t="n">
-        <v>0.526088</v>
+        <v>0.491239</v>
       </c>
       <c r="F113" t="n">
-        <v>2.38969</v>
+        <v>2.39268</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.652178</v>
+        <v>0.649652</v>
       </c>
       <c r="C114" t="n">
-        <v>2.5509</v>
+        <v>2.56923</v>
       </c>
       <c r="D114" t="n">
-        <v>2.22967</v>
+        <v>2.19617</v>
       </c>
       <c r="E114" t="n">
-        <v>0.477387</v>
+        <v>0.482042</v>
       </c>
       <c r="F114" t="n">
-        <v>2.39487</v>
+        <v>2.39695</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.636012</v>
+        <v>0.637841</v>
       </c>
       <c r="C115" t="n">
-        <v>2.53801</v>
+        <v>2.5558</v>
       </c>
       <c r="D115" t="n">
-        <v>2.23421</v>
+        <v>2.22068</v>
       </c>
       <c r="E115" t="n">
-        <v>0.507953</v>
+        <v>0.503754</v>
       </c>
       <c r="F115" t="n">
-        <v>2.37925</v>
+        <v>2.40403</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.619855</v>
+        <v>0.630548</v>
       </c>
       <c r="C116" t="n">
-        <v>2.54725</v>
+        <v>2.57868</v>
       </c>
       <c r="D116" t="n">
-        <v>2.23674</v>
+        <v>2.23042</v>
       </c>
       <c r="E116" t="n">
-        <v>0.463191</v>
+        <v>0.464872</v>
       </c>
       <c r="F116" t="n">
-        <v>2.39921</v>
+        <v>2.40598</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.631579</v>
+        <v>0.621653</v>
       </c>
       <c r="C117" t="n">
-        <v>2.55443</v>
+        <v>2.56606</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22127</v>
+        <v>2.22976</v>
       </c>
       <c r="E117" t="n">
-        <v>0.488387</v>
+        <v>0.487406</v>
       </c>
       <c r="F117" t="n">
-        <v>2.40499</v>
+        <v>2.4106</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.613749</v>
+        <v>0.619352</v>
       </c>
       <c r="C118" t="n">
-        <v>2.54925</v>
+        <v>2.5681</v>
       </c>
       <c r="D118" t="n">
-        <v>2.18273</v>
+        <v>2.18756</v>
       </c>
       <c r="E118" t="n">
-        <v>0.449907</v>
+        <v>0.450813</v>
       </c>
       <c r="F118" t="n">
-        <v>2.20407</v>
+        <v>2.21789</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.610687</v>
+        <v>0.607833</v>
       </c>
       <c r="C119" t="n">
-        <v>2.56744</v>
+        <v>2.58515</v>
       </c>
       <c r="D119" t="n">
-        <v>2.18753</v>
+        <v>2.19349</v>
       </c>
       <c r="E119" t="n">
-        <v>0.441704</v>
+        <v>0.442302</v>
       </c>
       <c r="F119" t="n">
-        <v>2.20077</v>
+        <v>2.0101</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5918679999999999</v>
+        <v>0.617117</v>
       </c>
       <c r="C120" t="n">
-        <v>2.55507</v>
+        <v>2.56507</v>
       </c>
       <c r="D120" t="n">
-        <v>2.19301</v>
+        <v>2.21192</v>
       </c>
       <c r="E120" t="n">
-        <v>0.435364</v>
+        <v>0.43687</v>
       </c>
       <c r="F120" t="n">
-        <v>1.5826</v>
+        <v>1.79612</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.582874</v>
+        <v>0.585996</v>
       </c>
       <c r="C121" t="n">
-        <v>1.9749</v>
+        <v>2.58184</v>
       </c>
       <c r="D121" t="n">
-        <v>2.85887</v>
+        <v>2.8633</v>
       </c>
       <c r="E121" t="n">
-        <v>0.431719</v>
+        <v>0.433293</v>
       </c>
       <c r="F121" t="n">
-        <v>1.8046</v>
+        <v>2.00941</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.567744</v>
+        <v>0.595414</v>
       </c>
       <c r="C122" t="n">
-        <v>2.58231</v>
+        <v>2.58738</v>
       </c>
       <c r="D122" t="n">
-        <v>2.81988</v>
+        <v>2.82463</v>
       </c>
       <c r="E122" t="n">
-        <v>0.431175</v>
+        <v>0.432564</v>
       </c>
       <c r="F122" t="n">
-        <v>1.7837</v>
+        <v>1.14504</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.571967</v>
+        <v>0.575744</v>
       </c>
       <c r="C123" t="n">
-        <v>2.58584</v>
+        <v>2.60786</v>
       </c>
       <c r="D123" t="n">
-        <v>2.76923</v>
+        <v>2.79101</v>
       </c>
       <c r="E123" t="n">
-        <v>0.623732</v>
+        <v>0.6269479999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>2.89461</v>
+        <v>2.91408</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.76569</v>
+        <v>0.78086</v>
       </c>
       <c r="C124" t="n">
-        <v>3.12642</v>
+        <v>3.14579</v>
       </c>
       <c r="D124" t="n">
-        <v>2.73311</v>
+        <v>2.75516</v>
       </c>
       <c r="E124" t="n">
-        <v>0.618876</v>
+        <v>0.61972</v>
       </c>
       <c r="F124" t="n">
-        <v>2.88737</v>
+        <v>2.90707</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.759003</v>
+        <v>0.776253</v>
       </c>
       <c r="C125" t="n">
-        <v>3.11962</v>
+        <v>3.13521</v>
       </c>
       <c r="D125" t="n">
-        <v>2.70572</v>
+        <v>2.71735</v>
       </c>
       <c r="E125" t="n">
-        <v>0.609689</v>
+        <v>0.609704</v>
       </c>
       <c r="F125" t="n">
-        <v>2.8889</v>
+        <v>2.89599</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.752047</v>
+        <v>0.750574</v>
       </c>
       <c r="C126" t="n">
-        <v>3.1114</v>
+        <v>3.11886</v>
       </c>
       <c r="D126" t="n">
-        <v>2.68097</v>
+        <v>2.68833</v>
       </c>
       <c r="E126" t="n">
-        <v>0.60101</v>
+        <v>0.6034119999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>2.87093</v>
+        <v>2.89641</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7354889999999999</v>
+        <v>0.737367</v>
       </c>
       <c r="C127" t="n">
-        <v>3.10265</v>
+        <v>3.12224</v>
       </c>
       <c r="D127" t="n">
-        <v>2.65573</v>
+        <v>2.66522</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6186120000000001</v>
+        <v>0.600438</v>
       </c>
       <c r="F127" t="n">
-        <v>2.86565</v>
+        <v>2.88371</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7354889999999999</v>
+        <v>0.7394849999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>3.0826</v>
+        <v>3.10612</v>
       </c>
       <c r="D128" t="n">
-        <v>2.63954</v>
+        <v>2.65072</v>
       </c>
       <c r="E128" t="n">
-        <v>0.591296</v>
+        <v>0.5927210000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>2.87024</v>
+        <v>2.88566</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.734348</v>
+        <v>0.735691</v>
       </c>
       <c r="C129" t="n">
-        <v>3.06696</v>
+        <v>3.09041</v>
       </c>
       <c r="D129" t="n">
-        <v>2.62056</v>
+        <v>2.63198</v>
       </c>
       <c r="E129" t="n">
-        <v>0.585774</v>
+        <v>0.587253</v>
       </c>
       <c r="F129" t="n">
-        <v>2.85722</v>
+        <v>2.87084</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.715705</v>
+        <v>0.722052</v>
       </c>
       <c r="C130" t="n">
-        <v>3.06774</v>
+        <v>3.09298</v>
       </c>
       <c r="D130" t="n">
-        <v>2.60709</v>
+        <v>2.62114</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5800149999999999</v>
+        <v>0.582471</v>
       </c>
       <c r="F130" t="n">
-        <v>2.84831</v>
+        <v>2.86602</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.718261</v>
+        <v>0.706033</v>
       </c>
       <c r="C131" t="n">
-        <v>3.06032</v>
+        <v>3.08105</v>
       </c>
       <c r="D131" t="n">
-        <v>2.60372</v>
+        <v>2.60386</v>
       </c>
       <c r="E131" t="n">
-        <v>0.574752</v>
+        <v>0.578226</v>
       </c>
       <c r="F131" t="n">
-        <v>2.85696</v>
+        <v>2.87274</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.704264</v>
+        <v>0.711294</v>
       </c>
       <c r="C132" t="n">
-        <v>3.05733</v>
+        <v>3.07052</v>
       </c>
       <c r="D132" t="n">
-        <v>2.60182</v>
+        <v>2.60223</v>
       </c>
       <c r="E132" t="n">
-        <v>0.571129</v>
+        <v>0.573006</v>
       </c>
       <c r="F132" t="n">
-        <v>2.85987</v>
+        <v>2.87344</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.703444</v>
+        <v>0.701112</v>
       </c>
       <c r="C133" t="n">
-        <v>3.04657</v>
+        <v>3.06557</v>
       </c>
       <c r="D133" t="n">
-        <v>2.5635</v>
+        <v>2.59801</v>
       </c>
       <c r="E133" t="n">
-        <v>0.567649</v>
+        <v>0.568588</v>
       </c>
       <c r="F133" t="n">
-        <v>2.86112</v>
+        <v>2.87221</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.691129</v>
+        <v>0.701871</v>
       </c>
       <c r="C134" t="n">
-        <v>3.0461</v>
+        <v>3.06466</v>
       </c>
       <c r="D134" t="n">
-        <v>2.56693</v>
+        <v>2.57428</v>
       </c>
       <c r="E134" t="n">
-        <v>0.534654</v>
+        <v>0.537447</v>
       </c>
       <c r="F134" t="n">
-        <v>2.8577</v>
+        <v>2.41384</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.69547</v>
+        <v>0.681759</v>
       </c>
       <c r="C135" t="n">
-        <v>3.04854</v>
+        <v>3.06711</v>
       </c>
       <c r="D135" t="n">
-        <v>3.26057</v>
+        <v>3.26073</v>
       </c>
       <c r="E135" t="n">
-        <v>0.535863</v>
+        <v>0.535865</v>
       </c>
       <c r="F135" t="n">
-        <v>2.85105</v>
+        <v>2.63769</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.691728</v>
+        <v>0.67924</v>
       </c>
       <c r="C136" t="n">
-        <v>3.0348</v>
+        <v>3.04993</v>
       </c>
       <c r="D136" t="n">
-        <v>3.1882</v>
+        <v>3.2024</v>
       </c>
       <c r="E136" t="n">
-        <v>0.531375</v>
+        <v>0.532797</v>
       </c>
       <c r="F136" t="n">
-        <v>2.62507</v>
+        <v>2.86906</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.676627</v>
+        <v>0.678547</v>
       </c>
       <c r="C137" t="n">
-        <v>3.03543</v>
+        <v>3.06124</v>
       </c>
       <c r="D137" t="n">
-        <v>3.13524</v>
+        <v>3.15792</v>
       </c>
       <c r="E137" t="n">
-        <v>0.725796</v>
+        <v>0.722125</v>
       </c>
       <c r="F137" t="n">
-        <v>3.31909</v>
+        <v>3.336</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.879391</v>
+        <v>0.848996</v>
       </c>
       <c r="C138" t="n">
-        <v>3.54011</v>
+        <v>3.60124</v>
       </c>
       <c r="D138" t="n">
-        <v>3.08762</v>
+        <v>3.11019</v>
       </c>
       <c r="E138" t="n">
-        <v>0.718114</v>
+        <v>0.717863</v>
       </c>
       <c r="F138" t="n">
-        <v>3.31268</v>
+        <v>3.32764</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.838189</v>
+        <v>0.864607</v>
       </c>
       <c r="C139" t="n">
-        <v>3.52879</v>
+        <v>3.5298</v>
       </c>
       <c r="D139" t="n">
-        <v>3.05083</v>
+        <v>3.06824</v>
       </c>
       <c r="E139" t="n">
-        <v>0.713749</v>
+        <v>0.714512</v>
       </c>
       <c r="F139" t="n">
-        <v>3.30123</v>
+        <v>3.30793</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.857328</v>
+        <v>0.845954</v>
       </c>
       <c r="C140" t="n">
-        <v>3.49454</v>
+        <v>3.51129</v>
       </c>
       <c r="D140" t="n">
-        <v>3.01159</v>
+        <v>3.04089</v>
       </c>
       <c r="E140" t="n">
-        <v>0.728519</v>
+        <v>0.71079</v>
       </c>
       <c r="F140" t="n">
-        <v>3.28326</v>
+        <v>3.29573</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.852434</v>
+        <v>0.850314</v>
       </c>
       <c r="C141" t="n">
-        <v>3.4677</v>
+        <v>3.4751</v>
       </c>
       <c r="D141" t="n">
-        <v>2.98577</v>
+        <v>3.00999</v>
       </c>
       <c r="E141" t="n">
-        <v>0.70474</v>
+        <v>0.706236</v>
       </c>
       <c r="F141" t="n">
-        <v>3.2621</v>
+        <v>3.27169</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.843537</v>
+        <v>0.8463000000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>3.46127</v>
+        <v>3.4758</v>
       </c>
       <c r="D142" t="n">
-        <v>2.96433</v>
+        <v>2.98602</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7010690000000001</v>
+        <v>0.701359</v>
       </c>
       <c r="F142" t="n">
-        <v>3.24878</v>
+        <v>3.26288</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.834827</v>
+        <v>0.831172</v>
       </c>
       <c r="C143" t="n">
-        <v>3.43872</v>
+        <v>3.46273</v>
       </c>
       <c r="D143" t="n">
-        <v>2.9436</v>
+        <v>2.95721</v>
       </c>
       <c r="E143" t="n">
-        <v>0.698512</v>
+        <v>0.714607</v>
       </c>
       <c r="F143" t="n">
-        <v>3.22835</v>
+        <v>3.24762</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.254243</v>
+        <v>0.254141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.416735</v>
+        <v>0.41677</v>
       </c>
       <c r="D2" t="n">
-        <v>0.574263</v>
+        <v>0.569549</v>
       </c>
       <c r="E2" t="n">
-        <v>0.208208</v>
+        <v>0.206919</v>
       </c>
       <c r="F2" t="n">
-        <v>0.385447</v>
+        <v>0.384883</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243041</v>
+        <v>0.241054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.420019</v>
+        <v>0.412829</v>
       </c>
       <c r="D3" t="n">
-        <v>0.56633</v>
+        <v>0.563379</v>
       </c>
       <c r="E3" t="n">
-        <v>0.201101</v>
+        <v>0.2008</v>
       </c>
       <c r="F3" t="n">
-        <v>0.378794</v>
+        <v>0.378377</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239917</v>
+        <v>0.245738</v>
       </c>
       <c r="C4" t="n">
-        <v>0.412885</v>
+        <v>0.406555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.557993</v>
+        <v>0.558088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.195689</v>
+        <v>0.196068</v>
       </c>
       <c r="F4" t="n">
-        <v>0.37305</v>
+        <v>0.372767</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237089</v>
+        <v>0.238394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.406562</v>
+        <v>0.400292</v>
       </c>
       <c r="D5" t="n">
-        <v>0.552086</v>
+        <v>0.552584</v>
       </c>
       <c r="E5" t="n">
-        <v>0.19114</v>
+        <v>0.191243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.368084</v>
+        <v>0.368543</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.228544</v>
+        <v>0.234992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.40492</v>
+        <v>0.397275</v>
       </c>
       <c r="D6" t="n">
-        <v>0.546995</v>
+        <v>0.5462399999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.188223</v>
+        <v>0.187804</v>
       </c>
       <c r="F6" t="n">
-        <v>0.364679</v>
+        <v>0.363964</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226288</v>
+        <v>0.237087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.40206</v>
+        <v>0.395535</v>
       </c>
       <c r="D7" t="n">
-        <v>0.708923</v>
+        <v>0.706804</v>
       </c>
       <c r="E7" t="n">
-        <v>0.185202</v>
+        <v>0.18518</v>
       </c>
       <c r="F7" t="n">
-        <v>0.362502</v>
+        <v>0.362489</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226612</v>
+        <v>0.235408</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398422</v>
+        <v>0.391962</v>
       </c>
       <c r="D8" t="n">
-        <v>0.695574</v>
+        <v>0.690082</v>
       </c>
       <c r="E8" t="n">
-        <v>0.187281</v>
+        <v>0.187386</v>
       </c>
       <c r="F8" t="n">
-        <v>0.362521</v>
+        <v>0.362124</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226014</v>
+        <v>0.225797</v>
       </c>
       <c r="C9" t="n">
-        <v>0.39671</v>
+        <v>0.391218</v>
       </c>
       <c r="D9" t="n">
-        <v>0.677567</v>
+        <v>0.675727</v>
       </c>
       <c r="E9" t="n">
-        <v>0.278781</v>
+        <v>0.278103</v>
       </c>
       <c r="F9" t="n">
-        <v>0.451485</v>
+        <v>0.451215</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314617</v>
+        <v>0.312839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.481018</v>
+        <v>0.479734</v>
       </c>
       <c r="D10" t="n">
-        <v>0.664679</v>
+        <v>0.6625529999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.267471</v>
+        <v>0.268023</v>
       </c>
       <c r="F10" t="n">
-        <v>0.440695</v>
+        <v>0.439727</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.315191</v>
+        <v>0.302477</v>
       </c>
       <c r="C11" t="n">
-        <v>0.470044</v>
+        <v>0.4693</v>
       </c>
       <c r="D11" t="n">
-        <v>0.652693</v>
+        <v>0.649176</v>
       </c>
       <c r="E11" t="n">
-        <v>0.258977</v>
+        <v>0.260395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.431423</v>
+        <v>0.430791</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.293328</v>
+        <v>0.293649</v>
       </c>
       <c r="C12" t="n">
-        <v>0.460505</v>
+        <v>0.459682</v>
       </c>
       <c r="D12" t="n">
-        <v>0.640203</v>
+        <v>0.6361250000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.250975</v>
+        <v>0.2503</v>
       </c>
       <c r="F12" t="n">
-        <v>0.422027</v>
+        <v>0.42138</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286519</v>
+        <v>0.283729</v>
       </c>
       <c r="C13" t="n">
-        <v>0.450951</v>
+        <v>0.449758</v>
       </c>
       <c r="D13" t="n">
-        <v>0.628493</v>
+        <v>0.625346</v>
       </c>
       <c r="E13" t="n">
-        <v>0.243855</v>
+        <v>0.24299</v>
       </c>
       <c r="F13" t="n">
-        <v>0.413386</v>
+        <v>0.413102</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275953</v>
+        <v>0.281113</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441698</v>
+        <v>0.440944</v>
       </c>
       <c r="D14" t="n">
-        <v>0.623489</v>
+        <v>0.615212</v>
       </c>
       <c r="E14" t="n">
-        <v>0.236281</v>
+        <v>0.236484</v>
       </c>
       <c r="F14" t="n">
-        <v>0.40502</v>
+        <v>0.404676</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.272625</v>
+        <v>0.270755</v>
       </c>
       <c r="C15" t="n">
-        <v>0.434621</v>
+        <v>0.433308</v>
       </c>
       <c r="D15" t="n">
-        <v>0.612347</v>
+        <v>0.6066319999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.229603</v>
+        <v>0.230292</v>
       </c>
       <c r="F15" t="n">
-        <v>0.397438</v>
+        <v>0.396627</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.26543</v>
+        <v>0.267256</v>
       </c>
       <c r="C16" t="n">
-        <v>0.427848</v>
+        <v>0.426078</v>
       </c>
       <c r="D16" t="n">
-        <v>0.605208</v>
+        <v>0.6016550000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.224333</v>
+        <v>0.222866</v>
       </c>
       <c r="F16" t="n">
-        <v>0.390339</v>
+        <v>0.390126</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.265402</v>
+        <v>0.257557</v>
       </c>
       <c r="C17" t="n">
-        <v>0.423222</v>
+        <v>0.420385</v>
       </c>
       <c r="D17" t="n">
-        <v>0.597863</v>
+        <v>0.594199</v>
       </c>
       <c r="E17" t="n">
-        <v>0.218604</v>
+        <v>0.217776</v>
       </c>
       <c r="F17" t="n">
-        <v>0.383274</v>
+        <v>0.382693</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254965</v>
+        <v>0.255612</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416292</v>
+        <v>0.415124</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585372</v>
+        <v>0.587793</v>
       </c>
       <c r="E18" t="n">
-        <v>0.212367</v>
+        <v>0.213484</v>
       </c>
       <c r="F18" t="n">
-        <v>0.377466</v>
+        <v>0.37728</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.245632</v>
+        <v>0.248335</v>
       </c>
       <c r="C19" t="n">
-        <v>0.411115</v>
+        <v>0.409766</v>
       </c>
       <c r="D19" t="n">
-        <v>0.579197</v>
+        <v>0.578143</v>
       </c>
       <c r="E19" t="n">
-        <v>0.207925</v>
+        <v>0.208098</v>
       </c>
       <c r="F19" t="n">
-        <v>0.37376</v>
+        <v>0.372787</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244967</v>
+        <v>0.244888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.407196</v>
+        <v>0.404123</v>
       </c>
       <c r="D20" t="n">
-        <v>0.576402</v>
+        <v>0.572607</v>
       </c>
       <c r="E20" t="n">
-        <v>0.204964</v>
+        <v>0.205246</v>
       </c>
       <c r="F20" t="n">
-        <v>0.369403</v>
+        <v>0.368194</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239482</v>
+        <v>0.245318</v>
       </c>
       <c r="C21" t="n">
-        <v>0.401977</v>
+        <v>0.399482</v>
       </c>
       <c r="D21" t="n">
-        <v>0.765652</v>
+        <v>0.7599939999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.204435</v>
+        <v>0.203711</v>
       </c>
       <c r="F21" t="n">
-        <v>0.366874</v>
+        <v>0.366318</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.244064</v>
+        <v>0.238853</v>
       </c>
       <c r="C22" t="n">
-        <v>0.400508</v>
+        <v>0.397922</v>
       </c>
       <c r="D22" t="n">
-        <v>0.746958</v>
+        <v>0.745996</v>
       </c>
       <c r="E22" t="n">
-        <v>0.20462</v>
+        <v>0.204784</v>
       </c>
       <c r="F22" t="n">
-        <v>0.367137</v>
+        <v>0.366269</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.245607</v>
+        <v>0.237345</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3988</v>
+        <v>0.398632</v>
       </c>
       <c r="D23" t="n">
-        <v>0.738127</v>
+        <v>0.727838</v>
       </c>
       <c r="E23" t="n">
-        <v>0.29852</v>
+        <v>0.297827</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461853</v>
+        <v>0.462016</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.321466</v>
+        <v>0.320274</v>
       </c>
       <c r="C24" t="n">
-        <v>0.489269</v>
+        <v>0.525682</v>
       </c>
       <c r="D24" t="n">
-        <v>0.715265</v>
+        <v>0.71274</v>
       </c>
       <c r="E24" t="n">
-        <v>0.285835</v>
+        <v>0.286818</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451487</v>
+        <v>0.45144</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.313079</v>
+        <v>0.314279</v>
       </c>
       <c r="C25" t="n">
-        <v>0.479336</v>
+        <v>0.519323</v>
       </c>
       <c r="D25" t="n">
-        <v>0.70138</v>
+        <v>0.700302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.276129</v>
+        <v>0.277174</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441061</v>
+        <v>0.441543</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.302882</v>
+        <v>0.303274</v>
       </c>
       <c r="C26" t="n">
-        <v>0.471928</v>
+        <v>0.500916</v>
       </c>
       <c r="D26" t="n">
-        <v>0.690419</v>
+        <v>0.689384</v>
       </c>
       <c r="E26" t="n">
-        <v>0.269331</v>
+        <v>0.268024</v>
       </c>
       <c r="F26" t="n">
-        <v>0.432307</v>
+        <v>0.432646</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294338</v>
+        <v>0.297442</v>
       </c>
       <c r="C27" t="n">
-        <v>0.463385</v>
+        <v>0.500232</v>
       </c>
       <c r="D27" t="n">
-        <v>0.678958</v>
+        <v>0.675619</v>
       </c>
       <c r="E27" t="n">
-        <v>0.259641</v>
+        <v>0.259698</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423145</v>
+        <v>0.423351</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.28839</v>
+        <v>0.286809</v>
       </c>
       <c r="C28" t="n">
-        <v>0.456135</v>
+        <v>0.487997</v>
       </c>
       <c r="D28" t="n">
-        <v>0.669781</v>
+        <v>0.663265</v>
       </c>
       <c r="E28" t="n">
-        <v>0.252151</v>
+        <v>0.252455</v>
       </c>
       <c r="F28" t="n">
-        <v>0.415044</v>
+        <v>0.414949</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284574</v>
+        <v>0.28446</v>
       </c>
       <c r="C29" t="n">
-        <v>0.448014</v>
+        <v>0.475028</v>
       </c>
       <c r="D29" t="n">
-        <v>0.656578</v>
+        <v>0.654351</v>
       </c>
       <c r="E29" t="n">
-        <v>0.245058</v>
+        <v>0.246855</v>
       </c>
       <c r="F29" t="n">
-        <v>0.407064</v>
+        <v>0.406892</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274449</v>
+        <v>0.276313</v>
       </c>
       <c r="C30" t="n">
-        <v>0.441485</v>
+        <v>0.468371</v>
       </c>
       <c r="D30" t="n">
-        <v>0.646554</v>
+        <v>0.645733</v>
       </c>
       <c r="E30" t="n">
-        <v>0.238754</v>
+        <v>0.238386</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399618</v>
+        <v>0.39935</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268083</v>
+        <v>0.266835</v>
       </c>
       <c r="C31" t="n">
-        <v>0.434888</v>
+        <v>0.448608</v>
       </c>
       <c r="D31" t="n">
-        <v>0.638038</v>
+        <v>0.6367620000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.231696</v>
+        <v>0.232301</v>
       </c>
       <c r="F31" t="n">
-        <v>0.392449</v>
+        <v>0.392355</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.259717</v>
+        <v>0.260048</v>
       </c>
       <c r="C32" t="n">
-        <v>0.428413</v>
+        <v>0.432101</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6316850000000001</v>
+        <v>0.631153</v>
       </c>
       <c r="E32" t="n">
-        <v>0.227007</v>
+        <v>0.227328</v>
       </c>
       <c r="F32" t="n">
-        <v>0.386656</v>
+        <v>0.386098</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.253757</v>
+        <v>0.256252</v>
       </c>
       <c r="C33" t="n">
-        <v>0.42184</v>
+        <v>0.429574</v>
       </c>
       <c r="D33" t="n">
-        <v>0.626007</v>
+        <v>0.624914</v>
       </c>
       <c r="E33" t="n">
-        <v>0.222628</v>
+        <v>0.222278</v>
       </c>
       <c r="F33" t="n">
-        <v>0.380901</v>
+        <v>0.380501</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248764</v>
+        <v>0.254576</v>
       </c>
       <c r="C34" t="n">
-        <v>0.415598</v>
+        <v>0.42601</v>
       </c>
       <c r="D34" t="n">
-        <v>0.619398</v>
+        <v>0.618469</v>
       </c>
       <c r="E34" t="n">
-        <v>0.217895</v>
+        <v>0.217448</v>
       </c>
       <c r="F34" t="n">
-        <v>0.376633</v>
+        <v>0.376324</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248426</v>
+        <v>0.246823</v>
       </c>
       <c r="C35" t="n">
-        <v>0.41586</v>
+        <v>0.41658</v>
       </c>
       <c r="D35" t="n">
-        <v>0.817875</v>
+        <v>0.81763</v>
       </c>
       <c r="E35" t="n">
-        <v>0.216589</v>
+        <v>0.215982</v>
       </c>
       <c r="F35" t="n">
-        <v>0.373845</v>
+        <v>0.373286</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244856</v>
+        <v>0.243156</v>
       </c>
       <c r="C36" t="n">
-        <v>0.412031</v>
+        <v>0.409572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7993710000000001</v>
+        <v>0.7996799999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.214233</v>
+        <v>0.215254</v>
       </c>
       <c r="F36" t="n">
-        <v>0.372899</v>
+        <v>0.37262</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.241743</v>
+        <v>0.242242</v>
       </c>
       <c r="C37" t="n">
-        <v>0.410536</v>
+        <v>0.410049</v>
       </c>
       <c r="D37" t="n">
-        <v>0.781717</v>
+        <v>0.782075</v>
       </c>
       <c r="E37" t="n">
-        <v>0.309642</v>
+        <v>0.309483</v>
       </c>
       <c r="F37" t="n">
-        <v>0.470812</v>
+        <v>0.470609</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.329474</v>
+        <v>0.32778</v>
       </c>
       <c r="C38" t="n">
-        <v>0.506965</v>
+        <v>0.5236229999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.764858</v>
+        <v>0.766465</v>
       </c>
       <c r="E38" t="n">
-        <v>0.299505</v>
+        <v>0.298639</v>
       </c>
       <c r="F38" t="n">
-        <v>0.460634</v>
+        <v>0.46062</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318374</v>
+        <v>0.317867</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501729</v>
+        <v>0.503437</v>
       </c>
       <c r="D39" t="n">
-        <v>0.75007</v>
+        <v>0.750135</v>
       </c>
       <c r="E39" t="n">
-        <v>0.28903</v>
+        <v>0.288536</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451923</v>
+        <v>0.451091</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.311633</v>
+        <v>0.311425</v>
       </c>
       <c r="C40" t="n">
-        <v>0.492654</v>
+        <v>0.493061</v>
       </c>
       <c r="D40" t="n">
-        <v>0.735791</v>
+        <v>0.736496</v>
       </c>
       <c r="E40" t="n">
-        <v>0.27896</v>
+        <v>0.279793</v>
       </c>
       <c r="F40" t="n">
-        <v>0.44463</v>
+        <v>0.443257</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302448</v>
+        <v>0.304804</v>
       </c>
       <c r="C41" t="n">
-        <v>0.483424</v>
+        <v>0.484785</v>
       </c>
       <c r="D41" t="n">
-        <v>0.722261</v>
+        <v>0.723118</v>
       </c>
       <c r="E41" t="n">
-        <v>0.271824</v>
+        <v>0.272001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.435445</v>
+        <v>0.435076</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.297642</v>
+        <v>0.293139</v>
       </c>
       <c r="C42" t="n">
-        <v>0.474364</v>
+        <v>0.4742</v>
       </c>
       <c r="D42" t="n">
-        <v>0.711786</v>
+        <v>0.713802</v>
       </c>
       <c r="E42" t="n">
-        <v>0.264415</v>
+        <v>0.263505</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427225</v>
+        <v>0.427037</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.291373</v>
+        <v>0.290856</v>
       </c>
       <c r="C43" t="n">
-        <v>0.466612</v>
+        <v>0.465166</v>
       </c>
       <c r="D43" t="n">
-        <v>0.700499</v>
+        <v>0.701267</v>
       </c>
       <c r="E43" t="n">
-        <v>0.255862</v>
+        <v>0.256602</v>
       </c>
       <c r="F43" t="n">
-        <v>0.420377</v>
+        <v>0.419986</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.286887</v>
+        <v>0.288798</v>
       </c>
       <c r="C44" t="n">
-        <v>0.45818</v>
+        <v>0.456897</v>
       </c>
       <c r="D44" t="n">
-        <v>0.690591</v>
+        <v>0.689618</v>
       </c>
       <c r="E44" t="n">
-        <v>0.249181</v>
+        <v>0.249741</v>
       </c>
       <c r="F44" t="n">
-        <v>0.412913</v>
+        <v>0.412506</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.278778</v>
+        <v>0.281075</v>
       </c>
       <c r="C45" t="n">
-        <v>0.450835</v>
+        <v>0.449184</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6828920000000001</v>
+        <v>0.681739</v>
       </c>
       <c r="E45" t="n">
-        <v>0.244437</v>
+        <v>0.242814</v>
       </c>
       <c r="F45" t="n">
-        <v>0.405868</v>
+        <v>0.405598</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.274641</v>
+        <v>0.279492</v>
       </c>
       <c r="C46" t="n">
-        <v>0.444503</v>
+        <v>0.444369</v>
       </c>
       <c r="D46" t="n">
-        <v>0.674596</v>
+        <v>0.674342</v>
       </c>
       <c r="E46" t="n">
-        <v>0.237939</v>
+        <v>0.238889</v>
       </c>
       <c r="F46" t="n">
-        <v>0.39959</v>
+        <v>0.399305</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262398</v>
+        <v>0.26305</v>
       </c>
       <c r="C47" t="n">
-        <v>0.437891</v>
+        <v>0.437514</v>
       </c>
       <c r="D47" t="n">
-        <v>0.667256</v>
+        <v>0.66744</v>
       </c>
       <c r="E47" t="n">
-        <v>0.231513</v>
+        <v>0.231804</v>
       </c>
       <c r="F47" t="n">
-        <v>0.394756</v>
+        <v>0.393937</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.264171</v>
+        <v>0.258651</v>
       </c>
       <c r="C48" t="n">
-        <v>0.432631</v>
+        <v>0.434397</v>
       </c>
       <c r="D48" t="n">
-        <v>0.660874</v>
+        <v>0.660968</v>
       </c>
       <c r="E48" t="n">
-        <v>0.227516</v>
+        <v>0.228162</v>
       </c>
       <c r="F48" t="n">
-        <v>0.390317</v>
+        <v>0.389439</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255564</v>
+        <v>0.263222</v>
       </c>
       <c r="C49" t="n">
-        <v>0.428841</v>
+        <v>0.428752</v>
       </c>
       <c r="D49" t="n">
-        <v>0.655853</v>
+        <v>0.655601</v>
       </c>
       <c r="E49" t="n">
-        <v>0.224982</v>
+        <v>0.225968</v>
       </c>
       <c r="F49" t="n">
-        <v>0.387004</v>
+        <v>0.386316</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.254481</v>
+        <v>0.255823</v>
       </c>
       <c r="C50" t="n">
-        <v>0.425594</v>
+        <v>0.424473</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8450260000000001</v>
+        <v>0.8458329999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.222637</v>
+        <v>0.225832</v>
       </c>
       <c r="F50" t="n">
-        <v>0.385198</v>
+        <v>0.384851</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.253886</v>
+        <v>0.253559</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422974</v>
+        <v>0.422217</v>
       </c>
       <c r="D51" t="n">
-        <v>0.825866</v>
+        <v>0.826684</v>
       </c>
       <c r="E51" t="n">
-        <v>0.323545</v>
+        <v>0.324403</v>
       </c>
       <c r="F51" t="n">
-        <v>0.489727</v>
+        <v>0.491052</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.248862</v>
+        <v>0.257795</v>
       </c>
       <c r="C52" t="n">
-        <v>0.42338</v>
+        <v>0.422723</v>
       </c>
       <c r="D52" t="n">
-        <v>0.808235</v>
+        <v>0.80942</v>
       </c>
       <c r="E52" t="n">
-        <v>0.314814</v>
+        <v>0.315559</v>
       </c>
       <c r="F52" t="n">
-        <v>0.480099</v>
+        <v>0.481855</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34103</v>
+        <v>0.337603</v>
       </c>
       <c r="C53" t="n">
-        <v>0.535948</v>
+        <v>0.524231</v>
       </c>
       <c r="D53" t="n">
-        <v>0.791561</v>
+        <v>0.79143</v>
       </c>
       <c r="E53" t="n">
-        <v>0.306257</v>
+        <v>0.306463</v>
       </c>
       <c r="F53" t="n">
-        <v>0.470311</v>
+        <v>0.471982</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.327505</v>
+        <v>0.324821</v>
       </c>
       <c r="C54" t="n">
-        <v>0.525438</v>
+        <v>0.51537</v>
       </c>
       <c r="D54" t="n">
-        <v>0.775513</v>
+        <v>0.775358</v>
       </c>
       <c r="E54" t="n">
-        <v>0.297792</v>
+        <v>0.296505</v>
       </c>
       <c r="F54" t="n">
-        <v>0.46124</v>
+        <v>0.463373</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.323686</v>
+        <v>0.322124</v>
       </c>
       <c r="C55" t="n">
-        <v>0.517223</v>
+        <v>0.506113</v>
       </c>
       <c r="D55" t="n">
-        <v>0.762628</v>
+        <v>0.762192</v>
       </c>
       <c r="E55" t="n">
-        <v>0.290302</v>
+        <v>0.288227</v>
       </c>
       <c r="F55" t="n">
-        <v>0.453244</v>
+        <v>0.455469</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.314152</v>
+        <v>0.310222</v>
       </c>
       <c r="C56" t="n">
-        <v>0.506866</v>
+        <v>0.498085</v>
       </c>
       <c r="D56" t="n">
-        <v>0.749763</v>
+        <v>0.749456</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2803</v>
+        <v>0.281198</v>
       </c>
       <c r="F56" t="n">
-        <v>0.444929</v>
+        <v>0.44762</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.303458</v>
+        <v>0.309254</v>
       </c>
       <c r="C57" t="n">
-        <v>0.499267</v>
+        <v>0.490388</v>
       </c>
       <c r="D57" t="n">
-        <v>0.73795</v>
+        <v>0.737286</v>
       </c>
       <c r="E57" t="n">
-        <v>0.273346</v>
+        <v>0.272613</v>
       </c>
       <c r="F57" t="n">
-        <v>0.438166</v>
+        <v>0.440445</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.299017</v>
+        <v>0.299161</v>
       </c>
       <c r="C58" t="n">
-        <v>0.494339</v>
+        <v>0.483437</v>
       </c>
       <c r="D58" t="n">
-        <v>0.727367</v>
+        <v>0.7270450000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.264904</v>
+        <v>0.266143</v>
       </c>
       <c r="F58" t="n">
-        <v>0.430972</v>
+        <v>0.43317</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295136</v>
+        <v>0.295063</v>
       </c>
       <c r="C59" t="n">
-        <v>0.485555</v>
+        <v>0.473537</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7178020000000001</v>
+        <v>0.717129</v>
       </c>
       <c r="E59" t="n">
-        <v>0.261079</v>
+        <v>0.259468</v>
       </c>
       <c r="F59" t="n">
-        <v>0.425007</v>
+        <v>0.426544</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.286763</v>
+        <v>0.287898</v>
       </c>
       <c r="C60" t="n">
-        <v>0.48055</v>
+        <v>0.467176</v>
       </c>
       <c r="D60" t="n">
-        <v>0.70947</v>
+        <v>0.708888</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254763</v>
+        <v>0.253906</v>
       </c>
       <c r="F60" t="n">
-        <v>0.419674</v>
+        <v>0.419577</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.28187</v>
+        <v>0.277693</v>
       </c>
       <c r="C61" t="n">
-        <v>0.474055</v>
+        <v>0.461515</v>
       </c>
       <c r="D61" t="n">
-        <v>0.701766</v>
+        <v>0.70183</v>
       </c>
       <c r="E61" t="n">
-        <v>0.249622</v>
+        <v>0.248745</v>
       </c>
       <c r="F61" t="n">
-        <v>0.413865</v>
+        <v>0.414488</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.279049</v>
+        <v>0.278379</v>
       </c>
       <c r="C62" t="n">
-        <v>0.468214</v>
+        <v>0.455954</v>
       </c>
       <c r="D62" t="n">
-        <v>0.694327</v>
+        <v>0.694065</v>
       </c>
       <c r="E62" t="n">
-        <v>0.244869</v>
+        <v>0.24471</v>
       </c>
       <c r="F62" t="n">
-        <v>0.411992</v>
+        <v>0.409481</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.276712</v>
+        <v>0.273966</v>
       </c>
       <c r="C63" t="n">
-        <v>0.464126</v>
+        <v>0.452301</v>
       </c>
       <c r="D63" t="n">
-        <v>0.688097</v>
+        <v>0.688246</v>
       </c>
       <c r="E63" t="n">
-        <v>0.240669</v>
+        <v>0.241654</v>
       </c>
       <c r="F63" t="n">
-        <v>0.40917</v>
+        <v>0.406696</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.271371</v>
+        <v>0.268898</v>
       </c>
       <c r="C64" t="n">
-        <v>0.460098</v>
+        <v>0.449368</v>
       </c>
       <c r="D64" t="n">
-        <v>0.902219</v>
+        <v>0.910165</v>
       </c>
       <c r="E64" t="n">
-        <v>0.238707</v>
+        <v>0.239634</v>
       </c>
       <c r="F64" t="n">
-        <v>0.407973</v>
+        <v>0.404869</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268564</v>
+        <v>0.26638</v>
       </c>
       <c r="C65" t="n">
-        <v>0.459111</v>
+        <v>0.446908</v>
       </c>
       <c r="D65" t="n">
-        <v>0.882526</v>
+        <v>0.888592</v>
       </c>
       <c r="E65" t="n">
-        <v>0.239695</v>
+        <v>0.239264</v>
       </c>
       <c r="F65" t="n">
-        <v>0.409343</v>
+        <v>0.405893</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26969</v>
+        <v>0.266276</v>
       </c>
       <c r="C66" t="n">
-        <v>0.455964</v>
+        <v>0.447428</v>
       </c>
       <c r="D66" t="n">
-        <v>0.863023</v>
+        <v>0.869113</v>
       </c>
       <c r="E66" t="n">
-        <v>0.337482</v>
+        <v>0.336479</v>
       </c>
       <c r="F66" t="n">
-        <v>0.519489</v>
+        <v>0.5197850000000001</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.395093</v>
+        <v>0.387447</v>
       </c>
       <c r="C67" t="n">
-        <v>0.602135</v>
+        <v>0.598543</v>
       </c>
       <c r="D67" t="n">
-        <v>0.845179</v>
+        <v>0.851206</v>
       </c>
       <c r="E67" t="n">
-        <v>0.333179</v>
+        <v>0.33342</v>
       </c>
       <c r="F67" t="n">
-        <v>0.51225</v>
+        <v>0.5137699999999999</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.412222</v>
+        <v>0.411474</v>
       </c>
       <c r="C68" t="n">
-        <v>0.594467</v>
+        <v>0.586979</v>
       </c>
       <c r="D68" t="n">
-        <v>0.828873</v>
+        <v>0.834609</v>
       </c>
       <c r="E68" t="n">
-        <v>0.321235</v>
+        <v>0.325019</v>
       </c>
       <c r="F68" t="n">
-        <v>0.505447</v>
+        <v>0.506964</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.385574</v>
+        <v>0.390253</v>
       </c>
       <c r="C69" t="n">
-        <v>0.585128</v>
+        <v>0.58146</v>
       </c>
       <c r="D69" t="n">
-        <v>0.814239</v>
+        <v>0.820588</v>
       </c>
       <c r="E69" t="n">
-        <v>0.313538</v>
+        <v>0.311565</v>
       </c>
       <c r="F69" t="n">
-        <v>0.498047</v>
+        <v>0.500221</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.394964</v>
+        <v>0.368929</v>
       </c>
       <c r="C70" t="n">
-        <v>0.578105</v>
+        <v>0.574609</v>
       </c>
       <c r="D70" t="n">
-        <v>0.802321</v>
+        <v>0.80857</v>
       </c>
       <c r="E70" t="n">
-        <v>0.309712</v>
+        <v>0.308283</v>
       </c>
       <c r="F70" t="n">
-        <v>0.490221</v>
+        <v>0.492536</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.367309</v>
+        <v>0.362937</v>
       </c>
       <c r="C71" t="n">
-        <v>0.570569</v>
+        <v>0.566923</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7919850000000001</v>
+        <v>0.798272</v>
       </c>
       <c r="E71" t="n">
-        <v>0.299179</v>
+        <v>0.300066</v>
       </c>
       <c r="F71" t="n">
-        <v>0.483081</v>
+        <v>0.485498</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.363214</v>
+        <v>0.365097</v>
       </c>
       <c r="C72" t="n">
-        <v>0.56284</v>
+        <v>0.558913</v>
       </c>
       <c r="D72" t="n">
-        <v>0.783107</v>
+        <v>0.789665</v>
       </c>
       <c r="E72" t="n">
-        <v>0.294778</v>
+        <v>0.289907</v>
       </c>
       <c r="F72" t="n">
-        <v>0.477338</v>
+        <v>0.478577</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.373048</v>
+        <v>0.369696</v>
       </c>
       <c r="C73" t="n">
-        <v>0.556496</v>
+        <v>0.554563</v>
       </c>
       <c r="D73" t="n">
-        <v>0.77585</v>
+        <v>0.782262</v>
       </c>
       <c r="E73" t="n">
-        <v>0.287676</v>
+        <v>0.284289</v>
       </c>
       <c r="F73" t="n">
-        <v>0.472165</v>
+        <v>0.47405</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.365654</v>
+        <v>0.34976</v>
       </c>
       <c r="C74" t="n">
-        <v>0.554168</v>
+        <v>0.549625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.770469</v>
+        <v>0.776926</v>
       </c>
       <c r="E74" t="n">
-        <v>0.281985</v>
+        <v>0.281156</v>
       </c>
       <c r="F74" t="n">
-        <v>0.46712</v>
+        <v>0.468958</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.368949</v>
+        <v>0.351388</v>
       </c>
       <c r="C75" t="n">
-        <v>0.543838</v>
+        <v>0.544782</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7669010000000001</v>
+        <v>0.772342</v>
       </c>
       <c r="E75" t="n">
-        <v>0.272481</v>
+        <v>0.274962</v>
       </c>
       <c r="F75" t="n">
-        <v>0.46227</v>
+        <v>0.464019</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.349639</v>
+        <v>0.342029</v>
       </c>
       <c r="C76" t="n">
-        <v>0.543453</v>
+        <v>0.540065</v>
       </c>
       <c r="D76" t="n">
-        <v>0.764419</v>
+        <v>0.769766</v>
       </c>
       <c r="E76" t="n">
-        <v>0.274245</v>
+        <v>0.271857</v>
       </c>
       <c r="F76" t="n">
-        <v>0.459093</v>
+        <v>0.461004</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.342149</v>
+        <v>0.34357</v>
       </c>
       <c r="C77" t="n">
-        <v>0.539332</v>
+        <v>0.538115</v>
       </c>
       <c r="D77" t="n">
-        <v>0.763713</v>
+        <v>0.769438</v>
       </c>
       <c r="E77" t="n">
-        <v>0.264661</v>
+        <v>0.264084</v>
       </c>
       <c r="F77" t="n">
-        <v>0.45671</v>
+        <v>0.458441</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.334323</v>
+        <v>0.324954</v>
       </c>
       <c r="C78" t="n">
-        <v>0.535031</v>
+        <v>0.534259</v>
       </c>
       <c r="D78" t="n">
-        <v>1.22638</v>
+        <v>1.23078</v>
       </c>
       <c r="E78" t="n">
-        <v>0.26542</v>
+        <v>0.263709</v>
       </c>
       <c r="F78" t="n">
-        <v>0.455259</v>
+        <v>0.45727</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.330153</v>
+        <v>0.33776</v>
       </c>
       <c r="C79" t="n">
-        <v>0.535798</v>
+        <v>0.53504</v>
       </c>
       <c r="D79" t="n">
-        <v>1.20386</v>
+        <v>1.20911</v>
       </c>
       <c r="E79" t="n">
-        <v>0.260028</v>
+        <v>0.261514</v>
       </c>
       <c r="F79" t="n">
-        <v>0.456248</v>
+        <v>0.457775</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.321414</v>
+        <v>0.33068</v>
       </c>
       <c r="C80" t="n">
-        <v>0.535762</v>
+        <v>0.534639</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18535</v>
+        <v>1.18984</v>
       </c>
       <c r="E80" t="n">
-        <v>0.384395</v>
+        <v>0.379906</v>
       </c>
       <c r="F80" t="n">
-        <v>0.743368</v>
+        <v>0.743517</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.467185</v>
+        <v>0.432922</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8530450000000001</v>
+        <v>0.853778</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1687</v>
+        <v>1.1712</v>
       </c>
       <c r="E81" t="n">
-        <v>0.378557</v>
+        <v>0.377468</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7455079999999999</v>
+        <v>0.7458979999999999</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.437776</v>
+        <v>0.473982</v>
       </c>
       <c r="C82" t="n">
-        <v>0.864017</v>
+        <v>0.855321</v>
       </c>
       <c r="D82" t="n">
-        <v>1.1544</v>
+        <v>1.15704</v>
       </c>
       <c r="E82" t="n">
-        <v>0.371974</v>
+        <v>0.36636</v>
       </c>
       <c r="F82" t="n">
-        <v>0.741163</v>
+        <v>0.742083</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.429204</v>
+        <v>0.451308</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8607359999999999</v>
+        <v>0.854335</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14627</v>
+        <v>1.14512</v>
       </c>
       <c r="E83" t="n">
-        <v>0.363677</v>
+        <v>0.361858</v>
       </c>
       <c r="F83" t="n">
-        <v>0.733532</v>
+        <v>0.735246</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.437691</v>
+        <v>0.458097</v>
       </c>
       <c r="C84" t="n">
-        <v>0.851949</v>
+        <v>0.854681</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1386</v>
+        <v>1.13434</v>
       </c>
       <c r="E84" t="n">
-        <v>0.35592</v>
+        <v>0.351026</v>
       </c>
       <c r="F84" t="n">
-        <v>0.723036</v>
+        <v>0.723988</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.413841</v>
+        <v>0.451588</v>
       </c>
       <c r="C85" t="n">
-        <v>0.842291</v>
+        <v>0.846427</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13302</v>
+        <v>1.12883</v>
       </c>
       <c r="E85" t="n">
-        <v>0.346259</v>
+        <v>0.34342</v>
       </c>
       <c r="F85" t="n">
-        <v>0.710993</v>
+        <v>0.7123080000000001</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.425946</v>
+        <v>0.421238</v>
       </c>
       <c r="C86" t="n">
-        <v>0.833052</v>
+        <v>0.829815</v>
       </c>
       <c r="D86" t="n">
-        <v>1.12967</v>
+        <v>1.12513</v>
       </c>
       <c r="E86" t="n">
-        <v>0.341077</v>
+        <v>0.336199</v>
       </c>
       <c r="F86" t="n">
-        <v>0.697731</v>
+        <v>0.699256</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.414566</v>
+        <v>0.434039</v>
       </c>
       <c r="C87" t="n">
-        <v>0.81443</v>
+        <v>0.820581</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1308</v>
+        <v>1.1255</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3333</v>
+        <v>0.332714</v>
       </c>
       <c r="F87" t="n">
-        <v>0.686202</v>
+        <v>0.685322</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.412712</v>
+        <v>0.41199</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8050929999999999</v>
+        <v>0.807606</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13041</v>
+        <v>1.12609</v>
       </c>
       <c r="E88" t="n">
-        <v>0.326236</v>
+        <v>0.322399</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6729270000000001</v>
+        <v>0.672542</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.396101</v>
+        <v>0.407939</v>
       </c>
       <c r="C89" t="n">
-        <v>0.795724</v>
+        <v>0.789728</v>
       </c>
       <c r="D89" t="n">
-        <v>1.13798</v>
+        <v>1.13522</v>
       </c>
       <c r="E89" t="n">
-        <v>0.314928</v>
+        <v>0.313848</v>
       </c>
       <c r="F89" t="n">
-        <v>0.662362</v>
+        <v>0.66003</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.388006</v>
+        <v>0.394564</v>
       </c>
       <c r="C90" t="n">
-        <v>0.784195</v>
+        <v>0.780341</v>
       </c>
       <c r="D90" t="n">
-        <v>1.14633</v>
+        <v>1.1449</v>
       </c>
       <c r="E90" t="n">
-        <v>0.315211</v>
+        <v>0.311348</v>
       </c>
       <c r="F90" t="n">
-        <v>0.653134</v>
+        <v>0.652093</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.396523</v>
+        <v>0.390828</v>
       </c>
       <c r="C91" t="n">
-        <v>0.776886</v>
+        <v>0.772415</v>
       </c>
       <c r="D91" t="n">
-        <v>1.16061</v>
+        <v>1.15754</v>
       </c>
       <c r="E91" t="n">
-        <v>0.30375</v>
+        <v>0.304138</v>
       </c>
       <c r="F91" t="n">
-        <v>0.642626</v>
+        <v>0.642011</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.403287</v>
+        <v>0.385897</v>
       </c>
       <c r="C92" t="n">
-        <v>0.763977</v>
+        <v>0.7633</v>
       </c>
       <c r="D92" t="n">
-        <v>1.71909</v>
+        <v>1.71902</v>
       </c>
       <c r="E92" t="n">
-        <v>0.302967</v>
+        <v>0.306809</v>
       </c>
       <c r="F92" t="n">
-        <v>0.633836</v>
+        <v>0.636121</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.386329</v>
+        <v>0.385601</v>
       </c>
       <c r="C93" t="n">
-        <v>0.756368</v>
+        <v>0.756858</v>
       </c>
       <c r="D93" t="n">
-        <v>1.70892</v>
+        <v>1.7092</v>
       </c>
       <c r="E93" t="n">
-        <v>0.305423</v>
+        <v>0.30334</v>
       </c>
       <c r="F93" t="n">
-        <v>0.62966</v>
+        <v>0.629842</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387879</v>
+        <v>0.390084</v>
       </c>
       <c r="C94" t="n">
-        <v>0.752439</v>
+        <v>0.752281</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69681</v>
+        <v>1.6961</v>
       </c>
       <c r="E94" t="n">
-        <v>0.498313</v>
+        <v>0.491128</v>
       </c>
       <c r="F94" t="n">
-        <v>1.12036</v>
+        <v>1.11473</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.57689</v>
+        <v>0.570121</v>
       </c>
       <c r="C95" t="n">
-        <v>1.13676</v>
+        <v>1.15586</v>
       </c>
       <c r="D95" t="n">
-        <v>1.6845</v>
+        <v>1.68342</v>
       </c>
       <c r="E95" t="n">
-        <v>0.49295</v>
+        <v>0.480709</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11782</v>
+        <v>1.11422</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.569798</v>
+        <v>0.574109</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15514</v>
+        <v>1.13513</v>
       </c>
       <c r="D96" t="n">
-        <v>1.67298</v>
+        <v>1.67368</v>
       </c>
       <c r="E96" t="n">
-        <v>0.476948</v>
+        <v>0.474582</v>
       </c>
       <c r="F96" t="n">
-        <v>1.09408</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.580389</v>
+        <v>0.567634</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14132</v>
+        <v>1.14283</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66884</v>
+        <v>1.66676</v>
       </c>
       <c r="E97" t="n">
-        <v>0.470089</v>
+        <v>0.458929</v>
       </c>
       <c r="F97" t="n">
-        <v>1.087</v>
+        <v>1.08286</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.579443</v>
+        <v>0.557344</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12878</v>
+        <v>1.12042</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66129</v>
+        <v>1.66235</v>
       </c>
       <c r="E98" t="n">
-        <v>0.456931</v>
+        <v>0.451219</v>
       </c>
       <c r="F98" t="n">
-        <v>1.06023</v>
+        <v>1.06527</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.547942</v>
+        <v>0.560761</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12053</v>
+        <v>1.11772</v>
       </c>
       <c r="D99" t="n">
-        <v>1.65728</v>
+        <v>1.65664</v>
       </c>
       <c r="E99" t="n">
-        <v>0.44725</v>
+        <v>0.441792</v>
       </c>
       <c r="F99" t="n">
-        <v>1.04409</v>
+        <v>1.04715</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5463980000000001</v>
+        <v>0.545142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11793</v>
+        <v>1.11376</v>
       </c>
       <c r="D100" t="n">
-        <v>1.65979</v>
+        <v>1.65859</v>
       </c>
       <c r="E100" t="n">
-        <v>0.437704</v>
+        <v>0.428911</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03621</v>
+        <v>1.01788</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.546075</v>
+        <v>0.5279740000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>1.08472</v>
+        <v>1.08687</v>
       </c>
       <c r="D101" t="n">
-        <v>1.6636</v>
+        <v>1.66142</v>
       </c>
       <c r="E101" t="n">
-        <v>0.431482</v>
+        <v>0.420649</v>
       </c>
       <c r="F101" t="n">
-        <v>1.0192</v>
+        <v>0.995604</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.530415</v>
+        <v>0.520779</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06864</v>
+        <v>1.07723</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66721</v>
+        <v>1.66853</v>
       </c>
       <c r="E102" t="n">
-        <v>0.415567</v>
+        <v>0.413629</v>
       </c>
       <c r="F102" t="n">
-        <v>1.00319</v>
+        <v>0.9978900000000001</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.508377</v>
+        <v>0.526783</v>
       </c>
       <c r="C103" t="n">
-        <v>1.05628</v>
+        <v>1.05851</v>
       </c>
       <c r="D103" t="n">
-        <v>1.6779</v>
+        <v>1.67604</v>
       </c>
       <c r="E103" t="n">
-        <v>0.408353</v>
+        <v>0.405302</v>
       </c>
       <c r="F103" t="n">
-        <v>0.990698</v>
+        <v>0.984664</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.517827</v>
+        <v>0.49888</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04929</v>
+        <v>1.04605</v>
       </c>
       <c r="D104" t="n">
-        <v>1.6866</v>
+        <v>1.68935</v>
       </c>
       <c r="E104" t="n">
-        <v>0.399702</v>
+        <v>0.398148</v>
       </c>
       <c r="F104" t="n">
-        <v>0.96666</v>
+        <v>0.97153</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.506462</v>
+        <v>0.5172600000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04517</v>
+        <v>1.04936</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70071</v>
+        <v>1.7017</v>
       </c>
       <c r="E105" t="n">
-        <v>0.394132</v>
+        <v>0.390013</v>
       </c>
       <c r="F105" t="n">
-        <v>0.952193</v>
+        <v>0.961508</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.499347</v>
+        <v>0.505393</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03884</v>
+        <v>1.04001</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71801</v>
+        <v>1.72004</v>
       </c>
       <c r="E106" t="n">
-        <v>0.391333</v>
+        <v>0.384442</v>
       </c>
       <c r="F106" t="n">
-        <v>0.955402</v>
+        <v>0.94869</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.495471</v>
+        <v>0.487667</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03554</v>
+        <v>1.02203</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30885</v>
+        <v>2.31052</v>
       </c>
       <c r="E107" t="n">
-        <v>0.387694</v>
+        <v>0.384802</v>
       </c>
       <c r="F107" t="n">
-        <v>0.908249</v>
+        <v>0.9109969999999999</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492637</v>
+        <v>0.491627</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01881</v>
+        <v>1.02747</v>
       </c>
       <c r="D108" t="n">
-        <v>2.27869</v>
+        <v>2.28226</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5876169999999999</v>
+        <v>0.578419</v>
       </c>
       <c r="F108" t="n">
-        <v>2.37848</v>
+        <v>2.36265</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.505358</v>
+        <v>0.487481</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03076</v>
+        <v>1.02863</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25356</v>
+        <v>2.25568</v>
       </c>
       <c r="E109" t="n">
-        <v>0.583368</v>
+        <v>0.57115</v>
       </c>
       <c r="F109" t="n">
-        <v>2.38547</v>
+        <v>2.38452</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7159450000000001</v>
+        <v>0.70504</v>
       </c>
       <c r="C110" t="n">
-        <v>2.55395</v>
+        <v>2.5465</v>
       </c>
       <c r="D110" t="n">
-        <v>2.23341</v>
+        <v>2.23736</v>
       </c>
       <c r="E110" t="n">
-        <v>0.569796</v>
+        <v>0.559407</v>
       </c>
       <c r="F110" t="n">
-        <v>2.38734</v>
+        <v>2.37787</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.701896</v>
+        <v>0.702083</v>
       </c>
       <c r="C111" t="n">
-        <v>2.54804</v>
+        <v>2.55976</v>
       </c>
       <c r="D111" t="n">
-        <v>2.233</v>
+        <v>2.22924</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5573360000000001</v>
+        <v>0.508274</v>
       </c>
       <c r="F111" t="n">
-        <v>2.38888</v>
+        <v>2.3792</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.633323</v>
+        <v>0.686385</v>
       </c>
       <c r="C112" t="n">
-        <v>2.56256</v>
+        <v>2.55429</v>
       </c>
       <c r="D112" t="n">
-        <v>2.21991</v>
+        <v>2.21415</v>
       </c>
       <c r="E112" t="n">
-        <v>0.503433</v>
+        <v>0.532716</v>
       </c>
       <c r="F112" t="n">
-        <v>2.39067</v>
+        <v>2.40251</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6868880000000001</v>
+        <v>0.677177</v>
       </c>
       <c r="C113" t="n">
-        <v>2.55907</v>
+        <v>2.56739</v>
       </c>
       <c r="D113" t="n">
-        <v>2.19476</v>
+        <v>2.21362</v>
       </c>
       <c r="E113" t="n">
-        <v>0.495936</v>
+        <v>0.524617</v>
       </c>
       <c r="F113" t="n">
-        <v>2.38687</v>
+        <v>2.39133</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.663678</v>
+        <v>0.656824</v>
       </c>
       <c r="C114" t="n">
-        <v>2.54621</v>
+        <v>2.54158</v>
       </c>
       <c r="D114" t="n">
-        <v>2.20907</v>
+        <v>2.22774</v>
       </c>
       <c r="E114" t="n">
-        <v>0.521869</v>
+        <v>0.513062</v>
       </c>
       <c r="F114" t="n">
-        <v>2.3919</v>
+        <v>2.38365</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.659953</v>
+        <v>0.641666</v>
       </c>
       <c r="C115" t="n">
-        <v>2.54956</v>
+        <v>2.5458</v>
       </c>
       <c r="D115" t="n">
-        <v>2.24736</v>
+        <v>2.22569</v>
       </c>
       <c r="E115" t="n">
-        <v>0.475448</v>
+        <v>0.503285</v>
       </c>
       <c r="F115" t="n">
-        <v>2.39262</v>
+        <v>2.38428</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.620854</v>
+        <v>0.605549</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56047</v>
+        <v>2.55543</v>
       </c>
       <c r="D116" t="n">
-        <v>2.23854</v>
+        <v>2.22689</v>
       </c>
       <c r="E116" t="n">
-        <v>0.502959</v>
+        <v>0.494393</v>
       </c>
       <c r="F116" t="n">
-        <v>2.39269</v>
+        <v>2.40108</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.636175</v>
+        <v>0.615638</v>
       </c>
       <c r="C117" t="n">
-        <v>2.5501</v>
+        <v>2.55598</v>
       </c>
       <c r="D117" t="n">
-        <v>2.21336</v>
+        <v>2.22266</v>
       </c>
       <c r="E117" t="n">
-        <v>0.494395</v>
+        <v>0.486556</v>
       </c>
       <c r="F117" t="n">
-        <v>2.3959</v>
+        <v>2.39431</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6277199999999999</v>
+        <v>0.62236</v>
       </c>
       <c r="C118" t="n">
-        <v>2.55599</v>
+        <v>2.55591</v>
       </c>
       <c r="D118" t="n">
-        <v>2.19145</v>
+        <v>2.18681</v>
       </c>
       <c r="E118" t="n">
-        <v>0.455655</v>
+        <v>0.448445</v>
       </c>
       <c r="F118" t="n">
-        <v>2.2077</v>
+        <v>1.80199</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6230560000000001</v>
+        <v>0.6028</v>
       </c>
       <c r="C119" t="n">
-        <v>2.57914</v>
+        <v>2.56404</v>
       </c>
       <c r="D119" t="n">
-        <v>2.18347</v>
+        <v>2.19141</v>
       </c>
       <c r="E119" t="n">
-        <v>0.445369</v>
+        <v>0.440755</v>
       </c>
       <c r="F119" t="n">
-        <v>1.79197</v>
+        <v>2.22012</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.601506</v>
+        <v>0.5737139999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>2.561</v>
+        <v>2.5564</v>
       </c>
       <c r="D120" t="n">
-        <v>2.19341</v>
+        <v>2.20208</v>
       </c>
       <c r="E120" t="n">
-        <v>0.440311</v>
+        <v>0.438927</v>
       </c>
       <c r="F120" t="n">
-        <v>1.59425</v>
+        <v>2.42114</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.607674</v>
+        <v>0.58729</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57388</v>
+        <v>2.17711</v>
       </c>
       <c r="D121" t="n">
-        <v>2.85997</v>
+        <v>2.85725</v>
       </c>
       <c r="E121" t="n">
-        <v>0.438794</v>
+        <v>0.435106</v>
       </c>
       <c r="F121" t="n">
-        <v>1.79509</v>
+        <v>2.21579</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.586322</v>
+        <v>0.559679</v>
       </c>
       <c r="C122" t="n">
-        <v>2.57106</v>
+        <v>2.57716</v>
       </c>
       <c r="D122" t="n">
-        <v>2.80817</v>
+        <v>2.81413</v>
       </c>
       <c r="E122" t="n">
-        <v>0.435497</v>
+        <v>0.431034</v>
       </c>
       <c r="F122" t="n">
-        <v>1.79698</v>
+        <v>1.59098</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.59311</v>
+        <v>0.587144</v>
       </c>
       <c r="C123" t="n">
-        <v>2.57885</v>
+        <v>2.58905</v>
       </c>
       <c r="D123" t="n">
-        <v>2.76729</v>
+        <v>2.78457</v>
       </c>
       <c r="E123" t="n">
-        <v>0.630643</v>
+        <v>0.624665</v>
       </c>
       <c r="F123" t="n">
-        <v>2.90369</v>
+        <v>2.89674</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.785037</v>
+        <v>0.781511</v>
       </c>
       <c r="C124" t="n">
-        <v>3.14201</v>
+        <v>3.13523</v>
       </c>
       <c r="D124" t="n">
-        <v>2.74192</v>
+        <v>2.73945</v>
       </c>
       <c r="E124" t="n">
-        <v>0.624178</v>
+        <v>0.617968</v>
       </c>
       <c r="F124" t="n">
-        <v>2.893</v>
+        <v>2.88854</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.771209</v>
+        <v>0.75914</v>
       </c>
       <c r="C125" t="n">
-        <v>3.11739</v>
+        <v>3.11952</v>
       </c>
       <c r="D125" t="n">
-        <v>2.70836</v>
+        <v>2.71788</v>
       </c>
       <c r="E125" t="n">
-        <v>0.617513</v>
+        <v>0.608358</v>
       </c>
       <c r="F125" t="n">
-        <v>2.88643</v>
+        <v>2.88982</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.751703</v>
+        <v>0.749414</v>
       </c>
       <c r="C126" t="n">
-        <v>3.1099</v>
+        <v>3.11483</v>
       </c>
       <c r="D126" t="n">
-        <v>2.67925</v>
+        <v>2.67688</v>
       </c>
       <c r="E126" t="n">
-        <v>0.607727</v>
+        <v>0.6022960000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>2.8765</v>
+        <v>2.88643</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.756811</v>
+        <v>0.7403920000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>3.09541</v>
+        <v>3.10077</v>
       </c>
       <c r="D127" t="n">
-        <v>2.66346</v>
+        <v>2.6662</v>
       </c>
       <c r="E127" t="n">
-        <v>0.600533</v>
+        <v>0.597072</v>
       </c>
       <c r="F127" t="n">
-        <v>2.87957</v>
+        <v>2.87187</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.751846</v>
+        <v>0.7385</v>
       </c>
       <c r="C128" t="n">
-        <v>3.09427</v>
+        <v>3.09259</v>
       </c>
       <c r="D128" t="n">
-        <v>2.63023</v>
+        <v>2.64082</v>
       </c>
       <c r="E128" t="n">
-        <v>0.594256</v>
+        <v>0.591751</v>
       </c>
       <c r="F128" t="n">
-        <v>2.86949</v>
+        <v>2.87147</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7324349999999999</v>
+        <v>0.721832</v>
       </c>
       <c r="C129" t="n">
-        <v>3.07125</v>
+        <v>3.08446</v>
       </c>
       <c r="D129" t="n">
-        <v>2.61652</v>
+        <v>2.6234</v>
       </c>
       <c r="E129" t="n">
-        <v>0.589456</v>
+        <v>0.554935</v>
       </c>
       <c r="F129" t="n">
-        <v>2.86048</v>
+        <v>2.85487</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.722463</v>
+        <v>0.711486</v>
       </c>
       <c r="C130" t="n">
-        <v>3.08048</v>
+        <v>3.07477</v>
       </c>
       <c r="D130" t="n">
-        <v>2.60907</v>
+        <v>2.6118</v>
       </c>
       <c r="E130" t="n">
-        <v>0.58292</v>
+        <v>0.579009</v>
       </c>
       <c r="F130" t="n">
-        <v>2.84822</v>
+        <v>2.85058</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.711272</v>
+        <v>0.718843</v>
       </c>
       <c r="C131" t="n">
-        <v>3.06994</v>
+        <v>3.07277</v>
       </c>
       <c r="D131" t="n">
-        <v>2.58977</v>
+        <v>2.59891</v>
       </c>
       <c r="E131" t="n">
-        <v>0.577603</v>
+        <v>0.57442</v>
       </c>
       <c r="F131" t="n">
-        <v>2.85765</v>
+        <v>2.85512</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.705618</v>
+        <v>0.71421</v>
       </c>
       <c r="C132" t="n">
-        <v>3.05906</v>
+        <v>3.05627</v>
       </c>
       <c r="D132" t="n">
-        <v>2.58641</v>
+        <v>2.59701</v>
       </c>
       <c r="E132" t="n">
-        <v>0.572951</v>
+        <v>0.571359</v>
       </c>
       <c r="F132" t="n">
-        <v>2.8567</v>
+        <v>2.86671</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.708291</v>
+        <v>0.691177</v>
       </c>
       <c r="C133" t="n">
-        <v>3.04756</v>
+        <v>3.05296</v>
       </c>
       <c r="D133" t="n">
-        <v>2.58033</v>
+        <v>2.58276</v>
       </c>
       <c r="E133" t="n">
-        <v>0.568101</v>
+        <v>0.567676</v>
       </c>
       <c r="F133" t="n">
-        <v>2.85956</v>
+        <v>2.86492</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.698974</v>
+        <v>0.6882819999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>3.0419</v>
+        <v>3.04447</v>
       </c>
       <c r="D134" t="n">
-        <v>2.56066</v>
+        <v>2.56533</v>
       </c>
       <c r="E134" t="n">
-        <v>0.536829</v>
+        <v>0.536231</v>
       </c>
       <c r="F134" t="n">
-        <v>2.39622</v>
+        <v>2.85053</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.691912</v>
+        <v>0.692228</v>
       </c>
       <c r="C135" t="n">
-        <v>3.04675</v>
+        <v>3.05322</v>
       </c>
       <c r="D135" t="n">
-        <v>3.24443</v>
+        <v>3.25093</v>
       </c>
       <c r="E135" t="n">
-        <v>0.534931</v>
+        <v>0.531822</v>
       </c>
       <c r="F135" t="n">
-        <v>2.3888</v>
+        <v>2.63484</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.687009</v>
+        <v>0.6934090000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>3.03332</v>
+        <v>3.03505</v>
       </c>
       <c r="D136" t="n">
-        <v>3.20152</v>
+        <v>3.19375</v>
       </c>
       <c r="E136" t="n">
-        <v>0.53217</v>
+        <v>0.531235</v>
       </c>
       <c r="F136" t="n">
-        <v>2.39478</v>
+        <v>2.39371</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.656654</v>
+        <v>0.677751</v>
       </c>
       <c r="C137" t="n">
-        <v>3.04248</v>
+        <v>3.03768</v>
       </c>
       <c r="D137" t="n">
-        <v>3.13902</v>
+        <v>3.14726</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7228869999999999</v>
+        <v>0.724988</v>
       </c>
       <c r="F137" t="n">
-        <v>3.31485</v>
+        <v>3.33311</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.869004</v>
+        <v>0.871009</v>
       </c>
       <c r="C138" t="n">
-        <v>3.5902</v>
+        <v>3.54147</v>
       </c>
       <c r="D138" t="n">
-        <v>3.09092</v>
+        <v>3.10043</v>
       </c>
       <c r="E138" t="n">
-        <v>0.717319</v>
+        <v>0.718954</v>
       </c>
       <c r="F138" t="n">
-        <v>3.30309</v>
+        <v>3.30887</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.832659</v>
+        <v>0.853812</v>
       </c>
       <c r="C139" t="n">
-        <v>3.50737</v>
+        <v>3.5326</v>
       </c>
       <c r="D139" t="n">
-        <v>3.05248</v>
+        <v>3.05436</v>
       </c>
       <c r="E139" t="n">
-        <v>0.71373</v>
+        <v>0.713662</v>
       </c>
       <c r="F139" t="n">
-        <v>3.2912</v>
+        <v>3.29541</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.864725</v>
+        <v>0.865004</v>
       </c>
       <c r="C140" t="n">
-        <v>3.49306</v>
+        <v>3.4943</v>
       </c>
       <c r="D140" t="n">
-        <v>3.01277</v>
+        <v>3.01792</v>
       </c>
       <c r="E140" t="n">
-        <v>0.711181</v>
+        <v>0.729361</v>
       </c>
       <c r="F140" t="n">
-        <v>3.27499</v>
+        <v>3.2778</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.847248</v>
+        <v>0.851479</v>
       </c>
       <c r="C141" t="n">
-        <v>3.47501</v>
+        <v>3.48637</v>
       </c>
       <c r="D141" t="n">
-        <v>2.9874</v>
+        <v>2.98711</v>
       </c>
       <c r="E141" t="n">
-        <v>0.706557</v>
+        <v>0.725136</v>
       </c>
       <c r="F141" t="n">
-        <v>3.2584</v>
+        <v>3.26104</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.853939</v>
+        <v>0.841905</v>
       </c>
       <c r="C142" t="n">
-        <v>3.4558</v>
+        <v>3.46707</v>
       </c>
       <c r="D142" t="n">
-        <v>2.96047</v>
+        <v>2.96837</v>
       </c>
       <c r="E142" t="n">
-        <v>0.720809</v>
+        <v>0.7193079999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>3.24335</v>
+        <v>3.24615</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.835917</v>
+        <v>0.821604</v>
       </c>
       <c r="C143" t="n">
-        <v>3.43877</v>
+        <v>3.44319</v>
       </c>
       <c r="D143" t="n">
-        <v>2.94192</v>
+        <v>2.95305</v>
       </c>
       <c r="E143" t="n">
-        <v>0.717707</v>
+        <v>0.699011</v>
       </c>
       <c r="F143" t="n">
-        <v>3.22643</v>
+        <v>3.23482</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.254141</v>
+        <v>0.256171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.41677</v>
+        <v>0.417833</v>
       </c>
       <c r="D2" t="n">
-        <v>0.569549</v>
+        <v>0.568904</v>
       </c>
       <c r="E2" t="n">
-        <v>0.206919</v>
+        <v>0.207708</v>
       </c>
       <c r="F2" t="n">
-        <v>0.384883</v>
+        <v>0.386463</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241054</v>
+        <v>0.245664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.412829</v>
+        <v>0.413263</v>
       </c>
       <c r="D3" t="n">
-        <v>0.563379</v>
+        <v>0.562853</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2008</v>
+        <v>0.201424</v>
       </c>
       <c r="F3" t="n">
-        <v>0.378377</v>
+        <v>0.379375</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245738</v>
+        <v>0.240599</v>
       </c>
       <c r="C4" t="n">
-        <v>0.406555</v>
+        <v>0.407587</v>
       </c>
       <c r="D4" t="n">
-        <v>0.558088</v>
+        <v>0.556624</v>
       </c>
       <c r="E4" t="n">
-        <v>0.196068</v>
+        <v>0.195351</v>
       </c>
       <c r="F4" t="n">
-        <v>0.372767</v>
+        <v>0.374309</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.238394</v>
+        <v>0.235199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.400292</v>
+        <v>0.401701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.552584</v>
+        <v>0.550643</v>
       </c>
       <c r="E5" t="n">
-        <v>0.191243</v>
+        <v>0.190832</v>
       </c>
       <c r="F5" t="n">
-        <v>0.368543</v>
+        <v>0.36898</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.234992</v>
+        <v>0.235</v>
       </c>
       <c r="C6" t="n">
-        <v>0.397275</v>
+        <v>0.396868</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5462399999999999</v>
+        <v>0.544867</v>
       </c>
       <c r="E6" t="n">
-        <v>0.187804</v>
+        <v>0.186968</v>
       </c>
       <c r="F6" t="n">
-        <v>0.363964</v>
+        <v>0.365506</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.237087</v>
+        <v>0.227335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.395535</v>
+        <v>0.394373</v>
       </c>
       <c r="D7" t="n">
-        <v>0.706804</v>
+        <v>0.704688</v>
       </c>
       <c r="E7" t="n">
-        <v>0.18518</v>
+        <v>0.184864</v>
       </c>
       <c r="F7" t="n">
-        <v>0.362489</v>
+        <v>0.36244</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.235408</v>
+        <v>0.229151</v>
       </c>
       <c r="C8" t="n">
-        <v>0.391962</v>
+        <v>0.391026</v>
       </c>
       <c r="D8" t="n">
-        <v>0.690082</v>
+        <v>0.688585</v>
       </c>
       <c r="E8" t="n">
-        <v>0.187386</v>
+        <v>0.186528</v>
       </c>
       <c r="F8" t="n">
-        <v>0.362124</v>
+        <v>0.36285</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.225797</v>
+        <v>0.227636</v>
       </c>
       <c r="C9" t="n">
-        <v>0.391218</v>
+        <v>0.390281</v>
       </c>
       <c r="D9" t="n">
-        <v>0.675727</v>
+        <v>0.673526</v>
       </c>
       <c r="E9" t="n">
-        <v>0.278103</v>
+        <v>0.278739</v>
       </c>
       <c r="F9" t="n">
-        <v>0.451215</v>
+        <v>0.451315</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.312839</v>
+        <v>0.313281</v>
       </c>
       <c r="C10" t="n">
-        <v>0.479734</v>
+        <v>0.480326</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6625529999999999</v>
+        <v>0.660241</v>
       </c>
       <c r="E10" t="n">
-        <v>0.268023</v>
+        <v>0.267997</v>
       </c>
       <c r="F10" t="n">
-        <v>0.439727</v>
+        <v>0.440943</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.302477</v>
+        <v>0.306004</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4693</v>
+        <v>0.469845</v>
       </c>
       <c r="D11" t="n">
-        <v>0.649176</v>
+        <v>0.647199</v>
       </c>
       <c r="E11" t="n">
-        <v>0.260395</v>
+        <v>0.258773</v>
       </c>
       <c r="F11" t="n">
-        <v>0.430791</v>
+        <v>0.43158</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.293649</v>
+        <v>0.295836</v>
       </c>
       <c r="C12" t="n">
-        <v>0.459682</v>
+        <v>0.460342</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6361250000000001</v>
+        <v>0.636413</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2503</v>
+        <v>0.25094</v>
       </c>
       <c r="F12" t="n">
-        <v>0.42138</v>
+        <v>0.422136</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.283729</v>
+        <v>0.287545</v>
       </c>
       <c r="C13" t="n">
-        <v>0.449758</v>
+        <v>0.450055</v>
       </c>
       <c r="D13" t="n">
-        <v>0.625346</v>
+        <v>0.6252</v>
       </c>
       <c r="E13" t="n">
-        <v>0.24299</v>
+        <v>0.243985</v>
       </c>
       <c r="F13" t="n">
-        <v>0.413102</v>
+        <v>0.413478</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281113</v>
+        <v>0.278291</v>
       </c>
       <c r="C14" t="n">
-        <v>0.440944</v>
+        <v>0.442144</v>
       </c>
       <c r="D14" t="n">
-        <v>0.615212</v>
+        <v>0.615889</v>
       </c>
       <c r="E14" t="n">
-        <v>0.236484</v>
+        <v>0.236508</v>
       </c>
       <c r="F14" t="n">
-        <v>0.404676</v>
+        <v>0.40502</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.270755</v>
+        <v>0.274471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.433308</v>
+        <v>0.433409</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6066319999999999</v>
+        <v>0.606997</v>
       </c>
       <c r="E15" t="n">
-        <v>0.230292</v>
+        <v>0.229163</v>
       </c>
       <c r="F15" t="n">
-        <v>0.396627</v>
+        <v>0.397315</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.267256</v>
+        <v>0.265819</v>
       </c>
       <c r="C16" t="n">
-        <v>0.426078</v>
+        <v>0.426807</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6016550000000001</v>
+        <v>0.5999719999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.222866</v>
+        <v>0.223167</v>
       </c>
       <c r="F16" t="n">
-        <v>0.390126</v>
+        <v>0.390303</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.257557</v>
+        <v>0.261273</v>
       </c>
       <c r="C17" t="n">
-        <v>0.420385</v>
+        <v>0.420374</v>
       </c>
       <c r="D17" t="n">
-        <v>0.594199</v>
+        <v>0.600046</v>
       </c>
       <c r="E17" t="n">
-        <v>0.217776</v>
+        <v>0.218083</v>
       </c>
       <c r="F17" t="n">
-        <v>0.382693</v>
+        <v>0.384212</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.255612</v>
+        <v>0.253323</v>
       </c>
       <c r="C18" t="n">
-        <v>0.415124</v>
+        <v>0.415248</v>
       </c>
       <c r="D18" t="n">
-        <v>0.587793</v>
+        <v>0.588251</v>
       </c>
       <c r="E18" t="n">
-        <v>0.213484</v>
+        <v>0.21224</v>
       </c>
       <c r="F18" t="n">
-        <v>0.37728</v>
+        <v>0.377389</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248335</v>
+        <v>0.24639</v>
       </c>
       <c r="C19" t="n">
-        <v>0.409766</v>
+        <v>0.409624</v>
       </c>
       <c r="D19" t="n">
-        <v>0.578143</v>
+        <v>0.581882</v>
       </c>
       <c r="E19" t="n">
-        <v>0.208098</v>
+        <v>0.208237</v>
       </c>
       <c r="F19" t="n">
-        <v>0.372787</v>
+        <v>0.373397</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244888</v>
+        <v>0.245257</v>
       </c>
       <c r="C20" t="n">
-        <v>0.404123</v>
+        <v>0.404425</v>
       </c>
       <c r="D20" t="n">
-        <v>0.572607</v>
+        <v>0.58069</v>
       </c>
       <c r="E20" t="n">
-        <v>0.205246</v>
+        <v>0.205285</v>
       </c>
       <c r="F20" t="n">
-        <v>0.368194</v>
+        <v>0.369137</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.245318</v>
+        <v>0.2403</v>
       </c>
       <c r="C21" t="n">
-        <v>0.399482</v>
+        <v>0.39829</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7599939999999999</v>
+        <v>0.765356</v>
       </c>
       <c r="E21" t="n">
-        <v>0.203711</v>
+        <v>0.204459</v>
       </c>
       <c r="F21" t="n">
-        <v>0.366318</v>
+        <v>0.366657</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238853</v>
+        <v>0.24043</v>
       </c>
       <c r="C22" t="n">
-        <v>0.397922</v>
+        <v>0.398625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.745996</v>
+        <v>0.743236</v>
       </c>
       <c r="E22" t="n">
-        <v>0.204784</v>
+        <v>0.206776</v>
       </c>
       <c r="F22" t="n">
-        <v>0.366269</v>
+        <v>0.367544</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237345</v>
+        <v>0.240702</v>
       </c>
       <c r="C23" t="n">
-        <v>0.398632</v>
+        <v>0.397789</v>
       </c>
       <c r="D23" t="n">
-        <v>0.727838</v>
+        <v>0.7277400000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.297827</v>
+        <v>0.29722</v>
       </c>
       <c r="F23" t="n">
-        <v>0.462016</v>
+        <v>0.46195</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.320274</v>
+        <v>0.318804</v>
       </c>
       <c r="C24" t="n">
-        <v>0.525682</v>
+        <v>0.493625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.71274</v>
+        <v>0.712071</v>
       </c>
       <c r="E24" t="n">
-        <v>0.286818</v>
+        <v>0.286763</v>
       </c>
       <c r="F24" t="n">
-        <v>0.45144</v>
+        <v>0.451437</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314279</v>
+        <v>0.311973</v>
       </c>
       <c r="C25" t="n">
-        <v>0.519323</v>
+        <v>0.483555</v>
       </c>
       <c r="D25" t="n">
-        <v>0.700302</v>
+        <v>0.700128</v>
       </c>
       <c r="E25" t="n">
-        <v>0.277174</v>
+        <v>0.276613</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441543</v>
+        <v>0.441656</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.303274</v>
+        <v>0.306163</v>
       </c>
       <c r="C26" t="n">
-        <v>0.500916</v>
+        <v>0.473934</v>
       </c>
       <c r="D26" t="n">
-        <v>0.689384</v>
+        <v>0.686154</v>
       </c>
       <c r="E26" t="n">
-        <v>0.268024</v>
+        <v>0.268309</v>
       </c>
       <c r="F26" t="n">
-        <v>0.432646</v>
+        <v>0.432392</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.297442</v>
+        <v>0.295325</v>
       </c>
       <c r="C27" t="n">
-        <v>0.500232</v>
+        <v>0.465254</v>
       </c>
       <c r="D27" t="n">
-        <v>0.675619</v>
+        <v>0.676879</v>
       </c>
       <c r="E27" t="n">
-        <v>0.259698</v>
+        <v>0.260351</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423351</v>
+        <v>0.423261</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286809</v>
+        <v>0.286569</v>
       </c>
       <c r="C28" t="n">
-        <v>0.487997</v>
+        <v>0.457259</v>
       </c>
       <c r="D28" t="n">
-        <v>0.663265</v>
+        <v>0.6633559999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.252455</v>
+        <v>0.252835</v>
       </c>
       <c r="F28" t="n">
-        <v>0.414949</v>
+        <v>0.415238</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28446</v>
+        <v>0.281552</v>
       </c>
       <c r="C29" t="n">
-        <v>0.475028</v>
+        <v>0.450893</v>
       </c>
       <c r="D29" t="n">
-        <v>0.654351</v>
+        <v>0.654316</v>
       </c>
       <c r="E29" t="n">
-        <v>0.246855</v>
+        <v>0.246235</v>
       </c>
       <c r="F29" t="n">
-        <v>0.406892</v>
+        <v>0.407941</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.276313</v>
+        <v>0.272065</v>
       </c>
       <c r="C30" t="n">
-        <v>0.468371</v>
+        <v>0.444277</v>
       </c>
       <c r="D30" t="n">
-        <v>0.645733</v>
+        <v>0.645385</v>
       </c>
       <c r="E30" t="n">
-        <v>0.238386</v>
+        <v>0.23814</v>
       </c>
       <c r="F30" t="n">
-        <v>0.39935</v>
+        <v>0.400046</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.266835</v>
+        <v>0.265355</v>
       </c>
       <c r="C31" t="n">
-        <v>0.448608</v>
+        <v>0.433061</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6367620000000001</v>
+        <v>0.636629</v>
       </c>
       <c r="E31" t="n">
-        <v>0.232301</v>
+        <v>0.232437</v>
       </c>
       <c r="F31" t="n">
-        <v>0.392355</v>
+        <v>0.393631</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260048</v>
+        <v>0.25833</v>
       </c>
       <c r="C32" t="n">
-        <v>0.432101</v>
+        <v>0.427401</v>
       </c>
       <c r="D32" t="n">
-        <v>0.631153</v>
+        <v>0.631448</v>
       </c>
       <c r="E32" t="n">
-        <v>0.227328</v>
+        <v>0.226169</v>
       </c>
       <c r="F32" t="n">
-        <v>0.386098</v>
+        <v>0.387616</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256252</v>
+        <v>0.255565</v>
       </c>
       <c r="C33" t="n">
-        <v>0.429574</v>
+        <v>0.421664</v>
       </c>
       <c r="D33" t="n">
-        <v>0.624914</v>
+        <v>0.625701</v>
       </c>
       <c r="E33" t="n">
-        <v>0.222278</v>
+        <v>0.221976</v>
       </c>
       <c r="F33" t="n">
-        <v>0.380501</v>
+        <v>0.382606</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.254576</v>
+        <v>0.255019</v>
       </c>
       <c r="C34" t="n">
-        <v>0.42601</v>
+        <v>0.416188</v>
       </c>
       <c r="D34" t="n">
-        <v>0.618469</v>
+        <v>0.620566</v>
       </c>
       <c r="E34" t="n">
-        <v>0.217448</v>
+        <v>0.218303</v>
       </c>
       <c r="F34" t="n">
-        <v>0.376324</v>
+        <v>0.378697</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.246823</v>
+        <v>0.247303</v>
       </c>
       <c r="C35" t="n">
-        <v>0.41658</v>
+        <v>0.412935</v>
       </c>
       <c r="D35" t="n">
-        <v>0.81763</v>
+        <v>0.820236</v>
       </c>
       <c r="E35" t="n">
-        <v>0.215982</v>
+        <v>0.215457</v>
       </c>
       <c r="F35" t="n">
-        <v>0.373286</v>
+        <v>0.375826</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243156</v>
+        <v>0.242139</v>
       </c>
       <c r="C36" t="n">
-        <v>0.409572</v>
+        <v>0.409705</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7996799999999999</v>
+        <v>0.802508</v>
       </c>
       <c r="E36" t="n">
-        <v>0.215254</v>
+        <v>0.214123</v>
       </c>
       <c r="F36" t="n">
-        <v>0.37262</v>
+        <v>0.373974</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.242242</v>
+        <v>0.243586</v>
       </c>
       <c r="C37" t="n">
-        <v>0.410049</v>
+        <v>0.408585</v>
       </c>
       <c r="D37" t="n">
-        <v>0.782075</v>
+        <v>0.784721</v>
       </c>
       <c r="E37" t="n">
-        <v>0.309483</v>
+        <v>0.310098</v>
       </c>
       <c r="F37" t="n">
-        <v>0.470609</v>
+        <v>0.471398</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.32778</v>
+        <v>0.326671</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5236229999999999</v>
+        <v>0.504692</v>
       </c>
       <c r="D38" t="n">
-        <v>0.766465</v>
+        <v>0.766891</v>
       </c>
       <c r="E38" t="n">
-        <v>0.298639</v>
+        <v>0.29747</v>
       </c>
       <c r="F38" t="n">
-        <v>0.46062</v>
+        <v>0.461051</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.317867</v>
+        <v>0.316966</v>
       </c>
       <c r="C39" t="n">
-        <v>0.503437</v>
+        <v>0.501927</v>
       </c>
       <c r="D39" t="n">
-        <v>0.750135</v>
+        <v>0.751412</v>
       </c>
       <c r="E39" t="n">
-        <v>0.288536</v>
+        <v>0.288831</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451091</v>
+        <v>0.451859</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.311425</v>
+        <v>0.308419</v>
       </c>
       <c r="C40" t="n">
-        <v>0.493061</v>
+        <v>0.490843</v>
       </c>
       <c r="D40" t="n">
-        <v>0.736496</v>
+        <v>0.736252</v>
       </c>
       <c r="E40" t="n">
-        <v>0.279793</v>
+        <v>0.278882</v>
       </c>
       <c r="F40" t="n">
-        <v>0.443257</v>
+        <v>0.44388</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304804</v>
+        <v>0.306351</v>
       </c>
       <c r="C41" t="n">
-        <v>0.484785</v>
+        <v>0.481435</v>
       </c>
       <c r="D41" t="n">
-        <v>0.723118</v>
+        <v>0.725212</v>
       </c>
       <c r="E41" t="n">
-        <v>0.272001</v>
+        <v>0.270769</v>
       </c>
       <c r="F41" t="n">
-        <v>0.435076</v>
+        <v>0.435199</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.293139</v>
+        <v>0.293471</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4742</v>
+        <v>0.471971</v>
       </c>
       <c r="D42" t="n">
-        <v>0.713802</v>
+        <v>0.714192</v>
       </c>
       <c r="E42" t="n">
-        <v>0.263505</v>
+        <v>0.263597</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427037</v>
+        <v>0.427733</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.290856</v>
+        <v>0.287593</v>
       </c>
       <c r="C43" t="n">
-        <v>0.465166</v>
+        <v>0.463575</v>
       </c>
       <c r="D43" t="n">
-        <v>0.701267</v>
+        <v>0.699098</v>
       </c>
       <c r="E43" t="n">
-        <v>0.256602</v>
+        <v>0.256634</v>
       </c>
       <c r="F43" t="n">
-        <v>0.419986</v>
+        <v>0.420601</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288798</v>
+        <v>0.282738</v>
       </c>
       <c r="C44" t="n">
-        <v>0.456897</v>
+        <v>0.456335</v>
       </c>
       <c r="D44" t="n">
-        <v>0.689618</v>
+        <v>0.695547</v>
       </c>
       <c r="E44" t="n">
-        <v>0.249741</v>
+        <v>0.249572</v>
       </c>
       <c r="F44" t="n">
-        <v>0.412506</v>
+        <v>0.413286</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.281075</v>
+        <v>0.286436</v>
       </c>
       <c r="C45" t="n">
-        <v>0.449184</v>
+        <v>0.449582</v>
       </c>
       <c r="D45" t="n">
-        <v>0.681739</v>
+        <v>0.684326</v>
       </c>
       <c r="E45" t="n">
-        <v>0.242814</v>
+        <v>0.245478</v>
       </c>
       <c r="F45" t="n">
-        <v>0.405598</v>
+        <v>0.406727</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.279492</v>
+        <v>0.269374</v>
       </c>
       <c r="C46" t="n">
-        <v>0.444369</v>
+        <v>0.443804</v>
       </c>
       <c r="D46" t="n">
-        <v>0.674342</v>
+        <v>0.675152</v>
       </c>
       <c r="E46" t="n">
-        <v>0.238889</v>
+        <v>0.239323</v>
       </c>
       <c r="F46" t="n">
-        <v>0.399305</v>
+        <v>0.400294</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.26305</v>
+        <v>0.267197</v>
       </c>
       <c r="C47" t="n">
-        <v>0.437514</v>
+        <v>0.436609</v>
       </c>
       <c r="D47" t="n">
-        <v>0.66744</v>
+        <v>0.670337</v>
       </c>
       <c r="E47" t="n">
-        <v>0.231804</v>
+        <v>0.232424</v>
       </c>
       <c r="F47" t="n">
-        <v>0.393937</v>
+        <v>0.394923</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.258651</v>
+        <v>0.265997</v>
       </c>
       <c r="C48" t="n">
-        <v>0.434397</v>
+        <v>0.431844</v>
       </c>
       <c r="D48" t="n">
-        <v>0.660968</v>
+        <v>0.663015</v>
       </c>
       <c r="E48" t="n">
-        <v>0.228162</v>
+        <v>0.229004</v>
       </c>
       <c r="F48" t="n">
-        <v>0.389439</v>
+        <v>0.390664</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.263222</v>
+        <v>0.259153</v>
       </c>
       <c r="C49" t="n">
-        <v>0.428752</v>
+        <v>0.427997</v>
       </c>
       <c r="D49" t="n">
-        <v>0.655601</v>
+        <v>0.657609</v>
       </c>
       <c r="E49" t="n">
-        <v>0.225968</v>
+        <v>0.224855</v>
       </c>
       <c r="F49" t="n">
-        <v>0.386316</v>
+        <v>0.387745</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.255823</v>
+        <v>0.25555</v>
       </c>
       <c r="C50" t="n">
-        <v>0.424473</v>
+        <v>0.423456</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8458329999999999</v>
+        <v>0.846917</v>
       </c>
       <c r="E50" t="n">
-        <v>0.225832</v>
+        <v>0.223234</v>
       </c>
       <c r="F50" t="n">
-        <v>0.384851</v>
+        <v>0.386351</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.253559</v>
+        <v>0.252562</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422217</v>
+        <v>0.422641</v>
       </c>
       <c r="D51" t="n">
-        <v>0.826684</v>
+        <v>0.826066</v>
       </c>
       <c r="E51" t="n">
-        <v>0.324403</v>
+        <v>0.323822</v>
       </c>
       <c r="F51" t="n">
-        <v>0.491052</v>
+        <v>0.489191</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.257795</v>
+        <v>0.258726</v>
       </c>
       <c r="C52" t="n">
-        <v>0.422723</v>
+        <v>0.422255</v>
       </c>
       <c r="D52" t="n">
-        <v>0.80942</v>
+        <v>0.808183</v>
       </c>
       <c r="E52" t="n">
-        <v>0.315559</v>
+        <v>0.314592</v>
       </c>
       <c r="F52" t="n">
-        <v>0.481855</v>
+        <v>0.479863</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.337603</v>
+        <v>0.343863</v>
       </c>
       <c r="C53" t="n">
-        <v>0.524231</v>
+        <v>0.514438</v>
       </c>
       <c r="D53" t="n">
-        <v>0.79143</v>
+        <v>0.79176</v>
       </c>
       <c r="E53" t="n">
-        <v>0.306463</v>
+        <v>0.306151</v>
       </c>
       <c r="F53" t="n">
-        <v>0.471982</v>
+        <v>0.469682</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.324821</v>
+        <v>0.32991</v>
       </c>
       <c r="C54" t="n">
-        <v>0.51537</v>
+        <v>0.506981</v>
       </c>
       <c r="D54" t="n">
-        <v>0.775358</v>
+        <v>0.7756459999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.296505</v>
+        <v>0.295843</v>
       </c>
       <c r="F54" t="n">
-        <v>0.463373</v>
+        <v>0.460804</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.322124</v>
+        <v>0.323553</v>
       </c>
       <c r="C55" t="n">
-        <v>0.506113</v>
+        <v>0.498065</v>
       </c>
       <c r="D55" t="n">
-        <v>0.762192</v>
+        <v>0.762374</v>
       </c>
       <c r="E55" t="n">
-        <v>0.288227</v>
+        <v>0.287751</v>
       </c>
       <c r="F55" t="n">
-        <v>0.455469</v>
+        <v>0.45294</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.310222</v>
+        <v>0.312425</v>
       </c>
       <c r="C56" t="n">
-        <v>0.498085</v>
+        <v>0.490619</v>
       </c>
       <c r="D56" t="n">
-        <v>0.749456</v>
+        <v>0.74975</v>
       </c>
       <c r="E56" t="n">
-        <v>0.281198</v>
+        <v>0.280964</v>
       </c>
       <c r="F56" t="n">
-        <v>0.44762</v>
+        <v>0.445644</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.309254</v>
+        <v>0.30439</v>
       </c>
       <c r="C57" t="n">
-        <v>0.490388</v>
+        <v>0.482664</v>
       </c>
       <c r="D57" t="n">
-        <v>0.737286</v>
+        <v>0.738722</v>
       </c>
       <c r="E57" t="n">
-        <v>0.272613</v>
+        <v>0.272579</v>
       </c>
       <c r="F57" t="n">
-        <v>0.440445</v>
+        <v>0.437775</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.299161</v>
+        <v>0.294763</v>
       </c>
       <c r="C58" t="n">
-        <v>0.483437</v>
+        <v>0.476205</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7270450000000001</v>
+        <v>0.727936</v>
       </c>
       <c r="E58" t="n">
-        <v>0.266143</v>
+        <v>0.265987</v>
       </c>
       <c r="F58" t="n">
-        <v>0.43317</v>
+        <v>0.430634</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295063</v>
+        <v>0.286978</v>
       </c>
       <c r="C59" t="n">
-        <v>0.473537</v>
+        <v>0.471558</v>
       </c>
       <c r="D59" t="n">
-        <v>0.717129</v>
+        <v>0.717632</v>
       </c>
       <c r="E59" t="n">
-        <v>0.259468</v>
+        <v>0.259618</v>
       </c>
       <c r="F59" t="n">
-        <v>0.426544</v>
+        <v>0.424255</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.287898</v>
+        <v>0.286474</v>
       </c>
       <c r="C60" t="n">
-        <v>0.467176</v>
+        <v>0.472503</v>
       </c>
       <c r="D60" t="n">
-        <v>0.708888</v>
+        <v>0.709338</v>
       </c>
       <c r="E60" t="n">
-        <v>0.253906</v>
+        <v>0.253753</v>
       </c>
       <c r="F60" t="n">
-        <v>0.419577</v>
+        <v>0.41853</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277693</v>
+        <v>0.277483</v>
       </c>
       <c r="C61" t="n">
-        <v>0.461515</v>
+        <v>0.466223</v>
       </c>
       <c r="D61" t="n">
-        <v>0.70183</v>
+        <v>0.701563</v>
       </c>
       <c r="E61" t="n">
-        <v>0.248745</v>
+        <v>0.248012</v>
       </c>
       <c r="F61" t="n">
-        <v>0.414488</v>
+        <v>0.413303</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.278379</v>
+        <v>0.277424</v>
       </c>
       <c r="C62" t="n">
-        <v>0.455954</v>
+        <v>0.460697</v>
       </c>
       <c r="D62" t="n">
-        <v>0.694065</v>
+        <v>0.693974</v>
       </c>
       <c r="E62" t="n">
-        <v>0.24471</v>
+        <v>0.244052</v>
       </c>
       <c r="F62" t="n">
-        <v>0.409481</v>
+        <v>0.409962</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.273966</v>
+        <v>0.273363</v>
       </c>
       <c r="C63" t="n">
-        <v>0.452301</v>
+        <v>0.454762</v>
       </c>
       <c r="D63" t="n">
-        <v>0.688246</v>
+        <v>0.688271</v>
       </c>
       <c r="E63" t="n">
-        <v>0.241654</v>
+        <v>0.240705</v>
       </c>
       <c r="F63" t="n">
-        <v>0.406696</v>
+        <v>0.408721</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.268898</v>
+        <v>0.267624</v>
       </c>
       <c r="C64" t="n">
-        <v>0.449368</v>
+        <v>0.454053</v>
       </c>
       <c r="D64" t="n">
-        <v>0.910165</v>
+        <v>0.908004</v>
       </c>
       <c r="E64" t="n">
-        <v>0.239634</v>
+        <v>0.238113</v>
       </c>
       <c r="F64" t="n">
-        <v>0.404869</v>
+        <v>0.407473</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26638</v>
+        <v>0.268076</v>
       </c>
       <c r="C65" t="n">
-        <v>0.446908</v>
+        <v>0.451372</v>
       </c>
       <c r="D65" t="n">
-        <v>0.888592</v>
+        <v>0.88598</v>
       </c>
       <c r="E65" t="n">
-        <v>0.239264</v>
+        <v>0.239142</v>
       </c>
       <c r="F65" t="n">
-        <v>0.405893</v>
+        <v>0.407975</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.266276</v>
+        <v>0.26503</v>
       </c>
       <c r="C66" t="n">
-        <v>0.447428</v>
+        <v>0.449239</v>
       </c>
       <c r="D66" t="n">
-        <v>0.869113</v>
+        <v>0.866696</v>
       </c>
       <c r="E66" t="n">
-        <v>0.336479</v>
+        <v>0.337432</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5197850000000001</v>
+        <v>0.521656</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.387447</v>
+        <v>0.390056</v>
       </c>
       <c r="C67" t="n">
-        <v>0.598543</v>
+        <v>0.597133</v>
       </c>
       <c r="D67" t="n">
-        <v>0.851206</v>
+        <v>0.849056</v>
       </c>
       <c r="E67" t="n">
-        <v>0.33342</v>
+        <v>0.33352</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5137699999999999</v>
+        <v>0.51483</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.411474</v>
+        <v>0.401091</v>
       </c>
       <c r="C68" t="n">
-        <v>0.586979</v>
+        <v>0.59055</v>
       </c>
       <c r="D68" t="n">
-        <v>0.834609</v>
+        <v>0.832267</v>
       </c>
       <c r="E68" t="n">
-        <v>0.325019</v>
+        <v>0.323206</v>
       </c>
       <c r="F68" t="n">
-        <v>0.506964</v>
+        <v>0.508443</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.390253</v>
+        <v>0.397456</v>
       </c>
       <c r="C69" t="n">
-        <v>0.58146</v>
+        <v>0.58411</v>
       </c>
       <c r="D69" t="n">
-        <v>0.820588</v>
+        <v>0.819371</v>
       </c>
       <c r="E69" t="n">
-        <v>0.311565</v>
+        <v>0.312486</v>
       </c>
       <c r="F69" t="n">
-        <v>0.500221</v>
+        <v>0.500814</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.368929</v>
+        <v>0.378593</v>
       </c>
       <c r="C70" t="n">
-        <v>0.574609</v>
+        <v>0.576753</v>
       </c>
       <c r="D70" t="n">
-        <v>0.80857</v>
+        <v>0.807766</v>
       </c>
       <c r="E70" t="n">
-        <v>0.308283</v>
+        <v>0.308824</v>
       </c>
       <c r="F70" t="n">
-        <v>0.492536</v>
+        <v>0.493434</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.362937</v>
+        <v>0.388533</v>
       </c>
       <c r="C71" t="n">
-        <v>0.566923</v>
+        <v>0.569257</v>
       </c>
       <c r="D71" t="n">
-        <v>0.798272</v>
+        <v>0.796783</v>
       </c>
       <c r="E71" t="n">
-        <v>0.300066</v>
+        <v>0.296451</v>
       </c>
       <c r="F71" t="n">
-        <v>0.485498</v>
+        <v>0.486266</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.365097</v>
+        <v>0.381349</v>
       </c>
       <c r="C72" t="n">
-        <v>0.558913</v>
+        <v>0.564542</v>
       </c>
       <c r="D72" t="n">
-        <v>0.789665</v>
+        <v>0.788115</v>
       </c>
       <c r="E72" t="n">
-        <v>0.289907</v>
+        <v>0.292723</v>
       </c>
       <c r="F72" t="n">
-        <v>0.478577</v>
+        <v>0.480239</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.369696</v>
+        <v>0.364077</v>
       </c>
       <c r="C73" t="n">
-        <v>0.554563</v>
+        <v>0.556758</v>
       </c>
       <c r="D73" t="n">
-        <v>0.782262</v>
+        <v>0.781529</v>
       </c>
       <c r="E73" t="n">
-        <v>0.284289</v>
+        <v>0.28429</v>
       </c>
       <c r="F73" t="n">
-        <v>0.47405</v>
+        <v>0.474782</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.34976</v>
+        <v>0.357388</v>
       </c>
       <c r="C74" t="n">
-        <v>0.549625</v>
+        <v>0.552841</v>
       </c>
       <c r="D74" t="n">
-        <v>0.776926</v>
+        <v>0.775412</v>
       </c>
       <c r="E74" t="n">
-        <v>0.281156</v>
+        <v>0.281443</v>
       </c>
       <c r="F74" t="n">
-        <v>0.468958</v>
+        <v>0.468942</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.351388</v>
+        <v>0.347431</v>
       </c>
       <c r="C75" t="n">
-        <v>0.544782</v>
+        <v>0.547509</v>
       </c>
       <c r="D75" t="n">
-        <v>0.772342</v>
+        <v>0.771776</v>
       </c>
       <c r="E75" t="n">
-        <v>0.274962</v>
+        <v>0.270852</v>
       </c>
       <c r="F75" t="n">
-        <v>0.464019</v>
+        <v>0.464607</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.342029</v>
+        <v>0.349592</v>
       </c>
       <c r="C76" t="n">
-        <v>0.540065</v>
+        <v>0.541562</v>
       </c>
       <c r="D76" t="n">
-        <v>0.769766</v>
+        <v>0.768756</v>
       </c>
       <c r="E76" t="n">
-        <v>0.271857</v>
+        <v>0.271572</v>
       </c>
       <c r="F76" t="n">
-        <v>0.461004</v>
+        <v>0.460649</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.34357</v>
+        <v>0.350473</v>
       </c>
       <c r="C77" t="n">
-        <v>0.538115</v>
+        <v>0.539079</v>
       </c>
       <c r="D77" t="n">
-        <v>0.769438</v>
+        <v>0.768747</v>
       </c>
       <c r="E77" t="n">
-        <v>0.264084</v>
+        <v>0.266433</v>
       </c>
       <c r="F77" t="n">
-        <v>0.458441</v>
+        <v>0.458613</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.324954</v>
+        <v>0.321837</v>
       </c>
       <c r="C78" t="n">
-        <v>0.534259</v>
+        <v>0.534635</v>
       </c>
       <c r="D78" t="n">
-        <v>1.23078</v>
+        <v>1.23135</v>
       </c>
       <c r="E78" t="n">
-        <v>0.263709</v>
+        <v>0.263547</v>
       </c>
       <c r="F78" t="n">
-        <v>0.45727</v>
+        <v>0.457538</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.33776</v>
+        <v>0.336811</v>
       </c>
       <c r="C79" t="n">
-        <v>0.53504</v>
+        <v>0.534234</v>
       </c>
       <c r="D79" t="n">
-        <v>1.20911</v>
+        <v>1.20899</v>
       </c>
       <c r="E79" t="n">
-        <v>0.261514</v>
+        <v>0.263892</v>
       </c>
       <c r="F79" t="n">
-        <v>0.457775</v>
+        <v>0.458201</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.33068</v>
+        <v>0.32892</v>
       </c>
       <c r="C80" t="n">
-        <v>0.534639</v>
+        <v>0.534214</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18984</v>
+        <v>1.18847</v>
       </c>
       <c r="E80" t="n">
-        <v>0.379906</v>
+        <v>0.386304</v>
       </c>
       <c r="F80" t="n">
-        <v>0.743517</v>
+        <v>0.747196</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.432922</v>
+        <v>0.466303</v>
       </c>
       <c r="C81" t="n">
-        <v>0.853778</v>
+        <v>0.853917</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1712</v>
+        <v>1.1716</v>
       </c>
       <c r="E81" t="n">
-        <v>0.377468</v>
+        <v>0.379954</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7458979999999999</v>
+        <v>0.746968</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.473982</v>
+        <v>0.476162</v>
       </c>
       <c r="C82" t="n">
-        <v>0.855321</v>
+        <v>0.863462</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15704</v>
+        <v>1.16027</v>
       </c>
       <c r="E82" t="n">
-        <v>0.36636</v>
+        <v>0.366075</v>
       </c>
       <c r="F82" t="n">
-        <v>0.742083</v>
+        <v>0.745985</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.451308</v>
+        <v>0.443191</v>
       </c>
       <c r="C83" t="n">
-        <v>0.854335</v>
+        <v>0.862504</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14512</v>
+        <v>1.14844</v>
       </c>
       <c r="E83" t="n">
-        <v>0.361858</v>
+        <v>0.361799</v>
       </c>
       <c r="F83" t="n">
-        <v>0.735246</v>
+        <v>0.736552</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.458097</v>
+        <v>0.422682</v>
       </c>
       <c r="C84" t="n">
-        <v>0.854681</v>
+        <v>0.857105</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13434</v>
+        <v>1.13983</v>
       </c>
       <c r="E84" t="n">
-        <v>0.351026</v>
+        <v>0.351091</v>
       </c>
       <c r="F84" t="n">
-        <v>0.723988</v>
+        <v>0.7243000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.451588</v>
+        <v>0.41567</v>
       </c>
       <c r="C85" t="n">
-        <v>0.846427</v>
+        <v>0.834432</v>
       </c>
       <c r="D85" t="n">
-        <v>1.12883</v>
+        <v>1.1293</v>
       </c>
       <c r="E85" t="n">
-        <v>0.34342</v>
+        <v>0.348428</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7123080000000001</v>
+        <v>0.712318</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.421238</v>
+        <v>0.414498</v>
       </c>
       <c r="C86" t="n">
-        <v>0.829815</v>
+        <v>0.827108</v>
       </c>
       <c r="D86" t="n">
-        <v>1.12513</v>
+        <v>1.1266</v>
       </c>
       <c r="E86" t="n">
-        <v>0.336199</v>
+        <v>0.335488</v>
       </c>
       <c r="F86" t="n">
-        <v>0.699256</v>
+        <v>0.6993819999999999</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.434039</v>
+        <v>0.414032</v>
       </c>
       <c r="C87" t="n">
-        <v>0.820581</v>
+        <v>0.818731</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1255</v>
+        <v>1.12957</v>
       </c>
       <c r="E87" t="n">
-        <v>0.332714</v>
+        <v>0.329573</v>
       </c>
       <c r="F87" t="n">
-        <v>0.685322</v>
+        <v>0.686607</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.41199</v>
+        <v>0.427718</v>
       </c>
       <c r="C88" t="n">
-        <v>0.807606</v>
+        <v>0.805476</v>
       </c>
       <c r="D88" t="n">
-        <v>1.12609</v>
+        <v>1.13283</v>
       </c>
       <c r="E88" t="n">
-        <v>0.322399</v>
+        <v>0.325814</v>
       </c>
       <c r="F88" t="n">
-        <v>0.672542</v>
+        <v>0.671999</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.407939</v>
+        <v>0.401001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.789728</v>
+        <v>0.800428</v>
       </c>
       <c r="D89" t="n">
-        <v>1.13522</v>
+        <v>1.13534</v>
       </c>
       <c r="E89" t="n">
-        <v>0.313848</v>
+        <v>0.322119</v>
       </c>
       <c r="F89" t="n">
-        <v>0.66003</v>
+        <v>0.66312</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.394564</v>
+        <v>0.388029</v>
       </c>
       <c r="C90" t="n">
-        <v>0.780341</v>
+        <v>0.79248</v>
       </c>
       <c r="D90" t="n">
-        <v>1.1449</v>
+        <v>1.14489</v>
       </c>
       <c r="E90" t="n">
-        <v>0.311348</v>
+        <v>0.30986</v>
       </c>
       <c r="F90" t="n">
-        <v>0.652093</v>
+        <v>0.65151</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.390828</v>
+        <v>0.382614</v>
       </c>
       <c r="C91" t="n">
-        <v>0.772415</v>
+        <v>0.770768</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15754</v>
+        <v>1.15642</v>
       </c>
       <c r="E91" t="n">
-        <v>0.304138</v>
+        <v>0.308629</v>
       </c>
       <c r="F91" t="n">
-        <v>0.642011</v>
+        <v>0.641464</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.385897</v>
+        <v>0.39099</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7633</v>
+        <v>0.760887</v>
       </c>
       <c r="D92" t="n">
-        <v>1.71902</v>
+        <v>1.71929</v>
       </c>
       <c r="E92" t="n">
-        <v>0.306809</v>
+        <v>0.307408</v>
       </c>
       <c r="F92" t="n">
-        <v>0.636121</v>
+        <v>0.63559</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.385601</v>
+        <v>0.40695</v>
       </c>
       <c r="C93" t="n">
-        <v>0.756858</v>
+        <v>0.761812</v>
       </c>
       <c r="D93" t="n">
-        <v>1.7092</v>
+        <v>1.71093</v>
       </c>
       <c r="E93" t="n">
-        <v>0.30334</v>
+        <v>0.301284</v>
       </c>
       <c r="F93" t="n">
-        <v>0.629842</v>
+        <v>0.629146</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.390084</v>
+        <v>0.396992</v>
       </c>
       <c r="C94" t="n">
-        <v>0.752281</v>
+        <v>0.756122</v>
       </c>
       <c r="D94" t="n">
-        <v>1.6961</v>
+        <v>1.69909</v>
       </c>
       <c r="E94" t="n">
-        <v>0.491128</v>
+        <v>0.492851</v>
       </c>
       <c r="F94" t="n">
-        <v>1.11473</v>
+        <v>1.11461</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.570121</v>
+        <v>0.582906</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15586</v>
+        <v>1.13874</v>
       </c>
       <c r="D95" t="n">
-        <v>1.68342</v>
+        <v>1.68281</v>
       </c>
       <c r="E95" t="n">
-        <v>0.480709</v>
+        <v>0.482246</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11422</v>
+        <v>1.11371</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.574109</v>
+        <v>0.573999</v>
       </c>
       <c r="C96" t="n">
-        <v>1.13513</v>
+        <v>1.14637</v>
       </c>
       <c r="D96" t="n">
-        <v>1.67368</v>
+        <v>1.67316</v>
       </c>
       <c r="E96" t="n">
-        <v>0.474582</v>
+        <v>0.472584</v>
       </c>
       <c r="F96" t="n">
-        <v>1.1</v>
+        <v>1.10049</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.567634</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14283</v>
+        <v>1.14586</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66676</v>
+        <v>1.66601</v>
       </c>
       <c r="E97" t="n">
-        <v>0.458929</v>
+        <v>0.460079</v>
       </c>
       <c r="F97" t="n">
-        <v>1.08286</v>
+        <v>1.08564</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.557344</v>
+        <v>0.57251</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12042</v>
+        <v>1.1271</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66235</v>
+        <v>1.66101</v>
       </c>
       <c r="E98" t="n">
-        <v>0.451219</v>
+        <v>0.452354</v>
       </c>
       <c r="F98" t="n">
-        <v>1.06527</v>
+        <v>1.06476</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.560761</v>
+        <v>0.564158</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11772</v>
+        <v>1.13111</v>
       </c>
       <c r="D99" t="n">
-        <v>1.65664</v>
+        <v>1.65757</v>
       </c>
       <c r="E99" t="n">
-        <v>0.441792</v>
+        <v>0.441649</v>
       </c>
       <c r="F99" t="n">
-        <v>1.04715</v>
+        <v>1.04903</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.545142</v>
+        <v>0.545947</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11376</v>
+        <v>1.11667</v>
       </c>
       <c r="D100" t="n">
-        <v>1.65859</v>
+        <v>1.65957</v>
       </c>
       <c r="E100" t="n">
-        <v>0.428911</v>
+        <v>0.432369</v>
       </c>
       <c r="F100" t="n">
-        <v>1.01788</v>
+        <v>1.03283</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5279740000000001</v>
+        <v>0.535659</v>
       </c>
       <c r="C101" t="n">
-        <v>1.08687</v>
+        <v>1.09447</v>
       </c>
       <c r="D101" t="n">
-        <v>1.66142</v>
+        <v>1.66322</v>
       </c>
       <c r="E101" t="n">
-        <v>0.420649</v>
+        <v>0.423391</v>
       </c>
       <c r="F101" t="n">
-        <v>0.995604</v>
+        <v>1.01588</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.520779</v>
+        <v>0.5254799999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>1.07723</v>
+        <v>1.08292</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66853</v>
+        <v>1.66864</v>
       </c>
       <c r="E102" t="n">
-        <v>0.413629</v>
+        <v>0.41475</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9978900000000001</v>
+        <v>0.999895</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.526783</v>
+        <v>0.509061</v>
       </c>
       <c r="C103" t="n">
-        <v>1.05851</v>
+        <v>1.05881</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67604</v>
+        <v>1.67696</v>
       </c>
       <c r="E103" t="n">
-        <v>0.405302</v>
+        <v>0.402538</v>
       </c>
       <c r="F103" t="n">
-        <v>0.984664</v>
+        <v>0.988318</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.49888</v>
+        <v>0.503926</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04605</v>
+        <v>1.05531</v>
       </c>
       <c r="D104" t="n">
-        <v>1.68935</v>
+        <v>1.68877</v>
       </c>
       <c r="E104" t="n">
-        <v>0.398148</v>
+        <v>0.395245</v>
       </c>
       <c r="F104" t="n">
-        <v>0.97153</v>
+        <v>0.974361</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5172600000000001</v>
+        <v>0.513038</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04936</v>
+        <v>1.05399</v>
       </c>
       <c r="D105" t="n">
-        <v>1.7017</v>
+        <v>1.70353</v>
       </c>
       <c r="E105" t="n">
-        <v>0.390013</v>
+        <v>0.393326</v>
       </c>
       <c r="F105" t="n">
-        <v>0.961508</v>
+        <v>0.961514</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.505393</v>
+        <v>0.501078</v>
       </c>
       <c r="C106" t="n">
-        <v>1.04001</v>
+        <v>1.04309</v>
       </c>
       <c r="D106" t="n">
-        <v>1.72004</v>
+        <v>1.72226</v>
       </c>
       <c r="E106" t="n">
-        <v>0.384442</v>
+        <v>0.383973</v>
       </c>
       <c r="F106" t="n">
-        <v>0.94869</v>
+        <v>0.9510960000000001</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.487667</v>
+        <v>0.49382</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02203</v>
+        <v>1.03849</v>
       </c>
       <c r="D107" t="n">
-        <v>2.31052</v>
+        <v>2.30902</v>
       </c>
       <c r="E107" t="n">
-        <v>0.384802</v>
+        <v>0.381199</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9109969999999999</v>
+        <v>0.942919</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.491627</v>
+        <v>0.50268</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02747</v>
+        <v>1.03032</v>
       </c>
       <c r="D108" t="n">
-        <v>2.28226</v>
+        <v>2.28023</v>
       </c>
       <c r="E108" t="n">
-        <v>0.578419</v>
+        <v>0.531523</v>
       </c>
       <c r="F108" t="n">
-        <v>2.36265</v>
+        <v>2.35579</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.487481</v>
+        <v>0.507028</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02863</v>
+        <v>1.02468</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25568</v>
+        <v>2.25918</v>
       </c>
       <c r="E109" t="n">
-        <v>0.57115</v>
+        <v>0.572835</v>
       </c>
       <c r="F109" t="n">
-        <v>2.38452</v>
+        <v>2.38101</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.70504</v>
+        <v>0.713908</v>
       </c>
       <c r="C110" t="n">
-        <v>2.5465</v>
+        <v>2.54943</v>
       </c>
       <c r="D110" t="n">
-        <v>2.23736</v>
+        <v>2.24227</v>
       </c>
       <c r="E110" t="n">
-        <v>0.559407</v>
+        <v>0.558982</v>
       </c>
       <c r="F110" t="n">
-        <v>2.37787</v>
+        <v>2.38446</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.702083</v>
+        <v>0.684427</v>
       </c>
       <c r="C111" t="n">
-        <v>2.55976</v>
+        <v>2.54124</v>
       </c>
       <c r="D111" t="n">
-        <v>2.22924</v>
+        <v>2.22754</v>
       </c>
       <c r="E111" t="n">
-        <v>0.508274</v>
+        <v>0.509695</v>
       </c>
       <c r="F111" t="n">
-        <v>2.3792</v>
+        <v>2.37451</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.686385</v>
+        <v>0.6764829999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>2.55429</v>
+        <v>2.5572</v>
       </c>
       <c r="D112" t="n">
-        <v>2.21415</v>
+        <v>2.21218</v>
       </c>
       <c r="E112" t="n">
-        <v>0.532716</v>
+        <v>0.494506</v>
       </c>
       <c r="F112" t="n">
-        <v>2.40251</v>
+        <v>2.39205</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.677177</v>
+        <v>0.655682</v>
       </c>
       <c r="C113" t="n">
-        <v>2.56739</v>
+        <v>2.56736</v>
       </c>
       <c r="D113" t="n">
-        <v>2.21362</v>
+        <v>2.19836</v>
       </c>
       <c r="E113" t="n">
-        <v>0.524617</v>
+        <v>0.486669</v>
       </c>
       <c r="F113" t="n">
-        <v>2.39133</v>
+        <v>2.40235</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.656824</v>
+        <v>0.645228</v>
       </c>
       <c r="C114" t="n">
-        <v>2.54158</v>
+        <v>2.56101</v>
       </c>
       <c r="D114" t="n">
-        <v>2.22774</v>
+        <v>2.22834</v>
       </c>
       <c r="E114" t="n">
-        <v>0.513062</v>
+        <v>0.514876</v>
       </c>
       <c r="F114" t="n">
-        <v>2.38365</v>
+        <v>2.38571</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.641666</v>
+        <v>0.637946</v>
       </c>
       <c r="C115" t="n">
-        <v>2.5458</v>
+        <v>2.54412</v>
       </c>
       <c r="D115" t="n">
-        <v>2.22569</v>
+        <v>2.22043</v>
       </c>
       <c r="E115" t="n">
-        <v>0.503285</v>
+        <v>0.503923</v>
       </c>
       <c r="F115" t="n">
-        <v>2.38428</v>
+        <v>2.39519</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.605549</v>
+        <v>0.61774</v>
       </c>
       <c r="C116" t="n">
-        <v>2.55543</v>
+        <v>2.54574</v>
       </c>
       <c r="D116" t="n">
-        <v>2.22689</v>
+        <v>2.23232</v>
       </c>
       <c r="E116" t="n">
-        <v>0.494393</v>
+        <v>0.464047</v>
       </c>
       <c r="F116" t="n">
-        <v>2.40108</v>
+        <v>2.39492</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.615638</v>
+        <v>0.613946</v>
       </c>
       <c r="C117" t="n">
-        <v>2.55598</v>
+        <v>2.55951</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22266</v>
+        <v>2.23354</v>
       </c>
       <c r="E117" t="n">
-        <v>0.486556</v>
+        <v>0.486781</v>
       </c>
       <c r="F117" t="n">
-        <v>2.39431</v>
+        <v>2.40781</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.62236</v>
+        <v>0.59518</v>
       </c>
       <c r="C118" t="n">
-        <v>2.55591</v>
+        <v>2.55554</v>
       </c>
       <c r="D118" t="n">
-        <v>2.18681</v>
+        <v>2.19466</v>
       </c>
       <c r="E118" t="n">
-        <v>0.448445</v>
+        <v>0.446257</v>
       </c>
       <c r="F118" t="n">
-        <v>1.80199</v>
+        <v>2.21663</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6028</v>
+        <v>0.609305</v>
       </c>
       <c r="C119" t="n">
-        <v>2.56404</v>
+        <v>2.57113</v>
       </c>
       <c r="D119" t="n">
-        <v>2.19141</v>
+        <v>2.19615</v>
       </c>
       <c r="E119" t="n">
-        <v>0.440755</v>
+        <v>0.44352</v>
       </c>
       <c r="F119" t="n">
-        <v>2.22012</v>
+        <v>2.42086</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5737139999999999</v>
+        <v>0.604422</v>
       </c>
       <c r="C120" t="n">
-        <v>2.5564</v>
+        <v>2.55941</v>
       </c>
       <c r="D120" t="n">
-        <v>2.20208</v>
+        <v>2.19242</v>
       </c>
       <c r="E120" t="n">
-        <v>0.438927</v>
+        <v>0.438283</v>
       </c>
       <c r="F120" t="n">
-        <v>2.42114</v>
+        <v>2.4219</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.58729</v>
+        <v>0.568231</v>
       </c>
       <c r="C121" t="n">
-        <v>2.17711</v>
+        <v>1.757</v>
       </c>
       <c r="D121" t="n">
-        <v>2.85725</v>
+        <v>2.85784</v>
       </c>
       <c r="E121" t="n">
-        <v>0.435106</v>
+        <v>0.432739</v>
       </c>
       <c r="F121" t="n">
-        <v>2.21579</v>
+        <v>2.42103</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.559679</v>
+        <v>0.581224</v>
       </c>
       <c r="C122" t="n">
-        <v>2.57716</v>
+        <v>2.57571</v>
       </c>
       <c r="D122" t="n">
-        <v>2.81413</v>
+        <v>2.81926</v>
       </c>
       <c r="E122" t="n">
-        <v>0.431034</v>
+        <v>0.431019</v>
       </c>
       <c r="F122" t="n">
-        <v>1.59098</v>
+        <v>1.37127</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.587144</v>
+        <v>0.560461</v>
       </c>
       <c r="C123" t="n">
-        <v>2.58905</v>
+        <v>2.59728</v>
       </c>
       <c r="D123" t="n">
-        <v>2.78457</v>
+        <v>2.77907</v>
       </c>
       <c r="E123" t="n">
-        <v>0.624665</v>
+        <v>0.622819</v>
       </c>
       <c r="F123" t="n">
-        <v>2.89674</v>
+        <v>2.90228</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.781511</v>
+        <v>0.7627119999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>3.13523</v>
+        <v>3.13496</v>
       </c>
       <c r="D124" t="n">
-        <v>2.73945</v>
+        <v>2.74624</v>
       </c>
       <c r="E124" t="n">
-        <v>0.617968</v>
+        <v>0.616571</v>
       </c>
       <c r="F124" t="n">
-        <v>2.88854</v>
+        <v>2.89676</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.75914</v>
+        <v>0.770068</v>
       </c>
       <c r="C125" t="n">
-        <v>3.11952</v>
+        <v>3.12264</v>
       </c>
       <c r="D125" t="n">
-        <v>2.71788</v>
+        <v>2.7156</v>
       </c>
       <c r="E125" t="n">
-        <v>0.608358</v>
+        <v>0.609883</v>
       </c>
       <c r="F125" t="n">
-        <v>2.88982</v>
+        <v>2.89094</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.749414</v>
+        <v>0.749721</v>
       </c>
       <c r="C126" t="n">
-        <v>3.11483</v>
+        <v>3.12225</v>
       </c>
       <c r="D126" t="n">
-        <v>2.67688</v>
+        <v>2.67997</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6022960000000001</v>
+        <v>0.602931</v>
       </c>
       <c r="F126" t="n">
-        <v>2.88643</v>
+        <v>2.87677</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7403920000000001</v>
+        <v>0.731288</v>
       </c>
       <c r="C127" t="n">
-        <v>3.10077</v>
+        <v>3.10222</v>
       </c>
       <c r="D127" t="n">
-        <v>2.6662</v>
+        <v>2.66033</v>
       </c>
       <c r="E127" t="n">
-        <v>0.597072</v>
+        <v>0.597065</v>
       </c>
       <c r="F127" t="n">
-        <v>2.87187</v>
+        <v>2.87341</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7385</v>
+        <v>0.742973</v>
       </c>
       <c r="C128" t="n">
-        <v>3.09259</v>
+        <v>3.09028</v>
       </c>
       <c r="D128" t="n">
-        <v>2.64082</v>
+        <v>2.63937</v>
       </c>
       <c r="E128" t="n">
-        <v>0.591751</v>
+        <v>0.590587</v>
       </c>
       <c r="F128" t="n">
-        <v>2.87147</v>
+        <v>2.87779</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.721832</v>
+        <v>0.71851</v>
       </c>
       <c r="C129" t="n">
-        <v>3.08446</v>
+        <v>3.08467</v>
       </c>
       <c r="D129" t="n">
-        <v>2.6234</v>
+        <v>2.62253</v>
       </c>
       <c r="E129" t="n">
-        <v>0.554935</v>
+        <v>0.586291</v>
       </c>
       <c r="F129" t="n">
-        <v>2.85487</v>
+        <v>2.86093</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.711486</v>
+        <v>0.720949</v>
       </c>
       <c r="C130" t="n">
-        <v>3.07477</v>
+        <v>3.06754</v>
       </c>
       <c r="D130" t="n">
-        <v>2.6118</v>
+        <v>2.60164</v>
       </c>
       <c r="E130" t="n">
-        <v>0.579009</v>
+        <v>0.579372</v>
       </c>
       <c r="F130" t="n">
-        <v>2.85058</v>
+        <v>2.85734</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.718843</v>
+        <v>0.709198</v>
       </c>
       <c r="C131" t="n">
-        <v>3.07277</v>
+        <v>3.07736</v>
       </c>
       <c r="D131" t="n">
-        <v>2.59891</v>
+        <v>2.59483</v>
       </c>
       <c r="E131" t="n">
-        <v>0.57442</v>
+        <v>0.57514</v>
       </c>
       <c r="F131" t="n">
-        <v>2.85512</v>
+        <v>2.86525</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.71421</v>
+        <v>0.712255</v>
       </c>
       <c r="C132" t="n">
-        <v>3.05627</v>
+        <v>3.06063</v>
       </c>
       <c r="D132" t="n">
-        <v>2.59701</v>
+        <v>2.59424</v>
       </c>
       <c r="E132" t="n">
-        <v>0.571359</v>
+        <v>0.570361</v>
       </c>
       <c r="F132" t="n">
-        <v>2.86671</v>
+        <v>2.87199</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.691177</v>
+        <v>0.699408</v>
       </c>
       <c r="C133" t="n">
-        <v>3.05296</v>
+        <v>3.04828</v>
       </c>
       <c r="D133" t="n">
-        <v>2.58276</v>
+        <v>2.58562</v>
       </c>
       <c r="E133" t="n">
-        <v>0.567676</v>
+        <v>0.566014</v>
       </c>
       <c r="F133" t="n">
-        <v>2.86492</v>
+        <v>2.86288</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6882819999999999</v>
+        <v>0.693989</v>
       </c>
       <c r="C134" t="n">
-        <v>3.04447</v>
+        <v>3.05509</v>
       </c>
       <c r="D134" t="n">
-        <v>2.56533</v>
+        <v>2.56514</v>
       </c>
       <c r="E134" t="n">
-        <v>0.536231</v>
+        <v>0.53962</v>
       </c>
       <c r="F134" t="n">
-        <v>2.85053</v>
+        <v>2.40942</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.692228</v>
+        <v>0.69562</v>
       </c>
       <c r="C135" t="n">
-        <v>3.05322</v>
+        <v>3.05295</v>
       </c>
       <c r="D135" t="n">
-        <v>3.25093</v>
+        <v>3.24861</v>
       </c>
       <c r="E135" t="n">
-        <v>0.531822</v>
+        <v>0.535048</v>
       </c>
       <c r="F135" t="n">
-        <v>2.63484</v>
+        <v>2.86157</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6934090000000001</v>
+        <v>0.688821</v>
       </c>
       <c r="C136" t="n">
-        <v>3.03505</v>
+        <v>3.04015</v>
       </c>
       <c r="D136" t="n">
-        <v>3.19375</v>
+        <v>3.19461</v>
       </c>
       <c r="E136" t="n">
-        <v>0.531235</v>
+        <v>0.532316</v>
       </c>
       <c r="F136" t="n">
-        <v>2.39371</v>
+        <v>2.86912</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.677751</v>
+        <v>0.686463</v>
       </c>
       <c r="C137" t="n">
-        <v>3.03768</v>
+        <v>3.03779</v>
       </c>
       <c r="D137" t="n">
-        <v>3.14726</v>
+        <v>3.13732</v>
       </c>
       <c r="E137" t="n">
-        <v>0.724988</v>
+        <v>0.719557</v>
       </c>
       <c r="F137" t="n">
-        <v>3.33311</v>
+        <v>3.32469</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.871009</v>
+        <v>0.868503</v>
       </c>
       <c r="C138" t="n">
-        <v>3.54147</v>
+        <v>3.55323</v>
       </c>
       <c r="D138" t="n">
-        <v>3.10043</v>
+        <v>3.10037</v>
       </c>
       <c r="E138" t="n">
-        <v>0.718954</v>
+        <v>0.734785</v>
       </c>
       <c r="F138" t="n">
-        <v>3.30887</v>
+        <v>3.31802</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.853812</v>
+        <v>0.851723</v>
       </c>
       <c r="C139" t="n">
-        <v>3.5326</v>
+        <v>3.53751</v>
       </c>
       <c r="D139" t="n">
-        <v>3.05436</v>
+        <v>3.05537</v>
       </c>
       <c r="E139" t="n">
-        <v>0.713662</v>
+        <v>0.71077</v>
       </c>
       <c r="F139" t="n">
-        <v>3.29541</v>
+        <v>3.30104</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.865004</v>
+        <v>0.862004</v>
       </c>
       <c r="C140" t="n">
-        <v>3.4943</v>
+        <v>3.50688</v>
       </c>
       <c r="D140" t="n">
-        <v>3.01792</v>
+        <v>3.01385</v>
       </c>
       <c r="E140" t="n">
-        <v>0.729361</v>
+        <v>0.707442</v>
       </c>
       <c r="F140" t="n">
-        <v>3.2778</v>
+        <v>3.27937</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.851479</v>
+        <v>0.821585</v>
       </c>
       <c r="C141" t="n">
-        <v>3.48637</v>
+        <v>3.47654</v>
       </c>
       <c r="D141" t="n">
-        <v>2.98711</v>
+        <v>2.98956</v>
       </c>
       <c r="E141" t="n">
-        <v>0.725136</v>
+        <v>0.7037870000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>3.26104</v>
+        <v>3.27018</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.841905</v>
+        <v>0.834491</v>
       </c>
       <c r="C142" t="n">
-        <v>3.46707</v>
+        <v>3.46514</v>
       </c>
       <c r="D142" t="n">
-        <v>2.96837</v>
+        <v>2.96488</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7193079999999999</v>
+        <v>0.702534</v>
       </c>
       <c r="F142" t="n">
-        <v>3.24615</v>
+        <v>3.24517</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.821604</v>
+        <v>0.835466</v>
       </c>
       <c r="C143" t="n">
-        <v>3.44319</v>
+        <v>3.4496</v>
       </c>
       <c r="D143" t="n">
-        <v>2.95305</v>
+        <v>2.94696</v>
       </c>
       <c r="E143" t="n">
-        <v>0.699011</v>
+        <v>0.697268</v>
       </c>
       <c r="F143" t="n">
-        <v>3.23482</v>
+        <v>3.238</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.254243</v>
+        <v>0.254468</v>
       </c>
       <c r="C2" t="n">
-        <v>0.416735</v>
+        <v>0.415596</v>
       </c>
       <c r="D2" t="n">
-        <v>0.574263</v>
+        <v>0.559323</v>
       </c>
       <c r="E2" t="n">
-        <v>0.208208</v>
+        <v>0.210976</v>
       </c>
       <c r="F2" t="n">
-        <v>0.385447</v>
+        <v>0.382291</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243041</v>
+        <v>0.250412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.420019</v>
+        <v>0.40883</v>
       </c>
       <c r="D3" t="n">
-        <v>0.56633</v>
+        <v>0.556412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.201101</v>
+        <v>0.205324</v>
       </c>
       <c r="F3" t="n">
-        <v>0.378794</v>
+        <v>0.376893</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239917</v>
+        <v>0.244246</v>
       </c>
       <c r="C4" t="n">
-        <v>0.412885</v>
+        <v>0.402353</v>
       </c>
       <c r="D4" t="n">
-        <v>0.557993</v>
+        <v>0.549408</v>
       </c>
       <c r="E4" t="n">
-        <v>0.195689</v>
+        <v>0.200228</v>
       </c>
       <c r="F4" t="n">
-        <v>0.37305</v>
+        <v>0.372669</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237089</v>
+        <v>0.23646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.406562</v>
+        <v>0.397825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.552086</v>
+        <v>0.54438</v>
       </c>
       <c r="E5" t="n">
-        <v>0.19114</v>
+        <v>0.197386</v>
       </c>
       <c r="F5" t="n">
-        <v>0.368084</v>
+        <v>0.36841</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.228544</v>
+        <v>0.237102</v>
       </c>
       <c r="C6" t="n">
-        <v>0.40492</v>
+        <v>0.39356</v>
       </c>
       <c r="D6" t="n">
-        <v>0.546995</v>
+        <v>0.5379350000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.188223</v>
+        <v>0.196633</v>
       </c>
       <c r="F6" t="n">
-        <v>0.364679</v>
+        <v>0.367508</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226288</v>
+        <v>0.232572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.40206</v>
+        <v>0.39023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.708923</v>
+        <v>0.70409</v>
       </c>
       <c r="E7" t="n">
-        <v>0.185202</v>
+        <v>0.300831</v>
       </c>
       <c r="F7" t="n">
-        <v>0.362502</v>
+        <v>0.465431</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226612</v>
+        <v>0.227511</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398422</v>
+        <v>0.38927</v>
       </c>
       <c r="D8" t="n">
-        <v>0.695574</v>
+        <v>0.687965</v>
       </c>
       <c r="E8" t="n">
-        <v>0.187281</v>
+        <v>0.292069</v>
       </c>
       <c r="F8" t="n">
-        <v>0.362521</v>
+        <v>0.454164</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226014</v>
+        <v>0.228141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.39671</v>
+        <v>0.388558</v>
       </c>
       <c r="D9" t="n">
-        <v>0.677567</v>
+        <v>0.672452</v>
       </c>
       <c r="E9" t="n">
-        <v>0.278781</v>
+        <v>0.281326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.451485</v>
+        <v>0.444142</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314617</v>
+        <v>0.314299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.481018</v>
+        <v>0.484867</v>
       </c>
       <c r="D10" t="n">
-        <v>0.664679</v>
+        <v>0.658372</v>
       </c>
       <c r="E10" t="n">
-        <v>0.267471</v>
+        <v>0.272764</v>
       </c>
       <c r="F10" t="n">
-        <v>0.440695</v>
+        <v>0.434114</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.315191</v>
+        <v>0.302111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.470044</v>
+        <v>0.474261</v>
       </c>
       <c r="D11" t="n">
-        <v>0.652693</v>
+        <v>0.645777</v>
       </c>
       <c r="E11" t="n">
-        <v>0.258977</v>
+        <v>0.263584</v>
       </c>
       <c r="F11" t="n">
-        <v>0.431423</v>
+        <v>0.424914</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.293328</v>
+        <v>0.29725</v>
       </c>
       <c r="C12" t="n">
-        <v>0.460505</v>
+        <v>0.465243</v>
       </c>
       <c r="D12" t="n">
-        <v>0.640203</v>
+        <v>0.634575</v>
       </c>
       <c r="E12" t="n">
-        <v>0.250975</v>
+        <v>0.254865</v>
       </c>
       <c r="F12" t="n">
-        <v>0.422027</v>
+        <v>0.416303</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286519</v>
+        <v>0.288541</v>
       </c>
       <c r="C13" t="n">
-        <v>0.450951</v>
+        <v>0.451196</v>
       </c>
       <c r="D13" t="n">
-        <v>0.628493</v>
+        <v>0.62382</v>
       </c>
       <c r="E13" t="n">
-        <v>0.243855</v>
+        <v>0.248755</v>
       </c>
       <c r="F13" t="n">
-        <v>0.413386</v>
+        <v>0.407669</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275953</v>
+        <v>0.277047</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441698</v>
+        <v>0.443501</v>
       </c>
       <c r="D14" t="n">
-        <v>0.623489</v>
+        <v>0.6138439999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.236281</v>
+        <v>0.24215</v>
       </c>
       <c r="F14" t="n">
-        <v>0.40502</v>
+        <v>0.400034</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.272625</v>
+        <v>0.272057</v>
       </c>
       <c r="C15" t="n">
-        <v>0.434621</v>
+        <v>0.433807</v>
       </c>
       <c r="D15" t="n">
-        <v>0.612347</v>
+        <v>0.604401</v>
       </c>
       <c r="E15" t="n">
-        <v>0.229603</v>
+        <v>0.23419</v>
       </c>
       <c r="F15" t="n">
-        <v>0.397438</v>
+        <v>0.392793</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.26543</v>
+        <v>0.266505</v>
       </c>
       <c r="C16" t="n">
-        <v>0.427848</v>
+        <v>0.427116</v>
       </c>
       <c r="D16" t="n">
-        <v>0.605208</v>
+        <v>0.597001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.224333</v>
+        <v>0.228782</v>
       </c>
       <c r="F16" t="n">
-        <v>0.390339</v>
+        <v>0.386748</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.265402</v>
+        <v>0.26008</v>
       </c>
       <c r="C17" t="n">
-        <v>0.423222</v>
+        <v>0.420694</v>
       </c>
       <c r="D17" t="n">
-        <v>0.597863</v>
+        <v>0.590058</v>
       </c>
       <c r="E17" t="n">
-        <v>0.218604</v>
+        <v>0.223039</v>
       </c>
       <c r="F17" t="n">
-        <v>0.383274</v>
+        <v>0.380407</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254965</v>
+        <v>0.251597</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416292</v>
+        <v>0.4139</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585372</v>
+        <v>0.58151</v>
       </c>
       <c r="E18" t="n">
-        <v>0.212367</v>
+        <v>0.219059</v>
       </c>
       <c r="F18" t="n">
-        <v>0.377466</v>
+        <v>0.376541</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.245632</v>
+        <v>0.250512</v>
       </c>
       <c r="C19" t="n">
-        <v>0.411115</v>
+        <v>0.408911</v>
       </c>
       <c r="D19" t="n">
-        <v>0.579197</v>
+        <v>0.576473</v>
       </c>
       <c r="E19" t="n">
-        <v>0.207925</v>
+        <v>0.215947</v>
       </c>
       <c r="F19" t="n">
-        <v>0.37376</v>
+        <v>0.37333</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244967</v>
+        <v>0.241418</v>
       </c>
       <c r="C20" t="n">
-        <v>0.407196</v>
+        <v>0.403825</v>
       </c>
       <c r="D20" t="n">
-        <v>0.576402</v>
+        <v>0.571115</v>
       </c>
       <c r="E20" t="n">
-        <v>0.204964</v>
+        <v>0.21553</v>
       </c>
       <c r="F20" t="n">
-        <v>0.369403</v>
+        <v>0.371766</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239482</v>
+        <v>0.239138</v>
       </c>
       <c r="C21" t="n">
-        <v>0.401977</v>
+        <v>0.398593</v>
       </c>
       <c r="D21" t="n">
-        <v>0.765652</v>
+        <v>0.7603839999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.204435</v>
+        <v>0.322469</v>
       </c>
       <c r="F21" t="n">
-        <v>0.366874</v>
+        <v>0.473224</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.244064</v>
+        <v>0.238218</v>
       </c>
       <c r="C22" t="n">
-        <v>0.400508</v>
+        <v>0.395806</v>
       </c>
       <c r="D22" t="n">
-        <v>0.746958</v>
+        <v>0.742626</v>
       </c>
       <c r="E22" t="n">
-        <v>0.20462</v>
+        <v>0.311705</v>
       </c>
       <c r="F22" t="n">
-        <v>0.367137</v>
+        <v>0.46378</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.245607</v>
+        <v>0.236526</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3988</v>
+        <v>0.394976</v>
       </c>
       <c r="D23" t="n">
-        <v>0.738127</v>
+        <v>0.726066</v>
       </c>
       <c r="E23" t="n">
-        <v>0.29852</v>
+        <v>0.300635</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461853</v>
+        <v>0.452221</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.321466</v>
+        <v>0.319484</v>
       </c>
       <c r="C24" t="n">
-        <v>0.489269</v>
+        <v>0.490932</v>
       </c>
       <c r="D24" t="n">
-        <v>0.715265</v>
+        <v>0.711336</v>
       </c>
       <c r="E24" t="n">
-        <v>0.285835</v>
+        <v>0.290743</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451487</v>
+        <v>0.442604</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.313079</v>
+        <v>0.313556</v>
       </c>
       <c r="C25" t="n">
-        <v>0.479336</v>
+        <v>0.480588</v>
       </c>
       <c r="D25" t="n">
-        <v>0.70138</v>
+        <v>0.697558</v>
       </c>
       <c r="E25" t="n">
-        <v>0.276129</v>
+        <v>0.280826</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441061</v>
+        <v>0.43236</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.302882</v>
+        <v>0.30315</v>
       </c>
       <c r="C26" t="n">
-        <v>0.471928</v>
+        <v>0.471136</v>
       </c>
       <c r="D26" t="n">
-        <v>0.690419</v>
+        <v>0.68588</v>
       </c>
       <c r="E26" t="n">
-        <v>0.269331</v>
+        <v>0.272585</v>
       </c>
       <c r="F26" t="n">
-        <v>0.432307</v>
+        <v>0.424216</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294338</v>
+        <v>0.297024</v>
       </c>
       <c r="C27" t="n">
-        <v>0.463385</v>
+        <v>0.463393</v>
       </c>
       <c r="D27" t="n">
-        <v>0.678958</v>
+        <v>0.672597</v>
       </c>
       <c r="E27" t="n">
-        <v>0.259641</v>
+        <v>0.264355</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423145</v>
+        <v>0.415419</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.28839</v>
+        <v>0.289973</v>
       </c>
       <c r="C28" t="n">
-        <v>0.456135</v>
+        <v>0.454758</v>
       </c>
       <c r="D28" t="n">
-        <v>0.669781</v>
+        <v>0.663449</v>
       </c>
       <c r="E28" t="n">
-        <v>0.252151</v>
+        <v>0.25648</v>
       </c>
       <c r="F28" t="n">
-        <v>0.415044</v>
+        <v>0.40821</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284574</v>
+        <v>0.280836</v>
       </c>
       <c r="C29" t="n">
-        <v>0.448014</v>
+        <v>0.446469</v>
       </c>
       <c r="D29" t="n">
-        <v>0.656578</v>
+        <v>0.654857</v>
       </c>
       <c r="E29" t="n">
-        <v>0.245058</v>
+        <v>0.254779</v>
       </c>
       <c r="F29" t="n">
-        <v>0.407064</v>
+        <v>0.399771</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274449</v>
+        <v>0.274748</v>
       </c>
       <c r="C30" t="n">
-        <v>0.441485</v>
+        <v>0.438798</v>
       </c>
       <c r="D30" t="n">
-        <v>0.646554</v>
+        <v>0.644277</v>
       </c>
       <c r="E30" t="n">
-        <v>0.238754</v>
+        <v>0.243225</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399618</v>
+        <v>0.394003</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268083</v>
+        <v>0.26712</v>
       </c>
       <c r="C31" t="n">
-        <v>0.434888</v>
+        <v>0.433101</v>
       </c>
       <c r="D31" t="n">
-        <v>0.638038</v>
+        <v>0.637463</v>
       </c>
       <c r="E31" t="n">
-        <v>0.231696</v>
+        <v>0.236719</v>
       </c>
       <c r="F31" t="n">
-        <v>0.392449</v>
+        <v>0.38707</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.259717</v>
+        <v>0.260125</v>
       </c>
       <c r="C32" t="n">
-        <v>0.428413</v>
+        <v>0.426918</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6316850000000001</v>
+        <v>0.630762</v>
       </c>
       <c r="E32" t="n">
-        <v>0.227007</v>
+        <v>0.232564</v>
       </c>
       <c r="F32" t="n">
-        <v>0.386656</v>
+        <v>0.382703</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.253757</v>
+        <v>0.257177</v>
       </c>
       <c r="C33" t="n">
-        <v>0.42184</v>
+        <v>0.421318</v>
       </c>
       <c r="D33" t="n">
-        <v>0.626007</v>
+        <v>0.624495</v>
       </c>
       <c r="E33" t="n">
-        <v>0.222628</v>
+        <v>0.228731</v>
       </c>
       <c r="F33" t="n">
-        <v>0.380901</v>
+        <v>0.378805</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248764</v>
+        <v>0.249822</v>
       </c>
       <c r="C34" t="n">
-        <v>0.415598</v>
+        <v>0.415806</v>
       </c>
       <c r="D34" t="n">
-        <v>0.619398</v>
+        <v>0.618913</v>
       </c>
       <c r="E34" t="n">
-        <v>0.217895</v>
+        <v>0.226272</v>
       </c>
       <c r="F34" t="n">
-        <v>0.376633</v>
+        <v>0.379247</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248426</v>
+        <v>0.245895</v>
       </c>
       <c r="C35" t="n">
-        <v>0.41586</v>
+        <v>0.411676</v>
       </c>
       <c r="D35" t="n">
-        <v>0.817875</v>
+        <v>0.817709</v>
       </c>
       <c r="E35" t="n">
-        <v>0.216589</v>
+        <v>0.226144</v>
       </c>
       <c r="F35" t="n">
-        <v>0.373845</v>
+        <v>0.376961</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244856</v>
+        <v>0.244788</v>
       </c>
       <c r="C36" t="n">
-        <v>0.412031</v>
+        <v>0.408515</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7993710000000001</v>
+        <v>0.79854</v>
       </c>
       <c r="E36" t="n">
-        <v>0.214233</v>
+        <v>0.322683</v>
       </c>
       <c r="F36" t="n">
-        <v>0.372899</v>
+        <v>0.477283</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.241743</v>
+        <v>0.243702</v>
       </c>
       <c r="C37" t="n">
-        <v>0.410536</v>
+        <v>0.410286</v>
       </c>
       <c r="D37" t="n">
-        <v>0.781717</v>
+        <v>0.780965</v>
       </c>
       <c r="E37" t="n">
-        <v>0.309642</v>
+        <v>0.311652</v>
       </c>
       <c r="F37" t="n">
-        <v>0.470812</v>
+        <v>0.465357</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.329474</v>
+        <v>0.325541</v>
       </c>
       <c r="C38" t="n">
-        <v>0.506965</v>
+        <v>0.519443</v>
       </c>
       <c r="D38" t="n">
-        <v>0.764858</v>
+        <v>0.764759</v>
       </c>
       <c r="E38" t="n">
-        <v>0.299505</v>
+        <v>0.302476</v>
       </c>
       <c r="F38" t="n">
-        <v>0.460634</v>
+        <v>0.456332</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318374</v>
+        <v>0.319225</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501729</v>
+        <v>0.501627</v>
       </c>
       <c r="D39" t="n">
-        <v>0.75007</v>
+        <v>0.749511</v>
       </c>
       <c r="E39" t="n">
-        <v>0.28903</v>
+        <v>0.29322</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451923</v>
+        <v>0.447424</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.311633</v>
+        <v>0.311984</v>
       </c>
       <c r="C40" t="n">
-        <v>0.492654</v>
+        <v>0.49237</v>
       </c>
       <c r="D40" t="n">
-        <v>0.735791</v>
+        <v>0.736125</v>
       </c>
       <c r="E40" t="n">
-        <v>0.27896</v>
+        <v>0.282955</v>
       </c>
       <c r="F40" t="n">
-        <v>0.44463</v>
+        <v>0.440472</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302448</v>
+        <v>0.30524</v>
       </c>
       <c r="C41" t="n">
-        <v>0.483424</v>
+        <v>0.483442</v>
       </c>
       <c r="D41" t="n">
-        <v>0.722261</v>
+        <v>0.722415</v>
       </c>
       <c r="E41" t="n">
-        <v>0.271824</v>
+        <v>0.27535</v>
       </c>
       <c r="F41" t="n">
-        <v>0.435445</v>
+        <v>0.432001</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.297642</v>
+        <v>0.296357</v>
       </c>
       <c r="C42" t="n">
-        <v>0.474364</v>
+        <v>0.474451</v>
       </c>
       <c r="D42" t="n">
-        <v>0.711786</v>
+        <v>0.711452</v>
       </c>
       <c r="E42" t="n">
-        <v>0.264415</v>
+        <v>0.267373</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427225</v>
+        <v>0.422202</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.291373</v>
+        <v>0.303454</v>
       </c>
       <c r="C43" t="n">
-        <v>0.466612</v>
+        <v>0.46642</v>
       </c>
       <c r="D43" t="n">
-        <v>0.700499</v>
+        <v>0.700173</v>
       </c>
       <c r="E43" t="n">
-        <v>0.255862</v>
+        <v>0.26014</v>
       </c>
       <c r="F43" t="n">
-        <v>0.420377</v>
+        <v>0.414836</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.286887</v>
+        <v>0.28021</v>
       </c>
       <c r="C44" t="n">
-        <v>0.45818</v>
+        <v>0.459448</v>
       </c>
       <c r="D44" t="n">
-        <v>0.690591</v>
+        <v>0.690271</v>
       </c>
       <c r="E44" t="n">
-        <v>0.249181</v>
+        <v>0.253611</v>
       </c>
       <c r="F44" t="n">
-        <v>0.412913</v>
+        <v>0.408099</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.278778</v>
+        <v>0.287236</v>
       </c>
       <c r="C45" t="n">
-        <v>0.450835</v>
+        <v>0.451746</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6828920000000001</v>
+        <v>0.6820349999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.244437</v>
+        <v>0.247993</v>
       </c>
       <c r="F45" t="n">
-        <v>0.405868</v>
+        <v>0.403088</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.274641</v>
+        <v>0.277432</v>
       </c>
       <c r="C46" t="n">
-        <v>0.444503</v>
+        <v>0.446265</v>
       </c>
       <c r="D46" t="n">
-        <v>0.674596</v>
+        <v>0.673946</v>
       </c>
       <c r="E46" t="n">
-        <v>0.237939</v>
+        <v>0.241481</v>
       </c>
       <c r="F46" t="n">
-        <v>0.39959</v>
+        <v>0.398017</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262398</v>
+        <v>0.2686</v>
       </c>
       <c r="C47" t="n">
-        <v>0.437891</v>
+        <v>0.440353</v>
       </c>
       <c r="D47" t="n">
-        <v>0.667256</v>
+        <v>0.667477</v>
       </c>
       <c r="E47" t="n">
-        <v>0.231513</v>
+        <v>0.237444</v>
       </c>
       <c r="F47" t="n">
-        <v>0.394756</v>
+        <v>0.394122</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.264171</v>
+        <v>0.262352</v>
       </c>
       <c r="C48" t="n">
-        <v>0.432631</v>
+        <v>0.435113</v>
       </c>
       <c r="D48" t="n">
-        <v>0.660874</v>
+        <v>0.660489</v>
       </c>
       <c r="E48" t="n">
-        <v>0.227516</v>
+        <v>0.233443</v>
       </c>
       <c r="F48" t="n">
-        <v>0.390317</v>
+        <v>0.391869</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255564</v>
+        <v>0.265386</v>
       </c>
       <c r="C49" t="n">
-        <v>0.428841</v>
+        <v>0.429708</v>
       </c>
       <c r="D49" t="n">
-        <v>0.655853</v>
+        <v>0.6551169999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.224982</v>
+        <v>0.234149</v>
       </c>
       <c r="F49" t="n">
-        <v>0.387004</v>
+        <v>0.391906</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.254481</v>
+        <v>0.263569</v>
       </c>
       <c r="C50" t="n">
-        <v>0.425594</v>
+        <v>0.427213</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8450260000000001</v>
+        <v>0.8466320000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.222637</v>
+        <v>0.339474</v>
       </c>
       <c r="F50" t="n">
-        <v>0.385198</v>
+        <v>0.491883</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.253886</v>
+        <v>0.254</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422974</v>
+        <v>0.424545</v>
       </c>
       <c r="D51" t="n">
-        <v>0.825866</v>
+        <v>0.826924</v>
       </c>
       <c r="E51" t="n">
-        <v>0.323545</v>
+        <v>0.324789</v>
       </c>
       <c r="F51" t="n">
-        <v>0.489727</v>
+        <v>0.481443</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.248862</v>
+        <v>0.255533</v>
       </c>
       <c r="C52" t="n">
-        <v>0.42338</v>
+        <v>0.424716</v>
       </c>
       <c r="D52" t="n">
-        <v>0.808235</v>
+        <v>0.80891</v>
       </c>
       <c r="E52" t="n">
-        <v>0.314814</v>
+        <v>0.314244</v>
       </c>
       <c r="F52" t="n">
-        <v>0.480099</v>
+        <v>0.472613</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34103</v>
+        <v>0.342356</v>
       </c>
       <c r="C53" t="n">
-        <v>0.535948</v>
+        <v>0.514143</v>
       </c>
       <c r="D53" t="n">
-        <v>0.791561</v>
+        <v>0.792656</v>
       </c>
       <c r="E53" t="n">
-        <v>0.306257</v>
+        <v>0.305907</v>
       </c>
       <c r="F53" t="n">
-        <v>0.470311</v>
+        <v>0.463783</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.327505</v>
+        <v>0.330958</v>
       </c>
       <c r="C54" t="n">
-        <v>0.525438</v>
+        <v>0.506255</v>
       </c>
       <c r="D54" t="n">
-        <v>0.775513</v>
+        <v>0.77699</v>
       </c>
       <c r="E54" t="n">
-        <v>0.297792</v>
+        <v>0.297819</v>
       </c>
       <c r="F54" t="n">
-        <v>0.46124</v>
+        <v>0.455258</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.323686</v>
+        <v>0.319216</v>
       </c>
       <c r="C55" t="n">
-        <v>0.517223</v>
+        <v>0.50005</v>
       </c>
       <c r="D55" t="n">
-        <v>0.762628</v>
+        <v>0.762288</v>
       </c>
       <c r="E55" t="n">
-        <v>0.290302</v>
+        <v>0.288377</v>
       </c>
       <c r="F55" t="n">
-        <v>0.453244</v>
+        <v>0.447613</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.314152</v>
+        <v>0.316283</v>
       </c>
       <c r="C56" t="n">
-        <v>0.506866</v>
+        <v>0.492709</v>
       </c>
       <c r="D56" t="n">
-        <v>0.749763</v>
+        <v>0.749506</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2803</v>
+        <v>0.281559</v>
       </c>
       <c r="F56" t="n">
-        <v>0.444929</v>
+        <v>0.440133</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.303458</v>
+        <v>0.30774</v>
       </c>
       <c r="C57" t="n">
-        <v>0.499267</v>
+        <v>0.48626</v>
       </c>
       <c r="D57" t="n">
-        <v>0.73795</v>
+        <v>0.737721</v>
       </c>
       <c r="E57" t="n">
-        <v>0.273346</v>
+        <v>0.272588</v>
       </c>
       <c r="F57" t="n">
-        <v>0.438166</v>
+        <v>0.433868</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.299017</v>
+        <v>0.309475</v>
       </c>
       <c r="C58" t="n">
-        <v>0.494339</v>
+        <v>0.480483</v>
       </c>
       <c r="D58" t="n">
-        <v>0.727367</v>
+        <v>0.72707</v>
       </c>
       <c r="E58" t="n">
-        <v>0.264904</v>
+        <v>0.268104</v>
       </c>
       <c r="F58" t="n">
-        <v>0.430972</v>
+        <v>0.427746</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295136</v>
+        <v>0.302445</v>
       </c>
       <c r="C59" t="n">
-        <v>0.485555</v>
+        <v>0.469842</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7178020000000001</v>
+        <v>0.717562</v>
       </c>
       <c r="E59" t="n">
-        <v>0.261079</v>
+        <v>0.260967</v>
       </c>
       <c r="F59" t="n">
-        <v>0.425007</v>
+        <v>0.422158</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.286763</v>
+        <v>0.292954</v>
       </c>
       <c r="C60" t="n">
-        <v>0.48055</v>
+        <v>0.469358</v>
       </c>
       <c r="D60" t="n">
-        <v>0.70947</v>
+        <v>0.708846</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254763</v>
+        <v>0.25588</v>
       </c>
       <c r="F60" t="n">
-        <v>0.419674</v>
+        <v>0.416711</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.28187</v>
+        <v>0.295431</v>
       </c>
       <c r="C61" t="n">
-        <v>0.474055</v>
+        <v>0.463632</v>
       </c>
       <c r="D61" t="n">
-        <v>0.701766</v>
+        <v>0.7003819999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.249622</v>
+        <v>0.251472</v>
       </c>
       <c r="F61" t="n">
-        <v>0.413865</v>
+        <v>0.412717</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.279049</v>
+        <v>0.274551</v>
       </c>
       <c r="C62" t="n">
-        <v>0.468214</v>
+        <v>0.458792</v>
       </c>
       <c r="D62" t="n">
-        <v>0.694327</v>
+        <v>0.69389</v>
       </c>
       <c r="E62" t="n">
-        <v>0.244869</v>
+        <v>0.249314</v>
       </c>
       <c r="F62" t="n">
-        <v>0.411992</v>
+        <v>0.41047</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.276712</v>
+        <v>0.272333</v>
       </c>
       <c r="C63" t="n">
-        <v>0.464126</v>
+        <v>0.457524</v>
       </c>
       <c r="D63" t="n">
-        <v>0.688097</v>
+        <v>0.68819</v>
       </c>
       <c r="E63" t="n">
-        <v>0.240669</v>
+        <v>0.246252</v>
       </c>
       <c r="F63" t="n">
-        <v>0.40917</v>
+        <v>0.409889</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.271371</v>
+        <v>0.281441</v>
       </c>
       <c r="C64" t="n">
-        <v>0.460098</v>
+        <v>0.454991</v>
       </c>
       <c r="D64" t="n">
-        <v>0.902219</v>
+        <v>0.918384</v>
       </c>
       <c r="E64" t="n">
-        <v>0.238707</v>
+        <v>0.379224</v>
       </c>
       <c r="F64" t="n">
-        <v>0.407973</v>
+        <v>0.530681</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268564</v>
+        <v>0.271424</v>
       </c>
       <c r="C65" t="n">
-        <v>0.459111</v>
+        <v>0.45302</v>
       </c>
       <c r="D65" t="n">
-        <v>0.882526</v>
+        <v>0.897912</v>
       </c>
       <c r="E65" t="n">
-        <v>0.239695</v>
+        <v>0.36719</v>
       </c>
       <c r="F65" t="n">
-        <v>0.409343</v>
+        <v>0.523721</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26969</v>
+        <v>0.272983</v>
       </c>
       <c r="C66" t="n">
-        <v>0.455964</v>
+        <v>0.45419</v>
       </c>
       <c r="D66" t="n">
-        <v>0.863023</v>
+        <v>0.878358</v>
       </c>
       <c r="E66" t="n">
-        <v>0.337482</v>
+        <v>0.358316</v>
       </c>
       <c r="F66" t="n">
-        <v>0.519489</v>
+        <v>0.515779</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.395093</v>
+        <v>0.420401</v>
       </c>
       <c r="C67" t="n">
-        <v>0.602135</v>
+        <v>0.611872</v>
       </c>
       <c r="D67" t="n">
-        <v>0.845179</v>
+        <v>0.860399</v>
       </c>
       <c r="E67" t="n">
-        <v>0.333179</v>
+        <v>0.346619</v>
       </c>
       <c r="F67" t="n">
-        <v>0.51225</v>
+        <v>0.508103</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.412222</v>
+        <v>0.415266</v>
       </c>
       <c r="C68" t="n">
-        <v>0.594467</v>
+        <v>0.608533</v>
       </c>
       <c r="D68" t="n">
-        <v>0.828873</v>
+        <v>0.843031</v>
       </c>
       <c r="E68" t="n">
-        <v>0.321235</v>
+        <v>0.334938</v>
       </c>
       <c r="F68" t="n">
-        <v>0.505447</v>
+        <v>0.500722</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.385574</v>
+        <v>0.393846</v>
       </c>
       <c r="C69" t="n">
-        <v>0.585128</v>
+        <v>0.598841</v>
       </c>
       <c r="D69" t="n">
-        <v>0.814239</v>
+        <v>0.82962</v>
       </c>
       <c r="E69" t="n">
-        <v>0.313538</v>
+        <v>0.321033</v>
       </c>
       <c r="F69" t="n">
-        <v>0.498047</v>
+        <v>0.493265</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.394964</v>
+        <v>0.394706</v>
       </c>
       <c r="C70" t="n">
-        <v>0.578105</v>
+        <v>0.588742</v>
       </c>
       <c r="D70" t="n">
-        <v>0.802321</v>
+        <v>0.817422</v>
       </c>
       <c r="E70" t="n">
-        <v>0.309712</v>
+        <v>0.322137</v>
       </c>
       <c r="F70" t="n">
-        <v>0.490221</v>
+        <v>0.485528</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.367309</v>
+        <v>0.393806</v>
       </c>
       <c r="C71" t="n">
-        <v>0.570569</v>
+        <v>0.583313</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7919850000000001</v>
+        <v>0.806639</v>
       </c>
       <c r="E71" t="n">
-        <v>0.299179</v>
+        <v>0.311215</v>
       </c>
       <c r="F71" t="n">
-        <v>0.483081</v>
+        <v>0.478693</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.363214</v>
+        <v>0.387339</v>
       </c>
       <c r="C72" t="n">
-        <v>0.56284</v>
+        <v>0.5749880000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.783107</v>
+        <v>0.798002</v>
       </c>
       <c r="E72" t="n">
-        <v>0.294778</v>
+        <v>0.303931</v>
       </c>
       <c r="F72" t="n">
-        <v>0.477338</v>
+        <v>0.471909</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.373048</v>
+        <v>0.385094</v>
       </c>
       <c r="C73" t="n">
-        <v>0.556496</v>
+        <v>0.568348</v>
       </c>
       <c r="D73" t="n">
-        <v>0.77585</v>
+        <v>0.792316</v>
       </c>
       <c r="E73" t="n">
-        <v>0.287676</v>
+        <v>0.296628</v>
       </c>
       <c r="F73" t="n">
-        <v>0.472165</v>
+        <v>0.46686</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.365654</v>
+        <v>0.369905</v>
       </c>
       <c r="C74" t="n">
-        <v>0.554168</v>
+        <v>0.55987</v>
       </c>
       <c r="D74" t="n">
-        <v>0.770469</v>
+        <v>0.788564</v>
       </c>
       <c r="E74" t="n">
-        <v>0.281985</v>
+        <v>0.292008</v>
       </c>
       <c r="F74" t="n">
-        <v>0.46712</v>
+        <v>0.462329</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.368949</v>
+        <v>0.358014</v>
       </c>
       <c r="C75" t="n">
-        <v>0.543838</v>
+        <v>0.551802</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7669010000000001</v>
+        <v>0.782072</v>
       </c>
       <c r="E75" t="n">
-        <v>0.272481</v>
+        <v>0.289213</v>
       </c>
       <c r="F75" t="n">
-        <v>0.46227</v>
+        <v>0.457836</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.349639</v>
+        <v>0.360264</v>
       </c>
       <c r="C76" t="n">
-        <v>0.543453</v>
+        <v>0.554145</v>
       </c>
       <c r="D76" t="n">
-        <v>0.764419</v>
+        <v>0.779745</v>
       </c>
       <c r="E76" t="n">
-        <v>0.274245</v>
+        <v>0.278222</v>
       </c>
       <c r="F76" t="n">
-        <v>0.459093</v>
+        <v>0.455551</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.342149</v>
+        <v>0.353934</v>
       </c>
       <c r="C77" t="n">
-        <v>0.539332</v>
+        <v>0.550821</v>
       </c>
       <c r="D77" t="n">
-        <v>0.763713</v>
+        <v>0.780125</v>
       </c>
       <c r="E77" t="n">
-        <v>0.264661</v>
+        <v>0.277378</v>
       </c>
       <c r="F77" t="n">
-        <v>0.45671</v>
+        <v>0.454735</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.334323</v>
+        <v>0.349556</v>
       </c>
       <c r="C78" t="n">
-        <v>0.535031</v>
+        <v>0.545656</v>
       </c>
       <c r="D78" t="n">
-        <v>1.22638</v>
+        <v>1.28007</v>
       </c>
       <c r="E78" t="n">
-        <v>0.26542</v>
+        <v>0.27833</v>
       </c>
       <c r="F78" t="n">
-        <v>0.455259</v>
+        <v>0.456043</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.330153</v>
+        <v>0.342244</v>
       </c>
       <c r="C79" t="n">
-        <v>0.535798</v>
+        <v>0.545523</v>
       </c>
       <c r="D79" t="n">
-        <v>1.20386</v>
+        <v>1.25789</v>
       </c>
       <c r="E79" t="n">
-        <v>0.260028</v>
+        <v>0.444336</v>
       </c>
       <c r="F79" t="n">
-        <v>0.456248</v>
+        <v>0.7524729999999999</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.321414</v>
+        <v>0.350879</v>
       </c>
       <c r="C80" t="n">
-        <v>0.535762</v>
+        <v>0.545503</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18535</v>
+        <v>1.23807</v>
       </c>
       <c r="E80" t="n">
-        <v>0.384395</v>
+        <v>0.42723</v>
       </c>
       <c r="F80" t="n">
-        <v>0.743368</v>
+        <v>0.754571</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.467185</v>
+        <v>0.504979</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8530450000000001</v>
+        <v>0.890046</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1687</v>
+        <v>1.21886</v>
       </c>
       <c r="E81" t="n">
-        <v>0.378557</v>
+        <v>0.419259</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7455079999999999</v>
+        <v>0.7469209999999999</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.437776</v>
+        <v>0.447647</v>
       </c>
       <c r="C82" t="n">
-        <v>0.864017</v>
+        <v>0.906357</v>
       </c>
       <c r="D82" t="n">
-        <v>1.1544</v>
+        <v>1.20594</v>
       </c>
       <c r="E82" t="n">
-        <v>0.371974</v>
+        <v>0.409364</v>
       </c>
       <c r="F82" t="n">
-        <v>0.741163</v>
+        <v>0.737746</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.429204</v>
+        <v>0.441387</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8607359999999999</v>
+        <v>0.901911</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14627</v>
+        <v>1.19464</v>
       </c>
       <c r="E83" t="n">
-        <v>0.363677</v>
+        <v>0.400451</v>
       </c>
       <c r="F83" t="n">
-        <v>0.733532</v>
+        <v>0.727144</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.437691</v>
+        <v>0.426743</v>
       </c>
       <c r="C84" t="n">
-        <v>0.851949</v>
+        <v>0.9162130000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1386</v>
+        <v>1.18638</v>
       </c>
       <c r="E84" t="n">
-        <v>0.35592</v>
+        <v>0.383507</v>
       </c>
       <c r="F84" t="n">
-        <v>0.723036</v>
+        <v>0.71535</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.413841</v>
+        <v>0.447081</v>
       </c>
       <c r="C85" t="n">
-        <v>0.842291</v>
+        <v>0.889411</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13302</v>
+        <v>1.18333</v>
       </c>
       <c r="E85" t="n">
-        <v>0.346259</v>
+        <v>0.381626</v>
       </c>
       <c r="F85" t="n">
-        <v>0.710993</v>
+        <v>0.701638</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.425946</v>
+        <v>0.4117</v>
       </c>
       <c r="C86" t="n">
-        <v>0.833052</v>
+        <v>0.875752</v>
       </c>
       <c r="D86" t="n">
-        <v>1.12967</v>
+        <v>1.18132</v>
       </c>
       <c r="E86" t="n">
-        <v>0.341077</v>
+        <v>0.366496</v>
       </c>
       <c r="F86" t="n">
-        <v>0.697731</v>
+        <v>0.687491</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.414566</v>
+        <v>0.439463</v>
       </c>
       <c r="C87" t="n">
-        <v>0.81443</v>
+        <v>0.856118</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1308</v>
+        <v>1.18264</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3333</v>
+        <v>0.360758</v>
       </c>
       <c r="F87" t="n">
-        <v>0.686202</v>
+        <v>0.675272</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.412712</v>
+        <v>0.426994</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8050929999999999</v>
+        <v>0.849705</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13041</v>
+        <v>1.18562</v>
       </c>
       <c r="E88" t="n">
-        <v>0.326236</v>
+        <v>0.356011</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6729270000000001</v>
+        <v>0.663521</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.396101</v>
+        <v>0.426148</v>
       </c>
       <c r="C89" t="n">
-        <v>0.795724</v>
+        <v>0.834751</v>
       </c>
       <c r="D89" t="n">
-        <v>1.13798</v>
+        <v>1.1949</v>
       </c>
       <c r="E89" t="n">
-        <v>0.314928</v>
+        <v>0.355826</v>
       </c>
       <c r="F89" t="n">
-        <v>0.662362</v>
+        <v>0.651995</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.388006</v>
+        <v>0.438725</v>
       </c>
       <c r="C90" t="n">
-        <v>0.784195</v>
+        <v>0.8256599999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>1.14633</v>
+        <v>1.20816</v>
       </c>
       <c r="E90" t="n">
-        <v>0.315211</v>
+        <v>0.343702</v>
       </c>
       <c r="F90" t="n">
-        <v>0.653134</v>
+        <v>0.643918</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.396523</v>
+        <v>0.43108</v>
       </c>
       <c r="C91" t="n">
-        <v>0.776886</v>
+        <v>0.816566</v>
       </c>
       <c r="D91" t="n">
-        <v>1.16061</v>
+        <v>1.21721</v>
       </c>
       <c r="E91" t="n">
-        <v>0.30375</v>
+        <v>0.339207</v>
       </c>
       <c r="F91" t="n">
-        <v>0.642626</v>
+        <v>0.636978</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.403287</v>
+        <v>0.438192</v>
       </c>
       <c r="C92" t="n">
-        <v>0.763977</v>
+        <v>0.805708</v>
       </c>
       <c r="D92" t="n">
-        <v>1.71909</v>
+        <v>1.83423</v>
       </c>
       <c r="E92" t="n">
-        <v>0.302967</v>
+        <v>0.335406</v>
       </c>
       <c r="F92" t="n">
-        <v>0.633836</v>
+        <v>0.632257</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.386329</v>
+        <v>0.422468</v>
       </c>
       <c r="C93" t="n">
-        <v>0.756368</v>
+        <v>0.795991</v>
       </c>
       <c r="D93" t="n">
-        <v>1.70892</v>
+        <v>1.82448</v>
       </c>
       <c r="E93" t="n">
-        <v>0.305423</v>
+        <v>0.484706</v>
       </c>
       <c r="F93" t="n">
-        <v>0.62966</v>
+        <v>1.02365</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387879</v>
+        <v>0.404575</v>
       </c>
       <c r="C94" t="n">
-        <v>0.752439</v>
+        <v>0.794044</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69681</v>
+        <v>1.81055</v>
       </c>
       <c r="E94" t="n">
-        <v>0.498313</v>
+        <v>0.478711</v>
       </c>
       <c r="F94" t="n">
-        <v>1.12036</v>
+        <v>1.02073</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.57689</v>
+        <v>0.61981</v>
       </c>
       <c r="C95" t="n">
-        <v>1.13676</v>
+        <v>1.2269</v>
       </c>
       <c r="D95" t="n">
-        <v>1.6845</v>
+        <v>1.80102</v>
       </c>
       <c r="E95" t="n">
-        <v>0.49295</v>
+        <v>0.469093</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11782</v>
+        <v>1.01316</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.569798</v>
+        <v>0.600396</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15514</v>
+        <v>1.2473</v>
       </c>
       <c r="D96" t="n">
-        <v>1.67298</v>
+        <v>1.79141</v>
       </c>
       <c r="E96" t="n">
-        <v>0.476948</v>
+        <v>0.45979</v>
       </c>
       <c r="F96" t="n">
-        <v>1.09408</v>
+        <v>0.99851</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.580389</v>
+        <v>0.592194</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14132</v>
+        <v>1.23764</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66884</v>
+        <v>1.78148</v>
       </c>
       <c r="E97" t="n">
-        <v>0.470089</v>
+        <v>0.435085</v>
       </c>
       <c r="F97" t="n">
-        <v>1.087</v>
+        <v>0.985521</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.579443</v>
+        <v>0.590403</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12878</v>
+        <v>1.21271</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66129</v>
+        <v>1.77913</v>
       </c>
       <c r="E98" t="n">
-        <v>0.456931</v>
+        <v>0.43468</v>
       </c>
       <c r="F98" t="n">
-        <v>1.06023</v>
+        <v>0.969646</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.547942</v>
+        <v>0.5717370000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12053</v>
+        <v>1.18496</v>
       </c>
       <c r="D99" t="n">
-        <v>1.65728</v>
+        <v>1.77736</v>
       </c>
       <c r="E99" t="n">
-        <v>0.44725</v>
+        <v>0.424296</v>
       </c>
       <c r="F99" t="n">
-        <v>1.04409</v>
+        <v>0.9536</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5463980000000001</v>
+        <v>0.585255</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11793</v>
+        <v>1.19086</v>
       </c>
       <c r="D100" t="n">
-        <v>1.65979</v>
+        <v>1.77975</v>
       </c>
       <c r="E100" t="n">
-        <v>0.437704</v>
+        <v>0.408183</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03621</v>
+        <v>0.936186</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.546075</v>
+        <v>0.558185</v>
       </c>
       <c r="C101" t="n">
-        <v>1.08472</v>
+        <v>1.15479</v>
       </c>
       <c r="D101" t="n">
-        <v>1.6636</v>
+        <v>1.78741</v>
       </c>
       <c r="E101" t="n">
-        <v>0.431482</v>
+        <v>0.399973</v>
       </c>
       <c r="F101" t="n">
-        <v>1.0192</v>
+        <v>0.927982</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.530415</v>
+        <v>0.555435</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06864</v>
+        <v>1.16073</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66721</v>
+        <v>1.78808</v>
       </c>
       <c r="E102" t="n">
-        <v>0.415567</v>
+        <v>0.394641</v>
       </c>
       <c r="F102" t="n">
-        <v>1.00319</v>
+        <v>0.915221</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.508377</v>
+        <v>0.553702</v>
       </c>
       <c r="C103" t="n">
-        <v>1.05628</v>
+        <v>1.14328</v>
       </c>
       <c r="D103" t="n">
-        <v>1.6779</v>
+        <v>1.80502</v>
       </c>
       <c r="E103" t="n">
-        <v>0.408353</v>
+        <v>0.386678</v>
       </c>
       <c r="F103" t="n">
-        <v>0.990698</v>
+        <v>0.896059</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.517827</v>
+        <v>0.554015</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04929</v>
+        <v>1.12496</v>
       </c>
       <c r="D104" t="n">
-        <v>1.6866</v>
+        <v>1.81257</v>
       </c>
       <c r="E104" t="n">
-        <v>0.399702</v>
+        <v>0.384094</v>
       </c>
       <c r="F104" t="n">
-        <v>0.96666</v>
+        <v>0.882964</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.506462</v>
+        <v>0.533541</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04517</v>
+        <v>1.12284</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70071</v>
+        <v>1.82649</v>
       </c>
       <c r="E105" t="n">
-        <v>0.394132</v>
+        <v>0.383217</v>
       </c>
       <c r="F105" t="n">
-        <v>0.952193</v>
+        <v>0.873721</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.499347</v>
+        <v>0.52595</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03884</v>
+        <v>1.11533</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71801</v>
+        <v>1.84797</v>
       </c>
       <c r="E106" t="n">
-        <v>0.391333</v>
+        <v>0.378644</v>
       </c>
       <c r="F106" t="n">
-        <v>0.955402</v>
+        <v>0.869225</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.495471</v>
+        <v>0.533552</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03554</v>
+        <v>1.10156</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30885</v>
+        <v>2.4879</v>
       </c>
       <c r="E107" t="n">
-        <v>0.387694</v>
+        <v>0.580142</v>
       </c>
       <c r="F107" t="n">
-        <v>0.908249</v>
+        <v>2.48901</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492637</v>
+        <v>0.547776</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01881</v>
+        <v>1.10244</v>
       </c>
       <c r="D108" t="n">
-        <v>2.27869</v>
+        <v>2.46378</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5876169999999999</v>
+        <v>0.5761039999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>2.37848</v>
+        <v>2.49764</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.505358</v>
+        <v>0.5432399999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03076</v>
+        <v>1.09613</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25356</v>
+        <v>2.44087</v>
       </c>
       <c r="E109" t="n">
-        <v>0.583368</v>
+        <v>0.55764</v>
       </c>
       <c r="F109" t="n">
-        <v>2.38547</v>
+        <v>2.50496</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7159450000000001</v>
+        <v>0.696675</v>
       </c>
       <c r="C110" t="n">
-        <v>2.55395</v>
+        <v>2.76469</v>
       </c>
       <c r="D110" t="n">
-        <v>2.23341</v>
+        <v>2.41882</v>
       </c>
       <c r="E110" t="n">
-        <v>0.569796</v>
+        <v>0.550472</v>
       </c>
       <c r="F110" t="n">
-        <v>2.38734</v>
+        <v>1.28078</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.701896</v>
+        <v>0.718293</v>
       </c>
       <c r="C111" t="n">
-        <v>2.54804</v>
+        <v>2.75224</v>
       </c>
       <c r="D111" t="n">
-        <v>2.233</v>
+        <v>2.40191</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5573360000000001</v>
+        <v>0.537204</v>
       </c>
       <c r="F111" t="n">
-        <v>2.38888</v>
+        <v>2.5147</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.633323</v>
+        <v>0.725619</v>
       </c>
       <c r="C112" t="n">
-        <v>2.56256</v>
+        <v>2.78746</v>
       </c>
       <c r="D112" t="n">
-        <v>2.21991</v>
+        <v>2.38776</v>
       </c>
       <c r="E112" t="n">
-        <v>0.503433</v>
+        <v>0.527571</v>
       </c>
       <c r="F112" t="n">
-        <v>2.39067</v>
+        <v>2.53285</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6868880000000001</v>
+        <v>0.713453</v>
       </c>
       <c r="C113" t="n">
-        <v>2.55907</v>
+        <v>2.78577</v>
       </c>
       <c r="D113" t="n">
-        <v>2.19476</v>
+        <v>2.37446</v>
       </c>
       <c r="E113" t="n">
-        <v>0.495936</v>
+        <v>0.514836</v>
       </c>
       <c r="F113" t="n">
-        <v>2.38687</v>
+        <v>2.53845</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.663678</v>
+        <v>0.7018219999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>2.54621</v>
+        <v>2.78141</v>
       </c>
       <c r="D114" t="n">
-        <v>2.20907</v>
+        <v>2.36695</v>
       </c>
       <c r="E114" t="n">
-        <v>0.521869</v>
+        <v>0.509141</v>
       </c>
       <c r="F114" t="n">
-        <v>2.3919</v>
+        <v>2.54412</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.659953</v>
+        <v>0.644288</v>
       </c>
       <c r="C115" t="n">
-        <v>2.54956</v>
+        <v>2.77854</v>
       </c>
       <c r="D115" t="n">
-        <v>2.24736</v>
+        <v>2.37409</v>
       </c>
       <c r="E115" t="n">
-        <v>0.475448</v>
+        <v>0.494027</v>
       </c>
       <c r="F115" t="n">
-        <v>2.39262</v>
+        <v>2.11087</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.620854</v>
+        <v>0.664183</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56047</v>
+        <v>2.78424</v>
       </c>
       <c r="D116" t="n">
-        <v>2.23854</v>
+        <v>2.35863</v>
       </c>
       <c r="E116" t="n">
-        <v>0.502959</v>
+        <v>0.485986</v>
       </c>
       <c r="F116" t="n">
-        <v>2.39269</v>
+        <v>1.20142</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.636175</v>
+        <v>0.6571050000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>2.5501</v>
+        <v>2.58108</v>
       </c>
       <c r="D117" t="n">
-        <v>2.21336</v>
+        <v>2.37825</v>
       </c>
       <c r="E117" t="n">
-        <v>0.494395</v>
+        <v>0.484228</v>
       </c>
       <c r="F117" t="n">
-        <v>2.3959</v>
+        <v>2.5613</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6277199999999999</v>
+        <v>0.634574</v>
       </c>
       <c r="C118" t="n">
-        <v>2.55599</v>
+        <v>2.80368</v>
       </c>
       <c r="D118" t="n">
-        <v>2.19145</v>
+        <v>2.36447</v>
       </c>
       <c r="E118" t="n">
-        <v>0.455655</v>
+        <v>0.472966</v>
       </c>
       <c r="F118" t="n">
-        <v>2.2077</v>
+        <v>2.12187</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6230560000000001</v>
+        <v>0.615866</v>
       </c>
       <c r="C119" t="n">
-        <v>2.57914</v>
+        <v>2.58529</v>
       </c>
       <c r="D119" t="n">
-        <v>2.18347</v>
+        <v>2.37094</v>
       </c>
       <c r="E119" t="n">
-        <v>0.445369</v>
+        <v>0.469676</v>
       </c>
       <c r="F119" t="n">
-        <v>1.79197</v>
+        <v>2.11511</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.601506</v>
+        <v>0.616047</v>
       </c>
       <c r="C120" t="n">
-        <v>2.561</v>
+        <v>1.91253</v>
       </c>
       <c r="D120" t="n">
-        <v>2.19341</v>
+        <v>2.38446</v>
       </c>
       <c r="E120" t="n">
-        <v>0.440311</v>
+        <v>0.466846</v>
       </c>
       <c r="F120" t="n">
-        <v>1.59425</v>
+        <v>1.67075</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.607674</v>
+        <v>0.623305</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57388</v>
+        <v>1.89944</v>
       </c>
       <c r="D121" t="n">
-        <v>2.85997</v>
+        <v>3.10872</v>
       </c>
       <c r="E121" t="n">
-        <v>0.438794</v>
+        <v>0.6693480000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>1.79509</v>
+        <v>3.07428</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.586322</v>
+        <v>0.620819</v>
       </c>
       <c r="C122" t="n">
-        <v>2.57106</v>
+        <v>2.80964</v>
       </c>
       <c r="D122" t="n">
-        <v>2.80817</v>
+        <v>3.06451</v>
       </c>
       <c r="E122" t="n">
-        <v>0.435497</v>
+        <v>0.6655180000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>1.79698</v>
+        <v>3.07499</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.59311</v>
+        <v>0.622432</v>
       </c>
       <c r="C123" t="n">
-        <v>2.57885</v>
+        <v>2.83152</v>
       </c>
       <c r="D123" t="n">
-        <v>2.76729</v>
+        <v>3.02239</v>
       </c>
       <c r="E123" t="n">
-        <v>0.630643</v>
+        <v>0.657845</v>
       </c>
       <c r="F123" t="n">
-        <v>2.90369</v>
+        <v>3.07415</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.785037</v>
+        <v>0.815398</v>
       </c>
       <c r="C124" t="n">
-        <v>3.14201</v>
+        <v>3.43602</v>
       </c>
       <c r="D124" t="n">
-        <v>2.74192</v>
+        <v>2.985</v>
       </c>
       <c r="E124" t="n">
-        <v>0.624178</v>
+        <v>0.6483910000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>2.893</v>
+        <v>3.07358</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.771209</v>
+        <v>0.8030310000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>3.11739</v>
+        <v>3.43736</v>
       </c>
       <c r="D125" t="n">
-        <v>2.70836</v>
+        <v>2.95134</v>
       </c>
       <c r="E125" t="n">
-        <v>0.617513</v>
+        <v>0.643853</v>
       </c>
       <c r="F125" t="n">
-        <v>2.88643</v>
+        <v>3.07007</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.751703</v>
+        <v>0.811577</v>
       </c>
       <c r="C126" t="n">
-        <v>3.1099</v>
+        <v>3.40663</v>
       </c>
       <c r="D126" t="n">
-        <v>2.67925</v>
+        <v>2.92325</v>
       </c>
       <c r="E126" t="n">
-        <v>0.607727</v>
+        <v>0.632037</v>
       </c>
       <c r="F126" t="n">
-        <v>2.8765</v>
+        <v>3.06942</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.756811</v>
+        <v>0.777021</v>
       </c>
       <c r="C127" t="n">
-        <v>3.09541</v>
+        <v>3.40805</v>
       </c>
       <c r="D127" t="n">
-        <v>2.66346</v>
+        <v>2.89957</v>
       </c>
       <c r="E127" t="n">
-        <v>0.600533</v>
+        <v>0.626292</v>
       </c>
       <c r="F127" t="n">
-        <v>2.87957</v>
+        <v>3.06988</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.751846</v>
+        <v>0.772455</v>
       </c>
       <c r="C128" t="n">
-        <v>3.09427</v>
+        <v>3.39351</v>
       </c>
       <c r="D128" t="n">
-        <v>2.63023</v>
+        <v>2.87596</v>
       </c>
       <c r="E128" t="n">
-        <v>0.594256</v>
+        <v>0.620655</v>
       </c>
       <c r="F128" t="n">
-        <v>2.86949</v>
+        <v>3.06812</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7324349999999999</v>
+        <v>0.775966</v>
       </c>
       <c r="C129" t="n">
-        <v>3.07125</v>
+        <v>3.38645</v>
       </c>
       <c r="D129" t="n">
-        <v>2.61652</v>
+        <v>2.86226</v>
       </c>
       <c r="E129" t="n">
-        <v>0.589456</v>
+        <v>0.615034</v>
       </c>
       <c r="F129" t="n">
-        <v>2.86048</v>
+        <v>3.06886</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.722463</v>
+        <v>0.774149</v>
       </c>
       <c r="C130" t="n">
-        <v>3.08048</v>
+        <v>3.3765</v>
       </c>
       <c r="D130" t="n">
-        <v>2.60907</v>
+        <v>2.84604</v>
       </c>
       <c r="E130" t="n">
-        <v>0.58292</v>
+        <v>0.608453</v>
       </c>
       <c r="F130" t="n">
-        <v>2.84822</v>
+        <v>3.07076</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.711272</v>
+        <v>0.758657</v>
       </c>
       <c r="C131" t="n">
-        <v>3.06994</v>
+        <v>3.37217</v>
       </c>
       <c r="D131" t="n">
-        <v>2.58977</v>
+        <v>2.83841</v>
       </c>
       <c r="E131" t="n">
-        <v>0.577603</v>
+        <v>0.604603</v>
       </c>
       <c r="F131" t="n">
-        <v>2.85765</v>
+        <v>3.06632</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.705618</v>
+        <v>0.752448</v>
       </c>
       <c r="C132" t="n">
-        <v>3.05906</v>
+        <v>3.3635</v>
       </c>
       <c r="D132" t="n">
-        <v>2.58641</v>
+        <v>2.83123</v>
       </c>
       <c r="E132" t="n">
-        <v>0.572951</v>
+        <v>0.598449</v>
       </c>
       <c r="F132" t="n">
-        <v>2.8567</v>
+        <v>3.06976</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.708291</v>
+        <v>0.757392</v>
       </c>
       <c r="C133" t="n">
-        <v>3.04756</v>
+        <v>3.34908</v>
       </c>
       <c r="D133" t="n">
-        <v>2.58033</v>
+        <v>2.82709</v>
       </c>
       <c r="E133" t="n">
-        <v>0.568101</v>
+        <v>0.5948600000000001</v>
       </c>
       <c r="F133" t="n">
-        <v>2.85956</v>
+        <v>3.07518</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.698974</v>
+        <v>0.73417</v>
       </c>
       <c r="C134" t="n">
-        <v>3.0419</v>
+        <v>3.35771</v>
       </c>
       <c r="D134" t="n">
-        <v>2.56066</v>
+        <v>2.80776</v>
       </c>
       <c r="E134" t="n">
-        <v>0.536829</v>
+        <v>0.572752</v>
       </c>
       <c r="F134" t="n">
-        <v>2.39622</v>
+        <v>2.56995</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.691912</v>
+        <v>0.74879</v>
       </c>
       <c r="C135" t="n">
-        <v>3.04675</v>
+        <v>3.3478</v>
       </c>
       <c r="D135" t="n">
-        <v>3.24443</v>
+        <v>3.55923</v>
       </c>
       <c r="E135" t="n">
-        <v>0.534931</v>
+        <v>0.772868</v>
       </c>
       <c r="F135" t="n">
-        <v>2.3888</v>
+        <v>3.56313</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.687009</v>
+        <v>0.733654</v>
       </c>
       <c r="C136" t="n">
-        <v>3.03332</v>
+        <v>3.35524</v>
       </c>
       <c r="D136" t="n">
-        <v>3.20152</v>
+        <v>3.49579</v>
       </c>
       <c r="E136" t="n">
-        <v>0.53217</v>
+        <v>0.77058</v>
       </c>
       <c r="F136" t="n">
-        <v>2.39478</v>
+        <v>3.55678</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.656654</v>
+        <v>0.710217</v>
       </c>
       <c r="C137" t="n">
-        <v>3.04248</v>
+        <v>2.58439</v>
       </c>
       <c r="D137" t="n">
-        <v>3.13902</v>
+        <v>3.44468</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7228869999999999</v>
+        <v>0.762293</v>
       </c>
       <c r="F137" t="n">
-        <v>3.31485</v>
+        <v>3.54045</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.869004</v>
+        <v>0.923336</v>
       </c>
       <c r="C138" t="n">
-        <v>3.5902</v>
+        <v>3.9361</v>
       </c>
       <c r="D138" t="n">
-        <v>3.09092</v>
+        <v>3.39189</v>
       </c>
       <c r="E138" t="n">
-        <v>0.717319</v>
+        <v>0.770096</v>
       </c>
       <c r="F138" t="n">
-        <v>3.30309</v>
+        <v>3.52821</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.832659</v>
+        <v>0.917445</v>
       </c>
       <c r="C139" t="n">
-        <v>3.50737</v>
+        <v>3.87258</v>
       </c>
       <c r="D139" t="n">
-        <v>3.05248</v>
+        <v>3.34142</v>
       </c>
       <c r="E139" t="n">
-        <v>0.71373</v>
+        <v>0.746559</v>
       </c>
       <c r="F139" t="n">
-        <v>3.2912</v>
+        <v>3.51836</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.864725</v>
+        <v>0.901536</v>
       </c>
       <c r="C140" t="n">
-        <v>3.49306</v>
+        <v>3.85512</v>
       </c>
       <c r="D140" t="n">
-        <v>3.01277</v>
+        <v>3.31115</v>
       </c>
       <c r="E140" t="n">
-        <v>0.711181</v>
+        <v>0.738876</v>
       </c>
       <c r="F140" t="n">
-        <v>3.27499</v>
+        <v>3.50474</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.847248</v>
+        <v>0.903406</v>
       </c>
       <c r="C141" t="n">
-        <v>3.47501</v>
+        <v>3.83599</v>
       </c>
       <c r="D141" t="n">
-        <v>2.9874</v>
+        <v>3.26667</v>
       </c>
       <c r="E141" t="n">
-        <v>0.706557</v>
+        <v>0.7406199999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>3.2584</v>
+        <v>3.48513</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.853939</v>
+        <v>0.887108</v>
       </c>
       <c r="C142" t="n">
-        <v>3.4558</v>
+        <v>3.80977</v>
       </c>
       <c r="D142" t="n">
-        <v>2.96047</v>
+        <v>3.24928</v>
       </c>
       <c r="E142" t="n">
-        <v>0.720809</v>
+        <v>0.729013</v>
       </c>
       <c r="F142" t="n">
-        <v>3.24335</v>
+        <v>3.47815</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.835917</v>
+        <v>0.884777</v>
       </c>
       <c r="C143" t="n">
-        <v>3.43877</v>
+        <v>3.79354</v>
       </c>
       <c r="D143" t="n">
-        <v>2.94192</v>
+        <v>3.22862</v>
       </c>
       <c r="E143" t="n">
-        <v>0.717707</v>
+        <v>0.731097</v>
       </c>
       <c r="F143" t="n">
-        <v>3.22643</v>
+        <v>3.46263</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.254243</v>
+        <v>0.254949</v>
       </c>
       <c r="C2" t="n">
-        <v>0.416735</v>
+        <v>0.416574</v>
       </c>
       <c r="D2" t="n">
-        <v>0.574263</v>
+        <v>0.575309</v>
       </c>
       <c r="E2" t="n">
-        <v>0.208208</v>
+        <v>0.198857</v>
       </c>
       <c r="F2" t="n">
-        <v>0.385447</v>
+        <v>0.382364</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243041</v>
+        <v>0.243582</v>
       </c>
       <c r="C3" t="n">
-        <v>0.420019</v>
+        <v>0.41125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.56633</v>
+        <v>0.567217</v>
       </c>
       <c r="E3" t="n">
-        <v>0.201101</v>
+        <v>0.191918</v>
       </c>
       <c r="F3" t="n">
-        <v>0.378794</v>
+        <v>0.37485</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239917</v>
+        <v>0.24027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.412885</v>
+        <v>0.404859</v>
       </c>
       <c r="D4" t="n">
-        <v>0.557993</v>
+        <v>0.557972</v>
       </c>
       <c r="E4" t="n">
-        <v>0.195689</v>
+        <v>0.186442</v>
       </c>
       <c r="F4" t="n">
-        <v>0.37305</v>
+        <v>0.369995</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237089</v>
+        <v>0.245111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.406562</v>
+        <v>0.399048</v>
       </c>
       <c r="D5" t="n">
-        <v>0.552086</v>
+        <v>0.553298</v>
       </c>
       <c r="E5" t="n">
-        <v>0.19114</v>
+        <v>0.180549</v>
       </c>
       <c r="F5" t="n">
-        <v>0.368084</v>
+        <v>0.364891</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.228544</v>
+        <v>0.236119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.40492</v>
+        <v>0.395397</v>
       </c>
       <c r="D6" t="n">
-        <v>0.546995</v>
+        <v>0.547196</v>
       </c>
       <c r="E6" t="n">
-        <v>0.188223</v>
+        <v>0.177152</v>
       </c>
       <c r="F6" t="n">
-        <v>0.364679</v>
+        <v>0.361568</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226288</v>
+        <v>0.23473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.40206</v>
+        <v>0.391391</v>
       </c>
       <c r="D7" t="n">
-        <v>0.708923</v>
+        <v>0.706846</v>
       </c>
       <c r="E7" t="n">
-        <v>0.185202</v>
+        <v>0.174706</v>
       </c>
       <c r="F7" t="n">
-        <v>0.362502</v>
+        <v>0.358986</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226612</v>
+        <v>0.23118</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398422</v>
+        <v>0.389486</v>
       </c>
       <c r="D8" t="n">
-        <v>0.695574</v>
+        <v>0.69102</v>
       </c>
       <c r="E8" t="n">
-        <v>0.187281</v>
+        <v>0.178647</v>
       </c>
       <c r="F8" t="n">
-        <v>0.362521</v>
+        <v>0.359063</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226014</v>
+        <v>0.23162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.39671</v>
+        <v>0.389282</v>
       </c>
       <c r="D9" t="n">
-        <v>0.677567</v>
+        <v>0.675992</v>
       </c>
       <c r="E9" t="n">
-        <v>0.278781</v>
+        <v>0.269648</v>
       </c>
       <c r="F9" t="n">
-        <v>0.451485</v>
+        <v>0.442352</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314617</v>
+        <v>0.317725</v>
       </c>
       <c r="C10" t="n">
-        <v>0.481018</v>
+        <v>0.47787</v>
       </c>
       <c r="D10" t="n">
-        <v>0.664679</v>
+        <v>0.6614100000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.267471</v>
+        <v>0.260086</v>
       </c>
       <c r="F10" t="n">
-        <v>0.440695</v>
+        <v>0.432061</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.315191</v>
+        <v>0.303872</v>
       </c>
       <c r="C11" t="n">
-        <v>0.470044</v>
+        <v>0.467523</v>
       </c>
       <c r="D11" t="n">
-        <v>0.652693</v>
+        <v>0.648387</v>
       </c>
       <c r="E11" t="n">
-        <v>0.258977</v>
+        <v>0.250371</v>
       </c>
       <c r="F11" t="n">
-        <v>0.431423</v>
+        <v>0.422942</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.293328</v>
+        <v>0.296551</v>
       </c>
       <c r="C12" t="n">
-        <v>0.460505</v>
+        <v>0.457774</v>
       </c>
       <c r="D12" t="n">
-        <v>0.640203</v>
+        <v>0.637279</v>
       </c>
       <c r="E12" t="n">
-        <v>0.250975</v>
+        <v>0.243006</v>
       </c>
       <c r="F12" t="n">
-        <v>0.422027</v>
+        <v>0.414864</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286519</v>
+        <v>0.290416</v>
       </c>
       <c r="C13" t="n">
-        <v>0.450951</v>
+        <v>0.448997</v>
       </c>
       <c r="D13" t="n">
-        <v>0.628493</v>
+        <v>0.6282</v>
       </c>
       <c r="E13" t="n">
-        <v>0.243855</v>
+        <v>0.234616</v>
       </c>
       <c r="F13" t="n">
-        <v>0.413386</v>
+        <v>0.406139</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275953</v>
+        <v>0.281272</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441698</v>
+        <v>0.440163</v>
       </c>
       <c r="D14" t="n">
-        <v>0.623489</v>
+        <v>0.621294</v>
       </c>
       <c r="E14" t="n">
-        <v>0.236281</v>
+        <v>0.226442</v>
       </c>
       <c r="F14" t="n">
-        <v>0.40502</v>
+        <v>0.398264</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.272625</v>
+        <v>0.279048</v>
       </c>
       <c r="C15" t="n">
-        <v>0.434621</v>
+        <v>0.432558</v>
       </c>
       <c r="D15" t="n">
-        <v>0.612347</v>
+        <v>0.608702</v>
       </c>
       <c r="E15" t="n">
-        <v>0.229603</v>
+        <v>0.221644</v>
       </c>
       <c r="F15" t="n">
-        <v>0.397438</v>
+        <v>0.39105</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.26543</v>
+        <v>0.267281</v>
       </c>
       <c r="C16" t="n">
-        <v>0.427848</v>
+        <v>0.426053</v>
       </c>
       <c r="D16" t="n">
-        <v>0.605208</v>
+        <v>0.6034620000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.224333</v>
+        <v>0.215016</v>
       </c>
       <c r="F16" t="n">
-        <v>0.390339</v>
+        <v>0.384636</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.265402</v>
+        <v>0.266895</v>
       </c>
       <c r="C17" t="n">
-        <v>0.423222</v>
+        <v>0.419655</v>
       </c>
       <c r="D17" t="n">
-        <v>0.597863</v>
+        <v>0.596952</v>
       </c>
       <c r="E17" t="n">
-        <v>0.218604</v>
+        <v>0.208696</v>
       </c>
       <c r="F17" t="n">
-        <v>0.383274</v>
+        <v>0.378212</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254965</v>
+        <v>0.25436</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416292</v>
+        <v>0.414586</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585372</v>
+        <v>0.587822</v>
       </c>
       <c r="E18" t="n">
-        <v>0.212367</v>
+        <v>0.203918</v>
       </c>
       <c r="F18" t="n">
-        <v>0.377466</v>
+        <v>0.371983</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.245632</v>
+        <v>0.250317</v>
       </c>
       <c r="C19" t="n">
-        <v>0.411115</v>
+        <v>0.408407</v>
       </c>
       <c r="D19" t="n">
-        <v>0.579197</v>
+        <v>0.579798</v>
       </c>
       <c r="E19" t="n">
-        <v>0.207925</v>
+        <v>0.199741</v>
       </c>
       <c r="F19" t="n">
-        <v>0.37376</v>
+        <v>0.369335</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244967</v>
+        <v>0.247162</v>
       </c>
       <c r="C20" t="n">
-        <v>0.407196</v>
+        <v>0.404425</v>
       </c>
       <c r="D20" t="n">
-        <v>0.576402</v>
+        <v>0.576365</v>
       </c>
       <c r="E20" t="n">
-        <v>0.204964</v>
+        <v>0.19668</v>
       </c>
       <c r="F20" t="n">
-        <v>0.369403</v>
+        <v>0.364722</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239482</v>
+        <v>0.244397</v>
       </c>
       <c r="C21" t="n">
-        <v>0.401977</v>
+        <v>0.399473</v>
       </c>
       <c r="D21" t="n">
-        <v>0.765652</v>
+        <v>0.762228</v>
       </c>
       <c r="E21" t="n">
-        <v>0.204435</v>
+        <v>0.195703</v>
       </c>
       <c r="F21" t="n">
-        <v>0.366874</v>
+        <v>0.362479</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.244064</v>
+        <v>0.244361</v>
       </c>
       <c r="C22" t="n">
-        <v>0.400508</v>
+        <v>0.396674</v>
       </c>
       <c r="D22" t="n">
-        <v>0.746958</v>
+        <v>0.746008</v>
       </c>
       <c r="E22" t="n">
-        <v>0.20462</v>
+        <v>0.196736</v>
       </c>
       <c r="F22" t="n">
-        <v>0.367137</v>
+        <v>0.363645</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.245607</v>
+        <v>0.23707</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3988</v>
+        <v>0.396149</v>
       </c>
       <c r="D23" t="n">
-        <v>0.738127</v>
+        <v>0.732719</v>
       </c>
       <c r="E23" t="n">
-        <v>0.29852</v>
+        <v>0.289316</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461853</v>
+        <v>0.451118</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.321466</v>
+        <v>0.319252</v>
       </c>
       <c r="C24" t="n">
-        <v>0.489269</v>
+        <v>0.488969</v>
       </c>
       <c r="D24" t="n">
-        <v>0.715265</v>
+        <v>0.716441</v>
       </c>
       <c r="E24" t="n">
-        <v>0.285835</v>
+        <v>0.277726</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451487</v>
+        <v>0.440682</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.313079</v>
+        <v>0.311737</v>
       </c>
       <c r="C25" t="n">
-        <v>0.479336</v>
+        <v>0.479937</v>
       </c>
       <c r="D25" t="n">
-        <v>0.70138</v>
+        <v>0.701959</v>
       </c>
       <c r="E25" t="n">
-        <v>0.276129</v>
+        <v>0.268776</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441061</v>
+        <v>0.431017</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.302882</v>
+        <v>0.304294</v>
       </c>
       <c r="C26" t="n">
-        <v>0.471928</v>
+        <v>0.471158</v>
       </c>
       <c r="D26" t="n">
-        <v>0.690419</v>
+        <v>0.687111</v>
       </c>
       <c r="E26" t="n">
-        <v>0.269331</v>
+        <v>0.259689</v>
       </c>
       <c r="F26" t="n">
-        <v>0.432307</v>
+        <v>0.421834</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294338</v>
+        <v>0.296758</v>
       </c>
       <c r="C27" t="n">
-        <v>0.463385</v>
+        <v>0.460627</v>
       </c>
       <c r="D27" t="n">
-        <v>0.678958</v>
+        <v>0.67665</v>
       </c>
       <c r="E27" t="n">
-        <v>0.259641</v>
+        <v>0.252804</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423145</v>
+        <v>0.413553</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.28839</v>
+        <v>0.288229</v>
       </c>
       <c r="C28" t="n">
-        <v>0.456135</v>
+        <v>0.455248</v>
       </c>
       <c r="D28" t="n">
-        <v>0.669781</v>
+        <v>0.665901</v>
       </c>
       <c r="E28" t="n">
-        <v>0.252151</v>
+        <v>0.244132</v>
       </c>
       <c r="F28" t="n">
-        <v>0.415044</v>
+        <v>0.405602</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284574</v>
+        <v>0.280382</v>
       </c>
       <c r="C29" t="n">
-        <v>0.448014</v>
+        <v>0.447729</v>
       </c>
       <c r="D29" t="n">
-        <v>0.656578</v>
+        <v>0.659319</v>
       </c>
       <c r="E29" t="n">
-        <v>0.245058</v>
+        <v>0.235661</v>
       </c>
       <c r="F29" t="n">
-        <v>0.407064</v>
+        <v>0.398705</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274449</v>
+        <v>0.278897</v>
       </c>
       <c r="C30" t="n">
-        <v>0.441485</v>
+        <v>0.439888</v>
       </c>
       <c r="D30" t="n">
-        <v>0.646554</v>
+        <v>0.648774</v>
       </c>
       <c r="E30" t="n">
-        <v>0.238754</v>
+        <v>0.229044</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399618</v>
+        <v>0.391603</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268083</v>
+        <v>0.26782</v>
       </c>
       <c r="C31" t="n">
-        <v>0.434888</v>
+        <v>0.433497</v>
       </c>
       <c r="D31" t="n">
-        <v>0.638038</v>
+        <v>0.639925</v>
       </c>
       <c r="E31" t="n">
-        <v>0.231696</v>
+        <v>0.22291</v>
       </c>
       <c r="F31" t="n">
-        <v>0.392449</v>
+        <v>0.384125</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.259717</v>
+        <v>0.260505</v>
       </c>
       <c r="C32" t="n">
-        <v>0.428413</v>
+        <v>0.426463</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6316850000000001</v>
+        <v>0.634943</v>
       </c>
       <c r="E32" t="n">
-        <v>0.227007</v>
+        <v>0.216894</v>
       </c>
       <c r="F32" t="n">
-        <v>0.386656</v>
+        <v>0.378984</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.253757</v>
+        <v>0.256434</v>
       </c>
       <c r="C33" t="n">
-        <v>0.42184</v>
+        <v>0.418528</v>
       </c>
       <c r="D33" t="n">
-        <v>0.626007</v>
+        <v>0.627161</v>
       </c>
       <c r="E33" t="n">
-        <v>0.222628</v>
+        <v>0.211622</v>
       </c>
       <c r="F33" t="n">
-        <v>0.380901</v>
+        <v>0.373542</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248764</v>
+        <v>0.251873</v>
       </c>
       <c r="C34" t="n">
-        <v>0.415598</v>
+        <v>0.415394</v>
       </c>
       <c r="D34" t="n">
-        <v>0.619398</v>
+        <v>0.620331</v>
       </c>
       <c r="E34" t="n">
-        <v>0.217895</v>
+        <v>0.208586</v>
       </c>
       <c r="F34" t="n">
-        <v>0.376633</v>
+        <v>0.36977</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248426</v>
+        <v>0.250312</v>
       </c>
       <c r="C35" t="n">
-        <v>0.41586</v>
+        <v>0.412562</v>
       </c>
       <c r="D35" t="n">
-        <v>0.817875</v>
+        <v>0.817581</v>
       </c>
       <c r="E35" t="n">
-        <v>0.216589</v>
+        <v>0.206667</v>
       </c>
       <c r="F35" t="n">
-        <v>0.373845</v>
+        <v>0.367385</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244856</v>
+        <v>0.243999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.412031</v>
+        <v>0.406451</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7993710000000001</v>
+        <v>0.798903</v>
       </c>
       <c r="E36" t="n">
-        <v>0.214233</v>
+        <v>0.204422</v>
       </c>
       <c r="F36" t="n">
-        <v>0.372899</v>
+        <v>0.366671</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.241743</v>
+        <v>0.243285</v>
       </c>
       <c r="C37" t="n">
-        <v>0.410536</v>
+        <v>0.405514</v>
       </c>
       <c r="D37" t="n">
-        <v>0.781717</v>
+        <v>0.781641</v>
       </c>
       <c r="E37" t="n">
-        <v>0.309642</v>
+        <v>0.300044</v>
       </c>
       <c r="F37" t="n">
-        <v>0.470812</v>
+        <v>0.457084</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.329474</v>
+        <v>0.328243</v>
       </c>
       <c r="C38" t="n">
-        <v>0.506965</v>
+        <v>0.513983</v>
       </c>
       <c r="D38" t="n">
-        <v>0.764858</v>
+        <v>0.765724</v>
       </c>
       <c r="E38" t="n">
-        <v>0.299505</v>
+        <v>0.28736</v>
       </c>
       <c r="F38" t="n">
-        <v>0.460634</v>
+        <v>0.447193</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318374</v>
+        <v>0.320299</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501729</v>
+        <v>0.517443</v>
       </c>
       <c r="D39" t="n">
-        <v>0.75007</v>
+        <v>0.750678</v>
       </c>
       <c r="E39" t="n">
-        <v>0.28903</v>
+        <v>0.277925</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451923</v>
+        <v>0.43748</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.311633</v>
+        <v>0.313992</v>
       </c>
       <c r="C40" t="n">
-        <v>0.492654</v>
+        <v>0.506605</v>
       </c>
       <c r="D40" t="n">
-        <v>0.735791</v>
+        <v>0.736737</v>
       </c>
       <c r="E40" t="n">
-        <v>0.27896</v>
+        <v>0.268869</v>
       </c>
       <c r="F40" t="n">
-        <v>0.44463</v>
+        <v>0.432388</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302448</v>
+        <v>0.304269</v>
       </c>
       <c r="C41" t="n">
-        <v>0.483424</v>
+        <v>0.497926</v>
       </c>
       <c r="D41" t="n">
-        <v>0.722261</v>
+        <v>0.722895</v>
       </c>
       <c r="E41" t="n">
-        <v>0.271824</v>
+        <v>0.260786</v>
       </c>
       <c r="F41" t="n">
-        <v>0.435445</v>
+        <v>0.423773</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.297642</v>
+        <v>0.299762</v>
       </c>
       <c r="C42" t="n">
-        <v>0.474364</v>
+        <v>0.484289</v>
       </c>
       <c r="D42" t="n">
-        <v>0.711786</v>
+        <v>0.711682</v>
       </c>
       <c r="E42" t="n">
-        <v>0.264415</v>
+        <v>0.253759</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427225</v>
+        <v>0.416352</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.291373</v>
+        <v>0.289</v>
       </c>
       <c r="C43" t="n">
-        <v>0.466612</v>
+        <v>0.475149</v>
       </c>
       <c r="D43" t="n">
-        <v>0.700499</v>
+        <v>0.700893</v>
       </c>
       <c r="E43" t="n">
-        <v>0.255862</v>
+        <v>0.245179</v>
       </c>
       <c r="F43" t="n">
-        <v>0.420377</v>
+        <v>0.410528</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.286887</v>
+        <v>0.282079</v>
       </c>
       <c r="C44" t="n">
-        <v>0.45818</v>
+        <v>0.469163</v>
       </c>
       <c r="D44" t="n">
-        <v>0.690591</v>
+        <v>0.691236</v>
       </c>
       <c r="E44" t="n">
-        <v>0.249181</v>
+        <v>0.237962</v>
       </c>
       <c r="F44" t="n">
-        <v>0.412913</v>
+        <v>0.404075</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.278778</v>
+        <v>0.28768</v>
       </c>
       <c r="C45" t="n">
-        <v>0.450835</v>
+        <v>0.458265</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6828920000000001</v>
+        <v>0.683412</v>
       </c>
       <c r="E45" t="n">
-        <v>0.244437</v>
+        <v>0.231316</v>
       </c>
       <c r="F45" t="n">
-        <v>0.405868</v>
+        <v>0.400006</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.274641</v>
+        <v>0.268113</v>
       </c>
       <c r="C46" t="n">
-        <v>0.444503</v>
+        <v>0.449107</v>
       </c>
       <c r="D46" t="n">
-        <v>0.674596</v>
+        <v>0.674884</v>
       </c>
       <c r="E46" t="n">
-        <v>0.237939</v>
+        <v>0.224789</v>
       </c>
       <c r="F46" t="n">
-        <v>0.39959</v>
+        <v>0.393579</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262398</v>
+        <v>0.261796</v>
       </c>
       <c r="C47" t="n">
-        <v>0.437891</v>
+        <v>0.438613</v>
       </c>
       <c r="D47" t="n">
-        <v>0.667256</v>
+        <v>0.668714</v>
       </c>
       <c r="E47" t="n">
-        <v>0.231513</v>
+        <v>0.219909</v>
       </c>
       <c r="F47" t="n">
-        <v>0.394756</v>
+        <v>0.388432</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.264171</v>
+        <v>0.258551</v>
       </c>
       <c r="C48" t="n">
-        <v>0.432631</v>
+        <v>0.436667</v>
       </c>
       <c r="D48" t="n">
-        <v>0.660874</v>
+        <v>0.6619930000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.227516</v>
+        <v>0.215292</v>
       </c>
       <c r="F48" t="n">
-        <v>0.390317</v>
+        <v>0.38395</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255564</v>
+        <v>0.257935</v>
       </c>
       <c r="C49" t="n">
-        <v>0.428841</v>
+        <v>0.430012</v>
       </c>
       <c r="D49" t="n">
-        <v>0.655853</v>
+        <v>0.656596</v>
       </c>
       <c r="E49" t="n">
-        <v>0.224982</v>
+        <v>0.2124</v>
       </c>
       <c r="F49" t="n">
-        <v>0.387004</v>
+        <v>0.380916</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.254481</v>
+        <v>0.254423</v>
       </c>
       <c r="C50" t="n">
-        <v>0.425594</v>
+        <v>0.42647</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8450260000000001</v>
+        <v>0.845896</v>
       </c>
       <c r="E50" t="n">
-        <v>0.222637</v>
+        <v>0.210936</v>
       </c>
       <c r="F50" t="n">
-        <v>0.385198</v>
+        <v>0.379738</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.253886</v>
+        <v>0.26109</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422974</v>
+        <v>0.424529</v>
       </c>
       <c r="D51" t="n">
-        <v>0.825866</v>
+        <v>0.826713</v>
       </c>
       <c r="E51" t="n">
-        <v>0.323545</v>
+        <v>0.310457</v>
       </c>
       <c r="F51" t="n">
-        <v>0.489727</v>
+        <v>0.478745</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.248862</v>
+        <v>0.2605</v>
       </c>
       <c r="C52" t="n">
-        <v>0.42338</v>
+        <v>0.425245</v>
       </c>
       <c r="D52" t="n">
-        <v>0.808235</v>
+        <v>0.809064</v>
       </c>
       <c r="E52" t="n">
-        <v>0.314814</v>
+        <v>0.301437</v>
       </c>
       <c r="F52" t="n">
-        <v>0.480099</v>
+        <v>0.47035</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34103</v>
+        <v>0.340145</v>
       </c>
       <c r="C53" t="n">
-        <v>0.535948</v>
+        <v>0.524473</v>
       </c>
       <c r="D53" t="n">
-        <v>0.791561</v>
+        <v>0.792367</v>
       </c>
       <c r="E53" t="n">
-        <v>0.306257</v>
+        <v>0.29259</v>
       </c>
       <c r="F53" t="n">
-        <v>0.470311</v>
+        <v>0.461707</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.327505</v>
+        <v>0.329194</v>
       </c>
       <c r="C54" t="n">
-        <v>0.525438</v>
+        <v>0.518517</v>
       </c>
       <c r="D54" t="n">
-        <v>0.775513</v>
+        <v>0.77635</v>
       </c>
       <c r="E54" t="n">
-        <v>0.297792</v>
+        <v>0.283586</v>
       </c>
       <c r="F54" t="n">
-        <v>0.46124</v>
+        <v>0.453404</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.323686</v>
+        <v>0.324142</v>
       </c>
       <c r="C55" t="n">
-        <v>0.517223</v>
+        <v>0.506219</v>
       </c>
       <c r="D55" t="n">
-        <v>0.762628</v>
+        <v>0.763593</v>
       </c>
       <c r="E55" t="n">
-        <v>0.290302</v>
+        <v>0.274748</v>
       </c>
       <c r="F55" t="n">
-        <v>0.453244</v>
+        <v>0.445802</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.314152</v>
+        <v>0.319881</v>
       </c>
       <c r="C56" t="n">
-        <v>0.506866</v>
+        <v>0.497176</v>
       </c>
       <c r="D56" t="n">
-        <v>0.749763</v>
+        <v>0.750951</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2803</v>
+        <v>0.266148</v>
       </c>
       <c r="F56" t="n">
-        <v>0.444929</v>
+        <v>0.43885</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.303458</v>
+        <v>0.307528</v>
       </c>
       <c r="C57" t="n">
-        <v>0.499267</v>
+        <v>0.490504</v>
       </c>
       <c r="D57" t="n">
-        <v>0.73795</v>
+        <v>0.739721</v>
       </c>
       <c r="E57" t="n">
-        <v>0.273346</v>
+        <v>0.2597</v>
       </c>
       <c r="F57" t="n">
-        <v>0.438166</v>
+        <v>0.431632</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.299017</v>
+        <v>0.30201</v>
       </c>
       <c r="C58" t="n">
-        <v>0.494339</v>
+        <v>0.483117</v>
       </c>
       <c r="D58" t="n">
-        <v>0.727367</v>
+        <v>0.728815</v>
       </c>
       <c r="E58" t="n">
-        <v>0.264904</v>
+        <v>0.251685</v>
       </c>
       <c r="F58" t="n">
-        <v>0.430972</v>
+        <v>0.424615</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295136</v>
+        <v>0.295685</v>
       </c>
       <c r="C59" t="n">
-        <v>0.485555</v>
+        <v>0.476792</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7178020000000001</v>
+        <v>0.719023</v>
       </c>
       <c r="E59" t="n">
-        <v>0.261079</v>
+        <v>0.244306</v>
       </c>
       <c r="F59" t="n">
-        <v>0.425007</v>
+        <v>0.418115</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.286763</v>
+        <v>0.28607</v>
       </c>
       <c r="C60" t="n">
-        <v>0.48055</v>
+        <v>0.469538</v>
       </c>
       <c r="D60" t="n">
-        <v>0.70947</v>
+        <v>0.710523</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254763</v>
+        <v>0.238938</v>
       </c>
       <c r="F60" t="n">
-        <v>0.419674</v>
+        <v>0.412992</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.28187</v>
+        <v>0.282433</v>
       </c>
       <c r="C61" t="n">
-        <v>0.474055</v>
+        <v>0.465296</v>
       </c>
       <c r="D61" t="n">
-        <v>0.701766</v>
+        <v>0.7018799999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.249622</v>
+        <v>0.234242</v>
       </c>
       <c r="F61" t="n">
-        <v>0.413865</v>
+        <v>0.408478</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.279049</v>
+        <v>0.274314</v>
       </c>
       <c r="C62" t="n">
-        <v>0.468214</v>
+        <v>0.459105</v>
       </c>
       <c r="D62" t="n">
-        <v>0.694327</v>
+        <v>0.694352</v>
       </c>
       <c r="E62" t="n">
-        <v>0.244869</v>
+        <v>0.229585</v>
       </c>
       <c r="F62" t="n">
-        <v>0.411992</v>
+        <v>0.403903</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.276712</v>
+        <v>0.275308</v>
       </c>
       <c r="C63" t="n">
-        <v>0.464126</v>
+        <v>0.454192</v>
       </c>
       <c r="D63" t="n">
-        <v>0.688097</v>
+        <v>0.688773</v>
       </c>
       <c r="E63" t="n">
-        <v>0.240669</v>
+        <v>0.226961</v>
       </c>
       <c r="F63" t="n">
-        <v>0.40917</v>
+        <v>0.401254</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.271371</v>
+        <v>0.271717</v>
       </c>
       <c r="C64" t="n">
-        <v>0.460098</v>
+        <v>0.449827</v>
       </c>
       <c r="D64" t="n">
-        <v>0.902219</v>
+        <v>0.907647</v>
       </c>
       <c r="E64" t="n">
-        <v>0.238707</v>
+        <v>0.223904</v>
       </c>
       <c r="F64" t="n">
-        <v>0.407973</v>
+        <v>0.399757</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268564</v>
+        <v>0.269472</v>
       </c>
       <c r="C65" t="n">
-        <v>0.459111</v>
+        <v>0.448807</v>
       </c>
       <c r="D65" t="n">
-        <v>0.882526</v>
+        <v>0.88691</v>
       </c>
       <c r="E65" t="n">
-        <v>0.239695</v>
+        <v>0.224674</v>
       </c>
       <c r="F65" t="n">
-        <v>0.409343</v>
+        <v>0.399499</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26969</v>
+        <v>0.265474</v>
       </c>
       <c r="C66" t="n">
-        <v>0.455964</v>
+        <v>0.447628</v>
       </c>
       <c r="D66" t="n">
-        <v>0.863023</v>
+        <v>0.867996</v>
       </c>
       <c r="E66" t="n">
-        <v>0.337482</v>
+        <v>0.324855</v>
       </c>
       <c r="F66" t="n">
-        <v>0.519489</v>
+        <v>0.504737</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.395093</v>
+        <v>0.394721</v>
       </c>
       <c r="C67" t="n">
-        <v>0.602135</v>
+        <v>0.598857</v>
       </c>
       <c r="D67" t="n">
-        <v>0.845179</v>
+        <v>0.849379</v>
       </c>
       <c r="E67" t="n">
-        <v>0.333179</v>
+        <v>0.313379</v>
       </c>
       <c r="F67" t="n">
-        <v>0.51225</v>
+        <v>0.497341</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.412222</v>
+        <v>0.404806</v>
       </c>
       <c r="C68" t="n">
-        <v>0.594467</v>
+        <v>0.590305</v>
       </c>
       <c r="D68" t="n">
-        <v>0.828873</v>
+        <v>0.8334510000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>0.321235</v>
+        <v>0.311636</v>
       </c>
       <c r="F68" t="n">
-        <v>0.505447</v>
+        <v>0.487896</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.385574</v>
+        <v>0.391225</v>
       </c>
       <c r="C69" t="n">
-        <v>0.585128</v>
+        <v>0.5805399999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.814239</v>
+        <v>0.81889</v>
       </c>
       <c r="E69" t="n">
-        <v>0.313538</v>
+        <v>0.302306</v>
       </c>
       <c r="F69" t="n">
-        <v>0.498047</v>
+        <v>0.483887</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.394964</v>
+        <v>0.369748</v>
       </c>
       <c r="C70" t="n">
-        <v>0.578105</v>
+        <v>0.5752930000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.802321</v>
+        <v>0.806745</v>
       </c>
       <c r="E70" t="n">
-        <v>0.309712</v>
+        <v>0.2921</v>
       </c>
       <c r="F70" t="n">
-        <v>0.490221</v>
+        <v>0.476912</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.367309</v>
+        <v>0.379767</v>
       </c>
       <c r="C71" t="n">
-        <v>0.570569</v>
+        <v>0.568205</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7919850000000001</v>
+        <v>0.795106</v>
       </c>
       <c r="E71" t="n">
-        <v>0.299179</v>
+        <v>0.281988</v>
       </c>
       <c r="F71" t="n">
-        <v>0.483081</v>
+        <v>0.470521</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.363214</v>
+        <v>0.37069</v>
       </c>
       <c r="C72" t="n">
-        <v>0.56284</v>
+        <v>0.559634</v>
       </c>
       <c r="D72" t="n">
-        <v>0.783107</v>
+        <v>0.786247</v>
       </c>
       <c r="E72" t="n">
-        <v>0.294778</v>
+        <v>0.274317</v>
       </c>
       <c r="F72" t="n">
-        <v>0.477338</v>
+        <v>0.464578</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.373048</v>
+        <v>0.341199</v>
       </c>
       <c r="C73" t="n">
-        <v>0.556496</v>
+        <v>0.554446</v>
       </c>
       <c r="D73" t="n">
-        <v>0.77585</v>
+        <v>0.778358</v>
       </c>
       <c r="E73" t="n">
-        <v>0.287676</v>
+        <v>0.269089</v>
       </c>
       <c r="F73" t="n">
-        <v>0.472165</v>
+        <v>0.458601</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.365654</v>
+        <v>0.35676</v>
       </c>
       <c r="C74" t="n">
-        <v>0.554168</v>
+        <v>0.545013</v>
       </c>
       <c r="D74" t="n">
-        <v>0.770469</v>
+        <v>0.772161</v>
       </c>
       <c r="E74" t="n">
-        <v>0.281985</v>
+        <v>0.262459</v>
       </c>
       <c r="F74" t="n">
-        <v>0.46712</v>
+        <v>0.453106</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.368949</v>
+        <v>0.34439</v>
       </c>
       <c r="C75" t="n">
-        <v>0.543838</v>
+        <v>0.549273</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7669010000000001</v>
+        <v>0.767317</v>
       </c>
       <c r="E75" t="n">
-        <v>0.272481</v>
+        <v>0.256843</v>
       </c>
       <c r="F75" t="n">
-        <v>0.46227</v>
+        <v>0.4497</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.349639</v>
+        <v>0.354462</v>
       </c>
       <c r="C76" t="n">
-        <v>0.543453</v>
+        <v>0.540443</v>
       </c>
       <c r="D76" t="n">
-        <v>0.764419</v>
+        <v>0.764937</v>
       </c>
       <c r="E76" t="n">
-        <v>0.274245</v>
+        <v>0.251195</v>
       </c>
       <c r="F76" t="n">
-        <v>0.459093</v>
+        <v>0.446162</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.342149</v>
+        <v>0.333171</v>
       </c>
       <c r="C77" t="n">
-        <v>0.539332</v>
+        <v>0.537738</v>
       </c>
       <c r="D77" t="n">
-        <v>0.763713</v>
+        <v>0.763834</v>
       </c>
       <c r="E77" t="n">
-        <v>0.264661</v>
+        <v>0.248476</v>
       </c>
       <c r="F77" t="n">
-        <v>0.45671</v>
+        <v>0.444343</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.334323</v>
+        <v>0.348257</v>
       </c>
       <c r="C78" t="n">
-        <v>0.535031</v>
+        <v>0.531667</v>
       </c>
       <c r="D78" t="n">
-        <v>1.22638</v>
+        <v>1.2275</v>
       </c>
       <c r="E78" t="n">
-        <v>0.26542</v>
+        <v>0.24373</v>
       </c>
       <c r="F78" t="n">
-        <v>0.455259</v>
+        <v>0.443026</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.330153</v>
+        <v>0.324649</v>
       </c>
       <c r="C79" t="n">
-        <v>0.535798</v>
+        <v>0.531736</v>
       </c>
       <c r="D79" t="n">
-        <v>1.20386</v>
+        <v>1.20353</v>
       </c>
       <c r="E79" t="n">
-        <v>0.260028</v>
+        <v>0.245551</v>
       </c>
       <c r="F79" t="n">
-        <v>0.456248</v>
+        <v>0.443613</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.321414</v>
+        <v>0.323071</v>
       </c>
       <c r="C80" t="n">
-        <v>0.535762</v>
+        <v>0.535887</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18535</v>
+        <v>1.1844</v>
       </c>
       <c r="E80" t="n">
-        <v>0.384395</v>
+        <v>0.370579</v>
       </c>
       <c r="F80" t="n">
-        <v>0.743368</v>
+        <v>0.709808</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.467185</v>
+        <v>0.429506</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8530450000000001</v>
+        <v>0.856751</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1687</v>
+        <v>1.16431</v>
       </c>
       <c r="E81" t="n">
-        <v>0.378557</v>
+        <v>0.358144</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7455079999999999</v>
+        <v>0.7115089999999999</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.437776</v>
+        <v>0.431752</v>
       </c>
       <c r="C82" t="n">
-        <v>0.864017</v>
+        <v>0.861623</v>
       </c>
       <c r="D82" t="n">
-        <v>1.1544</v>
+        <v>1.15171</v>
       </c>
       <c r="E82" t="n">
-        <v>0.371974</v>
+        <v>0.355201</v>
       </c>
       <c r="F82" t="n">
-        <v>0.741163</v>
+        <v>0.717121</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.429204</v>
+        <v>0.457156</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8607359999999999</v>
+        <v>0.860214</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14627</v>
+        <v>1.13953</v>
       </c>
       <c r="E83" t="n">
-        <v>0.363677</v>
+        <v>0.343471</v>
       </c>
       <c r="F83" t="n">
-        <v>0.733532</v>
+        <v>0.707203</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.437691</v>
+        <v>0.459711</v>
       </c>
       <c r="C84" t="n">
-        <v>0.851949</v>
+        <v>0.851473</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1386</v>
+        <v>1.13093</v>
       </c>
       <c r="E84" t="n">
-        <v>0.35592</v>
+        <v>0.337159</v>
       </c>
       <c r="F84" t="n">
-        <v>0.723036</v>
+        <v>0.6950539999999999</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.413841</v>
+        <v>0.428514</v>
       </c>
       <c r="C85" t="n">
-        <v>0.842291</v>
+        <v>0.8344279999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13302</v>
+        <v>1.12839</v>
       </c>
       <c r="E85" t="n">
-        <v>0.346259</v>
+        <v>0.330742</v>
       </c>
       <c r="F85" t="n">
-        <v>0.710993</v>
+        <v>0.685221</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.425946</v>
+        <v>0.433817</v>
       </c>
       <c r="C86" t="n">
-        <v>0.833052</v>
+        <v>0.826962</v>
       </c>
       <c r="D86" t="n">
-        <v>1.12967</v>
+        <v>1.12603</v>
       </c>
       <c r="E86" t="n">
-        <v>0.341077</v>
+        <v>0.327427</v>
       </c>
       <c r="F86" t="n">
-        <v>0.697731</v>
+        <v>0.673322</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.414566</v>
+        <v>0.414541</v>
       </c>
       <c r="C87" t="n">
-        <v>0.81443</v>
+        <v>0.813939</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1308</v>
+        <v>1.12423</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3333</v>
+        <v>0.319105</v>
       </c>
       <c r="F87" t="n">
-        <v>0.686202</v>
+        <v>0.661676</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.412712</v>
+        <v>0.398642</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8050929999999999</v>
+        <v>0.80426</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13041</v>
+        <v>1.12639</v>
       </c>
       <c r="E88" t="n">
-        <v>0.326236</v>
+        <v>0.308063</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6729270000000001</v>
+        <v>0.65163</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.396101</v>
+        <v>0.399033</v>
       </c>
       <c r="C89" t="n">
-        <v>0.795724</v>
+        <v>0.789413</v>
       </c>
       <c r="D89" t="n">
-        <v>1.13798</v>
+        <v>1.13268</v>
       </c>
       <c r="E89" t="n">
-        <v>0.314928</v>
+        <v>0.306362</v>
       </c>
       <c r="F89" t="n">
-        <v>0.662362</v>
+        <v>0.637514</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.388006</v>
+        <v>0.420372</v>
       </c>
       <c r="C90" t="n">
-        <v>0.784195</v>
+        <v>0.780982</v>
       </c>
       <c r="D90" t="n">
-        <v>1.14633</v>
+        <v>1.14442</v>
       </c>
       <c r="E90" t="n">
-        <v>0.315211</v>
+        <v>0.301977</v>
       </c>
       <c r="F90" t="n">
-        <v>0.653134</v>
+        <v>0.622761</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.396523</v>
+        <v>0.417677</v>
       </c>
       <c r="C91" t="n">
-        <v>0.776886</v>
+        <v>0.769696</v>
       </c>
       <c r="D91" t="n">
-        <v>1.16061</v>
+        <v>1.15643</v>
       </c>
       <c r="E91" t="n">
-        <v>0.30375</v>
+        <v>0.291266</v>
       </c>
       <c r="F91" t="n">
-        <v>0.642626</v>
+        <v>0.619906</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.403287</v>
+        <v>0.387673</v>
       </c>
       <c r="C92" t="n">
-        <v>0.763977</v>
+        <v>0.761415</v>
       </c>
       <c r="D92" t="n">
-        <v>1.71909</v>
+        <v>1.7188</v>
       </c>
       <c r="E92" t="n">
-        <v>0.302967</v>
+        <v>0.293366</v>
       </c>
       <c r="F92" t="n">
-        <v>0.633836</v>
+        <v>0.608277</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.386329</v>
+        <v>0.399746</v>
       </c>
       <c r="C93" t="n">
-        <v>0.756368</v>
+        <v>0.753729</v>
       </c>
       <c r="D93" t="n">
-        <v>1.70892</v>
+        <v>1.70367</v>
       </c>
       <c r="E93" t="n">
-        <v>0.305423</v>
+        <v>0.287585</v>
       </c>
       <c r="F93" t="n">
-        <v>0.62966</v>
+        <v>0.604042</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387879</v>
+        <v>0.405768</v>
       </c>
       <c r="C94" t="n">
-        <v>0.752439</v>
+        <v>0.7494960000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69681</v>
+        <v>1.69194</v>
       </c>
       <c r="E94" t="n">
-        <v>0.498313</v>
+        <v>0.484252</v>
       </c>
       <c r="F94" t="n">
-        <v>1.12036</v>
+        <v>1.04981</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.57689</v>
+        <v>0.584242</v>
       </c>
       <c r="C95" t="n">
-        <v>1.13676</v>
+        <v>1.15529</v>
       </c>
       <c r="D95" t="n">
-        <v>1.6845</v>
+        <v>1.67996</v>
       </c>
       <c r="E95" t="n">
-        <v>0.49295</v>
+        <v>0.476332</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11782</v>
+        <v>1.05205</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.569798</v>
+        <v>0.56649</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15514</v>
+        <v>1.16157</v>
       </c>
       <c r="D96" t="n">
-        <v>1.67298</v>
+        <v>1.67098</v>
       </c>
       <c r="E96" t="n">
-        <v>0.476948</v>
+        <v>0.463875</v>
       </c>
       <c r="F96" t="n">
-        <v>1.09408</v>
+        <v>1.0414</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.580389</v>
+        <v>0.576693</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14132</v>
+        <v>1.14618</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66884</v>
+        <v>1.66387</v>
       </c>
       <c r="E97" t="n">
-        <v>0.470089</v>
+        <v>0.452852</v>
       </c>
       <c r="F97" t="n">
-        <v>1.087</v>
+        <v>1.02956</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.579443</v>
+        <v>0.564646</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12878</v>
+        <v>1.1285</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66129</v>
+        <v>1.65833</v>
       </c>
       <c r="E98" t="n">
-        <v>0.456931</v>
+        <v>0.442439</v>
       </c>
       <c r="F98" t="n">
-        <v>1.06023</v>
+        <v>1.0033</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.547942</v>
+        <v>0.559248</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12053</v>
+        <v>1.11458</v>
       </c>
       <c r="D99" t="n">
-        <v>1.65728</v>
+        <v>1.65555</v>
       </c>
       <c r="E99" t="n">
-        <v>0.44725</v>
+        <v>0.429518</v>
       </c>
       <c r="F99" t="n">
-        <v>1.04409</v>
+        <v>0.996978</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5463980000000001</v>
+        <v>0.551613</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11793</v>
+        <v>1.09576</v>
       </c>
       <c r="D100" t="n">
-        <v>1.65979</v>
+        <v>1.65428</v>
       </c>
       <c r="E100" t="n">
-        <v>0.437704</v>
+        <v>0.423115</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03621</v>
+        <v>0.9812380000000001</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.546075</v>
+        <v>0.532039</v>
       </c>
       <c r="C101" t="n">
-        <v>1.08472</v>
+        <v>1.0907</v>
       </c>
       <c r="D101" t="n">
-        <v>1.6636</v>
+        <v>1.66138</v>
       </c>
       <c r="E101" t="n">
-        <v>0.431482</v>
+        <v>0.409584</v>
       </c>
       <c r="F101" t="n">
-        <v>1.0192</v>
+        <v>0.967781</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.530415</v>
+        <v>0.527409</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06864</v>
+        <v>1.06949</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66721</v>
+        <v>1.66831</v>
       </c>
       <c r="E102" t="n">
-        <v>0.415567</v>
+        <v>0.400906</v>
       </c>
       <c r="F102" t="n">
-        <v>1.00319</v>
+        <v>0.954318</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.508377</v>
+        <v>0.524108</v>
       </c>
       <c r="C103" t="n">
-        <v>1.05628</v>
+        <v>1.05467</v>
       </c>
       <c r="D103" t="n">
-        <v>1.6779</v>
+        <v>1.67257</v>
       </c>
       <c r="E103" t="n">
-        <v>0.408353</v>
+        <v>0.395355</v>
       </c>
       <c r="F103" t="n">
-        <v>0.990698</v>
+        <v>0.943457</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.517827</v>
+        <v>0.518572</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04929</v>
+        <v>1.04087</v>
       </c>
       <c r="D104" t="n">
-        <v>1.6866</v>
+        <v>1.68889</v>
       </c>
       <c r="E104" t="n">
-        <v>0.399702</v>
+        <v>0.387999</v>
       </c>
       <c r="F104" t="n">
-        <v>0.96666</v>
+        <v>0.932145</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.506462</v>
+        <v>0.509592</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04517</v>
+        <v>1.04906</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70071</v>
+        <v>1.70057</v>
       </c>
       <c r="E105" t="n">
-        <v>0.394132</v>
+        <v>0.380563</v>
       </c>
       <c r="F105" t="n">
-        <v>0.952193</v>
+        <v>0.920891</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.499347</v>
+        <v>0.504846</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03884</v>
+        <v>1.02895</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71801</v>
+        <v>1.71831</v>
       </c>
       <c r="E106" t="n">
-        <v>0.391333</v>
+        <v>0.373314</v>
       </c>
       <c r="F106" t="n">
-        <v>0.955402</v>
+        <v>0.9113790000000001</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.495471</v>
+        <v>0.50658</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03554</v>
+        <v>1.02345</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30885</v>
+        <v>2.30671</v>
       </c>
       <c r="E107" t="n">
-        <v>0.387694</v>
+        <v>0.367548</v>
       </c>
       <c r="F107" t="n">
-        <v>0.908249</v>
+        <v>0.899567</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492637</v>
+        <v>0.492276</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01881</v>
+        <v>1.01402</v>
       </c>
       <c r="D108" t="n">
-        <v>2.27869</v>
+        <v>2.27772</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5876169999999999</v>
+        <v>0.561928</v>
       </c>
       <c r="F108" t="n">
-        <v>2.37848</v>
+        <v>2.27632</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.505358</v>
+        <v>0.507314</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03076</v>
+        <v>1.02387</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25356</v>
+        <v>2.25628</v>
       </c>
       <c r="E109" t="n">
-        <v>0.583368</v>
+        <v>0.554695</v>
       </c>
       <c r="F109" t="n">
-        <v>2.38547</v>
+        <v>2.30306</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7159450000000001</v>
+        <v>0.70605</v>
       </c>
       <c r="C110" t="n">
-        <v>2.55395</v>
+        <v>2.53605</v>
       </c>
       <c r="D110" t="n">
-        <v>2.23341</v>
+        <v>2.23473</v>
       </c>
       <c r="E110" t="n">
-        <v>0.569796</v>
+        <v>0.499516</v>
       </c>
       <c r="F110" t="n">
-        <v>2.38734</v>
+        <v>2.30435</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.701896</v>
+        <v>0.698434</v>
       </c>
       <c r="C111" t="n">
-        <v>2.54804</v>
+        <v>2.55755</v>
       </c>
       <c r="D111" t="n">
-        <v>2.233</v>
+        <v>2.22335</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5573360000000001</v>
+        <v>0.532427</v>
       </c>
       <c r="F111" t="n">
-        <v>2.38888</v>
+        <v>2.30971</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.633323</v>
+        <v>0.682254</v>
       </c>
       <c r="C112" t="n">
-        <v>2.56256</v>
+        <v>2.55425</v>
       </c>
       <c r="D112" t="n">
-        <v>2.21991</v>
+        <v>2.2095</v>
       </c>
       <c r="E112" t="n">
-        <v>0.503433</v>
+        <v>0.525309</v>
       </c>
       <c r="F112" t="n">
-        <v>2.39067</v>
+        <v>2.32012</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6868880000000001</v>
+        <v>0.6321059999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>2.55907</v>
+        <v>2.55319</v>
       </c>
       <c r="D113" t="n">
-        <v>2.19476</v>
+        <v>2.20323</v>
       </c>
       <c r="E113" t="n">
-        <v>0.495936</v>
+        <v>0.472843</v>
       </c>
       <c r="F113" t="n">
-        <v>2.38687</v>
+        <v>2.32317</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.663678</v>
+        <v>0.641026</v>
       </c>
       <c r="C114" t="n">
-        <v>2.54621</v>
+        <v>2.56123</v>
       </c>
       <c r="D114" t="n">
-        <v>2.20907</v>
+        <v>2.23109</v>
       </c>
       <c r="E114" t="n">
-        <v>0.521869</v>
+        <v>0.501939</v>
       </c>
       <c r="F114" t="n">
-        <v>2.3919</v>
+        <v>2.32576</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.659953</v>
+        <v>0.637049</v>
       </c>
       <c r="C115" t="n">
-        <v>2.54956</v>
+        <v>2.53863</v>
       </c>
       <c r="D115" t="n">
-        <v>2.24736</v>
+        <v>2.23655</v>
       </c>
       <c r="E115" t="n">
-        <v>0.475448</v>
+        <v>0.489556</v>
       </c>
       <c r="F115" t="n">
-        <v>2.39262</v>
+        <v>2.32108</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.620854</v>
+        <v>0.645012</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56047</v>
+        <v>2.56301</v>
       </c>
       <c r="D116" t="n">
-        <v>2.23854</v>
+        <v>2.22321</v>
       </c>
       <c r="E116" t="n">
-        <v>0.502959</v>
+        <v>0.482951</v>
       </c>
       <c r="F116" t="n">
-        <v>2.39269</v>
+        <v>2.33828</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.636175</v>
+        <v>0.632115</v>
       </c>
       <c r="C117" t="n">
-        <v>2.5501</v>
+        <v>2.54808</v>
       </c>
       <c r="D117" t="n">
-        <v>2.21336</v>
+        <v>2.21853</v>
       </c>
       <c r="E117" t="n">
-        <v>0.494395</v>
+        <v>0.436091</v>
       </c>
       <c r="F117" t="n">
-        <v>2.3959</v>
+        <v>2.34895</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6277199999999999</v>
+        <v>0.586414</v>
       </c>
       <c r="C118" t="n">
-        <v>2.55599</v>
+        <v>2.54921</v>
       </c>
       <c r="D118" t="n">
-        <v>2.19145</v>
+        <v>2.18387</v>
       </c>
       <c r="E118" t="n">
-        <v>0.455655</v>
+        <v>0.432363</v>
       </c>
       <c r="F118" t="n">
-        <v>2.2077</v>
+        <v>2.15244</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6230560000000001</v>
+        <v>0.570954</v>
       </c>
       <c r="C119" t="n">
-        <v>2.57914</v>
+        <v>1.96551</v>
       </c>
       <c r="D119" t="n">
-        <v>2.18347</v>
+        <v>2.18552</v>
       </c>
       <c r="E119" t="n">
-        <v>0.445369</v>
+        <v>0.426899</v>
       </c>
       <c r="F119" t="n">
-        <v>1.79197</v>
+        <v>2.35059</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.601506</v>
+        <v>0.604276</v>
       </c>
       <c r="C120" t="n">
-        <v>2.561</v>
+        <v>2.55837</v>
       </c>
       <c r="D120" t="n">
-        <v>2.19341</v>
+        <v>2.19804</v>
       </c>
       <c r="E120" t="n">
-        <v>0.440311</v>
+        <v>0.420081</v>
       </c>
       <c r="F120" t="n">
-        <v>1.59425</v>
+        <v>2.16448</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.607674</v>
+        <v>0.60126</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57388</v>
+        <v>2.58118</v>
       </c>
       <c r="D121" t="n">
-        <v>2.85997</v>
+        <v>2.85473</v>
       </c>
       <c r="E121" t="n">
-        <v>0.438794</v>
+        <v>0.413484</v>
       </c>
       <c r="F121" t="n">
-        <v>1.79509</v>
+        <v>1.12098</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.586322</v>
+        <v>0.600614</v>
       </c>
       <c r="C122" t="n">
-        <v>2.57106</v>
+        <v>2.57569</v>
       </c>
       <c r="D122" t="n">
-        <v>2.80817</v>
+        <v>2.81435</v>
       </c>
       <c r="E122" t="n">
-        <v>0.435497</v>
+        <v>0.414747</v>
       </c>
       <c r="F122" t="n">
-        <v>1.79698</v>
+        <v>1.75139</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.59311</v>
+        <v>0.565145</v>
       </c>
       <c r="C123" t="n">
-        <v>2.57885</v>
+        <v>2.59281</v>
       </c>
       <c r="D123" t="n">
-        <v>2.76729</v>
+        <v>2.7718</v>
       </c>
       <c r="E123" t="n">
-        <v>0.630643</v>
+        <v>0.604444</v>
       </c>
       <c r="F123" t="n">
-        <v>2.90369</v>
+        <v>2.79976</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.785037</v>
+        <v>0.7568780000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>3.14201</v>
+        <v>3.11887</v>
       </c>
       <c r="D124" t="n">
-        <v>2.74192</v>
+        <v>2.74266</v>
       </c>
       <c r="E124" t="n">
-        <v>0.624178</v>
+        <v>0.598164</v>
       </c>
       <c r="F124" t="n">
-        <v>2.893</v>
+        <v>2.79751</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.771209</v>
+        <v>0.75845</v>
       </c>
       <c r="C125" t="n">
-        <v>3.11739</v>
+        <v>3.11561</v>
       </c>
       <c r="D125" t="n">
-        <v>2.70836</v>
+        <v>2.70524</v>
       </c>
       <c r="E125" t="n">
-        <v>0.617513</v>
+        <v>0.589508</v>
       </c>
       <c r="F125" t="n">
-        <v>2.88643</v>
+        <v>2.79835</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.751703</v>
+        <v>0.760206</v>
       </c>
       <c r="C126" t="n">
-        <v>3.1099</v>
+        <v>3.11201</v>
       </c>
       <c r="D126" t="n">
-        <v>2.67925</v>
+        <v>2.67988</v>
       </c>
       <c r="E126" t="n">
-        <v>0.607727</v>
+        <v>0.602453</v>
       </c>
       <c r="F126" t="n">
-        <v>2.8765</v>
+        <v>2.78245</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.756811</v>
+        <v>0.7370679999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>3.09541</v>
+        <v>3.09915</v>
       </c>
       <c r="D127" t="n">
-        <v>2.66346</v>
+        <v>2.65776</v>
       </c>
       <c r="E127" t="n">
-        <v>0.600533</v>
+        <v>0.572726</v>
       </c>
       <c r="F127" t="n">
-        <v>2.87957</v>
+        <v>2.7949</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.751846</v>
+        <v>0.7192809999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>3.09427</v>
+        <v>3.08007</v>
       </c>
       <c r="D128" t="n">
-        <v>2.63023</v>
+        <v>2.6364</v>
       </c>
       <c r="E128" t="n">
-        <v>0.594256</v>
+        <v>0.566763</v>
       </c>
       <c r="F128" t="n">
-        <v>2.86949</v>
+        <v>2.79707</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7324349999999999</v>
+        <v>0.730999</v>
       </c>
       <c r="C129" t="n">
-        <v>3.07125</v>
+        <v>3.06744</v>
       </c>
       <c r="D129" t="n">
-        <v>2.61652</v>
+        <v>2.62574</v>
       </c>
       <c r="E129" t="n">
-        <v>0.589456</v>
+        <v>0.559428</v>
       </c>
       <c r="F129" t="n">
-        <v>2.86048</v>
+        <v>2.79176</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.722463</v>
+        <v>0.720413</v>
       </c>
       <c r="C130" t="n">
-        <v>3.08048</v>
+        <v>3.06694</v>
       </c>
       <c r="D130" t="n">
-        <v>2.60907</v>
+        <v>2.60534</v>
       </c>
       <c r="E130" t="n">
-        <v>0.58292</v>
+        <v>0.554615</v>
       </c>
       <c r="F130" t="n">
-        <v>2.84822</v>
+        <v>2.78105</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.711272</v>
+        <v>0.712087</v>
       </c>
       <c r="C131" t="n">
-        <v>3.06994</v>
+        <v>3.06137</v>
       </c>
       <c r="D131" t="n">
-        <v>2.58977</v>
+        <v>2.59489</v>
       </c>
       <c r="E131" t="n">
-        <v>0.577603</v>
+        <v>0.547207</v>
       </c>
       <c r="F131" t="n">
-        <v>2.85765</v>
+        <v>2.79162</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.705618</v>
+        <v>0.7116479999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>3.05906</v>
+        <v>3.05932</v>
       </c>
       <c r="D132" t="n">
-        <v>2.58641</v>
+        <v>2.59326</v>
       </c>
       <c r="E132" t="n">
-        <v>0.572951</v>
+        <v>0.5410430000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>2.8567</v>
+        <v>2.79508</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.708291</v>
+        <v>0.70544</v>
       </c>
       <c r="C133" t="n">
-        <v>3.04756</v>
+        <v>3.04379</v>
       </c>
       <c r="D133" t="n">
-        <v>2.58033</v>
+        <v>2.58459</v>
       </c>
       <c r="E133" t="n">
-        <v>0.568101</v>
+        <v>0.535278</v>
       </c>
       <c r="F133" t="n">
-        <v>2.85956</v>
+        <v>2.8002</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.698974</v>
+        <v>0.70556</v>
       </c>
       <c r="C134" t="n">
-        <v>3.0419</v>
+        <v>3.04857</v>
       </c>
       <c r="D134" t="n">
-        <v>2.56066</v>
+        <v>2.5614</v>
       </c>
       <c r="E134" t="n">
-        <v>0.536829</v>
+        <v>0.505679</v>
       </c>
       <c r="F134" t="n">
-        <v>2.39622</v>
+        <v>2.34487</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.691912</v>
+        <v>0.695929</v>
       </c>
       <c r="C135" t="n">
-        <v>3.04675</v>
+        <v>3.04383</v>
       </c>
       <c r="D135" t="n">
-        <v>3.24443</v>
+        <v>3.24864</v>
       </c>
       <c r="E135" t="n">
-        <v>0.534931</v>
+        <v>0.5044689999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>2.3888</v>
+        <v>2.33877</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.687009</v>
+        <v>0.683262</v>
       </c>
       <c r="C136" t="n">
-        <v>3.03332</v>
+        <v>3.03254</v>
       </c>
       <c r="D136" t="n">
-        <v>3.20152</v>
+        <v>3.18973</v>
       </c>
       <c r="E136" t="n">
-        <v>0.53217</v>
+        <v>0.500678</v>
       </c>
       <c r="F136" t="n">
-        <v>2.39478</v>
+        <v>2.5741</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.656654</v>
+        <v>0.682832</v>
       </c>
       <c r="C137" t="n">
-        <v>3.04248</v>
+        <v>3.03874</v>
       </c>
       <c r="D137" t="n">
-        <v>3.13902</v>
+        <v>3.1341</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7228869999999999</v>
+        <v>0.691701</v>
       </c>
       <c r="F137" t="n">
-        <v>3.31485</v>
+        <v>3.22185</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.869004</v>
+        <v>0.875011</v>
       </c>
       <c r="C138" t="n">
-        <v>3.5902</v>
+        <v>3.54134</v>
       </c>
       <c r="D138" t="n">
-        <v>3.09092</v>
+        <v>3.09083</v>
       </c>
       <c r="E138" t="n">
-        <v>0.717319</v>
+        <v>0.680969</v>
       </c>
       <c r="F138" t="n">
-        <v>3.30309</v>
+        <v>3.21253</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.832659</v>
+        <v>0.866038</v>
       </c>
       <c r="C139" t="n">
-        <v>3.50737</v>
+        <v>3.51543</v>
       </c>
       <c r="D139" t="n">
-        <v>3.05248</v>
+        <v>3.05589</v>
       </c>
       <c r="E139" t="n">
-        <v>0.71373</v>
+        <v>0.677657</v>
       </c>
       <c r="F139" t="n">
-        <v>3.2912</v>
+        <v>3.20578</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.864725</v>
+        <v>0.835187</v>
       </c>
       <c r="C140" t="n">
-        <v>3.49306</v>
+        <v>3.50613</v>
       </c>
       <c r="D140" t="n">
-        <v>3.01277</v>
+        <v>3.01888</v>
       </c>
       <c r="E140" t="n">
-        <v>0.711181</v>
+        <v>0.689909</v>
       </c>
       <c r="F140" t="n">
-        <v>3.27499</v>
+        <v>3.18823</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.847248</v>
+        <v>0.840851</v>
       </c>
       <c r="C141" t="n">
-        <v>3.47501</v>
+        <v>3.45869</v>
       </c>
       <c r="D141" t="n">
-        <v>2.9874</v>
+        <v>2.98272</v>
       </c>
       <c r="E141" t="n">
-        <v>0.706557</v>
+        <v>0.664731</v>
       </c>
       <c r="F141" t="n">
-        <v>3.2584</v>
+        <v>3.17394</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.853939</v>
+        <v>0.833246</v>
       </c>
       <c r="C142" t="n">
-        <v>3.4558</v>
+        <v>3.45688</v>
       </c>
       <c r="D142" t="n">
-        <v>2.96047</v>
+        <v>2.96207</v>
       </c>
       <c r="E142" t="n">
-        <v>0.720809</v>
+        <v>0.675262</v>
       </c>
       <c r="F142" t="n">
-        <v>3.24335</v>
+        <v>3.16195</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.835917</v>
+        <v>0.836843</v>
       </c>
       <c r="C143" t="n">
-        <v>3.43877</v>
+        <v>3.43759</v>
       </c>
       <c r="D143" t="n">
-        <v>2.94192</v>
+        <v>2.93835</v>
       </c>
       <c r="E143" t="n">
-        <v>0.717707</v>
+        <v>0.65479</v>
       </c>
       <c r="F143" t="n">
-        <v>3.22643</v>
+        <v>3.152</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.254949</v>
+        <v>0.253796</v>
       </c>
       <c r="C2" t="n">
-        <v>0.416574</v>
+        <v>0.416743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.575309</v>
+        <v>0.558667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.198857</v>
+        <v>0.198773</v>
       </c>
       <c r="F2" t="n">
-        <v>0.382364</v>
+        <v>0.384288</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243582</v>
+        <v>0.244661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.41125</v>
+        <v>0.408938</v>
       </c>
       <c r="D3" t="n">
-        <v>0.567217</v>
+        <v>0.550639</v>
       </c>
       <c r="E3" t="n">
-        <v>0.191918</v>
+        <v>0.1927</v>
       </c>
       <c r="F3" t="n">
-        <v>0.37485</v>
+        <v>0.377827</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.24027</v>
+        <v>0.238273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.404859</v>
+        <v>0.40331</v>
       </c>
       <c r="D4" t="n">
-        <v>0.557972</v>
+        <v>0.543687</v>
       </c>
       <c r="E4" t="n">
-        <v>0.186442</v>
+        <v>0.187179</v>
       </c>
       <c r="F4" t="n">
-        <v>0.369995</v>
+        <v>0.37181</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.245111</v>
+        <v>0.234662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.399048</v>
+        <v>0.398437</v>
       </c>
       <c r="D5" t="n">
-        <v>0.553298</v>
+        <v>0.537666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.180549</v>
+        <v>0.181745</v>
       </c>
       <c r="F5" t="n">
-        <v>0.364891</v>
+        <v>0.366187</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236119</v>
+        <v>0.233381</v>
       </c>
       <c r="C6" t="n">
-        <v>0.395397</v>
+        <v>0.394521</v>
       </c>
       <c r="D6" t="n">
-        <v>0.547196</v>
+        <v>0.53332</v>
       </c>
       <c r="E6" t="n">
-        <v>0.177152</v>
+        <v>0.178291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.361568</v>
+        <v>0.363057</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.23473</v>
+        <v>0.229385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.391391</v>
+        <v>0.391793</v>
       </c>
       <c r="D7" t="n">
-        <v>0.706846</v>
+        <v>0.698844</v>
       </c>
       <c r="E7" t="n">
-        <v>0.174706</v>
+        <v>0.177091</v>
       </c>
       <c r="F7" t="n">
-        <v>0.358986</v>
+        <v>0.360907</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.23118</v>
+        <v>0.228412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.389486</v>
+        <v>0.38958</v>
       </c>
       <c r="D8" t="n">
-        <v>0.69102</v>
+        <v>0.681213</v>
       </c>
       <c r="E8" t="n">
-        <v>0.178647</v>
+        <v>0.177445</v>
       </c>
       <c r="F8" t="n">
-        <v>0.359063</v>
+        <v>0.361044</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.23162</v>
+        <v>0.227876</v>
       </c>
       <c r="C9" t="n">
-        <v>0.389282</v>
+        <v>0.39287</v>
       </c>
       <c r="D9" t="n">
-        <v>0.675992</v>
+        <v>0.667737</v>
       </c>
       <c r="E9" t="n">
-        <v>0.269648</v>
+        <v>0.269239</v>
       </c>
       <c r="F9" t="n">
-        <v>0.442352</v>
+        <v>0.444612</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.317725</v>
+        <v>0.323358</v>
       </c>
       <c r="C10" t="n">
-        <v>0.47787</v>
+        <v>0.479672</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6614100000000001</v>
+        <v>0.653458</v>
       </c>
       <c r="E10" t="n">
-        <v>0.260086</v>
+        <v>0.258835</v>
       </c>
       <c r="F10" t="n">
-        <v>0.432061</v>
+        <v>0.433763</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303872</v>
+        <v>0.315926</v>
       </c>
       <c r="C11" t="n">
-        <v>0.467523</v>
+        <v>0.469059</v>
       </c>
       <c r="D11" t="n">
-        <v>0.648387</v>
+        <v>0.642432</v>
       </c>
       <c r="E11" t="n">
-        <v>0.250371</v>
+        <v>0.248562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.422942</v>
+        <v>0.42408</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296551</v>
+        <v>0.297138</v>
       </c>
       <c r="C12" t="n">
-        <v>0.457774</v>
+        <v>0.459448</v>
       </c>
       <c r="D12" t="n">
-        <v>0.637279</v>
+        <v>0.628049</v>
       </c>
       <c r="E12" t="n">
-        <v>0.243006</v>
+        <v>0.24014</v>
       </c>
       <c r="F12" t="n">
-        <v>0.414864</v>
+        <v>0.415407</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.290416</v>
+        <v>0.291027</v>
       </c>
       <c r="C13" t="n">
-        <v>0.448997</v>
+        <v>0.450795</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6282</v>
+        <v>0.619918</v>
       </c>
       <c r="E13" t="n">
-        <v>0.234616</v>
+        <v>0.234252</v>
       </c>
       <c r="F13" t="n">
-        <v>0.406139</v>
+        <v>0.407926</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281272</v>
+        <v>0.284771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.440163</v>
+        <v>0.442743</v>
       </c>
       <c r="D14" t="n">
-        <v>0.621294</v>
+        <v>0.611731</v>
       </c>
       <c r="E14" t="n">
-        <v>0.226442</v>
+        <v>0.226133</v>
       </c>
       <c r="F14" t="n">
-        <v>0.398264</v>
+        <v>0.399143</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.279048</v>
+        <v>0.269946</v>
       </c>
       <c r="C15" t="n">
-        <v>0.432558</v>
+        <v>0.434232</v>
       </c>
       <c r="D15" t="n">
-        <v>0.608702</v>
+        <v>0.602058</v>
       </c>
       <c r="E15" t="n">
-        <v>0.221644</v>
+        <v>0.22105</v>
       </c>
       <c r="F15" t="n">
-        <v>0.39105</v>
+        <v>0.391857</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.267281</v>
+        <v>0.268397</v>
       </c>
       <c r="C16" t="n">
-        <v>0.426053</v>
+        <v>0.427423</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6034620000000001</v>
+        <v>0.591079</v>
       </c>
       <c r="E16" t="n">
-        <v>0.215016</v>
+        <v>0.213529</v>
       </c>
       <c r="F16" t="n">
-        <v>0.384636</v>
+        <v>0.385401</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.266895</v>
+        <v>0.258583</v>
       </c>
       <c r="C17" t="n">
-        <v>0.419655</v>
+        <v>0.420929</v>
       </c>
       <c r="D17" t="n">
-        <v>0.596952</v>
+        <v>0.588209</v>
       </c>
       <c r="E17" t="n">
-        <v>0.208696</v>
+        <v>0.208056</v>
       </c>
       <c r="F17" t="n">
-        <v>0.378212</v>
+        <v>0.379173</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25436</v>
+        <v>0.260328</v>
       </c>
       <c r="C18" t="n">
-        <v>0.414586</v>
+        <v>0.417468</v>
       </c>
       <c r="D18" t="n">
-        <v>0.587822</v>
+        <v>0.57978</v>
       </c>
       <c r="E18" t="n">
-        <v>0.203918</v>
+        <v>0.203573</v>
       </c>
       <c r="F18" t="n">
-        <v>0.371983</v>
+        <v>0.372607</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.250317</v>
+        <v>0.247543</v>
       </c>
       <c r="C19" t="n">
-        <v>0.408407</v>
+        <v>0.412051</v>
       </c>
       <c r="D19" t="n">
-        <v>0.579798</v>
+        <v>0.571591</v>
       </c>
       <c r="E19" t="n">
-        <v>0.199741</v>
+        <v>0.200898</v>
       </c>
       <c r="F19" t="n">
-        <v>0.369335</v>
+        <v>0.368956</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247162</v>
+        <v>0.244669</v>
       </c>
       <c r="C20" t="n">
-        <v>0.404425</v>
+        <v>0.40871</v>
       </c>
       <c r="D20" t="n">
-        <v>0.576365</v>
+        <v>0.565966</v>
       </c>
       <c r="E20" t="n">
-        <v>0.19668</v>
+        <v>0.197588</v>
       </c>
       <c r="F20" t="n">
-        <v>0.364722</v>
+        <v>0.365452</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.244397</v>
+        <v>0.246863</v>
       </c>
       <c r="C21" t="n">
-        <v>0.399473</v>
+        <v>0.40149</v>
       </c>
       <c r="D21" t="n">
-        <v>0.762228</v>
+        <v>0.755605</v>
       </c>
       <c r="E21" t="n">
-        <v>0.195703</v>
+        <v>0.195253</v>
       </c>
       <c r="F21" t="n">
-        <v>0.362479</v>
+        <v>0.363467</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.244361</v>
+        <v>0.240278</v>
       </c>
       <c r="C22" t="n">
-        <v>0.396674</v>
+        <v>0.399431</v>
       </c>
       <c r="D22" t="n">
-        <v>0.746008</v>
+        <v>0.738789</v>
       </c>
       <c r="E22" t="n">
-        <v>0.196736</v>
+        <v>0.198136</v>
       </c>
       <c r="F22" t="n">
-        <v>0.363645</v>
+        <v>0.363017</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.23707</v>
+        <v>0.242801</v>
       </c>
       <c r="C23" t="n">
-        <v>0.396149</v>
+        <v>0.398341</v>
       </c>
       <c r="D23" t="n">
-        <v>0.732719</v>
+        <v>0.722272</v>
       </c>
       <c r="E23" t="n">
-        <v>0.289316</v>
+        <v>0.289657</v>
       </c>
       <c r="F23" t="n">
-        <v>0.451118</v>
+        <v>0.45138</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.319252</v>
+        <v>0.323337</v>
       </c>
       <c r="C24" t="n">
-        <v>0.488969</v>
+        <v>0.490436</v>
       </c>
       <c r="D24" t="n">
-        <v>0.716441</v>
+        <v>0.705458</v>
       </c>
       <c r="E24" t="n">
-        <v>0.277726</v>
+        <v>0.278008</v>
       </c>
       <c r="F24" t="n">
-        <v>0.440682</v>
+        <v>0.442038</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.311737</v>
+        <v>0.313083</v>
       </c>
       <c r="C25" t="n">
-        <v>0.479937</v>
+        <v>0.481039</v>
       </c>
       <c r="D25" t="n">
-        <v>0.701959</v>
+        <v>0.69425</v>
       </c>
       <c r="E25" t="n">
-        <v>0.268776</v>
+        <v>0.268588</v>
       </c>
       <c r="F25" t="n">
-        <v>0.431017</v>
+        <v>0.432608</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.304294</v>
+        <v>0.303779</v>
       </c>
       <c r="C26" t="n">
-        <v>0.471158</v>
+        <v>0.472224</v>
       </c>
       <c r="D26" t="n">
-        <v>0.687111</v>
+        <v>0.681629</v>
       </c>
       <c r="E26" t="n">
-        <v>0.259689</v>
+        <v>0.262651</v>
       </c>
       <c r="F26" t="n">
-        <v>0.421834</v>
+        <v>0.423317</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.296758</v>
+        <v>0.298927</v>
       </c>
       <c r="C27" t="n">
-        <v>0.460627</v>
+        <v>0.462919</v>
       </c>
       <c r="D27" t="n">
-        <v>0.67665</v>
+        <v>0.671107</v>
       </c>
       <c r="E27" t="n">
-        <v>0.252804</v>
+        <v>0.251951</v>
       </c>
       <c r="F27" t="n">
-        <v>0.413553</v>
+        <v>0.415133</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.288229</v>
+        <v>0.289371</v>
       </c>
       <c r="C28" t="n">
-        <v>0.455248</v>
+        <v>0.45534</v>
       </c>
       <c r="D28" t="n">
-        <v>0.665901</v>
+        <v>0.659285</v>
       </c>
       <c r="E28" t="n">
-        <v>0.244132</v>
+        <v>0.243728</v>
       </c>
       <c r="F28" t="n">
-        <v>0.405602</v>
+        <v>0.407042</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280382</v>
+        <v>0.283451</v>
       </c>
       <c r="C29" t="n">
-        <v>0.447729</v>
+        <v>0.446934</v>
       </c>
       <c r="D29" t="n">
-        <v>0.659319</v>
+        <v>0.650346</v>
       </c>
       <c r="E29" t="n">
-        <v>0.235661</v>
+        <v>0.237785</v>
       </c>
       <c r="F29" t="n">
-        <v>0.398705</v>
+        <v>0.400207</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.278897</v>
+        <v>0.273386</v>
       </c>
       <c r="C30" t="n">
-        <v>0.439888</v>
+        <v>0.440077</v>
       </c>
       <c r="D30" t="n">
-        <v>0.648774</v>
+        <v>0.641189</v>
       </c>
       <c r="E30" t="n">
-        <v>0.229044</v>
+        <v>0.229845</v>
       </c>
       <c r="F30" t="n">
-        <v>0.391603</v>
+        <v>0.392472</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.26782</v>
+        <v>0.269322</v>
       </c>
       <c r="C31" t="n">
-        <v>0.433497</v>
+        <v>0.434053</v>
       </c>
       <c r="D31" t="n">
-        <v>0.639925</v>
+        <v>0.633055</v>
       </c>
       <c r="E31" t="n">
-        <v>0.22291</v>
+        <v>0.22545</v>
       </c>
       <c r="F31" t="n">
-        <v>0.384125</v>
+        <v>0.385733</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260505</v>
+        <v>0.260275</v>
       </c>
       <c r="C32" t="n">
-        <v>0.426463</v>
+        <v>0.42839</v>
       </c>
       <c r="D32" t="n">
-        <v>0.634943</v>
+        <v>0.626184</v>
       </c>
       <c r="E32" t="n">
-        <v>0.216894</v>
+        <v>0.21848</v>
       </c>
       <c r="F32" t="n">
-        <v>0.378984</v>
+        <v>0.380062</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256434</v>
+        <v>0.252782</v>
       </c>
       <c r="C33" t="n">
-        <v>0.418528</v>
+        <v>0.422726</v>
       </c>
       <c r="D33" t="n">
-        <v>0.627161</v>
+        <v>0.620274</v>
       </c>
       <c r="E33" t="n">
-        <v>0.211622</v>
+        <v>0.214548</v>
       </c>
       <c r="F33" t="n">
-        <v>0.373542</v>
+        <v>0.374735</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251873</v>
+        <v>0.248476</v>
       </c>
       <c r="C34" t="n">
-        <v>0.415394</v>
+        <v>0.418449</v>
       </c>
       <c r="D34" t="n">
-        <v>0.620331</v>
+        <v>0.615263</v>
       </c>
       <c r="E34" t="n">
-        <v>0.208586</v>
+        <v>0.210473</v>
       </c>
       <c r="F34" t="n">
-        <v>0.36977</v>
+        <v>0.37049</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.250312</v>
+        <v>0.247366</v>
       </c>
       <c r="C35" t="n">
-        <v>0.412562</v>
+        <v>0.410105</v>
       </c>
       <c r="D35" t="n">
-        <v>0.817581</v>
+        <v>0.816379</v>
       </c>
       <c r="E35" t="n">
-        <v>0.206667</v>
+        <v>0.208756</v>
       </c>
       <c r="F35" t="n">
-        <v>0.367385</v>
+        <v>0.36803</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243999</v>
+        <v>0.244255</v>
       </c>
       <c r="C36" t="n">
-        <v>0.406451</v>
+        <v>0.410387</v>
       </c>
       <c r="D36" t="n">
-        <v>0.798903</v>
+        <v>0.797265</v>
       </c>
       <c r="E36" t="n">
-        <v>0.204422</v>
+        <v>0.207672</v>
       </c>
       <c r="F36" t="n">
-        <v>0.366671</v>
+        <v>0.367371</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243285</v>
+        <v>0.24213</v>
       </c>
       <c r="C37" t="n">
-        <v>0.405514</v>
+        <v>0.407928</v>
       </c>
       <c r="D37" t="n">
-        <v>0.781641</v>
+        <v>0.779307</v>
       </c>
       <c r="E37" t="n">
-        <v>0.300044</v>
+        <v>0.301397</v>
       </c>
       <c r="F37" t="n">
-        <v>0.457084</v>
+        <v>0.455403</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.328243</v>
+        <v>0.324637</v>
       </c>
       <c r="C38" t="n">
-        <v>0.513983</v>
+        <v>0.503386</v>
       </c>
       <c r="D38" t="n">
-        <v>0.765724</v>
+        <v>0.761903</v>
       </c>
       <c r="E38" t="n">
-        <v>0.28736</v>
+        <v>0.290027</v>
       </c>
       <c r="F38" t="n">
-        <v>0.447193</v>
+        <v>0.446051</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.320299</v>
+        <v>0.318141</v>
       </c>
       <c r="C39" t="n">
-        <v>0.517443</v>
+        <v>0.501153</v>
       </c>
       <c r="D39" t="n">
-        <v>0.750678</v>
+        <v>0.746828</v>
       </c>
       <c r="E39" t="n">
-        <v>0.277925</v>
+        <v>0.279339</v>
       </c>
       <c r="F39" t="n">
-        <v>0.43748</v>
+        <v>0.437462</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.313992</v>
+        <v>0.309269</v>
       </c>
       <c r="C40" t="n">
-        <v>0.506605</v>
+        <v>0.492124</v>
       </c>
       <c r="D40" t="n">
-        <v>0.736737</v>
+        <v>0.733344</v>
       </c>
       <c r="E40" t="n">
-        <v>0.268869</v>
+        <v>0.270785</v>
       </c>
       <c r="F40" t="n">
-        <v>0.432388</v>
+        <v>0.433074</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304269</v>
+        <v>0.307449</v>
       </c>
       <c r="C41" t="n">
-        <v>0.497926</v>
+        <v>0.483264</v>
       </c>
       <c r="D41" t="n">
-        <v>0.722895</v>
+        <v>0.720126</v>
       </c>
       <c r="E41" t="n">
-        <v>0.260786</v>
+        <v>0.262569</v>
       </c>
       <c r="F41" t="n">
-        <v>0.423773</v>
+        <v>0.424977</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.299762</v>
+        <v>0.293126</v>
       </c>
       <c r="C42" t="n">
-        <v>0.484289</v>
+        <v>0.473932</v>
       </c>
       <c r="D42" t="n">
-        <v>0.711682</v>
+        <v>0.7086479999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.253759</v>
+        <v>0.254786</v>
       </c>
       <c r="F42" t="n">
-        <v>0.416352</v>
+        <v>0.418085</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289</v>
+        <v>0.284744</v>
       </c>
       <c r="C43" t="n">
-        <v>0.475149</v>
+        <v>0.465255</v>
       </c>
       <c r="D43" t="n">
-        <v>0.700893</v>
+        <v>0.69745</v>
       </c>
       <c r="E43" t="n">
-        <v>0.245179</v>
+        <v>0.247663</v>
       </c>
       <c r="F43" t="n">
-        <v>0.410528</v>
+        <v>0.41196</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.282079</v>
+        <v>0.297703</v>
       </c>
       <c r="C44" t="n">
-        <v>0.469163</v>
+        <v>0.458177</v>
       </c>
       <c r="D44" t="n">
-        <v>0.691236</v>
+        <v>0.68888</v>
       </c>
       <c r="E44" t="n">
-        <v>0.237962</v>
+        <v>0.240369</v>
       </c>
       <c r="F44" t="n">
-        <v>0.404075</v>
+        <v>0.404627</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.28768</v>
+        <v>0.276559</v>
       </c>
       <c r="C45" t="n">
-        <v>0.458265</v>
+        <v>0.451131</v>
       </c>
       <c r="D45" t="n">
-        <v>0.683412</v>
+        <v>0.680102</v>
       </c>
       <c r="E45" t="n">
-        <v>0.231316</v>
+        <v>0.235265</v>
       </c>
       <c r="F45" t="n">
-        <v>0.400006</v>
+        <v>0.399272</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.268113</v>
+        <v>0.272047</v>
       </c>
       <c r="C46" t="n">
-        <v>0.449107</v>
+        <v>0.444232</v>
       </c>
       <c r="D46" t="n">
-        <v>0.674884</v>
+        <v>0.672335</v>
       </c>
       <c r="E46" t="n">
-        <v>0.224789</v>
+        <v>0.227399</v>
       </c>
       <c r="F46" t="n">
-        <v>0.393579</v>
+        <v>0.390045</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261796</v>
+        <v>0.270182</v>
       </c>
       <c r="C47" t="n">
-        <v>0.438613</v>
+        <v>0.437656</v>
       </c>
       <c r="D47" t="n">
-        <v>0.668714</v>
+        <v>0.666276</v>
       </c>
       <c r="E47" t="n">
-        <v>0.219909</v>
+        <v>0.221209</v>
       </c>
       <c r="F47" t="n">
-        <v>0.388432</v>
+        <v>0.387269</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.258551</v>
+        <v>0.263006</v>
       </c>
       <c r="C48" t="n">
-        <v>0.436667</v>
+        <v>0.432955</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6619930000000001</v>
+        <v>0.658788</v>
       </c>
       <c r="E48" t="n">
-        <v>0.215292</v>
+        <v>0.219468</v>
       </c>
       <c r="F48" t="n">
-        <v>0.38395</v>
+        <v>0.383516</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.257935</v>
+        <v>0.261282</v>
       </c>
       <c r="C49" t="n">
-        <v>0.430012</v>
+        <v>0.429468</v>
       </c>
       <c r="D49" t="n">
-        <v>0.656596</v>
+        <v>0.6533409999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2124</v>
+        <v>0.214294</v>
       </c>
       <c r="F49" t="n">
-        <v>0.380916</v>
+        <v>0.380666</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.254423</v>
+        <v>0.253619</v>
       </c>
       <c r="C50" t="n">
-        <v>0.42647</v>
+        <v>0.42575</v>
       </c>
       <c r="D50" t="n">
-        <v>0.845896</v>
+        <v>0.845672</v>
       </c>
       <c r="E50" t="n">
-        <v>0.210936</v>
+        <v>0.213814</v>
       </c>
       <c r="F50" t="n">
-        <v>0.379738</v>
+        <v>0.379849</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.26109</v>
+        <v>0.249373</v>
       </c>
       <c r="C51" t="n">
-        <v>0.424529</v>
+        <v>0.422839</v>
       </c>
       <c r="D51" t="n">
-        <v>0.826713</v>
+        <v>0.825593</v>
       </c>
       <c r="E51" t="n">
-        <v>0.310457</v>
+        <v>0.313798</v>
       </c>
       <c r="F51" t="n">
-        <v>0.478745</v>
+        <v>0.478102</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2605</v>
+        <v>0.25501</v>
       </c>
       <c r="C52" t="n">
-        <v>0.425245</v>
+        <v>0.423676</v>
       </c>
       <c r="D52" t="n">
-        <v>0.809064</v>
+        <v>0.807573</v>
       </c>
       <c r="E52" t="n">
-        <v>0.301437</v>
+        <v>0.303568</v>
       </c>
       <c r="F52" t="n">
-        <v>0.47035</v>
+        <v>0.467779</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.340145</v>
+        <v>0.339852</v>
       </c>
       <c r="C53" t="n">
-        <v>0.524473</v>
+        <v>0.520407</v>
       </c>
       <c r="D53" t="n">
-        <v>0.792367</v>
+        <v>0.7904949999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.29259</v>
+        <v>0.295325</v>
       </c>
       <c r="F53" t="n">
-        <v>0.461707</v>
+        <v>0.459289</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.329194</v>
+        <v>0.330373</v>
       </c>
       <c r="C54" t="n">
-        <v>0.518517</v>
+        <v>0.514143</v>
       </c>
       <c r="D54" t="n">
-        <v>0.77635</v>
+        <v>0.7750939999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.283586</v>
+        <v>0.285858</v>
       </c>
       <c r="F54" t="n">
-        <v>0.453404</v>
+        <v>0.451875</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.324142</v>
+        <v>0.3251</v>
       </c>
       <c r="C55" t="n">
-        <v>0.506219</v>
+        <v>0.5045539999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.763593</v>
+        <v>0.761513</v>
       </c>
       <c r="E55" t="n">
-        <v>0.274748</v>
+        <v>0.277236</v>
       </c>
       <c r="F55" t="n">
-        <v>0.445802</v>
+        <v>0.445124</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.319881</v>
+        <v>0.318947</v>
       </c>
       <c r="C56" t="n">
-        <v>0.497176</v>
+        <v>0.497796</v>
       </c>
       <c r="D56" t="n">
-        <v>0.750951</v>
+        <v>0.748461</v>
       </c>
       <c r="E56" t="n">
-        <v>0.266148</v>
+        <v>0.269275</v>
       </c>
       <c r="F56" t="n">
-        <v>0.43885</v>
+        <v>0.438102</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.307528</v>
+        <v>0.308153</v>
       </c>
       <c r="C57" t="n">
-        <v>0.490504</v>
+        <v>0.490556</v>
       </c>
       <c r="D57" t="n">
-        <v>0.739721</v>
+        <v>0.736432</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2597</v>
+        <v>0.261376</v>
       </c>
       <c r="F57" t="n">
-        <v>0.431632</v>
+        <v>0.430387</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.30201</v>
+        <v>0.295715</v>
       </c>
       <c r="C58" t="n">
-        <v>0.483117</v>
+        <v>0.483341</v>
       </c>
       <c r="D58" t="n">
-        <v>0.728815</v>
+        <v>0.726182</v>
       </c>
       <c r="E58" t="n">
-        <v>0.251685</v>
+        <v>0.254916</v>
       </c>
       <c r="F58" t="n">
-        <v>0.424615</v>
+        <v>0.423716</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295685</v>
+        <v>0.297413</v>
       </c>
       <c r="C59" t="n">
-        <v>0.476792</v>
+        <v>0.475077</v>
       </c>
       <c r="D59" t="n">
-        <v>0.719023</v>
+        <v>0.715818</v>
       </c>
       <c r="E59" t="n">
-        <v>0.244306</v>
+        <v>0.248209</v>
       </c>
       <c r="F59" t="n">
-        <v>0.418115</v>
+        <v>0.417554</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.28607</v>
+        <v>0.291704</v>
       </c>
       <c r="C60" t="n">
-        <v>0.469538</v>
+        <v>0.468633</v>
       </c>
       <c r="D60" t="n">
-        <v>0.710523</v>
+        <v>0.7072889999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.238938</v>
+        <v>0.241158</v>
       </c>
       <c r="F60" t="n">
-        <v>0.412992</v>
+        <v>0.413393</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.282433</v>
+        <v>0.278812</v>
       </c>
       <c r="C61" t="n">
-        <v>0.465296</v>
+        <v>0.461176</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7018799999999999</v>
+        <v>0.699381</v>
       </c>
       <c r="E61" t="n">
-        <v>0.234242</v>
+        <v>0.236251</v>
       </c>
       <c r="F61" t="n">
-        <v>0.408478</v>
+        <v>0.408649</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274314</v>
+        <v>0.27387</v>
       </c>
       <c r="C62" t="n">
-        <v>0.459105</v>
+        <v>0.458929</v>
       </c>
       <c r="D62" t="n">
-        <v>0.694352</v>
+        <v>0.692118</v>
       </c>
       <c r="E62" t="n">
-        <v>0.229585</v>
+        <v>0.233312</v>
       </c>
       <c r="F62" t="n">
-        <v>0.403903</v>
+        <v>0.40407</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.275308</v>
+        <v>0.274899</v>
       </c>
       <c r="C63" t="n">
-        <v>0.454192</v>
+        <v>0.453064</v>
       </c>
       <c r="D63" t="n">
-        <v>0.688773</v>
+        <v>0.686267</v>
       </c>
       <c r="E63" t="n">
-        <v>0.226961</v>
+        <v>0.228602</v>
       </c>
       <c r="F63" t="n">
-        <v>0.401254</v>
+        <v>0.401482</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.271717</v>
+        <v>0.274103</v>
       </c>
       <c r="C64" t="n">
-        <v>0.449827</v>
+        <v>0.450291</v>
       </c>
       <c r="D64" t="n">
-        <v>0.907647</v>
+        <v>0.908568</v>
       </c>
       <c r="E64" t="n">
-        <v>0.223904</v>
+        <v>0.22717</v>
       </c>
       <c r="F64" t="n">
-        <v>0.399757</v>
+        <v>0.400507</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.269472</v>
+        <v>0.264485</v>
       </c>
       <c r="C65" t="n">
-        <v>0.448807</v>
+        <v>0.44776</v>
       </c>
       <c r="D65" t="n">
-        <v>0.88691</v>
+        <v>0.8855690000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>0.224674</v>
+        <v>0.227089</v>
       </c>
       <c r="F65" t="n">
-        <v>0.399499</v>
+        <v>0.39988</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.265474</v>
+        <v>0.268141</v>
       </c>
       <c r="C66" t="n">
-        <v>0.447628</v>
+        <v>0.44717</v>
       </c>
       <c r="D66" t="n">
-        <v>0.867996</v>
+        <v>0.866277</v>
       </c>
       <c r="E66" t="n">
-        <v>0.324855</v>
+        <v>0.331395</v>
       </c>
       <c r="F66" t="n">
-        <v>0.504737</v>
+        <v>0.506928</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.394721</v>
+        <v>0.395661</v>
       </c>
       <c r="C67" t="n">
-        <v>0.598857</v>
+        <v>0.596069</v>
       </c>
       <c r="D67" t="n">
-        <v>0.849379</v>
+        <v>0.848266</v>
       </c>
       <c r="E67" t="n">
-        <v>0.313379</v>
+        <v>0.322481</v>
       </c>
       <c r="F67" t="n">
-        <v>0.497341</v>
+        <v>0.498569</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.404806</v>
+        <v>0.386887</v>
       </c>
       <c r="C68" t="n">
-        <v>0.590305</v>
+        <v>0.587521</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8334510000000001</v>
+        <v>0.831815</v>
       </c>
       <c r="E68" t="n">
-        <v>0.311636</v>
+        <v>0.308203</v>
       </c>
       <c r="F68" t="n">
-        <v>0.487896</v>
+        <v>0.494271</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.391225</v>
+        <v>0.405737</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5805399999999999</v>
+        <v>0.5807600000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.81889</v>
+        <v>0.8195750000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>0.302306</v>
+        <v>0.298934</v>
       </c>
       <c r="F69" t="n">
-        <v>0.483887</v>
+        <v>0.485549</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.369748</v>
+        <v>0.377483</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5752930000000001</v>
+        <v>0.573617</v>
       </c>
       <c r="D70" t="n">
-        <v>0.806745</v>
+        <v>0.807342</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2921</v>
+        <v>0.293756</v>
       </c>
       <c r="F70" t="n">
-        <v>0.476912</v>
+        <v>0.480234</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.379767</v>
+        <v>0.389763</v>
       </c>
       <c r="C71" t="n">
-        <v>0.568205</v>
+        <v>0.567511</v>
       </c>
       <c r="D71" t="n">
-        <v>0.795106</v>
+        <v>0.79664</v>
       </c>
       <c r="E71" t="n">
-        <v>0.281988</v>
+        <v>0.285555</v>
       </c>
       <c r="F71" t="n">
-        <v>0.470521</v>
+        <v>0.472225</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.37069</v>
+        <v>0.354064</v>
       </c>
       <c r="C72" t="n">
-        <v>0.559634</v>
+        <v>0.557825</v>
       </c>
       <c r="D72" t="n">
-        <v>0.786247</v>
+        <v>0.787841</v>
       </c>
       <c r="E72" t="n">
-        <v>0.274317</v>
+        <v>0.277208</v>
       </c>
       <c r="F72" t="n">
-        <v>0.464578</v>
+        <v>0.468015</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.341199</v>
+        <v>0.358042</v>
       </c>
       <c r="C73" t="n">
-        <v>0.554446</v>
+        <v>0.549448</v>
       </c>
       <c r="D73" t="n">
-        <v>0.778358</v>
+        <v>0.780941</v>
       </c>
       <c r="E73" t="n">
-        <v>0.269089</v>
+        <v>0.272074</v>
       </c>
       <c r="F73" t="n">
-        <v>0.458601</v>
+        <v>0.460874</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.35676</v>
+        <v>0.34962</v>
       </c>
       <c r="C74" t="n">
-        <v>0.545013</v>
+        <v>0.5447650000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.772161</v>
+        <v>0.774899</v>
       </c>
       <c r="E74" t="n">
-        <v>0.262459</v>
+        <v>0.268032</v>
       </c>
       <c r="F74" t="n">
-        <v>0.453106</v>
+        <v>0.457034</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.34439</v>
+        <v>0.367232</v>
       </c>
       <c r="C75" t="n">
-        <v>0.549273</v>
+        <v>0.543485</v>
       </c>
       <c r="D75" t="n">
-        <v>0.767317</v>
+        <v>0.769102</v>
       </c>
       <c r="E75" t="n">
-        <v>0.256843</v>
+        <v>0.26104</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4497</v>
+        <v>0.450797</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.354462</v>
+        <v>0.339677</v>
       </c>
       <c r="C76" t="n">
-        <v>0.540443</v>
+        <v>0.53861</v>
       </c>
       <c r="D76" t="n">
-        <v>0.764937</v>
+        <v>0.766063</v>
       </c>
       <c r="E76" t="n">
-        <v>0.251195</v>
+        <v>0.258539</v>
       </c>
       <c r="F76" t="n">
-        <v>0.446162</v>
+        <v>0.449423</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.333171</v>
+        <v>0.347885</v>
       </c>
       <c r="C77" t="n">
-        <v>0.537738</v>
+        <v>0.534115</v>
       </c>
       <c r="D77" t="n">
-        <v>0.763834</v>
+        <v>0.765536</v>
       </c>
       <c r="E77" t="n">
-        <v>0.248476</v>
+        <v>0.255984</v>
       </c>
       <c r="F77" t="n">
-        <v>0.444343</v>
+        <v>0.446654</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.348257</v>
+        <v>0.338065</v>
       </c>
       <c r="C78" t="n">
-        <v>0.531667</v>
+        <v>0.53104</v>
       </c>
       <c r="D78" t="n">
-        <v>1.2275</v>
+        <v>1.22915</v>
       </c>
       <c r="E78" t="n">
-        <v>0.24373</v>
+        <v>0.249084</v>
       </c>
       <c r="F78" t="n">
-        <v>0.443026</v>
+        <v>0.444291</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.324649</v>
+        <v>0.321384</v>
       </c>
       <c r="C79" t="n">
-        <v>0.531736</v>
+        <v>0.531641</v>
       </c>
       <c r="D79" t="n">
-        <v>1.20353</v>
+        <v>1.20666</v>
       </c>
       <c r="E79" t="n">
-        <v>0.245551</v>
+        <v>0.252565</v>
       </c>
       <c r="F79" t="n">
-        <v>0.443613</v>
+        <v>0.444658</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323071</v>
+        <v>0.328336</v>
       </c>
       <c r="C80" t="n">
-        <v>0.535887</v>
+        <v>0.530937</v>
       </c>
       <c r="D80" t="n">
-        <v>1.1844</v>
+        <v>1.18629</v>
       </c>
       <c r="E80" t="n">
-        <v>0.370579</v>
+        <v>0.374381</v>
       </c>
       <c r="F80" t="n">
-        <v>0.709808</v>
+        <v>0.712769</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.429506</v>
+        <v>0.46429</v>
       </c>
       <c r="C81" t="n">
-        <v>0.856751</v>
+        <v>0.8696970000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16431</v>
+        <v>1.16834</v>
       </c>
       <c r="E81" t="n">
-        <v>0.358144</v>
+        <v>0.361712</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7115089999999999</v>
+        <v>0.716225</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.431752</v>
+        <v>0.47327</v>
       </c>
       <c r="C82" t="n">
-        <v>0.861623</v>
+        <v>0.867386</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15171</v>
+        <v>1.15083</v>
       </c>
       <c r="E82" t="n">
-        <v>0.355201</v>
+        <v>0.357913</v>
       </c>
       <c r="F82" t="n">
-        <v>0.717121</v>
+        <v>0.713422</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.457156</v>
+        <v>0.456773</v>
       </c>
       <c r="C83" t="n">
-        <v>0.860214</v>
+        <v>0.866405</v>
       </c>
       <c r="D83" t="n">
-        <v>1.13953</v>
+        <v>1.14397</v>
       </c>
       <c r="E83" t="n">
-        <v>0.343471</v>
+        <v>0.347721</v>
       </c>
       <c r="F83" t="n">
-        <v>0.707203</v>
+        <v>0.705654</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.459711</v>
+        <v>0.421437</v>
       </c>
       <c r="C84" t="n">
-        <v>0.851473</v>
+        <v>0.85022</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13093</v>
+        <v>1.13685</v>
       </c>
       <c r="E84" t="n">
-        <v>0.337159</v>
+        <v>0.339042</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6950539999999999</v>
+        <v>0.696325</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.428514</v>
+        <v>0.425363</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8344279999999999</v>
+        <v>0.840059</v>
       </c>
       <c r="D85" t="n">
-        <v>1.12839</v>
+        <v>1.1312</v>
       </c>
       <c r="E85" t="n">
-        <v>0.330742</v>
+        <v>0.331762</v>
       </c>
       <c r="F85" t="n">
-        <v>0.685221</v>
+        <v>0.685515</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.433817</v>
+        <v>0.41955</v>
       </c>
       <c r="C86" t="n">
-        <v>0.826962</v>
+        <v>0.819428</v>
       </c>
       <c r="D86" t="n">
-        <v>1.12603</v>
+        <v>1.12438</v>
       </c>
       <c r="E86" t="n">
-        <v>0.327427</v>
+        <v>0.323979</v>
       </c>
       <c r="F86" t="n">
-        <v>0.673322</v>
+        <v>0.669844</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.414541</v>
+        <v>0.434464</v>
       </c>
       <c r="C87" t="n">
-        <v>0.813939</v>
+        <v>0.813271</v>
       </c>
       <c r="D87" t="n">
-        <v>1.12423</v>
+        <v>1.12443</v>
       </c>
       <c r="E87" t="n">
-        <v>0.319105</v>
+        <v>0.323374</v>
       </c>
       <c r="F87" t="n">
-        <v>0.661676</v>
+        <v>0.661949</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.398642</v>
+        <v>0.399387</v>
       </c>
       <c r="C88" t="n">
-        <v>0.80426</v>
+        <v>0.801106</v>
       </c>
       <c r="D88" t="n">
-        <v>1.12639</v>
+        <v>1.13285</v>
       </c>
       <c r="E88" t="n">
-        <v>0.308063</v>
+        <v>0.31619</v>
       </c>
       <c r="F88" t="n">
-        <v>0.65163</v>
+        <v>0.652173</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.399033</v>
+        <v>0.416841</v>
       </c>
       <c r="C89" t="n">
-        <v>0.789413</v>
+        <v>0.803669</v>
       </c>
       <c r="D89" t="n">
-        <v>1.13268</v>
+        <v>1.1316</v>
       </c>
       <c r="E89" t="n">
-        <v>0.306362</v>
+        <v>0.306918</v>
       </c>
       <c r="F89" t="n">
-        <v>0.637514</v>
+        <v>0.635991</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.420372</v>
+        <v>0.428127</v>
       </c>
       <c r="C90" t="n">
-        <v>0.780982</v>
+        <v>0.785795</v>
       </c>
       <c r="D90" t="n">
-        <v>1.14442</v>
+        <v>1.14243</v>
       </c>
       <c r="E90" t="n">
-        <v>0.301977</v>
+        <v>0.303285</v>
       </c>
       <c r="F90" t="n">
-        <v>0.622761</v>
+        <v>0.623817</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.417677</v>
+        <v>0.417691</v>
       </c>
       <c r="C91" t="n">
-        <v>0.769696</v>
+        <v>0.775436</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15643</v>
+        <v>1.15207</v>
       </c>
       <c r="E91" t="n">
-        <v>0.291266</v>
+        <v>0.293148</v>
       </c>
       <c r="F91" t="n">
-        <v>0.619906</v>
+        <v>0.620756</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.387673</v>
+        <v>0.416279</v>
       </c>
       <c r="C92" t="n">
-        <v>0.761415</v>
+        <v>0.765917</v>
       </c>
       <c r="D92" t="n">
-        <v>1.7188</v>
+        <v>1.71764</v>
       </c>
       <c r="E92" t="n">
-        <v>0.293366</v>
+        <v>0.295099</v>
       </c>
       <c r="F92" t="n">
-        <v>0.608277</v>
+        <v>0.615372</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.399746</v>
+        <v>0.389678</v>
       </c>
       <c r="C93" t="n">
-        <v>0.753729</v>
+        <v>0.749976</v>
       </c>
       <c r="D93" t="n">
-        <v>1.70367</v>
+        <v>1.70306</v>
       </c>
       <c r="E93" t="n">
-        <v>0.287585</v>
+        <v>0.291876</v>
       </c>
       <c r="F93" t="n">
-        <v>0.604042</v>
+        <v>0.606038</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.405768</v>
+        <v>0.385015</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7494960000000001</v>
+        <v>0.751322</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69194</v>
+        <v>1.69312</v>
       </c>
       <c r="E94" t="n">
-        <v>0.484252</v>
+        <v>0.488728</v>
       </c>
       <c r="F94" t="n">
-        <v>1.04981</v>
+        <v>1.05151</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.584242</v>
+        <v>0.574534</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15529</v>
+        <v>1.14381</v>
       </c>
       <c r="D95" t="n">
-        <v>1.67996</v>
+        <v>1.6839</v>
       </c>
       <c r="E95" t="n">
-        <v>0.476332</v>
+        <v>0.480729</v>
       </c>
       <c r="F95" t="n">
-        <v>1.05205</v>
+        <v>1.05033</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.56649</v>
+        <v>0.588951</v>
       </c>
       <c r="C96" t="n">
-        <v>1.16157</v>
+        <v>1.13315</v>
       </c>
       <c r="D96" t="n">
-        <v>1.67098</v>
+        <v>1.6704</v>
       </c>
       <c r="E96" t="n">
-        <v>0.463875</v>
+        <v>0.468838</v>
       </c>
       <c r="F96" t="n">
-        <v>1.0414</v>
+        <v>1.03527</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.576693</v>
+        <v>0.581237</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14618</v>
+        <v>1.12615</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66387</v>
+        <v>1.66347</v>
       </c>
       <c r="E97" t="n">
-        <v>0.452852</v>
+        <v>0.453378</v>
       </c>
       <c r="F97" t="n">
-        <v>1.02956</v>
+        <v>1.02315</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.564646</v>
+        <v>0.559911</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1285</v>
+        <v>1.12665</v>
       </c>
       <c r="D98" t="n">
-        <v>1.65833</v>
+        <v>1.6549</v>
       </c>
       <c r="E98" t="n">
-        <v>0.442439</v>
+        <v>0.447866</v>
       </c>
       <c r="F98" t="n">
-        <v>1.0033</v>
+        <v>1.01278</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.559248</v>
+        <v>0.568754</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11458</v>
+        <v>1.11752</v>
       </c>
       <c r="D99" t="n">
-        <v>1.65555</v>
+        <v>1.65324</v>
       </c>
       <c r="E99" t="n">
-        <v>0.429518</v>
+        <v>0.432739</v>
       </c>
       <c r="F99" t="n">
-        <v>0.996978</v>
+        <v>0.994566</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.551613</v>
+        <v>0.54154</v>
       </c>
       <c r="C100" t="n">
-        <v>1.09576</v>
+        <v>1.10328</v>
       </c>
       <c r="D100" t="n">
-        <v>1.65428</v>
+        <v>1.65313</v>
       </c>
       <c r="E100" t="n">
-        <v>0.423115</v>
+        <v>0.425378</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9812380000000001</v>
+        <v>0.977904</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.532039</v>
+        <v>0.550582</v>
       </c>
       <c r="C101" t="n">
-        <v>1.0907</v>
+        <v>1.10244</v>
       </c>
       <c r="D101" t="n">
-        <v>1.66138</v>
+        <v>1.65741</v>
       </c>
       <c r="E101" t="n">
-        <v>0.409584</v>
+        <v>0.416763</v>
       </c>
       <c r="F101" t="n">
-        <v>0.967781</v>
+        <v>0.964579</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.527409</v>
+        <v>0.533558</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06949</v>
+        <v>1.06493</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66831</v>
+        <v>1.66233</v>
       </c>
       <c r="E102" t="n">
-        <v>0.400906</v>
+        <v>0.408878</v>
       </c>
       <c r="F102" t="n">
-        <v>0.954318</v>
+        <v>0.954296</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.524108</v>
+        <v>0.532056</v>
       </c>
       <c r="C103" t="n">
-        <v>1.05467</v>
+        <v>1.06753</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67257</v>
+        <v>1.67248</v>
       </c>
       <c r="E103" t="n">
-        <v>0.395355</v>
+        <v>0.399163</v>
       </c>
       <c r="F103" t="n">
-        <v>0.943457</v>
+        <v>0.933233</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.518572</v>
+        <v>0.511726</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04087</v>
+        <v>1.04435</v>
       </c>
       <c r="D104" t="n">
-        <v>1.68889</v>
+        <v>1.68311</v>
       </c>
       <c r="E104" t="n">
-        <v>0.387999</v>
+        <v>0.392176</v>
       </c>
       <c r="F104" t="n">
-        <v>0.932145</v>
+        <v>0.930297</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.509592</v>
+        <v>0.520356</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04906</v>
+        <v>1.04949</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70057</v>
+        <v>1.69816</v>
       </c>
       <c r="E105" t="n">
-        <v>0.380563</v>
+        <v>0.382695</v>
       </c>
       <c r="F105" t="n">
-        <v>0.920891</v>
+        <v>0.921749</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.504846</v>
+        <v>0.503345</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02895</v>
+        <v>1.03584</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71831</v>
+        <v>1.71306</v>
       </c>
       <c r="E106" t="n">
-        <v>0.373314</v>
+        <v>0.379039</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9113790000000001</v>
+        <v>0.911053</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.50658</v>
+        <v>0.49238</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02345</v>
+        <v>1.03239</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30671</v>
+        <v>2.30276</v>
       </c>
       <c r="E107" t="n">
-        <v>0.367548</v>
+        <v>0.37523</v>
       </c>
       <c r="F107" t="n">
-        <v>0.899567</v>
+        <v>0.905667</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492276</v>
+        <v>0.496076</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01402</v>
+        <v>1.02644</v>
       </c>
       <c r="D108" t="n">
-        <v>2.27772</v>
+        <v>2.27305</v>
       </c>
       <c r="E108" t="n">
-        <v>0.561928</v>
+        <v>0.522806</v>
       </c>
       <c r="F108" t="n">
-        <v>2.27632</v>
+        <v>2.28721</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.507314</v>
+        <v>0.511479</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02387</v>
+        <v>1.01909</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25628</v>
+        <v>2.24732</v>
       </c>
       <c r="E109" t="n">
-        <v>0.554695</v>
+        <v>0.563076</v>
       </c>
       <c r="F109" t="n">
-        <v>2.30306</v>
+        <v>2.29758</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.70605</v>
+        <v>0.707977</v>
       </c>
       <c r="C110" t="n">
-        <v>2.53605</v>
+        <v>2.53956</v>
       </c>
       <c r="D110" t="n">
-        <v>2.23473</v>
+        <v>2.23274</v>
       </c>
       <c r="E110" t="n">
-        <v>0.499516</v>
+        <v>0.552023</v>
       </c>
       <c r="F110" t="n">
-        <v>2.30435</v>
+        <v>2.31107</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.698434</v>
+        <v>0.6789500000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>2.55755</v>
+        <v>2.53457</v>
       </c>
       <c r="D111" t="n">
-        <v>2.22335</v>
+        <v>2.21222</v>
       </c>
       <c r="E111" t="n">
-        <v>0.532427</v>
+        <v>0.497756</v>
       </c>
       <c r="F111" t="n">
-        <v>2.30971</v>
+        <v>2.31958</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.682254</v>
+        <v>0.665637</v>
       </c>
       <c r="C112" t="n">
-        <v>2.55425</v>
+        <v>2.55554</v>
       </c>
       <c r="D112" t="n">
-        <v>2.2095</v>
+        <v>2.21371</v>
       </c>
       <c r="E112" t="n">
-        <v>0.525309</v>
+        <v>0.526548</v>
       </c>
       <c r="F112" t="n">
-        <v>2.32012</v>
+        <v>2.32593</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6321059999999999</v>
+        <v>0.641246</v>
       </c>
       <c r="C113" t="n">
-        <v>2.55319</v>
+        <v>2.543</v>
       </c>
       <c r="D113" t="n">
-        <v>2.20323</v>
+        <v>2.19555</v>
       </c>
       <c r="E113" t="n">
-        <v>0.472843</v>
+        <v>0.5136230000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>2.32317</v>
+        <v>2.32729</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.641026</v>
+        <v>0.659072</v>
       </c>
       <c r="C114" t="n">
-        <v>2.56123</v>
+        <v>2.56146</v>
       </c>
       <c r="D114" t="n">
-        <v>2.23109</v>
+        <v>2.23122</v>
       </c>
       <c r="E114" t="n">
-        <v>0.501939</v>
+        <v>0.509143</v>
       </c>
       <c r="F114" t="n">
-        <v>2.32576</v>
+        <v>2.3171</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.637049</v>
+        <v>0.641861</v>
       </c>
       <c r="C115" t="n">
-        <v>2.53863</v>
+        <v>2.54106</v>
       </c>
       <c r="D115" t="n">
-        <v>2.23655</v>
+        <v>2.21582</v>
       </c>
       <c r="E115" t="n">
-        <v>0.489556</v>
+        <v>0.49865</v>
       </c>
       <c r="F115" t="n">
-        <v>2.32108</v>
+        <v>2.33681</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.645012</v>
+        <v>0.617529</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56301</v>
+        <v>2.55328</v>
       </c>
       <c r="D116" t="n">
-        <v>2.22321</v>
+        <v>2.23246</v>
       </c>
       <c r="E116" t="n">
-        <v>0.482951</v>
+        <v>0.48706</v>
       </c>
       <c r="F116" t="n">
-        <v>2.33828</v>
+        <v>2.33755</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.632115</v>
+        <v>0.626657</v>
       </c>
       <c r="C117" t="n">
-        <v>2.54808</v>
+        <v>2.55478</v>
       </c>
       <c r="D117" t="n">
-        <v>2.21853</v>
+        <v>2.2189</v>
       </c>
       <c r="E117" t="n">
-        <v>0.436091</v>
+        <v>0.478317</v>
       </c>
       <c r="F117" t="n">
-        <v>2.34895</v>
+        <v>2.34659</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.586414</v>
+        <v>0.615962</v>
       </c>
       <c r="C118" t="n">
-        <v>2.54921</v>
+        <v>2.55084</v>
       </c>
       <c r="D118" t="n">
-        <v>2.18387</v>
+        <v>2.17847</v>
       </c>
       <c r="E118" t="n">
-        <v>0.432363</v>
+        <v>0.437152</v>
       </c>
       <c r="F118" t="n">
-        <v>2.15244</v>
+        <v>2.15766</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.570954</v>
+        <v>0.6217009999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>1.96551</v>
+        <v>2.58647</v>
       </c>
       <c r="D119" t="n">
-        <v>2.18552</v>
+        <v>2.18136</v>
       </c>
       <c r="E119" t="n">
-        <v>0.426899</v>
+        <v>0.427488</v>
       </c>
       <c r="F119" t="n">
-        <v>2.35059</v>
+        <v>1.9466</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.604276</v>
+        <v>0.5921380000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>2.55837</v>
+        <v>2.55301</v>
       </c>
       <c r="D120" t="n">
-        <v>2.19804</v>
+        <v>2.18156</v>
       </c>
       <c r="E120" t="n">
-        <v>0.420081</v>
+        <v>0.428649</v>
       </c>
       <c r="F120" t="n">
-        <v>2.16448</v>
+        <v>1.74654</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.60126</v>
+        <v>0.600237</v>
       </c>
       <c r="C121" t="n">
-        <v>2.58118</v>
+        <v>2.56507</v>
       </c>
       <c r="D121" t="n">
-        <v>2.85473</v>
+        <v>2.85476</v>
       </c>
       <c r="E121" t="n">
-        <v>0.413484</v>
+        <v>0.422032</v>
       </c>
       <c r="F121" t="n">
-        <v>1.12098</v>
+        <v>2.16518</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.600614</v>
+        <v>0.575651</v>
       </c>
       <c r="C122" t="n">
-        <v>2.57569</v>
+        <v>1.32682</v>
       </c>
       <c r="D122" t="n">
-        <v>2.81435</v>
+        <v>2.80388</v>
       </c>
       <c r="E122" t="n">
-        <v>0.414747</v>
+        <v>0.42148</v>
       </c>
       <c r="F122" t="n">
-        <v>1.75139</v>
+        <v>1.73749</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.565145</v>
+        <v>0.5753509999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>2.59281</v>
+        <v>2.57533</v>
       </c>
       <c r="D123" t="n">
-        <v>2.7718</v>
+        <v>2.77349</v>
       </c>
       <c r="E123" t="n">
-        <v>0.604444</v>
+        <v>0.61219</v>
       </c>
       <c r="F123" t="n">
-        <v>2.79976</v>
+        <v>2.80018</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7568780000000001</v>
+        <v>0.777513</v>
       </c>
       <c r="C124" t="n">
-        <v>3.11887</v>
+        <v>3.13007</v>
       </c>
       <c r="D124" t="n">
-        <v>2.74266</v>
+        <v>2.73052</v>
       </c>
       <c r="E124" t="n">
-        <v>0.598164</v>
+        <v>0.604174</v>
       </c>
       <c r="F124" t="n">
-        <v>2.79751</v>
+        <v>2.8007</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.75845</v>
+        <v>0.773688</v>
       </c>
       <c r="C125" t="n">
-        <v>3.11561</v>
+        <v>3.11016</v>
       </c>
       <c r="D125" t="n">
-        <v>2.70524</v>
+        <v>2.70424</v>
       </c>
       <c r="E125" t="n">
-        <v>0.589508</v>
+        <v>0.616299</v>
       </c>
       <c r="F125" t="n">
-        <v>2.79835</v>
+        <v>2.79607</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.760206</v>
+        <v>0.76309</v>
       </c>
       <c r="C126" t="n">
-        <v>3.11201</v>
+        <v>3.09875</v>
       </c>
       <c r="D126" t="n">
-        <v>2.67988</v>
+        <v>2.6844</v>
       </c>
       <c r="E126" t="n">
-        <v>0.602453</v>
+        <v>0.609367</v>
       </c>
       <c r="F126" t="n">
-        <v>2.78245</v>
+        <v>2.77753</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7370679999999999</v>
+        <v>0.729101</v>
       </c>
       <c r="C127" t="n">
-        <v>3.09915</v>
+        <v>3.09982</v>
       </c>
       <c r="D127" t="n">
-        <v>2.65776</v>
+        <v>2.64823</v>
       </c>
       <c r="E127" t="n">
-        <v>0.572726</v>
+        <v>0.602228</v>
       </c>
       <c r="F127" t="n">
-        <v>2.7949</v>
+        <v>2.79116</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7192809999999999</v>
+        <v>0.72462</v>
       </c>
       <c r="C128" t="n">
-        <v>3.08007</v>
+        <v>3.08711</v>
       </c>
       <c r="D128" t="n">
-        <v>2.6364</v>
+        <v>2.63141</v>
       </c>
       <c r="E128" t="n">
-        <v>0.566763</v>
+        <v>0.575193</v>
       </c>
       <c r="F128" t="n">
-        <v>2.79707</v>
+        <v>2.79608</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.730999</v>
+        <v>0.730876</v>
       </c>
       <c r="C129" t="n">
-        <v>3.06744</v>
+        <v>3.07238</v>
       </c>
       <c r="D129" t="n">
-        <v>2.62574</v>
+        <v>2.61319</v>
       </c>
       <c r="E129" t="n">
-        <v>0.559428</v>
+        <v>0.569456</v>
       </c>
       <c r="F129" t="n">
-        <v>2.79176</v>
+        <v>2.77873</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.720413</v>
+        <v>0.715039</v>
       </c>
       <c r="C130" t="n">
-        <v>3.06694</v>
+        <v>3.06456</v>
       </c>
       <c r="D130" t="n">
-        <v>2.60534</v>
+        <v>2.60577</v>
       </c>
       <c r="E130" t="n">
-        <v>0.554615</v>
+        <v>0.564434</v>
       </c>
       <c r="F130" t="n">
-        <v>2.78105</v>
+        <v>2.78135</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.712087</v>
+        <v>0.7120919999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>3.06137</v>
+        <v>3.06419</v>
       </c>
       <c r="D131" t="n">
-        <v>2.59489</v>
+        <v>2.59226</v>
       </c>
       <c r="E131" t="n">
-        <v>0.547207</v>
+        <v>0.556798</v>
       </c>
       <c r="F131" t="n">
-        <v>2.79162</v>
+        <v>2.79091</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7116479999999999</v>
+        <v>0.71116</v>
       </c>
       <c r="C132" t="n">
-        <v>3.05932</v>
+        <v>3.0596</v>
       </c>
       <c r="D132" t="n">
-        <v>2.59326</v>
+        <v>2.58164</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5410430000000001</v>
+        <v>0.552926</v>
       </c>
       <c r="F132" t="n">
-        <v>2.79508</v>
+        <v>2.79677</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.70544</v>
+        <v>0.705041</v>
       </c>
       <c r="C133" t="n">
-        <v>3.04379</v>
+        <v>3.03606</v>
       </c>
       <c r="D133" t="n">
-        <v>2.58459</v>
+        <v>2.57798</v>
       </c>
       <c r="E133" t="n">
-        <v>0.535278</v>
+        <v>0.548569</v>
       </c>
       <c r="F133" t="n">
-        <v>2.8002</v>
+        <v>2.79215</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.70556</v>
+        <v>0.696207</v>
       </c>
       <c r="C134" t="n">
-        <v>3.04857</v>
+        <v>3.04213</v>
       </c>
       <c r="D134" t="n">
-        <v>2.5614</v>
+        <v>2.55631</v>
       </c>
       <c r="E134" t="n">
-        <v>0.505679</v>
+        <v>0.514917</v>
       </c>
       <c r="F134" t="n">
-        <v>2.34487</v>
+        <v>2.3433</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.695929</v>
+        <v>0.695168</v>
       </c>
       <c r="C135" t="n">
-        <v>3.04383</v>
+        <v>3.0492</v>
       </c>
       <c r="D135" t="n">
-        <v>3.24864</v>
+        <v>3.24429</v>
       </c>
       <c r="E135" t="n">
-        <v>0.5044689999999999</v>
+        <v>0.513092</v>
       </c>
       <c r="F135" t="n">
-        <v>2.33877</v>
+        <v>2.80122</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.683262</v>
+        <v>0.679694</v>
       </c>
       <c r="C136" t="n">
-        <v>3.03254</v>
+        <v>3.03116</v>
       </c>
       <c r="D136" t="n">
-        <v>3.18973</v>
+        <v>3.1819</v>
       </c>
       <c r="E136" t="n">
-        <v>0.500678</v>
+        <v>0.508014</v>
       </c>
       <c r="F136" t="n">
-        <v>2.5741</v>
+        <v>2.80645</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.682832</v>
+        <v>0.694445</v>
       </c>
       <c r="C137" t="n">
-        <v>3.03874</v>
+        <v>3.03622</v>
       </c>
       <c r="D137" t="n">
-        <v>3.1341</v>
+        <v>3.13387</v>
       </c>
       <c r="E137" t="n">
-        <v>0.691701</v>
+        <v>0.700593</v>
       </c>
       <c r="F137" t="n">
-        <v>3.22185</v>
+        <v>3.22069</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.875011</v>
+        <v>0.867356</v>
       </c>
       <c r="C138" t="n">
-        <v>3.54134</v>
+        <v>3.53608</v>
       </c>
       <c r="D138" t="n">
-        <v>3.09083</v>
+        <v>3.09279</v>
       </c>
       <c r="E138" t="n">
-        <v>0.680969</v>
+        <v>0.694652</v>
       </c>
       <c r="F138" t="n">
-        <v>3.21253</v>
+        <v>3.21189</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.866038</v>
+        <v>0.865143</v>
       </c>
       <c r="C139" t="n">
-        <v>3.51543</v>
+        <v>3.51272</v>
       </c>
       <c r="D139" t="n">
-        <v>3.05589</v>
+        <v>3.04879</v>
       </c>
       <c r="E139" t="n">
-        <v>0.677657</v>
+        <v>0.690338</v>
       </c>
       <c r="F139" t="n">
-        <v>3.20578</v>
+        <v>3.20108</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.835187</v>
+        <v>0.853708</v>
       </c>
       <c r="C140" t="n">
-        <v>3.50613</v>
+        <v>3.50155</v>
       </c>
       <c r="D140" t="n">
-        <v>3.01888</v>
+        <v>3.0117</v>
       </c>
       <c r="E140" t="n">
-        <v>0.689909</v>
+        <v>0.6837220000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>3.18823</v>
+        <v>3.18444</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.840851</v>
+        <v>0.842467</v>
       </c>
       <c r="C141" t="n">
-        <v>3.45869</v>
+        <v>3.47813</v>
       </c>
       <c r="D141" t="n">
-        <v>2.98272</v>
+        <v>2.98015</v>
       </c>
       <c r="E141" t="n">
-        <v>0.664731</v>
+        <v>0.698245</v>
       </c>
       <c r="F141" t="n">
-        <v>3.17394</v>
+        <v>3.17242</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.833246</v>
+        <v>0.848836</v>
       </c>
       <c r="C142" t="n">
-        <v>3.45688</v>
+        <v>3.45711</v>
       </c>
       <c r="D142" t="n">
-        <v>2.96207</v>
+        <v>2.96547</v>
       </c>
       <c r="E142" t="n">
-        <v>0.675262</v>
+        <v>0.676821</v>
       </c>
       <c r="F142" t="n">
-        <v>3.16195</v>
+        <v>3.16035</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.836843</v>
+        <v>0.821444</v>
       </c>
       <c r="C143" t="n">
-        <v>3.43759</v>
+        <v>3.4399</v>
       </c>
       <c r="D143" t="n">
-        <v>2.93835</v>
+        <v>2.93528</v>
       </c>
       <c r="E143" t="n">
-        <v>0.65479</v>
+        <v>0.670797</v>
       </c>
       <c r="F143" t="n">
-        <v>3.152</v>
+        <v>3.15173</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.253796</v>
+        <v>0.254242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.416743</v>
+        <v>0.426168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.558667</v>
+        <v>0.570116</v>
       </c>
       <c r="E2" t="n">
-        <v>0.198773</v>
+        <v>0.196164</v>
       </c>
       <c r="F2" t="n">
-        <v>0.384288</v>
+        <v>0.377978</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.244661</v>
+        <v>0.246328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.408938</v>
+        <v>0.418996</v>
       </c>
       <c r="D3" t="n">
-        <v>0.550639</v>
+        <v>0.5606370000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1927</v>
+        <v>0.190983</v>
       </c>
       <c r="F3" t="n">
-        <v>0.377827</v>
+        <v>0.372064</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.238273</v>
+        <v>0.241146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.40331</v>
+        <v>0.412743</v>
       </c>
       <c r="D4" t="n">
-        <v>0.543687</v>
+        <v>0.554666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.187179</v>
+        <v>0.183741</v>
       </c>
       <c r="F4" t="n">
-        <v>0.37181</v>
+        <v>0.36637</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.234662</v>
+        <v>0.239178</v>
       </c>
       <c r="C5" t="n">
-        <v>0.398437</v>
+        <v>0.407918</v>
       </c>
       <c r="D5" t="n">
-        <v>0.537666</v>
+        <v>0.547966</v>
       </c>
       <c r="E5" t="n">
-        <v>0.181745</v>
+        <v>0.180921</v>
       </c>
       <c r="F5" t="n">
-        <v>0.366187</v>
+        <v>0.361747</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.233381</v>
+        <v>0.232422</v>
       </c>
       <c r="C6" t="n">
-        <v>0.394521</v>
+        <v>0.40418</v>
       </c>
       <c r="D6" t="n">
-        <v>0.53332</v>
+        <v>0.543303</v>
       </c>
       <c r="E6" t="n">
-        <v>0.178291</v>
+        <v>0.174894</v>
       </c>
       <c r="F6" t="n">
-        <v>0.363057</v>
+        <v>0.358809</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.229385</v>
+        <v>0.234097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.391793</v>
+        <v>0.399647</v>
       </c>
       <c r="D7" t="n">
-        <v>0.698844</v>
+        <v>0.703439</v>
       </c>
       <c r="E7" t="n">
-        <v>0.177091</v>
+        <v>0.173654</v>
       </c>
       <c r="F7" t="n">
-        <v>0.360907</v>
+        <v>0.356328</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.228412</v>
+        <v>0.225351</v>
       </c>
       <c r="C8" t="n">
-        <v>0.38958</v>
+        <v>0.398022</v>
       </c>
       <c r="D8" t="n">
-        <v>0.681213</v>
+        <v>0.686818</v>
       </c>
       <c r="E8" t="n">
-        <v>0.177445</v>
+        <v>0.174801</v>
       </c>
       <c r="F8" t="n">
-        <v>0.361044</v>
+        <v>0.356727</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.227876</v>
+        <v>0.226415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.39287</v>
+        <v>0.398222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.667737</v>
+        <v>0.672587</v>
       </c>
       <c r="E9" t="n">
-        <v>0.269239</v>
+        <v>0.265242</v>
       </c>
       <c r="F9" t="n">
-        <v>0.444612</v>
+        <v>0.437416</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.323358</v>
+        <v>0.31516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.479672</v>
+        <v>0.487054</v>
       </c>
       <c r="D10" t="n">
-        <v>0.653458</v>
+        <v>0.658351</v>
       </c>
       <c r="E10" t="n">
-        <v>0.258835</v>
+        <v>0.254191</v>
       </c>
       <c r="F10" t="n">
-        <v>0.433763</v>
+        <v>0.427987</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.315926</v>
+        <v>0.301197</v>
       </c>
       <c r="C11" t="n">
-        <v>0.469059</v>
+        <v>0.477194</v>
       </c>
       <c r="D11" t="n">
-        <v>0.642432</v>
+        <v>0.644732</v>
       </c>
       <c r="E11" t="n">
-        <v>0.248562</v>
+        <v>0.246804</v>
       </c>
       <c r="F11" t="n">
-        <v>0.42408</v>
+        <v>0.418948</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297138</v>
+        <v>0.300854</v>
       </c>
       <c r="C12" t="n">
-        <v>0.459448</v>
+        <v>0.467275</v>
       </c>
       <c r="D12" t="n">
-        <v>0.628049</v>
+        <v>0.6334920000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.24014</v>
+        <v>0.237582</v>
       </c>
       <c r="F12" t="n">
-        <v>0.415407</v>
+        <v>0.410315</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.291027</v>
+        <v>0.287308</v>
       </c>
       <c r="C13" t="n">
-        <v>0.450795</v>
+        <v>0.457911</v>
       </c>
       <c r="D13" t="n">
-        <v>0.619918</v>
+        <v>0.62298</v>
       </c>
       <c r="E13" t="n">
-        <v>0.234252</v>
+        <v>0.230103</v>
       </c>
       <c r="F13" t="n">
-        <v>0.407926</v>
+        <v>0.402865</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.284771</v>
+        <v>0.279828</v>
       </c>
       <c r="C14" t="n">
-        <v>0.442743</v>
+        <v>0.449232</v>
       </c>
       <c r="D14" t="n">
-        <v>0.611731</v>
+        <v>0.6135620000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.226133</v>
+        <v>0.224226</v>
       </c>
       <c r="F14" t="n">
-        <v>0.399143</v>
+        <v>0.394545</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.269946</v>
+        <v>0.274169</v>
       </c>
       <c r="C15" t="n">
-        <v>0.434232</v>
+        <v>0.441268</v>
       </c>
       <c r="D15" t="n">
-        <v>0.602058</v>
+        <v>0.605891</v>
       </c>
       <c r="E15" t="n">
-        <v>0.22105</v>
+        <v>0.215873</v>
       </c>
       <c r="F15" t="n">
-        <v>0.391857</v>
+        <v>0.387364</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.268397</v>
+        <v>0.270374</v>
       </c>
       <c r="C16" t="n">
-        <v>0.427423</v>
+        <v>0.43461</v>
       </c>
       <c r="D16" t="n">
-        <v>0.591079</v>
+        <v>0.597373</v>
       </c>
       <c r="E16" t="n">
-        <v>0.213529</v>
+        <v>0.209629</v>
       </c>
       <c r="F16" t="n">
-        <v>0.385401</v>
+        <v>0.380641</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.258583</v>
+        <v>0.262897</v>
       </c>
       <c r="C17" t="n">
-        <v>0.420929</v>
+        <v>0.429677</v>
       </c>
       <c r="D17" t="n">
-        <v>0.588209</v>
+        <v>0.5901189999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.208056</v>
+        <v>0.204032</v>
       </c>
       <c r="F17" t="n">
-        <v>0.379173</v>
+        <v>0.37435</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.260328</v>
+        <v>0.254053</v>
       </c>
       <c r="C18" t="n">
-        <v>0.417468</v>
+        <v>0.424231</v>
       </c>
       <c r="D18" t="n">
-        <v>0.57978</v>
+        <v>0.581516</v>
       </c>
       <c r="E18" t="n">
-        <v>0.203573</v>
+        <v>0.199354</v>
       </c>
       <c r="F18" t="n">
-        <v>0.372607</v>
+        <v>0.36882</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.247543</v>
+        <v>0.247405</v>
       </c>
       <c r="C19" t="n">
-        <v>0.412051</v>
+        <v>0.417776</v>
       </c>
       <c r="D19" t="n">
-        <v>0.571591</v>
+        <v>0.5754590000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.200898</v>
+        <v>0.195045</v>
       </c>
       <c r="F19" t="n">
-        <v>0.368956</v>
+        <v>0.365278</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244669</v>
+        <v>0.241895</v>
       </c>
       <c r="C20" t="n">
-        <v>0.40871</v>
+        <v>0.414366</v>
       </c>
       <c r="D20" t="n">
-        <v>0.565966</v>
+        <v>0.5691929999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.197588</v>
+        <v>0.192919</v>
       </c>
       <c r="F20" t="n">
-        <v>0.365452</v>
+        <v>0.36145</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.246863</v>
+        <v>0.242901</v>
       </c>
       <c r="C21" t="n">
-        <v>0.40149</v>
+        <v>0.407525</v>
       </c>
       <c r="D21" t="n">
-        <v>0.755605</v>
+        <v>0.758175</v>
       </c>
       <c r="E21" t="n">
-        <v>0.195253</v>
+        <v>0.19195</v>
       </c>
       <c r="F21" t="n">
-        <v>0.363467</v>
+        <v>0.35921</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240278</v>
+        <v>0.241576</v>
       </c>
       <c r="C22" t="n">
-        <v>0.399431</v>
+        <v>0.40552</v>
       </c>
       <c r="D22" t="n">
-        <v>0.738789</v>
+        <v>0.740435</v>
       </c>
       <c r="E22" t="n">
-        <v>0.198136</v>
+        <v>0.193299</v>
       </c>
       <c r="F22" t="n">
-        <v>0.363017</v>
+        <v>0.359897</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.242801</v>
+        <v>0.238579</v>
       </c>
       <c r="C23" t="n">
-        <v>0.398341</v>
+        <v>0.40442</v>
       </c>
       <c r="D23" t="n">
-        <v>0.722272</v>
+        <v>0.723203</v>
       </c>
       <c r="E23" t="n">
-        <v>0.289657</v>
+        <v>0.28595</v>
       </c>
       <c r="F23" t="n">
-        <v>0.45138</v>
+        <v>0.447649</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323337</v>
+        <v>0.322068</v>
       </c>
       <c r="C24" t="n">
-        <v>0.490436</v>
+        <v>0.500394</v>
       </c>
       <c r="D24" t="n">
-        <v>0.705458</v>
+        <v>0.710338</v>
       </c>
       <c r="E24" t="n">
-        <v>0.278008</v>
+        <v>0.276647</v>
       </c>
       <c r="F24" t="n">
-        <v>0.442038</v>
+        <v>0.43738</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.313083</v>
+        <v>0.316119</v>
       </c>
       <c r="C25" t="n">
-        <v>0.481039</v>
+        <v>0.489231</v>
       </c>
       <c r="D25" t="n">
-        <v>0.69425</v>
+        <v>0.696508</v>
       </c>
       <c r="E25" t="n">
-        <v>0.268588</v>
+        <v>0.264306</v>
       </c>
       <c r="F25" t="n">
-        <v>0.432608</v>
+        <v>0.428349</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.303779</v>
+        <v>0.303031</v>
       </c>
       <c r="C26" t="n">
-        <v>0.472224</v>
+        <v>0.4793</v>
       </c>
       <c r="D26" t="n">
-        <v>0.681629</v>
+        <v>0.684211</v>
       </c>
       <c r="E26" t="n">
-        <v>0.262651</v>
+        <v>0.255206</v>
       </c>
       <c r="F26" t="n">
-        <v>0.423317</v>
+        <v>0.4199</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298927</v>
+        <v>0.294522</v>
       </c>
       <c r="C27" t="n">
-        <v>0.462919</v>
+        <v>0.469392</v>
       </c>
       <c r="D27" t="n">
-        <v>0.671107</v>
+        <v>0.673021</v>
       </c>
       <c r="E27" t="n">
-        <v>0.251951</v>
+        <v>0.246753</v>
       </c>
       <c r="F27" t="n">
-        <v>0.415133</v>
+        <v>0.41119</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.289371</v>
+        <v>0.286363</v>
       </c>
       <c r="C28" t="n">
-        <v>0.45534</v>
+        <v>0.462602</v>
       </c>
       <c r="D28" t="n">
-        <v>0.659285</v>
+        <v>0.661893</v>
       </c>
       <c r="E28" t="n">
-        <v>0.243728</v>
+        <v>0.240919</v>
       </c>
       <c r="F28" t="n">
-        <v>0.407042</v>
+        <v>0.403435</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283451</v>
+        <v>0.28149</v>
       </c>
       <c r="C29" t="n">
-        <v>0.446934</v>
+        <v>0.454664</v>
       </c>
       <c r="D29" t="n">
-        <v>0.650346</v>
+        <v>0.6520319999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.237785</v>
+        <v>0.232322</v>
       </c>
       <c r="F29" t="n">
-        <v>0.400207</v>
+        <v>0.395998</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.273386</v>
+        <v>0.277075</v>
       </c>
       <c r="C30" t="n">
-        <v>0.440077</v>
+        <v>0.447914</v>
       </c>
       <c r="D30" t="n">
-        <v>0.641189</v>
+        <v>0.644266</v>
       </c>
       <c r="E30" t="n">
-        <v>0.229845</v>
+        <v>0.225978</v>
       </c>
       <c r="F30" t="n">
-        <v>0.392472</v>
+        <v>0.388189</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269322</v>
+        <v>0.268909</v>
       </c>
       <c r="C31" t="n">
-        <v>0.434053</v>
+        <v>0.441051</v>
       </c>
       <c r="D31" t="n">
-        <v>0.633055</v>
+        <v>0.635508</v>
       </c>
       <c r="E31" t="n">
-        <v>0.22545</v>
+        <v>0.218671</v>
       </c>
       <c r="F31" t="n">
-        <v>0.385733</v>
+        <v>0.382223</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260275</v>
+        <v>0.261186</v>
       </c>
       <c r="C32" t="n">
-        <v>0.42839</v>
+        <v>0.434192</v>
       </c>
       <c r="D32" t="n">
-        <v>0.626184</v>
+        <v>0.62856</v>
       </c>
       <c r="E32" t="n">
-        <v>0.21848</v>
+        <v>0.213273</v>
       </c>
       <c r="F32" t="n">
-        <v>0.380062</v>
+        <v>0.376556</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.252782</v>
+        <v>0.261146</v>
       </c>
       <c r="C33" t="n">
-        <v>0.422726</v>
+        <v>0.428043</v>
       </c>
       <c r="D33" t="n">
-        <v>0.620274</v>
+        <v>0.622228</v>
       </c>
       <c r="E33" t="n">
-        <v>0.214548</v>
+        <v>0.211848</v>
       </c>
       <c r="F33" t="n">
-        <v>0.374735</v>
+        <v>0.37148</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248476</v>
+        <v>0.250134</v>
       </c>
       <c r="C34" t="n">
-        <v>0.418449</v>
+        <v>0.423174</v>
       </c>
       <c r="D34" t="n">
-        <v>0.615263</v>
+        <v>0.616265</v>
       </c>
       <c r="E34" t="n">
-        <v>0.210473</v>
+        <v>0.205431</v>
       </c>
       <c r="F34" t="n">
-        <v>0.37049</v>
+        <v>0.367693</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247366</v>
+        <v>0.247579</v>
       </c>
       <c r="C35" t="n">
-        <v>0.410105</v>
+        <v>0.421318</v>
       </c>
       <c r="D35" t="n">
-        <v>0.816379</v>
+        <v>0.814451</v>
       </c>
       <c r="E35" t="n">
-        <v>0.208756</v>
+        <v>0.203072</v>
       </c>
       <c r="F35" t="n">
-        <v>0.36803</v>
+        <v>0.364319</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244255</v>
+        <v>0.240923</v>
       </c>
       <c r="C36" t="n">
-        <v>0.410387</v>
+        <v>0.416812</v>
       </c>
       <c r="D36" t="n">
-        <v>0.797265</v>
+        <v>0.795806</v>
       </c>
       <c r="E36" t="n">
-        <v>0.207672</v>
+        <v>0.201449</v>
       </c>
       <c r="F36" t="n">
-        <v>0.367371</v>
+        <v>0.36406</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.24213</v>
+        <v>0.240546</v>
       </c>
       <c r="C37" t="n">
-        <v>0.407928</v>
+        <v>0.413596</v>
       </c>
       <c r="D37" t="n">
-        <v>0.779307</v>
+        <v>0.777596</v>
       </c>
       <c r="E37" t="n">
-        <v>0.301397</v>
+        <v>0.296447</v>
       </c>
       <c r="F37" t="n">
-        <v>0.455403</v>
+        <v>0.455809</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.324637</v>
+        <v>0.327154</v>
       </c>
       <c r="C38" t="n">
-        <v>0.503386</v>
+        <v>0.512246</v>
       </c>
       <c r="D38" t="n">
-        <v>0.761903</v>
+        <v>0.762045</v>
       </c>
       <c r="E38" t="n">
-        <v>0.290027</v>
+        <v>0.283647</v>
       </c>
       <c r="F38" t="n">
-        <v>0.446051</v>
+        <v>0.446395</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318141</v>
+        <v>0.317995</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501153</v>
+        <v>0.508343</v>
       </c>
       <c r="D39" t="n">
-        <v>0.746828</v>
+        <v>0.746705</v>
       </c>
       <c r="E39" t="n">
-        <v>0.279339</v>
+        <v>0.274389</v>
       </c>
       <c r="F39" t="n">
-        <v>0.437462</v>
+        <v>0.436232</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.309269</v>
+        <v>0.309346</v>
       </c>
       <c r="C40" t="n">
-        <v>0.492124</v>
+        <v>0.498447</v>
       </c>
       <c r="D40" t="n">
-        <v>0.733344</v>
+        <v>0.732468</v>
       </c>
       <c r="E40" t="n">
-        <v>0.270785</v>
+        <v>0.265668</v>
       </c>
       <c r="F40" t="n">
-        <v>0.433074</v>
+        <v>0.431402</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.307449</v>
+        <v>0.305498</v>
       </c>
       <c r="C41" t="n">
-        <v>0.483264</v>
+        <v>0.488612</v>
       </c>
       <c r="D41" t="n">
-        <v>0.720126</v>
+        <v>0.7195</v>
       </c>
       <c r="E41" t="n">
-        <v>0.262569</v>
+        <v>0.258963</v>
       </c>
       <c r="F41" t="n">
-        <v>0.424977</v>
+        <v>0.422029</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.293126</v>
+        <v>0.294936</v>
       </c>
       <c r="C42" t="n">
-        <v>0.473932</v>
+        <v>0.479486</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7086479999999999</v>
+        <v>0.70863</v>
       </c>
       <c r="E42" t="n">
-        <v>0.254786</v>
+        <v>0.248617</v>
       </c>
       <c r="F42" t="n">
-        <v>0.418085</v>
+        <v>0.416251</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.284744</v>
+        <v>0.287702</v>
       </c>
       <c r="C43" t="n">
-        <v>0.465255</v>
+        <v>0.471232</v>
       </c>
       <c r="D43" t="n">
-        <v>0.69745</v>
+        <v>0.698117</v>
       </c>
       <c r="E43" t="n">
-        <v>0.247663</v>
+        <v>0.242009</v>
       </c>
       <c r="F43" t="n">
-        <v>0.41196</v>
+        <v>0.408766</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.297703</v>
+        <v>0.279035</v>
       </c>
       <c r="C44" t="n">
-        <v>0.458177</v>
+        <v>0.464298</v>
       </c>
       <c r="D44" t="n">
-        <v>0.68888</v>
+        <v>0.688647</v>
       </c>
       <c r="E44" t="n">
-        <v>0.240369</v>
+        <v>0.234083</v>
       </c>
       <c r="F44" t="n">
-        <v>0.404627</v>
+        <v>0.402223</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.276559</v>
+        <v>0.275055</v>
       </c>
       <c r="C45" t="n">
-        <v>0.451131</v>
+        <v>0.45538</v>
       </c>
       <c r="D45" t="n">
-        <v>0.680102</v>
+        <v>0.68048</v>
       </c>
       <c r="E45" t="n">
-        <v>0.235265</v>
+        <v>0.229338</v>
       </c>
       <c r="F45" t="n">
-        <v>0.399272</v>
+        <v>0.397888</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.272047</v>
+        <v>0.275067</v>
       </c>
       <c r="C46" t="n">
-        <v>0.444232</v>
+        <v>0.448324</v>
       </c>
       <c r="D46" t="n">
-        <v>0.672335</v>
+        <v>0.672973</v>
       </c>
       <c r="E46" t="n">
-        <v>0.227399</v>
+        <v>0.222139</v>
       </c>
       <c r="F46" t="n">
-        <v>0.390045</v>
+        <v>0.390481</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.270182</v>
+        <v>0.27492</v>
       </c>
       <c r="C47" t="n">
-        <v>0.437656</v>
+        <v>0.442889</v>
       </c>
       <c r="D47" t="n">
-        <v>0.666276</v>
+        <v>0.665605</v>
       </c>
       <c r="E47" t="n">
-        <v>0.221209</v>
+        <v>0.217656</v>
       </c>
       <c r="F47" t="n">
-        <v>0.387269</v>
+        <v>0.387286</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.263006</v>
+        <v>0.260824</v>
       </c>
       <c r="C48" t="n">
-        <v>0.432955</v>
+        <v>0.438532</v>
       </c>
       <c r="D48" t="n">
-        <v>0.658788</v>
+        <v>0.658956</v>
       </c>
       <c r="E48" t="n">
-        <v>0.219468</v>
+        <v>0.212671</v>
       </c>
       <c r="F48" t="n">
-        <v>0.383516</v>
+        <v>0.382822</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.261282</v>
+        <v>0.259233</v>
       </c>
       <c r="C49" t="n">
-        <v>0.429468</v>
+        <v>0.431545</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6533409999999999</v>
+        <v>0.654328</v>
       </c>
       <c r="E49" t="n">
-        <v>0.214294</v>
+        <v>0.20905</v>
       </c>
       <c r="F49" t="n">
-        <v>0.380666</v>
+        <v>0.379975</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.253619</v>
+        <v>0.255038</v>
       </c>
       <c r="C50" t="n">
-        <v>0.42575</v>
+        <v>0.430431</v>
       </c>
       <c r="D50" t="n">
-        <v>0.845672</v>
+        <v>0.84329</v>
       </c>
       <c r="E50" t="n">
-        <v>0.213814</v>
+        <v>0.208264</v>
       </c>
       <c r="F50" t="n">
-        <v>0.379849</v>
+        <v>0.379666</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.249373</v>
+        <v>0.249758</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422839</v>
+        <v>0.429241</v>
       </c>
       <c r="D51" t="n">
-        <v>0.825593</v>
+        <v>0.8246869999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.313798</v>
+        <v>0.308983</v>
       </c>
       <c r="F51" t="n">
-        <v>0.478102</v>
+        <v>0.477546</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.25501</v>
+        <v>0.25692</v>
       </c>
       <c r="C52" t="n">
-        <v>0.423676</v>
+        <v>0.428433</v>
       </c>
       <c r="D52" t="n">
-        <v>0.807573</v>
+        <v>0.807105</v>
       </c>
       <c r="E52" t="n">
-        <v>0.303568</v>
+        <v>0.300862</v>
       </c>
       <c r="F52" t="n">
-        <v>0.467779</v>
+        <v>0.468543</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.339852</v>
+        <v>0.334387</v>
       </c>
       <c r="C53" t="n">
-        <v>0.520407</v>
+        <v>0.537604</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7904949999999999</v>
+        <v>0.790555</v>
       </c>
       <c r="E53" t="n">
-        <v>0.295325</v>
+        <v>0.290476</v>
       </c>
       <c r="F53" t="n">
-        <v>0.459289</v>
+        <v>0.459794</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.330373</v>
+        <v>0.333086</v>
       </c>
       <c r="C54" t="n">
-        <v>0.514143</v>
+        <v>0.528412</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7750939999999999</v>
+        <v>0.773983</v>
       </c>
       <c r="E54" t="n">
-        <v>0.285858</v>
+        <v>0.281919</v>
       </c>
       <c r="F54" t="n">
-        <v>0.451875</v>
+        <v>0.449912</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3251</v>
+        <v>0.321122</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5045539999999999</v>
+        <v>0.520038</v>
       </c>
       <c r="D55" t="n">
-        <v>0.761513</v>
+        <v>0.760798</v>
       </c>
       <c r="E55" t="n">
-        <v>0.277236</v>
+        <v>0.272381</v>
       </c>
       <c r="F55" t="n">
-        <v>0.445124</v>
+        <v>0.444107</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.318947</v>
+        <v>0.315379</v>
       </c>
       <c r="C56" t="n">
-        <v>0.497796</v>
+        <v>0.511283</v>
       </c>
       <c r="D56" t="n">
-        <v>0.748461</v>
+        <v>0.748283</v>
       </c>
       <c r="E56" t="n">
-        <v>0.269275</v>
+        <v>0.265115</v>
       </c>
       <c r="F56" t="n">
-        <v>0.438102</v>
+        <v>0.434654</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.308153</v>
+        <v>0.305069</v>
       </c>
       <c r="C57" t="n">
-        <v>0.490556</v>
+        <v>0.504517</v>
       </c>
       <c r="D57" t="n">
-        <v>0.736432</v>
+        <v>0.736218</v>
       </c>
       <c r="E57" t="n">
-        <v>0.261376</v>
+        <v>0.257681</v>
       </c>
       <c r="F57" t="n">
-        <v>0.430387</v>
+        <v>0.427466</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.295715</v>
+        <v>0.296035</v>
       </c>
       <c r="C58" t="n">
-        <v>0.483341</v>
+        <v>0.497461</v>
       </c>
       <c r="D58" t="n">
-        <v>0.726182</v>
+        <v>0.726021</v>
       </c>
       <c r="E58" t="n">
-        <v>0.254916</v>
+        <v>0.248849</v>
       </c>
       <c r="F58" t="n">
-        <v>0.423716</v>
+        <v>0.421298</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.297413</v>
+        <v>0.294611</v>
       </c>
       <c r="C59" t="n">
-        <v>0.475077</v>
+        <v>0.488351</v>
       </c>
       <c r="D59" t="n">
-        <v>0.715818</v>
+        <v>0.717064</v>
       </c>
       <c r="E59" t="n">
-        <v>0.248209</v>
+        <v>0.242926</v>
       </c>
       <c r="F59" t="n">
-        <v>0.417554</v>
+        <v>0.415645</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.291704</v>
+        <v>0.290295</v>
       </c>
       <c r="C60" t="n">
-        <v>0.468633</v>
+        <v>0.485303</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7072889999999999</v>
+        <v>0.707774</v>
       </c>
       <c r="E60" t="n">
-        <v>0.241158</v>
+        <v>0.236772</v>
       </c>
       <c r="F60" t="n">
-        <v>0.413393</v>
+        <v>0.411325</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.278812</v>
+        <v>0.284253</v>
       </c>
       <c r="C61" t="n">
-        <v>0.461176</v>
+        <v>0.479462</v>
       </c>
       <c r="D61" t="n">
-        <v>0.699381</v>
+        <v>0.699971</v>
       </c>
       <c r="E61" t="n">
-        <v>0.236251</v>
+        <v>0.231313</v>
       </c>
       <c r="F61" t="n">
-        <v>0.408649</v>
+        <v>0.407238</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27387</v>
+        <v>0.278777</v>
       </c>
       <c r="C62" t="n">
-        <v>0.458929</v>
+        <v>0.474666</v>
       </c>
       <c r="D62" t="n">
-        <v>0.692118</v>
+        <v>0.692685</v>
       </c>
       <c r="E62" t="n">
-        <v>0.233312</v>
+        <v>0.227435</v>
       </c>
       <c r="F62" t="n">
-        <v>0.40407</v>
+        <v>0.404769</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.274899</v>
+        <v>0.269208</v>
       </c>
       <c r="C63" t="n">
-        <v>0.453064</v>
+        <v>0.469266</v>
       </c>
       <c r="D63" t="n">
-        <v>0.686267</v>
+        <v>0.686381</v>
       </c>
       <c r="E63" t="n">
-        <v>0.228602</v>
+        <v>0.222558</v>
       </c>
       <c r="F63" t="n">
-        <v>0.401482</v>
+        <v>0.40168</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.274103</v>
+        <v>0.268038</v>
       </c>
       <c r="C64" t="n">
-        <v>0.450291</v>
+        <v>0.463199</v>
       </c>
       <c r="D64" t="n">
-        <v>0.908568</v>
+        <v>0.906755</v>
       </c>
       <c r="E64" t="n">
-        <v>0.22717</v>
+        <v>0.221146</v>
       </c>
       <c r="F64" t="n">
-        <v>0.400507</v>
+        <v>0.399791</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.264485</v>
+        <v>0.269392</v>
       </c>
       <c r="C65" t="n">
-        <v>0.44776</v>
+        <v>0.46215</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8855690000000001</v>
+        <v>0.88792</v>
       </c>
       <c r="E65" t="n">
-        <v>0.227089</v>
+        <v>0.221531</v>
       </c>
       <c r="F65" t="n">
-        <v>0.39988</v>
+        <v>0.398943</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.268141</v>
+        <v>0.266284</v>
       </c>
       <c r="C66" t="n">
-        <v>0.44717</v>
+        <v>0.462559</v>
       </c>
       <c r="D66" t="n">
-        <v>0.866277</v>
+        <v>0.8679559999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.331395</v>
+        <v>0.318983</v>
       </c>
       <c r="F66" t="n">
-        <v>0.506928</v>
+        <v>0.508973</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.395661</v>
+        <v>0.401854</v>
       </c>
       <c r="C67" t="n">
-        <v>0.596069</v>
+        <v>0.603962</v>
       </c>
       <c r="D67" t="n">
-        <v>0.848266</v>
+        <v>0.849854</v>
       </c>
       <c r="E67" t="n">
-        <v>0.322481</v>
+        <v>0.310649</v>
       </c>
       <c r="F67" t="n">
-        <v>0.498569</v>
+        <v>0.5028280000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.386887</v>
+        <v>0.408126</v>
       </c>
       <c r="C68" t="n">
-        <v>0.587521</v>
+        <v>0.598781</v>
       </c>
       <c r="D68" t="n">
-        <v>0.831815</v>
+        <v>0.833577</v>
       </c>
       <c r="E68" t="n">
-        <v>0.308203</v>
+        <v>0.304212</v>
       </c>
       <c r="F68" t="n">
-        <v>0.494271</v>
+        <v>0.496513</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.405737</v>
+        <v>0.375819</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5807600000000001</v>
+        <v>0.58823</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8195750000000001</v>
+        <v>0.819275</v>
       </c>
       <c r="E69" t="n">
-        <v>0.298934</v>
+        <v>0.293835</v>
       </c>
       <c r="F69" t="n">
-        <v>0.485549</v>
+        <v>0.48947</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.377483</v>
+        <v>0.399701</v>
       </c>
       <c r="C70" t="n">
-        <v>0.573617</v>
+        <v>0.584427</v>
       </c>
       <c r="D70" t="n">
-        <v>0.807342</v>
+        <v>0.807396</v>
       </c>
       <c r="E70" t="n">
-        <v>0.293756</v>
+        <v>0.291596</v>
       </c>
       <c r="F70" t="n">
-        <v>0.480234</v>
+        <v>0.481941</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.389763</v>
+        <v>0.371987</v>
       </c>
       <c r="C71" t="n">
-        <v>0.567511</v>
+        <v>0.575932</v>
       </c>
       <c r="D71" t="n">
-        <v>0.79664</v>
+        <v>0.796859</v>
       </c>
       <c r="E71" t="n">
-        <v>0.285555</v>
+        <v>0.281151</v>
       </c>
       <c r="F71" t="n">
-        <v>0.472225</v>
+        <v>0.476346</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.354064</v>
+        <v>0.373624</v>
       </c>
       <c r="C72" t="n">
-        <v>0.557825</v>
+        <v>0.569171</v>
       </c>
       <c r="D72" t="n">
-        <v>0.787841</v>
+        <v>0.788085</v>
       </c>
       <c r="E72" t="n">
-        <v>0.277208</v>
+        <v>0.276822</v>
       </c>
       <c r="F72" t="n">
-        <v>0.468015</v>
+        <v>0.469092</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.358042</v>
+        <v>0.348791</v>
       </c>
       <c r="C73" t="n">
-        <v>0.549448</v>
+        <v>0.564735</v>
       </c>
       <c r="D73" t="n">
-        <v>0.780941</v>
+        <v>0.781114</v>
       </c>
       <c r="E73" t="n">
-        <v>0.272074</v>
+        <v>0.264918</v>
       </c>
       <c r="F73" t="n">
-        <v>0.460874</v>
+        <v>0.463776</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.34962</v>
+        <v>0.368824</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5447650000000001</v>
+        <v>0.557809</v>
       </c>
       <c r="D74" t="n">
-        <v>0.774899</v>
+        <v>0.7754219999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.268032</v>
+        <v>0.25927</v>
       </c>
       <c r="F74" t="n">
-        <v>0.457034</v>
+        <v>0.458667</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.367232</v>
+        <v>0.343783</v>
       </c>
       <c r="C75" t="n">
-        <v>0.543485</v>
+        <v>0.554882</v>
       </c>
       <c r="D75" t="n">
-        <v>0.769102</v>
+        <v>0.771003</v>
       </c>
       <c r="E75" t="n">
-        <v>0.26104</v>
+        <v>0.255008</v>
       </c>
       <c r="F75" t="n">
-        <v>0.450797</v>
+        <v>0.454653</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.339677</v>
+        <v>0.360704</v>
       </c>
       <c r="C76" t="n">
-        <v>0.53861</v>
+        <v>0.551123</v>
       </c>
       <c r="D76" t="n">
-        <v>0.766063</v>
+        <v>0.767962</v>
       </c>
       <c r="E76" t="n">
-        <v>0.258539</v>
+        <v>0.249469</v>
       </c>
       <c r="F76" t="n">
-        <v>0.449423</v>
+        <v>0.451711</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.347885</v>
+        <v>0.340318</v>
       </c>
       <c r="C77" t="n">
-        <v>0.534115</v>
+        <v>0.544056</v>
       </c>
       <c r="D77" t="n">
-        <v>0.765536</v>
+        <v>0.76873</v>
       </c>
       <c r="E77" t="n">
-        <v>0.255984</v>
+        <v>0.243099</v>
       </c>
       <c r="F77" t="n">
-        <v>0.446654</v>
+        <v>0.448849</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.338065</v>
+        <v>0.346696</v>
       </c>
       <c r="C78" t="n">
-        <v>0.53104</v>
+        <v>0.541465</v>
       </c>
       <c r="D78" t="n">
-        <v>1.22915</v>
+        <v>1.2345</v>
       </c>
       <c r="E78" t="n">
-        <v>0.249084</v>
+        <v>0.243848</v>
       </c>
       <c r="F78" t="n">
-        <v>0.444291</v>
+        <v>0.447724</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.321384</v>
+        <v>0.316301</v>
       </c>
       <c r="C79" t="n">
-        <v>0.531641</v>
+        <v>0.539921</v>
       </c>
       <c r="D79" t="n">
-        <v>1.20666</v>
+        <v>1.21232</v>
       </c>
       <c r="E79" t="n">
-        <v>0.252565</v>
+        <v>0.241526</v>
       </c>
       <c r="F79" t="n">
-        <v>0.444658</v>
+        <v>0.447854</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.328336</v>
+        <v>0.320418</v>
       </c>
       <c r="C80" t="n">
-        <v>0.530937</v>
+        <v>0.54057</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18629</v>
+        <v>1.191</v>
       </c>
       <c r="E80" t="n">
-        <v>0.374381</v>
+        <v>0.369267</v>
       </c>
       <c r="F80" t="n">
-        <v>0.712769</v>
+        <v>0.7161920000000001</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.46429</v>
+        <v>0.45577</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8696970000000001</v>
+        <v>0.866364</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16834</v>
+        <v>1.17648</v>
       </c>
       <c r="E81" t="n">
-        <v>0.361712</v>
+        <v>0.360945</v>
       </c>
       <c r="F81" t="n">
-        <v>0.716225</v>
+        <v>0.714801</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.47327</v>
+        <v>0.456962</v>
       </c>
       <c r="C82" t="n">
-        <v>0.867386</v>
+        <v>0.865162</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15083</v>
+        <v>1.16347</v>
       </c>
       <c r="E82" t="n">
-        <v>0.357913</v>
+        <v>0.351755</v>
       </c>
       <c r="F82" t="n">
-        <v>0.713422</v>
+        <v>0.712303</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.456773</v>
+        <v>0.481635</v>
       </c>
       <c r="C83" t="n">
-        <v>0.866405</v>
+        <v>0.870997</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14397</v>
+        <v>1.15063</v>
       </c>
       <c r="E83" t="n">
-        <v>0.347721</v>
+        <v>0.337934</v>
       </c>
       <c r="F83" t="n">
-        <v>0.705654</v>
+        <v>0.707754</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.421437</v>
+        <v>0.439777</v>
       </c>
       <c r="C84" t="n">
-        <v>0.85022</v>
+        <v>0.858576</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13685</v>
+        <v>1.14153</v>
       </c>
       <c r="E84" t="n">
-        <v>0.339042</v>
+        <v>0.329637</v>
       </c>
       <c r="F84" t="n">
-        <v>0.696325</v>
+        <v>0.698944</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.425363</v>
+        <v>0.445286</v>
       </c>
       <c r="C85" t="n">
-        <v>0.840059</v>
+        <v>0.84346</v>
       </c>
       <c r="D85" t="n">
-        <v>1.1312</v>
+        <v>1.13622</v>
       </c>
       <c r="E85" t="n">
-        <v>0.331762</v>
+        <v>0.327009</v>
       </c>
       <c r="F85" t="n">
-        <v>0.685515</v>
+        <v>0.686675</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.41955</v>
+        <v>0.417862</v>
       </c>
       <c r="C86" t="n">
-        <v>0.819428</v>
+        <v>0.835175</v>
       </c>
       <c r="D86" t="n">
-        <v>1.12438</v>
+        <v>1.13065</v>
       </c>
       <c r="E86" t="n">
-        <v>0.323979</v>
+        <v>0.315169</v>
       </c>
       <c r="F86" t="n">
-        <v>0.669844</v>
+        <v>0.675546</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.434464</v>
+        <v>0.438704</v>
       </c>
       <c r="C87" t="n">
-        <v>0.813271</v>
+        <v>0.821861</v>
       </c>
       <c r="D87" t="n">
-        <v>1.12443</v>
+        <v>1.13135</v>
       </c>
       <c r="E87" t="n">
-        <v>0.323374</v>
+        <v>0.309436</v>
       </c>
       <c r="F87" t="n">
-        <v>0.661949</v>
+        <v>0.665307</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.399387</v>
+        <v>0.416757</v>
       </c>
       <c r="C88" t="n">
-        <v>0.801106</v>
+        <v>0.805581</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13285</v>
+        <v>1.13317</v>
       </c>
       <c r="E88" t="n">
-        <v>0.31619</v>
+        <v>0.308446</v>
       </c>
       <c r="F88" t="n">
-        <v>0.652173</v>
+        <v>0.64899</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.416841</v>
+        <v>0.406398</v>
       </c>
       <c r="C89" t="n">
-        <v>0.803669</v>
+        <v>0.799157</v>
       </c>
       <c r="D89" t="n">
-        <v>1.1316</v>
+        <v>1.1401</v>
       </c>
       <c r="E89" t="n">
-        <v>0.306918</v>
+        <v>0.300849</v>
       </c>
       <c r="F89" t="n">
-        <v>0.635991</v>
+        <v>0.638343</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.428127</v>
+        <v>0.405344</v>
       </c>
       <c r="C90" t="n">
-        <v>0.785795</v>
+        <v>0.783518</v>
       </c>
       <c r="D90" t="n">
-        <v>1.14243</v>
+        <v>1.14874</v>
       </c>
       <c r="E90" t="n">
-        <v>0.303285</v>
+        <v>0.296707</v>
       </c>
       <c r="F90" t="n">
-        <v>0.623817</v>
+        <v>0.6318859999999999</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.417691</v>
+        <v>0.402656</v>
       </c>
       <c r="C91" t="n">
-        <v>0.775436</v>
+        <v>0.777504</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15207</v>
+        <v>1.16243</v>
       </c>
       <c r="E91" t="n">
-        <v>0.293148</v>
+        <v>0.288898</v>
       </c>
       <c r="F91" t="n">
-        <v>0.620756</v>
+        <v>0.622534</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.416279</v>
+        <v>0.392039</v>
       </c>
       <c r="C92" t="n">
-        <v>0.765917</v>
+        <v>0.768168</v>
       </c>
       <c r="D92" t="n">
-        <v>1.71764</v>
+        <v>1.72655</v>
       </c>
       <c r="E92" t="n">
-        <v>0.295099</v>
+        <v>0.281368</v>
       </c>
       <c r="F92" t="n">
-        <v>0.615372</v>
+        <v>0.617106</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.389678</v>
+        <v>0.385846</v>
       </c>
       <c r="C93" t="n">
-        <v>0.749976</v>
+        <v>0.758599</v>
       </c>
       <c r="D93" t="n">
-        <v>1.70306</v>
+        <v>1.72009</v>
       </c>
       <c r="E93" t="n">
-        <v>0.291876</v>
+        <v>0.277187</v>
       </c>
       <c r="F93" t="n">
-        <v>0.606038</v>
+        <v>0.607723</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.385015</v>
+        <v>0.387451</v>
       </c>
       <c r="C94" t="n">
-        <v>0.751322</v>
+        <v>0.751134</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69312</v>
+        <v>1.70811</v>
       </c>
       <c r="E94" t="n">
-        <v>0.488728</v>
+        <v>0.463484</v>
       </c>
       <c r="F94" t="n">
-        <v>1.05151</v>
+        <v>1.0498</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.574534</v>
+        <v>0.571511</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14381</v>
+        <v>1.16996</v>
       </c>
       <c r="D95" t="n">
-        <v>1.6839</v>
+        <v>1.69306</v>
       </c>
       <c r="E95" t="n">
-        <v>0.480729</v>
+        <v>0.461071</v>
       </c>
       <c r="F95" t="n">
-        <v>1.05033</v>
+        <v>1.04755</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.588951</v>
+        <v>0.577335</v>
       </c>
       <c r="C96" t="n">
-        <v>1.13315</v>
+        <v>1.15611</v>
       </c>
       <c r="D96" t="n">
-        <v>1.6704</v>
+        <v>1.68173</v>
       </c>
       <c r="E96" t="n">
-        <v>0.468838</v>
+        <v>0.447568</v>
       </c>
       <c r="F96" t="n">
-        <v>1.03527</v>
+        <v>1.03718</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.581237</v>
+        <v>0.573756</v>
       </c>
       <c r="C97" t="n">
-        <v>1.12615</v>
+        <v>1.15221</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66347</v>
+        <v>1.67268</v>
       </c>
       <c r="E97" t="n">
-        <v>0.453378</v>
+        <v>0.438298</v>
       </c>
       <c r="F97" t="n">
-        <v>1.02315</v>
+        <v>1.02361</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.559911</v>
+        <v>0.546583</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12665</v>
+        <v>1.13752</v>
       </c>
       <c r="D98" t="n">
-        <v>1.6549</v>
+        <v>1.66618</v>
       </c>
       <c r="E98" t="n">
-        <v>0.447866</v>
+        <v>0.42616</v>
       </c>
       <c r="F98" t="n">
-        <v>1.01278</v>
+        <v>1.01127</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.568754</v>
+        <v>0.543392</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11752</v>
+        <v>1.12112</v>
       </c>
       <c r="D99" t="n">
-        <v>1.65324</v>
+        <v>1.66566</v>
       </c>
       <c r="E99" t="n">
-        <v>0.432739</v>
+        <v>0.417972</v>
       </c>
       <c r="F99" t="n">
-        <v>0.994566</v>
+        <v>0.994285</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.54154</v>
+        <v>0.548663</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10328</v>
+        <v>1.12319</v>
       </c>
       <c r="D100" t="n">
-        <v>1.65313</v>
+        <v>1.66476</v>
       </c>
       <c r="E100" t="n">
-        <v>0.425378</v>
+        <v>0.404275</v>
       </c>
       <c r="F100" t="n">
-        <v>0.977904</v>
+        <v>0.980636</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.550582</v>
+        <v>0.546446</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10244</v>
+        <v>1.10118</v>
       </c>
       <c r="D101" t="n">
-        <v>1.65741</v>
+        <v>1.67099</v>
       </c>
       <c r="E101" t="n">
-        <v>0.416763</v>
+        <v>0.394978</v>
       </c>
       <c r="F101" t="n">
-        <v>0.964579</v>
+        <v>0.967334</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.533558</v>
+        <v>0.521882</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06493</v>
+        <v>1.09924</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66233</v>
+        <v>1.67714</v>
       </c>
       <c r="E102" t="n">
-        <v>0.408878</v>
+        <v>0.387491</v>
       </c>
       <c r="F102" t="n">
-        <v>0.954296</v>
+        <v>0.954023</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.532056</v>
+        <v>0.5289700000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06753</v>
+        <v>1.06615</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67248</v>
+        <v>1.68476</v>
       </c>
       <c r="E103" t="n">
-        <v>0.399163</v>
+        <v>0.380333</v>
       </c>
       <c r="F103" t="n">
-        <v>0.933233</v>
+        <v>0.941262</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.511726</v>
+        <v>0.512992</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04435</v>
+        <v>1.06234</v>
       </c>
       <c r="D104" t="n">
-        <v>1.68311</v>
+        <v>1.69719</v>
       </c>
       <c r="E104" t="n">
-        <v>0.392176</v>
+        <v>0.374849</v>
       </c>
       <c r="F104" t="n">
-        <v>0.930297</v>
+        <v>0.927401</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.520356</v>
+        <v>0.502178</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04949</v>
+        <v>1.05257</v>
       </c>
       <c r="D105" t="n">
-        <v>1.69816</v>
+        <v>1.70756</v>
       </c>
       <c r="E105" t="n">
-        <v>0.382695</v>
+        <v>0.363198</v>
       </c>
       <c r="F105" t="n">
-        <v>0.921749</v>
+        <v>0.918941</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.503345</v>
+        <v>0.492654</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03584</v>
+        <v>1.04324</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71306</v>
+        <v>1.72632</v>
       </c>
       <c r="E106" t="n">
-        <v>0.379039</v>
+        <v>0.357911</v>
       </c>
       <c r="F106" t="n">
-        <v>0.911053</v>
+        <v>0.899629</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.49238</v>
+        <v>0.498914</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03239</v>
+        <v>1.03289</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30276</v>
+        <v>2.31909</v>
       </c>
       <c r="E107" t="n">
-        <v>0.37523</v>
+        <v>0.356271</v>
       </c>
       <c r="F107" t="n">
-        <v>0.905667</v>
+        <v>0.883087</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.496076</v>
+        <v>0.484324</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02644</v>
+        <v>1.02478</v>
       </c>
       <c r="D108" t="n">
-        <v>2.27305</v>
+        <v>2.2893</v>
       </c>
       <c r="E108" t="n">
-        <v>0.522806</v>
+        <v>0.55098</v>
       </c>
       <c r="F108" t="n">
-        <v>2.28721</v>
+        <v>2.29447</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.511479</v>
+        <v>0.508215</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01909</v>
+        <v>1.0245</v>
       </c>
       <c r="D109" t="n">
-        <v>2.24732</v>
+        <v>2.26484</v>
       </c>
       <c r="E109" t="n">
-        <v>0.563076</v>
+        <v>0.540573</v>
       </c>
       <c r="F109" t="n">
-        <v>2.29758</v>
+        <v>2.31669</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.707977</v>
+        <v>0.6882200000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>2.53956</v>
+        <v>2.56519</v>
       </c>
       <c r="D110" t="n">
-        <v>2.23274</v>
+        <v>2.24542</v>
       </c>
       <c r="E110" t="n">
-        <v>0.552023</v>
+        <v>0.490729</v>
       </c>
       <c r="F110" t="n">
-        <v>2.31107</v>
+        <v>2.32521</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6789500000000001</v>
+        <v>0.677764</v>
       </c>
       <c r="C111" t="n">
-        <v>2.53457</v>
+        <v>2.5669</v>
       </c>
       <c r="D111" t="n">
-        <v>2.21222</v>
+        <v>2.23195</v>
       </c>
       <c r="E111" t="n">
-        <v>0.497756</v>
+        <v>0.5156849999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>2.31958</v>
+        <v>2.33077</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.665637</v>
+        <v>0.67299</v>
       </c>
       <c r="C112" t="n">
-        <v>2.55554</v>
+        <v>2.55996</v>
       </c>
       <c r="D112" t="n">
-        <v>2.21371</v>
+        <v>2.21844</v>
       </c>
       <c r="E112" t="n">
-        <v>0.526548</v>
+        <v>0.504512</v>
       </c>
       <c r="F112" t="n">
-        <v>2.32593</v>
+        <v>2.32821</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.641246</v>
+        <v>0.674656</v>
       </c>
       <c r="C113" t="n">
-        <v>2.543</v>
+        <v>2.55107</v>
       </c>
       <c r="D113" t="n">
-        <v>2.19555</v>
+        <v>2.21</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5136230000000001</v>
+        <v>0.458101</v>
       </c>
       <c r="F113" t="n">
-        <v>2.32729</v>
+        <v>2.34019</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.659072</v>
+        <v>0.6699040000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>2.56146</v>
+        <v>2.57616</v>
       </c>
       <c r="D114" t="n">
-        <v>2.23122</v>
+        <v>2.22264</v>
       </c>
       <c r="E114" t="n">
-        <v>0.509143</v>
+        <v>0.481955</v>
       </c>
       <c r="F114" t="n">
-        <v>2.3171</v>
+        <v>2.33003</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.641861</v>
+        <v>0.641968</v>
       </c>
       <c r="C115" t="n">
-        <v>2.54106</v>
+        <v>2.55543</v>
       </c>
       <c r="D115" t="n">
-        <v>2.21582</v>
+        <v>2.24135</v>
       </c>
       <c r="E115" t="n">
-        <v>0.49865</v>
+        <v>0.471713</v>
       </c>
       <c r="F115" t="n">
-        <v>2.33681</v>
+        <v>2.35848</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.617529</v>
+        <v>0.641354</v>
       </c>
       <c r="C116" t="n">
-        <v>2.55328</v>
+        <v>2.57775</v>
       </c>
       <c r="D116" t="n">
-        <v>2.23246</v>
+        <v>2.21042</v>
       </c>
       <c r="E116" t="n">
-        <v>0.48706</v>
+        <v>0.463875</v>
       </c>
       <c r="F116" t="n">
-        <v>2.33755</v>
+        <v>2.34731</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.626657</v>
+        <v>0.595635</v>
       </c>
       <c r="C117" t="n">
-        <v>2.55478</v>
+        <v>2.57699</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2189</v>
+        <v>2.23437</v>
       </c>
       <c r="E117" t="n">
-        <v>0.478317</v>
+        <v>0.452497</v>
       </c>
       <c r="F117" t="n">
-        <v>2.34659</v>
+        <v>2.36214</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.615962</v>
+        <v>0.58448</v>
       </c>
       <c r="C118" t="n">
-        <v>2.55084</v>
+        <v>2.57563</v>
       </c>
       <c r="D118" t="n">
-        <v>2.17847</v>
+        <v>2.19799</v>
       </c>
       <c r="E118" t="n">
-        <v>0.437152</v>
+        <v>0.421101</v>
       </c>
       <c r="F118" t="n">
-        <v>2.15766</v>
+        <v>2.17613</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6217009999999999</v>
+        <v>0.604977</v>
       </c>
       <c r="C119" t="n">
-        <v>2.58647</v>
+        <v>1.76578</v>
       </c>
       <c r="D119" t="n">
-        <v>2.18136</v>
+        <v>2.19045</v>
       </c>
       <c r="E119" t="n">
-        <v>0.427488</v>
+        <v>0.413547</v>
       </c>
       <c r="F119" t="n">
-        <v>1.9466</v>
+        <v>1.76143</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5921380000000001</v>
+        <v>0.5991880000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>2.55301</v>
+        <v>2.57155</v>
       </c>
       <c r="D120" t="n">
-        <v>2.18156</v>
+        <v>2.21788</v>
       </c>
       <c r="E120" t="n">
-        <v>0.428649</v>
+        <v>0.404794</v>
       </c>
       <c r="F120" t="n">
-        <v>1.74654</v>
+        <v>1.76292</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.600237</v>
+        <v>0.56668</v>
       </c>
       <c r="C121" t="n">
-        <v>2.56507</v>
+        <v>1.36218</v>
       </c>
       <c r="D121" t="n">
-        <v>2.85476</v>
+        <v>2.86605</v>
       </c>
       <c r="E121" t="n">
-        <v>0.422032</v>
+        <v>0.400754</v>
       </c>
       <c r="F121" t="n">
-        <v>2.16518</v>
+        <v>1.54741</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.575651</v>
+        <v>0.557741</v>
       </c>
       <c r="C122" t="n">
-        <v>1.32682</v>
+        <v>2.58975</v>
       </c>
       <c r="D122" t="n">
-        <v>2.80388</v>
+        <v>2.82661</v>
       </c>
       <c r="E122" t="n">
-        <v>0.42148</v>
+        <v>0.399084</v>
       </c>
       <c r="F122" t="n">
-        <v>1.73749</v>
+        <v>1.75936</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5753509999999999</v>
+        <v>0.585672</v>
       </c>
       <c r="C123" t="n">
-        <v>2.57533</v>
+        <v>2.59668</v>
       </c>
       <c r="D123" t="n">
-        <v>2.77349</v>
+        <v>2.79119</v>
       </c>
       <c r="E123" t="n">
-        <v>0.61219</v>
+        <v>0.586584</v>
       </c>
       <c r="F123" t="n">
-        <v>2.80018</v>
+        <v>2.81973</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.777513</v>
+        <v>0.771611</v>
       </c>
       <c r="C124" t="n">
-        <v>3.13007</v>
+        <v>3.15603</v>
       </c>
       <c r="D124" t="n">
-        <v>2.73052</v>
+        <v>2.74935</v>
       </c>
       <c r="E124" t="n">
-        <v>0.604174</v>
+        <v>0.578227</v>
       </c>
       <c r="F124" t="n">
-        <v>2.8007</v>
+        <v>2.81533</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.773688</v>
+        <v>0.768062</v>
       </c>
       <c r="C125" t="n">
-        <v>3.11016</v>
+        <v>3.14821</v>
       </c>
       <c r="D125" t="n">
-        <v>2.70424</v>
+        <v>2.72769</v>
       </c>
       <c r="E125" t="n">
-        <v>0.616299</v>
+        <v>0.589901</v>
       </c>
       <c r="F125" t="n">
-        <v>2.79607</v>
+        <v>2.82691</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.76309</v>
+        <v>0.744764</v>
       </c>
       <c r="C126" t="n">
-        <v>3.09875</v>
+        <v>3.13579</v>
       </c>
       <c r="D126" t="n">
-        <v>2.6844</v>
+        <v>2.69308</v>
       </c>
       <c r="E126" t="n">
-        <v>0.609367</v>
+        <v>0.560953</v>
       </c>
       <c r="F126" t="n">
-        <v>2.77753</v>
+        <v>2.80955</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.729101</v>
+        <v>0.750366</v>
       </c>
       <c r="C127" t="n">
-        <v>3.09982</v>
+        <v>3.12084</v>
       </c>
       <c r="D127" t="n">
-        <v>2.64823</v>
+        <v>2.67166</v>
       </c>
       <c r="E127" t="n">
-        <v>0.602228</v>
+        <v>0.5532859999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>2.79116</v>
+        <v>2.80736</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.72462</v>
+        <v>0.741274</v>
       </c>
       <c r="C128" t="n">
-        <v>3.08711</v>
+        <v>3.10894</v>
       </c>
       <c r="D128" t="n">
-        <v>2.63141</v>
+        <v>2.64717</v>
       </c>
       <c r="E128" t="n">
-        <v>0.575193</v>
+        <v>0.56304</v>
       </c>
       <c r="F128" t="n">
-        <v>2.79608</v>
+        <v>2.81188</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.730876</v>
+        <v>0.734123</v>
       </c>
       <c r="C129" t="n">
-        <v>3.07238</v>
+        <v>3.09429</v>
       </c>
       <c r="D129" t="n">
-        <v>2.61319</v>
+        <v>2.63486</v>
       </c>
       <c r="E129" t="n">
-        <v>0.569456</v>
+        <v>0.539551</v>
       </c>
       <c r="F129" t="n">
-        <v>2.77873</v>
+        <v>2.8017</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.715039</v>
+        <v>0.712125</v>
       </c>
       <c r="C130" t="n">
-        <v>3.06456</v>
+        <v>3.08731</v>
       </c>
       <c r="D130" t="n">
-        <v>2.60577</v>
+        <v>2.6217</v>
       </c>
       <c r="E130" t="n">
-        <v>0.564434</v>
+        <v>0.5334410000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>2.78135</v>
+        <v>2.7965</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7120919999999999</v>
+        <v>0.710261</v>
       </c>
       <c r="C131" t="n">
-        <v>3.06419</v>
+        <v>3.08147</v>
       </c>
       <c r="D131" t="n">
-        <v>2.59226</v>
+        <v>2.6052</v>
       </c>
       <c r="E131" t="n">
-        <v>0.556798</v>
+        <v>0.527498</v>
       </c>
       <c r="F131" t="n">
-        <v>2.79091</v>
+        <v>2.81395</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.71116</v>
+        <v>0.703762</v>
       </c>
       <c r="C132" t="n">
-        <v>3.0596</v>
+        <v>3.07633</v>
       </c>
       <c r="D132" t="n">
-        <v>2.58164</v>
+        <v>2.60413</v>
       </c>
       <c r="E132" t="n">
-        <v>0.552926</v>
+        <v>0.519834</v>
       </c>
       <c r="F132" t="n">
-        <v>2.79677</v>
+        <v>2.81187</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.705041</v>
+        <v>0.704447</v>
       </c>
       <c r="C133" t="n">
-        <v>3.03606</v>
+        <v>3.07312</v>
       </c>
       <c r="D133" t="n">
-        <v>2.57798</v>
+        <v>2.5974</v>
       </c>
       <c r="E133" t="n">
-        <v>0.548569</v>
+        <v>0.5152870000000001</v>
       </c>
       <c r="F133" t="n">
-        <v>2.79215</v>
+        <v>2.82257</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.696207</v>
+        <v>0.705478</v>
       </c>
       <c r="C134" t="n">
-        <v>3.04213</v>
+        <v>3.06244</v>
       </c>
       <c r="D134" t="n">
-        <v>2.55631</v>
+        <v>2.57574</v>
       </c>
       <c r="E134" t="n">
-        <v>0.514917</v>
+        <v>0.486118</v>
       </c>
       <c r="F134" t="n">
-        <v>2.3433</v>
+        <v>2.35833</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.695168</v>
+        <v>0.690562</v>
       </c>
       <c r="C135" t="n">
-        <v>3.0492</v>
+        <v>3.06615</v>
       </c>
       <c r="D135" t="n">
-        <v>3.24429</v>
+        <v>3.26491</v>
       </c>
       <c r="E135" t="n">
-        <v>0.513092</v>
+        <v>0.484014</v>
       </c>
       <c r="F135" t="n">
-        <v>2.80122</v>
+        <v>2.35952</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.679694</v>
+        <v>0.6755</v>
       </c>
       <c r="C136" t="n">
-        <v>3.03116</v>
+        <v>3.04868</v>
       </c>
       <c r="D136" t="n">
-        <v>3.1819</v>
+        <v>3.20899</v>
       </c>
       <c r="E136" t="n">
-        <v>0.508014</v>
+        <v>0.482517</v>
       </c>
       <c r="F136" t="n">
-        <v>2.80645</v>
+        <v>2.59926</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.694445</v>
+        <v>0.6829229999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>3.03622</v>
+        <v>3.06199</v>
       </c>
       <c r="D137" t="n">
-        <v>3.13387</v>
+        <v>3.15467</v>
       </c>
       <c r="E137" t="n">
-        <v>0.700593</v>
+        <v>0.6705410000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>3.22069</v>
+        <v>3.2423</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.867356</v>
+        <v>0.855575</v>
       </c>
       <c r="C138" t="n">
-        <v>3.53608</v>
+        <v>3.55964</v>
       </c>
       <c r="D138" t="n">
-        <v>3.09279</v>
+        <v>3.11006</v>
       </c>
       <c r="E138" t="n">
-        <v>0.694652</v>
+        <v>0.659114</v>
       </c>
       <c r="F138" t="n">
-        <v>3.21189</v>
+        <v>3.23461</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.865143</v>
+        <v>0.868445</v>
       </c>
       <c r="C139" t="n">
-        <v>3.51272</v>
+        <v>3.53279</v>
       </c>
       <c r="D139" t="n">
-        <v>3.04879</v>
+        <v>3.06898</v>
       </c>
       <c r="E139" t="n">
-        <v>0.690338</v>
+        <v>0.652635</v>
       </c>
       <c r="F139" t="n">
-        <v>3.20108</v>
+        <v>3.22232</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.853708</v>
+        <v>0.851799</v>
       </c>
       <c r="C140" t="n">
-        <v>3.50155</v>
+        <v>3.51141</v>
       </c>
       <c r="D140" t="n">
-        <v>3.0117</v>
+        <v>3.04267</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6837220000000001</v>
+        <v>0.644312</v>
       </c>
       <c r="F140" t="n">
-        <v>3.18444</v>
+        <v>3.21337</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.842467</v>
+        <v>0.838245</v>
       </c>
       <c r="C141" t="n">
-        <v>3.47813</v>
+        <v>3.50748</v>
       </c>
       <c r="D141" t="n">
-        <v>2.98015</v>
+        <v>3.00473</v>
       </c>
       <c r="E141" t="n">
-        <v>0.698245</v>
+        <v>0.636623</v>
       </c>
       <c r="F141" t="n">
-        <v>3.17242</v>
+        <v>3.19582</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.848836</v>
+        <v>0.827887</v>
       </c>
       <c r="C142" t="n">
-        <v>3.45711</v>
+        <v>3.48074</v>
       </c>
       <c r="D142" t="n">
-        <v>2.96547</v>
+        <v>2.98479</v>
       </c>
       <c r="E142" t="n">
-        <v>0.676821</v>
+        <v>0.648463</v>
       </c>
       <c r="F142" t="n">
-        <v>3.16035</v>
+        <v>3.18461</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.821444</v>
+        <v>0.813292</v>
       </c>
       <c r="C143" t="n">
-        <v>3.4399</v>
+        <v>3.46484</v>
       </c>
       <c r="D143" t="n">
-        <v>2.93528</v>
+        <v>2.95996</v>
       </c>
       <c r="E143" t="n">
-        <v>0.670797</v>
+        <v>0.627082</v>
       </c>
       <c r="F143" t="n">
-        <v>3.15173</v>
+        <v>3.18086</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.254243</v>
+        <v>0.246919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.416735</v>
+        <v>0.416363</v>
       </c>
       <c r="D2" t="n">
-        <v>0.574263</v>
+        <v>0.544269</v>
       </c>
       <c r="E2" t="n">
-        <v>0.208208</v>
+        <v>0.197413</v>
       </c>
       <c r="F2" t="n">
-        <v>0.385447</v>
+        <v>0.379867</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243041</v>
+        <v>0.239438</v>
       </c>
       <c r="C3" t="n">
-        <v>0.420019</v>
+        <v>0.409845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.56633</v>
+        <v>0.537959</v>
       </c>
       <c r="E3" t="n">
-        <v>0.201101</v>
+        <v>0.191651</v>
       </c>
       <c r="F3" t="n">
-        <v>0.378794</v>
+        <v>0.374777</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239917</v>
+        <v>0.238463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.412885</v>
+        <v>0.403327</v>
       </c>
       <c r="D4" t="n">
-        <v>0.557993</v>
+        <v>0.5318310000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.195689</v>
+        <v>0.185865</v>
       </c>
       <c r="F4" t="n">
-        <v>0.37305</v>
+        <v>0.36939</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237089</v>
+        <v>0.232935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.406562</v>
+        <v>0.397861</v>
       </c>
       <c r="D5" t="n">
-        <v>0.552086</v>
+        <v>0.526818</v>
       </c>
       <c r="E5" t="n">
-        <v>0.19114</v>
+        <v>0.179511</v>
       </c>
       <c r="F5" t="n">
-        <v>0.368084</v>
+        <v>0.36292</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.228544</v>
+        <v>0.226154</v>
       </c>
       <c r="C6" t="n">
-        <v>0.40492</v>
+        <v>0.394055</v>
       </c>
       <c r="D6" t="n">
-        <v>0.546995</v>
+        <v>0.521081</v>
       </c>
       <c r="E6" t="n">
-        <v>0.188223</v>
+        <v>0.176594</v>
       </c>
       <c r="F6" t="n">
-        <v>0.364679</v>
+        <v>0.359847</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226288</v>
+        <v>0.222773</v>
       </c>
       <c r="C7" t="n">
-        <v>0.40206</v>
+        <v>0.390069</v>
       </c>
       <c r="D7" t="n">
-        <v>0.708923</v>
+        <v>0.674316</v>
       </c>
       <c r="E7" t="n">
-        <v>0.185202</v>
+        <v>0.173949</v>
       </c>
       <c r="F7" t="n">
-        <v>0.362502</v>
+        <v>0.356521</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226612</v>
+        <v>0.219983</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398422</v>
+        <v>0.38796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.695574</v>
+        <v>0.658003</v>
       </c>
       <c r="E8" t="n">
-        <v>0.187281</v>
+        <v>0.175111</v>
       </c>
       <c r="F8" t="n">
-        <v>0.362521</v>
+        <v>0.357502</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226014</v>
+        <v>0.22008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.39671</v>
+        <v>0.388128</v>
       </c>
       <c r="D9" t="n">
-        <v>0.677567</v>
+        <v>0.64479</v>
       </c>
       <c r="E9" t="n">
-        <v>0.278781</v>
+        <v>0.265441</v>
       </c>
       <c r="F9" t="n">
-        <v>0.451485</v>
+        <v>0.447294</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314617</v>
+        <v>0.307887</v>
       </c>
       <c r="C10" t="n">
-        <v>0.481018</v>
+        <v>0.480206</v>
       </c>
       <c r="D10" t="n">
-        <v>0.664679</v>
+        <v>0.632628</v>
       </c>
       <c r="E10" t="n">
-        <v>0.267471</v>
+        <v>0.255851</v>
       </c>
       <c r="F10" t="n">
-        <v>0.440695</v>
+        <v>0.436614</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.315191</v>
+        <v>0.300046</v>
       </c>
       <c r="C11" t="n">
-        <v>0.470044</v>
+        <v>0.471842</v>
       </c>
       <c r="D11" t="n">
-        <v>0.652693</v>
+        <v>0.620467</v>
       </c>
       <c r="E11" t="n">
-        <v>0.258977</v>
+        <v>0.246802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.431423</v>
+        <v>0.427289</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.293328</v>
+        <v>0.291675</v>
       </c>
       <c r="C12" t="n">
-        <v>0.460505</v>
+        <v>0.460519</v>
       </c>
       <c r="D12" t="n">
-        <v>0.640203</v>
+        <v>0.60931</v>
       </c>
       <c r="E12" t="n">
-        <v>0.250975</v>
+        <v>0.240448</v>
       </c>
       <c r="F12" t="n">
-        <v>0.422027</v>
+        <v>0.41748</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286519</v>
+        <v>0.287432</v>
       </c>
       <c r="C13" t="n">
-        <v>0.450951</v>
+        <v>0.452109</v>
       </c>
       <c r="D13" t="n">
-        <v>0.628493</v>
+        <v>0.600082</v>
       </c>
       <c r="E13" t="n">
-        <v>0.243855</v>
+        <v>0.23233</v>
       </c>
       <c r="F13" t="n">
-        <v>0.413386</v>
+        <v>0.409104</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275953</v>
+        <v>0.277941</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441698</v>
+        <v>0.443405</v>
       </c>
       <c r="D14" t="n">
-        <v>0.623489</v>
+        <v>0.591794</v>
       </c>
       <c r="E14" t="n">
-        <v>0.236281</v>
+        <v>0.225087</v>
       </c>
       <c r="F14" t="n">
-        <v>0.40502</v>
+        <v>0.400584</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.272625</v>
+        <v>0.268643</v>
       </c>
       <c r="C15" t="n">
-        <v>0.434621</v>
+        <v>0.437246</v>
       </c>
       <c r="D15" t="n">
-        <v>0.612347</v>
+        <v>0.582817</v>
       </c>
       <c r="E15" t="n">
-        <v>0.229603</v>
+        <v>0.218535</v>
       </c>
       <c r="F15" t="n">
-        <v>0.397438</v>
+        <v>0.392155</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.26543</v>
+        <v>0.259618</v>
       </c>
       <c r="C16" t="n">
-        <v>0.427848</v>
+        <v>0.430621</v>
       </c>
       <c r="D16" t="n">
-        <v>0.605208</v>
+        <v>0.576148</v>
       </c>
       <c r="E16" t="n">
-        <v>0.224333</v>
+        <v>0.212259</v>
       </c>
       <c r="F16" t="n">
-        <v>0.390339</v>
+        <v>0.384128</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.265402</v>
+        <v>0.25736</v>
       </c>
       <c r="C17" t="n">
-        <v>0.423222</v>
+        <v>0.421699</v>
       </c>
       <c r="D17" t="n">
-        <v>0.597863</v>
+        <v>0.568161</v>
       </c>
       <c r="E17" t="n">
-        <v>0.218604</v>
+        <v>0.205347</v>
       </c>
       <c r="F17" t="n">
-        <v>0.383274</v>
+        <v>0.377857</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254965</v>
+        <v>0.251281</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416292</v>
+        <v>0.417187</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585372</v>
+        <v>0.563127</v>
       </c>
       <c r="E18" t="n">
-        <v>0.212367</v>
+        <v>0.202989</v>
       </c>
       <c r="F18" t="n">
-        <v>0.377466</v>
+        <v>0.372517</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.245632</v>
+        <v>0.245255</v>
       </c>
       <c r="C19" t="n">
-        <v>0.411115</v>
+        <v>0.410324</v>
       </c>
       <c r="D19" t="n">
-        <v>0.579197</v>
+        <v>0.557818</v>
       </c>
       <c r="E19" t="n">
-        <v>0.207925</v>
+        <v>0.197611</v>
       </c>
       <c r="F19" t="n">
-        <v>0.37376</v>
+        <v>0.367664</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244967</v>
+        <v>0.241791</v>
       </c>
       <c r="C20" t="n">
-        <v>0.407196</v>
+        <v>0.404681</v>
       </c>
       <c r="D20" t="n">
-        <v>0.576402</v>
+        <v>0.552889</v>
       </c>
       <c r="E20" t="n">
-        <v>0.204964</v>
+        <v>0.195016</v>
       </c>
       <c r="F20" t="n">
-        <v>0.369403</v>
+        <v>0.363973</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239482</v>
+        <v>0.236416</v>
       </c>
       <c r="C21" t="n">
-        <v>0.401977</v>
+        <v>0.400709</v>
       </c>
       <c r="D21" t="n">
-        <v>0.765652</v>
+        <v>0.731887</v>
       </c>
       <c r="E21" t="n">
-        <v>0.204435</v>
+        <v>0.193458</v>
       </c>
       <c r="F21" t="n">
-        <v>0.366874</v>
+        <v>0.361013</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.244064</v>
+        <v>0.238425</v>
       </c>
       <c r="C22" t="n">
-        <v>0.400508</v>
+        <v>0.395849</v>
       </c>
       <c r="D22" t="n">
-        <v>0.746958</v>
+        <v>0.712298</v>
       </c>
       <c r="E22" t="n">
-        <v>0.20462</v>
+        <v>0.194425</v>
       </c>
       <c r="F22" t="n">
-        <v>0.367137</v>
+        <v>0.36091</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.245607</v>
+        <v>0.240041</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3988</v>
+        <v>0.395558</v>
       </c>
       <c r="D23" t="n">
-        <v>0.738127</v>
+        <v>0.700824</v>
       </c>
       <c r="E23" t="n">
-        <v>0.29852</v>
+        <v>0.285646</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461853</v>
+        <v>0.457406</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.321466</v>
+        <v>0.318024</v>
       </c>
       <c r="C24" t="n">
-        <v>0.489269</v>
+        <v>0.488759</v>
       </c>
       <c r="D24" t="n">
-        <v>0.715265</v>
+        <v>0.686508</v>
       </c>
       <c r="E24" t="n">
-        <v>0.285835</v>
+        <v>0.277122</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451487</v>
+        <v>0.4469</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.313079</v>
+        <v>0.314085</v>
       </c>
       <c r="C25" t="n">
-        <v>0.479336</v>
+        <v>0.483227</v>
       </c>
       <c r="D25" t="n">
-        <v>0.70138</v>
+        <v>0.67664</v>
       </c>
       <c r="E25" t="n">
-        <v>0.276129</v>
+        <v>0.267167</v>
       </c>
       <c r="F25" t="n">
-        <v>0.441061</v>
+        <v>0.436828</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.302882</v>
+        <v>0.300007</v>
       </c>
       <c r="C26" t="n">
-        <v>0.471928</v>
+        <v>0.474413</v>
       </c>
       <c r="D26" t="n">
-        <v>0.690419</v>
+        <v>0.662864</v>
       </c>
       <c r="E26" t="n">
-        <v>0.269331</v>
+        <v>0.257999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.432307</v>
+        <v>0.427057</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294338</v>
+        <v>0.293473</v>
       </c>
       <c r="C27" t="n">
-        <v>0.463385</v>
+        <v>0.46635</v>
       </c>
       <c r="D27" t="n">
-        <v>0.678958</v>
+        <v>0.651896</v>
       </c>
       <c r="E27" t="n">
-        <v>0.259641</v>
+        <v>0.249157</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423145</v>
+        <v>0.418585</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.28839</v>
+        <v>0.288019</v>
       </c>
       <c r="C28" t="n">
-        <v>0.456135</v>
+        <v>0.457561</v>
       </c>
       <c r="D28" t="n">
-        <v>0.669781</v>
+        <v>0.641336</v>
       </c>
       <c r="E28" t="n">
-        <v>0.252151</v>
+        <v>0.241925</v>
       </c>
       <c r="F28" t="n">
-        <v>0.415044</v>
+        <v>0.410281</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284574</v>
+        <v>0.281373</v>
       </c>
       <c r="C29" t="n">
-        <v>0.448014</v>
+        <v>0.444835</v>
       </c>
       <c r="D29" t="n">
-        <v>0.656578</v>
+        <v>0.63305</v>
       </c>
       <c r="E29" t="n">
-        <v>0.245058</v>
+        <v>0.234327</v>
       </c>
       <c r="F29" t="n">
-        <v>0.407064</v>
+        <v>0.402293</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274449</v>
+        <v>0.272187</v>
       </c>
       <c r="C30" t="n">
-        <v>0.441485</v>
+        <v>0.440861</v>
       </c>
       <c r="D30" t="n">
-        <v>0.646554</v>
+        <v>0.624954</v>
       </c>
       <c r="E30" t="n">
-        <v>0.238754</v>
+        <v>0.227067</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399618</v>
+        <v>0.393746</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268083</v>
+        <v>0.263816</v>
       </c>
       <c r="C31" t="n">
-        <v>0.434888</v>
+        <v>0.432678</v>
       </c>
       <c r="D31" t="n">
-        <v>0.638038</v>
+        <v>0.618502</v>
       </c>
       <c r="E31" t="n">
-        <v>0.231696</v>
+        <v>0.22148</v>
       </c>
       <c r="F31" t="n">
-        <v>0.392449</v>
+        <v>0.388538</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.259717</v>
+        <v>0.258493</v>
       </c>
       <c r="C32" t="n">
-        <v>0.428413</v>
+        <v>0.426643</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6316850000000001</v>
+        <v>0.612502</v>
       </c>
       <c r="E32" t="n">
-        <v>0.227007</v>
+        <v>0.215933</v>
       </c>
       <c r="F32" t="n">
-        <v>0.386656</v>
+        <v>0.381832</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.253757</v>
+        <v>0.258246</v>
       </c>
       <c r="C33" t="n">
-        <v>0.42184</v>
+        <v>0.42115</v>
       </c>
       <c r="D33" t="n">
-        <v>0.626007</v>
+        <v>0.606564</v>
       </c>
       <c r="E33" t="n">
-        <v>0.222628</v>
+        <v>0.210859</v>
       </c>
       <c r="F33" t="n">
-        <v>0.380901</v>
+        <v>0.378135</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248764</v>
+        <v>0.248478</v>
       </c>
       <c r="C34" t="n">
-        <v>0.415598</v>
+        <v>0.416848</v>
       </c>
       <c r="D34" t="n">
-        <v>0.619398</v>
+        <v>0.600481</v>
       </c>
       <c r="E34" t="n">
-        <v>0.217895</v>
+        <v>0.206866</v>
       </c>
       <c r="F34" t="n">
-        <v>0.376633</v>
+        <v>0.370744</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248426</v>
+        <v>0.2446</v>
       </c>
       <c r="C35" t="n">
-        <v>0.41586</v>
+        <v>0.411385</v>
       </c>
       <c r="D35" t="n">
-        <v>0.817875</v>
+        <v>0.786337</v>
       </c>
       <c r="E35" t="n">
-        <v>0.216589</v>
+        <v>0.204297</v>
       </c>
       <c r="F35" t="n">
-        <v>0.373845</v>
+        <v>0.367611</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244856</v>
+        <v>0.244163</v>
       </c>
       <c r="C36" t="n">
-        <v>0.412031</v>
+        <v>0.408356</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7993710000000001</v>
+        <v>0.768997</v>
       </c>
       <c r="E36" t="n">
-        <v>0.214233</v>
+        <v>0.20271</v>
       </c>
       <c r="F36" t="n">
-        <v>0.372899</v>
+        <v>0.367437</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.241743</v>
+        <v>0.243498</v>
       </c>
       <c r="C37" t="n">
-        <v>0.410536</v>
+        <v>0.407396</v>
       </c>
       <c r="D37" t="n">
-        <v>0.781717</v>
+        <v>0.752714</v>
       </c>
       <c r="E37" t="n">
-        <v>0.309642</v>
+        <v>0.296707</v>
       </c>
       <c r="F37" t="n">
-        <v>0.470812</v>
+        <v>0.466584</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.329474</v>
+        <v>0.321894</v>
       </c>
       <c r="C38" t="n">
-        <v>0.506965</v>
+        <v>0.5245919999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.764858</v>
+        <v>0.738377</v>
       </c>
       <c r="E38" t="n">
-        <v>0.299505</v>
+        <v>0.286884</v>
       </c>
       <c r="F38" t="n">
-        <v>0.460634</v>
+        <v>0.456697</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318374</v>
+        <v>0.314446</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501729</v>
+        <v>0.513278</v>
       </c>
       <c r="D39" t="n">
-        <v>0.75007</v>
+        <v>0.724745</v>
       </c>
       <c r="E39" t="n">
-        <v>0.28903</v>
+        <v>0.277064</v>
       </c>
       <c r="F39" t="n">
-        <v>0.451923</v>
+        <v>0.446584</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.311633</v>
+        <v>0.30658</v>
       </c>
       <c r="C40" t="n">
-        <v>0.492654</v>
+        <v>0.5047160000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.735791</v>
+        <v>0.710588</v>
       </c>
       <c r="E40" t="n">
-        <v>0.27896</v>
+        <v>0.265262</v>
       </c>
       <c r="F40" t="n">
-        <v>0.44463</v>
+        <v>0.436563</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302448</v>
+        <v>0.30219</v>
       </c>
       <c r="C41" t="n">
-        <v>0.483424</v>
+        <v>0.492676</v>
       </c>
       <c r="D41" t="n">
-        <v>0.722261</v>
+        <v>0.699884</v>
       </c>
       <c r="E41" t="n">
-        <v>0.271824</v>
+        <v>0.260969</v>
       </c>
       <c r="F41" t="n">
-        <v>0.435445</v>
+        <v>0.430948</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.297642</v>
+        <v>0.294636</v>
       </c>
       <c r="C42" t="n">
-        <v>0.474364</v>
+        <v>0.473479</v>
       </c>
       <c r="D42" t="n">
-        <v>0.711786</v>
+        <v>0.689353</v>
       </c>
       <c r="E42" t="n">
-        <v>0.264415</v>
+        <v>0.251636</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427225</v>
+        <v>0.423296</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.291373</v>
+        <v>0.286756</v>
       </c>
       <c r="C43" t="n">
-        <v>0.466612</v>
+        <v>0.467307</v>
       </c>
       <c r="D43" t="n">
-        <v>0.700499</v>
+        <v>0.679399</v>
       </c>
       <c r="E43" t="n">
-        <v>0.255862</v>
+        <v>0.245606</v>
       </c>
       <c r="F43" t="n">
-        <v>0.420377</v>
+        <v>0.415431</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.286887</v>
+        <v>0.278194</v>
       </c>
       <c r="C44" t="n">
-        <v>0.45818</v>
+        <v>0.458849</v>
       </c>
       <c r="D44" t="n">
-        <v>0.690591</v>
+        <v>0.671158</v>
       </c>
       <c r="E44" t="n">
-        <v>0.249181</v>
+        <v>0.238626</v>
       </c>
       <c r="F44" t="n">
-        <v>0.412913</v>
+        <v>0.408023</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.278778</v>
+        <v>0.276215</v>
       </c>
       <c r="C45" t="n">
-        <v>0.450835</v>
+        <v>0.460903</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6828920000000001</v>
+        <v>0.663199</v>
       </c>
       <c r="E45" t="n">
-        <v>0.244437</v>
+        <v>0.230514</v>
       </c>
       <c r="F45" t="n">
-        <v>0.405868</v>
+        <v>0.401885</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.274641</v>
+        <v>0.262613</v>
       </c>
       <c r="C46" t="n">
-        <v>0.444503</v>
+        <v>0.452915</v>
       </c>
       <c r="D46" t="n">
-        <v>0.674596</v>
+        <v>0.656162</v>
       </c>
       <c r="E46" t="n">
-        <v>0.237939</v>
+        <v>0.226143</v>
       </c>
       <c r="F46" t="n">
-        <v>0.39959</v>
+        <v>0.395546</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262398</v>
+        <v>0.261356</v>
       </c>
       <c r="C47" t="n">
-        <v>0.437891</v>
+        <v>0.440543</v>
       </c>
       <c r="D47" t="n">
-        <v>0.667256</v>
+        <v>0.650213</v>
       </c>
       <c r="E47" t="n">
-        <v>0.231513</v>
+        <v>0.218705</v>
       </c>
       <c r="F47" t="n">
-        <v>0.394756</v>
+        <v>0.390289</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.264171</v>
+        <v>0.252659</v>
       </c>
       <c r="C48" t="n">
-        <v>0.432631</v>
+        <v>0.434685</v>
       </c>
       <c r="D48" t="n">
-        <v>0.660874</v>
+        <v>0.64468</v>
       </c>
       <c r="E48" t="n">
-        <v>0.227516</v>
+        <v>0.214863</v>
       </c>
       <c r="F48" t="n">
-        <v>0.390317</v>
+        <v>0.387464</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255564</v>
+        <v>0.251569</v>
       </c>
       <c r="C49" t="n">
-        <v>0.428841</v>
+        <v>0.431522</v>
       </c>
       <c r="D49" t="n">
-        <v>0.655853</v>
+        <v>0.639688</v>
       </c>
       <c r="E49" t="n">
-        <v>0.224982</v>
+        <v>0.212357</v>
       </c>
       <c r="F49" t="n">
-        <v>0.387004</v>
+        <v>0.383073</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.254481</v>
+        <v>0.249249</v>
       </c>
       <c r="C50" t="n">
-        <v>0.425594</v>
+        <v>0.427128</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8450260000000001</v>
+        <v>0.818845</v>
       </c>
       <c r="E50" t="n">
-        <v>0.222637</v>
+        <v>0.2102</v>
       </c>
       <c r="F50" t="n">
-        <v>0.385198</v>
+        <v>0.383217</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.253886</v>
+        <v>0.248785</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422974</v>
+        <v>0.427018</v>
       </c>
       <c r="D51" t="n">
-        <v>0.825866</v>
+        <v>0.800764</v>
       </c>
       <c r="E51" t="n">
-        <v>0.323545</v>
+        <v>0.30563</v>
       </c>
       <c r="F51" t="n">
-        <v>0.489727</v>
+        <v>0.486079</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.248862</v>
+        <v>0.249985</v>
       </c>
       <c r="C52" t="n">
-        <v>0.42338</v>
+        <v>0.427993</v>
       </c>
       <c r="D52" t="n">
-        <v>0.808235</v>
+        <v>0.784121</v>
       </c>
       <c r="E52" t="n">
-        <v>0.314814</v>
+        <v>0.297617</v>
       </c>
       <c r="F52" t="n">
-        <v>0.480099</v>
+        <v>0.475608</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34103</v>
+        <v>0.32844</v>
       </c>
       <c r="C53" t="n">
-        <v>0.535948</v>
+        <v>0.524719</v>
       </c>
       <c r="D53" t="n">
-        <v>0.791561</v>
+        <v>0.768406</v>
       </c>
       <c r="E53" t="n">
-        <v>0.306257</v>
+        <v>0.286779</v>
       </c>
       <c r="F53" t="n">
-        <v>0.470311</v>
+        <v>0.46679</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.327505</v>
+        <v>0.322812</v>
       </c>
       <c r="C54" t="n">
-        <v>0.525438</v>
+        <v>0.510522</v>
       </c>
       <c r="D54" t="n">
-        <v>0.775513</v>
+        <v>0.753352</v>
       </c>
       <c r="E54" t="n">
-        <v>0.297792</v>
+        <v>0.278577</v>
       </c>
       <c r="F54" t="n">
-        <v>0.46124</v>
+        <v>0.456797</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.323686</v>
+        <v>0.309327</v>
       </c>
       <c r="C55" t="n">
-        <v>0.517223</v>
+        <v>0.508248</v>
       </c>
       <c r="D55" t="n">
-        <v>0.762628</v>
+        <v>0.740936</v>
       </c>
       <c r="E55" t="n">
-        <v>0.290302</v>
+        <v>0.268886</v>
       </c>
       <c r="F55" t="n">
-        <v>0.453244</v>
+        <v>0.449911</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.314152</v>
+        <v>0.307906</v>
       </c>
       <c r="C56" t="n">
-        <v>0.506866</v>
+        <v>0.498637</v>
       </c>
       <c r="D56" t="n">
-        <v>0.749763</v>
+        <v>0.728776</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2803</v>
+        <v>0.257378</v>
       </c>
       <c r="F56" t="n">
-        <v>0.444929</v>
+        <v>0.43878</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.303458</v>
+        <v>0.299843</v>
       </c>
       <c r="C57" t="n">
-        <v>0.499267</v>
+        <v>0.491882</v>
       </c>
       <c r="D57" t="n">
-        <v>0.73795</v>
+        <v>0.717705</v>
       </c>
       <c r="E57" t="n">
-        <v>0.273346</v>
+        <v>0.254875</v>
       </c>
       <c r="F57" t="n">
-        <v>0.438166</v>
+        <v>0.43275</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.299017</v>
+        <v>0.292243</v>
       </c>
       <c r="C58" t="n">
-        <v>0.494339</v>
+        <v>0.486489</v>
       </c>
       <c r="D58" t="n">
-        <v>0.727367</v>
+        <v>0.707875</v>
       </c>
       <c r="E58" t="n">
-        <v>0.264904</v>
+        <v>0.246813</v>
       </c>
       <c r="F58" t="n">
-        <v>0.430972</v>
+        <v>0.425262</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295136</v>
+        <v>0.28557</v>
       </c>
       <c r="C59" t="n">
-        <v>0.485555</v>
+        <v>0.479589</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7178020000000001</v>
+        <v>0.6990499999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.261079</v>
+        <v>0.240662</v>
       </c>
       <c r="F59" t="n">
-        <v>0.425007</v>
+        <v>0.420798</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.286763</v>
+        <v>0.27813</v>
       </c>
       <c r="C60" t="n">
-        <v>0.48055</v>
+        <v>0.473977</v>
       </c>
       <c r="D60" t="n">
-        <v>0.70947</v>
+        <v>0.691269</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254763</v>
+        <v>0.233666</v>
       </c>
       <c r="F60" t="n">
-        <v>0.419674</v>
+        <v>0.413226</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.28187</v>
+        <v>0.274631</v>
       </c>
       <c r="C61" t="n">
-        <v>0.474055</v>
+        <v>0.467772</v>
       </c>
       <c r="D61" t="n">
-        <v>0.701766</v>
+        <v>0.68392</v>
       </c>
       <c r="E61" t="n">
-        <v>0.249622</v>
+        <v>0.230395</v>
       </c>
       <c r="F61" t="n">
-        <v>0.413865</v>
+        <v>0.407958</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.279049</v>
+        <v>0.269574</v>
       </c>
       <c r="C62" t="n">
-        <v>0.468214</v>
+        <v>0.463848</v>
       </c>
       <c r="D62" t="n">
-        <v>0.694327</v>
+        <v>0.676735</v>
       </c>
       <c r="E62" t="n">
-        <v>0.244869</v>
+        <v>0.225275</v>
       </c>
       <c r="F62" t="n">
-        <v>0.411992</v>
+        <v>0.40513</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.276712</v>
+        <v>0.266295</v>
       </c>
       <c r="C63" t="n">
-        <v>0.464126</v>
+        <v>0.459387</v>
       </c>
       <c r="D63" t="n">
-        <v>0.688097</v>
+        <v>0.671516</v>
       </c>
       <c r="E63" t="n">
-        <v>0.240669</v>
+        <v>0.22211</v>
       </c>
       <c r="F63" t="n">
-        <v>0.40917</v>
+        <v>0.402577</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.271371</v>
+        <v>0.263812</v>
       </c>
       <c r="C64" t="n">
-        <v>0.460098</v>
+        <v>0.456105</v>
       </c>
       <c r="D64" t="n">
-        <v>0.902219</v>
+        <v>0.871216</v>
       </c>
       <c r="E64" t="n">
-        <v>0.238707</v>
+        <v>0.218812</v>
       </c>
       <c r="F64" t="n">
-        <v>0.407973</v>
+        <v>0.401817</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268564</v>
+        <v>0.262772</v>
       </c>
       <c r="C65" t="n">
-        <v>0.459111</v>
+        <v>0.455566</v>
       </c>
       <c r="D65" t="n">
-        <v>0.882526</v>
+        <v>0.84933</v>
       </c>
       <c r="E65" t="n">
-        <v>0.239695</v>
+        <v>0.219743</v>
       </c>
       <c r="F65" t="n">
-        <v>0.409343</v>
+        <v>0.402774</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26969</v>
+        <v>0.261213</v>
       </c>
       <c r="C66" t="n">
-        <v>0.455964</v>
+        <v>0.455826</v>
       </c>
       <c r="D66" t="n">
-        <v>0.863023</v>
+        <v>0.830522</v>
       </c>
       <c r="E66" t="n">
-        <v>0.337482</v>
+        <v>0.31976</v>
       </c>
       <c r="F66" t="n">
-        <v>0.519489</v>
+        <v>0.509072</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.395093</v>
+        <v>0.399241</v>
       </c>
       <c r="C67" t="n">
-        <v>0.602135</v>
+        <v>0.592183</v>
       </c>
       <c r="D67" t="n">
-        <v>0.845179</v>
+        <v>0.813548</v>
       </c>
       <c r="E67" t="n">
-        <v>0.333179</v>
+        <v>0.314961</v>
       </c>
       <c r="F67" t="n">
-        <v>0.51225</v>
+        <v>0.501602</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.412222</v>
+        <v>0.388616</v>
       </c>
       <c r="C68" t="n">
-        <v>0.594467</v>
+        <v>0.5853660000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.828873</v>
+        <v>0.797808</v>
       </c>
       <c r="E68" t="n">
-        <v>0.321235</v>
+        <v>0.306445</v>
       </c>
       <c r="F68" t="n">
-        <v>0.505447</v>
+        <v>0.494177</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.385574</v>
+        <v>0.396144</v>
       </c>
       <c r="C69" t="n">
-        <v>0.585128</v>
+        <v>0.57948</v>
       </c>
       <c r="D69" t="n">
-        <v>0.814239</v>
+        <v>0.784815</v>
       </c>
       <c r="E69" t="n">
-        <v>0.313538</v>
+        <v>0.294867</v>
       </c>
       <c r="F69" t="n">
-        <v>0.498047</v>
+        <v>0.48673</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.394964</v>
+        <v>0.374011</v>
       </c>
       <c r="C70" t="n">
-        <v>0.578105</v>
+        <v>0.5682970000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.802321</v>
+        <v>0.773887</v>
       </c>
       <c r="E70" t="n">
-        <v>0.309712</v>
+        <v>0.290154</v>
       </c>
       <c r="F70" t="n">
-        <v>0.490221</v>
+        <v>0.478831</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.367309</v>
+        <v>0.389093</v>
       </c>
       <c r="C71" t="n">
-        <v>0.570569</v>
+        <v>0.5601120000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7919850000000001</v>
+        <v>0.763996</v>
       </c>
       <c r="E71" t="n">
-        <v>0.299179</v>
+        <v>0.278464</v>
       </c>
       <c r="F71" t="n">
-        <v>0.483081</v>
+        <v>0.471303</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.363214</v>
+        <v>0.366972</v>
       </c>
       <c r="C72" t="n">
-        <v>0.56284</v>
+        <v>0.549338</v>
       </c>
       <c r="D72" t="n">
-        <v>0.783107</v>
+        <v>0.7562219999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.294778</v>
+        <v>0.270617</v>
       </c>
       <c r="F72" t="n">
-        <v>0.477338</v>
+        <v>0.465313</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.373048</v>
+        <v>0.355825</v>
       </c>
       <c r="C73" t="n">
-        <v>0.556496</v>
+        <v>0.545869</v>
       </c>
       <c r="D73" t="n">
-        <v>0.77585</v>
+        <v>0.749465</v>
       </c>
       <c r="E73" t="n">
-        <v>0.287676</v>
+        <v>0.264486</v>
       </c>
       <c r="F73" t="n">
-        <v>0.472165</v>
+        <v>0.459666</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.365654</v>
+        <v>0.358059</v>
       </c>
       <c r="C74" t="n">
-        <v>0.554168</v>
+        <v>0.541004</v>
       </c>
       <c r="D74" t="n">
-        <v>0.770469</v>
+        <v>0.743667</v>
       </c>
       <c r="E74" t="n">
-        <v>0.281985</v>
+        <v>0.262231</v>
       </c>
       <c r="F74" t="n">
-        <v>0.46712</v>
+        <v>0.454964</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.368949</v>
+        <v>0.35853</v>
       </c>
       <c r="C75" t="n">
-        <v>0.543838</v>
+        <v>0.538536</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7669010000000001</v>
+        <v>0.741263</v>
       </c>
       <c r="E75" t="n">
-        <v>0.272481</v>
+        <v>0.256392</v>
       </c>
       <c r="F75" t="n">
-        <v>0.46227</v>
+        <v>0.44977</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.349639</v>
+        <v>0.358277</v>
       </c>
       <c r="C76" t="n">
-        <v>0.543453</v>
+        <v>0.532471</v>
       </c>
       <c r="D76" t="n">
-        <v>0.764419</v>
+        <v>0.73904</v>
       </c>
       <c r="E76" t="n">
-        <v>0.274245</v>
+        <v>0.248562</v>
       </c>
       <c r="F76" t="n">
-        <v>0.459093</v>
+        <v>0.445627</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.342149</v>
+        <v>0.33632</v>
       </c>
       <c r="C77" t="n">
-        <v>0.539332</v>
+        <v>0.5304140000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.763713</v>
+        <v>0.738466</v>
       </c>
       <c r="E77" t="n">
-        <v>0.264661</v>
+        <v>0.249653</v>
       </c>
       <c r="F77" t="n">
-        <v>0.45671</v>
+        <v>0.44302</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.334323</v>
+        <v>0.340799</v>
       </c>
       <c r="C78" t="n">
-        <v>0.535031</v>
+        <v>0.528876</v>
       </c>
       <c r="D78" t="n">
-        <v>1.22638</v>
+        <v>1.18803</v>
       </c>
       <c r="E78" t="n">
-        <v>0.26542</v>
+        <v>0.247376</v>
       </c>
       <c r="F78" t="n">
-        <v>0.455259</v>
+        <v>0.441584</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.330153</v>
+        <v>0.315512</v>
       </c>
       <c r="C79" t="n">
-        <v>0.535798</v>
+        <v>0.526526</v>
       </c>
       <c r="D79" t="n">
-        <v>1.20386</v>
+        <v>1.16577</v>
       </c>
       <c r="E79" t="n">
-        <v>0.260028</v>
+        <v>0.241992</v>
       </c>
       <c r="F79" t="n">
-        <v>0.456248</v>
+        <v>0.443255</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.321414</v>
+        <v>0.336147</v>
       </c>
       <c r="C80" t="n">
-        <v>0.535762</v>
+        <v>0.528627</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18535</v>
+        <v>1.14806</v>
       </c>
       <c r="E80" t="n">
-        <v>0.384395</v>
+        <v>0.373453</v>
       </c>
       <c r="F80" t="n">
-        <v>0.743368</v>
+        <v>0.729315</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.467185</v>
+        <v>0.452608</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8530450000000001</v>
+        <v>0.838619</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1687</v>
+        <v>1.13356</v>
       </c>
       <c r="E81" t="n">
-        <v>0.378557</v>
+        <v>0.367092</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7455079999999999</v>
+        <v>0.729001</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.437776</v>
+        <v>0.483672</v>
       </c>
       <c r="C82" t="n">
-        <v>0.864017</v>
+        <v>0.854355</v>
       </c>
       <c r="D82" t="n">
-        <v>1.1544</v>
+        <v>1.12107</v>
       </c>
       <c r="E82" t="n">
-        <v>0.371974</v>
+        <v>0.358727</v>
       </c>
       <c r="F82" t="n">
-        <v>0.741163</v>
+        <v>0.724924</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.429204</v>
+        <v>0.445472</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8607359999999999</v>
+        <v>0.868683</v>
       </c>
       <c r="D83" t="n">
-        <v>1.14627</v>
+        <v>1.12355</v>
       </c>
       <c r="E83" t="n">
-        <v>0.363677</v>
+        <v>0.350514</v>
       </c>
       <c r="F83" t="n">
-        <v>0.733532</v>
+        <v>0.717046</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.437691</v>
+        <v>0.456176</v>
       </c>
       <c r="C84" t="n">
-        <v>0.851949</v>
+        <v>0.862526</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1386</v>
+        <v>1.11542</v>
       </c>
       <c r="E84" t="n">
-        <v>0.35592</v>
+        <v>0.339794</v>
       </c>
       <c r="F84" t="n">
-        <v>0.723036</v>
+        <v>0.706952</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.413841</v>
+        <v>0.456743</v>
       </c>
       <c r="C85" t="n">
-        <v>0.842291</v>
+        <v>0.853291</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13302</v>
+        <v>1.11322</v>
       </c>
       <c r="E85" t="n">
-        <v>0.346259</v>
+        <v>0.334785</v>
       </c>
       <c r="F85" t="n">
-        <v>0.710993</v>
+        <v>0.696885</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.425946</v>
+        <v>0.434324</v>
       </c>
       <c r="C86" t="n">
-        <v>0.833052</v>
+        <v>0.8418060000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>1.12967</v>
+        <v>1.11601</v>
       </c>
       <c r="E86" t="n">
-        <v>0.341077</v>
+        <v>0.323845</v>
       </c>
       <c r="F86" t="n">
-        <v>0.697731</v>
+        <v>0.686842</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.414566</v>
+        <v>0.422392</v>
       </c>
       <c r="C87" t="n">
-        <v>0.81443</v>
+        <v>0.8347869999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1308</v>
+        <v>1.12271</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3333</v>
+        <v>0.31792</v>
       </c>
       <c r="F87" t="n">
-        <v>0.686202</v>
+        <v>0.674288</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.412712</v>
+        <v>0.442377</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8050929999999999</v>
+        <v>0.821254</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13041</v>
+        <v>1.12797</v>
       </c>
       <c r="E88" t="n">
-        <v>0.326236</v>
+        <v>0.311683</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6729270000000001</v>
+        <v>0.661232</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.396101</v>
+        <v>0.433196</v>
       </c>
       <c r="C89" t="n">
-        <v>0.795724</v>
+        <v>0.811175</v>
       </c>
       <c r="D89" t="n">
-        <v>1.13798</v>
+        <v>1.13502</v>
       </c>
       <c r="E89" t="n">
-        <v>0.314928</v>
+        <v>0.307251</v>
       </c>
       <c r="F89" t="n">
-        <v>0.662362</v>
+        <v>0.645921</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.388006</v>
+        <v>0.419429</v>
       </c>
       <c r="C90" t="n">
-        <v>0.784195</v>
+        <v>0.796818</v>
       </c>
       <c r="D90" t="n">
-        <v>1.14633</v>
+        <v>1.13433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.315211</v>
+        <v>0.298753</v>
       </c>
       <c r="F90" t="n">
-        <v>0.653134</v>
+        <v>0.635907</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.396523</v>
+        <v>0.390931</v>
       </c>
       <c r="C91" t="n">
-        <v>0.776886</v>
+        <v>0.783354</v>
       </c>
       <c r="D91" t="n">
-        <v>1.16061</v>
+        <v>1.14318</v>
       </c>
       <c r="E91" t="n">
-        <v>0.30375</v>
+        <v>0.289828</v>
       </c>
       <c r="F91" t="n">
-        <v>0.642626</v>
+        <v>0.627343</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.403287</v>
+        <v>0.41495</v>
       </c>
       <c r="C92" t="n">
-        <v>0.763977</v>
+        <v>0.780365</v>
       </c>
       <c r="D92" t="n">
-        <v>1.71909</v>
+        <v>1.69099</v>
       </c>
       <c r="E92" t="n">
-        <v>0.302967</v>
+        <v>0.289284</v>
       </c>
       <c r="F92" t="n">
-        <v>0.633836</v>
+        <v>0.621498</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.386329</v>
+        <v>0.408048</v>
       </c>
       <c r="C93" t="n">
-        <v>0.756368</v>
+        <v>0.770886</v>
       </c>
       <c r="D93" t="n">
-        <v>1.70892</v>
+        <v>1.68806</v>
       </c>
       <c r="E93" t="n">
-        <v>0.305423</v>
+        <v>0.287195</v>
       </c>
       <c r="F93" t="n">
-        <v>0.62966</v>
+        <v>0.614088</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387879</v>
+        <v>0.394864</v>
       </c>
       <c r="C94" t="n">
-        <v>0.752439</v>
+        <v>0.768236</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69681</v>
+        <v>1.67362</v>
       </c>
       <c r="E94" t="n">
-        <v>0.498313</v>
+        <v>0.485922</v>
       </c>
       <c r="F94" t="n">
-        <v>1.12036</v>
+        <v>1.1033</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.57689</v>
+        <v>0.593607</v>
       </c>
       <c r="C95" t="n">
-        <v>1.13676</v>
+        <v>1.16628</v>
       </c>
       <c r="D95" t="n">
-        <v>1.6845</v>
+        <v>1.66642</v>
       </c>
       <c r="E95" t="n">
-        <v>0.49295</v>
+        <v>0.481369</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11782</v>
+        <v>1.09302</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.569798</v>
+        <v>0.600056</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15514</v>
+        <v>1.18913</v>
       </c>
       <c r="D96" t="n">
-        <v>1.67298</v>
+        <v>1.65721</v>
       </c>
       <c r="E96" t="n">
-        <v>0.476948</v>
+        <v>0.470443</v>
       </c>
       <c r="F96" t="n">
-        <v>1.09408</v>
+        <v>1.08562</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.580389</v>
+        <v>0.585578</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14132</v>
+        <v>1.17867</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66884</v>
+        <v>1.64969</v>
       </c>
       <c r="E97" t="n">
-        <v>0.470089</v>
+        <v>0.457886</v>
       </c>
       <c r="F97" t="n">
-        <v>1.087</v>
+        <v>1.04839</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.579443</v>
+        <v>0.589706</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12878</v>
+        <v>1.16019</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66129</v>
+        <v>1.64666</v>
       </c>
       <c r="E98" t="n">
-        <v>0.456931</v>
+        <v>0.44681</v>
       </c>
       <c r="F98" t="n">
-        <v>1.06023</v>
+        <v>1.04166</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.547942</v>
+        <v>0.577027</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12053</v>
+        <v>1.13278</v>
       </c>
       <c r="D99" t="n">
-        <v>1.65728</v>
+        <v>1.64771</v>
       </c>
       <c r="E99" t="n">
-        <v>0.44725</v>
+        <v>0.430943</v>
       </c>
       <c r="F99" t="n">
-        <v>1.04409</v>
+        <v>1.0147</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5463980000000001</v>
+        <v>0.560459</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11793</v>
+        <v>1.13602</v>
       </c>
       <c r="D100" t="n">
-        <v>1.65979</v>
+        <v>1.65087</v>
       </c>
       <c r="E100" t="n">
-        <v>0.437704</v>
+        <v>0.422277</v>
       </c>
       <c r="F100" t="n">
-        <v>1.03621</v>
+        <v>1.00934</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.546075</v>
+        <v>0.549751</v>
       </c>
       <c r="C101" t="n">
-        <v>1.08472</v>
+        <v>1.12141</v>
       </c>
       <c r="D101" t="n">
-        <v>1.6636</v>
+        <v>1.6529</v>
       </c>
       <c r="E101" t="n">
-        <v>0.431482</v>
+        <v>0.410857</v>
       </c>
       <c r="F101" t="n">
-        <v>1.0192</v>
+        <v>0.996403</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.530415</v>
+        <v>0.558841</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06864</v>
+        <v>1.09958</v>
       </c>
       <c r="D102" t="n">
-        <v>1.66721</v>
+        <v>1.65897</v>
       </c>
       <c r="E102" t="n">
-        <v>0.415567</v>
+        <v>0.401536</v>
       </c>
       <c r="F102" t="n">
-        <v>1.00319</v>
+        <v>0.981159</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.508377</v>
+        <v>0.547211</v>
       </c>
       <c r="C103" t="n">
-        <v>1.05628</v>
+        <v>1.08562</v>
       </c>
       <c r="D103" t="n">
-        <v>1.6779</v>
+        <v>1.67237</v>
       </c>
       <c r="E103" t="n">
-        <v>0.408353</v>
+        <v>0.393056</v>
       </c>
       <c r="F103" t="n">
-        <v>0.990698</v>
+        <v>0.96476</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.517827</v>
+        <v>0.526685</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04929</v>
+        <v>1.06242</v>
       </c>
       <c r="D104" t="n">
-        <v>1.6866</v>
+        <v>1.67632</v>
       </c>
       <c r="E104" t="n">
-        <v>0.399702</v>
+        <v>0.382265</v>
       </c>
       <c r="F104" t="n">
-        <v>0.96666</v>
+        <v>0.937785</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.506462</v>
+        <v>0.526071</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04517</v>
+        <v>1.06578</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70071</v>
+        <v>1.69822</v>
       </c>
       <c r="E105" t="n">
-        <v>0.394132</v>
+        <v>0.374068</v>
       </c>
       <c r="F105" t="n">
-        <v>0.952193</v>
+        <v>0.948939</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.499347</v>
+        <v>0.528124</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03884</v>
+        <v>1.06378</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71801</v>
+        <v>1.71136</v>
       </c>
       <c r="E106" t="n">
-        <v>0.391333</v>
+        <v>0.368353</v>
       </c>
       <c r="F106" t="n">
-        <v>0.955402</v>
+        <v>0.939477</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.495471</v>
+        <v>0.523809</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03554</v>
+        <v>1.06967</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30885</v>
+        <v>2.2778</v>
       </c>
       <c r="E107" t="n">
-        <v>0.387694</v>
+        <v>0.369464</v>
       </c>
       <c r="F107" t="n">
-        <v>0.908249</v>
+        <v>0.923795</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492637</v>
+        <v>0.514045</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01881</v>
+        <v>1.05813</v>
       </c>
       <c r="D108" t="n">
-        <v>2.27869</v>
+        <v>2.25357</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5876169999999999</v>
+        <v>0.52844</v>
       </c>
       <c r="F108" t="n">
-        <v>2.37848</v>
+        <v>2.3909</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.505358</v>
+        <v>0.508992</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03076</v>
+        <v>1.05124</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25356</v>
+        <v>2.23607</v>
       </c>
       <c r="E109" t="n">
-        <v>0.583368</v>
+        <v>0.5670500000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>2.38547</v>
+        <v>2.4277</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7159450000000001</v>
+        <v>0.727864</v>
       </c>
       <c r="C110" t="n">
-        <v>2.55395</v>
+        <v>2.65381</v>
       </c>
       <c r="D110" t="n">
-        <v>2.23341</v>
+        <v>2.21727</v>
       </c>
       <c r="E110" t="n">
-        <v>0.569796</v>
+        <v>0.551381</v>
       </c>
       <c r="F110" t="n">
-        <v>2.38734</v>
+        <v>2.43377</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.701896</v>
+        <v>0.722297</v>
       </c>
       <c r="C111" t="n">
-        <v>2.54804</v>
+        <v>2.66486</v>
       </c>
       <c r="D111" t="n">
-        <v>2.233</v>
+        <v>2.20106</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5573360000000001</v>
+        <v>0.53806</v>
       </c>
       <c r="F111" t="n">
-        <v>2.38888</v>
+        <v>2.40475</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.633323</v>
+        <v>0.674606</v>
       </c>
       <c r="C112" t="n">
-        <v>2.56256</v>
+        <v>2.6579</v>
       </c>
       <c r="D112" t="n">
-        <v>2.21991</v>
+        <v>2.21134</v>
       </c>
       <c r="E112" t="n">
-        <v>0.503433</v>
+        <v>0.490381</v>
       </c>
       <c r="F112" t="n">
-        <v>2.39067</v>
+        <v>2.40293</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6868880000000001</v>
+        <v>0.692364</v>
       </c>
       <c r="C113" t="n">
-        <v>2.55907</v>
+        <v>2.64857</v>
       </c>
       <c r="D113" t="n">
-        <v>2.19476</v>
+        <v>2.18637</v>
       </c>
       <c r="E113" t="n">
-        <v>0.495936</v>
+        <v>0.51857</v>
       </c>
       <c r="F113" t="n">
-        <v>2.38687</v>
+        <v>2.44679</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.663678</v>
+        <v>0.637143</v>
       </c>
       <c r="C114" t="n">
-        <v>2.54621</v>
+        <v>2.67326</v>
       </c>
       <c r="D114" t="n">
-        <v>2.20907</v>
+        <v>2.21815</v>
       </c>
       <c r="E114" t="n">
-        <v>0.521869</v>
+        <v>0.508007</v>
       </c>
       <c r="F114" t="n">
-        <v>2.3919</v>
+        <v>2.44198</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.659953</v>
+        <v>0.672891</v>
       </c>
       <c r="C115" t="n">
-        <v>2.54956</v>
+        <v>2.66885</v>
       </c>
       <c r="D115" t="n">
-        <v>2.24736</v>
+        <v>2.22622</v>
       </c>
       <c r="E115" t="n">
-        <v>0.475448</v>
+        <v>0.496432</v>
       </c>
       <c r="F115" t="n">
-        <v>2.39262</v>
+        <v>2.42009</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.620854</v>
+        <v>0.6621939999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56047</v>
+        <v>2.66243</v>
       </c>
       <c r="D116" t="n">
-        <v>2.23854</v>
+        <v>2.23083</v>
       </c>
       <c r="E116" t="n">
-        <v>0.502959</v>
+        <v>0.481684</v>
       </c>
       <c r="F116" t="n">
-        <v>2.39269</v>
+        <v>2.42014</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.636175</v>
+        <v>0.652022</v>
       </c>
       <c r="C117" t="n">
-        <v>2.5501</v>
+        <v>2.66797</v>
       </c>
       <c r="D117" t="n">
-        <v>2.21336</v>
+        <v>2.23066</v>
       </c>
       <c r="E117" t="n">
-        <v>0.494395</v>
+        <v>0.474731</v>
       </c>
       <c r="F117" t="n">
-        <v>2.3959</v>
+        <v>2.42249</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6277199999999999</v>
+        <v>0.636966</v>
       </c>
       <c r="C118" t="n">
-        <v>2.55599</v>
+        <v>2.66927</v>
       </c>
       <c r="D118" t="n">
-        <v>2.19145</v>
+        <v>2.18119</v>
       </c>
       <c r="E118" t="n">
-        <v>0.455655</v>
+        <v>0.434847</v>
       </c>
       <c r="F118" t="n">
-        <v>2.2077</v>
+        <v>2.2366</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6230560000000001</v>
+        <v>0.630146</v>
       </c>
       <c r="C119" t="n">
-        <v>2.57914</v>
+        <v>2.67982</v>
       </c>
       <c r="D119" t="n">
-        <v>2.18347</v>
+        <v>2.19191</v>
       </c>
       <c r="E119" t="n">
-        <v>0.445369</v>
+        <v>0.428209</v>
       </c>
       <c r="F119" t="n">
-        <v>1.79197</v>
+        <v>1.79096</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.601506</v>
+        <v>0.603683</v>
       </c>
       <c r="C120" t="n">
-        <v>2.561</v>
+        <v>2.68887</v>
       </c>
       <c r="D120" t="n">
-        <v>2.19341</v>
+        <v>2.20307</v>
       </c>
       <c r="E120" t="n">
-        <v>0.440311</v>
+        <v>0.422479</v>
       </c>
       <c r="F120" t="n">
-        <v>1.59425</v>
+        <v>2.24021</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.607674</v>
+        <v>0.61476</v>
       </c>
       <c r="C121" t="n">
-        <v>2.57388</v>
+        <v>2.68935</v>
       </c>
       <c r="D121" t="n">
-        <v>2.85997</v>
+        <v>2.83844</v>
       </c>
       <c r="E121" t="n">
-        <v>0.438794</v>
+        <v>0.415033</v>
       </c>
       <c r="F121" t="n">
-        <v>1.79509</v>
+        <v>1.80565</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.586322</v>
+        <v>0.607583</v>
       </c>
       <c r="C122" t="n">
-        <v>2.57106</v>
+        <v>2.70738</v>
       </c>
       <c r="D122" t="n">
-        <v>2.80817</v>
+        <v>2.79494</v>
       </c>
       <c r="E122" t="n">
-        <v>0.435497</v>
+        <v>0.413621</v>
       </c>
       <c r="F122" t="n">
-        <v>1.79698</v>
+        <v>1.571</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.59311</v>
+        <v>0.590466</v>
       </c>
       <c r="C123" t="n">
-        <v>2.57885</v>
+        <v>2.6895</v>
       </c>
       <c r="D123" t="n">
-        <v>2.76729</v>
+        <v>2.75379</v>
       </c>
       <c r="E123" t="n">
-        <v>0.630643</v>
+        <v>0.6172530000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>2.90369</v>
+        <v>2.91371</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.785037</v>
+        <v>0.805457</v>
       </c>
       <c r="C124" t="n">
-        <v>3.14201</v>
+        <v>3.22319</v>
       </c>
       <c r="D124" t="n">
-        <v>2.74192</v>
+        <v>2.72722</v>
       </c>
       <c r="E124" t="n">
-        <v>0.624178</v>
+        <v>0.608911</v>
       </c>
       <c r="F124" t="n">
-        <v>2.893</v>
+        <v>2.90845</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.771209</v>
+        <v>0.791579</v>
       </c>
       <c r="C125" t="n">
-        <v>3.11739</v>
+        <v>3.22851</v>
       </c>
       <c r="D125" t="n">
-        <v>2.70836</v>
+        <v>2.7011</v>
       </c>
       <c r="E125" t="n">
-        <v>0.617513</v>
+        <v>0.599724</v>
       </c>
       <c r="F125" t="n">
-        <v>2.88643</v>
+        <v>2.91631</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.751703</v>
+        <v>0.804686</v>
       </c>
       <c r="C126" t="n">
-        <v>3.1099</v>
+        <v>3.20625</v>
       </c>
       <c r="D126" t="n">
-        <v>2.67925</v>
+        <v>2.67456</v>
       </c>
       <c r="E126" t="n">
-        <v>0.607727</v>
+        <v>0.583223</v>
       </c>
       <c r="F126" t="n">
-        <v>2.8765</v>
+        <v>2.91082</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.756811</v>
+        <v>0.771374</v>
       </c>
       <c r="C127" t="n">
-        <v>3.09541</v>
+        <v>3.19627</v>
       </c>
       <c r="D127" t="n">
-        <v>2.66346</v>
+        <v>2.66551</v>
       </c>
       <c r="E127" t="n">
-        <v>0.600533</v>
+        <v>0.581705</v>
       </c>
       <c r="F127" t="n">
-        <v>2.87957</v>
+        <v>2.90953</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.751846</v>
+        <v>0.7663759999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>3.09427</v>
+        <v>3.19531</v>
       </c>
       <c r="D128" t="n">
-        <v>2.63023</v>
+        <v>2.63726</v>
       </c>
       <c r="E128" t="n">
-        <v>0.594256</v>
+        <v>0.5661350000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>2.86949</v>
+        <v>2.89542</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7324349999999999</v>
+        <v>0.765829</v>
       </c>
       <c r="C129" t="n">
-        <v>3.07125</v>
+        <v>3.18086</v>
       </c>
       <c r="D129" t="n">
-        <v>2.61652</v>
+        <v>2.62025</v>
       </c>
       <c r="E129" t="n">
-        <v>0.589456</v>
+        <v>0.567137</v>
       </c>
       <c r="F129" t="n">
-        <v>2.86048</v>
+        <v>2.9098</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.722463</v>
+        <v>0.764763</v>
       </c>
       <c r="C130" t="n">
-        <v>3.08048</v>
+        <v>3.18851</v>
       </c>
       <c r="D130" t="n">
-        <v>2.60907</v>
+        <v>2.61754</v>
       </c>
       <c r="E130" t="n">
-        <v>0.58292</v>
+        <v>0.555605</v>
       </c>
       <c r="F130" t="n">
-        <v>2.84822</v>
+        <v>2.89079</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.711272</v>
+        <v>0.753665</v>
       </c>
       <c r="C131" t="n">
-        <v>3.06994</v>
+        <v>3.17572</v>
       </c>
       <c r="D131" t="n">
-        <v>2.58977</v>
+        <v>2.61073</v>
       </c>
       <c r="E131" t="n">
-        <v>0.577603</v>
+        <v>0.553356</v>
       </c>
       <c r="F131" t="n">
-        <v>2.85765</v>
+        <v>2.9084</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.705618</v>
+        <v>0.748344</v>
       </c>
       <c r="C132" t="n">
-        <v>3.05906</v>
+        <v>3.18048</v>
       </c>
       <c r="D132" t="n">
-        <v>2.58641</v>
+        <v>2.60244</v>
       </c>
       <c r="E132" t="n">
-        <v>0.572951</v>
+        <v>0.541442</v>
       </c>
       <c r="F132" t="n">
-        <v>2.8567</v>
+        <v>2.92094</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.708291</v>
+        <v>0.725325</v>
       </c>
       <c r="C133" t="n">
-        <v>3.04756</v>
+        <v>3.16457</v>
       </c>
       <c r="D133" t="n">
-        <v>2.58033</v>
+        <v>2.58248</v>
       </c>
       <c r="E133" t="n">
-        <v>0.568101</v>
+        <v>0.5154029999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>2.85956</v>
+        <v>2.90705</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.698974</v>
+        <v>0.720255</v>
       </c>
       <c r="C134" t="n">
-        <v>3.0419</v>
+        <v>3.15458</v>
       </c>
       <c r="D134" t="n">
-        <v>2.56066</v>
+        <v>2.57437</v>
       </c>
       <c r="E134" t="n">
-        <v>0.536829</v>
+        <v>0.5059630000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>2.39622</v>
+        <v>1.91733</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.691912</v>
+        <v>0.723848</v>
       </c>
       <c r="C135" t="n">
-        <v>3.04675</v>
+        <v>3.1645</v>
       </c>
       <c r="D135" t="n">
-        <v>3.24443</v>
+        <v>3.23703</v>
       </c>
       <c r="E135" t="n">
-        <v>0.534931</v>
+        <v>0.501949</v>
       </c>
       <c r="F135" t="n">
-        <v>2.3888</v>
+        <v>2.90482</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.687009</v>
+        <v>0.720647</v>
       </c>
       <c r="C136" t="n">
-        <v>3.03332</v>
+        <v>3.15522</v>
       </c>
       <c r="D136" t="n">
-        <v>3.20152</v>
+        <v>3.20055</v>
       </c>
       <c r="E136" t="n">
-        <v>0.53217</v>
+        <v>0.501695</v>
       </c>
       <c r="F136" t="n">
-        <v>2.39478</v>
+        <v>2.65815</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.656654</v>
+        <v>0.71035</v>
       </c>
       <c r="C137" t="n">
-        <v>3.04248</v>
+        <v>3.15691</v>
       </c>
       <c r="D137" t="n">
-        <v>3.13902</v>
+        <v>3.13667</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7228869999999999</v>
+        <v>0.7065360000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>3.31485</v>
+        <v>3.35755</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.869004</v>
+        <v>0.930108</v>
       </c>
       <c r="C138" t="n">
-        <v>3.5902</v>
+        <v>3.6923</v>
       </c>
       <c r="D138" t="n">
-        <v>3.09092</v>
+        <v>3.10084</v>
       </c>
       <c r="E138" t="n">
-        <v>0.717319</v>
+        <v>0.691083</v>
       </c>
       <c r="F138" t="n">
-        <v>3.30309</v>
+        <v>3.35918</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.832659</v>
+        <v>0.874882</v>
       </c>
       <c r="C139" t="n">
-        <v>3.50737</v>
+        <v>3.64864</v>
       </c>
       <c r="D139" t="n">
-        <v>3.05248</v>
+        <v>3.05718</v>
       </c>
       <c r="E139" t="n">
-        <v>0.71373</v>
+        <v>0.685225</v>
       </c>
       <c r="F139" t="n">
-        <v>3.2912</v>
+        <v>3.33838</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.864725</v>
+        <v>0.899559</v>
       </c>
       <c r="C140" t="n">
-        <v>3.49306</v>
+        <v>3.61096</v>
       </c>
       <c r="D140" t="n">
-        <v>3.01277</v>
+        <v>3.02546</v>
       </c>
       <c r="E140" t="n">
-        <v>0.711181</v>
+        <v>0.676671</v>
       </c>
       <c r="F140" t="n">
-        <v>3.27499</v>
+        <v>3.3165</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.847248</v>
+        <v>0.8777700000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>3.47501</v>
+        <v>3.61922</v>
       </c>
       <c r="D141" t="n">
-        <v>2.9874</v>
+        <v>2.99716</v>
       </c>
       <c r="E141" t="n">
-        <v>0.706557</v>
+        <v>0.675694</v>
       </c>
       <c r="F141" t="n">
-        <v>3.2584</v>
+        <v>3.3034</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.853939</v>
+        <v>0.882144</v>
       </c>
       <c r="C142" t="n">
-        <v>3.4558</v>
+        <v>3.59461</v>
       </c>
       <c r="D142" t="n">
-        <v>2.96047</v>
+        <v>2.98653</v>
       </c>
       <c r="E142" t="n">
-        <v>0.720809</v>
+        <v>0.663697</v>
       </c>
       <c r="F142" t="n">
-        <v>3.24335</v>
+        <v>3.29703</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.835917</v>
+        <v>0.8730059999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>3.43877</v>
+        <v>3.58496</v>
       </c>
       <c r="D143" t="n">
-        <v>2.94192</v>
+        <v>2.95898</v>
       </c>
       <c r="E143" t="n">
-        <v>0.717707</v>
+        <v>0.662505</v>
       </c>
       <c r="F143" t="n">
-        <v>3.22643</v>
+        <v>3.29598</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246919</v>
+        <v>0.246781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.416363</v>
+        <v>0.41622</v>
       </c>
       <c r="D2" t="n">
-        <v>0.544269</v>
+        <v>0.546386</v>
       </c>
       <c r="E2" t="n">
-        <v>0.197413</v>
+        <v>0.197976</v>
       </c>
       <c r="F2" t="n">
-        <v>0.379867</v>
+        <v>0.380379</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239438</v>
+        <v>0.241347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.409845</v>
+        <v>0.411109</v>
       </c>
       <c r="D3" t="n">
-        <v>0.537959</v>
+        <v>0.538973</v>
       </c>
       <c r="E3" t="n">
-        <v>0.191651</v>
+        <v>0.191225</v>
       </c>
       <c r="F3" t="n">
-        <v>0.374777</v>
+        <v>0.374407</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.238463</v>
+        <v>0.231756</v>
       </c>
       <c r="C4" t="n">
-        <v>0.403327</v>
+        <v>0.404359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5318310000000001</v>
+        <v>0.533074</v>
       </c>
       <c r="E4" t="n">
-        <v>0.185865</v>
+        <v>0.185863</v>
       </c>
       <c r="F4" t="n">
-        <v>0.36939</v>
+        <v>0.367634</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.232935</v>
+        <v>0.227295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.397861</v>
+        <v>0.397944</v>
       </c>
       <c r="D5" t="n">
-        <v>0.526818</v>
+        <v>0.528962</v>
       </c>
       <c r="E5" t="n">
-        <v>0.179511</v>
+        <v>0.180678</v>
       </c>
       <c r="F5" t="n">
-        <v>0.36292</v>
+        <v>0.363443</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.226154</v>
+        <v>0.225438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.394055</v>
+        <v>0.393296</v>
       </c>
       <c r="D6" t="n">
-        <v>0.521081</v>
+        <v>0.522693</v>
       </c>
       <c r="E6" t="n">
-        <v>0.176594</v>
+        <v>0.177059</v>
       </c>
       <c r="F6" t="n">
-        <v>0.359847</v>
+        <v>0.359274</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.222773</v>
+        <v>0.224389</v>
       </c>
       <c r="C7" t="n">
-        <v>0.390069</v>
+        <v>0.391075</v>
       </c>
       <c r="D7" t="n">
-        <v>0.674316</v>
+        <v>0.675196</v>
       </c>
       <c r="E7" t="n">
-        <v>0.173949</v>
+        <v>0.174173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.356521</v>
+        <v>0.35696</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.219983</v>
+        <v>0.225717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.38796</v>
+        <v>0.387984</v>
       </c>
       <c r="D8" t="n">
-        <v>0.658003</v>
+        <v>0.659283</v>
       </c>
       <c r="E8" t="n">
-        <v>0.175111</v>
+        <v>0.174972</v>
       </c>
       <c r="F8" t="n">
-        <v>0.357502</v>
+        <v>0.357694</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.22008</v>
+        <v>0.224434</v>
       </c>
       <c r="C9" t="n">
-        <v>0.388128</v>
+        <v>0.38588</v>
       </c>
       <c r="D9" t="n">
-        <v>0.64479</v>
+        <v>0.645531</v>
       </c>
       <c r="E9" t="n">
-        <v>0.265441</v>
+        <v>0.265675</v>
       </c>
       <c r="F9" t="n">
-        <v>0.447294</v>
+        <v>0.445831</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.307887</v>
+        <v>0.307377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.480206</v>
+        <v>0.480323</v>
       </c>
       <c r="D10" t="n">
-        <v>0.632628</v>
+        <v>0.633096</v>
       </c>
       <c r="E10" t="n">
-        <v>0.255851</v>
+        <v>0.254999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.436614</v>
+        <v>0.436036</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300046</v>
+        <v>0.303087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.471842</v>
+        <v>0.470126</v>
       </c>
       <c r="D11" t="n">
-        <v>0.620467</v>
+        <v>0.620888</v>
       </c>
       <c r="E11" t="n">
-        <v>0.246802</v>
+        <v>0.245942</v>
       </c>
       <c r="F11" t="n">
-        <v>0.427289</v>
+        <v>0.425417</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.291675</v>
+        <v>0.290227</v>
       </c>
       <c r="C12" t="n">
-        <v>0.460519</v>
+        <v>0.463469</v>
       </c>
       <c r="D12" t="n">
-        <v>0.60931</v>
+        <v>0.609572</v>
       </c>
       <c r="E12" t="n">
-        <v>0.240448</v>
+        <v>0.237906</v>
       </c>
       <c r="F12" t="n">
-        <v>0.41748</v>
+        <v>0.416464</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.287432</v>
+        <v>0.281579</v>
       </c>
       <c r="C13" t="n">
-        <v>0.452109</v>
+        <v>0.454212</v>
       </c>
       <c r="D13" t="n">
-        <v>0.600082</v>
+        <v>0.600042</v>
       </c>
       <c r="E13" t="n">
-        <v>0.23233</v>
+        <v>0.230015</v>
       </c>
       <c r="F13" t="n">
-        <v>0.409104</v>
+        <v>0.407721</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.277941</v>
+        <v>0.27601</v>
       </c>
       <c r="C14" t="n">
-        <v>0.443405</v>
+        <v>0.44493</v>
       </c>
       <c r="D14" t="n">
-        <v>0.591794</v>
+        <v>0.590247</v>
       </c>
       <c r="E14" t="n">
-        <v>0.225087</v>
+        <v>0.223842</v>
       </c>
       <c r="F14" t="n">
-        <v>0.400584</v>
+        <v>0.398429</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.268643</v>
+        <v>0.267901</v>
       </c>
       <c r="C15" t="n">
-        <v>0.437246</v>
+        <v>0.438457</v>
       </c>
       <c r="D15" t="n">
-        <v>0.582817</v>
+        <v>0.582656</v>
       </c>
       <c r="E15" t="n">
-        <v>0.218535</v>
+        <v>0.217402</v>
       </c>
       <c r="F15" t="n">
-        <v>0.392155</v>
+        <v>0.390382</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.259618</v>
+        <v>0.258847</v>
       </c>
       <c r="C16" t="n">
-        <v>0.430621</v>
+        <v>0.431223</v>
       </c>
       <c r="D16" t="n">
-        <v>0.576148</v>
+        <v>0.575412</v>
       </c>
       <c r="E16" t="n">
-        <v>0.212259</v>
+        <v>0.21106</v>
       </c>
       <c r="F16" t="n">
-        <v>0.384128</v>
+        <v>0.383433</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25736</v>
+        <v>0.254508</v>
       </c>
       <c r="C17" t="n">
-        <v>0.421699</v>
+        <v>0.422275</v>
       </c>
       <c r="D17" t="n">
-        <v>0.568161</v>
+        <v>0.56896</v>
       </c>
       <c r="E17" t="n">
-        <v>0.205347</v>
+        <v>0.204891</v>
       </c>
       <c r="F17" t="n">
-        <v>0.377857</v>
+        <v>0.376795</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251281</v>
+        <v>0.251497</v>
       </c>
       <c r="C18" t="n">
-        <v>0.417187</v>
+        <v>0.415837</v>
       </c>
       <c r="D18" t="n">
-        <v>0.563127</v>
+        <v>0.560933</v>
       </c>
       <c r="E18" t="n">
-        <v>0.202989</v>
+        <v>0.200768</v>
       </c>
       <c r="F18" t="n">
-        <v>0.372517</v>
+        <v>0.370745</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.245255</v>
+        <v>0.246537</v>
       </c>
       <c r="C19" t="n">
-        <v>0.410324</v>
+        <v>0.409291</v>
       </c>
       <c r="D19" t="n">
-        <v>0.557818</v>
+        <v>0.555993</v>
       </c>
       <c r="E19" t="n">
-        <v>0.197611</v>
+        <v>0.19695</v>
       </c>
       <c r="F19" t="n">
-        <v>0.367664</v>
+        <v>0.366374</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.241791</v>
+        <v>0.24404</v>
       </c>
       <c r="C20" t="n">
-        <v>0.404681</v>
+        <v>0.404124</v>
       </c>
       <c r="D20" t="n">
-        <v>0.552889</v>
+        <v>0.551021</v>
       </c>
       <c r="E20" t="n">
-        <v>0.195016</v>
+        <v>0.193749</v>
       </c>
       <c r="F20" t="n">
-        <v>0.363973</v>
+        <v>0.362239</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.236416</v>
+        <v>0.238866</v>
       </c>
       <c r="C21" t="n">
-        <v>0.400709</v>
+        <v>0.402261</v>
       </c>
       <c r="D21" t="n">
-        <v>0.731887</v>
+        <v>0.728733</v>
       </c>
       <c r="E21" t="n">
-        <v>0.193458</v>
+        <v>0.193353</v>
       </c>
       <c r="F21" t="n">
-        <v>0.361013</v>
+        <v>0.359822</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238425</v>
+        <v>0.233791</v>
       </c>
       <c r="C22" t="n">
-        <v>0.395849</v>
+        <v>0.401093</v>
       </c>
       <c r="D22" t="n">
-        <v>0.712298</v>
+        <v>0.714171</v>
       </c>
       <c r="E22" t="n">
-        <v>0.194425</v>
+        <v>0.193772</v>
       </c>
       <c r="F22" t="n">
-        <v>0.36091</v>
+        <v>0.360587</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.240041</v>
+        <v>0.235854</v>
       </c>
       <c r="C23" t="n">
-        <v>0.395558</v>
+        <v>0.39849</v>
       </c>
       <c r="D23" t="n">
-        <v>0.700824</v>
+        <v>0.697945</v>
       </c>
       <c r="E23" t="n">
-        <v>0.285646</v>
+        <v>0.286746</v>
       </c>
       <c r="F23" t="n">
-        <v>0.457406</v>
+        <v>0.455785</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.318024</v>
+        <v>0.319326</v>
       </c>
       <c r="C24" t="n">
-        <v>0.488759</v>
+        <v>0.494195</v>
       </c>
       <c r="D24" t="n">
-        <v>0.686508</v>
+        <v>0.684759</v>
       </c>
       <c r="E24" t="n">
-        <v>0.277122</v>
+        <v>0.275022</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4469</v>
+        <v>0.445152</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314085</v>
+        <v>0.307869</v>
       </c>
       <c r="C25" t="n">
-        <v>0.483227</v>
+        <v>0.483904</v>
       </c>
       <c r="D25" t="n">
-        <v>0.67664</v>
+        <v>0.674933</v>
       </c>
       <c r="E25" t="n">
-        <v>0.267167</v>
+        <v>0.265463</v>
       </c>
       <c r="F25" t="n">
-        <v>0.436828</v>
+        <v>0.435431</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.300007</v>
+        <v>0.302313</v>
       </c>
       <c r="C26" t="n">
-        <v>0.474413</v>
+        <v>0.472959</v>
       </c>
       <c r="D26" t="n">
-        <v>0.662864</v>
+        <v>0.660724</v>
       </c>
       <c r="E26" t="n">
-        <v>0.257999</v>
+        <v>0.256767</v>
       </c>
       <c r="F26" t="n">
-        <v>0.427057</v>
+        <v>0.425506</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.293473</v>
+        <v>0.287677</v>
       </c>
       <c r="C27" t="n">
-        <v>0.46635</v>
+        <v>0.464249</v>
       </c>
       <c r="D27" t="n">
-        <v>0.651896</v>
+        <v>0.650338</v>
       </c>
       <c r="E27" t="n">
-        <v>0.249157</v>
+        <v>0.247911</v>
       </c>
       <c r="F27" t="n">
-        <v>0.418585</v>
+        <v>0.416454</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.288019</v>
+        <v>0.281181</v>
       </c>
       <c r="C28" t="n">
-        <v>0.457561</v>
+        <v>0.455342</v>
       </c>
       <c r="D28" t="n">
-        <v>0.641336</v>
+        <v>0.639718</v>
       </c>
       <c r="E28" t="n">
-        <v>0.241925</v>
+        <v>0.24029</v>
       </c>
       <c r="F28" t="n">
-        <v>0.410281</v>
+        <v>0.408062</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281373</v>
+        <v>0.277356</v>
       </c>
       <c r="C29" t="n">
-        <v>0.444835</v>
+        <v>0.44879</v>
       </c>
       <c r="D29" t="n">
-        <v>0.63305</v>
+        <v>0.632842</v>
       </c>
       <c r="E29" t="n">
-        <v>0.234327</v>
+        <v>0.231928</v>
       </c>
       <c r="F29" t="n">
-        <v>0.402293</v>
+        <v>0.399946</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.272187</v>
+        <v>0.26509</v>
       </c>
       <c r="C30" t="n">
-        <v>0.440861</v>
+        <v>0.44088</v>
       </c>
       <c r="D30" t="n">
-        <v>0.624954</v>
+        <v>0.623386</v>
       </c>
       <c r="E30" t="n">
-        <v>0.227067</v>
+        <v>0.224686</v>
       </c>
       <c r="F30" t="n">
-        <v>0.393746</v>
+        <v>0.39213</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.263816</v>
+        <v>0.262802</v>
       </c>
       <c r="C31" t="n">
-        <v>0.432678</v>
+        <v>0.432933</v>
       </c>
       <c r="D31" t="n">
-        <v>0.618502</v>
+        <v>0.61738</v>
       </c>
       <c r="E31" t="n">
-        <v>0.22148</v>
+        <v>0.21946</v>
       </c>
       <c r="F31" t="n">
-        <v>0.388538</v>
+        <v>0.385322</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.258493</v>
+        <v>0.255909</v>
       </c>
       <c r="C32" t="n">
-        <v>0.426643</v>
+        <v>0.42559</v>
       </c>
       <c r="D32" t="n">
-        <v>0.612502</v>
+        <v>0.610822</v>
       </c>
       <c r="E32" t="n">
-        <v>0.215933</v>
+        <v>0.213695</v>
       </c>
       <c r="F32" t="n">
-        <v>0.381832</v>
+        <v>0.379053</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258246</v>
+        <v>0.252621</v>
       </c>
       <c r="C33" t="n">
-        <v>0.42115</v>
+        <v>0.420901</v>
       </c>
       <c r="D33" t="n">
-        <v>0.606564</v>
+        <v>0.605428</v>
       </c>
       <c r="E33" t="n">
-        <v>0.210859</v>
+        <v>0.210926</v>
       </c>
       <c r="F33" t="n">
-        <v>0.378135</v>
+        <v>0.374371</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248478</v>
+        <v>0.243356</v>
       </c>
       <c r="C34" t="n">
-        <v>0.416848</v>
+        <v>0.416793</v>
       </c>
       <c r="D34" t="n">
-        <v>0.600481</v>
+        <v>0.600205</v>
       </c>
       <c r="E34" t="n">
-        <v>0.206866</v>
+        <v>0.203645</v>
       </c>
       <c r="F34" t="n">
-        <v>0.370744</v>
+        <v>0.369229</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2446</v>
+        <v>0.241155</v>
       </c>
       <c r="C35" t="n">
-        <v>0.411385</v>
+        <v>0.413841</v>
       </c>
       <c r="D35" t="n">
-        <v>0.786337</v>
+        <v>0.7872479999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.204297</v>
+        <v>0.203672</v>
       </c>
       <c r="F35" t="n">
-        <v>0.367611</v>
+        <v>0.368291</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244163</v>
+        <v>0.240063</v>
       </c>
       <c r="C36" t="n">
-        <v>0.408356</v>
+        <v>0.411312</v>
       </c>
       <c r="D36" t="n">
-        <v>0.768997</v>
+        <v>0.770464</v>
       </c>
       <c r="E36" t="n">
-        <v>0.20271</v>
+        <v>0.202338</v>
       </c>
       <c r="F36" t="n">
-        <v>0.367437</v>
+        <v>0.368406</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243498</v>
+        <v>0.237314</v>
       </c>
       <c r="C37" t="n">
-        <v>0.407396</v>
+        <v>0.409164</v>
       </c>
       <c r="D37" t="n">
-        <v>0.752714</v>
+        <v>0.7533029999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.296707</v>
+        <v>0.296199</v>
       </c>
       <c r="F37" t="n">
-        <v>0.466584</v>
+        <v>0.466933</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.321894</v>
+        <v>0.319787</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5245919999999999</v>
+        <v>0.501768</v>
       </c>
       <c r="D38" t="n">
-        <v>0.738377</v>
+        <v>0.73756</v>
       </c>
       <c r="E38" t="n">
-        <v>0.286884</v>
+        <v>0.285924</v>
       </c>
       <c r="F38" t="n">
-        <v>0.456697</v>
+        <v>0.456313</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.314446</v>
+        <v>0.315111</v>
       </c>
       <c r="C39" t="n">
-        <v>0.513278</v>
+        <v>0.51854</v>
       </c>
       <c r="D39" t="n">
-        <v>0.724745</v>
+        <v>0.723476</v>
       </c>
       <c r="E39" t="n">
-        <v>0.277064</v>
+        <v>0.276414</v>
       </c>
       <c r="F39" t="n">
-        <v>0.446584</v>
+        <v>0.446454</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.30658</v>
+        <v>0.304963</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5047160000000001</v>
+        <v>0.485269</v>
       </c>
       <c r="D40" t="n">
-        <v>0.710588</v>
+        <v>0.710869</v>
       </c>
       <c r="E40" t="n">
-        <v>0.265262</v>
+        <v>0.265374</v>
       </c>
       <c r="F40" t="n">
-        <v>0.436563</v>
+        <v>0.436642</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.30219</v>
+        <v>0.298818</v>
       </c>
       <c r="C41" t="n">
-        <v>0.492676</v>
+        <v>0.473481</v>
       </c>
       <c r="D41" t="n">
-        <v>0.699884</v>
+        <v>0.696999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.260969</v>
+        <v>0.259272</v>
       </c>
       <c r="F41" t="n">
-        <v>0.430948</v>
+        <v>0.430362</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294636</v>
+        <v>0.291734</v>
       </c>
       <c r="C42" t="n">
-        <v>0.473479</v>
+        <v>0.48077</v>
       </c>
       <c r="D42" t="n">
-        <v>0.689353</v>
+        <v>0.687716</v>
       </c>
       <c r="E42" t="n">
-        <v>0.251636</v>
+        <v>0.251375</v>
       </c>
       <c r="F42" t="n">
-        <v>0.423296</v>
+        <v>0.422374</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.286756</v>
+        <v>0.288465</v>
       </c>
       <c r="C43" t="n">
-        <v>0.467307</v>
+        <v>0.484691</v>
       </c>
       <c r="D43" t="n">
-        <v>0.679399</v>
+        <v>0.677551</v>
       </c>
       <c r="E43" t="n">
-        <v>0.245606</v>
+        <v>0.244486</v>
       </c>
       <c r="F43" t="n">
-        <v>0.415431</v>
+        <v>0.414683</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.278194</v>
+        <v>0.280874</v>
       </c>
       <c r="C44" t="n">
-        <v>0.458849</v>
+        <v>0.469119</v>
       </c>
       <c r="D44" t="n">
-        <v>0.671158</v>
+        <v>0.668643</v>
       </c>
       <c r="E44" t="n">
-        <v>0.238626</v>
+        <v>0.234438</v>
       </c>
       <c r="F44" t="n">
-        <v>0.408023</v>
+        <v>0.405082</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.276215</v>
+        <v>0.268184</v>
       </c>
       <c r="C45" t="n">
-        <v>0.460903</v>
+        <v>0.469494</v>
       </c>
       <c r="D45" t="n">
-        <v>0.663199</v>
+        <v>0.659902</v>
       </c>
       <c r="E45" t="n">
-        <v>0.230514</v>
+        <v>0.230394</v>
       </c>
       <c r="F45" t="n">
-        <v>0.401885</v>
+        <v>0.401179</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.262613</v>
+        <v>0.276188</v>
       </c>
       <c r="C46" t="n">
-        <v>0.452915</v>
+        <v>0.454249</v>
       </c>
       <c r="D46" t="n">
-        <v>0.656162</v>
+        <v>0.653101</v>
       </c>
       <c r="E46" t="n">
-        <v>0.226143</v>
+        <v>0.224178</v>
       </c>
       <c r="F46" t="n">
-        <v>0.395546</v>
+        <v>0.394867</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261356</v>
+        <v>0.263685</v>
       </c>
       <c r="C47" t="n">
-        <v>0.440543</v>
+        <v>0.446848</v>
       </c>
       <c r="D47" t="n">
-        <v>0.650213</v>
+        <v>0.64683</v>
       </c>
       <c r="E47" t="n">
-        <v>0.218705</v>
+        <v>0.218126</v>
       </c>
       <c r="F47" t="n">
-        <v>0.390289</v>
+        <v>0.389622</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.252659</v>
+        <v>0.262729</v>
       </c>
       <c r="C48" t="n">
-        <v>0.434685</v>
+        <v>0.439041</v>
       </c>
       <c r="D48" t="n">
-        <v>0.64468</v>
+        <v>0.642153</v>
       </c>
       <c r="E48" t="n">
-        <v>0.214863</v>
+        <v>0.216645</v>
       </c>
       <c r="F48" t="n">
-        <v>0.387464</v>
+        <v>0.385079</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.251569</v>
+        <v>0.252683</v>
       </c>
       <c r="C49" t="n">
-        <v>0.431522</v>
+        <v>0.436102</v>
       </c>
       <c r="D49" t="n">
-        <v>0.639688</v>
+        <v>0.636971</v>
       </c>
       <c r="E49" t="n">
-        <v>0.212357</v>
+        <v>0.21322</v>
       </c>
       <c r="F49" t="n">
-        <v>0.383073</v>
+        <v>0.382251</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249249</v>
+        <v>0.248115</v>
       </c>
       <c r="C50" t="n">
-        <v>0.427128</v>
+        <v>0.431073</v>
       </c>
       <c r="D50" t="n">
-        <v>0.818845</v>
+        <v>0.816737</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2102</v>
+        <v>0.207935</v>
       </c>
       <c r="F50" t="n">
-        <v>0.383217</v>
+        <v>0.380804</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.248785</v>
+        <v>0.248986</v>
       </c>
       <c r="C51" t="n">
-        <v>0.427018</v>
+        <v>0.424663</v>
       </c>
       <c r="D51" t="n">
-        <v>0.800764</v>
+        <v>0.797902</v>
       </c>
       <c r="E51" t="n">
-        <v>0.30563</v>
+        <v>0.307342</v>
       </c>
       <c r="F51" t="n">
-        <v>0.486079</v>
+        <v>0.485061</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.249985</v>
+        <v>0.246851</v>
       </c>
       <c r="C52" t="n">
-        <v>0.427993</v>
+        <v>0.429594</v>
       </c>
       <c r="D52" t="n">
-        <v>0.784121</v>
+        <v>0.782111</v>
       </c>
       <c r="E52" t="n">
-        <v>0.297617</v>
+        <v>0.297507</v>
       </c>
       <c r="F52" t="n">
-        <v>0.475608</v>
+        <v>0.474018</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.32844</v>
+        <v>0.336563</v>
       </c>
       <c r="C53" t="n">
-        <v>0.524719</v>
+        <v>0.523167</v>
       </c>
       <c r="D53" t="n">
-        <v>0.768406</v>
+        <v>0.766618</v>
       </c>
       <c r="E53" t="n">
-        <v>0.286779</v>
+        <v>0.289486</v>
       </c>
       <c r="F53" t="n">
-        <v>0.46679</v>
+        <v>0.465681</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.322812</v>
+        <v>0.323832</v>
       </c>
       <c r="C54" t="n">
-        <v>0.510522</v>
+        <v>0.519605</v>
       </c>
       <c r="D54" t="n">
-        <v>0.753352</v>
+        <v>0.752793</v>
       </c>
       <c r="E54" t="n">
-        <v>0.278577</v>
+        <v>0.280268</v>
       </c>
       <c r="F54" t="n">
-        <v>0.456797</v>
+        <v>0.456719</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.309327</v>
+        <v>0.318946</v>
       </c>
       <c r="C55" t="n">
-        <v>0.508248</v>
+        <v>0.507206</v>
       </c>
       <c r="D55" t="n">
-        <v>0.740936</v>
+        <v>0.739798</v>
       </c>
       <c r="E55" t="n">
-        <v>0.268886</v>
+        <v>0.270759</v>
       </c>
       <c r="F55" t="n">
-        <v>0.449911</v>
+        <v>0.448491</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.307906</v>
+        <v>0.311426</v>
       </c>
       <c r="C56" t="n">
-        <v>0.498637</v>
+        <v>0.499404</v>
       </c>
       <c r="D56" t="n">
-        <v>0.728776</v>
+        <v>0.7276629999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.257378</v>
+        <v>0.262646</v>
       </c>
       <c r="F56" t="n">
-        <v>0.43878</v>
+        <v>0.44086</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.299843</v>
+        <v>0.30461</v>
       </c>
       <c r="C57" t="n">
-        <v>0.491882</v>
+        <v>0.489535</v>
       </c>
       <c r="D57" t="n">
-        <v>0.717705</v>
+        <v>0.716662</v>
       </c>
       <c r="E57" t="n">
-        <v>0.254875</v>
+        <v>0.255555</v>
       </c>
       <c r="F57" t="n">
-        <v>0.43275</v>
+        <v>0.433583</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.292243</v>
+        <v>0.297103</v>
       </c>
       <c r="C58" t="n">
-        <v>0.486489</v>
+        <v>0.484404</v>
       </c>
       <c r="D58" t="n">
-        <v>0.707875</v>
+        <v>0.706863</v>
       </c>
       <c r="E58" t="n">
-        <v>0.246813</v>
+        <v>0.248541</v>
       </c>
       <c r="F58" t="n">
-        <v>0.425262</v>
+        <v>0.426302</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.28557</v>
+        <v>0.286157</v>
       </c>
       <c r="C59" t="n">
-        <v>0.479589</v>
+        <v>0.475548</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6990499999999999</v>
+        <v>0.697531</v>
       </c>
       <c r="E59" t="n">
-        <v>0.240662</v>
+        <v>0.241462</v>
       </c>
       <c r="F59" t="n">
-        <v>0.420798</v>
+        <v>0.419674</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.27813</v>
+        <v>0.278828</v>
       </c>
       <c r="C60" t="n">
-        <v>0.473977</v>
+        <v>0.4704</v>
       </c>
       <c r="D60" t="n">
-        <v>0.691269</v>
+        <v>0.690078</v>
       </c>
       <c r="E60" t="n">
-        <v>0.233666</v>
+        <v>0.235762</v>
       </c>
       <c r="F60" t="n">
-        <v>0.413226</v>
+        <v>0.41236</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.274631</v>
+        <v>0.273547</v>
       </c>
       <c r="C61" t="n">
-        <v>0.467772</v>
+        <v>0.466507</v>
       </c>
       <c r="D61" t="n">
-        <v>0.68392</v>
+        <v>0.6830889999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.230395</v>
+        <v>0.230336</v>
       </c>
       <c r="F61" t="n">
-        <v>0.407958</v>
+        <v>0.406853</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.269574</v>
+        <v>0.268846</v>
       </c>
       <c r="C62" t="n">
-        <v>0.463848</v>
+        <v>0.459212</v>
       </c>
       <c r="D62" t="n">
-        <v>0.676735</v>
+        <v>0.676555</v>
       </c>
       <c r="E62" t="n">
-        <v>0.225275</v>
+        <v>0.224876</v>
       </c>
       <c r="F62" t="n">
-        <v>0.40513</v>
+        <v>0.402543</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266295</v>
+        <v>0.268041</v>
       </c>
       <c r="C63" t="n">
-        <v>0.459387</v>
+        <v>0.458904</v>
       </c>
       <c r="D63" t="n">
-        <v>0.671516</v>
+        <v>0.670865</v>
       </c>
       <c r="E63" t="n">
-        <v>0.22211</v>
+        <v>0.222547</v>
       </c>
       <c r="F63" t="n">
-        <v>0.402577</v>
+        <v>0.400232</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263812</v>
+        <v>0.266679</v>
       </c>
       <c r="C64" t="n">
-        <v>0.456105</v>
+        <v>0.457142</v>
       </c>
       <c r="D64" t="n">
-        <v>0.871216</v>
+        <v>0.876483</v>
       </c>
       <c r="E64" t="n">
-        <v>0.218812</v>
+        <v>0.2206</v>
       </c>
       <c r="F64" t="n">
-        <v>0.401817</v>
+        <v>0.399999</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262772</v>
+        <v>0.259369</v>
       </c>
       <c r="C65" t="n">
-        <v>0.455566</v>
+        <v>0.453141</v>
       </c>
       <c r="D65" t="n">
-        <v>0.84933</v>
+        <v>0.858186</v>
       </c>
       <c r="E65" t="n">
-        <v>0.219743</v>
+        <v>0.220435</v>
       </c>
       <c r="F65" t="n">
-        <v>0.402774</v>
+        <v>0.402237</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.261213</v>
+        <v>0.262012</v>
       </c>
       <c r="C66" t="n">
-        <v>0.455826</v>
+        <v>0.453495</v>
       </c>
       <c r="D66" t="n">
-        <v>0.830522</v>
+        <v>0.840106</v>
       </c>
       <c r="E66" t="n">
-        <v>0.31976</v>
+        <v>0.326209</v>
       </c>
       <c r="F66" t="n">
-        <v>0.509072</v>
+        <v>0.512982</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.399241</v>
+        <v>0.400574</v>
       </c>
       <c r="C67" t="n">
-        <v>0.592183</v>
+        <v>0.600682</v>
       </c>
       <c r="D67" t="n">
-        <v>0.813548</v>
+        <v>0.823641</v>
       </c>
       <c r="E67" t="n">
-        <v>0.314961</v>
+        <v>0.311199</v>
       </c>
       <c r="F67" t="n">
-        <v>0.501602</v>
+        <v>0.506691</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.388616</v>
+        <v>0.402552</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5853660000000001</v>
+        <v>0.596686</v>
       </c>
       <c r="D68" t="n">
-        <v>0.797808</v>
+        <v>0.808233</v>
       </c>
       <c r="E68" t="n">
-        <v>0.306445</v>
+        <v>0.302765</v>
       </c>
       <c r="F68" t="n">
-        <v>0.494177</v>
+        <v>0.499624</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.396144</v>
+        <v>0.395157</v>
       </c>
       <c r="C69" t="n">
-        <v>0.57948</v>
+        <v>0.587428</v>
       </c>
       <c r="D69" t="n">
-        <v>0.784815</v>
+        <v>0.795258</v>
       </c>
       <c r="E69" t="n">
-        <v>0.294867</v>
+        <v>0.294198</v>
       </c>
       <c r="F69" t="n">
-        <v>0.48673</v>
+        <v>0.492544</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.374011</v>
+        <v>0.383844</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5682970000000001</v>
+        <v>0.579118</v>
       </c>
       <c r="D70" t="n">
-        <v>0.773887</v>
+        <v>0.784851</v>
       </c>
       <c r="E70" t="n">
-        <v>0.290154</v>
+        <v>0.286427</v>
       </c>
       <c r="F70" t="n">
-        <v>0.478831</v>
+        <v>0.485164</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.389093</v>
+        <v>0.386283</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5601120000000001</v>
+        <v>0.570866</v>
       </c>
       <c r="D71" t="n">
-        <v>0.763996</v>
+        <v>0.77551</v>
       </c>
       <c r="E71" t="n">
-        <v>0.278464</v>
+        <v>0.279458</v>
       </c>
       <c r="F71" t="n">
-        <v>0.471303</v>
+        <v>0.477148</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.366972</v>
+        <v>0.373709</v>
       </c>
       <c r="C72" t="n">
-        <v>0.549338</v>
+        <v>0.562029</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7562219999999999</v>
+        <v>0.7677310000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>0.270617</v>
+        <v>0.275998</v>
       </c>
       <c r="F72" t="n">
-        <v>0.465313</v>
+        <v>0.471956</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.355825</v>
+        <v>0.360314</v>
       </c>
       <c r="C73" t="n">
-        <v>0.545869</v>
+        <v>0.556643</v>
       </c>
       <c r="D73" t="n">
-        <v>0.749465</v>
+        <v>0.76119</v>
       </c>
       <c r="E73" t="n">
-        <v>0.264486</v>
+        <v>0.266524</v>
       </c>
       <c r="F73" t="n">
-        <v>0.459666</v>
+        <v>0.465677</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.358059</v>
+        <v>0.357532</v>
       </c>
       <c r="C74" t="n">
-        <v>0.541004</v>
+        <v>0.550561</v>
       </c>
       <c r="D74" t="n">
-        <v>0.743667</v>
+        <v>0.756447</v>
       </c>
       <c r="E74" t="n">
-        <v>0.262231</v>
+        <v>0.258668</v>
       </c>
       <c r="F74" t="n">
-        <v>0.454964</v>
+        <v>0.460839</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.35853</v>
+        <v>0.353376</v>
       </c>
       <c r="C75" t="n">
-        <v>0.538536</v>
+        <v>0.547374</v>
       </c>
       <c r="D75" t="n">
-        <v>0.741263</v>
+        <v>0.7542</v>
       </c>
       <c r="E75" t="n">
-        <v>0.256392</v>
+        <v>0.252543</v>
       </c>
       <c r="F75" t="n">
-        <v>0.44977</v>
+        <v>0.45586</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.358277</v>
+        <v>0.34493</v>
       </c>
       <c r="C76" t="n">
-        <v>0.532471</v>
+        <v>0.543973</v>
       </c>
       <c r="D76" t="n">
-        <v>0.73904</v>
+        <v>0.7541949999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.248562</v>
+        <v>0.247493</v>
       </c>
       <c r="F76" t="n">
-        <v>0.445627</v>
+        <v>0.45204</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.33632</v>
+        <v>0.339507</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5304140000000001</v>
+        <v>0.5376</v>
       </c>
       <c r="D77" t="n">
-        <v>0.738466</v>
+        <v>0.754167</v>
       </c>
       <c r="E77" t="n">
-        <v>0.249653</v>
+        <v>0.243531</v>
       </c>
       <c r="F77" t="n">
-        <v>0.44302</v>
+        <v>0.449466</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.340799</v>
+        <v>0.344965</v>
       </c>
       <c r="C78" t="n">
-        <v>0.528876</v>
+        <v>0.537185</v>
       </c>
       <c r="D78" t="n">
-        <v>1.18803</v>
+        <v>1.20355</v>
       </c>
       <c r="E78" t="n">
-        <v>0.247376</v>
+        <v>0.242291</v>
       </c>
       <c r="F78" t="n">
-        <v>0.441584</v>
+        <v>0.448016</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315512</v>
+        <v>0.342266</v>
       </c>
       <c r="C79" t="n">
-        <v>0.526526</v>
+        <v>0.537195</v>
       </c>
       <c r="D79" t="n">
-        <v>1.16577</v>
+        <v>1.18381</v>
       </c>
       <c r="E79" t="n">
-        <v>0.241992</v>
+        <v>0.239237</v>
       </c>
       <c r="F79" t="n">
-        <v>0.443255</v>
+        <v>0.44885</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.336147</v>
+        <v>0.320815</v>
       </c>
       <c r="C80" t="n">
-        <v>0.528627</v>
+        <v>0.537396</v>
       </c>
       <c r="D80" t="n">
-        <v>1.14806</v>
+        <v>1.16575</v>
       </c>
       <c r="E80" t="n">
-        <v>0.373453</v>
+        <v>0.373809</v>
       </c>
       <c r="F80" t="n">
-        <v>0.729315</v>
+        <v>0.73503</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.452608</v>
+        <v>0.442834</v>
       </c>
       <c r="C81" t="n">
-        <v>0.838619</v>
+        <v>0.863081</v>
       </c>
       <c r="D81" t="n">
-        <v>1.13356</v>
+        <v>1.13494</v>
       </c>
       <c r="E81" t="n">
-        <v>0.367092</v>
+        <v>0.363905</v>
       </c>
       <c r="F81" t="n">
-        <v>0.729001</v>
+        <v>0.731494</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.483672</v>
+        <v>0.46186</v>
       </c>
       <c r="C82" t="n">
-        <v>0.854355</v>
+        <v>0.865795</v>
       </c>
       <c r="D82" t="n">
-        <v>1.12107</v>
+        <v>1.12005</v>
       </c>
       <c r="E82" t="n">
-        <v>0.358727</v>
+        <v>0.356238</v>
       </c>
       <c r="F82" t="n">
-        <v>0.724924</v>
+        <v>0.727753</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.445472</v>
+        <v>0.456325</v>
       </c>
       <c r="C83" t="n">
-        <v>0.868683</v>
+        <v>0.872246</v>
       </c>
       <c r="D83" t="n">
-        <v>1.12355</v>
+        <v>1.12121</v>
       </c>
       <c r="E83" t="n">
-        <v>0.350514</v>
+        <v>0.347801</v>
       </c>
       <c r="F83" t="n">
-        <v>0.717046</v>
+        <v>0.719936</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.456176</v>
+        <v>0.455349</v>
       </c>
       <c r="C84" t="n">
-        <v>0.862526</v>
+        <v>0.860476</v>
       </c>
       <c r="D84" t="n">
-        <v>1.11542</v>
+        <v>1.11831</v>
       </c>
       <c r="E84" t="n">
-        <v>0.339794</v>
+        <v>0.338605</v>
       </c>
       <c r="F84" t="n">
-        <v>0.706952</v>
+        <v>0.7087</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.456743</v>
+        <v>0.424406</v>
       </c>
       <c r="C85" t="n">
-        <v>0.853291</v>
+        <v>0.848231</v>
       </c>
       <c r="D85" t="n">
-        <v>1.11322</v>
+        <v>1.11503</v>
       </c>
       <c r="E85" t="n">
-        <v>0.334785</v>
+        <v>0.330891</v>
       </c>
       <c r="F85" t="n">
-        <v>0.696885</v>
+        <v>0.698262</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.434324</v>
+        <v>0.430546</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8418060000000001</v>
+        <v>0.84216</v>
       </c>
       <c r="D86" t="n">
-        <v>1.11601</v>
+        <v>1.11268</v>
       </c>
       <c r="E86" t="n">
-        <v>0.323845</v>
+        <v>0.323854</v>
       </c>
       <c r="F86" t="n">
-        <v>0.686842</v>
+        <v>0.685522</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.422392</v>
+        <v>0.421016</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8347869999999999</v>
+        <v>0.8358449999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>1.12271</v>
+        <v>1.11391</v>
       </c>
       <c r="E87" t="n">
-        <v>0.31792</v>
+        <v>0.316078</v>
       </c>
       <c r="F87" t="n">
-        <v>0.674288</v>
+        <v>0.673129</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.442377</v>
+        <v>0.436194</v>
       </c>
       <c r="C88" t="n">
-        <v>0.821254</v>
+        <v>0.815589</v>
       </c>
       <c r="D88" t="n">
-        <v>1.12797</v>
+        <v>1.12124</v>
       </c>
       <c r="E88" t="n">
-        <v>0.311683</v>
+        <v>0.308017</v>
       </c>
       <c r="F88" t="n">
-        <v>0.661232</v>
+        <v>0.658547</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.433196</v>
+        <v>0.418467</v>
       </c>
       <c r="C89" t="n">
-        <v>0.811175</v>
+        <v>0.8046410000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>1.13502</v>
+        <v>1.12373</v>
       </c>
       <c r="E89" t="n">
-        <v>0.307251</v>
+        <v>0.300576</v>
       </c>
       <c r="F89" t="n">
-        <v>0.645921</v>
+        <v>0.648724</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.419429</v>
+        <v>0.387611</v>
       </c>
       <c r="C90" t="n">
-        <v>0.796818</v>
+        <v>0.798596</v>
       </c>
       <c r="D90" t="n">
-        <v>1.13433</v>
+        <v>1.13673</v>
       </c>
       <c r="E90" t="n">
-        <v>0.298753</v>
+        <v>0.294587</v>
       </c>
       <c r="F90" t="n">
-        <v>0.635907</v>
+        <v>0.637181</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.390931</v>
+        <v>0.408802</v>
       </c>
       <c r="C91" t="n">
-        <v>0.783354</v>
+        <v>0.783758</v>
       </c>
       <c r="D91" t="n">
-        <v>1.14318</v>
+        <v>1.14854</v>
       </c>
       <c r="E91" t="n">
-        <v>0.289828</v>
+        <v>0.29096</v>
       </c>
       <c r="F91" t="n">
-        <v>0.627343</v>
+        <v>0.628403</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.41495</v>
+        <v>0.403737</v>
       </c>
       <c r="C92" t="n">
-        <v>0.780365</v>
+        <v>0.775734</v>
       </c>
       <c r="D92" t="n">
-        <v>1.69099</v>
+        <v>1.68723</v>
       </c>
       <c r="E92" t="n">
-        <v>0.289284</v>
+        <v>0.284937</v>
       </c>
       <c r="F92" t="n">
-        <v>0.621498</v>
+        <v>0.620027</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.408048</v>
+        <v>0.395557</v>
       </c>
       <c r="C93" t="n">
-        <v>0.770886</v>
+        <v>0.771364</v>
       </c>
       <c r="D93" t="n">
-        <v>1.68806</v>
+        <v>1.6811</v>
       </c>
       <c r="E93" t="n">
-        <v>0.287195</v>
+        <v>0.283013</v>
       </c>
       <c r="F93" t="n">
-        <v>0.614088</v>
+        <v>0.614928</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.394864</v>
+        <v>0.396193</v>
       </c>
       <c r="C94" t="n">
-        <v>0.768236</v>
+        <v>0.76396</v>
       </c>
       <c r="D94" t="n">
-        <v>1.67362</v>
+        <v>1.67357</v>
       </c>
       <c r="E94" t="n">
-        <v>0.485922</v>
+        <v>0.487421</v>
       </c>
       <c r="F94" t="n">
-        <v>1.1033</v>
+        <v>1.10469</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.593607</v>
+        <v>0.602449</v>
       </c>
       <c r="C95" t="n">
-        <v>1.16628</v>
+        <v>1.17485</v>
       </c>
       <c r="D95" t="n">
-        <v>1.66642</v>
+        <v>1.66332</v>
       </c>
       <c r="E95" t="n">
-        <v>0.481369</v>
+        <v>0.481578</v>
       </c>
       <c r="F95" t="n">
-        <v>1.09302</v>
+        <v>1.09931</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.600056</v>
+        <v>0.587186</v>
       </c>
       <c r="C96" t="n">
-        <v>1.18913</v>
+        <v>1.16907</v>
       </c>
       <c r="D96" t="n">
-        <v>1.65721</v>
+        <v>1.65552</v>
       </c>
       <c r="E96" t="n">
-        <v>0.470443</v>
+        <v>0.467706</v>
       </c>
       <c r="F96" t="n">
-        <v>1.08562</v>
+        <v>1.08568</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.585578</v>
+        <v>0.59887</v>
       </c>
       <c r="C97" t="n">
-        <v>1.17867</v>
+        <v>1.17763</v>
       </c>
       <c r="D97" t="n">
-        <v>1.64969</v>
+        <v>1.64769</v>
       </c>
       <c r="E97" t="n">
-        <v>0.457886</v>
+        <v>0.453955</v>
       </c>
       <c r="F97" t="n">
-        <v>1.04839</v>
+        <v>1.06864</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.589706</v>
+        <v>0.579799</v>
       </c>
       <c r="C98" t="n">
-        <v>1.16019</v>
+        <v>1.16799</v>
       </c>
       <c r="D98" t="n">
-        <v>1.64666</v>
+        <v>1.64797</v>
       </c>
       <c r="E98" t="n">
-        <v>0.44681</v>
+        <v>0.444273</v>
       </c>
       <c r="F98" t="n">
-        <v>1.04166</v>
+        <v>1.04836</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.577027</v>
+        <v>0.5906979999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>1.13278</v>
+        <v>1.14752</v>
       </c>
       <c r="D99" t="n">
-        <v>1.64771</v>
+        <v>1.64554</v>
       </c>
       <c r="E99" t="n">
-        <v>0.430943</v>
+        <v>0.431225</v>
       </c>
       <c r="F99" t="n">
-        <v>1.0147</v>
+        <v>1.0235</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.560459</v>
+        <v>0.551794</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13602</v>
+        <v>1.13429</v>
       </c>
       <c r="D100" t="n">
-        <v>1.65087</v>
+        <v>1.64822</v>
       </c>
       <c r="E100" t="n">
-        <v>0.422277</v>
+        <v>0.419564</v>
       </c>
       <c r="F100" t="n">
-        <v>1.00934</v>
+        <v>1.01742</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.549751</v>
+        <v>0.556544</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12141</v>
+        <v>1.12316</v>
       </c>
       <c r="D101" t="n">
-        <v>1.6529</v>
+        <v>1.65136</v>
       </c>
       <c r="E101" t="n">
-        <v>0.410857</v>
+        <v>0.409777</v>
       </c>
       <c r="F101" t="n">
-        <v>0.996403</v>
+        <v>0.993014</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.558841</v>
+        <v>0.53413</v>
       </c>
       <c r="C102" t="n">
-        <v>1.09958</v>
+        <v>1.10036</v>
       </c>
       <c r="D102" t="n">
-        <v>1.65897</v>
+        <v>1.65813</v>
       </c>
       <c r="E102" t="n">
-        <v>0.401536</v>
+        <v>0.401363</v>
       </c>
       <c r="F102" t="n">
-        <v>0.981159</v>
+        <v>0.978033</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.547211</v>
+        <v>0.534224</v>
       </c>
       <c r="C103" t="n">
-        <v>1.08562</v>
+        <v>1.07522</v>
       </c>
       <c r="D103" t="n">
-        <v>1.67237</v>
+        <v>1.67044</v>
       </c>
       <c r="E103" t="n">
-        <v>0.393056</v>
+        <v>0.394684</v>
       </c>
       <c r="F103" t="n">
-        <v>0.96476</v>
+        <v>0.97085</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.526685</v>
+        <v>0.52725</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06242</v>
+        <v>1.07699</v>
       </c>
       <c r="D104" t="n">
-        <v>1.67632</v>
+        <v>1.68268</v>
       </c>
       <c r="E104" t="n">
-        <v>0.382265</v>
+        <v>0.380592</v>
       </c>
       <c r="F104" t="n">
-        <v>0.937785</v>
+        <v>0.94776</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.526071</v>
+        <v>0.518649</v>
       </c>
       <c r="C105" t="n">
-        <v>1.06578</v>
+        <v>1.05173</v>
       </c>
       <c r="D105" t="n">
-        <v>1.69822</v>
+        <v>1.69779</v>
       </c>
       <c r="E105" t="n">
-        <v>0.374068</v>
+        <v>0.376263</v>
       </c>
       <c r="F105" t="n">
-        <v>0.948939</v>
+        <v>0.946863</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.528124</v>
+        <v>0.519567</v>
       </c>
       <c r="C106" t="n">
-        <v>1.06378</v>
+        <v>1.06189</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71136</v>
+        <v>1.71288</v>
       </c>
       <c r="E106" t="n">
-        <v>0.368353</v>
+        <v>0.369073</v>
       </c>
       <c r="F106" t="n">
-        <v>0.939477</v>
+        <v>0.940282</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.523809</v>
+        <v>0.515034</v>
       </c>
       <c r="C107" t="n">
-        <v>1.06967</v>
+        <v>1.07016</v>
       </c>
       <c r="D107" t="n">
-        <v>2.2778</v>
+        <v>2.27995</v>
       </c>
       <c r="E107" t="n">
-        <v>0.369464</v>
+        <v>0.364841</v>
       </c>
       <c r="F107" t="n">
-        <v>0.923795</v>
+        <v>0.9241780000000001</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.514045</v>
+        <v>0.509607</v>
       </c>
       <c r="C108" t="n">
-        <v>1.05813</v>
+        <v>1.05507</v>
       </c>
       <c r="D108" t="n">
-        <v>2.25357</v>
+        <v>2.25745</v>
       </c>
       <c r="E108" t="n">
-        <v>0.52844</v>
+        <v>0.574317</v>
       </c>
       <c r="F108" t="n">
-        <v>2.3909</v>
+        <v>2.41532</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.508992</v>
+        <v>0.500173</v>
       </c>
       <c r="C109" t="n">
-        <v>1.05124</v>
+        <v>1.05126</v>
       </c>
       <c r="D109" t="n">
-        <v>2.23607</v>
+        <v>2.23519</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5670500000000001</v>
+        <v>0.567962</v>
       </c>
       <c r="F109" t="n">
-        <v>2.4277</v>
+        <v>2.42249</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.727864</v>
+        <v>0.737924</v>
       </c>
       <c r="C110" t="n">
-        <v>2.65381</v>
+        <v>2.669</v>
       </c>
       <c r="D110" t="n">
-        <v>2.21727</v>
+        <v>2.21552</v>
       </c>
       <c r="E110" t="n">
-        <v>0.551381</v>
+        <v>0.550295</v>
       </c>
       <c r="F110" t="n">
-        <v>2.43377</v>
+        <v>2.39615</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.722297</v>
+        <v>0.721265</v>
       </c>
       <c r="C111" t="n">
-        <v>2.66486</v>
+        <v>2.65453</v>
       </c>
       <c r="D111" t="n">
-        <v>2.20106</v>
+        <v>2.20339</v>
       </c>
       <c r="E111" t="n">
-        <v>0.53806</v>
+        <v>0.5395489999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>2.40475</v>
+        <v>2.43943</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.674606</v>
+        <v>0.709135</v>
       </c>
       <c r="C112" t="n">
-        <v>2.6579</v>
+        <v>2.66723</v>
       </c>
       <c r="D112" t="n">
-        <v>2.21134</v>
+        <v>2.19371</v>
       </c>
       <c r="E112" t="n">
-        <v>0.490381</v>
+        <v>0.486702</v>
       </c>
       <c r="F112" t="n">
-        <v>2.40293</v>
+        <v>2.43976</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.692364</v>
+        <v>0.699197</v>
       </c>
       <c r="C113" t="n">
-        <v>2.64857</v>
+        <v>2.67316</v>
       </c>
       <c r="D113" t="n">
-        <v>2.18637</v>
+        <v>2.20051</v>
       </c>
       <c r="E113" t="n">
-        <v>0.51857</v>
+        <v>0.478641</v>
       </c>
       <c r="F113" t="n">
-        <v>2.44679</v>
+        <v>2.42758</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.637143</v>
+        <v>0.675905</v>
       </c>
       <c r="C114" t="n">
-        <v>2.67326</v>
+        <v>2.67403</v>
       </c>
       <c r="D114" t="n">
-        <v>2.21815</v>
+        <v>2.21885</v>
       </c>
       <c r="E114" t="n">
-        <v>0.508007</v>
+        <v>0.505561</v>
       </c>
       <c r="F114" t="n">
-        <v>2.44198</v>
+        <v>2.42762</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.672891</v>
+        <v>0.678453</v>
       </c>
       <c r="C115" t="n">
-        <v>2.66885</v>
+        <v>2.68131</v>
       </c>
       <c r="D115" t="n">
-        <v>2.22622</v>
+        <v>2.231</v>
       </c>
       <c r="E115" t="n">
-        <v>0.496432</v>
+        <v>0.494976</v>
       </c>
       <c r="F115" t="n">
-        <v>2.42009</v>
+        <v>2.43461</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6621939999999999</v>
+        <v>0.6555800000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>2.66243</v>
+        <v>2.67592</v>
       </c>
       <c r="D116" t="n">
-        <v>2.23083</v>
+        <v>2.19511</v>
       </c>
       <c r="E116" t="n">
-        <v>0.481684</v>
+        <v>0.485275</v>
       </c>
       <c r="F116" t="n">
-        <v>2.42014</v>
+        <v>2.43634</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.652022</v>
+        <v>0.643167</v>
       </c>
       <c r="C117" t="n">
-        <v>2.66797</v>
+        <v>2.67295</v>
       </c>
       <c r="D117" t="n">
-        <v>2.23066</v>
+        <v>2.23312</v>
       </c>
       <c r="E117" t="n">
-        <v>0.474731</v>
+        <v>0.476938</v>
       </c>
       <c r="F117" t="n">
-        <v>2.42249</v>
+        <v>2.43209</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.636966</v>
+        <v>0.638529</v>
       </c>
       <c r="C118" t="n">
-        <v>2.66927</v>
+        <v>2.6711</v>
       </c>
       <c r="D118" t="n">
-        <v>2.18119</v>
+        <v>2.18159</v>
       </c>
       <c r="E118" t="n">
-        <v>0.434847</v>
+        <v>0.432335</v>
       </c>
       <c r="F118" t="n">
-        <v>2.2366</v>
+        <v>2.02251</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.630146</v>
+        <v>0.6270250000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>2.67982</v>
+        <v>2.68653</v>
       </c>
       <c r="D119" t="n">
-        <v>2.19191</v>
+        <v>2.18988</v>
       </c>
       <c r="E119" t="n">
-        <v>0.428209</v>
+        <v>0.426216</v>
       </c>
       <c r="F119" t="n">
-        <v>1.79096</v>
+        <v>2.25144</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.603683</v>
+        <v>0.613702</v>
       </c>
       <c r="C120" t="n">
-        <v>2.68887</v>
+        <v>2.70335</v>
       </c>
       <c r="D120" t="n">
-        <v>2.20307</v>
+        <v>2.19958</v>
       </c>
       <c r="E120" t="n">
-        <v>0.422479</v>
+        <v>0.419778</v>
       </c>
       <c r="F120" t="n">
-        <v>2.24021</v>
+        <v>2.02092</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.61476</v>
+        <v>0.609515</v>
       </c>
       <c r="C121" t="n">
-        <v>2.68935</v>
+        <v>2.70942</v>
       </c>
       <c r="D121" t="n">
-        <v>2.83844</v>
+        <v>2.84237</v>
       </c>
       <c r="E121" t="n">
-        <v>0.415033</v>
+        <v>0.440814</v>
       </c>
       <c r="F121" t="n">
-        <v>1.80565</v>
+        <v>2.44944</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.607583</v>
+        <v>0.5900879999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>2.70738</v>
+        <v>2.71471</v>
       </c>
       <c r="D122" t="n">
-        <v>2.79494</v>
+        <v>2.79387</v>
       </c>
       <c r="E122" t="n">
-        <v>0.413621</v>
+        <v>0.415844</v>
       </c>
       <c r="F122" t="n">
-        <v>1.571</v>
+        <v>1.32756</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.590466</v>
+        <v>0.603342</v>
       </c>
       <c r="C123" t="n">
-        <v>2.6895</v>
+        <v>2.70168</v>
       </c>
       <c r="D123" t="n">
-        <v>2.75379</v>
+        <v>2.74195</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6172530000000001</v>
+        <v>0.616368</v>
       </c>
       <c r="F123" t="n">
-        <v>2.91371</v>
+        <v>2.91327</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.805457</v>
+        <v>0.829742</v>
       </c>
       <c r="C124" t="n">
-        <v>3.22319</v>
+        <v>3.24185</v>
       </c>
       <c r="D124" t="n">
-        <v>2.72722</v>
+        <v>2.71502</v>
       </c>
       <c r="E124" t="n">
-        <v>0.608911</v>
+        <v>0.605729</v>
       </c>
       <c r="F124" t="n">
-        <v>2.90845</v>
+        <v>2.93748</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.791579</v>
+        <v>0.794699</v>
       </c>
       <c r="C125" t="n">
-        <v>3.22851</v>
+        <v>3.2423</v>
       </c>
       <c r="D125" t="n">
-        <v>2.7011</v>
+        <v>2.692</v>
       </c>
       <c r="E125" t="n">
-        <v>0.599724</v>
+        <v>0.599482</v>
       </c>
       <c r="F125" t="n">
-        <v>2.91631</v>
+        <v>2.9076</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.804686</v>
+        <v>0.79748</v>
       </c>
       <c r="C126" t="n">
-        <v>3.20625</v>
+        <v>3.22423</v>
       </c>
       <c r="D126" t="n">
-        <v>2.67456</v>
+        <v>2.66843</v>
       </c>
       <c r="E126" t="n">
-        <v>0.583223</v>
+        <v>0.607577</v>
       </c>
       <c r="F126" t="n">
-        <v>2.91082</v>
+        <v>2.9117</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.771374</v>
+        <v>0.786539</v>
       </c>
       <c r="C127" t="n">
-        <v>3.19627</v>
+        <v>3.20692</v>
       </c>
       <c r="D127" t="n">
-        <v>2.66551</v>
+        <v>2.64664</v>
       </c>
       <c r="E127" t="n">
-        <v>0.581705</v>
+        <v>0.582164</v>
       </c>
       <c r="F127" t="n">
-        <v>2.90953</v>
+        <v>2.90392</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7663759999999999</v>
+        <v>0.762768</v>
       </c>
       <c r="C128" t="n">
-        <v>3.19531</v>
+        <v>3.20868</v>
       </c>
       <c r="D128" t="n">
-        <v>2.63726</v>
+        <v>2.63184</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5661350000000001</v>
+        <v>0.574149</v>
       </c>
       <c r="F128" t="n">
-        <v>2.89542</v>
+        <v>2.90492</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.765829</v>
+        <v>0.76998</v>
       </c>
       <c r="C129" t="n">
-        <v>3.18086</v>
+        <v>3.19541</v>
       </c>
       <c r="D129" t="n">
-        <v>2.62025</v>
+        <v>2.61692</v>
       </c>
       <c r="E129" t="n">
-        <v>0.567137</v>
+        <v>0.56013</v>
       </c>
       <c r="F129" t="n">
-        <v>2.9098</v>
+        <v>2.90091</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.764763</v>
+        <v>0.75322</v>
       </c>
       <c r="C130" t="n">
-        <v>3.18851</v>
+        <v>3.19382</v>
       </c>
       <c r="D130" t="n">
-        <v>2.61754</v>
+        <v>2.6091</v>
       </c>
       <c r="E130" t="n">
-        <v>0.555605</v>
+        <v>0.528385</v>
       </c>
       <c r="F130" t="n">
-        <v>2.89079</v>
+        <v>2.89654</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.753665</v>
+        <v>0.747247</v>
       </c>
       <c r="C131" t="n">
-        <v>3.17572</v>
+        <v>3.18247</v>
       </c>
       <c r="D131" t="n">
-        <v>2.61073</v>
+        <v>2.60046</v>
       </c>
       <c r="E131" t="n">
-        <v>0.553356</v>
+        <v>0.5553</v>
       </c>
       <c r="F131" t="n">
-        <v>2.9084</v>
+        <v>2.91272</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.748344</v>
+        <v>0.725573</v>
       </c>
       <c r="C132" t="n">
-        <v>3.18048</v>
+        <v>3.18638</v>
       </c>
       <c r="D132" t="n">
-        <v>2.60244</v>
+        <v>2.60164</v>
       </c>
       <c r="E132" t="n">
-        <v>0.541442</v>
+        <v>0.540882</v>
       </c>
       <c r="F132" t="n">
-        <v>2.92094</v>
+        <v>2.92283</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.725325</v>
+        <v>0.717369</v>
       </c>
       <c r="C133" t="n">
-        <v>3.16457</v>
+        <v>3.17276</v>
       </c>
       <c r="D133" t="n">
-        <v>2.58248</v>
+        <v>2.59874</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5154029999999999</v>
+        <v>0.543041</v>
       </c>
       <c r="F133" t="n">
-        <v>2.90705</v>
+        <v>2.91439</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.720255</v>
+        <v>0.726176</v>
       </c>
       <c r="C134" t="n">
-        <v>3.15458</v>
+        <v>3.17221</v>
       </c>
       <c r="D134" t="n">
-        <v>2.57437</v>
+        <v>2.57819</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5059630000000001</v>
+        <v>0.512209</v>
       </c>
       <c r="F134" t="n">
-        <v>1.91733</v>
+        <v>2.67371</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.723848</v>
+        <v>0.729998</v>
       </c>
       <c r="C135" t="n">
-        <v>3.1645</v>
+        <v>3.17512</v>
       </c>
       <c r="D135" t="n">
-        <v>3.23703</v>
+        <v>3.2337</v>
       </c>
       <c r="E135" t="n">
-        <v>0.501949</v>
+        <v>0.506816</v>
       </c>
       <c r="F135" t="n">
-        <v>2.90482</v>
+        <v>2.9148</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.720647</v>
+        <v>0.721554</v>
       </c>
       <c r="C136" t="n">
-        <v>3.15522</v>
+        <v>3.16849</v>
       </c>
       <c r="D136" t="n">
-        <v>3.20055</v>
+        <v>3.17946</v>
       </c>
       <c r="E136" t="n">
-        <v>0.501695</v>
+        <v>0.502023</v>
       </c>
       <c r="F136" t="n">
-        <v>2.65815</v>
+        <v>2.67127</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.71035</v>
+        <v>0.684903</v>
       </c>
       <c r="C137" t="n">
-        <v>3.15691</v>
+        <v>3.16717</v>
       </c>
       <c r="D137" t="n">
-        <v>3.13667</v>
+        <v>3.13616</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7065360000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>3.35755</v>
+        <v>3.36277</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.930108</v>
+        <v>0.914615</v>
       </c>
       <c r="C138" t="n">
-        <v>3.6923</v>
+        <v>3.68418</v>
       </c>
       <c r="D138" t="n">
-        <v>3.10084</v>
+        <v>3.07864</v>
       </c>
       <c r="E138" t="n">
-        <v>0.691083</v>
+        <v>0.6982969999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>3.35918</v>
+        <v>3.34863</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.874882</v>
+        <v>0.9134330000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>3.64864</v>
+        <v>3.67249</v>
       </c>
       <c r="D139" t="n">
-        <v>3.05718</v>
+        <v>3.04957</v>
       </c>
       <c r="E139" t="n">
-        <v>0.685225</v>
+        <v>0.687155</v>
       </c>
       <c r="F139" t="n">
-        <v>3.33838</v>
+        <v>3.34483</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.899559</v>
+        <v>0.878562</v>
       </c>
       <c r="C140" t="n">
-        <v>3.61096</v>
+        <v>3.65991</v>
       </c>
       <c r="D140" t="n">
-        <v>3.02546</v>
+        <v>3.01803</v>
       </c>
       <c r="E140" t="n">
-        <v>0.676671</v>
+        <v>0.682589</v>
       </c>
       <c r="F140" t="n">
-        <v>3.3165</v>
+        <v>3.33097</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8777700000000001</v>
+        <v>0.896288</v>
       </c>
       <c r="C141" t="n">
-        <v>3.61922</v>
+        <v>3.62555</v>
       </c>
       <c r="D141" t="n">
-        <v>2.99716</v>
+        <v>2.99738</v>
       </c>
       <c r="E141" t="n">
-        <v>0.675694</v>
+        <v>0.671468</v>
       </c>
       <c r="F141" t="n">
-        <v>3.3034</v>
+        <v>3.31816</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.882144</v>
+        <v>0.881766</v>
       </c>
       <c r="C142" t="n">
-        <v>3.59461</v>
+        <v>3.60446</v>
       </c>
       <c r="D142" t="n">
-        <v>2.98653</v>
+        <v>2.97878</v>
       </c>
       <c r="E142" t="n">
-        <v>0.663697</v>
+        <v>0.668077</v>
       </c>
       <c r="F142" t="n">
-        <v>3.29703</v>
+        <v>3.30114</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8730059999999999</v>
+        <v>0.8617669999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>3.58496</v>
+        <v>3.58959</v>
       </c>
       <c r="D143" t="n">
-        <v>2.95898</v>
+        <v>2.9568</v>
       </c>
       <c r="E143" t="n">
-        <v>0.662505</v>
+        <v>0.680052</v>
       </c>
       <c r="F143" t="n">
-        <v>3.29598</v>
+        <v>3.28066</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.254242</v>
+        <v>0.247094</v>
       </c>
       <c r="C2" t="n">
-        <v>0.426168</v>
+        <v>0.42092</v>
       </c>
       <c r="D2" t="n">
-        <v>0.570116</v>
+        <v>0.54806</v>
       </c>
       <c r="E2" t="n">
-        <v>0.196164</v>
+        <v>0.194727</v>
       </c>
       <c r="F2" t="n">
-        <v>0.377978</v>
+        <v>0.372277</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.246328</v>
+        <v>0.241576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.418996</v>
+        <v>0.414678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5606370000000001</v>
+        <v>0.5411820000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.190983</v>
+        <v>0.188259</v>
       </c>
       <c r="F3" t="n">
-        <v>0.372064</v>
+        <v>0.365107</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.241146</v>
+        <v>0.236877</v>
       </c>
       <c r="C4" t="n">
-        <v>0.412743</v>
+        <v>0.408848</v>
       </c>
       <c r="D4" t="n">
-        <v>0.554666</v>
+        <v>0.534505</v>
       </c>
       <c r="E4" t="n">
-        <v>0.183741</v>
+        <v>0.182555</v>
       </c>
       <c r="F4" t="n">
-        <v>0.36637</v>
+        <v>0.359538</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.239178</v>
+        <v>0.230863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.407918</v>
+        <v>0.40177</v>
       </c>
       <c r="D5" t="n">
-        <v>0.547966</v>
+        <v>0.528675</v>
       </c>
       <c r="E5" t="n">
-        <v>0.180921</v>
+        <v>0.17765</v>
       </c>
       <c r="F5" t="n">
-        <v>0.361747</v>
+        <v>0.354951</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232422</v>
+        <v>0.225476</v>
       </c>
       <c r="C6" t="n">
-        <v>0.40418</v>
+        <v>0.398319</v>
       </c>
       <c r="D6" t="n">
-        <v>0.543303</v>
+        <v>0.5233910000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.174894</v>
+        <v>0.175293</v>
       </c>
       <c r="F6" t="n">
-        <v>0.358809</v>
+        <v>0.351802</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.234097</v>
+        <v>0.221559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.399647</v>
+        <v>0.394158</v>
       </c>
       <c r="D7" t="n">
-        <v>0.703439</v>
+        <v>0.67602</v>
       </c>
       <c r="E7" t="n">
-        <v>0.173654</v>
+        <v>0.171922</v>
       </c>
       <c r="F7" t="n">
-        <v>0.356328</v>
+        <v>0.34962</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.225351</v>
+        <v>0.222658</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398022</v>
+        <v>0.393772</v>
       </c>
       <c r="D8" t="n">
-        <v>0.686818</v>
+        <v>0.660237</v>
       </c>
       <c r="E8" t="n">
-        <v>0.174801</v>
+        <v>0.172599</v>
       </c>
       <c r="F8" t="n">
-        <v>0.356727</v>
+        <v>0.350556</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226415</v>
+        <v>0.222984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.398222</v>
+        <v>0.391485</v>
       </c>
       <c r="D9" t="n">
-        <v>0.672587</v>
+        <v>0.647795</v>
       </c>
       <c r="E9" t="n">
-        <v>0.265242</v>
+        <v>0.266074</v>
       </c>
       <c r="F9" t="n">
-        <v>0.437416</v>
+        <v>0.434814</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.31516</v>
+        <v>0.308843</v>
       </c>
       <c r="C10" t="n">
-        <v>0.487054</v>
+        <v>0.488138</v>
       </c>
       <c r="D10" t="n">
-        <v>0.658351</v>
+        <v>0.636473</v>
       </c>
       <c r="E10" t="n">
-        <v>0.254191</v>
+        <v>0.255633</v>
       </c>
       <c r="F10" t="n">
-        <v>0.427987</v>
+        <v>0.425009</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.301197</v>
+        <v>0.30224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.477194</v>
+        <v>0.47808</v>
       </c>
       <c r="D11" t="n">
-        <v>0.644732</v>
+        <v>0.623924</v>
       </c>
       <c r="E11" t="n">
-        <v>0.246804</v>
+        <v>0.25324</v>
       </c>
       <c r="F11" t="n">
-        <v>0.418948</v>
+        <v>0.418298</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.300854</v>
+        <v>0.294855</v>
       </c>
       <c r="C12" t="n">
-        <v>0.467275</v>
+        <v>0.470735</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6334920000000001</v>
+        <v>0.612202</v>
       </c>
       <c r="E12" t="n">
-        <v>0.237582</v>
+        <v>0.237642</v>
       </c>
       <c r="F12" t="n">
-        <v>0.410315</v>
+        <v>0.409463</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.287308</v>
+        <v>0.28182</v>
       </c>
       <c r="C13" t="n">
-        <v>0.457911</v>
+        <v>0.46129</v>
       </c>
       <c r="D13" t="n">
-        <v>0.62298</v>
+        <v>0.6029369999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.230103</v>
+        <v>0.23085</v>
       </c>
       <c r="F13" t="n">
-        <v>0.402865</v>
+        <v>0.400978</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.279828</v>
+        <v>0.279619</v>
       </c>
       <c r="C14" t="n">
-        <v>0.449232</v>
+        <v>0.453379</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6135620000000001</v>
+        <v>0.593705</v>
       </c>
       <c r="E14" t="n">
-        <v>0.224226</v>
+        <v>0.22774</v>
       </c>
       <c r="F14" t="n">
-        <v>0.394545</v>
+        <v>0.392696</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.274169</v>
+        <v>0.270051</v>
       </c>
       <c r="C15" t="n">
-        <v>0.441268</v>
+        <v>0.443507</v>
       </c>
       <c r="D15" t="n">
-        <v>0.605891</v>
+        <v>0.5866710000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.215873</v>
+        <v>0.215882</v>
       </c>
       <c r="F15" t="n">
-        <v>0.387364</v>
+        <v>0.385279</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270374</v>
+        <v>0.260748</v>
       </c>
       <c r="C16" t="n">
-        <v>0.43461</v>
+        <v>0.435485</v>
       </c>
       <c r="D16" t="n">
-        <v>0.597373</v>
+        <v>0.578636</v>
       </c>
       <c r="E16" t="n">
-        <v>0.209629</v>
+        <v>0.210416</v>
       </c>
       <c r="F16" t="n">
-        <v>0.380641</v>
+        <v>0.378152</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.262897</v>
+        <v>0.255747</v>
       </c>
       <c r="C17" t="n">
-        <v>0.429677</v>
+        <v>0.428233</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5901189999999999</v>
+        <v>0.573485</v>
       </c>
       <c r="E17" t="n">
-        <v>0.204032</v>
+        <v>0.204741</v>
       </c>
       <c r="F17" t="n">
-        <v>0.37435</v>
+        <v>0.371764</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254053</v>
+        <v>0.249646</v>
       </c>
       <c r="C18" t="n">
-        <v>0.424231</v>
+        <v>0.422068</v>
       </c>
       <c r="D18" t="n">
-        <v>0.581516</v>
+        <v>0.564852</v>
       </c>
       <c r="E18" t="n">
-        <v>0.199354</v>
+        <v>0.200142</v>
       </c>
       <c r="F18" t="n">
-        <v>0.36882</v>
+        <v>0.365802</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.247405</v>
+        <v>0.250254</v>
       </c>
       <c r="C19" t="n">
-        <v>0.417776</v>
+        <v>0.416489</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5754590000000001</v>
+        <v>0.559442</v>
       </c>
       <c r="E19" t="n">
-        <v>0.195045</v>
+        <v>0.195372</v>
       </c>
       <c r="F19" t="n">
-        <v>0.365278</v>
+        <v>0.359422</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.241895</v>
+        <v>0.239422</v>
       </c>
       <c r="C20" t="n">
-        <v>0.414366</v>
+        <v>0.411412</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5691929999999999</v>
+        <v>0.555571</v>
       </c>
       <c r="E20" t="n">
-        <v>0.192919</v>
+        <v>0.191151</v>
       </c>
       <c r="F20" t="n">
-        <v>0.36145</v>
+        <v>0.354352</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242901</v>
+        <v>0.236641</v>
       </c>
       <c r="C21" t="n">
-        <v>0.407525</v>
+        <v>0.405957</v>
       </c>
       <c r="D21" t="n">
-        <v>0.758175</v>
+        <v>0.730607</v>
       </c>
       <c r="E21" t="n">
-        <v>0.19195</v>
+        <v>0.190656</v>
       </c>
       <c r="F21" t="n">
-        <v>0.35921</v>
+        <v>0.352311</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.241576</v>
+        <v>0.241035</v>
       </c>
       <c r="C22" t="n">
-        <v>0.40552</v>
+        <v>0.404051</v>
       </c>
       <c r="D22" t="n">
-        <v>0.740435</v>
+        <v>0.719276</v>
       </c>
       <c r="E22" t="n">
-        <v>0.193299</v>
+        <v>0.191969</v>
       </c>
       <c r="F22" t="n">
-        <v>0.359897</v>
+        <v>0.353607</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.238579</v>
+        <v>0.242109</v>
       </c>
       <c r="C23" t="n">
-        <v>0.40442</v>
+        <v>0.403551</v>
       </c>
       <c r="D23" t="n">
-        <v>0.723203</v>
+        <v>0.70262</v>
       </c>
       <c r="E23" t="n">
-        <v>0.28595</v>
+        <v>0.283463</v>
       </c>
       <c r="F23" t="n">
-        <v>0.447649</v>
+        <v>0.443284</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.322068</v>
+        <v>0.315525</v>
       </c>
       <c r="C24" t="n">
-        <v>0.500394</v>
+        <v>0.507515</v>
       </c>
       <c r="D24" t="n">
-        <v>0.710338</v>
+        <v>0.689515</v>
       </c>
       <c r="E24" t="n">
-        <v>0.276647</v>
+        <v>0.276139</v>
       </c>
       <c r="F24" t="n">
-        <v>0.43738</v>
+        <v>0.434187</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.316119</v>
+        <v>0.313041</v>
       </c>
       <c r="C25" t="n">
-        <v>0.489231</v>
+        <v>0.498589</v>
       </c>
       <c r="D25" t="n">
-        <v>0.696508</v>
+        <v>0.677557</v>
       </c>
       <c r="E25" t="n">
-        <v>0.264306</v>
+        <v>0.266108</v>
       </c>
       <c r="F25" t="n">
-        <v>0.428349</v>
+        <v>0.424565</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.303031</v>
+        <v>0.305982</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4793</v>
+        <v>0.488061</v>
       </c>
       <c r="D26" t="n">
-        <v>0.684211</v>
+        <v>0.6646069999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.255206</v>
+        <v>0.255186</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4199</v>
+        <v>0.414989</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294522</v>
+        <v>0.294663</v>
       </c>
       <c r="C27" t="n">
-        <v>0.469392</v>
+        <v>0.477272</v>
       </c>
       <c r="D27" t="n">
-        <v>0.673021</v>
+        <v>0.65455</v>
       </c>
       <c r="E27" t="n">
-        <v>0.246753</v>
+        <v>0.248258</v>
       </c>
       <c r="F27" t="n">
-        <v>0.41119</v>
+        <v>0.405655</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286363</v>
+        <v>0.283977</v>
       </c>
       <c r="C28" t="n">
-        <v>0.462602</v>
+        <v>0.468354</v>
       </c>
       <c r="D28" t="n">
-        <v>0.661893</v>
+        <v>0.643806</v>
       </c>
       <c r="E28" t="n">
-        <v>0.240919</v>
+        <v>0.238396</v>
       </c>
       <c r="F28" t="n">
-        <v>0.403435</v>
+        <v>0.397794</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28149</v>
+        <v>0.277225</v>
       </c>
       <c r="C29" t="n">
-        <v>0.454664</v>
+        <v>0.460749</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6520319999999999</v>
+        <v>0.635701</v>
       </c>
       <c r="E29" t="n">
-        <v>0.232322</v>
+        <v>0.230661</v>
       </c>
       <c r="F29" t="n">
-        <v>0.395998</v>
+        <v>0.390404</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.277075</v>
+        <v>0.267931</v>
       </c>
       <c r="C30" t="n">
-        <v>0.447914</v>
+        <v>0.451303</v>
       </c>
       <c r="D30" t="n">
-        <v>0.644266</v>
+        <v>0.627509</v>
       </c>
       <c r="E30" t="n">
-        <v>0.225978</v>
+        <v>0.223873</v>
       </c>
       <c r="F30" t="n">
-        <v>0.388189</v>
+        <v>0.383516</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268909</v>
+        <v>0.262879</v>
       </c>
       <c r="C31" t="n">
-        <v>0.441051</v>
+        <v>0.444025</v>
       </c>
       <c r="D31" t="n">
-        <v>0.635508</v>
+        <v>0.620843</v>
       </c>
       <c r="E31" t="n">
-        <v>0.218671</v>
+        <v>0.217775</v>
       </c>
       <c r="F31" t="n">
-        <v>0.382223</v>
+        <v>0.377908</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261186</v>
+        <v>0.258625</v>
       </c>
       <c r="C32" t="n">
-        <v>0.434192</v>
+        <v>0.437239</v>
       </c>
       <c r="D32" t="n">
-        <v>0.62856</v>
+        <v>0.615134</v>
       </c>
       <c r="E32" t="n">
-        <v>0.213273</v>
+        <v>0.211931</v>
       </c>
       <c r="F32" t="n">
-        <v>0.376556</v>
+        <v>0.371086</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.261146</v>
+        <v>0.259558</v>
       </c>
       <c r="C33" t="n">
-        <v>0.428043</v>
+        <v>0.432195</v>
       </c>
       <c r="D33" t="n">
-        <v>0.622228</v>
+        <v>0.609473</v>
       </c>
       <c r="E33" t="n">
-        <v>0.211848</v>
+        <v>0.206566</v>
       </c>
       <c r="F33" t="n">
-        <v>0.37148</v>
+        <v>0.366308</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.250134</v>
+        <v>0.248302</v>
       </c>
       <c r="C34" t="n">
-        <v>0.423174</v>
+        <v>0.424097</v>
       </c>
       <c r="D34" t="n">
-        <v>0.616265</v>
+        <v>0.60258</v>
       </c>
       <c r="E34" t="n">
-        <v>0.205431</v>
+        <v>0.203184</v>
       </c>
       <c r="F34" t="n">
-        <v>0.367693</v>
+        <v>0.362127</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247579</v>
+        <v>0.241431</v>
       </c>
       <c r="C35" t="n">
-        <v>0.421318</v>
+        <v>0.421006</v>
       </c>
       <c r="D35" t="n">
-        <v>0.814451</v>
+        <v>0.791428</v>
       </c>
       <c r="E35" t="n">
-        <v>0.203072</v>
+        <v>0.201131</v>
       </c>
       <c r="F35" t="n">
-        <v>0.364319</v>
+        <v>0.360233</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.240923</v>
+        <v>0.240034</v>
       </c>
       <c r="C36" t="n">
-        <v>0.416812</v>
+        <v>0.414818</v>
       </c>
       <c r="D36" t="n">
-        <v>0.795806</v>
+        <v>0.772635</v>
       </c>
       <c r="E36" t="n">
-        <v>0.201449</v>
+        <v>0.197739</v>
       </c>
       <c r="F36" t="n">
-        <v>0.36406</v>
+        <v>0.357832</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.240546</v>
+        <v>0.23838</v>
       </c>
       <c r="C37" t="n">
-        <v>0.413596</v>
+        <v>0.41604</v>
       </c>
       <c r="D37" t="n">
-        <v>0.777596</v>
+        <v>0.758467</v>
       </c>
       <c r="E37" t="n">
-        <v>0.296447</v>
+        <v>0.292542</v>
       </c>
       <c r="F37" t="n">
-        <v>0.455809</v>
+        <v>0.449513</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327154</v>
+        <v>0.322227</v>
       </c>
       <c r="C38" t="n">
-        <v>0.512246</v>
+        <v>0.541698</v>
       </c>
       <c r="D38" t="n">
-        <v>0.762045</v>
+        <v>0.7425659999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.283647</v>
+        <v>0.28369</v>
       </c>
       <c r="F38" t="n">
-        <v>0.446395</v>
+        <v>0.439897</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.317995</v>
+        <v>0.317642</v>
       </c>
       <c r="C39" t="n">
-        <v>0.508343</v>
+        <v>0.532466</v>
       </c>
       <c r="D39" t="n">
-        <v>0.746705</v>
+        <v>0.7272650000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.274389</v>
+        <v>0.270924</v>
       </c>
       <c r="F39" t="n">
-        <v>0.436232</v>
+        <v>0.429244</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.309346</v>
+        <v>0.306629</v>
       </c>
       <c r="C40" t="n">
-        <v>0.498447</v>
+        <v>0.511841</v>
       </c>
       <c r="D40" t="n">
-        <v>0.732468</v>
+        <v>0.714605</v>
       </c>
       <c r="E40" t="n">
-        <v>0.265668</v>
+        <v>0.261313</v>
       </c>
       <c r="F40" t="n">
-        <v>0.431402</v>
+        <v>0.422862</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.305498</v>
+        <v>0.297971</v>
       </c>
       <c r="C41" t="n">
-        <v>0.488612</v>
+        <v>0.503491</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7195</v>
+        <v>0.702388</v>
       </c>
       <c r="E41" t="n">
-        <v>0.258963</v>
+        <v>0.255103</v>
       </c>
       <c r="F41" t="n">
-        <v>0.422029</v>
+        <v>0.417308</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294936</v>
+        <v>0.290177</v>
       </c>
       <c r="C42" t="n">
-        <v>0.479486</v>
+        <v>0.497128</v>
       </c>
       <c r="D42" t="n">
-        <v>0.70863</v>
+        <v>0.6934360000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.248617</v>
+        <v>0.248002</v>
       </c>
       <c r="F42" t="n">
-        <v>0.416251</v>
+        <v>0.409803</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.287702</v>
+        <v>0.290134</v>
       </c>
       <c r="C43" t="n">
-        <v>0.471232</v>
+        <v>0.487706</v>
       </c>
       <c r="D43" t="n">
-        <v>0.698117</v>
+        <v>0.682874</v>
       </c>
       <c r="E43" t="n">
-        <v>0.242009</v>
+        <v>0.241187</v>
       </c>
       <c r="F43" t="n">
-        <v>0.408766</v>
+        <v>0.40245</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.279035</v>
+        <v>0.276215</v>
       </c>
       <c r="C44" t="n">
-        <v>0.464298</v>
+        <v>0.476283</v>
       </c>
       <c r="D44" t="n">
-        <v>0.688647</v>
+        <v>0.673438</v>
       </c>
       <c r="E44" t="n">
-        <v>0.234083</v>
+        <v>0.229918</v>
       </c>
       <c r="F44" t="n">
-        <v>0.402223</v>
+        <v>0.393966</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.275055</v>
+        <v>0.274483</v>
       </c>
       <c r="C45" t="n">
-        <v>0.45538</v>
+        <v>0.47086</v>
       </c>
       <c r="D45" t="n">
-        <v>0.68048</v>
+        <v>0.666037</v>
       </c>
       <c r="E45" t="n">
-        <v>0.229338</v>
+        <v>0.225186</v>
       </c>
       <c r="F45" t="n">
-        <v>0.397888</v>
+        <v>0.38575</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.275067</v>
+        <v>0.27587</v>
       </c>
       <c r="C46" t="n">
-        <v>0.448324</v>
+        <v>0.463846</v>
       </c>
       <c r="D46" t="n">
-        <v>0.672973</v>
+        <v>0.659206</v>
       </c>
       <c r="E46" t="n">
-        <v>0.222139</v>
+        <v>0.217882</v>
       </c>
       <c r="F46" t="n">
-        <v>0.390481</v>
+        <v>0.381806</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.27492</v>
+        <v>0.269081</v>
       </c>
       <c r="C47" t="n">
-        <v>0.442889</v>
+        <v>0.454098</v>
       </c>
       <c r="D47" t="n">
-        <v>0.665605</v>
+        <v>0.653278</v>
       </c>
       <c r="E47" t="n">
-        <v>0.217656</v>
+        <v>0.21241</v>
       </c>
       <c r="F47" t="n">
-        <v>0.387286</v>
+        <v>0.377236</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.260824</v>
+        <v>0.26163</v>
       </c>
       <c r="C48" t="n">
-        <v>0.438532</v>
+        <v>0.447963</v>
       </c>
       <c r="D48" t="n">
-        <v>0.658956</v>
+        <v>0.6470669999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>0.212671</v>
+        <v>0.208503</v>
       </c>
       <c r="F48" t="n">
-        <v>0.382822</v>
+        <v>0.37647</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.259233</v>
+        <v>0.260949</v>
       </c>
       <c r="C49" t="n">
-        <v>0.431545</v>
+        <v>0.447249</v>
       </c>
       <c r="D49" t="n">
-        <v>0.654328</v>
+        <v>0.643551</v>
       </c>
       <c r="E49" t="n">
-        <v>0.20905</v>
+        <v>0.206316</v>
       </c>
       <c r="F49" t="n">
-        <v>0.379975</v>
+        <v>0.371702</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.255038</v>
+        <v>0.254029</v>
       </c>
       <c r="C50" t="n">
-        <v>0.430431</v>
+        <v>0.439048</v>
       </c>
       <c r="D50" t="n">
-        <v>0.84329</v>
+        <v>0.822269</v>
       </c>
       <c r="E50" t="n">
-        <v>0.208264</v>
+        <v>0.204079</v>
       </c>
       <c r="F50" t="n">
-        <v>0.379666</v>
+        <v>0.369772</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.249758</v>
+        <v>0.254171</v>
       </c>
       <c r="C51" t="n">
-        <v>0.429241</v>
+        <v>0.43455</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8246869999999999</v>
+        <v>0.804204</v>
       </c>
       <c r="E51" t="n">
-        <v>0.308983</v>
+        <v>0.305526</v>
       </c>
       <c r="F51" t="n">
-        <v>0.477546</v>
+        <v>0.467659</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.25692</v>
+        <v>0.253659</v>
       </c>
       <c r="C52" t="n">
-        <v>0.428433</v>
+        <v>0.437063</v>
       </c>
       <c r="D52" t="n">
-        <v>0.807105</v>
+        <v>0.787891</v>
       </c>
       <c r="E52" t="n">
-        <v>0.300862</v>
+        <v>0.292845</v>
       </c>
       <c r="F52" t="n">
-        <v>0.468543</v>
+        <v>0.459838</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.334387</v>
+        <v>0.335257</v>
       </c>
       <c r="C53" t="n">
-        <v>0.537604</v>
+        <v>0.533772</v>
       </c>
       <c r="D53" t="n">
-        <v>0.790555</v>
+        <v>0.77169</v>
       </c>
       <c r="E53" t="n">
-        <v>0.290476</v>
+        <v>0.285187</v>
       </c>
       <c r="F53" t="n">
-        <v>0.459794</v>
+        <v>0.449261</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.333086</v>
+        <v>0.319895</v>
       </c>
       <c r="C54" t="n">
-        <v>0.528412</v>
+        <v>0.52929</v>
       </c>
       <c r="D54" t="n">
-        <v>0.773983</v>
+        <v>0.757309</v>
       </c>
       <c r="E54" t="n">
-        <v>0.281919</v>
+        <v>0.273667</v>
       </c>
       <c r="F54" t="n">
-        <v>0.449912</v>
+        <v>0.439225</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.321122</v>
+        <v>0.309083</v>
       </c>
       <c r="C55" t="n">
-        <v>0.520038</v>
+        <v>0.520225</v>
       </c>
       <c r="D55" t="n">
-        <v>0.760798</v>
+        <v>0.7450059999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.272381</v>
+        <v>0.266435</v>
       </c>
       <c r="F55" t="n">
-        <v>0.444107</v>
+        <v>0.432359</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.315379</v>
+        <v>0.305183</v>
       </c>
       <c r="C56" t="n">
-        <v>0.511283</v>
+        <v>0.512688</v>
       </c>
       <c r="D56" t="n">
-        <v>0.748283</v>
+        <v>0.732587</v>
       </c>
       <c r="E56" t="n">
-        <v>0.265115</v>
+        <v>0.256566</v>
       </c>
       <c r="F56" t="n">
-        <v>0.434654</v>
+        <v>0.426678</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.305069</v>
+        <v>0.296986</v>
       </c>
       <c r="C57" t="n">
-        <v>0.504517</v>
+        <v>0.503354</v>
       </c>
       <c r="D57" t="n">
-        <v>0.736218</v>
+        <v>0.72159</v>
       </c>
       <c r="E57" t="n">
-        <v>0.257681</v>
+        <v>0.249916</v>
       </c>
       <c r="F57" t="n">
-        <v>0.427466</v>
+        <v>0.417867</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.296035</v>
+        <v>0.293157</v>
       </c>
       <c r="C58" t="n">
-        <v>0.497461</v>
+        <v>0.493913</v>
       </c>
       <c r="D58" t="n">
-        <v>0.726021</v>
+        <v>0.712105</v>
       </c>
       <c r="E58" t="n">
-        <v>0.248849</v>
+        <v>0.243328</v>
       </c>
       <c r="F58" t="n">
-        <v>0.421298</v>
+        <v>0.411895</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.294611</v>
+        <v>0.288639</v>
       </c>
       <c r="C59" t="n">
-        <v>0.488351</v>
+        <v>0.485438</v>
       </c>
       <c r="D59" t="n">
-        <v>0.717064</v>
+        <v>0.703277</v>
       </c>
       <c r="E59" t="n">
-        <v>0.242926</v>
+        <v>0.236862</v>
       </c>
       <c r="F59" t="n">
-        <v>0.415645</v>
+        <v>0.409654</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.290295</v>
+        <v>0.280825</v>
       </c>
       <c r="C60" t="n">
-        <v>0.485303</v>
+        <v>0.478754</v>
       </c>
       <c r="D60" t="n">
-        <v>0.707774</v>
+        <v>0.695536</v>
       </c>
       <c r="E60" t="n">
-        <v>0.236772</v>
+        <v>0.228731</v>
       </c>
       <c r="F60" t="n">
-        <v>0.411325</v>
+        <v>0.402361</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284253</v>
+        <v>0.274535</v>
       </c>
       <c r="C61" t="n">
-        <v>0.479462</v>
+        <v>0.473819</v>
       </c>
       <c r="D61" t="n">
-        <v>0.699971</v>
+        <v>0.687503</v>
       </c>
       <c r="E61" t="n">
-        <v>0.231313</v>
+        <v>0.226118</v>
       </c>
       <c r="F61" t="n">
-        <v>0.407238</v>
+        <v>0.399949</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.278777</v>
+        <v>0.270102</v>
       </c>
       <c r="C62" t="n">
-        <v>0.474666</v>
+        <v>0.471773</v>
       </c>
       <c r="D62" t="n">
-        <v>0.692685</v>
+        <v>0.681608</v>
       </c>
       <c r="E62" t="n">
-        <v>0.227435</v>
+        <v>0.220225</v>
       </c>
       <c r="F62" t="n">
-        <v>0.404769</v>
+        <v>0.394814</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.269208</v>
+        <v>0.265384</v>
       </c>
       <c r="C63" t="n">
-        <v>0.469266</v>
+        <v>0.4655